--- a/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Production_2025.xlsx
+++ b/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Production_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="2880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="2976">
   <si>
     <t>Date</t>
   </si>
@@ -8654,6 +8654,294 @@
   </si>
   <si>
     <t>30.03.202596.0</t>
+  </si>
+  <si>
+    <t>31.03.20251.0</t>
+  </si>
+  <si>
+    <t>31.03.20252.0</t>
+  </si>
+  <si>
+    <t>31.03.20253.0</t>
+  </si>
+  <si>
+    <t>31.03.20254.0</t>
+  </si>
+  <si>
+    <t>31.03.20255.0</t>
+  </si>
+  <si>
+    <t>31.03.20256.0</t>
+  </si>
+  <si>
+    <t>31.03.20257.0</t>
+  </si>
+  <si>
+    <t>31.03.20258.0</t>
+  </si>
+  <si>
+    <t>31.03.20259.0</t>
+  </si>
+  <si>
+    <t>31.03.202510.0</t>
+  </si>
+  <si>
+    <t>31.03.202511.0</t>
+  </si>
+  <si>
+    <t>31.03.202512.0</t>
+  </si>
+  <si>
+    <t>31.03.202513.0</t>
+  </si>
+  <si>
+    <t>31.03.202514.0</t>
+  </si>
+  <si>
+    <t>31.03.202515.0</t>
+  </si>
+  <si>
+    <t>31.03.202516.0</t>
+  </si>
+  <si>
+    <t>31.03.202517.0</t>
+  </si>
+  <si>
+    <t>31.03.202518.0</t>
+  </si>
+  <si>
+    <t>31.03.202519.0</t>
+  </si>
+  <si>
+    <t>31.03.202520.0</t>
+  </si>
+  <si>
+    <t>31.03.202521.0</t>
+  </si>
+  <si>
+    <t>31.03.202522.0</t>
+  </si>
+  <si>
+    <t>31.03.202523.0</t>
+  </si>
+  <si>
+    <t>31.03.202524.0</t>
+  </si>
+  <si>
+    <t>31.03.202525.0</t>
+  </si>
+  <si>
+    <t>31.03.202526.0</t>
+  </si>
+  <si>
+    <t>31.03.202527.0</t>
+  </si>
+  <si>
+    <t>31.03.202528.0</t>
+  </si>
+  <si>
+    <t>31.03.202529.0</t>
+  </si>
+  <si>
+    <t>31.03.202530.0</t>
+  </si>
+  <si>
+    <t>31.03.202531.0</t>
+  </si>
+  <si>
+    <t>31.03.202532.0</t>
+  </si>
+  <si>
+    <t>31.03.202533.0</t>
+  </si>
+  <si>
+    <t>31.03.202534.0</t>
+  </si>
+  <si>
+    <t>31.03.202535.0</t>
+  </si>
+  <si>
+    <t>31.03.202536.0</t>
+  </si>
+  <si>
+    <t>31.03.202537.0</t>
+  </si>
+  <si>
+    <t>31.03.202538.0</t>
+  </si>
+  <si>
+    <t>31.03.202539.0</t>
+  </si>
+  <si>
+    <t>31.03.202540.0</t>
+  </si>
+  <si>
+    <t>31.03.202541.0</t>
+  </si>
+  <si>
+    <t>31.03.202542.0</t>
+  </si>
+  <si>
+    <t>31.03.202543.0</t>
+  </si>
+  <si>
+    <t>31.03.202544.0</t>
+  </si>
+  <si>
+    <t>31.03.202545.0</t>
+  </si>
+  <si>
+    <t>31.03.202546.0</t>
+  </si>
+  <si>
+    <t>31.03.202547.0</t>
+  </si>
+  <si>
+    <t>31.03.202548.0</t>
+  </si>
+  <si>
+    <t>31.03.202549.0</t>
+  </si>
+  <si>
+    <t>31.03.202550.0</t>
+  </si>
+  <si>
+    <t>31.03.202551.0</t>
+  </si>
+  <si>
+    <t>31.03.202552.0</t>
+  </si>
+  <si>
+    <t>31.03.202553.0</t>
+  </si>
+  <si>
+    <t>31.03.202554.0</t>
+  </si>
+  <si>
+    <t>31.03.202555.0</t>
+  </si>
+  <si>
+    <t>31.03.202556.0</t>
+  </si>
+  <si>
+    <t>31.03.202557.0</t>
+  </si>
+  <si>
+    <t>31.03.202558.0</t>
+  </si>
+  <si>
+    <t>31.03.202559.0</t>
+  </si>
+  <si>
+    <t>31.03.202560.0</t>
+  </si>
+  <si>
+    <t>31.03.202561.0</t>
+  </si>
+  <si>
+    <t>31.03.202562.0</t>
+  </si>
+  <si>
+    <t>31.03.202563.0</t>
+  </si>
+  <si>
+    <t>31.03.202564.0</t>
+  </si>
+  <si>
+    <t>31.03.202565.0</t>
+  </si>
+  <si>
+    <t>31.03.202566.0</t>
+  </si>
+  <si>
+    <t>31.03.202567.0</t>
+  </si>
+  <si>
+    <t>31.03.202568.0</t>
+  </si>
+  <si>
+    <t>31.03.202569.0</t>
+  </si>
+  <si>
+    <t>31.03.202570.0</t>
+  </si>
+  <si>
+    <t>31.03.202571.0</t>
+  </si>
+  <si>
+    <t>31.03.202572.0</t>
+  </si>
+  <si>
+    <t>31.03.202573.0</t>
+  </si>
+  <si>
+    <t>31.03.202574.0</t>
+  </si>
+  <si>
+    <t>31.03.202575.0</t>
+  </si>
+  <si>
+    <t>31.03.202576.0</t>
+  </si>
+  <si>
+    <t>31.03.202577.0</t>
+  </si>
+  <si>
+    <t>31.03.202578.0</t>
+  </si>
+  <si>
+    <t>31.03.202579.0</t>
+  </si>
+  <si>
+    <t>31.03.202580.0</t>
+  </si>
+  <si>
+    <t>31.03.202581.0</t>
+  </si>
+  <si>
+    <t>31.03.202582.0</t>
+  </si>
+  <si>
+    <t>31.03.202583.0</t>
+  </si>
+  <si>
+    <t>31.03.202584.0</t>
+  </si>
+  <si>
+    <t>31.03.202585.0</t>
+  </si>
+  <si>
+    <t>31.03.202586.0</t>
+  </si>
+  <si>
+    <t>31.03.202587.0</t>
+  </si>
+  <si>
+    <t>31.03.202588.0</t>
+  </si>
+  <si>
+    <t>31.03.202589.0</t>
+  </si>
+  <si>
+    <t>31.03.202590.0</t>
+  </si>
+  <si>
+    <t>31.03.202591.0</t>
+  </si>
+  <si>
+    <t>31.03.202592.0</t>
+  </si>
+  <si>
+    <t>31.03.202593.0</t>
+  </si>
+  <si>
+    <t>31.03.202594.0</t>
+  </si>
+  <si>
+    <t>31.03.202595.0</t>
+  </si>
+  <si>
+    <t>31.03.202596.0</t>
   </si>
 </sst>
 </file>
@@ -9015,7 +9303,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2877"/>
+  <dimension ref="A1:D2973"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -39955,7 +40243,7 @@
         <v>1</v>
       </c>
       <c r="C2210">
-        <v>5006</v>
+        <v>5412</v>
       </c>
       <c r="D2210" t="s">
         <v>2212</v>
@@ -39969,7 +40257,7 @@
         <v>2</v>
       </c>
       <c r="C2211">
-        <v>4956</v>
+        <v>5352</v>
       </c>
       <c r="D2211" t="s">
         <v>2213</v>
@@ -39983,7 +40271,7 @@
         <v>3</v>
       </c>
       <c r="C2212">
-        <v>4926</v>
+        <v>5302</v>
       </c>
       <c r="D2212" t="s">
         <v>2214</v>
@@ -39997,7 +40285,7 @@
         <v>4</v>
       </c>
       <c r="C2213">
-        <v>4886</v>
+        <v>5242</v>
       </c>
       <c r="D2213" t="s">
         <v>2215</v>
@@ -40011,7 +40299,7 @@
         <v>5</v>
       </c>
       <c r="C2214">
-        <v>5284</v>
+        <v>6344.9</v>
       </c>
       <c r="D2214" t="s">
         <v>2216</v>
@@ -40025,7 +40313,7 @@
         <v>6</v>
       </c>
       <c r="C2215">
-        <v>5254</v>
+        <v>6304.9</v>
       </c>
       <c r="D2215" t="s">
         <v>2217</v>
@@ -40039,7 +40327,7 @@
         <v>7</v>
       </c>
       <c r="C2216">
-        <v>5224</v>
+        <v>6264.9</v>
       </c>
       <c r="D2216" t="s">
         <v>2218</v>
@@ -40053,7 +40341,7 @@
         <v>8</v>
       </c>
       <c r="C2217">
-        <v>5194</v>
+        <v>6224.9</v>
       </c>
       <c r="D2217" t="s">
         <v>2219</v>
@@ -40067,7 +40355,7 @@
         <v>9</v>
       </c>
       <c r="C2218">
-        <v>5144</v>
+        <v>6002</v>
       </c>
       <c r="D2218" t="s">
         <v>2220</v>
@@ -40081,7 +40369,7 @@
         <v>10</v>
       </c>
       <c r="C2219">
-        <v>5134</v>
+        <v>5982</v>
       </c>
       <c r="D2219" t="s">
         <v>2221</v>
@@ -40095,7 +40383,7 @@
         <v>11</v>
       </c>
       <c r="C2220">
-        <v>5114</v>
+        <v>5962</v>
       </c>
       <c r="D2220" t="s">
         <v>2222</v>
@@ -40109,7 +40397,7 @@
         <v>12</v>
       </c>
       <c r="C2221">
-        <v>5094</v>
+        <v>5952</v>
       </c>
       <c r="D2221" t="s">
         <v>2223</v>
@@ -40123,7 +40411,7 @@
         <v>13</v>
       </c>
       <c r="C2222">
-        <v>5077</v>
+        <v>5763.3</v>
       </c>
       <c r="D2222" t="s">
         <v>2224</v>
@@ -40137,7 +40425,7 @@
         <v>14</v>
       </c>
       <c r="C2223">
-        <v>5067</v>
+        <v>5763.3</v>
       </c>
       <c r="D2223" t="s">
         <v>2225</v>
@@ -40151,7 +40439,7 @@
         <v>15</v>
       </c>
       <c r="C2224">
-        <v>5067</v>
+        <v>5763.3</v>
       </c>
       <c r="D2224" t="s">
         <v>2226</v>
@@ -40165,7 +40453,7 @@
         <v>16</v>
       </c>
       <c r="C2225">
-        <v>5077</v>
+        <v>5773.3</v>
       </c>
       <c r="D2225" t="s">
         <v>2227</v>
@@ -40179,7 +40467,7 @@
         <v>17</v>
       </c>
       <c r="C2226">
-        <v>5105</v>
+        <v>5523.5</v>
       </c>
       <c r="D2226" t="s">
         <v>2228</v>
@@ -40193,7 +40481,7 @@
         <v>18</v>
       </c>
       <c r="C2227">
-        <v>5145</v>
+        <v>5543.5</v>
       </c>
       <c r="D2227" t="s">
         <v>2229</v>
@@ -40207,7 +40495,7 @@
         <v>19</v>
       </c>
       <c r="C2228">
-        <v>5185</v>
+        <v>5573.5</v>
       </c>
       <c r="D2228" t="s">
         <v>2230</v>
@@ -40221,7 +40509,7 @@
         <v>20</v>
       </c>
       <c r="C2229">
-        <v>5235</v>
+        <v>5633.5</v>
       </c>
       <c r="D2229" t="s">
         <v>2231</v>
@@ -40235,7 +40523,7 @@
         <v>21</v>
       </c>
       <c r="C2230">
-        <v>5336</v>
+        <v>5270.5</v>
       </c>
       <c r="D2230" t="s">
         <v>2232</v>
@@ -40249,7 +40537,7 @@
         <v>22</v>
       </c>
       <c r="C2231">
-        <v>5416</v>
+        <v>5360.5</v>
       </c>
       <c r="D2231" t="s">
         <v>2233</v>
@@ -40263,7 +40551,7 @@
         <v>23</v>
       </c>
       <c r="C2232">
-        <v>5526</v>
+        <v>5470.5</v>
       </c>
       <c r="D2232" t="s">
         <v>2234</v>
@@ -40277,7 +40565,7 @@
         <v>24</v>
       </c>
       <c r="C2233">
-        <v>5656</v>
+        <v>5600.5</v>
       </c>
       <c r="D2233" t="s">
         <v>2235</v>
@@ -40291,7 +40579,7 @@
         <v>25</v>
       </c>
       <c r="C2234">
-        <v>5808</v>
+        <v>5233.8</v>
       </c>
       <c r="D2234" t="s">
         <v>2236</v>
@@ -40305,7 +40593,7 @@
         <v>26</v>
       </c>
       <c r="C2235">
-        <v>5968</v>
+        <v>5413.8</v>
       </c>
       <c r="D2235" t="s">
         <v>2237</v>
@@ -40319,7 +40607,7 @@
         <v>27</v>
       </c>
       <c r="C2236">
-        <v>6108</v>
+        <v>5593.8</v>
       </c>
       <c r="D2236" t="s">
         <v>2238</v>
@@ -40333,7 +40621,7 @@
         <v>28</v>
       </c>
       <c r="C2237">
-        <v>6278</v>
+        <v>5773.8</v>
       </c>
       <c r="D2237" t="s">
         <v>2239</v>
@@ -40347,7 +40635,7 @@
         <v>29</v>
       </c>
       <c r="C2238">
-        <v>6380</v>
+        <v>5536.3</v>
       </c>
       <c r="D2238" t="s">
         <v>2240</v>
@@ -40361,7 +40649,7 @@
         <v>30</v>
       </c>
       <c r="C2239">
-        <v>6530</v>
+        <v>5706.3</v>
       </c>
       <c r="D2239" t="s">
         <v>2241</v>
@@ -40375,7 +40663,7 @@
         <v>31</v>
       </c>
       <c r="C2240">
-        <v>6670</v>
+        <v>5856.3</v>
       </c>
       <c r="D2240" t="s">
         <v>2242</v>
@@ -40389,7 +40677,7 @@
         <v>32</v>
       </c>
       <c r="C2241">
-        <v>6780</v>
+        <v>5986.3</v>
       </c>
       <c r="D2241" t="s">
         <v>2243</v>
@@ -40403,7 +40691,7 @@
         <v>33</v>
       </c>
       <c r="C2242">
-        <v>7026</v>
+        <v>5880.1</v>
       </c>
       <c r="D2242" t="s">
         <v>2244</v>
@@ -40417,7 +40705,7 @@
         <v>34</v>
       </c>
       <c r="C2243">
-        <v>7066</v>
+        <v>5930.1</v>
       </c>
       <c r="D2243" t="s">
         <v>2245</v>
@@ -40431,7 +40719,7 @@
         <v>35</v>
       </c>
       <c r="C2244">
-        <v>7096</v>
+        <v>5950.1</v>
       </c>
       <c r="D2244" t="s">
         <v>2246</v>
@@ -40445,7 +40733,7 @@
         <v>36</v>
       </c>
       <c r="C2245">
-        <v>7096</v>
+        <v>5950.1</v>
       </c>
       <c r="D2245" t="s">
         <v>2247</v>
@@ -40459,7 +40747,7 @@
         <v>37</v>
       </c>
       <c r="C2246">
-        <v>7126</v>
+        <v>6085.2</v>
       </c>
       <c r="D2246" t="s">
         <v>2248</v>
@@ -40473,7 +40761,7 @@
         <v>38</v>
       </c>
       <c r="C2247">
-        <v>7116</v>
+        <v>6035.2</v>
       </c>
       <c r="D2247" t="s">
         <v>2249</v>
@@ -40487,7 +40775,7 @@
         <v>39</v>
       </c>
       <c r="C2248">
-        <v>7076</v>
+        <v>5975.2</v>
       </c>
       <c r="D2248" t="s">
         <v>2250</v>
@@ -40501,7 +40789,7 @@
         <v>40</v>
       </c>
       <c r="C2249">
-        <v>7036</v>
+        <v>5895.2</v>
       </c>
       <c r="D2249" t="s">
         <v>2251</v>
@@ -40515,7 +40803,7 @@
         <v>41</v>
       </c>
       <c r="C2250">
-        <v>6956</v>
+        <v>6133</v>
       </c>
       <c r="D2250" t="s">
         <v>2252</v>
@@ -40529,7 +40817,7 @@
         <v>42</v>
       </c>
       <c r="C2251">
-        <v>6886</v>
+        <v>6053</v>
       </c>
       <c r="D2251" t="s">
         <v>2253</v>
@@ -40543,7 +40831,7 @@
         <v>43</v>
       </c>
       <c r="C2252">
-        <v>6816</v>
+        <v>5973</v>
       </c>
       <c r="D2252" t="s">
         <v>2254</v>
@@ -40557,7 +40845,7 @@
         <v>44</v>
       </c>
       <c r="C2253">
-        <v>6746</v>
+        <v>5903</v>
       </c>
       <c r="D2253" t="s">
         <v>2255</v>
@@ -40571,7 +40859,7 @@
         <v>45</v>
       </c>
       <c r="C2254">
-        <v>6748</v>
+        <v>5994.2</v>
       </c>
       <c r="D2254" t="s">
         <v>2256</v>
@@ -40585,7 +40873,7 @@
         <v>46</v>
       </c>
       <c r="C2255">
-        <v>6698</v>
+        <v>5944.2</v>
       </c>
       <c r="D2255" t="s">
         <v>2257</v>
@@ -40599,7 +40887,7 @@
         <v>47</v>
       </c>
       <c r="C2256">
-        <v>6658</v>
+        <v>5894.2</v>
       </c>
       <c r="D2256" t="s">
         <v>2258</v>
@@ -40613,7 +40901,7 @@
         <v>48</v>
       </c>
       <c r="C2257">
-        <v>6618</v>
+        <v>5844.2</v>
       </c>
       <c r="D2257" t="s">
         <v>2259</v>
@@ -40627,7 +40915,7 @@
         <v>49</v>
       </c>
       <c r="C2258">
-        <v>6616</v>
+        <v>5842.7</v>
       </c>
       <c r="D2258" t="s">
         <v>2260</v>
@@ -40641,7 +40929,7 @@
         <v>50</v>
       </c>
       <c r="C2259">
-        <v>6586</v>
+        <v>5822.7</v>
       </c>
       <c r="D2259" t="s">
         <v>2261</v>
@@ -40655,7 +40943,7 @@
         <v>51</v>
       </c>
       <c r="C2260">
-        <v>6566</v>
+        <v>5812.7</v>
       </c>
       <c r="D2260" t="s">
         <v>2262</v>
@@ -40669,7 +40957,7 @@
         <v>52</v>
       </c>
       <c r="C2261">
-        <v>6546</v>
+        <v>5802.7</v>
       </c>
       <c r="D2261" t="s">
         <v>2263</v>
@@ -40683,7 +40971,7 @@
         <v>53</v>
       </c>
       <c r="C2262">
-        <v>6516</v>
+        <v>5587.6</v>
       </c>
       <c r="D2262" t="s">
         <v>2264</v>
@@ -40697,7 +40985,7 @@
         <v>54</v>
       </c>
       <c r="C2263">
-        <v>6516</v>
+        <v>5587.6</v>
       </c>
       <c r="D2263" t="s">
         <v>2265</v>
@@ -40711,7 +40999,7 @@
         <v>55</v>
       </c>
       <c r="C2264">
-        <v>6516</v>
+        <v>5587.6</v>
       </c>
       <c r="D2264" t="s">
         <v>2266</v>
@@ -40725,7 +41013,7 @@
         <v>56</v>
       </c>
       <c r="C2265">
-        <v>6526</v>
+        <v>5587.6</v>
       </c>
       <c r="D2265" t="s">
         <v>2267</v>
@@ -40739,7 +41027,7 @@
         <v>57</v>
       </c>
       <c r="C2266">
-        <v>6434</v>
+        <v>5522.2</v>
       </c>
       <c r="D2266" t="s">
         <v>2268</v>
@@ -40753,7 +41041,7 @@
         <v>58</v>
       </c>
       <c r="C2267">
-        <v>6454</v>
+        <v>5532.2</v>
       </c>
       <c r="D2267" t="s">
         <v>2269</v>
@@ -40767,7 +41055,7 @@
         <v>59</v>
       </c>
       <c r="C2268">
-        <v>6474</v>
+        <v>5542.2</v>
       </c>
       <c r="D2268" t="s">
         <v>2270</v>
@@ -40781,7 +41069,7 @@
         <v>60</v>
       </c>
       <c r="C2269">
-        <v>6504</v>
+        <v>5562.2</v>
       </c>
       <c r="D2269" t="s">
         <v>2271</v>
@@ -40795,7 +41083,7 @@
         <v>61</v>
       </c>
       <c r="C2270">
-        <v>6552</v>
+        <v>5510.7</v>
       </c>
       <c r="D2270" t="s">
         <v>2272</v>
@@ -40809,7 +41097,7 @@
         <v>62</v>
       </c>
       <c r="C2271">
-        <v>6572</v>
+        <v>5570.7</v>
       </c>
       <c r="D2271" t="s">
         <v>2273</v>
@@ -40823,7 +41111,7 @@
         <v>63</v>
       </c>
       <c r="C2272">
-        <v>6592</v>
+        <v>5620.7</v>
       </c>
       <c r="D2272" t="s">
         <v>2274</v>
@@ -40837,7 +41125,7 @@
         <v>64</v>
       </c>
       <c r="C2273">
-        <v>6622</v>
+        <v>5680.7</v>
       </c>
       <c r="D2273" t="s">
         <v>2275</v>
@@ -40851,7 +41139,7 @@
         <v>65</v>
       </c>
       <c r="C2274">
-        <v>6732</v>
+        <v>5487.9</v>
       </c>
       <c r="D2274" t="s">
         <v>2276</v>
@@ -40865,7 +41153,7 @@
         <v>66</v>
       </c>
       <c r="C2275">
-        <v>6792</v>
+        <v>5567.9</v>
       </c>
       <c r="D2275" t="s">
         <v>2277</v>
@@ -40879,7 +41167,7 @@
         <v>67</v>
       </c>
       <c r="C2276">
-        <v>6862</v>
+        <v>5647.9</v>
       </c>
       <c r="D2276" t="s">
         <v>2278</v>
@@ -40893,7 +41181,7 @@
         <v>68</v>
       </c>
       <c r="C2277">
-        <v>6962</v>
+        <v>5727.9</v>
       </c>
       <c r="D2277" t="s">
         <v>2279</v>
@@ -40907,7 +41195,7 @@
         <v>69</v>
       </c>
       <c r="C2278">
-        <v>6928</v>
+        <v>5511.6</v>
       </c>
       <c r="D2278" t="s">
         <v>2280</v>
@@ -40921,7 +41209,7 @@
         <v>70</v>
       </c>
       <c r="C2279">
-        <v>7048</v>
+        <v>5601.6</v>
       </c>
       <c r="D2279" t="s">
         <v>2281</v>
@@ -40935,7 +41223,7 @@
         <v>71</v>
       </c>
       <c r="C2280">
-        <v>7158</v>
+        <v>5701.6</v>
       </c>
       <c r="D2280" t="s">
         <v>2282</v>
@@ -40949,7 +41237,7 @@
         <v>72</v>
       </c>
       <c r="C2281">
-        <v>7268</v>
+        <v>5801.6</v>
       </c>
       <c r="D2281" t="s">
         <v>2283</v>
@@ -40963,7 +41251,7 @@
         <v>73</v>
       </c>
       <c r="C2282">
-        <v>7383</v>
+        <v>5774.3</v>
       </c>
       <c r="D2282" t="s">
         <v>2284</v>
@@ -40977,7 +41265,7 @@
         <v>74</v>
       </c>
       <c r="C2283">
-        <v>7493</v>
+        <v>5864.3</v>
       </c>
       <c r="D2283" t="s">
         <v>2285</v>
@@ -40991,7 +41279,7 @@
         <v>75</v>
       </c>
       <c r="C2284">
-        <v>7593</v>
+        <v>5964.3</v>
       </c>
       <c r="D2284" t="s">
         <v>2286</v>
@@ -41005,7 +41293,7 @@
         <v>76</v>
       </c>
       <c r="C2285">
-        <v>7683</v>
+        <v>6054.3</v>
       </c>
       <c r="D2285" t="s">
         <v>2287</v>
@@ -41019,7 +41307,7 @@
         <v>77</v>
       </c>
       <c r="C2286">
-        <v>7772</v>
+        <v>6374.7</v>
       </c>
       <c r="D2286" t="s">
         <v>2288</v>
@@ -41033,7 +41321,7 @@
         <v>78</v>
       </c>
       <c r="C2287">
-        <v>7832</v>
+        <v>6434.7</v>
       </c>
       <c r="D2287" t="s">
         <v>2289</v>
@@ -41047,7 +41335,7 @@
         <v>79</v>
       </c>
       <c r="C2288">
-        <v>7832</v>
+        <v>6444.7</v>
       </c>
       <c r="D2288" t="s">
         <v>2290</v>
@@ -41061,7 +41349,7 @@
         <v>80</v>
       </c>
       <c r="C2289">
-        <v>7822</v>
+        <v>6434.7</v>
       </c>
       <c r="D2289" t="s">
         <v>2291</v>
@@ -41075,7 +41363,7 @@
         <v>81</v>
       </c>
       <c r="C2290">
-        <v>7871</v>
+        <v>6537.4</v>
       </c>
       <c r="D2290" t="s">
         <v>2292</v>
@@ -41089,7 +41377,7 @@
         <v>82</v>
       </c>
       <c r="C2291">
-        <v>7851</v>
+        <v>6467.4</v>
       </c>
       <c r="D2291" t="s">
         <v>2293</v>
@@ -41103,7 +41391,7 @@
         <v>83</v>
       </c>
       <c r="C2292">
-        <v>7821</v>
+        <v>6407.4</v>
       </c>
       <c r="D2292" t="s">
         <v>2294</v>
@@ -41117,7 +41405,7 @@
         <v>84</v>
       </c>
       <c r="C2293">
-        <v>7761</v>
+        <v>6337.4</v>
       </c>
       <c r="D2293" t="s">
         <v>2295</v>
@@ -41131,7 +41419,7 @@
         <v>85</v>
       </c>
       <c r="C2294">
-        <v>7569</v>
+        <v>6314.2</v>
       </c>
       <c r="D2294" t="s">
         <v>2296</v>
@@ -41145,7 +41433,7 @@
         <v>86</v>
       </c>
       <c r="C2295">
-        <v>7449</v>
+        <v>6224.2</v>
       </c>
       <c r="D2295" t="s">
         <v>2297</v>
@@ -41159,7 +41447,7 @@
         <v>87</v>
       </c>
       <c r="C2296">
-        <v>7339</v>
+        <v>6124.2</v>
       </c>
       <c r="D2296" t="s">
         <v>2298</v>
@@ -41173,7 +41461,7 @@
         <v>88</v>
       </c>
       <c r="C2297">
-        <v>7209</v>
+        <v>5994.2</v>
       </c>
       <c r="D2297" t="s">
         <v>2299</v>
@@ -41187,7 +41475,7 @@
         <v>89</v>
       </c>
       <c r="C2298">
-        <v>7050</v>
+        <v>6319.8</v>
       </c>
       <c r="D2298" t="s">
         <v>2300</v>
@@ -41201,7 +41489,7 @@
         <v>90</v>
       </c>
       <c r="C2299">
-        <v>6920</v>
+        <v>6169.8</v>
       </c>
       <c r="D2299" t="s">
         <v>2301</v>
@@ -41215,7 +41503,7 @@
         <v>91</v>
       </c>
       <c r="C2300">
-        <v>6750</v>
+        <v>6009.8</v>
       </c>
       <c r="D2300" t="s">
         <v>2302</v>
@@ -41229,7 +41517,7 @@
         <v>92</v>
       </c>
       <c r="C2301">
-        <v>6580</v>
+        <v>5879.8</v>
       </c>
       <c r="D2301" t="s">
         <v>2303</v>
@@ -41243,7 +41531,7 @@
         <v>93</v>
       </c>
       <c r="C2302">
-        <v>6438</v>
+        <v>5997.7</v>
       </c>
       <c r="D2302" t="s">
         <v>2304</v>
@@ -41257,7 +41545,7 @@
         <v>94</v>
       </c>
       <c r="C2303">
-        <v>6278</v>
+        <v>5867.7</v>
       </c>
       <c r="D2303" t="s">
         <v>2305</v>
@@ -41271,7 +41559,7 @@
         <v>95</v>
       </c>
       <c r="C2304">
-        <v>6138</v>
+        <v>5757.7</v>
       </c>
       <c r="D2304" t="s">
         <v>2306</v>
@@ -41285,7 +41573,7 @@
         <v>96</v>
       </c>
       <c r="C2305">
-        <v>6008</v>
+        <v>5627.7</v>
       </c>
       <c r="D2305" t="s">
         <v>2307</v>
@@ -41299,7 +41587,7 @@
         <v>1</v>
       </c>
       <c r="C2306">
-        <v>5944</v>
+        <v>5942</v>
       </c>
       <c r="D2306" t="s">
         <v>2308</v>
@@ -41313,7 +41601,7 @@
         <v>2</v>
       </c>
       <c r="C2307">
-        <v>5894</v>
+        <v>5892</v>
       </c>
       <c r="D2307" t="s">
         <v>2309</v>
@@ -41327,7 +41615,7 @@
         <v>3</v>
       </c>
       <c r="C2308">
-        <v>5854</v>
+        <v>5852</v>
       </c>
       <c r="D2308" t="s">
         <v>2310</v>
@@ -41341,7 +41629,7 @@
         <v>4</v>
       </c>
       <c r="C2309">
-        <v>5804</v>
+        <v>5802</v>
       </c>
       <c r="D2309" t="s">
         <v>2311</v>
@@ -41355,7 +41643,7 @@
         <v>5</v>
       </c>
       <c r="C2310">
-        <v>5562</v>
+        <v>6884.9</v>
       </c>
       <c r="D2310" t="s">
         <v>2312</v>
@@ -41369,7 +41657,7 @@
         <v>6</v>
       </c>
       <c r="C2311">
-        <v>5522</v>
+        <v>6844.9</v>
       </c>
       <c r="D2311" t="s">
         <v>2313</v>
@@ -41383,7 +41671,7 @@
         <v>7</v>
       </c>
       <c r="C2312">
-        <v>5492</v>
+        <v>6814.9</v>
       </c>
       <c r="D2312" t="s">
         <v>2314</v>
@@ -41397,7 +41685,7 @@
         <v>8</v>
       </c>
       <c r="C2313">
-        <v>5452</v>
+        <v>6774.9</v>
       </c>
       <c r="D2313" t="s">
         <v>2315</v>
@@ -41411,7 +41699,7 @@
         <v>9</v>
       </c>
       <c r="C2314">
-        <v>5459</v>
+        <v>6562</v>
       </c>
       <c r="D2314" t="s">
         <v>2316</v>
@@ -41425,7 +41713,7 @@
         <v>10</v>
       </c>
       <c r="C2315">
-        <v>5449</v>
+        <v>6552</v>
       </c>
       <c r="D2315" t="s">
         <v>2317</v>
@@ -41439,7 +41727,7 @@
         <v>11</v>
       </c>
       <c r="C2316">
-        <v>5439</v>
+        <v>6542</v>
       </c>
       <c r="D2316" t="s">
         <v>2318</v>
@@ -41453,7 +41741,7 @@
         <v>12</v>
       </c>
       <c r="C2317">
-        <v>5429</v>
+        <v>6532</v>
       </c>
       <c r="D2317" t="s">
         <v>2319</v>
@@ -41467,7 +41755,7 @@
         <v>13</v>
       </c>
       <c r="C2318">
-        <v>5371</v>
+        <v>6333.3</v>
       </c>
       <c r="D2318" t="s">
         <v>2320</v>
@@ -41481,7 +41769,7 @@
         <v>14</v>
       </c>
       <c r="C2319">
-        <v>5351</v>
+        <v>6313.3</v>
       </c>
       <c r="D2319" t="s">
         <v>2321</v>
@@ -41495,7 +41783,7 @@
         <v>15</v>
       </c>
       <c r="C2320">
-        <v>5351</v>
+        <v>6313.3</v>
       </c>
       <c r="D2320" t="s">
         <v>2322</v>
@@ -41509,7 +41797,7 @@
         <v>16</v>
       </c>
       <c r="C2321">
-        <v>5361</v>
+        <v>6323.3</v>
       </c>
       <c r="D2321" t="s">
         <v>2323</v>
@@ -41523,7 +41811,7 @@
         <v>17</v>
       </c>
       <c r="C2322">
-        <v>5336</v>
+        <v>6073.5</v>
       </c>
       <c r="D2322" t="s">
         <v>2324</v>
@@ -41537,7 +41825,7 @@
         <v>18</v>
       </c>
       <c r="C2323">
-        <v>5356</v>
+        <v>6093.5</v>
       </c>
       <c r="D2323" t="s">
         <v>2325</v>
@@ -41551,7 +41839,7 @@
         <v>19</v>
       </c>
       <c r="C2324">
-        <v>5386</v>
+        <v>6123.5</v>
       </c>
       <c r="D2324" t="s">
         <v>2326</v>
@@ -41565,7 +41853,7 @@
         <v>20</v>
       </c>
       <c r="C2325">
-        <v>5436</v>
+        <v>6173.5</v>
       </c>
       <c r="D2325" t="s">
         <v>2327</v>
@@ -41579,7 +41867,7 @@
         <v>21</v>
       </c>
       <c r="C2326">
-        <v>5518</v>
+        <v>5810.5</v>
       </c>
       <c r="D2326" t="s">
         <v>2328</v>
@@ -41593,7 +41881,7 @@
         <v>22</v>
       </c>
       <c r="C2327">
-        <v>5598</v>
+        <v>5890.5</v>
       </c>
       <c r="D2327" t="s">
         <v>2329</v>
@@ -41607,7 +41895,7 @@
         <v>23</v>
       </c>
       <c r="C2328">
-        <v>5698</v>
+        <v>5990.5</v>
       </c>
       <c r="D2328" t="s">
         <v>2330</v>
@@ -41621,7 +41909,7 @@
         <v>24</v>
       </c>
       <c r="C2329">
-        <v>5808</v>
+        <v>6100.5</v>
       </c>
       <c r="D2329" t="s">
         <v>2331</v>
@@ -41635,7 +41923,7 @@
         <v>25</v>
       </c>
       <c r="C2330">
-        <v>6037</v>
+        <v>5653.8</v>
       </c>
       <c r="D2330" t="s">
         <v>2332</v>
@@ -41649,7 +41937,7 @@
         <v>26</v>
       </c>
       <c r="C2331">
-        <v>6167</v>
+        <v>5783.8</v>
       </c>
       <c r="D2331" t="s">
         <v>2333</v>
@@ -41663,7 +41951,7 @@
         <v>27</v>
       </c>
       <c r="C2332">
-        <v>6287</v>
+        <v>5903.8</v>
       </c>
       <c r="D2332" t="s">
         <v>2334</v>
@@ -41677,7 +41965,7 @@
         <v>28</v>
       </c>
       <c r="C2333">
-        <v>6407</v>
+        <v>6023.8</v>
       </c>
       <c r="D2333" t="s">
         <v>2335</v>
@@ -41691,7 +41979,7 @@
         <v>29</v>
       </c>
       <c r="C2334">
-        <v>6291</v>
+        <v>5706.3</v>
       </c>
       <c r="D2334" t="s">
         <v>2336</v>
@@ -41705,7 +41993,7 @@
         <v>30</v>
       </c>
       <c r="C2335">
-        <v>6391</v>
+        <v>5806.3</v>
       </c>
       <c r="D2335" t="s">
         <v>2337</v>
@@ -41719,7 +42007,7 @@
         <v>31</v>
       </c>
       <c r="C2336">
-        <v>6471</v>
+        <v>5886.3</v>
       </c>
       <c r="D2336" t="s">
         <v>2338</v>
@@ -41733,7 +42021,7 @@
         <v>32</v>
       </c>
       <c r="C2337">
-        <v>6551</v>
+        <v>5966.3</v>
       </c>
       <c r="D2337" t="s">
         <v>2339</v>
@@ -41747,7 +42035,7 @@
         <v>33</v>
       </c>
       <c r="C2338">
-        <v>6497</v>
+        <v>5790.1</v>
       </c>
       <c r="D2338" t="s">
         <v>2340</v>
@@ -41761,7 +42049,7 @@
         <v>34</v>
       </c>
       <c r="C2339">
-        <v>6537</v>
+        <v>5830.1</v>
       </c>
       <c r="D2339" t="s">
         <v>2341</v>
@@ -41775,7 +42063,7 @@
         <v>35</v>
       </c>
       <c r="C2340">
-        <v>6547</v>
+        <v>5840.1</v>
       </c>
       <c r="D2340" t="s">
         <v>2342</v>
@@ -41789,7 +42077,7 @@
         <v>36</v>
       </c>
       <c r="C2341">
-        <v>6547</v>
+        <v>5840.1</v>
       </c>
       <c r="D2341" t="s">
         <v>2343</v>
@@ -41803,7 +42091,7 @@
         <v>37</v>
       </c>
       <c r="C2342">
-        <v>6722</v>
+        <v>5965.2</v>
       </c>
       <c r="D2342" t="s">
         <v>2344</v>
@@ -41817,7 +42105,7 @@
         <v>38</v>
       </c>
       <c r="C2343">
-        <v>6682</v>
+        <v>5925.2</v>
       </c>
       <c r="D2343" t="s">
         <v>2345</v>
@@ -41831,7 +42119,7 @@
         <v>39</v>
       </c>
       <c r="C2344">
-        <v>6622</v>
+        <v>5865.2</v>
       </c>
       <c r="D2344" t="s">
         <v>2346</v>
@@ -41845,7 +42133,7 @@
         <v>40</v>
       </c>
       <c r="C2345">
-        <v>6552</v>
+        <v>5795.2</v>
       </c>
       <c r="D2345" t="s">
         <v>2347</v>
@@ -41859,7 +42147,7 @@
         <v>41</v>
       </c>
       <c r="C2346">
-        <v>6556</v>
+        <v>6033</v>
       </c>
       <c r="D2346" t="s">
         <v>2348</v>
@@ -41873,7 +42161,7 @@
         <v>42</v>
       </c>
       <c r="C2347">
-        <v>6476</v>
+        <v>5953</v>
       </c>
       <c r="D2347" t="s">
         <v>2349</v>
@@ -41887,7 +42175,7 @@
         <v>43</v>
       </c>
       <c r="C2348">
-        <v>6396</v>
+        <v>5873</v>
       </c>
       <c r="D2348" t="s">
         <v>2350</v>
@@ -41901,7 +42189,7 @@
         <v>44</v>
       </c>
       <c r="C2349">
-        <v>6326</v>
+        <v>5803</v>
       </c>
       <c r="D2349" t="s">
         <v>2351</v>
@@ -41915,7 +42203,7 @@
         <v>45</v>
       </c>
       <c r="C2350">
-        <v>6488</v>
+        <v>5914.2</v>
       </c>
       <c r="D2350" t="s">
         <v>2352</v>
@@ -41929,7 +42217,7 @@
         <v>46</v>
       </c>
       <c r="C2351">
-        <v>6438</v>
+        <v>5864.2</v>
       </c>
       <c r="D2351" t="s">
         <v>2353</v>
@@ -41943,7 +42231,7 @@
         <v>47</v>
       </c>
       <c r="C2352">
-        <v>6408</v>
+        <v>5834.2</v>
       </c>
       <c r="D2352" t="s">
         <v>2354</v>
@@ -41957,7 +42245,7 @@
         <v>48</v>
       </c>
       <c r="C2353">
-        <v>6388</v>
+        <v>5814.2</v>
       </c>
       <c r="D2353" t="s">
         <v>2355</v>
@@ -41971,7 +42259,7 @@
         <v>49</v>
       </c>
       <c r="C2354">
-        <v>6421</v>
+        <v>5852.7</v>
       </c>
       <c r="D2354" t="s">
         <v>2356</v>
@@ -41985,7 +42273,7 @@
         <v>50</v>
       </c>
       <c r="C2355">
-        <v>6411</v>
+        <v>5842.7</v>
       </c>
       <c r="D2355" t="s">
         <v>2357</v>
@@ -41999,7 +42287,7 @@
         <v>51</v>
       </c>
       <c r="C2356">
-        <v>6401</v>
+        <v>5832.7</v>
       </c>
       <c r="D2356" t="s">
         <v>2358</v>
@@ -42013,7 +42301,7 @@
         <v>52</v>
       </c>
       <c r="C2357">
-        <v>6401</v>
+        <v>5832.7</v>
       </c>
       <c r="D2357" t="s">
         <v>2359</v>
@@ -42027,7 +42315,7 @@
         <v>53</v>
       </c>
       <c r="C2358">
-        <v>6406</v>
+        <v>5607.6</v>
       </c>
       <c r="D2358" t="s">
         <v>2360</v>
@@ -42041,7 +42329,7 @@
         <v>54</v>
       </c>
       <c r="C2359">
-        <v>6406</v>
+        <v>5607.6</v>
       </c>
       <c r="D2359" t="s">
         <v>2361</v>
@@ -42055,7 +42343,7 @@
         <v>55</v>
       </c>
       <c r="C2360">
-        <v>6406</v>
+        <v>5607.6</v>
       </c>
       <c r="D2360" t="s">
         <v>2362</v>
@@ -42069,7 +42357,7 @@
         <v>56</v>
       </c>
       <c r="C2361">
-        <v>6406</v>
+        <v>5607.6</v>
       </c>
       <c r="D2361" t="s">
         <v>2363</v>
@@ -42083,7 +42371,7 @@
         <v>57</v>
       </c>
       <c r="C2362">
-        <v>6418</v>
+        <v>5542.2</v>
       </c>
       <c r="D2362" t="s">
         <v>2364</v>
@@ -42097,7 +42385,7 @@
         <v>58</v>
       </c>
       <c r="C2363">
-        <v>6438</v>
+        <v>5562.2</v>
       </c>
       <c r="D2363" t="s">
         <v>2365</v>
@@ -42111,7 +42399,7 @@
         <v>59</v>
       </c>
       <c r="C2364">
-        <v>6458</v>
+        <v>5582.2</v>
       </c>
       <c r="D2364" t="s">
         <v>2366</v>
@@ -42125,7 +42413,7 @@
         <v>60</v>
       </c>
       <c r="C2365">
-        <v>6488</v>
+        <v>5612.2</v>
       </c>
       <c r="D2365" t="s">
         <v>2367</v>
@@ -42139,7 +42427,7 @@
         <v>61</v>
       </c>
       <c r="C2366">
-        <v>6458</v>
+        <v>5530.7</v>
       </c>
       <c r="D2366" t="s">
         <v>2368</v>
@@ -42153,7 +42441,7 @@
         <v>62</v>
       </c>
       <c r="C2367">
-        <v>6488</v>
+        <v>5560.7</v>
       </c>
       <c r="D2367" t="s">
         <v>2369</v>
@@ -42167,7 +42455,7 @@
         <v>63</v>
       </c>
       <c r="C2368">
-        <v>6528</v>
+        <v>5600.7</v>
       </c>
       <c r="D2368" t="s">
         <v>2370</v>
@@ -42181,7 +42469,7 @@
         <v>64</v>
       </c>
       <c r="C2369">
-        <v>6578</v>
+        <v>5650.7</v>
       </c>
       <c r="D2369" t="s">
         <v>2371</v>
@@ -42195,7 +42483,7 @@
         <v>65</v>
       </c>
       <c r="C2370">
-        <v>6409</v>
+        <v>5447.9</v>
       </c>
       <c r="D2370" t="s">
         <v>2372</v>
@@ -42209,7 +42497,7 @@
         <v>66</v>
       </c>
       <c r="C2371">
-        <v>6479</v>
+        <v>5517.9</v>
       </c>
       <c r="D2371" t="s">
         <v>2373</v>
@@ -42223,7 +42511,7 @@
         <v>67</v>
       </c>
       <c r="C2372">
-        <v>6559</v>
+        <v>5597.9</v>
       </c>
       <c r="D2372" t="s">
         <v>2374</v>
@@ -42237,7 +42525,7 @@
         <v>68</v>
       </c>
       <c r="C2373">
-        <v>6669</v>
+        <v>5707.9</v>
       </c>
       <c r="D2373" t="s">
         <v>2375</v>
@@ -42251,7 +42539,7 @@
         <v>69</v>
       </c>
       <c r="C2374">
-        <v>6427</v>
+        <v>5501.6</v>
       </c>
       <c r="D2374" t="s">
         <v>2376</v>
@@ -42265,7 +42553,7 @@
         <v>70</v>
       </c>
       <c r="C2375">
-        <v>6547</v>
+        <v>5621.6</v>
       </c>
       <c r="D2375" t="s">
         <v>2377</v>
@@ -42279,7 +42567,7 @@
         <v>71</v>
       </c>
       <c r="C2376">
-        <v>6677</v>
+        <v>5751.6</v>
       </c>
       <c r="D2376" t="s">
         <v>2378</v>
@@ -42293,7 +42581,7 @@
         <v>72</v>
       </c>
       <c r="C2377">
-        <v>6797</v>
+        <v>5871.6</v>
       </c>
       <c r="D2377" t="s">
         <v>2379</v>
@@ -42307,7 +42595,7 @@
         <v>73</v>
       </c>
       <c r="C2378">
-        <v>6922</v>
+        <v>5814.3</v>
       </c>
       <c r="D2378" t="s">
         <v>2380</v>
@@ -42321,7 +42609,7 @@
         <v>74</v>
       </c>
       <c r="C2379">
-        <v>7022</v>
+        <v>5914.3</v>
       </c>
       <c r="D2379" t="s">
         <v>2381</v>
@@ -42335,7 +42623,7 @@
         <v>75</v>
       </c>
       <c r="C2380">
-        <v>7102</v>
+        <v>5994.3</v>
       </c>
       <c r="D2380" t="s">
         <v>2382</v>
@@ -42349,7 +42637,7 @@
         <v>76</v>
       </c>
       <c r="C2381">
-        <v>7172</v>
+        <v>6064.3</v>
       </c>
       <c r="D2381" t="s">
         <v>2383</v>
@@ -42363,7 +42651,7 @@
         <v>77</v>
       </c>
       <c r="C2382">
-        <v>7305</v>
+        <v>6354.7</v>
       </c>
       <c r="D2382" t="s">
         <v>2384</v>
@@ -42377,7 +42665,7 @@
         <v>78</v>
       </c>
       <c r="C2383">
-        <v>7325</v>
+        <v>6374.7</v>
       </c>
       <c r="D2383" t="s">
         <v>2385</v>
@@ -42391,7 +42679,7 @@
         <v>79</v>
       </c>
       <c r="C2384">
-        <v>7325</v>
+        <v>6374.7</v>
       </c>
       <c r="D2384" t="s">
         <v>2386</v>
@@ -42405,7 +42693,7 @@
         <v>80</v>
       </c>
       <c r="C2385">
-        <v>7305</v>
+        <v>6354.7</v>
       </c>
       <c r="D2385" t="s">
         <v>2387</v>
@@ -42419,7 +42707,7 @@
         <v>81</v>
       </c>
       <c r="C2386">
-        <v>7218</v>
+        <v>6467.4</v>
       </c>
       <c r="D2386" t="s">
         <v>2388</v>
@@ -42433,7 +42721,7 @@
         <v>82</v>
       </c>
       <c r="C2387">
-        <v>7188</v>
+        <v>6437.4</v>
       </c>
       <c r="D2387" t="s">
         <v>2389</v>
@@ -42447,7 +42735,7 @@
         <v>83</v>
       </c>
       <c r="C2388">
-        <v>7158</v>
+        <v>6407.4</v>
       </c>
       <c r="D2388" t="s">
         <v>2390</v>
@@ -42461,7 +42749,7 @@
         <v>84</v>
       </c>
       <c r="C2389">
-        <v>7088</v>
+        <v>6337.4</v>
       </c>
       <c r="D2389" t="s">
         <v>2391</v>
@@ -42475,7 +42763,7 @@
         <v>85</v>
       </c>
       <c r="C2390">
-        <v>6946</v>
+        <v>6314.2</v>
       </c>
       <c r="D2390" t="s">
         <v>2392</v>
@@ -42489,7 +42777,7 @@
         <v>86</v>
       </c>
       <c r="C2391">
-        <v>6826</v>
+        <v>6194.2</v>
       </c>
       <c r="D2391" t="s">
         <v>2393</v>
@@ -42503,7 +42791,7 @@
         <v>87</v>
       </c>
       <c r="C2392">
-        <v>6726</v>
+        <v>6094.2</v>
       </c>
       <c r="D2392" t="s">
         <v>2394</v>
@@ -42517,7 +42805,7 @@
         <v>88</v>
       </c>
       <c r="C2393">
-        <v>6596</v>
+        <v>5964.2</v>
       </c>
       <c r="D2393" t="s">
         <v>2395</v>
@@ -42531,7 +42819,7 @@
         <v>89</v>
       </c>
       <c r="C2394">
-        <v>6583</v>
+        <v>6289.8</v>
       </c>
       <c r="D2394" t="s">
         <v>2396</v>
@@ -42545,7 +42833,7 @@
         <v>90</v>
       </c>
       <c r="C2395">
-        <v>6443</v>
+        <v>6149.8</v>
       </c>
       <c r="D2395" t="s">
         <v>2397</v>
@@ -42559,7 +42847,7 @@
         <v>91</v>
       </c>
       <c r="C2396">
-        <v>6273</v>
+        <v>5979.8</v>
       </c>
       <c r="D2396" t="s">
         <v>2398</v>
@@ -42573,7 +42861,7 @@
         <v>92</v>
       </c>
       <c r="C2397">
-        <v>6113</v>
+        <v>5819.8</v>
       </c>
       <c r="D2397" t="s">
         <v>2399</v>
@@ -42587,7 +42875,7 @@
         <v>93</v>
       </c>
       <c r="C2398">
-        <v>6044</v>
+        <v>5867.7</v>
       </c>
       <c r="D2398" t="s">
         <v>2400</v>
@@ -42601,7 +42889,7 @@
         <v>94</v>
       </c>
       <c r="C2399">
-        <v>5884</v>
+        <v>5707.7</v>
       </c>
       <c r="D2399" t="s">
         <v>2401</v>
@@ -42615,7 +42903,7 @@
         <v>95</v>
       </c>
       <c r="C2400">
-        <v>5754</v>
+        <v>5577.7</v>
       </c>
       <c r="D2400" t="s">
         <v>2402</v>
@@ -42629,7 +42917,7 @@
         <v>96</v>
       </c>
       <c r="C2401">
-        <v>5644</v>
+        <v>5467.7</v>
       </c>
       <c r="D2401" t="s">
         <v>2403</v>
@@ -49297,6 +49585,1350 @@
       </c>
       <c r="D2877" t="s">
         <v>2879</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:4">
+      <c r="A2878" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2878">
+        <v>1</v>
+      </c>
+      <c r="C2878">
+        <v>6175.7</v>
+      </c>
+      <c r="D2878" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:4">
+      <c r="A2879" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2879">
+        <v>2</v>
+      </c>
+      <c r="C2879">
+        <v>6115.7</v>
+      </c>
+      <c r="D2879" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:4">
+      <c r="A2880" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2880">
+        <v>3</v>
+      </c>
+      <c r="C2880">
+        <v>6055.7</v>
+      </c>
+      <c r="D2880" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:4">
+      <c r="A2881" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2881">
+        <v>4</v>
+      </c>
+      <c r="C2881">
+        <v>5995.7</v>
+      </c>
+      <c r="D2881" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:4">
+      <c r="A2882" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2882">
+        <v>5</v>
+      </c>
+      <c r="C2882">
+        <v>5937.1</v>
+      </c>
+      <c r="D2882" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:4">
+      <c r="A2883" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2883">
+        <v>6</v>
+      </c>
+      <c r="C2883">
+        <v>5897.1</v>
+      </c>
+      <c r="D2883" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:4">
+      <c r="A2884" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2884">
+        <v>7</v>
+      </c>
+      <c r="C2884">
+        <v>5867.1</v>
+      </c>
+      <c r="D2884" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:4">
+      <c r="A2885" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2885">
+        <v>8</v>
+      </c>
+      <c r="C2885">
+        <v>5827.1</v>
+      </c>
+      <c r="D2885" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:4">
+      <c r="A2886" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2886">
+        <v>9</v>
+      </c>
+      <c r="C2886">
+        <v>5668</v>
+      </c>
+      <c r="D2886" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:4">
+      <c r="A2887" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2887">
+        <v>10</v>
+      </c>
+      <c r="C2887">
+        <v>5638</v>
+      </c>
+      <c r="D2887" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:4">
+      <c r="A2888" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2888">
+        <v>11</v>
+      </c>
+      <c r="C2888">
+        <v>5628</v>
+      </c>
+      <c r="D2888" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:4">
+      <c r="A2889" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2889">
+        <v>12</v>
+      </c>
+      <c r="C2889">
+        <v>5618</v>
+      </c>
+      <c r="D2889" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:4">
+      <c r="A2890" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2890">
+        <v>13</v>
+      </c>
+      <c r="C2890">
+        <v>5676.7</v>
+      </c>
+      <c r="D2890" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:4">
+      <c r="A2891" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2891">
+        <v>14</v>
+      </c>
+      <c r="C2891">
+        <v>5686.7</v>
+      </c>
+      <c r="D2891" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:4">
+      <c r="A2892" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2892">
+        <v>15</v>
+      </c>
+      <c r="C2892">
+        <v>5696.7</v>
+      </c>
+      <c r="D2892" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:4">
+      <c r="A2893" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2893">
+        <v>16</v>
+      </c>
+      <c r="C2893">
+        <v>5696.7</v>
+      </c>
+      <c r="D2893" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:4">
+      <c r="A2894" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2894">
+        <v>17</v>
+      </c>
+      <c r="C2894">
+        <v>5533.4</v>
+      </c>
+      <c r="D2894" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:4">
+      <c r="A2895" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2895">
+        <v>18</v>
+      </c>
+      <c r="C2895">
+        <v>5553.4</v>
+      </c>
+      <c r="D2895" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:4">
+      <c r="A2896" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2896">
+        <v>19</v>
+      </c>
+      <c r="C2896">
+        <v>5583.4</v>
+      </c>
+      <c r="D2896" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:4">
+      <c r="A2897" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2897">
+        <v>20</v>
+      </c>
+      <c r="C2897">
+        <v>5623.4</v>
+      </c>
+      <c r="D2897" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:4">
+      <c r="A2898" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2898">
+        <v>21</v>
+      </c>
+      <c r="C2898">
+        <v>5448.1</v>
+      </c>
+      <c r="D2898" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:4">
+      <c r="A2899" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2899">
+        <v>22</v>
+      </c>
+      <c r="C2899">
+        <v>5528.1</v>
+      </c>
+      <c r="D2899" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:4">
+      <c r="A2900" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2900">
+        <v>23</v>
+      </c>
+      <c r="C2900">
+        <v>5638.1</v>
+      </c>
+      <c r="D2900" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:4">
+      <c r="A2901" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2901">
+        <v>24</v>
+      </c>
+      <c r="C2901">
+        <v>5768.1</v>
+      </c>
+      <c r="D2901" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:4">
+      <c r="A2902" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2902">
+        <v>25</v>
+      </c>
+      <c r="C2902">
+        <v>5788</v>
+      </c>
+      <c r="D2902" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:4">
+      <c r="A2903" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2903">
+        <v>26</v>
+      </c>
+      <c r="C2903">
+        <v>5958</v>
+      </c>
+      <c r="D2903" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:4">
+      <c r="A2904" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2904">
+        <v>27</v>
+      </c>
+      <c r="C2904">
+        <v>6148</v>
+      </c>
+      <c r="D2904" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:4">
+      <c r="A2905" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2905">
+        <v>28</v>
+      </c>
+      <c r="C2905">
+        <v>6338</v>
+      </c>
+      <c r="D2905" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:4">
+      <c r="A2906" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2906">
+        <v>29</v>
+      </c>
+      <c r="C2906">
+        <v>6558.5</v>
+      </c>
+      <c r="D2906" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:4">
+      <c r="A2907" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2907">
+        <v>30</v>
+      </c>
+      <c r="C2907">
+        <v>6728.5</v>
+      </c>
+      <c r="D2907" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:4">
+      <c r="A2908" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2908">
+        <v>31</v>
+      </c>
+      <c r="C2908">
+        <v>6888.5</v>
+      </c>
+      <c r="D2908" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:4">
+      <c r="A2909" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2909">
+        <v>32</v>
+      </c>
+      <c r="C2909">
+        <v>7028.5</v>
+      </c>
+      <c r="D2909" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:4">
+      <c r="A2910" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2910">
+        <v>33</v>
+      </c>
+      <c r="C2910">
+        <v>7288.6</v>
+      </c>
+      <c r="D2910" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:4">
+      <c r="A2911" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2911">
+        <v>34</v>
+      </c>
+      <c r="C2911">
+        <v>7368.6</v>
+      </c>
+      <c r="D2911" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:4">
+      <c r="A2912" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2912">
+        <v>35</v>
+      </c>
+      <c r="C2912">
+        <v>7408.6</v>
+      </c>
+      <c r="D2912" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:4">
+      <c r="A2913" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2913">
+        <v>36</v>
+      </c>
+      <c r="C2913">
+        <v>7418.6</v>
+      </c>
+      <c r="D2913" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:4">
+      <c r="A2914" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2914">
+        <v>37</v>
+      </c>
+      <c r="C2914">
+        <v>7429</v>
+      </c>
+      <c r="D2914" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:4">
+      <c r="A2915" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2915">
+        <v>38</v>
+      </c>
+      <c r="C2915">
+        <v>7379</v>
+      </c>
+      <c r="D2915" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:4">
+      <c r="A2916" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2916">
+        <v>39</v>
+      </c>
+      <c r="C2916">
+        <v>7309</v>
+      </c>
+      <c r="D2916" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:4">
+      <c r="A2917" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2917">
+        <v>40</v>
+      </c>
+      <c r="C2917">
+        <v>7229</v>
+      </c>
+      <c r="D2917" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:4">
+      <c r="A2918" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2918">
+        <v>41</v>
+      </c>
+      <c r="C2918">
+        <v>7356.8</v>
+      </c>
+      <c r="D2918" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:4">
+      <c r="A2919" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2919">
+        <v>42</v>
+      </c>
+      <c r="C2919">
+        <v>7266.8</v>
+      </c>
+      <c r="D2919" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:4">
+      <c r="A2920" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2920">
+        <v>43</v>
+      </c>
+      <c r="C2920">
+        <v>7186.8</v>
+      </c>
+      <c r="D2920" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:4">
+      <c r="A2921" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2921">
+        <v>44</v>
+      </c>
+      <c r="C2921">
+        <v>7106.8</v>
+      </c>
+      <c r="D2921" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:4">
+      <c r="A2922" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2922">
+        <v>45</v>
+      </c>
+      <c r="C2922">
+        <v>7531.8</v>
+      </c>
+      <c r="D2922" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:4">
+      <c r="A2923" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2923">
+        <v>46</v>
+      </c>
+      <c r="C2923">
+        <v>7481.8</v>
+      </c>
+      <c r="D2923" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:4">
+      <c r="A2924" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2924">
+        <v>47</v>
+      </c>
+      <c r="C2924">
+        <v>7441.8</v>
+      </c>
+      <c r="D2924" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:4">
+      <c r="A2925" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2925">
+        <v>48</v>
+      </c>
+      <c r="C2925">
+        <v>7411.8</v>
+      </c>
+      <c r="D2925" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:4">
+      <c r="A2926" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2926">
+        <v>49</v>
+      </c>
+      <c r="C2926">
+        <v>7192.9</v>
+      </c>
+      <c r="D2926" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:4">
+      <c r="A2927" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2927">
+        <v>50</v>
+      </c>
+      <c r="C2927">
+        <v>7172.9</v>
+      </c>
+      <c r="D2927" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:4">
+      <c r="A2928" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2928">
+        <v>51</v>
+      </c>
+      <c r="C2928">
+        <v>7142.9</v>
+      </c>
+      <c r="D2928" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:4">
+      <c r="A2929" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2929">
+        <v>52</v>
+      </c>
+      <c r="C2929">
+        <v>7122.9</v>
+      </c>
+      <c r="D2929" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:4">
+      <c r="A2930" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2930">
+        <v>53</v>
+      </c>
+      <c r="C2930">
+        <v>7372</v>
+      </c>
+      <c r="D2930" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:4">
+      <c r="A2931" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2931">
+        <v>54</v>
+      </c>
+      <c r="C2931">
+        <v>7362</v>
+      </c>
+      <c r="D2931" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:4">
+      <c r="A2932" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2932">
+        <v>55</v>
+      </c>
+      <c r="C2932">
+        <v>7352</v>
+      </c>
+      <c r="D2932" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:4">
+      <c r="A2933" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2933">
+        <v>56</v>
+      </c>
+      <c r="C2933">
+        <v>7362</v>
+      </c>
+      <c r="D2933" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:4">
+      <c r="A2934" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2934">
+        <v>57</v>
+      </c>
+      <c r="C2934">
+        <v>7099.6</v>
+      </c>
+      <c r="D2934" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:4">
+      <c r="A2935" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2935">
+        <v>58</v>
+      </c>
+      <c r="C2935">
+        <v>7109.6</v>
+      </c>
+      <c r="D2935" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:4">
+      <c r="A2936" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2936">
+        <v>59</v>
+      </c>
+      <c r="C2936">
+        <v>7129.6</v>
+      </c>
+      <c r="D2936" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:4">
+      <c r="A2937" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2937">
+        <v>60</v>
+      </c>
+      <c r="C2937">
+        <v>7149.6</v>
+      </c>
+      <c r="D2937" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:4">
+      <c r="A2938" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2938">
+        <v>61</v>
+      </c>
+      <c r="C2938">
+        <v>6772</v>
+      </c>
+      <c r="D2938" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:4">
+      <c r="A2939" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2939">
+        <v>62</v>
+      </c>
+      <c r="C2939">
+        <v>6792</v>
+      </c>
+      <c r="D2939" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:4">
+      <c r="A2940" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2940">
+        <v>63</v>
+      </c>
+      <c r="C2940">
+        <v>6812</v>
+      </c>
+      <c r="D2940" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:4">
+      <c r="A2941" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2941">
+        <v>64</v>
+      </c>
+      <c r="C2941">
+        <v>6842</v>
+      </c>
+      <c r="D2941" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:4">
+      <c r="A2942" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2942">
+        <v>65</v>
+      </c>
+      <c r="C2942">
+        <v>6010.2</v>
+      </c>
+      <c r="D2942" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:4">
+      <c r="A2943" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2943">
+        <v>66</v>
+      </c>
+      <c r="C2943">
+        <v>6070.2</v>
+      </c>
+      <c r="D2943" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:4">
+      <c r="A2944" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2944">
+        <v>67</v>
+      </c>
+      <c r="C2944">
+        <v>6130.2</v>
+      </c>
+      <c r="D2944" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:4">
+      <c r="A2945" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2945">
+        <v>68</v>
+      </c>
+      <c r="C2945">
+        <v>6220.2</v>
+      </c>
+      <c r="D2945" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:4">
+      <c r="A2946" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2946">
+        <v>69</v>
+      </c>
+      <c r="C2946">
+        <v>5905.8</v>
+      </c>
+      <c r="D2946" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:4">
+      <c r="A2947" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2947">
+        <v>70</v>
+      </c>
+      <c r="C2947">
+        <v>5995.8</v>
+      </c>
+      <c r="D2947" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:4">
+      <c r="A2948" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2948">
+        <v>71</v>
+      </c>
+      <c r="C2948">
+        <v>6085.8</v>
+      </c>
+      <c r="D2948" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:4">
+      <c r="A2949" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2949">
+        <v>72</v>
+      </c>
+      <c r="C2949">
+        <v>6175.8</v>
+      </c>
+      <c r="D2949" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:4">
+      <c r="A2950" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2950">
+        <v>73</v>
+      </c>
+      <c r="C2950">
+        <v>6320.1</v>
+      </c>
+      <c r="D2950" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:4">
+      <c r="A2951" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2951">
+        <v>74</v>
+      </c>
+      <c r="C2951">
+        <v>6400.1</v>
+      </c>
+      <c r="D2951" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:4">
+      <c r="A2952" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2952">
+        <v>75</v>
+      </c>
+      <c r="C2952">
+        <v>6480.1</v>
+      </c>
+      <c r="D2952" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:4">
+      <c r="A2953" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2953">
+        <v>76</v>
+      </c>
+      <c r="C2953">
+        <v>6570.1</v>
+      </c>
+      <c r="D2953" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:4">
+      <c r="A2954" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2954">
+        <v>77</v>
+      </c>
+      <c r="C2954">
+        <v>6669.1</v>
+      </c>
+      <c r="D2954" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:4">
+      <c r="A2955" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2955">
+        <v>78</v>
+      </c>
+      <c r="C2955">
+        <v>6739.1</v>
+      </c>
+      <c r="D2955" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:4">
+      <c r="A2956" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2956">
+        <v>79</v>
+      </c>
+      <c r="C2956">
+        <v>6829.1</v>
+      </c>
+      <c r="D2956" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:4">
+      <c r="A2957" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2957">
+        <v>80</v>
+      </c>
+      <c r="C2957">
+        <v>6909.1</v>
+      </c>
+      <c r="D2957" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:4">
+      <c r="A2958" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2958">
+        <v>81</v>
+      </c>
+      <c r="C2958">
+        <v>7135.1</v>
+      </c>
+      <c r="D2958" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:4">
+      <c r="A2959" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2959">
+        <v>82</v>
+      </c>
+      <c r="C2959">
+        <v>7195.1</v>
+      </c>
+      <c r="D2959" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:4">
+      <c r="A2960" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2960">
+        <v>83</v>
+      </c>
+      <c r="C2960">
+        <v>7215.1</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:4">
+      <c r="A2961" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2961">
+        <v>84</v>
+      </c>
+      <c r="C2961">
+        <v>7225.1</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:4">
+      <c r="A2962" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2962">
+        <v>85</v>
+      </c>
+      <c r="C2962">
+        <v>7416.5</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:4">
+      <c r="A2963" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2963">
+        <v>86</v>
+      </c>
+      <c r="C2963">
+        <v>7326.5</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:4">
+      <c r="A2964" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2964">
+        <v>87</v>
+      </c>
+      <c r="C2964">
+        <v>7226.5</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:4">
+      <c r="A2965" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2965">
+        <v>88</v>
+      </c>
+      <c r="C2965">
+        <v>7086.5</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:4">
+      <c r="A2966" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2966">
+        <v>89</v>
+      </c>
+      <c r="C2966">
+        <v>7381.3</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:4">
+      <c r="A2967" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2967">
+        <v>90</v>
+      </c>
+      <c r="C2967">
+        <v>7241.3</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:4">
+      <c r="A2968" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2968">
+        <v>91</v>
+      </c>
+      <c r="C2968">
+        <v>7081.3</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:4">
+      <c r="A2969" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2969">
+        <v>92</v>
+      </c>
+      <c r="C2969">
+        <v>6931.3</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:4">
+      <c r="A2970" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2970">
+        <v>93</v>
+      </c>
+      <c r="C2970">
+        <v>7053.2</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:4">
+      <c r="A2971" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2971">
+        <v>94</v>
+      </c>
+      <c r="C2971">
+        <v>6903.2</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:4">
+      <c r="A2972" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2972">
+        <v>95</v>
+      </c>
+      <c r="C2972">
+        <v>6783.2</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:4">
+      <c r="A2973" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B2973">
+        <v>96</v>
+      </c>
+      <c r="C2973">
+        <v>6673.2</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>2975</v>
       </c>
     </row>
   </sheetData>

--- a/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Production_2025.xlsx
+++ b/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Production_2025.xlsx
@@ -41587,7 +41587,7 @@
         <v>1</v>
       </c>
       <c r="C2306">
-        <v>5942</v>
+        <v>5593.4</v>
       </c>
       <c r="D2306" t="s">
         <v>2308</v>
@@ -41601,7 +41601,7 @@
         <v>2</v>
       </c>
       <c r="C2307">
-        <v>5892</v>
+        <v>5523.4</v>
       </c>
       <c r="D2307" t="s">
         <v>2309</v>
@@ -41615,7 +41615,7 @@
         <v>3</v>
       </c>
       <c r="C2308">
-        <v>5852</v>
+        <v>5463.4</v>
       </c>
       <c r="D2308" t="s">
         <v>2310</v>
@@ -41629,7 +41629,7 @@
         <v>4</v>
       </c>
       <c r="C2309">
-        <v>5802</v>
+        <v>5413.4</v>
       </c>
       <c r="D2309" t="s">
         <v>2311</v>
@@ -41643,7 +41643,7 @@
         <v>5</v>
       </c>
       <c r="C2310">
-        <v>6884.9</v>
+        <v>5266</v>
       </c>
       <c r="D2310" t="s">
         <v>2312</v>
@@ -41657,7 +41657,7 @@
         <v>6</v>
       </c>
       <c r="C2311">
-        <v>6844.9</v>
+        <v>5216</v>
       </c>
       <c r="D2311" t="s">
         <v>2313</v>
@@ -41671,7 +41671,7 @@
         <v>7</v>
       </c>
       <c r="C2312">
-        <v>6814.9</v>
+        <v>5176</v>
       </c>
       <c r="D2312" t="s">
         <v>2314</v>
@@ -41685,7 +41685,7 @@
         <v>8</v>
       </c>
       <c r="C2313">
-        <v>6774.9</v>
+        <v>5136</v>
       </c>
       <c r="D2313" t="s">
         <v>2315</v>
@@ -41699,7 +41699,7 @@
         <v>9</v>
       </c>
       <c r="C2314">
-        <v>6562</v>
+        <v>5089</v>
       </c>
       <c r="D2314" t="s">
         <v>2316</v>
@@ -41713,7 +41713,7 @@
         <v>10</v>
       </c>
       <c r="C2315">
-        <v>6552</v>
+        <v>5069</v>
       </c>
       <c r="D2315" t="s">
         <v>2317</v>
@@ -41727,7 +41727,7 @@
         <v>11</v>
       </c>
       <c r="C2316">
-        <v>6542</v>
+        <v>5049</v>
       </c>
       <c r="D2316" t="s">
         <v>2318</v>
@@ -41741,7 +41741,7 @@
         <v>12</v>
       </c>
       <c r="C2317">
-        <v>6532</v>
+        <v>5039</v>
       </c>
       <c r="D2317" t="s">
         <v>2319</v>
@@ -41755,7 +41755,7 @@
         <v>13</v>
       </c>
       <c r="C2318">
-        <v>6333.3</v>
+        <v>5037</v>
       </c>
       <c r="D2318" t="s">
         <v>2320</v>
@@ -41769,7 +41769,7 @@
         <v>14</v>
       </c>
       <c r="C2319">
-        <v>6313.3</v>
+        <v>5037</v>
       </c>
       <c r="D2319" t="s">
         <v>2321</v>
@@ -41783,7 +41783,7 @@
         <v>15</v>
       </c>
       <c r="C2320">
-        <v>6313.3</v>
+        <v>5047</v>
       </c>
       <c r="D2320" t="s">
         <v>2322</v>
@@ -41797,7 +41797,7 @@
         <v>16</v>
       </c>
       <c r="C2321">
-        <v>6323.3</v>
+        <v>5057</v>
       </c>
       <c r="D2321" t="s">
         <v>2323</v>
@@ -41811,7 +41811,7 @@
         <v>17</v>
       </c>
       <c r="C2322">
-        <v>6073.5</v>
+        <v>5077</v>
       </c>
       <c r="D2322" t="s">
         <v>2324</v>
@@ -41825,7 +41825,7 @@
         <v>18</v>
       </c>
       <c r="C2323">
-        <v>6093.5</v>
+        <v>5107</v>
       </c>
       <c r="D2323" t="s">
         <v>2325</v>
@@ -41839,7 +41839,7 @@
         <v>19</v>
       </c>
       <c r="C2324">
-        <v>6123.5</v>
+        <v>5137</v>
       </c>
       <c r="D2324" t="s">
         <v>2326</v>
@@ -41853,7 +41853,7 @@
         <v>20</v>
       </c>
       <c r="C2325">
-        <v>6173.5</v>
+        <v>5177</v>
       </c>
       <c r="D2325" t="s">
         <v>2327</v>
@@ -41867,7 +41867,7 @@
         <v>21</v>
       </c>
       <c r="C2326">
-        <v>5810.5</v>
+        <v>5265</v>
       </c>
       <c r="D2326" t="s">
         <v>2328</v>
@@ -41881,7 +41881,7 @@
         <v>22</v>
       </c>
       <c r="C2327">
-        <v>5890.5</v>
+        <v>5325</v>
       </c>
       <c r="D2327" t="s">
         <v>2329</v>
@@ -41895,7 +41895,7 @@
         <v>23</v>
       </c>
       <c r="C2328">
-        <v>5990.5</v>
+        <v>5405</v>
       </c>
       <c r="D2328" t="s">
         <v>2330</v>
@@ -41909,7 +41909,7 @@
         <v>24</v>
       </c>
       <c r="C2329">
-        <v>6100.5</v>
+        <v>5495</v>
       </c>
       <c r="D2329" t="s">
         <v>2331</v>
@@ -41923,7 +41923,7 @@
         <v>25</v>
       </c>
       <c r="C2330">
-        <v>5653.8</v>
+        <v>5590</v>
       </c>
       <c r="D2330" t="s">
         <v>2332</v>
@@ -41937,7 +41937,7 @@
         <v>26</v>
       </c>
       <c r="C2331">
-        <v>5783.8</v>
+        <v>5710</v>
       </c>
       <c r="D2331" t="s">
         <v>2333</v>
@@ -41951,7 +41951,7 @@
         <v>27</v>
       </c>
       <c r="C2332">
-        <v>5903.8</v>
+        <v>5850</v>
       </c>
       <c r="D2332" t="s">
         <v>2334</v>
@@ -41965,7 +41965,7 @@
         <v>28</v>
       </c>
       <c r="C2333">
-        <v>6023.8</v>
+        <v>5990</v>
       </c>
       <c r="D2333" t="s">
         <v>2335</v>
@@ -41979,7 +41979,7 @@
         <v>29</v>
       </c>
       <c r="C2334">
-        <v>5706.3</v>
+        <v>6122</v>
       </c>
       <c r="D2334" t="s">
         <v>2336</v>
@@ -41993,7 +41993,7 @@
         <v>30</v>
       </c>
       <c r="C2335">
-        <v>5806.3</v>
+        <v>6252</v>
       </c>
       <c r="D2335" t="s">
         <v>2337</v>
@@ -42007,7 +42007,7 @@
         <v>31</v>
       </c>
       <c r="C2336">
-        <v>5886.3</v>
+        <v>6362</v>
       </c>
       <c r="D2336" t="s">
         <v>2338</v>
@@ -42021,7 +42021,7 @@
         <v>32</v>
       </c>
       <c r="C2337">
-        <v>5966.3</v>
+        <v>6452</v>
       </c>
       <c r="D2337" t="s">
         <v>2339</v>
@@ -42035,7 +42035,7 @@
         <v>33</v>
       </c>
       <c r="C2338">
-        <v>5790.1</v>
+        <v>6692</v>
       </c>
       <c r="D2338" t="s">
         <v>2340</v>
@@ -42049,7 +42049,7 @@
         <v>34</v>
       </c>
       <c r="C2339">
-        <v>5830.1</v>
+        <v>6712</v>
       </c>
       <c r="D2339" t="s">
         <v>2341</v>
@@ -42063,7 +42063,7 @@
         <v>35</v>
       </c>
       <c r="C2340">
-        <v>5840.1</v>
+        <v>6702</v>
       </c>
       <c r="D2340" t="s">
         <v>2342</v>
@@ -42077,7 +42077,7 @@
         <v>36</v>
       </c>
       <c r="C2341">
-        <v>5840.1</v>
+        <v>6652</v>
       </c>
       <c r="D2341" t="s">
         <v>2343</v>
@@ -42091,7 +42091,7 @@
         <v>37</v>
       </c>
       <c r="C2342">
-        <v>5965.2</v>
+        <v>6566</v>
       </c>
       <c r="D2342" t="s">
         <v>2344</v>
@@ -42105,7 +42105,7 @@
         <v>38</v>
       </c>
       <c r="C2343">
-        <v>5925.2</v>
+        <v>6456</v>
       </c>
       <c r="D2343" t="s">
         <v>2345</v>
@@ -42119,7 +42119,7 @@
         <v>39</v>
       </c>
       <c r="C2344">
-        <v>5865.2</v>
+        <v>6346</v>
       </c>
       <c r="D2344" t="s">
         <v>2346</v>
@@ -42133,7 +42133,7 @@
         <v>40</v>
       </c>
       <c r="C2345">
-        <v>5795.2</v>
+        <v>6226</v>
       </c>
       <c r="D2345" t="s">
         <v>2347</v>
@@ -42147,7 +42147,7 @@
         <v>41</v>
       </c>
       <c r="C2346">
-        <v>6033</v>
+        <v>6034</v>
       </c>
       <c r="D2346" t="s">
         <v>2348</v>
@@ -42161,7 +42161,7 @@
         <v>42</v>
       </c>
       <c r="C2347">
-        <v>5953</v>
+        <v>5924</v>
       </c>
       <c r="D2347" t="s">
         <v>2349</v>
@@ -42175,7 +42175,7 @@
         <v>43</v>
       </c>
       <c r="C2348">
-        <v>5873</v>
+        <v>5824</v>
       </c>
       <c r="D2348" t="s">
         <v>2350</v>
@@ -42189,7 +42189,7 @@
         <v>44</v>
       </c>
       <c r="C2349">
-        <v>5803</v>
+        <v>5734</v>
       </c>
       <c r="D2349" t="s">
         <v>2351</v>
@@ -42203,7 +42203,7 @@
         <v>45</v>
       </c>
       <c r="C2350">
-        <v>5914.2</v>
+        <v>5589</v>
       </c>
       <c r="D2350" t="s">
         <v>2352</v>
@@ -42217,7 +42217,7 @@
         <v>46</v>
       </c>
       <c r="C2351">
-        <v>5864.2</v>
+        <v>5529</v>
       </c>
       <c r="D2351" t="s">
         <v>2353</v>
@@ -42231,7 +42231,7 @@
         <v>47</v>
       </c>
       <c r="C2352">
-        <v>5834.2</v>
+        <v>5479</v>
       </c>
       <c r="D2352" t="s">
         <v>2354</v>
@@ -42245,7 +42245,7 @@
         <v>48</v>
       </c>
       <c r="C2353">
-        <v>5814.2</v>
+        <v>5439</v>
       </c>
       <c r="D2353" t="s">
         <v>2355</v>
@@ -42259,7 +42259,7 @@
         <v>49</v>
       </c>
       <c r="C2354">
-        <v>5852.7</v>
+        <v>5464</v>
       </c>
       <c r="D2354" t="s">
         <v>2356</v>
@@ -42273,7 +42273,7 @@
         <v>50</v>
       </c>
       <c r="C2355">
-        <v>5842.7</v>
+        <v>5424</v>
       </c>
       <c r="D2355" t="s">
         <v>2357</v>
@@ -42287,7 +42287,7 @@
         <v>51</v>
       </c>
       <c r="C2356">
-        <v>5832.7</v>
+        <v>5394</v>
       </c>
       <c r="D2356" t="s">
         <v>2358</v>
@@ -42301,7 +42301,7 @@
         <v>52</v>
       </c>
       <c r="C2357">
-        <v>5832.7</v>
+        <v>5374</v>
       </c>
       <c r="D2357" t="s">
         <v>2359</v>
@@ -42315,7 +42315,7 @@
         <v>53</v>
       </c>
       <c r="C2358">
-        <v>5607.6</v>
+        <v>5354</v>
       </c>
       <c r="D2358" t="s">
         <v>2360</v>
@@ -42329,7 +42329,7 @@
         <v>54</v>
       </c>
       <c r="C2359">
-        <v>5607.6</v>
+        <v>5354</v>
       </c>
       <c r="D2359" t="s">
         <v>2361</v>
@@ -42343,7 +42343,7 @@
         <v>55</v>
       </c>
       <c r="C2360">
-        <v>5607.6</v>
+        <v>5354</v>
       </c>
       <c r="D2360" t="s">
         <v>2362</v>
@@ -42357,7 +42357,7 @@
         <v>56</v>
       </c>
       <c r="C2361">
-        <v>5607.6</v>
+        <v>5374</v>
       </c>
       <c r="D2361" t="s">
         <v>2363</v>
@@ -42371,7 +42371,7 @@
         <v>57</v>
       </c>
       <c r="C2362">
-        <v>5542.2</v>
+        <v>5441</v>
       </c>
       <c r="D2362" t="s">
         <v>2364</v>
@@ -42385,7 +42385,7 @@
         <v>58</v>
       </c>
       <c r="C2363">
-        <v>5562.2</v>
+        <v>5471</v>
       </c>
       <c r="D2363" t="s">
         <v>2365</v>
@@ -42399,7 +42399,7 @@
         <v>59</v>
       </c>
       <c r="C2364">
-        <v>5582.2</v>
+        <v>5511</v>
       </c>
       <c r="D2364" t="s">
         <v>2366</v>
@@ -42413,7 +42413,7 @@
         <v>60</v>
       </c>
       <c r="C2365">
-        <v>5612.2</v>
+        <v>5551</v>
       </c>
       <c r="D2365" t="s">
         <v>2367</v>
@@ -42427,7 +42427,7 @@
         <v>61</v>
       </c>
       <c r="C2366">
-        <v>5530.7</v>
+        <v>5651</v>
       </c>
       <c r="D2366" t="s">
         <v>2368</v>
@@ -42441,7 +42441,7 @@
         <v>62</v>
       </c>
       <c r="C2367">
-        <v>5560.7</v>
+        <v>5701</v>
       </c>
       <c r="D2367" t="s">
         <v>2369</v>
@@ -42455,7 +42455,7 @@
         <v>63</v>
       </c>
       <c r="C2368">
-        <v>5600.7</v>
+        <v>5751</v>
       </c>
       <c r="D2368" t="s">
         <v>2370</v>
@@ -42469,7 +42469,7 @@
         <v>64</v>
       </c>
       <c r="C2369">
-        <v>5650.7</v>
+        <v>5821</v>
       </c>
       <c r="D2369" t="s">
         <v>2371</v>
@@ -42483,7 +42483,7 @@
         <v>65</v>
       </c>
       <c r="C2370">
-        <v>5447.9</v>
+        <v>5974</v>
       </c>
       <c r="D2370" t="s">
         <v>2372</v>
@@ -42497,7 +42497,7 @@
         <v>66</v>
       </c>
       <c r="C2371">
-        <v>5517.9</v>
+        <v>6064</v>
       </c>
       <c r="D2371" t="s">
         <v>2373</v>
@@ -42511,7 +42511,7 @@
         <v>67</v>
       </c>
       <c r="C2372">
-        <v>5597.9</v>
+        <v>6164</v>
       </c>
       <c r="D2372" t="s">
         <v>2374</v>
@@ -42525,7 +42525,7 @@
         <v>68</v>
       </c>
       <c r="C2373">
-        <v>5707.9</v>
+        <v>6264</v>
       </c>
       <c r="D2373" t="s">
         <v>2375</v>
@@ -42539,7 +42539,7 @@
         <v>69</v>
       </c>
       <c r="C2374">
-        <v>5501.6</v>
+        <v>6292</v>
       </c>
       <c r="D2374" t="s">
         <v>2376</v>
@@ -42553,7 +42553,7 @@
         <v>70</v>
       </c>
       <c r="C2375">
-        <v>5621.6</v>
+        <v>6392</v>
       </c>
       <c r="D2375" t="s">
         <v>2377</v>
@@ -42567,7 +42567,7 @@
         <v>71</v>
       </c>
       <c r="C2376">
-        <v>5751.6</v>
+        <v>6502</v>
       </c>
       <c r="D2376" t="s">
         <v>2378</v>
@@ -42581,7 +42581,7 @@
         <v>72</v>
       </c>
       <c r="C2377">
-        <v>5871.6</v>
+        <v>6632</v>
       </c>
       <c r="D2377" t="s">
         <v>2379</v>
@@ -42595,7 +42595,7 @@
         <v>73</v>
       </c>
       <c r="C2378">
-        <v>5814.3</v>
+        <v>6609</v>
       </c>
       <c r="D2378" t="s">
         <v>2380</v>
@@ -42609,7 +42609,7 @@
         <v>74</v>
       </c>
       <c r="C2379">
-        <v>5914.3</v>
+        <v>6729</v>
       </c>
       <c r="D2379" t="s">
         <v>2381</v>
@@ -42623,7 +42623,7 @@
         <v>75</v>
       </c>
       <c r="C2380">
-        <v>5994.3</v>
+        <v>6849</v>
       </c>
       <c r="D2380" t="s">
         <v>2382</v>
@@ -42637,7 +42637,7 @@
         <v>76</v>
       </c>
       <c r="C2381">
-        <v>6064.3</v>
+        <v>6979</v>
       </c>
       <c r="D2381" t="s">
         <v>2383</v>
@@ -42651,7 +42651,7 @@
         <v>77</v>
       </c>
       <c r="C2382">
-        <v>6354.7</v>
+        <v>7030</v>
       </c>
       <c r="D2382" t="s">
         <v>2384</v>
@@ -42665,7 +42665,7 @@
         <v>78</v>
       </c>
       <c r="C2383">
-        <v>6374.7</v>
+        <v>7130</v>
       </c>
       <c r="D2383" t="s">
         <v>2385</v>
@@ -42679,7 +42679,7 @@
         <v>79</v>
       </c>
       <c r="C2384">
-        <v>6374.7</v>
+        <v>7190</v>
       </c>
       <c r="D2384" t="s">
         <v>2386</v>
@@ -42693,7 +42693,7 @@
         <v>80</v>
       </c>
       <c r="C2385">
-        <v>6354.7</v>
+        <v>7200</v>
       </c>
       <c r="D2385" t="s">
         <v>2387</v>
@@ -42707,7 +42707,7 @@
         <v>81</v>
       </c>
       <c r="C2386">
-        <v>6467.4</v>
+        <v>7233</v>
       </c>
       <c r="D2386" t="s">
         <v>2388</v>
@@ -42721,7 +42721,7 @@
         <v>82</v>
       </c>
       <c r="C2387">
-        <v>6437.4</v>
+        <v>7203</v>
       </c>
       <c r="D2387" t="s">
         <v>2389</v>
@@ -42735,7 +42735,7 @@
         <v>83</v>
       </c>
       <c r="C2388">
-        <v>6407.4</v>
+        <v>7163</v>
       </c>
       <c r="D2388" t="s">
         <v>2390</v>
@@ -42749,7 +42749,7 @@
         <v>84</v>
       </c>
       <c r="C2389">
-        <v>6337.4</v>
+        <v>7093</v>
       </c>
       <c r="D2389" t="s">
         <v>2391</v>
@@ -42763,7 +42763,7 @@
         <v>85</v>
       </c>
       <c r="C2390">
-        <v>6314.2</v>
+        <v>7118</v>
       </c>
       <c r="D2390" t="s">
         <v>2392</v>
@@ -42777,7 +42777,7 @@
         <v>86</v>
       </c>
       <c r="C2391">
-        <v>6194.2</v>
+        <v>6998</v>
       </c>
       <c r="D2391" t="s">
         <v>2393</v>
@@ -42791,7 +42791,7 @@
         <v>87</v>
       </c>
       <c r="C2392">
-        <v>6094.2</v>
+        <v>6878</v>
       </c>
       <c r="D2392" t="s">
         <v>2394</v>
@@ -42805,7 +42805,7 @@
         <v>88</v>
       </c>
       <c r="C2393">
-        <v>5964.2</v>
+        <v>6748</v>
       </c>
       <c r="D2393" t="s">
         <v>2395</v>
@@ -42819,7 +42819,7 @@
         <v>89</v>
       </c>
       <c r="C2394">
-        <v>6289.8</v>
+        <v>6684</v>
       </c>
       <c r="D2394" t="s">
         <v>2396</v>
@@ -42833,7 +42833,7 @@
         <v>90</v>
       </c>
       <c r="C2395">
-        <v>6149.8</v>
+        <v>6534</v>
       </c>
       <c r="D2395" t="s">
         <v>2397</v>
@@ -42847,7 +42847,7 @@
         <v>91</v>
       </c>
       <c r="C2396">
-        <v>5979.8</v>
+        <v>6404</v>
       </c>
       <c r="D2396" t="s">
         <v>2398</v>
@@ -42861,7 +42861,7 @@
         <v>92</v>
       </c>
       <c r="C2397">
-        <v>5819.8</v>
+        <v>6254</v>
       </c>
       <c r="D2397" t="s">
         <v>2399</v>
@@ -42875,7 +42875,7 @@
         <v>93</v>
       </c>
       <c r="C2398">
-        <v>5867.7</v>
+        <v>6207</v>
       </c>
       <c r="D2398" t="s">
         <v>2400</v>
@@ -42889,7 +42889,7 @@
         <v>94</v>
       </c>
       <c r="C2399">
-        <v>5707.7</v>
+        <v>6097</v>
       </c>
       <c r="D2399" t="s">
         <v>2401</v>
@@ -42903,7 +42903,7 @@
         <v>95</v>
       </c>
       <c r="C2400">
-        <v>5577.7</v>
+        <v>5967</v>
       </c>
       <c r="D2400" t="s">
         <v>2402</v>
@@ -42917,7 +42917,7 @@
         <v>96</v>
       </c>
       <c r="C2401">
-        <v>5467.7</v>
+        <v>5847</v>
       </c>
       <c r="D2401" t="s">
         <v>2403</v>
@@ -42931,7 +42931,7 @@
         <v>1</v>
       </c>
       <c r="C2402">
-        <v>5844</v>
+        <v>5625</v>
       </c>
       <c r="D2402" t="s">
         <v>2404</v>
@@ -42945,7 +42945,7 @@
         <v>2</v>
       </c>
       <c r="C2403">
-        <v>5794</v>
+        <v>5565</v>
       </c>
       <c r="D2403" t="s">
         <v>2405</v>
@@ -42959,7 +42959,7 @@
         <v>3</v>
       </c>
       <c r="C2404">
-        <v>5744</v>
+        <v>5525</v>
       </c>
       <c r="D2404" t="s">
         <v>2406</v>
@@ -42973,7 +42973,7 @@
         <v>4</v>
       </c>
       <c r="C2405">
-        <v>5704</v>
+        <v>5465</v>
       </c>
       <c r="D2405" t="s">
         <v>2407</v>
@@ -42987,7 +42987,7 @@
         <v>5</v>
       </c>
       <c r="C2406">
-        <v>5492</v>
+        <v>4813.1</v>
       </c>
       <c r="D2406" t="s">
         <v>2408</v>
@@ -43001,7 +43001,7 @@
         <v>6</v>
       </c>
       <c r="C2407">
-        <v>5452</v>
+        <v>4763.1</v>
       </c>
       <c r="D2407" t="s">
         <v>2409</v>
@@ -43015,7 +43015,7 @@
         <v>7</v>
       </c>
       <c r="C2408">
-        <v>5432</v>
+        <v>4723.1</v>
       </c>
       <c r="D2408" t="s">
         <v>2410</v>
@@ -43029,7 +43029,7 @@
         <v>8</v>
       </c>
       <c r="C2409">
-        <v>5402</v>
+        <v>4683.1</v>
       </c>
       <c r="D2409" t="s">
         <v>2411</v>
@@ -43043,7 +43043,7 @@
         <v>9</v>
       </c>
       <c r="C2410">
-        <v>5409</v>
+        <v>4748.1</v>
       </c>
       <c r="D2410" t="s">
         <v>2412</v>
@@ -43057,7 +43057,7 @@
         <v>10</v>
       </c>
       <c r="C2411">
-        <v>5399</v>
+        <v>4708.1</v>
       </c>
       <c r="D2411" t="s">
         <v>2413</v>
@@ -43071,7 +43071,7 @@
         <v>11</v>
       </c>
       <c r="C2412">
-        <v>5379</v>
+        <v>4678.1</v>
       </c>
       <c r="D2412" t="s">
         <v>2414</v>
@@ -43085,7 +43085,7 @@
         <v>12</v>
       </c>
       <c r="C2413">
-        <v>5379</v>
+        <v>4658.1</v>
       </c>
       <c r="D2413" t="s">
         <v>2415</v>
@@ -43099,7 +43099,7 @@
         <v>13</v>
       </c>
       <c r="C2414">
-        <v>5321</v>
+        <v>4662.1</v>
       </c>
       <c r="D2414" t="s">
         <v>2416</v>
@@ -43113,7 +43113,7 @@
         <v>14</v>
       </c>
       <c r="C2415">
-        <v>5311</v>
+        <v>4662.1</v>
       </c>
       <c r="D2415" t="s">
         <v>2417</v>
@@ -43127,7 +43127,7 @@
         <v>15</v>
       </c>
       <c r="C2416">
-        <v>5301</v>
+        <v>4662.1</v>
       </c>
       <c r="D2416" t="s">
         <v>2418</v>
@@ -43141,7 +43141,7 @@
         <v>16</v>
       </c>
       <c r="C2417">
-        <v>5301</v>
+        <v>4672.1</v>
       </c>
       <c r="D2417" t="s">
         <v>2419</v>
@@ -43155,7 +43155,7 @@
         <v>17</v>
       </c>
       <c r="C2418">
-        <v>5266</v>
+        <v>4629.2</v>
       </c>
       <c r="D2418" t="s">
         <v>2420</v>
@@ -43169,7 +43169,7 @@
         <v>18</v>
       </c>
       <c r="C2419">
-        <v>5286</v>
+        <v>4659.2</v>
       </c>
       <c r="D2419" t="s">
         <v>2421</v>
@@ -43183,7 +43183,7 @@
         <v>19</v>
       </c>
       <c r="C2420">
-        <v>5326</v>
+        <v>4689.2</v>
       </c>
       <c r="D2420" t="s">
         <v>2422</v>
@@ -43197,7 +43197,7 @@
         <v>20</v>
       </c>
       <c r="C2421">
-        <v>5376</v>
+        <v>4739.2</v>
       </c>
       <c r="D2421" t="s">
         <v>2423</v>
@@ -43211,7 +43211,7 @@
         <v>21</v>
       </c>
       <c r="C2422">
-        <v>5468</v>
+        <v>4650</v>
       </c>
       <c r="D2422" t="s">
         <v>2424</v>
@@ -43225,7 +43225,7 @@
         <v>22</v>
       </c>
       <c r="C2423">
-        <v>5548</v>
+        <v>4730</v>
       </c>
       <c r="D2423" t="s">
         <v>2425</v>
@@ -43239,7 +43239,7 @@
         <v>23</v>
       </c>
       <c r="C2424">
-        <v>5648</v>
+        <v>4830</v>
       </c>
       <c r="D2424" t="s">
         <v>2426</v>
@@ -43253,7 +43253,7 @@
         <v>24</v>
       </c>
       <c r="C2425">
-        <v>5758</v>
+        <v>4940</v>
       </c>
       <c r="D2425" t="s">
         <v>2427</v>
@@ -43267,7 +43267,7 @@
         <v>25</v>
       </c>
       <c r="C2426">
-        <v>5997</v>
+        <v>4718.1</v>
       </c>
       <c r="D2426" t="s">
         <v>2428</v>
@@ -43281,7 +43281,7 @@
         <v>26</v>
       </c>
       <c r="C2427">
-        <v>6117</v>
+        <v>4848.1</v>
       </c>
       <c r="D2427" t="s">
         <v>2429</v>
@@ -43295,7 +43295,7 @@
         <v>27</v>
       </c>
       <c r="C2428">
-        <v>6237</v>
+        <v>4988.1</v>
       </c>
       <c r="D2428" t="s">
         <v>2430</v>
@@ -43309,7 +43309,7 @@
         <v>28</v>
       </c>
       <c r="C2429">
-        <v>6357</v>
+        <v>5128.1</v>
       </c>
       <c r="D2429" t="s">
         <v>2431</v>
@@ -43323,7 +43323,7 @@
         <v>29</v>
       </c>
       <c r="C2430">
-        <v>6241</v>
+        <v>5048.8</v>
       </c>
       <c r="D2430" t="s">
         <v>2432</v>
@@ -43337,7 +43337,7 @@
         <v>30</v>
       </c>
       <c r="C2431">
-        <v>6341</v>
+        <v>5178.8</v>
       </c>
       <c r="D2431" t="s">
         <v>2433</v>
@@ -43351,7 +43351,7 @@
         <v>31</v>
       </c>
       <c r="C2432">
-        <v>6421</v>
+        <v>5298.8</v>
       </c>
       <c r="D2432" t="s">
         <v>2434</v>
@@ -43365,7 +43365,7 @@
         <v>32</v>
       </c>
       <c r="C2433">
-        <v>6491</v>
+        <v>5388.8</v>
       </c>
       <c r="D2433" t="s">
         <v>2435</v>
@@ -43379,7 +43379,7 @@
         <v>33</v>
       </c>
       <c r="C2434">
-        <v>6447</v>
+        <v>5296.6</v>
       </c>
       <c r="D2434" t="s">
         <v>2436</v>
@@ -43393,7 +43393,7 @@
         <v>34</v>
       </c>
       <c r="C2435">
-        <v>6487</v>
+        <v>5326.6</v>
       </c>
       <c r="D2435" t="s">
         <v>2437</v>
@@ -43407,7 +43407,7 @@
         <v>35</v>
       </c>
       <c r="C2436">
-        <v>6497</v>
+        <v>5326.6</v>
       </c>
       <c r="D2436" t="s">
         <v>2438</v>
@@ -43421,7 +43421,7 @@
         <v>36</v>
       </c>
       <c r="C2437">
-        <v>6497</v>
+        <v>5326.6</v>
       </c>
       <c r="D2437" t="s">
         <v>2439</v>
@@ -43435,7 +43435,7 @@
         <v>37</v>
       </c>
       <c r="C2438">
-        <v>6682</v>
+        <v>5427.9</v>
       </c>
       <c r="D2438" t="s">
         <v>2440</v>
@@ -43449,7 +43449,7 @@
         <v>38</v>
       </c>
       <c r="C2439">
-        <v>6632</v>
+        <v>5377.9</v>
       </c>
       <c r="D2439" t="s">
         <v>2441</v>
@@ -43463,7 +43463,7 @@
         <v>39</v>
       </c>
       <c r="C2440">
-        <v>6572</v>
+        <v>5317.9</v>
       </c>
       <c r="D2440" t="s">
         <v>2442</v>
@@ -43477,7 +43477,7 @@
         <v>40</v>
       </c>
       <c r="C2441">
-        <v>6502</v>
+        <v>5247.9</v>
       </c>
       <c r="D2441" t="s">
         <v>2443</v>
@@ -43491,7 +43491,7 @@
         <v>41</v>
       </c>
       <c r="C2442">
-        <v>6506</v>
+        <v>5505.6</v>
       </c>
       <c r="D2442" t="s">
         <v>2444</v>
@@ -43505,7 +43505,7 @@
         <v>42</v>
       </c>
       <c r="C2443">
-        <v>6426</v>
+        <v>5425.6</v>
       </c>
       <c r="D2443" t="s">
         <v>2445</v>
@@ -43519,7 +43519,7 @@
         <v>43</v>
       </c>
       <c r="C2444">
-        <v>6346</v>
+        <v>5355.6</v>
       </c>
       <c r="D2444" t="s">
         <v>2446</v>
@@ -43533,7 +43533,7 @@
         <v>44</v>
       </c>
       <c r="C2445">
-        <v>6276</v>
+        <v>5295.6</v>
       </c>
       <c r="D2445" t="s">
         <v>2447</v>
@@ -43547,7 +43547,7 @@
         <v>45</v>
       </c>
       <c r="C2446">
-        <v>6428</v>
+        <v>5465.3</v>
       </c>
       <c r="D2446" t="s">
         <v>2448</v>
@@ -43561,7 +43561,7 @@
         <v>46</v>
       </c>
       <c r="C2447">
-        <v>6388</v>
+        <v>5415.3</v>
       </c>
       <c r="D2447" t="s">
         <v>2449</v>
@@ -43575,7 +43575,7 @@
         <v>47</v>
       </c>
       <c r="C2448">
-        <v>6348</v>
+        <v>5385.3</v>
       </c>
       <c r="D2448" t="s">
         <v>2450</v>
@@ -43589,7 +43589,7 @@
         <v>48</v>
       </c>
       <c r="C2449">
-        <v>6328</v>
+        <v>5365.3</v>
       </c>
       <c r="D2449" t="s">
         <v>2451</v>
@@ -43603,7 +43603,7 @@
         <v>49</v>
       </c>
       <c r="C2450">
-        <v>6361</v>
+        <v>5379.7</v>
       </c>
       <c r="D2450" t="s">
         <v>2452</v>
@@ -43617,7 +43617,7 @@
         <v>50</v>
       </c>
       <c r="C2451">
-        <v>6351</v>
+        <v>5369.7</v>
       </c>
       <c r="D2451" t="s">
         <v>2453</v>
@@ -43631,7 +43631,7 @@
         <v>51</v>
       </c>
       <c r="C2452">
-        <v>6351</v>
+        <v>5369.7</v>
       </c>
       <c r="D2452" t="s">
         <v>2454</v>
@@ -43645,7 +43645,7 @@
         <v>52</v>
       </c>
       <c r="C2453">
-        <v>6351</v>
+        <v>5369.7</v>
       </c>
       <c r="D2453" t="s">
         <v>2455</v>
@@ -43659,7 +43659,7 @@
         <v>53</v>
       </c>
       <c r="C2454">
-        <v>6356</v>
+        <v>5360.5</v>
       </c>
       <c r="D2454" t="s">
         <v>2456</v>
@@ -43673,7 +43673,7 @@
         <v>54</v>
       </c>
       <c r="C2455">
-        <v>6356</v>
+        <v>5390.5</v>
       </c>
       <c r="D2455" t="s">
         <v>2457</v>
@@ -43687,7 +43687,7 @@
         <v>55</v>
       </c>
       <c r="C2456">
-        <v>6356</v>
+        <v>5420.5</v>
       </c>
       <c r="D2456" t="s">
         <v>2458</v>
@@ -43701,7 +43701,7 @@
         <v>56</v>
       </c>
       <c r="C2457">
-        <v>6356</v>
+        <v>5440.5</v>
       </c>
       <c r="D2457" t="s">
         <v>2459</v>
@@ -43715,7 +43715,7 @@
         <v>57</v>
       </c>
       <c r="C2458">
-        <v>6368</v>
+        <v>5446.3</v>
       </c>
       <c r="D2458" t="s">
         <v>2460</v>
@@ -43729,7 +43729,7 @@
         <v>58</v>
       </c>
       <c r="C2459">
-        <v>6388</v>
+        <v>5476.3</v>
       </c>
       <c r="D2459" t="s">
         <v>2461</v>
@@ -43743,7 +43743,7 @@
         <v>59</v>
       </c>
       <c r="C2460">
-        <v>6408</v>
+        <v>5516.3</v>
       </c>
       <c r="D2460" t="s">
         <v>2462</v>
@@ -43757,7 +43757,7 @@
         <v>60</v>
       </c>
       <c r="C2461">
-        <v>6438</v>
+        <v>5546.3</v>
       </c>
       <c r="D2461" t="s">
         <v>2463</v>
@@ -43771,7 +43771,7 @@
         <v>61</v>
       </c>
       <c r="C2462">
-        <v>6418</v>
+        <v>5496.7</v>
       </c>
       <c r="D2462" t="s">
         <v>2464</v>
@@ -43785,7 +43785,7 @@
         <v>62</v>
       </c>
       <c r="C2463">
-        <v>6448</v>
+        <v>5526.7</v>
       </c>
       <c r="D2463" t="s">
         <v>2465</v>
@@ -43799,7 +43799,7 @@
         <v>63</v>
       </c>
       <c r="C2464">
-        <v>6488</v>
+        <v>5566.7</v>
       </c>
       <c r="D2464" t="s">
         <v>2466</v>
@@ -43813,7 +43813,7 @@
         <v>64</v>
       </c>
       <c r="C2465">
-        <v>6538</v>
+        <v>5606.7</v>
       </c>
       <c r="D2465" t="s">
         <v>2467</v>
@@ -43827,7 +43827,7 @@
         <v>65</v>
       </c>
       <c r="C2466">
-        <v>6369</v>
+        <v>5417.5</v>
       </c>
       <c r="D2466" t="s">
         <v>2468</v>
@@ -43841,7 +43841,7 @@
         <v>66</v>
       </c>
       <c r="C2467">
-        <v>6439</v>
+        <v>5477.5</v>
       </c>
       <c r="D2467" t="s">
         <v>2469</v>
@@ -43855,7 +43855,7 @@
         <v>67</v>
       </c>
       <c r="C2468">
-        <v>6519</v>
+        <v>5537.5</v>
       </c>
       <c r="D2468" t="s">
         <v>2470</v>
@@ -43869,7 +43869,7 @@
         <v>68</v>
       </c>
       <c r="C2469">
-        <v>6619</v>
+        <v>5597.5</v>
       </c>
       <c r="D2469" t="s">
         <v>2471</v>
@@ -43883,7 +43883,7 @@
         <v>69</v>
       </c>
       <c r="C2470">
-        <v>6377</v>
+        <v>5414.7</v>
       </c>
       <c r="D2470" t="s">
         <v>2472</v>
@@ -43897,7 +43897,7 @@
         <v>70</v>
       </c>
       <c r="C2471">
-        <v>6497</v>
+        <v>5494.7</v>
       </c>
       <c r="D2471" t="s">
         <v>2473</v>
@@ -43911,7 +43911,7 @@
         <v>71</v>
       </c>
       <c r="C2472">
-        <v>6627</v>
+        <v>5564.7</v>
       </c>
       <c r="D2472" t="s">
         <v>2474</v>
@@ -43925,7 +43925,7 @@
         <v>72</v>
       </c>
       <c r="C2473">
-        <v>6737</v>
+        <v>5644.7</v>
       </c>
       <c r="D2473" t="s">
         <v>2475</v>
@@ -43939,7 +43939,7 @@
         <v>73</v>
       </c>
       <c r="C2474">
-        <v>6872</v>
+        <v>5741.1</v>
       </c>
       <c r="D2474" t="s">
         <v>2476</v>
@@ -43953,7 +43953,7 @@
         <v>74</v>
       </c>
       <c r="C2475">
-        <v>6972</v>
+        <v>5831.1</v>
       </c>
       <c r="D2475" t="s">
         <v>2477</v>
@@ -43967,7 +43967,7 @@
         <v>75</v>
       </c>
       <c r="C2476">
-        <v>7052</v>
+        <v>5921.1</v>
       </c>
       <c r="D2476" t="s">
         <v>2478</v>
@@ -43981,7 +43981,7 @@
         <v>76</v>
       </c>
       <c r="C2477">
-        <v>7132</v>
+        <v>6021.1</v>
       </c>
       <c r="D2477" t="s">
         <v>2479</v>
@@ -43995,7 +43995,7 @@
         <v>77</v>
       </c>
       <c r="C2478">
-        <v>7255</v>
+        <v>6006.1</v>
       </c>
       <c r="D2478" t="s">
         <v>2480</v>
@@ -44009,7 +44009,7 @@
         <v>78</v>
       </c>
       <c r="C2479">
-        <v>7275</v>
+        <v>6076.1</v>
       </c>
       <c r="D2479" t="s">
         <v>2481</v>
@@ -44023,7 +44023,7 @@
         <v>79</v>
       </c>
       <c r="C2480">
-        <v>7275</v>
+        <v>6116.1</v>
       </c>
       <c r="D2480" t="s">
         <v>2482</v>
@@ -44037,7 +44037,7 @@
         <v>80</v>
       </c>
       <c r="C2481">
-        <v>7255</v>
+        <v>6106.1</v>
       </c>
       <c r="D2481" t="s">
         <v>2483</v>
@@ -44051,7 +44051,7 @@
         <v>81</v>
       </c>
       <c r="C2482">
-        <v>7178</v>
+        <v>6147.2</v>
       </c>
       <c r="D2482" t="s">
         <v>2484</v>
@@ -44065,7 +44065,7 @@
         <v>82</v>
       </c>
       <c r="C2483">
-        <v>7148</v>
+        <v>6087.2</v>
       </c>
       <c r="D2483" t="s">
         <v>2485</v>
@@ -44079,7 +44079,7 @@
         <v>83</v>
       </c>
       <c r="C2484">
-        <v>7098</v>
+        <v>6027.2</v>
       </c>
       <c r="D2484" t="s">
         <v>2486</v>
@@ -44093,7 +44093,7 @@
         <v>84</v>
       </c>
       <c r="C2485">
-        <v>7038</v>
+        <v>5967.2</v>
       </c>
       <c r="D2485" t="s">
         <v>2487</v>
@@ -44107,7 +44107,7 @@
         <v>85</v>
       </c>
       <c r="C2486">
-        <v>6896</v>
+        <v>6284.7</v>
       </c>
       <c r="D2486" t="s">
         <v>2488</v>
@@ -44121,7 +44121,7 @@
         <v>86</v>
       </c>
       <c r="C2487">
-        <v>6776</v>
+        <v>6144.7</v>
       </c>
       <c r="D2487" t="s">
         <v>2489</v>
@@ -44135,7 +44135,7 @@
         <v>87</v>
       </c>
       <c r="C2488">
-        <v>6646</v>
+        <v>6044.7</v>
       </c>
       <c r="D2488" t="s">
         <v>2490</v>
@@ -44149,7 +44149,7 @@
         <v>88</v>
       </c>
       <c r="C2489">
-        <v>6506</v>
+        <v>5884.7</v>
       </c>
       <c r="D2489" t="s">
         <v>2491</v>
@@ -44163,7 +44163,7 @@
         <v>89</v>
       </c>
       <c r="C2490">
-        <v>6523</v>
+        <v>5977.3</v>
       </c>
       <c r="D2490" t="s">
         <v>2492</v>
@@ -44177,7 +44177,7 @@
         <v>90</v>
       </c>
       <c r="C2491">
-        <v>6383</v>
+        <v>5837.3</v>
       </c>
       <c r="D2491" t="s">
         <v>2493</v>
@@ -44191,7 +44191,7 @@
         <v>91</v>
       </c>
       <c r="C2492">
-        <v>6213</v>
+        <v>5657.3</v>
       </c>
       <c r="D2492" t="s">
         <v>2494</v>
@@ -44205,7 +44205,7 @@
         <v>92</v>
       </c>
       <c r="C2493">
-        <v>6043</v>
+        <v>5517.3</v>
       </c>
       <c r="D2493" t="s">
         <v>2495</v>
@@ -44219,7 +44219,7 @@
         <v>93</v>
       </c>
       <c r="C2494">
-        <v>5964</v>
+        <v>5519.3</v>
       </c>
       <c r="D2494" t="s">
         <v>2496</v>
@@ -44233,7 +44233,7 @@
         <v>94</v>
       </c>
       <c r="C2495">
-        <v>5814</v>
+        <v>5369.3</v>
       </c>
       <c r="D2495" t="s">
         <v>2497</v>
@@ -44247,7 +44247,7 @@
         <v>95</v>
       </c>
       <c r="C2496">
-        <v>5694</v>
+        <v>5269.3</v>
       </c>
       <c r="D2496" t="s">
         <v>2498</v>
@@ -44261,7 +44261,7 @@
         <v>96</v>
       </c>
       <c r="C2497">
-        <v>5644</v>
+        <v>5159.3</v>
       </c>
       <c r="D2497" t="s">
         <v>2499</v>
@@ -44275,7 +44275,7 @@
         <v>1</v>
       </c>
       <c r="C2498">
-        <v>5760</v>
+        <v>5204.3</v>
       </c>
       <c r="D2498" t="s">
         <v>2500</v>
@@ -44289,7 +44289,7 @@
         <v>2</v>
       </c>
       <c r="C2499">
-        <v>5730</v>
+        <v>5154.3</v>
       </c>
       <c r="D2499" t="s">
         <v>2501</v>
@@ -44303,7 +44303,7 @@
         <v>3</v>
       </c>
       <c r="C2500">
-        <v>5680</v>
+        <v>5094.3</v>
       </c>
       <c r="D2500" t="s">
         <v>2502</v>
@@ -44317,7 +44317,7 @@
         <v>4</v>
       </c>
       <c r="C2501">
-        <v>5640</v>
+        <v>5054.3</v>
       </c>
       <c r="D2501" t="s">
         <v>2503</v>
@@ -44331,7 +44331,7 @@
         <v>5</v>
       </c>
       <c r="C2502">
-        <v>5553</v>
+        <v>5136</v>
       </c>
       <c r="D2502" t="s">
         <v>2504</v>
@@ -44345,7 +44345,7 @@
         <v>6</v>
       </c>
       <c r="C2503">
-        <v>5523</v>
+        <v>5106</v>
       </c>
       <c r="D2503" t="s">
         <v>2505</v>
@@ -44359,7 +44359,7 @@
         <v>7</v>
       </c>
       <c r="C2504">
-        <v>5493</v>
+        <v>5066</v>
       </c>
       <c r="D2504" t="s">
         <v>2506</v>
@@ -44373,7 +44373,7 @@
         <v>8</v>
       </c>
       <c r="C2505">
-        <v>5473</v>
+        <v>5016</v>
       </c>
       <c r="D2505" t="s">
         <v>2507</v>
@@ -44387,7 +44387,7 @@
         <v>9</v>
       </c>
       <c r="C2506">
-        <v>5433</v>
+        <v>4986</v>
       </c>
       <c r="D2506" t="s">
         <v>2508</v>
@@ -44401,7 +44401,7 @@
         <v>10</v>
       </c>
       <c r="C2507">
-        <v>5413</v>
+        <v>4956</v>
       </c>
       <c r="D2507" t="s">
         <v>2509</v>
@@ -44415,7 +44415,7 @@
         <v>11</v>
       </c>
       <c r="C2508">
-        <v>5393</v>
+        <v>4936</v>
       </c>
       <c r="D2508" t="s">
         <v>2510</v>
@@ -44429,7 +44429,7 @@
         <v>12</v>
       </c>
       <c r="C2509">
-        <v>5383</v>
+        <v>4926</v>
       </c>
       <c r="D2509" t="s">
         <v>2511</v>
@@ -44443,7 +44443,7 @@
         <v>13</v>
       </c>
       <c r="C2510">
-        <v>5391</v>
+        <v>4916</v>
       </c>
       <c r="D2510" t="s">
         <v>2512</v>
@@ -44457,7 +44457,7 @@
         <v>14</v>
       </c>
       <c r="C2511">
-        <v>5391</v>
+        <v>4916</v>
       </c>
       <c r="D2511" t="s">
         <v>2513</v>
@@ -44471,7 +44471,7 @@
         <v>15</v>
       </c>
       <c r="C2512">
-        <v>5401</v>
+        <v>4916</v>
       </c>
       <c r="D2512" t="s">
         <v>2514</v>
@@ -44485,7 +44485,7 @@
         <v>16</v>
       </c>
       <c r="C2513">
-        <v>5421</v>
+        <v>4926</v>
       </c>
       <c r="D2513" t="s">
         <v>2515</v>
@@ -44499,7 +44499,7 @@
         <v>17</v>
       </c>
       <c r="C2514">
-        <v>5468</v>
+        <v>4924</v>
       </c>
       <c r="D2514" t="s">
         <v>2516</v>
@@ -44513,7 +44513,7 @@
         <v>18</v>
       </c>
       <c r="C2515">
-        <v>5508</v>
+        <v>4934</v>
       </c>
       <c r="D2515" t="s">
         <v>2517</v>
@@ -44527,7 +44527,7 @@
         <v>19</v>
       </c>
       <c r="C2516">
-        <v>5538</v>
+        <v>4954</v>
       </c>
       <c r="D2516" t="s">
         <v>2518</v>
@@ -44541,7 +44541,7 @@
         <v>20</v>
       </c>
       <c r="C2517">
-        <v>5578</v>
+        <v>4994</v>
       </c>
       <c r="D2517" t="s">
         <v>2519</v>
@@ -44555,7 +44555,7 @@
         <v>21</v>
       </c>
       <c r="C2518">
-        <v>5651</v>
+        <v>5034</v>
       </c>
       <c r="D2518" t="s">
         <v>2520</v>
@@ -44569,7 +44569,7 @@
         <v>22</v>
       </c>
       <c r="C2519">
-        <v>5731</v>
+        <v>5114</v>
       </c>
       <c r="D2519" t="s">
         <v>2521</v>
@@ -44583,7 +44583,7 @@
         <v>23</v>
       </c>
       <c r="C2520">
-        <v>5831</v>
+        <v>5214</v>
       </c>
       <c r="D2520" t="s">
         <v>2522</v>
@@ -44597,7 +44597,7 @@
         <v>24</v>
       </c>
       <c r="C2521">
-        <v>5941</v>
+        <v>5334</v>
       </c>
       <c r="D2521" t="s">
         <v>2523</v>
@@ -44611,7 +44611,7 @@
         <v>25</v>
       </c>
       <c r="C2522">
-        <v>6144</v>
+        <v>5464</v>
       </c>
       <c r="D2522" t="s">
         <v>2524</v>
@@ -44625,7 +44625,7 @@
         <v>26</v>
       </c>
       <c r="C2523">
-        <v>6274</v>
+        <v>5604</v>
       </c>
       <c r="D2523" t="s">
         <v>2525</v>
@@ -44639,7 +44639,7 @@
         <v>27</v>
       </c>
       <c r="C2524">
-        <v>6394</v>
+        <v>5754</v>
       </c>
       <c r="D2524" t="s">
         <v>2526</v>
@@ -44653,7 +44653,7 @@
         <v>28</v>
       </c>
       <c r="C2525">
-        <v>6514</v>
+        <v>5904</v>
       </c>
       <c r="D2525" t="s">
         <v>2527</v>
@@ -44667,7 +44667,7 @@
         <v>29</v>
       </c>
       <c r="C2526">
-        <v>6511</v>
+        <v>6124</v>
       </c>
       <c r="D2526" t="s">
         <v>2528</v>
@@ -44681,7 +44681,7 @@
         <v>30</v>
       </c>
       <c r="C2527">
-        <v>6611</v>
+        <v>6244</v>
       </c>
       <c r="D2527" t="s">
         <v>2529</v>
@@ -44695,7 +44695,7 @@
         <v>31</v>
       </c>
       <c r="C2528">
-        <v>6701</v>
+        <v>6354</v>
       </c>
       <c r="D2528" t="s">
         <v>2530</v>
@@ -44709,7 +44709,7 @@
         <v>32</v>
       </c>
       <c r="C2529">
-        <v>6771</v>
+        <v>6434</v>
       </c>
       <c r="D2529" t="s">
         <v>2531</v>
@@ -44723,7 +44723,7 @@
         <v>33</v>
       </c>
       <c r="C2530">
-        <v>6821</v>
+        <v>6484</v>
       </c>
       <c r="D2530" t="s">
         <v>2532</v>
@@ -44737,7 +44737,7 @@
         <v>34</v>
       </c>
       <c r="C2531">
-        <v>6851</v>
+        <v>6494</v>
       </c>
       <c r="D2531" t="s">
         <v>2533</v>
@@ -44751,7 +44751,7 @@
         <v>35</v>
       </c>
       <c r="C2532">
-        <v>6871</v>
+        <v>6504</v>
       </c>
       <c r="D2532" t="s">
         <v>2534</v>
@@ -44765,7 +44765,7 @@
         <v>36</v>
       </c>
       <c r="C2533">
-        <v>6861</v>
+        <v>6504</v>
       </c>
       <c r="D2533" t="s">
         <v>2535</v>
@@ -44779,7 +44779,7 @@
         <v>37</v>
       </c>
       <c r="C2534">
-        <v>6988</v>
+        <v>6506</v>
       </c>
       <c r="D2534" t="s">
         <v>2536</v>
@@ -44793,7 +44793,7 @@
         <v>38</v>
       </c>
       <c r="C2535">
-        <v>6938</v>
+        <v>6466</v>
       </c>
       <c r="D2535" t="s">
         <v>2537</v>
@@ -44807,7 +44807,7 @@
         <v>39</v>
       </c>
       <c r="C2536">
-        <v>6888</v>
+        <v>6416</v>
       </c>
       <c r="D2536" t="s">
         <v>2538</v>
@@ -44821,7 +44821,7 @@
         <v>40</v>
       </c>
       <c r="C2537">
-        <v>6818</v>
+        <v>6356</v>
       </c>
       <c r="D2537" t="s">
         <v>2539</v>
@@ -44835,7 +44835,7 @@
         <v>41</v>
       </c>
       <c r="C2538">
-        <v>6577</v>
+        <v>6301</v>
       </c>
       <c r="D2538" t="s">
         <v>2540</v>
@@ -44849,7 +44849,7 @@
         <v>42</v>
       </c>
       <c r="C2539">
-        <v>6497</v>
+        <v>6241</v>
       </c>
       <c r="D2539" t="s">
         <v>2541</v>
@@ -44863,7 +44863,7 @@
         <v>43</v>
       </c>
       <c r="C2540">
-        <v>6427</v>
+        <v>6191</v>
       </c>
       <c r="D2540" t="s">
         <v>2542</v>
@@ -44877,7 +44877,7 @@
         <v>44</v>
       </c>
       <c r="C2541">
-        <v>6367</v>
+        <v>6131</v>
       </c>
       <c r="D2541" t="s">
         <v>2543</v>
@@ -44891,7 +44891,7 @@
         <v>45</v>
       </c>
       <c r="C2542">
-        <v>6364</v>
+        <v>6071</v>
       </c>
       <c r="D2542" t="s">
         <v>2544</v>
@@ -44905,7 +44905,7 @@
         <v>46</v>
       </c>
       <c r="C2543">
-        <v>6324</v>
+        <v>6041</v>
       </c>
       <c r="D2543" t="s">
         <v>2545</v>
@@ -44919,7 +44919,7 @@
         <v>47</v>
       </c>
       <c r="C2544">
-        <v>6294</v>
+        <v>6011</v>
       </c>
       <c r="D2544" t="s">
         <v>2546</v>
@@ -44933,7 +44933,7 @@
         <v>48</v>
       </c>
       <c r="C2545">
-        <v>6264</v>
+        <v>5991</v>
       </c>
       <c r="D2545" t="s">
         <v>2547</v>
@@ -44947,7 +44947,7 @@
         <v>49</v>
       </c>
       <c r="C2546">
-        <v>6244</v>
+        <v>5981</v>
       </c>
       <c r="D2546" t="s">
         <v>2548</v>
@@ -44961,7 +44961,7 @@
         <v>50</v>
       </c>
       <c r="C2547">
-        <v>6224</v>
+        <v>5971</v>
       </c>
       <c r="D2547" t="s">
         <v>2549</v>
@@ -44975,7 +44975,7 @@
         <v>51</v>
       </c>
       <c r="C2548">
-        <v>6214</v>
+        <v>5971</v>
       </c>
       <c r="D2548" t="s">
         <v>2550</v>
@@ -44989,7 +44989,7 @@
         <v>52</v>
       </c>
       <c r="C2549">
-        <v>6204</v>
+        <v>5971</v>
       </c>
       <c r="D2549" t="s">
         <v>2551</v>
@@ -45003,7 +45003,7 @@
         <v>53</v>
       </c>
       <c r="C2550">
-        <v>6241</v>
+        <v>5981</v>
       </c>
       <c r="D2550" t="s">
         <v>2552</v>
@@ -45017,7 +45017,7 @@
         <v>54</v>
       </c>
       <c r="C2551">
-        <v>6241</v>
+        <v>5991</v>
       </c>
       <c r="D2551" t="s">
         <v>2553</v>
@@ -45031,7 +45031,7 @@
         <v>55</v>
       </c>
       <c r="C2552">
-        <v>6241</v>
+        <v>6001</v>
       </c>
       <c r="D2552" t="s">
         <v>2554</v>
@@ -45045,7 +45045,7 @@
         <v>56</v>
       </c>
       <c r="C2553">
-        <v>6251</v>
+        <v>6021</v>
       </c>
       <c r="D2553" t="s">
         <v>2555</v>
@@ -45059,7 +45059,7 @@
         <v>57</v>
       </c>
       <c r="C2554">
-        <v>6355</v>
+        <v>6031</v>
       </c>
       <c r="D2554" t="s">
         <v>2556</v>
@@ -45073,7 +45073,7 @@
         <v>58</v>
       </c>
       <c r="C2555">
-        <v>6375</v>
+        <v>6051</v>
       </c>
       <c r="D2555" t="s">
         <v>2557</v>
@@ -45087,7 +45087,7 @@
         <v>59</v>
       </c>
       <c r="C2556">
-        <v>6395</v>
+        <v>6091</v>
       </c>
       <c r="D2556" t="s">
         <v>2558</v>
@@ -45101,7 +45101,7 @@
         <v>60</v>
       </c>
       <c r="C2557">
-        <v>6425</v>
+        <v>6121</v>
       </c>
       <c r="D2557" t="s">
         <v>2559</v>
@@ -45115,7 +45115,7 @@
         <v>61</v>
       </c>
       <c r="C2558">
-        <v>6401</v>
+        <v>6171</v>
       </c>
       <c r="D2558" t="s">
         <v>2560</v>
@@ -45129,7 +45129,7 @@
         <v>62</v>
       </c>
       <c r="C2559">
-        <v>6441</v>
+        <v>6211</v>
       </c>
       <c r="D2559" t="s">
         <v>2561</v>
@@ -45143,7 +45143,7 @@
         <v>63</v>
       </c>
       <c r="C2560">
-        <v>6481</v>
+        <v>6241</v>
       </c>
       <c r="D2560" t="s">
         <v>2562</v>
@@ -45157,7 +45157,7 @@
         <v>64</v>
       </c>
       <c r="C2561">
-        <v>6521</v>
+        <v>6281</v>
       </c>
       <c r="D2561" t="s">
         <v>2563</v>
@@ -45171,7 +45171,7 @@
         <v>65</v>
       </c>
       <c r="C2562">
-        <v>6728</v>
+        <v>6331</v>
       </c>
       <c r="D2562" t="s">
         <v>2564</v>
@@ -45185,7 +45185,7 @@
         <v>66</v>
       </c>
       <c r="C2563">
-        <v>6798</v>
+        <v>6391</v>
       </c>
       <c r="D2563" t="s">
         <v>2565</v>
@@ -45199,7 +45199,7 @@
         <v>67</v>
       </c>
       <c r="C2564">
-        <v>6878</v>
+        <v>6451</v>
       </c>
       <c r="D2564" t="s">
         <v>2566</v>
@@ -45213,7 +45213,7 @@
         <v>68</v>
       </c>
       <c r="C2565">
-        <v>6968</v>
+        <v>6531</v>
       </c>
       <c r="D2565" t="s">
         <v>2567</v>
@@ -45227,7 +45227,7 @@
         <v>69</v>
       </c>
       <c r="C2566">
-        <v>6932</v>
+        <v>6591</v>
       </c>
       <c r="D2566" t="s">
         <v>2568</v>
@@ -45241,7 +45241,7 @@
         <v>70</v>
       </c>
       <c r="C2567">
-        <v>7042</v>
+        <v>6661</v>
       </c>
       <c r="D2567" t="s">
         <v>2569</v>
@@ -45255,7 +45255,7 @@
         <v>71</v>
       </c>
       <c r="C2568">
-        <v>7152</v>
+        <v>6731</v>
       </c>
       <c r="D2568" t="s">
         <v>2570</v>
@@ -45269,7 +45269,7 @@
         <v>72</v>
       </c>
       <c r="C2569">
-        <v>7262</v>
+        <v>6801</v>
       </c>
       <c r="D2569" t="s">
         <v>2571</v>
@@ -45283,7 +45283,7 @@
         <v>73</v>
       </c>
       <c r="C2570">
-        <v>7392</v>
+        <v>6876</v>
       </c>
       <c r="D2570" t="s">
         <v>2572</v>
@@ -45297,7 +45297,7 @@
         <v>74</v>
       </c>
       <c r="C2571">
-        <v>7482</v>
+        <v>6946</v>
       </c>
       <c r="D2571" t="s">
         <v>2573</v>
@@ -45311,7 +45311,7 @@
         <v>75</v>
       </c>
       <c r="C2572">
-        <v>7572</v>
+        <v>7026</v>
       </c>
       <c r="D2572" t="s">
         <v>2574</v>
@@ -45325,7 +45325,7 @@
         <v>76</v>
       </c>
       <c r="C2573">
-        <v>7642</v>
+        <v>7126</v>
       </c>
       <c r="D2573" t="s">
         <v>2575</v>
@@ -45339,7 +45339,7 @@
         <v>77</v>
       </c>
       <c r="C2574">
-        <v>7646</v>
+        <v>7226</v>
       </c>
       <c r="D2574" t="s">
         <v>2576</v>
@@ -45353,7 +45353,7 @@
         <v>78</v>
       </c>
       <c r="C2575">
-        <v>7686</v>
+        <v>7306</v>
       </c>
       <c r="D2575" t="s">
         <v>2577</v>
@@ -45367,7 +45367,7 @@
         <v>79</v>
       </c>
       <c r="C2576">
-        <v>7706</v>
+        <v>7356</v>
       </c>
       <c r="D2576" t="s">
         <v>2578</v>
@@ -45381,7 +45381,7 @@
         <v>80</v>
       </c>
       <c r="C2577">
-        <v>7686</v>
+        <v>7366</v>
       </c>
       <c r="D2577" t="s">
         <v>2579</v>
@@ -45395,7 +45395,7 @@
         <v>81</v>
       </c>
       <c r="C2578">
-        <v>7695</v>
+        <v>7314</v>
       </c>
       <c r="D2578" t="s">
         <v>2580</v>
@@ -45409,7 +45409,7 @@
         <v>82</v>
       </c>
       <c r="C2579">
-        <v>7655</v>
+        <v>7274</v>
       </c>
       <c r="D2579" t="s">
         <v>2581</v>
@@ -45423,7 +45423,7 @@
         <v>83</v>
       </c>
       <c r="C2580">
-        <v>7585</v>
+        <v>7214</v>
       </c>
       <c r="D2580" t="s">
         <v>2582</v>
@@ -45437,7 +45437,7 @@
         <v>84</v>
       </c>
       <c r="C2581">
-        <v>7515</v>
+        <v>7144</v>
       </c>
       <c r="D2581" t="s">
         <v>2583</v>
@@ -45451,7 +45451,7 @@
         <v>85</v>
       </c>
       <c r="C2582">
-        <v>7372</v>
+        <v>7034</v>
       </c>
       <c r="D2582" t="s">
         <v>2584</v>
@@ -45465,7 +45465,7 @@
         <v>86</v>
       </c>
       <c r="C2583">
-        <v>7232</v>
+        <v>6904</v>
       </c>
       <c r="D2583" t="s">
         <v>2585</v>
@@ -45479,7 +45479,7 @@
         <v>87</v>
       </c>
       <c r="C2584">
-        <v>7122</v>
+        <v>6774</v>
       </c>
       <c r="D2584" t="s">
         <v>2586</v>
@@ -45493,7 +45493,7 @@
         <v>88</v>
       </c>
       <c r="C2585">
-        <v>7002</v>
+        <v>6624</v>
       </c>
       <c r="D2585" t="s">
         <v>2587</v>
@@ -45507,7 +45507,7 @@
         <v>89</v>
       </c>
       <c r="C2586">
-        <v>6762</v>
+        <v>6424</v>
       </c>
       <c r="D2586" t="s">
         <v>2588</v>
@@ -45521,7 +45521,7 @@
         <v>90</v>
       </c>
       <c r="C2587">
-        <v>6632</v>
+        <v>6274</v>
       </c>
       <c r="D2587" t="s">
         <v>2589</v>
@@ -45535,7 +45535,7 @@
         <v>91</v>
       </c>
       <c r="C2588">
-        <v>6462</v>
+        <v>6114</v>
       </c>
       <c r="D2588" t="s">
         <v>2590</v>
@@ -45549,7 +45549,7 @@
         <v>92</v>
       </c>
       <c r="C2589">
-        <v>6312</v>
+        <v>5964</v>
       </c>
       <c r="D2589" t="s">
         <v>2591</v>
@@ -45563,7 +45563,7 @@
         <v>93</v>
       </c>
       <c r="C2590">
-        <v>6316</v>
+        <v>5846</v>
       </c>
       <c r="D2590" t="s">
         <v>2592</v>
@@ -45577,7 +45577,7 @@
         <v>94</v>
       </c>
       <c r="C2591">
-        <v>6176</v>
+        <v>5686</v>
       </c>
       <c r="D2591" t="s">
         <v>2593</v>
@@ -45591,7 +45591,7 @@
         <v>95</v>
       </c>
       <c r="C2592">
-        <v>6046</v>
+        <v>5586</v>
       </c>
       <c r="D2592" t="s">
         <v>2594</v>
@@ -45605,7 +45605,7 @@
         <v>96</v>
       </c>
       <c r="C2593">
-        <v>5966</v>
+        <v>5476</v>
       </c>
       <c r="D2593" t="s">
         <v>2595</v>
@@ -45619,7 +45619,7 @@
         <v>1</v>
       </c>
       <c r="C2594">
-        <v>5853</v>
+        <v>5456</v>
       </c>
       <c r="D2594" t="s">
         <v>2596</v>
@@ -45633,7 +45633,7 @@
         <v>2</v>
       </c>
       <c r="C2595">
-        <v>5803</v>
+        <v>5396</v>
       </c>
       <c r="D2595" t="s">
         <v>2597</v>
@@ -45647,7 +45647,7 @@
         <v>3</v>
       </c>
       <c r="C2596">
-        <v>5763</v>
+        <v>5346</v>
       </c>
       <c r="D2596" t="s">
         <v>2598</v>
@@ -45661,7 +45661,7 @@
         <v>4</v>
       </c>
       <c r="C2597">
-        <v>5713</v>
+        <v>5296</v>
       </c>
       <c r="D2597" t="s">
         <v>2599</v>
@@ -45675,7 +45675,7 @@
         <v>5</v>
       </c>
       <c r="C2598">
-        <v>6839</v>
+        <v>6271.3</v>
       </c>
       <c r="D2598" t="s">
         <v>2600</v>
@@ -45689,7 +45689,7 @@
         <v>6</v>
       </c>
       <c r="C2599">
-        <v>6809</v>
+        <v>6231.3</v>
       </c>
       <c r="D2599" t="s">
         <v>2601</v>
@@ -45703,7 +45703,7 @@
         <v>7</v>
       </c>
       <c r="C2600">
-        <v>6789</v>
+        <v>6191.3</v>
       </c>
       <c r="D2600" t="s">
         <v>2602</v>
@@ -45717,7 +45717,7 @@
         <v>8</v>
       </c>
       <c r="C2601">
-        <v>6769</v>
+        <v>6151.3</v>
       </c>
       <c r="D2601" t="s">
         <v>2603</v>
@@ -45731,7 +45731,7 @@
         <v>9</v>
       </c>
       <c r="C2602">
-        <v>6883</v>
+        <v>6348.5</v>
       </c>
       <c r="D2602" t="s">
         <v>2604</v>
@@ -45745,7 +45745,7 @@
         <v>10</v>
       </c>
       <c r="C2603">
-        <v>6873</v>
+        <v>6318.5</v>
       </c>
       <c r="D2603" t="s">
         <v>2605</v>
@@ -45759,7 +45759,7 @@
         <v>11</v>
       </c>
       <c r="C2604">
-        <v>6863</v>
+        <v>6298.5</v>
       </c>
       <c r="D2604" t="s">
         <v>2606</v>
@@ -45773,7 +45773,7 @@
         <v>12</v>
       </c>
       <c r="C2605">
-        <v>6853</v>
+        <v>6288.5</v>
       </c>
       <c r="D2605" t="s">
         <v>2607</v>
@@ -45787,7 +45787,7 @@
         <v>13</v>
       </c>
       <c r="C2606">
-        <v>6712</v>
+        <v>6401.3</v>
       </c>
       <c r="D2606" t="s">
         <v>2608</v>
@@ -45801,7 +45801,7 @@
         <v>14</v>
       </c>
       <c r="C2607">
-        <v>6702</v>
+        <v>6411.3</v>
       </c>
       <c r="D2607" t="s">
         <v>2609</v>
@@ -45815,7 +45815,7 @@
         <v>15</v>
       </c>
       <c r="C2608">
-        <v>6702</v>
+        <v>6411.3</v>
       </c>
       <c r="D2608" t="s">
         <v>2610</v>
@@ -45829,7 +45829,7 @@
         <v>16</v>
       </c>
       <c r="C2609">
-        <v>6712</v>
+        <v>6421.3</v>
       </c>
       <c r="D2609" t="s">
         <v>2611</v>
@@ -45843,7 +45843,7 @@
         <v>17</v>
       </c>
       <c r="C2610">
-        <v>6425.3</v>
+        <v>6436</v>
       </c>
       <c r="D2610" t="s">
         <v>2612</v>
@@ -45857,7 +45857,7 @@
         <v>18</v>
       </c>
       <c r="C2611">
-        <v>6445.3</v>
+        <v>6446</v>
       </c>
       <c r="D2611" t="s">
         <v>2613</v>
@@ -45871,7 +45871,7 @@
         <v>19</v>
       </c>
       <c r="C2612">
-        <v>6475.3</v>
+        <v>6466</v>
       </c>
       <c r="D2612" t="s">
         <v>2614</v>
@@ -45885,7 +45885,7 @@
         <v>20</v>
       </c>
       <c r="C2613">
-        <v>6525.3</v>
+        <v>6496</v>
       </c>
       <c r="D2613" t="s">
         <v>2615</v>
@@ -45899,7 +45899,7 @@
         <v>21</v>
       </c>
       <c r="C2614">
-        <v>6087</v>
+        <v>6455</v>
       </c>
       <c r="D2614" t="s">
         <v>2616</v>
@@ -45913,7 +45913,7 @@
         <v>22</v>
       </c>
       <c r="C2615">
-        <v>6167</v>
+        <v>6515</v>
       </c>
       <c r="D2615" t="s">
         <v>2617</v>
@@ -45927,7 +45927,7 @@
         <v>23</v>
       </c>
       <c r="C2616">
-        <v>6257</v>
+        <v>6595</v>
       </c>
       <c r="D2616" t="s">
         <v>2618</v>
@@ -45941,7 +45941,7 @@
         <v>24</v>
       </c>
       <c r="C2617">
-        <v>6357</v>
+        <v>6695</v>
       </c>
       <c r="D2617" t="s">
         <v>2619</v>
@@ -45955,7 +45955,7 @@
         <v>25</v>
       </c>
       <c r="C2618">
-        <v>5802.9</v>
+        <v>6629.1</v>
       </c>
       <c r="D2618" t="s">
         <v>2620</v>
@@ -45969,7 +45969,7 @@
         <v>26</v>
       </c>
       <c r="C2619">
-        <v>5922.9</v>
+        <v>6769.1</v>
       </c>
       <c r="D2619" t="s">
         <v>2621</v>
@@ -45983,7 +45983,7 @@
         <v>27</v>
       </c>
       <c r="C2620">
-        <v>6032.9</v>
+        <v>6919.1</v>
       </c>
       <c r="D2620" t="s">
         <v>2622</v>
@@ -45997,7 +45997,7 @@
         <v>28</v>
       </c>
       <c r="C2621">
-        <v>6142.9</v>
+        <v>7079.1</v>
       </c>
       <c r="D2621" t="s">
         <v>2623</v>
@@ -46011,7 +46011,7 @@
         <v>29</v>
       </c>
       <c r="C2622">
-        <v>5865.5</v>
+        <v>7267.3</v>
       </c>
       <c r="D2622" t="s">
         <v>2624</v>
@@ -46025,7 +46025,7 @@
         <v>30</v>
       </c>
       <c r="C2623">
-        <v>5955.5</v>
+        <v>7427.3</v>
       </c>
       <c r="D2623" t="s">
         <v>2625</v>
@@ -46039,7 +46039,7 @@
         <v>31</v>
       </c>
       <c r="C2624">
-        <v>6035.5</v>
+        <v>7567.3</v>
       </c>
       <c r="D2624" t="s">
         <v>2626</v>
@@ -46053,7 +46053,7 @@
         <v>32</v>
       </c>
       <c r="C2625">
-        <v>6105.5</v>
+        <v>7697.3</v>
       </c>
       <c r="D2625" t="s">
         <v>2627</v>
@@ -46067,7 +46067,7 @@
         <v>33</v>
       </c>
       <c r="C2626">
-        <v>5836.5</v>
+        <v>7863.9</v>
       </c>
       <c r="D2626" t="s">
         <v>2628</v>
@@ -46081,7 +46081,7 @@
         <v>34</v>
       </c>
       <c r="C2627">
-        <v>5866.5</v>
+        <v>7953.9</v>
       </c>
       <c r="D2627" t="s">
         <v>2629</v>
@@ -46095,7 +46095,7 @@
         <v>35</v>
       </c>
       <c r="C2628">
-        <v>5876.5</v>
+        <v>8003.9</v>
       </c>
       <c r="D2628" t="s">
         <v>2630</v>
@@ -46109,7 +46109,7 @@
         <v>36</v>
       </c>
       <c r="C2629">
-        <v>5876.5</v>
+        <v>8033.9</v>
       </c>
       <c r="D2629" t="s">
         <v>2631</v>
@@ -46123,7 +46123,7 @@
         <v>37</v>
       </c>
       <c r="C2630">
-        <v>5985.6</v>
+        <v>7855.3</v>
       </c>
       <c r="D2630" t="s">
         <v>2632</v>
@@ -46137,7 +46137,7 @@
         <v>38</v>
       </c>
       <c r="C2631">
-        <v>5945.6</v>
+        <v>7845.3</v>
       </c>
       <c r="D2631" t="s">
         <v>2633</v>
@@ -46151,7 +46151,7 @@
         <v>39</v>
       </c>
       <c r="C2632">
-        <v>5885.6</v>
+        <v>7815.3</v>
       </c>
       <c r="D2632" t="s">
         <v>2634</v>
@@ -46165,7 +46165,7 @@
         <v>40</v>
       </c>
       <c r="C2633">
-        <v>5815.6</v>
+        <v>7765.3</v>
       </c>
       <c r="D2633" t="s">
         <v>2635</v>
@@ -46179,7 +46179,7 @@
         <v>41</v>
       </c>
       <c r="C2634">
-        <v>6230.2</v>
+        <v>7717.9</v>
       </c>
       <c r="D2634" t="s">
         <v>2636</v>
@@ -46193,7 +46193,7 @@
         <v>42</v>
       </c>
       <c r="C2635">
-        <v>6150.2</v>
+        <v>7667.9</v>
       </c>
       <c r="D2635" t="s">
         <v>2637</v>
@@ -46207,7 +46207,7 @@
         <v>43</v>
       </c>
       <c r="C2636">
-        <v>6080.2</v>
+        <v>7617.9</v>
       </c>
       <c r="D2636" t="s">
         <v>2638</v>
@@ -46221,7 +46221,7 @@
         <v>44</v>
       </c>
       <c r="C2637">
-        <v>6020.2</v>
+        <v>7567.9</v>
       </c>
       <c r="D2637" t="s">
         <v>2639</v>
@@ -46235,7 +46235,7 @@
         <v>45</v>
       </c>
       <c r="C2638">
-        <v>6452.8</v>
+        <v>7836.6</v>
       </c>
       <c r="D2638" t="s">
         <v>2640</v>
@@ -46249,7 +46249,7 @@
         <v>46</v>
       </c>
       <c r="C2639">
-        <v>6412.8</v>
+        <v>7806.6</v>
       </c>
       <c r="D2639" t="s">
         <v>2641</v>
@@ -46263,7 +46263,7 @@
         <v>47</v>
       </c>
       <c r="C2640">
-        <v>6382.8</v>
+        <v>7776.6</v>
       </c>
       <c r="D2640" t="s">
         <v>2642</v>
@@ -46277,7 +46277,7 @@
         <v>48</v>
       </c>
       <c r="C2641">
-        <v>6352.8</v>
+        <v>7756.6</v>
       </c>
       <c r="D2641" t="s">
         <v>2643</v>
@@ -46291,7 +46291,7 @@
         <v>49</v>
       </c>
       <c r="C2642">
-        <v>6563.8</v>
+        <v>7867.8</v>
       </c>
       <c r="D2642" t="s">
         <v>2644</v>
@@ -46305,7 +46305,7 @@
         <v>50</v>
       </c>
       <c r="C2643">
-        <v>6543.8</v>
+        <v>7847.8</v>
       </c>
       <c r="D2643" t="s">
         <v>2645</v>
@@ -46319,7 +46319,7 @@
         <v>51</v>
       </c>
       <c r="C2644">
-        <v>6533.8</v>
+        <v>7837.8</v>
       </c>
       <c r="D2644" t="s">
         <v>2646</v>
@@ -46333,7 +46333,7 @@
         <v>52</v>
       </c>
       <c r="C2645">
-        <v>6523.8</v>
+        <v>7827.8</v>
       </c>
       <c r="D2645" t="s">
         <v>2647</v>
@@ -46347,7 +46347,7 @@
         <v>53</v>
       </c>
       <c r="C2646">
-        <v>6559.3</v>
+        <v>7780.8</v>
       </c>
       <c r="D2646" t="s">
         <v>2648</v>
@@ -46361,7 +46361,7 @@
         <v>54</v>
       </c>
       <c r="C2647">
-        <v>6559.3</v>
+        <v>7780.8</v>
       </c>
       <c r="D2647" t="s">
         <v>2649</v>
@@ -46375,7 +46375,7 @@
         <v>55</v>
       </c>
       <c r="C2648">
-        <v>6559.3</v>
+        <v>7790.8</v>
       </c>
       <c r="D2648" t="s">
         <v>2650</v>
@@ -46389,7 +46389,7 @@
         <v>56</v>
       </c>
       <c r="C2649">
-        <v>6569.3</v>
+        <v>7800.8</v>
       </c>
       <c r="D2649" t="s">
         <v>2651</v>
@@ -46403,7 +46403,7 @@
         <v>57</v>
       </c>
       <c r="C2650">
-        <v>6488.6</v>
+        <v>7855</v>
       </c>
       <c r="D2650" t="s">
         <v>2652</v>
@@ -46417,7 +46417,7 @@
         <v>58</v>
       </c>
       <c r="C2651">
-        <v>6508.6</v>
+        <v>7875</v>
       </c>
       <c r="D2651" t="s">
         <v>2653</v>
@@ -46431,7 +46431,7 @@
         <v>59</v>
       </c>
       <c r="C2652">
-        <v>6528.6</v>
+        <v>7885</v>
       </c>
       <c r="D2652" t="s">
         <v>2654</v>
@@ -46445,7 +46445,7 @@
         <v>60</v>
       </c>
       <c r="C2653">
-        <v>6558.6</v>
+        <v>7895</v>
       </c>
       <c r="D2653" t="s">
         <v>2655</v>
@@ -46459,7 +46459,7 @@
         <v>61</v>
       </c>
       <c r="C2654">
-        <v>6336.8</v>
+        <v>7835.7</v>
       </c>
       <c r="D2654" t="s">
         <v>2656</v>
@@ -46473,7 +46473,7 @@
         <v>62</v>
       </c>
       <c r="C2655">
-        <v>6376.8</v>
+        <v>7845.7</v>
       </c>
       <c r="D2655" t="s">
         <v>2657</v>
@@ -46487,7 +46487,7 @@
         <v>63</v>
       </c>
       <c r="C2656">
-        <v>6416.8</v>
+        <v>7875.7</v>
       </c>
       <c r="D2656" t="s">
         <v>2658</v>
@@ -46501,7 +46501,7 @@
         <v>64</v>
       </c>
       <c r="C2657">
-        <v>6456.8</v>
+        <v>7895.7</v>
       </c>
       <c r="D2657" t="s">
         <v>2659</v>
@@ -46515,7 +46515,7 @@
         <v>65</v>
       </c>
       <c r="C2658">
-        <v>5907.6</v>
+        <v>7732.2</v>
       </c>
       <c r="D2658" t="s">
         <v>2660</v>
@@ -46529,7 +46529,7 @@
         <v>66</v>
       </c>
       <c r="C2659">
-        <v>5977.6</v>
+        <v>7772.2</v>
       </c>
       <c r="D2659" t="s">
         <v>2661</v>
@@ -46543,7 +46543,7 @@
         <v>67</v>
       </c>
       <c r="C2660">
-        <v>6057.6</v>
+        <v>7822.2</v>
       </c>
       <c r="D2660" t="s">
         <v>2662</v>
@@ -46557,7 +46557,7 @@
         <v>68</v>
       </c>
       <c r="C2661">
-        <v>6147.6</v>
+        <v>7872.2</v>
       </c>
       <c r="D2661" t="s">
         <v>2663</v>
@@ -46571,7 +46571,7 @@
         <v>69</v>
       </c>
       <c r="C2662">
-        <v>5821.6</v>
+        <v>7666.7</v>
       </c>
       <c r="D2662" t="s">
         <v>2664</v>
@@ -46585,7 +46585,7 @@
         <v>70</v>
       </c>
       <c r="C2663">
-        <v>5931.6</v>
+        <v>7726.7</v>
       </c>
       <c r="D2663" t="s">
         <v>2665</v>
@@ -46599,7 +46599,7 @@
         <v>71</v>
       </c>
       <c r="C2664">
-        <v>6041.6</v>
+        <v>7766.7</v>
       </c>
       <c r="D2664" t="s">
         <v>2666</v>
@@ -46613,7 +46613,7 @@
         <v>72</v>
       </c>
       <c r="C2665">
-        <v>6151.6</v>
+        <v>7816.7</v>
       </c>
       <c r="D2665" t="s">
         <v>2667</v>
@@ -46627,7 +46627,7 @@
         <v>73</v>
       </c>
       <c r="C2666">
-        <v>6010.1</v>
+        <v>7500.2</v>
       </c>
       <c r="D2666" t="s">
         <v>2668</v>
@@ -46641,7 +46641,7 @@
         <v>74</v>
       </c>
       <c r="C2667">
-        <v>6100.1</v>
+        <v>7550.2</v>
       </c>
       <c r="D2667" t="s">
         <v>2669</v>
@@ -46655,7 +46655,7 @@
         <v>75</v>
       </c>
       <c r="C2668">
-        <v>6180.1</v>
+        <v>7620.2</v>
       </c>
       <c r="D2668" t="s">
         <v>2670</v>
@@ -46669,7 +46669,7 @@
         <v>76</v>
       </c>
       <c r="C2669">
-        <v>6260.1</v>
+        <v>7700.2</v>
       </c>
       <c r="D2669" t="s">
         <v>2671</v>
@@ -46683,7 +46683,7 @@
         <v>77</v>
       </c>
       <c r="C2670">
-        <v>6236.3</v>
+        <v>7610.1</v>
       </c>
       <c r="D2670" t="s">
         <v>2672</v>
@@ -46697,7 +46697,7 @@
         <v>78</v>
       </c>
       <c r="C2671">
-        <v>6276.3</v>
+        <v>7680.1</v>
       </c>
       <c r="D2671" t="s">
         <v>2673</v>
@@ -46711,7 +46711,7 @@
         <v>79</v>
       </c>
       <c r="C2672">
-        <v>6276.3</v>
+        <v>7720.1</v>
       </c>
       <c r="D2672" t="s">
         <v>2674</v>
@@ -46725,7 +46725,7 @@
         <v>80</v>
       </c>
       <c r="C2673">
-        <v>6266.3</v>
+        <v>7730.1</v>
       </c>
       <c r="D2673" t="s">
         <v>2675</v>
@@ -46739,7 +46739,7 @@
         <v>81</v>
       </c>
       <c r="C2674">
-        <v>6609.5</v>
+        <v>7925.8</v>
       </c>
       <c r="D2674" t="s">
         <v>2676</v>
@@ -46753,7 +46753,7 @@
         <v>82</v>
       </c>
       <c r="C2675">
-        <v>6569.5</v>
+        <v>7885.8</v>
       </c>
       <c r="D2675" t="s">
         <v>2677</v>
@@ -46767,7 +46767,7 @@
         <v>83</v>
       </c>
       <c r="C2676">
-        <v>6499.5</v>
+        <v>7805.8</v>
       </c>
       <c r="D2676" t="s">
         <v>2678</v>
@@ -46781,7 +46781,7 @@
         <v>84</v>
       </c>
       <c r="C2677">
-        <v>6429.5</v>
+        <v>7715.8</v>
       </c>
       <c r="D2677" t="s">
         <v>2679</v>
@@ -46795,7 +46795,7 @@
         <v>85</v>
       </c>
       <c r="C2678">
-        <v>6826.2</v>
+        <v>7696.9</v>
       </c>
       <c r="D2678" t="s">
         <v>2680</v>
@@ -46809,7 +46809,7 @@
         <v>86</v>
       </c>
       <c r="C2679">
-        <v>6696.2</v>
+        <v>7586.9</v>
       </c>
       <c r="D2679" t="s">
         <v>2681</v>
@@ -46823,7 +46823,7 @@
         <v>87</v>
       </c>
       <c r="C2680">
-        <v>6586.2</v>
+        <v>7446.9</v>
       </c>
       <c r="D2680" t="s">
         <v>2682</v>
@@ -46837,7 +46837,7 @@
         <v>88</v>
       </c>
       <c r="C2681">
-        <v>6436.2</v>
+        <v>7316.9</v>
       </c>
       <c r="D2681" t="s">
         <v>2683</v>
@@ -46851,7 +46851,7 @@
         <v>89</v>
       </c>
       <c r="C2682">
-        <v>6776.6</v>
+        <v>7710.8</v>
       </c>
       <c r="D2682" t="s">
         <v>2684</v>
@@ -46865,7 +46865,7 @@
         <v>90</v>
       </c>
       <c r="C2683">
-        <v>6656.6</v>
+        <v>7560.8</v>
       </c>
       <c r="D2683" t="s">
         <v>2685</v>
@@ -46879,7 +46879,7 @@
         <v>91</v>
       </c>
       <c r="C2684">
-        <v>6486.6</v>
+        <v>7420.8</v>
       </c>
       <c r="D2684" t="s">
         <v>2686</v>
@@ -46893,7 +46893,7 @@
         <v>92</v>
       </c>
       <c r="C2685">
-        <v>6336.6</v>
+        <v>7260.8</v>
       </c>
       <c r="D2685" t="s">
         <v>2687</v>
@@ -46907,7 +46907,7 @@
         <v>93</v>
       </c>
       <c r="C2686">
-        <v>6379.8</v>
+        <v>7251.3</v>
       </c>
       <c r="D2686" t="s">
         <v>2688</v>
@@ -46921,7 +46921,7 @@
         <v>94</v>
       </c>
       <c r="C2687">
-        <v>6239.8</v>
+        <v>7111.3</v>
       </c>
       <c r="D2687" t="s">
         <v>2689</v>
@@ -46935,7 +46935,7 @@
         <v>95</v>
       </c>
       <c r="C2688">
-        <v>6109.8</v>
+        <v>6971.3</v>
       </c>
       <c r="D2688" t="s">
         <v>2690</v>
@@ -46949,7 +46949,7 @@
         <v>96</v>
       </c>
       <c r="C2689">
-        <v>5979.8</v>
+        <v>6861.3</v>
       </c>
       <c r="D2689" t="s">
         <v>2691</v>
@@ -46963,7 +46963,7 @@
         <v>1</v>
       </c>
       <c r="C2690">
-        <v>5666</v>
+        <v>5416</v>
       </c>
       <c r="D2690" t="s">
         <v>2692</v>
@@ -46977,7 +46977,7 @@
         <v>2</v>
       </c>
       <c r="C2691">
-        <v>5636</v>
+        <v>5356</v>
       </c>
       <c r="D2691" t="s">
         <v>2693</v>
@@ -46991,7 +46991,7 @@
         <v>3</v>
       </c>
       <c r="C2692">
-        <v>5616</v>
+        <v>5306</v>
       </c>
       <c r="D2692" t="s">
         <v>2694</v>
@@ -47005,7 +47005,7 @@
         <v>4</v>
       </c>
       <c r="C2693">
-        <v>5596</v>
+        <v>5246</v>
       </c>
       <c r="D2693" t="s">
         <v>2695</v>
@@ -47019,7 +47019,7 @@
         <v>5</v>
       </c>
       <c r="C2694">
-        <v>5064.3</v>
+        <v>6221.3</v>
       </c>
       <c r="D2694" t="s">
         <v>2696</v>
@@ -47033,7 +47033,7 @@
         <v>6</v>
       </c>
       <c r="C2695">
-        <v>5044.3</v>
+        <v>6171.3</v>
       </c>
       <c r="D2695" t="s">
         <v>2697</v>
@@ -47047,7 +47047,7 @@
         <v>7</v>
       </c>
       <c r="C2696">
-        <v>5024.3</v>
+        <v>6131.3</v>
       </c>
       <c r="D2696" t="s">
         <v>2698</v>
@@ -47061,7 +47061,7 @@
         <v>8</v>
       </c>
       <c r="C2697">
-        <v>4994.3</v>
+        <v>6091.3</v>
       </c>
       <c r="D2697" t="s">
         <v>2699</v>
@@ -47075,7 +47075,7 @@
         <v>9</v>
       </c>
       <c r="C2698">
-        <v>5082.1</v>
+        <v>6278.5</v>
       </c>
       <c r="D2698" t="s">
         <v>2700</v>
@@ -47089,7 +47089,7 @@
         <v>10</v>
       </c>
       <c r="C2699">
-        <v>5062.1</v>
+        <v>6248.5</v>
       </c>
       <c r="D2699" t="s">
         <v>2701</v>
@@ -47103,7 +47103,7 @@
         <v>11</v>
       </c>
       <c r="C2700">
-        <v>5052.1</v>
+        <v>6218.5</v>
       </c>
       <c r="D2700" t="s">
         <v>2702</v>
@@ -47117,7 +47117,7 @@
         <v>12</v>
       </c>
       <c r="C2701">
-        <v>5042.1</v>
+        <v>6198.5</v>
       </c>
       <c r="D2701" t="s">
         <v>2703</v>
@@ -47131,7 +47131,7 @@
         <v>13</v>
       </c>
       <c r="C2702">
-        <v>5067.6</v>
+        <v>6291.3</v>
       </c>
       <c r="D2702" t="s">
         <v>2704</v>
@@ -47145,7 +47145,7 @@
         <v>14</v>
       </c>
       <c r="C2703">
-        <v>5067.6</v>
+        <v>6281.3</v>
       </c>
       <c r="D2703" t="s">
         <v>2705</v>
@@ -47159,7 +47159,7 @@
         <v>15</v>
       </c>
       <c r="C2704">
-        <v>5067.6</v>
+        <v>6271.3</v>
       </c>
       <c r="D2704" t="s">
         <v>2706</v>
@@ -47173,7 +47173,7 @@
         <v>16</v>
       </c>
       <c r="C2705">
-        <v>5077.6</v>
+        <v>6271.3</v>
       </c>
       <c r="D2705" t="s">
         <v>2707</v>
@@ -47187,7 +47187,7 @@
         <v>17</v>
       </c>
       <c r="C2706">
-        <v>4930.4</v>
+        <v>6286</v>
       </c>
       <c r="D2706" t="s">
         <v>2708</v>
@@ -47201,7 +47201,7 @@
         <v>18</v>
       </c>
       <c r="C2707">
-        <v>4940.4</v>
+        <v>6296</v>
       </c>
       <c r="D2707" t="s">
         <v>2709</v>
@@ -47215,7 +47215,7 @@
         <v>19</v>
       </c>
       <c r="C2708">
-        <v>4950.4</v>
+        <v>6316</v>
       </c>
       <c r="D2708" t="s">
         <v>2710</v>
@@ -47229,7 +47229,7 @@
         <v>20</v>
       </c>
       <c r="C2709">
-        <v>4960.4</v>
+        <v>6346</v>
       </c>
       <c r="D2709" t="s">
         <v>2711</v>
@@ -47243,7 +47243,7 @@
         <v>21</v>
       </c>
       <c r="C2710">
-        <v>4847.6</v>
+        <v>6295</v>
       </c>
       <c r="D2710" t="s">
         <v>2712</v>
@@ -47257,7 +47257,7 @@
         <v>22</v>
       </c>
       <c r="C2711">
-        <v>4867.6</v>
+        <v>6325</v>
       </c>
       <c r="D2711" t="s">
         <v>2713</v>
@@ -47271,7 +47271,7 @@
         <v>23</v>
       </c>
       <c r="C2712">
-        <v>4907.6</v>
+        <v>6365</v>
       </c>
       <c r="D2712" t="s">
         <v>2714</v>
@@ -47285,7 +47285,7 @@
         <v>24</v>
       </c>
       <c r="C2713">
-        <v>4947.6</v>
+        <v>6395</v>
       </c>
       <c r="D2713" t="s">
         <v>2715</v>
@@ -47299,7 +47299,7 @@
         <v>25</v>
       </c>
       <c r="C2714">
-        <v>4488.6</v>
+        <v>6249.1</v>
       </c>
       <c r="D2714" t="s">
         <v>2716</v>
@@ -47313,7 +47313,7 @@
         <v>26</v>
       </c>
       <c r="C2715">
-        <v>4528.6</v>
+        <v>6279.1</v>
       </c>
       <c r="D2715" t="s">
         <v>2717</v>
@@ -47327,7 +47327,7 @@
         <v>27</v>
       </c>
       <c r="C2716">
-        <v>4558.6</v>
+        <v>6319.1</v>
       </c>
       <c r="D2716" t="s">
         <v>2718</v>
@@ -47341,7 +47341,7 @@
         <v>28</v>
       </c>
       <c r="C2717">
-        <v>4588.6</v>
+        <v>6359.1</v>
       </c>
       <c r="D2717" t="s">
         <v>2719</v>
@@ -47355,7 +47355,7 @@
         <v>29</v>
       </c>
       <c r="C2718">
-        <v>4241.5</v>
+        <v>6417.3</v>
       </c>
       <c r="D2718" t="s">
         <v>2720</v>
@@ -47369,7 +47369,7 @@
         <v>30</v>
       </c>
       <c r="C2719">
-        <v>4241.5</v>
+        <v>6467.3</v>
       </c>
       <c r="D2719" t="s">
         <v>2721</v>
@@ -47383,7 +47383,7 @@
         <v>31</v>
       </c>
       <c r="C2720">
-        <v>4241.5</v>
+        <v>6517.3</v>
       </c>
       <c r="D2720" t="s">
         <v>2722</v>
@@ -47397,7 +47397,7 @@
         <v>32</v>
       </c>
       <c r="C2721">
-        <v>4211.5</v>
+        <v>6587.3</v>
       </c>
       <c r="D2721" t="s">
         <v>2723</v>
@@ -47411,7 +47411,7 @@
         <v>33</v>
       </c>
       <c r="C2722">
-        <v>4333.8</v>
+        <v>6703.9</v>
       </c>
       <c r="D2722" t="s">
         <v>2724</v>
@@ -47425,7 +47425,7 @@
         <v>34</v>
       </c>
       <c r="C2723">
-        <v>4283.8</v>
+        <v>6773.9</v>
       </c>
       <c r="D2723" t="s">
         <v>2725</v>
@@ -47439,7 +47439,7 @@
         <v>35</v>
       </c>
       <c r="C2724">
-        <v>4213.8</v>
+        <v>6833.9</v>
       </c>
       <c r="D2724" t="s">
         <v>2726</v>
@@ -47453,7 +47453,7 @@
         <v>36</v>
       </c>
       <c r="C2725">
-        <v>4133.8</v>
+        <v>6883.9</v>
       </c>
       <c r="D2725" t="s">
         <v>2727</v>
@@ -47467,7 +47467,7 @@
         <v>37</v>
       </c>
       <c r="C2726">
-        <v>4552.1</v>
+        <v>6735.3</v>
       </c>
       <c r="D2726" t="s">
         <v>2728</v>
@@ -47481,7 +47481,7 @@
         <v>38</v>
       </c>
       <c r="C2727">
-        <v>4462.1</v>
+        <v>6775.3</v>
       </c>
       <c r="D2727" t="s">
         <v>2729</v>
@@ -47495,7 +47495,7 @@
         <v>39</v>
       </c>
       <c r="C2728">
-        <v>4372.1</v>
+        <v>6795.3</v>
       </c>
       <c r="D2728" t="s">
         <v>2730</v>
@@ -47509,7 +47509,7 @@
         <v>40</v>
       </c>
       <c r="C2729">
-        <v>4272.1</v>
+        <v>6795.3</v>
       </c>
       <c r="D2729" t="s">
         <v>2731</v>
@@ -47523,7 +47523,7 @@
         <v>41</v>
       </c>
       <c r="C2730">
-        <v>5068.9</v>
+        <v>6767.9</v>
       </c>
       <c r="D2730" t="s">
         <v>2732</v>
@@ -47537,7 +47537,7 @@
         <v>42</v>
       </c>
       <c r="C2731">
-        <v>4978.9</v>
+        <v>6747.9</v>
       </c>
       <c r="D2731" t="s">
         <v>2733</v>
@@ -47551,7 +47551,7 @@
         <v>43</v>
       </c>
       <c r="C2732">
-        <v>4898.9</v>
+        <v>6717.9</v>
       </c>
       <c r="D2732" t="s">
         <v>2734</v>
@@ -47565,7 +47565,7 @@
         <v>44</v>
       </c>
       <c r="C2733">
-        <v>4828.9</v>
+        <v>6697.9</v>
       </c>
       <c r="D2733" t="s">
         <v>2735</v>
@@ -47579,7 +47579,7 @@
         <v>45</v>
       </c>
       <c r="C2734">
-        <v>5288.7</v>
+        <v>6986.6</v>
       </c>
       <c r="D2734" t="s">
         <v>2736</v>
@@ -47593,7 +47593,7 @@
         <v>46</v>
       </c>
       <c r="C2735">
-        <v>5228.7</v>
+        <v>6966.6</v>
       </c>
       <c r="D2735" t="s">
         <v>2737</v>
@@ -47607,7 +47607,7 @@
         <v>47</v>
       </c>
       <c r="C2736">
-        <v>5168.7</v>
+        <v>6956.6</v>
       </c>
       <c r="D2736" t="s">
         <v>2738</v>
@@ -47621,7 +47621,7 @@
         <v>48</v>
       </c>
       <c r="C2737">
-        <v>5118.7</v>
+        <v>6946.6</v>
       </c>
       <c r="D2737" t="s">
         <v>2739</v>
@@ -47635,7 +47635,7 @@
         <v>49</v>
       </c>
       <c r="C2738">
-        <v>5187.3</v>
+        <v>7067.8</v>
       </c>
       <c r="D2738" t="s">
         <v>2740</v>
@@ -47649,7 +47649,7 @@
         <v>50</v>
       </c>
       <c r="C2739">
-        <v>5157.3</v>
+        <v>7047.8</v>
       </c>
       <c r="D2739" t="s">
         <v>2741</v>
@@ -47663,7 +47663,7 @@
         <v>51</v>
       </c>
       <c r="C2740">
-        <v>5137.3</v>
+        <v>7037.8</v>
       </c>
       <c r="D2740" t="s">
         <v>2742</v>
@@ -47677,7 +47677,7 @@
         <v>52</v>
       </c>
       <c r="C2741">
-        <v>5117.3</v>
+        <v>7017.8</v>
       </c>
       <c r="D2741" t="s">
         <v>2743</v>
@@ -47691,7 +47691,7 @@
         <v>53</v>
       </c>
       <c r="C2742">
-        <v>4704.8</v>
+        <v>6960.8</v>
       </c>
       <c r="D2742" t="s">
         <v>2744</v>
@@ -47705,7 +47705,7 @@
         <v>54</v>
       </c>
       <c r="C2743">
-        <v>4714.8</v>
+        <v>6940.8</v>
       </c>
       <c r="D2743" t="s">
         <v>2745</v>
@@ -47719,7 +47719,7 @@
         <v>55</v>
       </c>
       <c r="C2744">
-        <v>4734.8</v>
+        <v>6920.8</v>
       </c>
       <c r="D2744" t="s">
         <v>2746</v>
@@ -47733,7 +47733,7 @@
         <v>56</v>
       </c>
       <c r="C2745">
-        <v>4764.8</v>
+        <v>6910.8</v>
       </c>
       <c r="D2745" t="s">
         <v>2747</v>
@@ -47747,7 +47747,7 @@
         <v>57</v>
       </c>
       <c r="C2746">
-        <v>4651.1</v>
+        <v>6955</v>
       </c>
       <c r="D2746" t="s">
         <v>2748</v>
@@ -47761,7 +47761,7 @@
         <v>58</v>
       </c>
       <c r="C2747">
-        <v>4701.1</v>
+        <v>6955</v>
       </c>
       <c r="D2747" t="s">
         <v>2749</v>
@@ -47775,7 +47775,7 @@
         <v>59</v>
       </c>
       <c r="C2748">
-        <v>4761.1</v>
+        <v>6975</v>
       </c>
       <c r="D2748" t="s">
         <v>2750</v>
@@ -47789,7 +47789,7 @@
         <v>60</v>
       </c>
       <c r="C2749">
-        <v>4821.1</v>
+        <v>6995</v>
       </c>
       <c r="D2749" t="s">
         <v>2751</v>
@@ -47803,7 +47803,7 @@
         <v>61</v>
       </c>
       <c r="C2750">
-        <v>4925.9</v>
+        <v>6945.7</v>
       </c>
       <c r="D2750" t="s">
         <v>2752</v>
@@ -47817,7 +47817,7 @@
         <v>62</v>
       </c>
       <c r="C2751">
-        <v>5005.9</v>
+        <v>6975.7</v>
       </c>
       <c r="D2751" t="s">
         <v>2753</v>
@@ -47831,7 +47831,7 @@
         <v>63</v>
       </c>
       <c r="C2752">
-        <v>5105.9</v>
+        <v>7005.7</v>
       </c>
       <c r="D2752" t="s">
         <v>2754</v>
@@ -47845,7 +47845,7 @@
         <v>64</v>
       </c>
       <c r="C2753">
-        <v>5205.9</v>
+        <v>7045.7</v>
       </c>
       <c r="D2753" t="s">
         <v>2755</v>
@@ -47859,7 +47859,7 @@
         <v>65</v>
       </c>
       <c r="C2754">
-        <v>4417.3</v>
+        <v>6892.2</v>
       </c>
       <c r="D2754" t="s">
         <v>2756</v>
@@ -47873,7 +47873,7 @@
         <v>66</v>
       </c>
       <c r="C2755">
-        <v>4557.3</v>
+        <v>6942.2</v>
       </c>
       <c r="D2755" t="s">
         <v>2757</v>
@@ -47887,7 +47887,7 @@
         <v>67</v>
       </c>
       <c r="C2756">
-        <v>4707.3</v>
+        <v>7002.2</v>
       </c>
       <c r="D2756" t="s">
         <v>2758</v>
@@ -47901,7 +47901,7 @@
         <v>68</v>
       </c>
       <c r="C2757">
-        <v>4867.3</v>
+        <v>7072.2</v>
       </c>
       <c r="D2757" t="s">
         <v>2759</v>
@@ -47915,7 +47915,7 @@
         <v>69</v>
       </c>
       <c r="C2758">
-        <v>4182.2</v>
+        <v>6896.7</v>
       </c>
       <c r="D2758" t="s">
         <v>2760</v>
@@ -47929,7 +47929,7 @@
         <v>70</v>
       </c>
       <c r="C2759">
-        <v>4342.2</v>
+        <v>6976.7</v>
       </c>
       <c r="D2759" t="s">
         <v>2761</v>
@@ -47943,7 +47943,7 @@
         <v>71</v>
       </c>
       <c r="C2760">
-        <v>4512.2</v>
+        <v>7056.7</v>
       </c>
       <c r="D2760" t="s">
         <v>2762</v>
@@ -47957,7 +47957,7 @@
         <v>72</v>
       </c>
       <c r="C2761">
-        <v>4662.2</v>
+        <v>7136.7</v>
       </c>
       <c r="D2761" t="s">
         <v>2763</v>
@@ -47971,7 +47971,7 @@
         <v>73</v>
       </c>
       <c r="C2762">
-        <v>4344.6</v>
+        <v>6830.2</v>
       </c>
       <c r="D2762" t="s">
         <v>2764</v>
@@ -47985,7 +47985,7 @@
         <v>74</v>
       </c>
       <c r="C2763">
-        <v>4494.6</v>
+        <v>6910.2</v>
       </c>
       <c r="D2763" t="s">
         <v>2765</v>
@@ -47999,7 +47999,7 @@
         <v>75</v>
       </c>
       <c r="C2764">
-        <v>4654.6</v>
+        <v>7000.2</v>
       </c>
       <c r="D2764" t="s">
         <v>2766</v>
@@ -48013,7 +48013,7 @@
         <v>76</v>
       </c>
       <c r="C2765">
-        <v>4794.6</v>
+        <v>7080.2</v>
       </c>
       <c r="D2765" t="s">
         <v>2767</v>
@@ -48027,7 +48027,7 @@
         <v>77</v>
       </c>
       <c r="C2766">
-        <v>4873.2</v>
+        <v>7000.1</v>
       </c>
       <c r="D2766" t="s">
         <v>2768</v>
@@ -48041,7 +48041,7 @@
         <v>78</v>
       </c>
       <c r="C2767">
-        <v>4983.2</v>
+        <v>7080.1</v>
       </c>
       <c r="D2767" t="s">
         <v>2769</v>
@@ -48055,7 +48055,7 @@
         <v>79</v>
       </c>
       <c r="C2768">
-        <v>5043.2</v>
+        <v>7100.1</v>
       </c>
       <c r="D2768" t="s">
         <v>2770</v>
@@ -48069,7 +48069,7 @@
         <v>80</v>
       </c>
       <c r="C2769">
-        <v>5053.2</v>
+        <v>7100.1</v>
       </c>
       <c r="D2769" t="s">
         <v>2771</v>
@@ -48083,7 +48083,7 @@
         <v>81</v>
       </c>
       <c r="C2770">
-        <v>5300.2</v>
+        <v>7295.8</v>
       </c>
       <c r="D2770" t="s">
         <v>2772</v>
@@ -48097,7 +48097,7 @@
         <v>82</v>
       </c>
       <c r="C2771">
-        <v>5270.2</v>
+        <v>7265.8</v>
       </c>
       <c r="D2771" t="s">
         <v>2773</v>
@@ -48111,7 +48111,7 @@
         <v>83</v>
       </c>
       <c r="C2772">
-        <v>5200.2</v>
+        <v>7215.8</v>
       </c>
       <c r="D2772" t="s">
         <v>2774</v>
@@ -48125,7 +48125,7 @@
         <v>84</v>
       </c>
       <c r="C2773">
-        <v>5120.2</v>
+        <v>7145.8</v>
       </c>
       <c r="D2773" t="s">
         <v>2775</v>
@@ -48139,7 +48139,7 @@
         <v>85</v>
       </c>
       <c r="C2774">
-        <v>5406.9</v>
+        <v>7116.9</v>
       </c>
       <c r="D2774" t="s">
         <v>2776</v>
@@ -48153,7 +48153,7 @@
         <v>86</v>
       </c>
       <c r="C2775">
-        <v>5286.9</v>
+        <v>7006.9</v>
       </c>
       <c r="D2775" t="s">
         <v>2777</v>
@@ -48167,7 +48167,7 @@
         <v>87</v>
       </c>
       <c r="C2776">
-        <v>5176.9</v>
+        <v>6906.9</v>
       </c>
       <c r="D2776" t="s">
         <v>2778</v>
@@ -48181,7 +48181,7 @@
         <v>88</v>
       </c>
       <c r="C2777">
-        <v>5046.9</v>
+        <v>6796.9</v>
       </c>
       <c r="D2777" t="s">
         <v>2779</v>
@@ -48195,7 +48195,7 @@
         <v>89</v>
       </c>
       <c r="C2778">
-        <v>5470.2</v>
+        <v>7190.8</v>
       </c>
       <c r="D2778" t="s">
         <v>2780</v>
@@ -48209,7 +48209,7 @@
         <v>90</v>
       </c>
       <c r="C2779">
-        <v>5330.2</v>
+        <v>7060.8</v>
       </c>
       <c r="D2779" t="s">
         <v>2781</v>
@@ -48223,7 +48223,7 @@
         <v>91</v>
       </c>
       <c r="C2780">
-        <v>5200.2</v>
+        <v>6930.8</v>
       </c>
       <c r="D2780" t="s">
         <v>2782</v>
@@ -48237,7 +48237,7 @@
         <v>92</v>
       </c>
       <c r="C2781">
-        <v>5070.2</v>
+        <v>6790.8</v>
       </c>
       <c r="D2781" t="s">
         <v>2783</v>
@@ -48251,7 +48251,7 @@
         <v>93</v>
       </c>
       <c r="C2782">
-        <v>5261.4</v>
+        <v>6791.3</v>
       </c>
       <c r="D2782" t="s">
         <v>2784</v>
@@ -48265,7 +48265,7 @@
         <v>94</v>
       </c>
       <c r="C2783">
-        <v>5131.4</v>
+        <v>6661.3</v>
       </c>
       <c r="D2783" t="s">
         <v>2785</v>
@@ -48279,7 +48279,7 @@
         <v>95</v>
       </c>
       <c r="C2784">
-        <v>5011.4</v>
+        <v>6561.3</v>
       </c>
       <c r="D2784" t="s">
         <v>2786</v>
@@ -48293,7 +48293,7 @@
         <v>96</v>
       </c>
       <c r="C2785">
-        <v>4901.4</v>
+        <v>6451.3</v>
       </c>
       <c r="D2785" t="s">
         <v>2787</v>
@@ -48307,7 +48307,7 @@
         <v>1</v>
       </c>
       <c r="C2786">
-        <v>5310.9</v>
+        <v>5108.191213470099</v>
       </c>
       <c r="D2786" t="s">
         <v>2788</v>
@@ -48321,7 +48321,7 @@
         <v>2</v>
       </c>
       <c r="C2787">
-        <v>5250.9</v>
+        <v>5061.365202245017</v>
       </c>
       <c r="D2787" t="s">
         <v>2789</v>
@@ -48335,7 +48335,7 @@
         <v>3</v>
       </c>
       <c r="C2788">
-        <v>5200.9</v>
+        <v>5014.539191019934</v>
       </c>
       <c r="D2788" t="s">
         <v>2790</v>
@@ -48349,7 +48349,7 @@
         <v>4</v>
       </c>
       <c r="C2789">
-        <v>5150.9</v>
+        <v>4958.347977549835</v>
       </c>
       <c r="D2789" t="s">
         <v>2791</v>
@@ -48363,7 +48363,7 @@
         <v>5</v>
       </c>
       <c r="C2790">
-        <v>5087</v>
+        <v>4917.967098896846</v>
       </c>
       <c r="D2790" t="s">
         <v>2792</v>
@@ -48377,7 +48377,7 @@
         <v>6</v>
       </c>
       <c r="C2791">
-        <v>5037</v>
+        <v>4880.50628991678</v>
       </c>
       <c r="D2791" t="s">
         <v>2793</v>
@@ -48391,7 +48391,7 @@
         <v>7</v>
       </c>
       <c r="C2792">
-        <v>4997</v>
+        <v>4852.41068318173</v>
       </c>
       <c r="D2792" t="s">
         <v>2794</v>
@@ -48405,7 +48405,7 @@
         <v>8</v>
       </c>
       <c r="C2793">
-        <v>4967</v>
+        <v>4814.949874201665</v>
       </c>
       <c r="D2793" t="s">
         <v>2795</v>
@@ -48419,7 +48419,7 @@
         <v>9</v>
       </c>
       <c r="C2794">
-        <v>4916</v>
+        <v>4778.949100058061</v>
       </c>
       <c r="D2794" t="s">
         <v>2796</v>
@@ -48433,7 +48433,7 @@
         <v>10</v>
       </c>
       <c r="C2795">
-        <v>4886</v>
+        <v>4750.853493323011</v>
       </c>
       <c r="D2795" t="s">
         <v>2797</v>
@@ -48447,7 +48447,7 @@
         <v>11</v>
       </c>
       <c r="C2796">
-        <v>4856</v>
+        <v>4722.757886587962</v>
       </c>
       <c r="D2796" t="s">
         <v>2798</v>
@@ -48461,7 +48461,7 @@
         <v>12</v>
       </c>
       <c r="C2797">
-        <v>4826</v>
+        <v>4704.027482097929</v>
       </c>
       <c r="D2797" t="s">
         <v>2799</v>
@@ -48475,7 +48475,7 @@
         <v>17</v>
       </c>
       <c r="C2798">
-        <v>4694</v>
+        <v>4647.07451132185</v>
       </c>
       <c r="D2798" t="s">
         <v>2800</v>
@@ -48489,7 +48489,7 @@
         <v>18</v>
       </c>
       <c r="C2799">
-        <v>4694</v>
+        <v>4647.07451132185</v>
       </c>
       <c r="D2799" t="s">
         <v>2801</v>
@@ -48503,7 +48503,7 @@
         <v>19</v>
       </c>
       <c r="C2800">
-        <v>4704</v>
+        <v>4647.07451132185</v>
       </c>
       <c r="D2800" t="s">
         <v>2802</v>
@@ -48517,7 +48517,7 @@
         <v>20</v>
       </c>
       <c r="C2801">
-        <v>4724</v>
+        <v>4656.439713566867</v>
       </c>
       <c r="D2801" t="s">
         <v>2803</v>
@@ -48531,7 +48531,7 @@
         <v>21</v>
       </c>
       <c r="C2802">
-        <v>4774</v>
+        <v>4664.408360750919</v>
       </c>
       <c r="D2802" t="s">
         <v>2804</v>
@@ -48545,7 +48545,7 @@
         <v>22</v>
       </c>
       <c r="C2803">
-        <v>4804</v>
+        <v>4683.138765240952</v>
       </c>
       <c r="D2803" t="s">
         <v>2805</v>
@@ -48559,7 +48559,7 @@
         <v>23</v>
       </c>
       <c r="C2804">
-        <v>4834</v>
+        <v>4711.234371976002</v>
       </c>
       <c r="D2804" t="s">
         <v>2806</v>
@@ -48573,7 +48573,7 @@
         <v>24</v>
       </c>
       <c r="C2805">
-        <v>4864</v>
+        <v>4729.964776466035</v>
       </c>
       <c r="D2805" t="s">
         <v>2807</v>
@@ -48587,7 +48587,7 @@
         <v>25</v>
       </c>
       <c r="C2806">
-        <v>4944</v>
+        <v>4760.218695568028</v>
       </c>
       <c r="D2806" t="s">
         <v>2808</v>
@@ -48601,7 +48601,7 @@
         <v>26</v>
       </c>
       <c r="C2807">
-        <v>4964</v>
+        <v>4778.949100058061</v>
       </c>
       <c r="D2807" t="s">
         <v>2809</v>
@@ -48615,7 +48615,7 @@
         <v>27</v>
       </c>
       <c r="C2808">
-        <v>4984</v>
+        <v>4797.679504548094</v>
       </c>
       <c r="D2808" t="s">
         <v>2810</v>
@@ -48629,7 +48629,7 @@
         <v>28</v>
       </c>
       <c r="C2809">
-        <v>4984</v>
+        <v>4816.409909038127</v>
       </c>
       <c r="D2809" t="s">
         <v>2811</v>
@@ -48643,7 +48643,7 @@
         <v>29</v>
       </c>
       <c r="C2810">
-        <v>4852</v>
+        <v>4827.332301141862</v>
       </c>
       <c r="D2810" t="s">
         <v>2812</v>
@@ -48657,7 +48657,7 @@
         <v>30</v>
       </c>
       <c r="C2811">
-        <v>4842</v>
+        <v>4846.062705631894</v>
       </c>
       <c r="D2811" t="s">
         <v>2813</v>
@@ -48671,7 +48671,7 @@
         <v>31</v>
       </c>
       <c r="C2812">
-        <v>4822</v>
+        <v>4874.158312366944</v>
       </c>
       <c r="D2812" t="s">
         <v>2814</v>
@@ -48685,7 +48685,7 @@
         <v>32</v>
       </c>
       <c r="C2813">
-        <v>4792</v>
+        <v>4902.253919101993</v>
       </c>
       <c r="D2813" t="s">
         <v>2815</v>
@@ -48699,7 +48699,7 @@
         <v>33</v>
       </c>
       <c r="C2814">
-        <v>4735</v>
+        <v>4917.746855041611</v>
       </c>
       <c r="D2814" t="s">
         <v>2816</v>
@@ -48713,7 +48713,7 @@
         <v>34</v>
       </c>
       <c r="C2815">
-        <v>4685</v>
+        <v>4936.477259531644</v>
       </c>
       <c r="D2815" t="s">
         <v>2817</v>
@@ -48727,7 +48727,7 @@
         <v>35</v>
       </c>
       <c r="C2816">
-        <v>4615</v>
+        <v>4955.207664021676</v>
       </c>
       <c r="D2816" t="s">
         <v>2818</v>
@@ -48741,7 +48741,7 @@
         <v>36</v>
       </c>
       <c r="C2817">
-        <v>4525</v>
+        <v>4964.572866266692</v>
       </c>
       <c r="D2817" t="s">
         <v>2819</v>
@@ -48755,7 +48755,7 @@
         <v>37</v>
       </c>
       <c r="C2818">
-        <v>4558</v>
+        <v>4960.954519063286</v>
       </c>
       <c r="D2818" t="s">
         <v>2820</v>
@@ -48769,7 +48769,7 @@
         <v>38</v>
       </c>
       <c r="C2819">
-        <v>4448</v>
+        <v>4951.58931681827</v>
       </c>
       <c r="D2819" t="s">
         <v>2821</v>
@@ -48783,7 +48783,7 @@
         <v>39</v>
       </c>
       <c r="C2820">
-        <v>4338</v>
+        <v>4932.858912328237</v>
       </c>
       <c r="D2820" t="s">
         <v>2822</v>
@@ -48797,7 +48797,7 @@
         <v>40</v>
       </c>
       <c r="C2821">
-        <v>4228</v>
+        <v>4914.128507838204</v>
       </c>
       <c r="D2821" t="s">
         <v>2823</v>
@@ -48811,7 +48811,7 @@
         <v>41</v>
       </c>
       <c r="C2822">
-        <v>4285</v>
+        <v>4877.840139345849</v>
       </c>
       <c r="D2822" t="s">
         <v>2824</v>
@@ -48825,7 +48825,7 @@
         <v>42</v>
       </c>
       <c r="C2823">
-        <v>4185</v>
+        <v>4831.014128120766</v>
       </c>
       <c r="D2823" t="s">
         <v>2825</v>
@@ -48839,7 +48839,7 @@
         <v>43</v>
       </c>
       <c r="C2824">
-        <v>4095</v>
+        <v>4784.188116895684</v>
       </c>
       <c r="D2824" t="s">
         <v>2826</v>
@@ -48853,7 +48853,7 @@
         <v>44</v>
       </c>
       <c r="C2825">
-        <v>4015</v>
+        <v>4737.362105670602</v>
       </c>
       <c r="D2825" t="s">
         <v>2827</v>
@@ -48867,7 +48867,7 @@
         <v>45</v>
       </c>
       <c r="C2826">
-        <v>3972</v>
+        <v>4698.504741629572</v>
       </c>
       <c r="D2826" t="s">
         <v>2828</v>
@@ -48881,7 +48881,7 @@
         <v>46</v>
       </c>
       <c r="C2827">
-        <v>3932</v>
+        <v>4670.409134894523</v>
       </c>
       <c r="D2827" t="s">
         <v>2829</v>
@@ -48895,7 +48895,7 @@
         <v>47</v>
       </c>
       <c r="C2828">
-        <v>3902</v>
+        <v>4642.313528159473</v>
       </c>
       <c r="D2828" t="s">
         <v>2830</v>
@@ -48909,7 +48909,7 @@
         <v>48</v>
       </c>
       <c r="C2829">
-        <v>3882</v>
+        <v>4632.948325914457</v>
       </c>
       <c r="D2829" t="s">
         <v>2831</v>
@@ -48923,7 +48923,7 @@
         <v>49</v>
       </c>
       <c r="C2830">
-        <v>3868</v>
+        <v>4613.011805689956</v>
       </c>
       <c r="D2830" t="s">
         <v>2832</v>
@@ -48937,7 +48937,7 @@
         <v>50</v>
       </c>
       <c r="C2831">
-        <v>3858</v>
+        <v>4603.64660344494</v>
       </c>
       <c r="D2831" t="s">
         <v>2833</v>
@@ -48951,7 +48951,7 @@
         <v>51</v>
       </c>
       <c r="C2832">
-        <v>3858</v>
+        <v>4603.64660344494</v>
       </c>
       <c r="D2832" t="s">
         <v>2834</v>
@@ -48965,7 +48965,7 @@
         <v>52</v>
       </c>
       <c r="C2833">
-        <v>3858</v>
+        <v>4594.281401199923</v>
       </c>
       <c r="D2833" t="s">
         <v>2835</v>
@@ -48979,7 +48979,7 @@
         <v>53</v>
       </c>
       <c r="C2834">
-        <v>3881</v>
+        <v>4583.138765240952</v>
       </c>
       <c r="D2834" t="s">
         <v>2836</v>
@@ -48993,7 +48993,7 @@
         <v>54</v>
       </c>
       <c r="C2835">
-        <v>3881</v>
+        <v>4573.773562995936</v>
       </c>
       <c r="D2835" t="s">
         <v>2837</v>
@@ -49007,7 +49007,7 @@
         <v>55</v>
       </c>
       <c r="C2836">
-        <v>3881</v>
+        <v>4573.773562995936</v>
       </c>
       <c r="D2836" t="s">
         <v>2838</v>
@@ -49021,7 +49021,7 @@
         <v>56</v>
       </c>
       <c r="C2837">
-        <v>3881</v>
+        <v>4564.408360750919</v>
       </c>
       <c r="D2837" t="s">
         <v>2839</v>
@@ -49035,7 +49035,7 @@
         <v>57</v>
       </c>
       <c r="C2838">
-        <v>3853</v>
+        <v>4569.901296690537</v>
       </c>
       <c r="D2838" t="s">
         <v>2840</v>
@@ -49049,7 +49049,7 @@
         <v>58</v>
       </c>
       <c r="C2839">
-        <v>3873</v>
+        <v>4579.266498935553</v>
       </c>
       <c r="D2839" t="s">
         <v>2841</v>
@@ -49063,7 +49063,7 @@
         <v>59</v>
       </c>
       <c r="C2840">
-        <v>3893</v>
+        <v>4588.63170118057</v>
       </c>
       <c r="D2840" t="s">
         <v>2842</v>
@@ -49077,7 +49077,7 @@
         <v>60</v>
       </c>
       <c r="C2841">
-        <v>3923</v>
+        <v>4597.996903425586</v>
       </c>
       <c r="D2841" t="s">
         <v>2843</v>
@@ -49091,7 +49091,7 @@
         <v>61</v>
       </c>
       <c r="C2842">
-        <v>3878</v>
+        <v>4616.219469711632</v>
       </c>
       <c r="D2842" t="s">
         <v>2844</v>
@@ -49105,7 +49105,7 @@
         <v>62</v>
       </c>
       <c r="C2843">
-        <v>3918</v>
+        <v>4634.949874201665</v>
       </c>
       <c r="D2843" t="s">
         <v>2845</v>
@@ -49119,7 +49119,7 @@
         <v>63</v>
       </c>
       <c r="C2844">
-        <v>3968</v>
+        <v>4663.045480936714</v>
       </c>
       <c r="D2844" t="s">
         <v>2846</v>
@@ -49133,7 +49133,7 @@
         <v>64</v>
       </c>
       <c r="C2845">
-        <v>4028</v>
+        <v>4691.141087671763</v>
       </c>
       <c r="D2845" t="s">
         <v>2847</v>
@@ -49147,7 +49147,7 @@
         <v>65</v>
       </c>
       <c r="C2846">
-        <v>4203</v>
+        <v>4730.603444939036</v>
       </c>
       <c r="D2846" t="s">
         <v>2848</v>
@@ -49161,7 +49161,7 @@
         <v>66</v>
       </c>
       <c r="C2847">
-        <v>4283</v>
+        <v>4786.794658409135</v>
       </c>
       <c r="D2847" t="s">
         <v>2849</v>
@@ -49175,7 +49175,7 @@
         <v>67</v>
       </c>
       <c r="C2848">
-        <v>4393</v>
+        <v>4852.35107412425</v>
       </c>
       <c r="D2848" t="s">
         <v>2850</v>
@@ -49189,7 +49189,7 @@
         <v>68</v>
       </c>
       <c r="C2849">
-        <v>4503</v>
+        <v>4936.637894329398</v>
       </c>
       <c r="D2849" t="s">
         <v>2851</v>
@@ -49203,7 +49203,7 @@
         <v>69</v>
       </c>
       <c r="C2850">
-        <v>4537</v>
+        <v>5026.701374104897</v>
       </c>
       <c r="D2850" t="s">
         <v>2852</v>
@@ -49217,7 +49217,7 @@
         <v>70</v>
       </c>
       <c r="C2851">
-        <v>4667</v>
+        <v>5120.353396555061</v>
       </c>
       <c r="D2851" t="s">
         <v>2853</v>
@@ -49231,7 +49231,7 @@
         <v>71</v>
       </c>
       <c r="C2852">
-        <v>4807</v>
+        <v>5204.640216760209</v>
       </c>
       <c r="D2852" t="s">
         <v>2854</v>
@@ -49245,7 +49245,7 @@
         <v>72</v>
       </c>
       <c r="C2853">
-        <v>4937</v>
+        <v>5288.927036965357</v>
       </c>
       <c r="D2853" t="s">
         <v>2855</v>
@@ -49259,7 +49259,7 @@
         <v>73</v>
       </c>
       <c r="C2854">
-        <v>4951</v>
+        <v>5362.769498742016</v>
       </c>
       <c r="D2854" t="s">
         <v>2856</v>
@@ -49273,7 +49273,7 @@
         <v>74</v>
       </c>
       <c r="C2855">
-        <v>5101</v>
+        <v>5428.325914457132</v>
       </c>
       <c r="D2855" t="s">
         <v>2857</v>
@@ -49287,7 +49287,7 @@
         <v>75</v>
       </c>
       <c r="C2856">
-        <v>5251</v>
+        <v>5503.247532417264</v>
       </c>
       <c r="D2856" t="s">
         <v>2858</v>
@@ -49301,7 +49301,7 @@
         <v>76</v>
       </c>
       <c r="C2857">
-        <v>5421</v>
+        <v>5596.899554867428</v>
       </c>
       <c r="D2857" t="s">
         <v>2859</v>
@@ -49315,7 +49315,7 @@
         <v>77</v>
       </c>
       <c r="C2858">
-        <v>5606</v>
+        <v>5700.297658215599</v>
       </c>
       <c r="D2858" t="s">
         <v>2860</v>
@@ -49329,7 +49329,7 @@
         <v>78</v>
       </c>
       <c r="C2859">
-        <v>5796</v>
+        <v>5822.045287400813</v>
       </c>
       <c r="D2859" t="s">
         <v>2861</v>
@@ -49343,7 +49343,7 @@
         <v>79</v>
       </c>
       <c r="C2860">
-        <v>5996</v>
+        <v>5943.792916586027</v>
       </c>
       <c r="D2860" t="s">
         <v>2862</v>
@@ -49357,7 +49357,7 @@
         <v>80</v>
       </c>
       <c r="C2861">
-        <v>6176</v>
+        <v>6056.175343526224</v>
       </c>
       <c r="D2861" t="s">
         <v>2863</v>
@@ -49371,7 +49371,7 @@
         <v>81</v>
       </c>
       <c r="C2862">
-        <v>6339</v>
+        <v>6161.160441261854</v>
       </c>
       <c r="D2862" t="s">
         <v>2864</v>
@@ -49385,7 +49385,7 @@
         <v>82</v>
       </c>
       <c r="C2863">
-        <v>6469</v>
+        <v>6254.812463712019</v>
       </c>
       <c r="D2863" t="s">
         <v>2865</v>
@@ -49399,7 +49399,7 @@
         <v>83</v>
       </c>
       <c r="C2864">
-        <v>6519</v>
+        <v>6273.542868202052</v>
       </c>
       <c r="D2864" t="s">
         <v>2866</v>
@@ -49413,7 +49413,7 @@
         <v>84</v>
       </c>
       <c r="C2865">
-        <v>6529</v>
+        <v>6273.542868202052</v>
       </c>
       <c r="D2865" t="s">
         <v>2867</v>
@@ -49427,7 +49427,7 @@
         <v>85</v>
       </c>
       <c r="C2866">
-        <v>6517</v>
+        <v>6255.828140119992</v>
       </c>
       <c r="D2866" t="s">
         <v>2868</v>
@@ -49441,7 +49441,7 @@
         <v>86</v>
       </c>
       <c r="C2867">
-        <v>6477</v>
+        <v>6209.00212889491</v>
       </c>
       <c r="D2867" t="s">
         <v>2869</v>
@@ -49455,7 +49455,7 @@
         <v>87</v>
       </c>
       <c r="C2868">
-        <v>6417</v>
+        <v>6162.176117669828</v>
       </c>
       <c r="D2868" t="s">
         <v>2870</v>
@@ -49469,7 +49469,7 @@
         <v>88</v>
       </c>
       <c r="C2869">
-        <v>6337</v>
+        <v>6087.254499709697</v>
       </c>
       <c r="D2869" t="s">
         <v>2871</v>
@@ -49483,7 +49483,7 @@
         <v>89</v>
       </c>
       <c r="C2870">
-        <v>6295</v>
+        <v>5975.887749177473</v>
       </c>
       <c r="D2870" t="s">
         <v>2872</v>
@@ -49497,7 +49497,7 @@
         <v>90</v>
       </c>
       <c r="C2871">
-        <v>6175</v>
+        <v>5854.140119992258</v>
       </c>
       <c r="D2871" t="s">
         <v>2873</v>
@@ -49511,7 +49511,7 @@
         <v>91</v>
       </c>
       <c r="C2872">
-        <v>6025</v>
+        <v>5741.757693052061</v>
       </c>
       <c r="D2872" t="s">
         <v>2874</v>
@@ -49525,7 +49525,7 @@
         <v>92</v>
       </c>
       <c r="C2873">
-        <v>5885</v>
+        <v>5601.279659376814</v>
       </c>
       <c r="D2873" t="s">
         <v>2875</v>
@@ -49539,7 +49539,7 @@
         <v>93</v>
       </c>
       <c r="C2874">
-        <v>5773</v>
+        <v>5473.912134700987</v>
       </c>
       <c r="D2874" t="s">
         <v>2876</v>
@@ -49553,7 +49553,7 @@
         <v>94</v>
       </c>
       <c r="C2875">
-        <v>5643</v>
+        <v>5352.164505515773</v>
       </c>
       <c r="D2875" t="s">
         <v>2877</v>
@@ -49567,7 +49567,7 @@
         <v>95</v>
       </c>
       <c r="C2876">
-        <v>5523</v>
+        <v>5239.782078575576</v>
       </c>
       <c r="D2876" t="s">
         <v>2878</v>
@@ -49581,7 +49581,7 @@
         <v>96</v>
       </c>
       <c r="C2877">
-        <v>5413</v>
+        <v>5136.764853880395</v>
       </c>
       <c r="D2877" t="s">
         <v>2879</v>
@@ -49595,7 +49595,7 @@
         <v>1</v>
       </c>
       <c r="C2878">
-        <v>6175.7</v>
+        <v>4974.477104702923</v>
       </c>
       <c r="D2878" t="s">
         <v>2880</v>
@@ -49609,7 +49609,7 @@
         <v>2</v>
       </c>
       <c r="C2879">
-        <v>6115.7</v>
+        <v>4927.65109347784</v>
       </c>
       <c r="D2879" t="s">
         <v>2881</v>
@@ -49623,7 +49623,7 @@
         <v>3</v>
       </c>
       <c r="C2880">
-        <v>6055.7</v>
+        <v>4880.825082252758</v>
       </c>
       <c r="D2880" t="s">
         <v>2882</v>
@@ -49637,7 +49637,7 @@
         <v>4</v>
       </c>
       <c r="C2881">
-        <v>5995.7</v>
+        <v>4824.633868782659</v>
       </c>
       <c r="D2881" t="s">
         <v>2883</v>
@@ -49651,7 +49651,7 @@
         <v>5</v>
       </c>
       <c r="C2882">
-        <v>5937.1</v>
+        <v>4776.068511708922</v>
       </c>
       <c r="D2882" t="s">
         <v>2884</v>
@@ -49665,7 +49665,7 @@
         <v>6</v>
       </c>
       <c r="C2883">
-        <v>5897.1</v>
+        <v>4738.607702728857</v>
       </c>
       <c r="D2883" t="s">
         <v>2885</v>
@@ -49679,7 +49679,7 @@
         <v>7</v>
       </c>
       <c r="C2884">
-        <v>5867.1</v>
+        <v>4691.781691503774</v>
       </c>
       <c r="D2884" t="s">
         <v>2886</v>
@@ -49693,7 +49693,7 @@
         <v>8</v>
       </c>
       <c r="C2885">
-        <v>5827.1</v>
+        <v>4654.320882523708</v>
       </c>
       <c r="D2885" t="s">
         <v>2887</v>
@@ -49707,7 +49707,7 @@
         <v>9</v>
       </c>
       <c r="C2886">
-        <v>5668</v>
+        <v>4607.738029804529</v>
       </c>
       <c r="D2886" t="s">
         <v>2888</v>
@@ -49721,7 +49721,7 @@
         <v>10</v>
       </c>
       <c r="C2887">
-        <v>5638</v>
+        <v>4579.642423069479</v>
       </c>
       <c r="D2887" t="s">
         <v>2889</v>
@@ -49735,7 +49735,7 @@
         <v>11</v>
       </c>
       <c r="C2888">
-        <v>5628</v>
+        <v>4560.912018579446</v>
       </c>
       <c r="D2888" t="s">
         <v>2890</v>
@@ -49749,7 +49749,7 @@
         <v>12</v>
       </c>
       <c r="C2889">
-        <v>5618</v>
+        <v>4551.54681633443</v>
       </c>
       <c r="D2889" t="s">
         <v>2891</v>
@@ -49763,7 +49763,7 @@
         <v>13</v>
       </c>
       <c r="C2890">
-        <v>5676.7</v>
+        <v>4536.521153473969</v>
       </c>
       <c r="D2890" t="s">
         <v>2892</v>
@@ -49777,7 +49777,7 @@
         <v>14</v>
       </c>
       <c r="C2891">
-        <v>5686.7</v>
+        <v>4536.521153473969</v>
       </c>
       <c r="D2891" t="s">
         <v>2893</v>
@@ -49791,7 +49791,7 @@
         <v>15</v>
       </c>
       <c r="C2892">
-        <v>5696.7</v>
+        <v>4545.886355718986</v>
       </c>
       <c r="D2892" t="s">
         <v>2894</v>
@@ -49805,7 +49805,7 @@
         <v>16</v>
       </c>
       <c r="C2893">
-        <v>5696.7</v>
+        <v>4564.616760209019</v>
       </c>
       <c r="D2893" t="s">
         <v>2895</v>
@@ -49819,7 +49819,7 @@
         <v>17</v>
       </c>
       <c r="C2894">
-        <v>5533.4</v>
+        <v>4575.228101412812</v>
       </c>
       <c r="D2894" t="s">
         <v>2896</v>
@@ -49833,7 +49833,7 @@
         <v>18</v>
       </c>
       <c r="C2895">
-        <v>5553.4</v>
+        <v>4593.958505902845</v>
       </c>
       <c r="D2895" t="s">
         <v>2897</v>
@@ -49847,7 +49847,7 @@
         <v>19</v>
       </c>
       <c r="C2896">
-        <v>5583.4</v>
+        <v>4612.688910392878</v>
       </c>
       <c r="D2896" t="s">
         <v>2898</v>
@@ -49861,7 +49861,7 @@
         <v>20</v>
       </c>
       <c r="C2897">
-        <v>5623.4</v>
+        <v>4659.51492161796</v>
       </c>
       <c r="D2897" t="s">
         <v>2899</v>
@@ -49875,7 +49875,7 @@
         <v>21</v>
       </c>
       <c r="C2898">
-        <v>5448.1</v>
+        <v>4726.992839171667</v>
       </c>
       <c r="D2898" t="s">
         <v>2900</v>
@@ -49889,7 +49889,7 @@
         <v>22</v>
       </c>
       <c r="C2899">
-        <v>5528.1</v>
+        <v>4801.914457131798</v>
       </c>
       <c r="D2899" t="s">
         <v>2901</v>
@@ -49903,7 +49903,7 @@
         <v>23</v>
       </c>
       <c r="C2900">
-        <v>5638.1</v>
+        <v>4895.566479581962</v>
       </c>
       <c r="D2900" t="s">
         <v>2902</v>
@@ -49917,7 +49917,7 @@
         <v>24</v>
       </c>
       <c r="C2901">
-        <v>5768.1</v>
+        <v>5017.314108767177</v>
       </c>
       <c r="D2901" t="s">
         <v>2903</v>
@@ -49931,7 +49931,7 @@
         <v>25</v>
       </c>
       <c r="C2902">
-        <v>5788</v>
+        <v>5166.393652022451</v>
       </c>
       <c r="D2902" t="s">
         <v>2904</v>
@@ -49945,7 +49945,7 @@
         <v>26</v>
       </c>
       <c r="C2903">
-        <v>5958</v>
+        <v>5316.236887942713</v>
       </c>
       <c r="D2903" t="s">
         <v>2905</v>
@@ -49959,7 +49959,7 @@
         <v>27</v>
       </c>
       <c r="C2904">
-        <v>6148</v>
+        <v>5475.445326107993</v>
       </c>
       <c r="D2904" t="s">
         <v>2906</v>
@@ -49973,7 +49973,7 @@
         <v>28</v>
       </c>
       <c r="C2905">
-        <v>6338</v>
+        <v>5653.384168763306</v>
       </c>
       <c r="D2905" t="s">
         <v>2907</v>
@@ -49987,7 +49987,7 @@
         <v>29</v>
       </c>
       <c r="C2906">
-        <v>6558.5</v>
+        <v>5827.188542674666</v>
       </c>
       <c r="D2906" t="s">
         <v>2908</v>
@@ -50001,7 +50001,7 @@
         <v>30</v>
       </c>
       <c r="C2907">
-        <v>6728.5</v>
+        <v>5995.762183084962</v>
       </c>
       <c r="D2907" t="s">
         <v>2909</v>
@@ -50015,7 +50015,7 @@
         <v>31</v>
       </c>
       <c r="C2908">
-        <v>6888.5</v>
+        <v>6145.605419005225</v>
       </c>
       <c r="D2908" t="s">
         <v>2910</v>
@@ -50029,7 +50029,7 @@
         <v>32</v>
       </c>
       <c r="C2909">
-        <v>7028.5</v>
+        <v>6286.083452680472</v>
       </c>
       <c r="D2909" t="s">
         <v>2911</v>
@@ -50043,7 +50043,7 @@
         <v>33</v>
       </c>
       <c r="C2910">
-        <v>7288.6</v>
+        <v>6409.068937487904</v>
       </c>
       <c r="D2910" t="s">
         <v>2912</v>
@@ -50057,7 +50057,7 @@
         <v>34</v>
       </c>
       <c r="C2911">
-        <v>7368.6</v>
+        <v>6502.720959938069</v>
       </c>
       <c r="D2911" t="s">
         <v>2913</v>
@@ -50071,7 +50071,7 @@
         <v>35</v>
       </c>
       <c r="C2912">
-        <v>7408.6</v>
+        <v>6549.546971163151</v>
       </c>
       <c r="D2912" t="s">
         <v>2914</v>
@@ -50085,7 +50085,7 @@
         <v>36</v>
       </c>
       <c r="C2913">
-        <v>7418.6</v>
+        <v>6596.372982388233</v>
       </c>
       <c r="D2913" t="s">
         <v>2915</v>
@@ -50099,7 +50099,7 @@
         <v>37</v>
       </c>
       <c r="C2914">
-        <v>7429</v>
+        <v>6622.238513644281</v>
       </c>
       <c r="D2914" t="s">
         <v>2916</v>
@@ -50113,7 +50113,7 @@
         <v>38</v>
       </c>
       <c r="C2915">
-        <v>7379</v>
+        <v>6622.238513644281</v>
       </c>
       <c r="D2915" t="s">
         <v>2917</v>
@@ -50127,7 +50127,7 @@
         <v>39</v>
       </c>
       <c r="C2916">
-        <v>7309</v>
+        <v>6603.508109154248</v>
       </c>
       <c r="D2916" t="s">
         <v>2918</v>
@@ -50141,7 +50141,7 @@
         <v>40</v>
       </c>
       <c r="C2917">
-        <v>7229</v>
+        <v>6566.047300174182</v>
       </c>
       <c r="D2917" t="s">
         <v>2919</v>
@@ -50155,7 +50155,7 @@
         <v>41</v>
       </c>
       <c r="C2918">
-        <v>7356.8</v>
+        <v>6478.827172440488</v>
       </c>
       <c r="D2918" t="s">
         <v>2920</v>
@@ -50169,7 +50169,7 @@
         <v>42</v>
       </c>
       <c r="C2919">
-        <v>7266.8</v>
+        <v>6432.001161215406</v>
       </c>
       <c r="D2919" t="s">
         <v>2921</v>
@@ -50183,7 +50183,7 @@
         <v>43</v>
       </c>
       <c r="C2920">
-        <v>7186.8</v>
+        <v>6375.809947745307</v>
       </c>
       <c r="D2920" t="s">
         <v>2922</v>
@@ -50197,7 +50197,7 @@
         <v>44</v>
       </c>
       <c r="C2921">
-        <v>7106.8</v>
+        <v>6319.618734275208</v>
       </c>
       <c r="D2921" t="s">
         <v>2923</v>
@@ -50211,7 +50211,7 @@
         <v>45</v>
       </c>
       <c r="C2922">
-        <v>7531.8</v>
+        <v>6252.614437778208</v>
       </c>
       <c r="D2922" t="s">
         <v>2924</v>
@@ -50225,7 +50225,7 @@
         <v>46</v>
       </c>
       <c r="C2923">
-        <v>7481.8</v>
+        <v>6215.153628798142</v>
       </c>
       <c r="D2923" t="s">
         <v>2925</v>
@@ -50239,7 +50239,7 @@
         <v>47</v>
       </c>
       <c r="C2924">
-        <v>7441.8</v>
+        <v>6187.058022063093</v>
       </c>
       <c r="D2924" t="s">
         <v>2926</v>
@@ -50253,7 +50253,7 @@
         <v>48</v>
       </c>
       <c r="C2925">
-        <v>7411.8</v>
+        <v>6158.962415328044</v>
       </c>
       <c r="D2925" t="s">
         <v>2927</v>
@@ -50267,7 +50267,7 @@
         <v>49</v>
       </c>
       <c r="C2926">
-        <v>7192.9</v>
+        <v>6127.770930907684</v>
       </c>
       <c r="D2926" t="s">
         <v>2928</v>
@@ -50281,7 +50281,7 @@
         <v>50</v>
       </c>
       <c r="C2927">
-        <v>7172.9</v>
+        <v>6109.040526417652</v>
       </c>
       <c r="D2927" t="s">
         <v>2929</v>
@@ -50295,7 +50295,7 @@
         <v>51</v>
       </c>
       <c r="C2928">
-        <v>7142.9</v>
+        <v>6090.310121927618</v>
       </c>
       <c r="D2928" t="s">
         <v>2930</v>
@@ -50309,7 +50309,7 @@
         <v>52</v>
       </c>
       <c r="C2929">
-        <v>7122.9</v>
+        <v>6071.579717437585</v>
       </c>
       <c r="D2929" t="s">
         <v>2931</v>
@@ -50323,7 +50323,7 @@
         <v>53</v>
       </c>
       <c r="C2930">
-        <v>7372</v>
+        <v>6048.075633830074</v>
       </c>
       <c r="D2930" t="s">
         <v>2932</v>
@@ -50337,7 +50337,7 @@
         <v>54</v>
       </c>
       <c r="C2931">
-        <v>7362</v>
+        <v>6029.345229340042</v>
       </c>
       <c r="D2931" t="s">
         <v>2933</v>
@@ -50351,7 +50351,7 @@
         <v>55</v>
       </c>
       <c r="C2932">
-        <v>7352</v>
+        <v>6019.980027095025</v>
       </c>
       <c r="D2932" t="s">
         <v>2934</v>
@@ -50365,7 +50365,7 @@
         <v>56</v>
       </c>
       <c r="C2933">
-        <v>7362</v>
+        <v>6001.249622604993</v>
       </c>
       <c r="D2933" t="s">
         <v>2935</v>
@@ -50379,7 +50379,7 @@
         <v>57</v>
       </c>
       <c r="C2934">
-        <v>7099.6</v>
+        <v>6004.055428682021</v>
       </c>
       <c r="D2934" t="s">
         <v>2936</v>
@@ -50393,7 +50393,7 @@
         <v>58</v>
       </c>
       <c r="C2935">
-        <v>7109.6</v>
+        <v>5994.690226437004</v>
       </c>
       <c r="D2935" t="s">
         <v>2937</v>
@@ -50407,7 +50407,7 @@
         <v>59</v>
       </c>
       <c r="C2936">
-        <v>7129.6</v>
+        <v>5994.690226437004</v>
       </c>
       <c r="D2936" t="s">
         <v>2938</v>
@@ -50421,7 +50421,7 @@
         <v>60</v>
       </c>
       <c r="C2937">
-        <v>7149.6</v>
+        <v>5994.690226437004</v>
       </c>
       <c r="D2937" t="s">
         <v>2939</v>
@@ -50435,7 +50435,7 @@
         <v>61</v>
       </c>
       <c r="C2938">
-        <v>6772</v>
+        <v>6005.615095800271</v>
       </c>
       <c r="D2938" t="s">
         <v>2940</v>
@@ -50449,7 +50449,7 @@
         <v>62</v>
       </c>
       <c r="C2939">
-        <v>6792</v>
+        <v>6005.615095800271</v>
       </c>
       <c r="D2939" t="s">
         <v>2941</v>
@@ -50463,7 +50463,7 @@
         <v>63</v>
       </c>
       <c r="C2940">
-        <v>6812</v>
+        <v>6014.980298045288</v>
       </c>
       <c r="D2940" t="s">
         <v>2942</v>
@@ -50477,7 +50477,7 @@
         <v>64</v>
       </c>
       <c r="C2941">
-        <v>6842</v>
+        <v>6014.980298045288</v>
       </c>
       <c r="D2941" t="s">
         <v>2943</v>
@@ -50491,7 +50491,7 @@
         <v>65</v>
       </c>
       <c r="C2942">
-        <v>6010.2</v>
+        <v>6040.856589897426</v>
       </c>
       <c r="D2942" t="s">
         <v>2944</v>
@@ -50505,7 +50505,7 @@
         <v>66</v>
       </c>
       <c r="C2943">
-        <v>6070.2</v>
+        <v>6059.586994387459</v>
       </c>
       <c r="D2943" t="s">
         <v>2945</v>
@@ -50519,7 +50519,7 @@
         <v>67</v>
       </c>
       <c r="C2944">
-        <v>6130.2</v>
+        <v>6078.317398877492</v>
       </c>
       <c r="D2944" t="s">
         <v>2946</v>
@@ -50533,7 +50533,7 @@
         <v>68</v>
       </c>
       <c r="C2945">
-        <v>6220.2</v>
+        <v>6106.413005612541</v>
       </c>
       <c r="D2945" t="s">
         <v>2947</v>
@@ -50547,7 +50547,7 @@
         <v>69</v>
       </c>
       <c r="C2946">
-        <v>5905.8</v>
+        <v>6183.662937874976</v>
       </c>
       <c r="D2946" t="s">
         <v>2948</v>
@@ -50561,7 +50561,7 @@
         <v>70</v>
       </c>
       <c r="C2947">
-        <v>5995.8</v>
+        <v>6230.488949100059</v>
       </c>
       <c r="D2947" t="s">
         <v>2949</v>
@@ -50575,7 +50575,7 @@
         <v>71</v>
       </c>
       <c r="C2948">
-        <v>6085.8</v>
+        <v>6277.31496032514</v>
       </c>
       <c r="D2948" t="s">
         <v>2950</v>
@@ -50589,7 +50589,7 @@
         <v>72</v>
       </c>
       <c r="C2949">
-        <v>6175.8</v>
+        <v>6333.506173795239</v>
       </c>
       <c r="D2949" t="s">
         <v>2951</v>
@@ -50603,7 +50603,7 @@
         <v>73</v>
       </c>
       <c r="C2950">
-        <v>6320.1</v>
+        <v>6413.787962066964</v>
       </c>
       <c r="D2950" t="s">
         <v>2952</v>
@@ -50617,7 +50617,7 @@
         <v>74</v>
       </c>
       <c r="C2951">
-        <v>6400.1</v>
+        <v>6488.709580027095</v>
       </c>
       <c r="D2951" t="s">
         <v>2953</v>
@@ -50631,7 +50631,7 @@
         <v>75</v>
       </c>
       <c r="C2952">
-        <v>6480.1</v>
+        <v>6582.36160247726</v>
       </c>
       <c r="D2952" t="s">
         <v>2954</v>
@@ -50645,7 +50645,7 @@
         <v>76</v>
       </c>
       <c r="C2953">
-        <v>6570.1</v>
+        <v>6685.378827172441</v>
       </c>
       <c r="D2953" t="s">
         <v>2955</v>
@@ -50659,7 +50659,7 @@
         <v>77</v>
       </c>
       <c r="C2954">
-        <v>6669.1</v>
+        <v>6831.801045093865</v>
       </c>
       <c r="D2954" t="s">
         <v>2956</v>
@@ -50673,7 +50673,7 @@
         <v>78</v>
       </c>
       <c r="C2955">
-        <v>6739.1</v>
+        <v>6953.548674279079</v>
       </c>
       <c r="D2955" t="s">
         <v>2957</v>
@@ -50687,7 +50687,7 @@
         <v>79</v>
       </c>
       <c r="C2956">
-        <v>6829.1</v>
+        <v>7056.56589897426</v>
       </c>
       <c r="D2956" t="s">
         <v>2958</v>
@@ -50701,7 +50701,7 @@
         <v>80</v>
       </c>
       <c r="C2957">
-        <v>6909.1</v>
+        <v>7140.852719179408</v>
       </c>
       <c r="D2957" t="s">
         <v>2959</v>
@@ -50715,7 +50715,7 @@
         <v>81</v>
       </c>
       <c r="C2958">
-        <v>7135.1</v>
+        <v>7203.336713760403</v>
       </c>
       <c r="D2958" t="s">
         <v>2960</v>
@@ -50729,7 +50729,7 @@
         <v>82</v>
       </c>
       <c r="C2959">
-        <v>7195.1</v>
+        <v>7259.527927230502</v>
       </c>
       <c r="D2959" t="s">
         <v>2961</v>
@@ -50743,7 +50743,7 @@
         <v>83</v>
       </c>
       <c r="C2960">
-        <v>7215.1</v>
+        <v>7268.893129475518</v>
       </c>
       <c r="D2960" t="s">
         <v>2962</v>
@@ -50757,7 +50757,7 @@
         <v>84</v>
       </c>
       <c r="C2961">
-        <v>7225.1</v>
+        <v>7268.893129475518</v>
       </c>
       <c r="D2961" t="s">
         <v>2963</v>
@@ -50771,7 +50771,7 @@
         <v>85</v>
       </c>
       <c r="C2962">
-        <v>7416.5</v>
+        <v>7189.428294948713</v>
       </c>
       <c r="D2962" t="s">
         <v>2964</v>
@@ -50785,7 +50785,7 @@
         <v>86</v>
       </c>
       <c r="C2963">
-        <v>7326.5</v>
+        <v>7095.776272498549</v>
       </c>
       <c r="D2963" t="s">
         <v>2965</v>
@@ -50799,7 +50799,7 @@
         <v>87</v>
       </c>
       <c r="C2964">
-        <v>7226.5</v>
+        <v>6992.759047803368</v>
       </c>
       <c r="D2964" t="s">
         <v>2966</v>
@@ -50813,7 +50813,7 @@
         <v>88</v>
       </c>
       <c r="C2965">
-        <v>7086.5</v>
+        <v>6880.376620863171</v>
       </c>
       <c r="D2965" t="s">
         <v>2967</v>
@@ -50827,7 +50827,7 @@
         <v>89</v>
       </c>
       <c r="C2966">
-        <v>7381.3</v>
+        <v>6690.278923940391</v>
       </c>
       <c r="D2966" t="s">
         <v>2968</v>
@@ -50841,7 +50841,7 @@
         <v>90</v>
       </c>
       <c r="C2967">
-        <v>7241.3</v>
+        <v>6540.435688020128</v>
       </c>
       <c r="D2967" t="s">
         <v>2969</v>
@@ -50855,7 +50855,7 @@
         <v>91</v>
       </c>
       <c r="C2968">
-        <v>7081.3</v>
+        <v>6390.592452099864</v>
       </c>
       <c r="D2968" t="s">
         <v>2970</v>
@@ -50869,7 +50869,7 @@
         <v>92</v>
       </c>
       <c r="C2969">
-        <v>6931.3</v>
+        <v>6240.749216179602</v>
       </c>
       <c r="D2969" t="s">
         <v>2971</v>
@@ -50883,7 +50883,7 @@
         <v>93</v>
       </c>
       <c r="C2970">
-        <v>7053.2</v>
+        <v>6071.695064834527</v>
       </c>
       <c r="D2970" t="s">
         <v>2972</v>
@@ -50897,7 +50897,7 @@
         <v>94</v>
       </c>
       <c r="C2971">
-        <v>6903.2</v>
+        <v>5949.947435649313</v>
       </c>
       <c r="D2971" t="s">
         <v>2973</v>
@@ -50911,7 +50911,7 @@
         <v>95</v>
       </c>
       <c r="C2972">
-        <v>6783.2</v>
+        <v>5846.930210954132</v>
       </c>
       <c r="D2972" t="s">
         <v>2974</v>
@@ -50925,7 +50925,7 @@
         <v>96</v>
       </c>
       <c r="C2973">
-        <v>6673.2</v>
+        <v>5743.912986258951</v>
       </c>
       <c r="D2973" t="s">
         <v>2975</v>

--- a/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Production_2025.xlsx
+++ b/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Production_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2884" uniqueCount="2884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2980" uniqueCount="2980">
   <si>
     <t>Date</t>
   </si>
@@ -8666,6 +8666,294 @@
   </si>
   <si>
     <t>30.05.202596.0</t>
+  </si>
+  <si>
+    <t>31.05.20251.0</t>
+  </si>
+  <si>
+    <t>31.05.20252.0</t>
+  </si>
+  <si>
+    <t>31.05.20253.0</t>
+  </si>
+  <si>
+    <t>31.05.20254.0</t>
+  </si>
+  <si>
+    <t>31.05.20255.0</t>
+  </si>
+  <si>
+    <t>31.05.20256.0</t>
+  </si>
+  <si>
+    <t>31.05.20257.0</t>
+  </si>
+  <si>
+    <t>31.05.20258.0</t>
+  </si>
+  <si>
+    <t>31.05.20259.0</t>
+  </si>
+  <si>
+    <t>31.05.202510.0</t>
+  </si>
+  <si>
+    <t>31.05.202511.0</t>
+  </si>
+  <si>
+    <t>31.05.202512.0</t>
+  </si>
+  <si>
+    <t>31.05.202513.0</t>
+  </si>
+  <si>
+    <t>31.05.202514.0</t>
+  </si>
+  <si>
+    <t>31.05.202515.0</t>
+  </si>
+  <si>
+    <t>31.05.202516.0</t>
+  </si>
+  <si>
+    <t>31.05.202517.0</t>
+  </si>
+  <si>
+    <t>31.05.202518.0</t>
+  </si>
+  <si>
+    <t>31.05.202519.0</t>
+  </si>
+  <si>
+    <t>31.05.202520.0</t>
+  </si>
+  <si>
+    <t>31.05.202521.0</t>
+  </si>
+  <si>
+    <t>31.05.202522.0</t>
+  </si>
+  <si>
+    <t>31.05.202523.0</t>
+  </si>
+  <si>
+    <t>31.05.202524.0</t>
+  </si>
+  <si>
+    <t>31.05.202525.0</t>
+  </si>
+  <si>
+    <t>31.05.202526.0</t>
+  </si>
+  <si>
+    <t>31.05.202527.0</t>
+  </si>
+  <si>
+    <t>31.05.202528.0</t>
+  </si>
+  <si>
+    <t>31.05.202529.0</t>
+  </si>
+  <si>
+    <t>31.05.202530.0</t>
+  </si>
+  <si>
+    <t>31.05.202531.0</t>
+  </si>
+  <si>
+    <t>31.05.202532.0</t>
+  </si>
+  <si>
+    <t>31.05.202533.0</t>
+  </si>
+  <si>
+    <t>31.05.202534.0</t>
+  </si>
+  <si>
+    <t>31.05.202535.0</t>
+  </si>
+  <si>
+    <t>31.05.202536.0</t>
+  </si>
+  <si>
+    <t>31.05.202537.0</t>
+  </si>
+  <si>
+    <t>31.05.202538.0</t>
+  </si>
+  <si>
+    <t>31.05.202539.0</t>
+  </si>
+  <si>
+    <t>31.05.202540.0</t>
+  </si>
+  <si>
+    <t>31.05.202541.0</t>
+  </si>
+  <si>
+    <t>31.05.202542.0</t>
+  </si>
+  <si>
+    <t>31.05.202543.0</t>
+  </si>
+  <si>
+    <t>31.05.202544.0</t>
+  </si>
+  <si>
+    <t>31.05.202545.0</t>
+  </si>
+  <si>
+    <t>31.05.202546.0</t>
+  </si>
+  <si>
+    <t>31.05.202547.0</t>
+  </si>
+  <si>
+    <t>31.05.202548.0</t>
+  </si>
+  <si>
+    <t>31.05.202549.0</t>
+  </si>
+  <si>
+    <t>31.05.202550.0</t>
+  </si>
+  <si>
+    <t>31.05.202551.0</t>
+  </si>
+  <si>
+    <t>31.05.202552.0</t>
+  </si>
+  <si>
+    <t>31.05.202553.0</t>
+  </si>
+  <si>
+    <t>31.05.202554.0</t>
+  </si>
+  <si>
+    <t>31.05.202555.0</t>
+  </si>
+  <si>
+    <t>31.05.202556.0</t>
+  </si>
+  <si>
+    <t>31.05.202557.0</t>
+  </si>
+  <si>
+    <t>31.05.202558.0</t>
+  </si>
+  <si>
+    <t>31.05.202559.0</t>
+  </si>
+  <si>
+    <t>31.05.202560.0</t>
+  </si>
+  <si>
+    <t>31.05.202561.0</t>
+  </si>
+  <si>
+    <t>31.05.202562.0</t>
+  </si>
+  <si>
+    <t>31.05.202563.0</t>
+  </si>
+  <si>
+    <t>31.05.202564.0</t>
+  </si>
+  <si>
+    <t>31.05.202565.0</t>
+  </si>
+  <si>
+    <t>31.05.202566.0</t>
+  </si>
+  <si>
+    <t>31.05.202567.0</t>
+  </si>
+  <si>
+    <t>31.05.202568.0</t>
+  </si>
+  <si>
+    <t>31.05.202569.0</t>
+  </si>
+  <si>
+    <t>31.05.202570.0</t>
+  </si>
+  <si>
+    <t>31.05.202571.0</t>
+  </si>
+  <si>
+    <t>31.05.202572.0</t>
+  </si>
+  <si>
+    <t>31.05.202573.0</t>
+  </si>
+  <si>
+    <t>31.05.202574.0</t>
+  </si>
+  <si>
+    <t>31.05.202575.0</t>
+  </si>
+  <si>
+    <t>31.05.202576.0</t>
+  </si>
+  <si>
+    <t>31.05.202577.0</t>
+  </si>
+  <si>
+    <t>31.05.202578.0</t>
+  </si>
+  <si>
+    <t>31.05.202579.0</t>
+  </si>
+  <si>
+    <t>31.05.202580.0</t>
+  </si>
+  <si>
+    <t>31.05.202581.0</t>
+  </si>
+  <si>
+    <t>31.05.202582.0</t>
+  </si>
+  <si>
+    <t>31.05.202583.0</t>
+  </si>
+  <si>
+    <t>31.05.202584.0</t>
+  </si>
+  <si>
+    <t>31.05.202585.0</t>
+  </si>
+  <si>
+    <t>31.05.202586.0</t>
+  </si>
+  <si>
+    <t>31.05.202587.0</t>
+  </si>
+  <si>
+    <t>31.05.202588.0</t>
+  </si>
+  <si>
+    <t>31.05.202589.0</t>
+  </si>
+  <si>
+    <t>31.05.202590.0</t>
+  </si>
+  <si>
+    <t>31.05.202591.0</t>
+  </si>
+  <si>
+    <t>31.05.202592.0</t>
+  </si>
+  <si>
+    <t>31.05.202593.0</t>
+  </si>
+  <si>
+    <t>31.05.202594.0</t>
+  </si>
+  <si>
+    <t>31.05.202595.0</t>
+  </si>
+  <si>
+    <t>31.05.202596.0</t>
   </si>
 </sst>
 </file>
@@ -9027,7 +9315,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2881"/>
+  <dimension ref="A1:D2977"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38623,7 +38911,7 @@
         <v>1</v>
       </c>
       <c r="C2114">
-        <v>5525.8</v>
+        <v>5427.6</v>
       </c>
       <c r="D2114" t="s">
         <v>2116</v>
@@ -38637,7 +38925,7 @@
         <v>2</v>
       </c>
       <c r="C2115">
-        <v>5465.8</v>
+        <v>5367.6</v>
       </c>
       <c r="D2115" t="s">
         <v>2117</v>
@@ -38651,7 +38939,7 @@
         <v>3</v>
       </c>
       <c r="C2116">
-        <v>5415.8</v>
+        <v>5307.6</v>
       </c>
       <c r="D2116" t="s">
         <v>2118</v>
@@ -38665,7 +38953,7 @@
         <v>4</v>
       </c>
       <c r="C2117">
-        <v>5365.8</v>
+        <v>5247.6</v>
       </c>
       <c r="D2117" t="s">
         <v>2119</v>
@@ -38679,7 +38967,7 @@
         <v>5</v>
       </c>
       <c r="C2118">
-        <v>5544.3</v>
+        <v>4873</v>
       </c>
       <c r="D2118" t="s">
         <v>2120</v>
@@ -38693,7 +38981,7 @@
         <v>6</v>
       </c>
       <c r="C2119">
-        <v>5514.3</v>
+        <v>4823</v>
       </c>
       <c r="D2119" t="s">
         <v>2121</v>
@@ -38707,7 +38995,7 @@
         <v>7</v>
       </c>
       <c r="C2120">
-        <v>5474.3</v>
+        <v>4783</v>
       </c>
       <c r="D2120" t="s">
         <v>2122</v>
@@ -38721,7 +39009,7 @@
         <v>8</v>
       </c>
       <c r="C2121">
-        <v>5434.3</v>
+        <v>4743</v>
       </c>
       <c r="D2121" t="s">
         <v>2123</v>
@@ -38735,7 +39023,7 @@
         <v>9</v>
       </c>
       <c r="C2122">
-        <v>5486.9</v>
+        <v>4728</v>
       </c>
       <c r="D2122" t="s">
         <v>2124</v>
@@ -38749,7 +39037,7 @@
         <v>10</v>
       </c>
       <c r="C2123">
-        <v>5456.9</v>
+        <v>4698</v>
       </c>
       <c r="D2123" t="s">
         <v>2125</v>
@@ -38763,7 +39051,7 @@
         <v>11</v>
       </c>
       <c r="C2124">
-        <v>5426.9</v>
+        <v>4678</v>
       </c>
       <c r="D2124" t="s">
         <v>2126</v>
@@ -38777,7 +39065,7 @@
         <v>12</v>
       </c>
       <c r="C2125">
-        <v>5406.9</v>
+        <v>4678</v>
       </c>
       <c r="D2125" t="s">
         <v>2127</v>
@@ -38791,7 +39079,7 @@
         <v>13</v>
       </c>
       <c r="C2126">
-        <v>5492.7</v>
+        <v>4717</v>
       </c>
       <c r="D2126" t="s">
         <v>2128</v>
@@ -38805,7 +39093,7 @@
         <v>14</v>
       </c>
       <c r="C2127">
-        <v>5492.7</v>
+        <v>4717</v>
       </c>
       <c r="D2127" t="s">
         <v>2129</v>
@@ -38819,7 +39107,7 @@
         <v>15</v>
       </c>
       <c r="C2128">
-        <v>5502.7</v>
+        <v>4727</v>
       </c>
       <c r="D2128" t="s">
         <v>2130</v>
@@ -38833,7 +39121,7 @@
         <v>16</v>
       </c>
       <c r="C2129">
-        <v>5512.7</v>
+        <v>4727</v>
       </c>
       <c r="D2129" t="s">
         <v>2131</v>
@@ -38847,7 +39135,7 @@
         <v>17</v>
       </c>
       <c r="C2130">
-        <v>5594.9</v>
+        <v>4700</v>
       </c>
       <c r="D2130" t="s">
         <v>2132</v>
@@ -38861,7 +39149,7 @@
         <v>18</v>
       </c>
       <c r="C2131">
-        <v>5614.9</v>
+        <v>4710</v>
       </c>
       <c r="D2131" t="s">
         <v>2133</v>
@@ -38875,7 +39163,7 @@
         <v>19</v>
       </c>
       <c r="C2132">
-        <v>5634.9</v>
+        <v>4720</v>
       </c>
       <c r="D2132" t="s">
         <v>2134</v>
@@ -38889,7 +39177,7 @@
         <v>20</v>
       </c>
       <c r="C2133">
-        <v>5654.9</v>
+        <v>4730</v>
       </c>
       <c r="D2133" t="s">
         <v>2135</v>
@@ -38903,7 +39191,7 @@
         <v>21</v>
       </c>
       <c r="C2134">
-        <v>5679.8</v>
+        <v>4861</v>
       </c>
       <c r="D2134" t="s">
         <v>2136</v>
@@ -38917,7 +39205,7 @@
         <v>22</v>
       </c>
       <c r="C2135">
-        <v>5719.8</v>
+        <v>4911</v>
       </c>
       <c r="D2135" t="s">
         <v>2137</v>
@@ -38931,7 +39219,7 @@
         <v>23</v>
       </c>
       <c r="C2136">
-        <v>5769.8</v>
+        <v>4981</v>
       </c>
       <c r="D2136" t="s">
         <v>2138</v>
@@ -38945,7 +39233,7 @@
         <v>24</v>
       </c>
       <c r="C2137">
-        <v>5849.8</v>
+        <v>5071</v>
       </c>
       <c r="D2137" t="s">
         <v>2139</v>
@@ -38959,7 +39247,7 @@
         <v>25</v>
       </c>
       <c r="C2138">
-        <v>5723.2</v>
+        <v>5138</v>
       </c>
       <c r="D2138" t="s">
         <v>2140</v>
@@ -38973,7 +39261,7 @@
         <v>26</v>
       </c>
       <c r="C2139">
-        <v>5833.2</v>
+        <v>5248</v>
       </c>
       <c r="D2139" t="s">
         <v>2141</v>
@@ -38987,7 +39275,7 @@
         <v>27</v>
       </c>
       <c r="C2140">
-        <v>5953.2</v>
+        <v>5358</v>
       </c>
       <c r="D2140" t="s">
         <v>2142</v>
@@ -39001,7 +39289,7 @@
         <v>28</v>
       </c>
       <c r="C2141">
-        <v>6073.2</v>
+        <v>5468</v>
       </c>
       <c r="D2141" t="s">
         <v>2143</v>
@@ -39015,7 +39303,7 @@
         <v>29</v>
       </c>
       <c r="C2142">
-        <v>6265.9</v>
+        <v>5503</v>
       </c>
       <c r="D2142" t="s">
         <v>2144</v>
@@ -39029,7 +39317,7 @@
         <v>30</v>
       </c>
       <c r="C2143">
-        <v>6355.9</v>
+        <v>5603</v>
       </c>
       <c r="D2143" t="s">
         <v>2145</v>
@@ -39043,7 +39331,7 @@
         <v>31</v>
       </c>
       <c r="C2144">
-        <v>6425.9</v>
+        <v>5693</v>
       </c>
       <c r="D2144" t="s">
         <v>2146</v>
@@ -39057,7 +39345,7 @@
         <v>32</v>
       </c>
       <c r="C2145">
-        <v>6465.9</v>
+        <v>5773</v>
       </c>
       <c r="D2145" t="s">
         <v>2147</v>
@@ -39071,7 +39359,7 @@
         <v>33</v>
       </c>
       <c r="C2146">
-        <v>6484.2</v>
+        <v>5924</v>
       </c>
       <c r="D2146" t="s">
         <v>2148</v>
@@ -39085,7 +39373,7 @@
         <v>34</v>
       </c>
       <c r="C2147">
-        <v>6454.2</v>
+        <v>5964</v>
       </c>
       <c r="D2147" t="s">
         <v>2149</v>
@@ -39099,7 +39387,7 @@
         <v>35</v>
       </c>
       <c r="C2148">
-        <v>6404.2</v>
+        <v>5984</v>
       </c>
       <c r="D2148" t="s">
         <v>2150</v>
@@ -39113,7 +39401,7 @@
         <v>36</v>
       </c>
       <c r="C2149">
-        <v>6324.2</v>
+        <v>5974</v>
       </c>
       <c r="D2149" t="s">
         <v>2151</v>
@@ -39127,7 +39415,7 @@
         <v>37</v>
       </c>
       <c r="C2150">
-        <v>6356.4</v>
+        <v>6053</v>
       </c>
       <c r="D2150" t="s">
         <v>2152</v>
@@ -39141,7 +39429,7 @@
         <v>38</v>
       </c>
       <c r="C2151">
-        <v>6256.4</v>
+        <v>5993</v>
       </c>
       <c r="D2151" t="s">
         <v>2153</v>
@@ -39155,7 +39443,7 @@
         <v>39</v>
       </c>
       <c r="C2152">
-        <v>6156.4</v>
+        <v>5913</v>
       </c>
       <c r="D2152" t="s">
         <v>2154</v>
@@ -39169,7 +39457,7 @@
         <v>40</v>
       </c>
       <c r="C2153">
-        <v>6066.4</v>
+        <v>5823</v>
       </c>
       <c r="D2153" t="s">
         <v>2155</v>
@@ -39183,7 +39471,7 @@
         <v>41</v>
       </c>
       <c r="C2154">
-        <v>6019.4</v>
+        <v>5776</v>
       </c>
       <c r="D2154" t="s">
         <v>2156</v>
@@ -39197,7 +39485,7 @@
         <v>42</v>
       </c>
       <c r="C2155">
-        <v>5949.4</v>
+        <v>5656</v>
       </c>
       <c r="D2155" t="s">
         <v>2157</v>
@@ -39211,7 +39499,7 @@
         <v>43</v>
       </c>
       <c r="C2156">
-        <v>5899.4</v>
+        <v>5536</v>
       </c>
       <c r="D2156" t="s">
         <v>2158</v>
@@ -39225,7 +39513,7 @@
         <v>44</v>
       </c>
       <c r="C2157">
-        <v>5849.4</v>
+        <v>5426</v>
       </c>
       <c r="D2157" t="s">
         <v>2159</v>
@@ -39239,7 +39527,7 @@
         <v>45</v>
       </c>
       <c r="C2158">
-        <v>6237.9</v>
+        <v>5404</v>
       </c>
       <c r="D2158" t="s">
         <v>2160</v>
@@ -39253,7 +39541,7 @@
         <v>46</v>
       </c>
       <c r="C2159">
-        <v>6207.9</v>
+        <v>5324</v>
       </c>
       <c r="D2159" t="s">
         <v>2161</v>
@@ -39267,7 +39555,7 @@
         <v>47</v>
       </c>
       <c r="C2160">
-        <v>6167.9</v>
+        <v>5254</v>
       </c>
       <c r="D2160" t="s">
         <v>2162</v>
@@ -39281,7 +39569,7 @@
         <v>48</v>
       </c>
       <c r="C2161">
-        <v>6137.9</v>
+        <v>5204</v>
       </c>
       <c r="D2161" t="s">
         <v>2163</v>
@@ -39295,7 +39583,7 @@
         <v>49</v>
       </c>
       <c r="C2162">
-        <v>6376.9</v>
+        <v>5086</v>
       </c>
       <c r="D2162" t="s">
         <v>2164</v>
@@ -39309,7 +39597,7 @@
         <v>50</v>
       </c>
       <c r="C2163">
-        <v>6346.9</v>
+        <v>5066</v>
       </c>
       <c r="D2163" t="s">
         <v>2165</v>
@@ -39323,7 +39611,7 @@
         <v>51</v>
       </c>
       <c r="C2164">
-        <v>6316.9</v>
+        <v>5046</v>
       </c>
       <c r="D2164" t="s">
         <v>2166</v>
@@ -39337,7 +39625,7 @@
         <v>52</v>
       </c>
       <c r="C2165">
-        <v>6296.9</v>
+        <v>5036</v>
       </c>
       <c r="D2165" t="s">
         <v>2167</v>
@@ -39351,7 +39639,7 @@
         <v>53</v>
       </c>
       <c r="C2166">
-        <v>6202.5</v>
+        <v>4969</v>
       </c>
       <c r="D2166" t="s">
         <v>2168</v>
@@ -39365,7 +39653,7 @@
         <v>54</v>
       </c>
       <c r="C2167">
-        <v>6202.5</v>
+        <v>4969</v>
       </c>
       <c r="D2167" t="s">
         <v>2169</v>
@@ -39379,7 +39667,7 @@
         <v>55</v>
       </c>
       <c r="C2168">
-        <v>6212.5</v>
+        <v>4979</v>
       </c>
       <c r="D2168" t="s">
         <v>2170</v>
@@ -39393,7 +39681,7 @@
         <v>56</v>
       </c>
       <c r="C2169">
-        <v>6232.5</v>
+        <v>4989</v>
       </c>
       <c r="D2169" t="s">
         <v>2171</v>
@@ -39407,7 +39695,7 @@
         <v>57</v>
       </c>
       <c r="C2170">
-        <v>6042</v>
+        <v>5036</v>
       </c>
       <c r="D2170" t="s">
         <v>2172</v>
@@ -39421,7 +39709,7 @@
         <v>58</v>
       </c>
       <c r="C2171">
-        <v>6072</v>
+        <v>5056</v>
       </c>
       <c r="D2171" t="s">
         <v>2173</v>
@@ -39435,7 +39723,7 @@
         <v>59</v>
       </c>
       <c r="C2172">
-        <v>6102</v>
+        <v>5086</v>
       </c>
       <c r="D2172" t="s">
         <v>2174</v>
@@ -39449,7 +39737,7 @@
         <v>60</v>
       </c>
       <c r="C2173">
-        <v>6132</v>
+        <v>5116</v>
       </c>
       <c r="D2173" t="s">
         <v>2175</v>
@@ -39463,7 +39751,7 @@
         <v>61</v>
       </c>
       <c r="C2174">
-        <v>6069.5</v>
+        <v>5238</v>
       </c>
       <c r="D2174" t="s">
         <v>2176</v>
@@ -39477,7 +39765,7 @@
         <v>62</v>
       </c>
       <c r="C2175">
-        <v>6099.5</v>
+        <v>5268</v>
       </c>
       <c r="D2175" t="s">
         <v>2177</v>
@@ -39491,7 +39779,7 @@
         <v>63</v>
       </c>
       <c r="C2176">
-        <v>6139.5</v>
+        <v>5308</v>
       </c>
       <c r="D2176" t="s">
         <v>2178</v>
@@ -39505,7 +39793,7 @@
         <v>64</v>
       </c>
       <c r="C2177">
-        <v>6189.5</v>
+        <v>5348</v>
       </c>
       <c r="D2177" t="s">
         <v>2179</v>
@@ -39519,7 +39807,7 @@
         <v>65</v>
       </c>
       <c r="C2178">
-        <v>6155</v>
+        <v>5365</v>
       </c>
       <c r="D2178" t="s">
         <v>2180</v>
@@ -39533,7 +39821,7 @@
         <v>66</v>
       </c>
       <c r="C2179">
-        <v>6225</v>
+        <v>5415</v>
       </c>
       <c r="D2179" t="s">
         <v>2181</v>
@@ -39547,7 +39835,7 @@
         <v>67</v>
       </c>
       <c r="C2180">
-        <v>6305</v>
+        <v>5475</v>
       </c>
       <c r="D2180" t="s">
         <v>2182</v>
@@ -39561,7 +39849,7 @@
         <v>68</v>
       </c>
       <c r="C2181">
-        <v>6385</v>
+        <v>5545</v>
       </c>
       <c r="D2181" t="s">
         <v>2183</v>
@@ -39575,7 +39863,7 @@
         <v>69</v>
       </c>
       <c r="C2182">
-        <v>6214.5</v>
+        <v>5671</v>
       </c>
       <c r="D2182" t="s">
         <v>2184</v>
@@ -39589,7 +39877,7 @@
         <v>70</v>
       </c>
       <c r="C2183">
-        <v>6304.5</v>
+        <v>5731</v>
       </c>
       <c r="D2183" t="s">
         <v>2185</v>
@@ -39603,7 +39891,7 @@
         <v>71</v>
       </c>
       <c r="C2184">
-        <v>6384.5</v>
+        <v>5801</v>
       </c>
       <c r="D2184" t="s">
         <v>2186</v>
@@ -39617,7 +39905,7 @@
         <v>72</v>
       </c>
       <c r="C2185">
-        <v>6464.5</v>
+        <v>5881</v>
       </c>
       <c r="D2185" t="s">
         <v>2187</v>
@@ -39631,7 +39919,7 @@
         <v>73</v>
       </c>
       <c r="C2186">
-        <v>6540.3</v>
+        <v>5975</v>
       </c>
       <c r="D2186" t="s">
         <v>2188</v>
@@ -39645,7 +39933,7 @@
         <v>74</v>
       </c>
       <c r="C2187">
-        <v>6640.3</v>
+        <v>6065</v>
       </c>
       <c r="D2187" t="s">
         <v>2189</v>
@@ -39659,7 +39947,7 @@
         <v>75</v>
       </c>
       <c r="C2188">
-        <v>6720.3</v>
+        <v>6145</v>
       </c>
       <c r="D2188" t="s">
         <v>2190</v>
@@ -39673,7 +39961,7 @@
         <v>76</v>
       </c>
       <c r="C2189">
-        <v>6830.3</v>
+        <v>6225</v>
       </c>
       <c r="D2189" t="s">
         <v>2191</v>
@@ -39687,7 +39975,7 @@
         <v>77</v>
       </c>
       <c r="C2190">
-        <v>6311.4</v>
+        <v>6245</v>
       </c>
       <c r="D2190" t="s">
         <v>2192</v>
@@ -39701,7 +39989,7 @@
         <v>78</v>
       </c>
       <c r="C2191">
-        <v>6421.4</v>
+        <v>6345</v>
       </c>
       <c r="D2191" t="s">
         <v>2193</v>
@@ -39715,7 +40003,7 @@
         <v>79</v>
       </c>
       <c r="C2192">
-        <v>6521.4</v>
+        <v>6425</v>
       </c>
       <c r="D2192" t="s">
         <v>2194</v>
@@ -39729,7 +40017,7 @@
         <v>80</v>
       </c>
       <c r="C2193">
-        <v>6621.4</v>
+        <v>6525</v>
       </c>
       <c r="D2193" t="s">
         <v>2195</v>
@@ -39743,7 +40031,7 @@
         <v>81</v>
       </c>
       <c r="C2194">
-        <v>6241.8</v>
+        <v>6576</v>
       </c>
       <c r="D2194" t="s">
         <v>2196</v>
@@ -39757,7 +40045,7 @@
         <v>82</v>
       </c>
       <c r="C2195">
-        <v>6341.8</v>
+        <v>6656</v>
       </c>
       <c r="D2195" t="s">
         <v>2197</v>
@@ -39771,7 +40059,7 @@
         <v>83</v>
       </c>
       <c r="C2196">
-        <v>6421.8</v>
+        <v>6726</v>
       </c>
       <c r="D2196" t="s">
         <v>2198</v>
@@ -39785,7 +40073,7 @@
         <v>84</v>
       </c>
       <c r="C2197">
-        <v>6471.8</v>
+        <v>6806</v>
       </c>
       <c r="D2197" t="s">
         <v>2199</v>
@@ -39799,7 +40087,7 @@
         <v>85</v>
       </c>
       <c r="C2198">
-        <v>6436.7</v>
+        <v>6893</v>
       </c>
       <c r="D2198" t="s">
         <v>2200</v>
@@ -39813,7 +40101,7 @@
         <v>86</v>
       </c>
       <c r="C2199">
-        <v>6446.7</v>
+        <v>6883</v>
       </c>
       <c r="D2199" t="s">
         <v>2201</v>
@@ -39827,7 +40115,7 @@
         <v>87</v>
       </c>
       <c r="C2200">
-        <v>6436.7</v>
+        <v>6853</v>
       </c>
       <c r="D2200" t="s">
         <v>2202</v>
@@ -39841,7 +40129,7 @@
         <v>88</v>
       </c>
       <c r="C2201">
-        <v>6376.7</v>
+        <v>6773</v>
       </c>
       <c r="D2201" t="s">
         <v>2203</v>
@@ -39855,7 +40143,7 @@
         <v>89</v>
       </c>
       <c r="C2202">
-        <v>6634</v>
+        <v>6658</v>
       </c>
       <c r="D2202" t="s">
         <v>2204</v>
@@ -39869,7 +40157,7 @@
         <v>90</v>
       </c>
       <c r="C2203">
-        <v>6514</v>
+        <v>6508</v>
       </c>
       <c r="D2203" t="s">
         <v>2205</v>
@@ -39883,7 +40171,7 @@
         <v>91</v>
       </c>
       <c r="C2204">
-        <v>6364</v>
+        <v>6378</v>
       </c>
       <c r="D2204" t="s">
         <v>2206</v>
@@ -39897,7 +40185,7 @@
         <v>92</v>
       </c>
       <c r="C2205">
-        <v>6194</v>
+        <v>6198</v>
       </c>
       <c r="D2205" t="s">
         <v>2207</v>
@@ -39911,7 +40199,7 @@
         <v>93</v>
       </c>
       <c r="C2206">
-        <v>6147.9</v>
+        <v>5865</v>
       </c>
       <c r="D2206" t="s">
         <v>2208</v>
@@ -39925,7 +40213,7 @@
         <v>94</v>
       </c>
       <c r="C2207">
-        <v>5967.9</v>
+        <v>5725</v>
       </c>
       <c r="D2207" t="s">
         <v>2209</v>
@@ -39939,7 +40227,7 @@
         <v>95</v>
       </c>
       <c r="C2208">
-        <v>5857.9</v>
+        <v>5575</v>
       </c>
       <c r="D2208" t="s">
         <v>2210</v>
@@ -39953,7 +40241,7 @@
         <v>96</v>
       </c>
       <c r="C2209">
-        <v>5747.9</v>
+        <v>5475</v>
       </c>
       <c r="D2209" t="s">
         <v>2211</v>
@@ -39967,7 +40255,7 @@
         <v>1</v>
       </c>
       <c r="C2210">
-        <v>5240</v>
+        <v>5384</v>
       </c>
       <c r="D2210" t="s">
         <v>2212</v>
@@ -39981,7 +40269,7 @@
         <v>2</v>
       </c>
       <c r="C2211">
-        <v>5190</v>
+        <v>5314</v>
       </c>
       <c r="D2211" t="s">
         <v>2213</v>
@@ -39995,7 +40283,7 @@
         <v>3</v>
       </c>
       <c r="C2212">
-        <v>5140</v>
+        <v>5264</v>
       </c>
       <c r="D2212" t="s">
         <v>2214</v>
@@ -40009,7 +40297,7 @@
         <v>4</v>
       </c>
       <c r="C2213">
-        <v>5070</v>
+        <v>5214</v>
       </c>
       <c r="D2213" t="s">
         <v>2215</v>
@@ -40023,7 +40311,7 @@
         <v>5</v>
       </c>
       <c r="C2214">
-        <v>4804.9</v>
+        <v>4574.700000000001</v>
       </c>
       <c r="D2214" t="s">
         <v>2216</v>
@@ -40037,7 +40325,7 @@
         <v>6</v>
       </c>
       <c r="C2215">
-        <v>4744.9</v>
+        <v>4514.700000000001</v>
       </c>
       <c r="D2215" t="s">
         <v>2217</v>
@@ -40051,7 +40339,7 @@
         <v>7</v>
       </c>
       <c r="C2216">
-        <v>4704.9</v>
+        <v>4464.700000000001</v>
       </c>
       <c r="D2216" t="s">
         <v>2218</v>
@@ -40065,7 +40353,7 @@
         <v>8</v>
       </c>
       <c r="C2217">
-        <v>4654.9</v>
+        <v>4424.700000000001</v>
       </c>
       <c r="D2217" t="s">
         <v>2219</v>
@@ -40079,7 +40367,7 @@
         <v>9</v>
       </c>
       <c r="C2218">
-        <v>4527.5</v>
+        <v>4339.6</v>
       </c>
       <c r="D2218" t="s">
         <v>2220</v>
@@ -40093,7 +40381,7 @@
         <v>10</v>
       </c>
       <c r="C2219">
-        <v>4477.5</v>
+        <v>4299.6</v>
       </c>
       <c r="D2219" t="s">
         <v>2221</v>
@@ -40107,7 +40395,7 @@
         <v>11</v>
       </c>
       <c r="C2220">
-        <v>4437.5</v>
+        <v>4269.6</v>
       </c>
       <c r="D2220" t="s">
         <v>2222</v>
@@ -40121,7 +40409,7 @@
         <v>12</v>
       </c>
       <c r="C2221">
-        <v>4407.5</v>
+        <v>4249.6</v>
       </c>
       <c r="D2221" t="s">
         <v>2223</v>
@@ -40135,7 +40423,7 @@
         <v>13</v>
       </c>
       <c r="C2222">
-        <v>4374.5</v>
+        <v>4186</v>
       </c>
       <c r="D2222" t="s">
         <v>2224</v>
@@ -40149,7 +40437,7 @@
         <v>14</v>
       </c>
       <c r="C2223">
-        <v>4364.5</v>
+        <v>4176</v>
       </c>
       <c r="D2223" t="s">
         <v>2225</v>
@@ -40163,7 +40451,7 @@
         <v>15</v>
       </c>
       <c r="C2224">
-        <v>4354.5</v>
+        <v>4166</v>
       </c>
       <c r="D2224" t="s">
         <v>2226</v>
@@ -40177,7 +40465,7 @@
         <v>16</v>
       </c>
       <c r="C2225">
-        <v>4354.5</v>
+        <v>4166</v>
       </c>
       <c r="D2225" t="s">
         <v>2227</v>
@@ -40191,7 +40479,7 @@
         <v>17</v>
       </c>
       <c r="C2226">
-        <v>4388.7</v>
+        <v>4118.1</v>
       </c>
       <c r="D2226" t="s">
         <v>2228</v>
@@ -40205,7 +40493,7 @@
         <v>18</v>
       </c>
       <c r="C2227">
-        <v>4378.7</v>
+        <v>4118.1</v>
       </c>
       <c r="D2227" t="s">
         <v>2229</v>
@@ -40219,7 +40507,7 @@
         <v>19</v>
       </c>
       <c r="C2228">
-        <v>4378.7</v>
+        <v>4118.1</v>
       </c>
       <c r="D2228" t="s">
         <v>2230</v>
@@ -40233,7 +40521,7 @@
         <v>20</v>
       </c>
       <c r="C2229">
-        <v>4378.7</v>
+        <v>4118.1</v>
       </c>
       <c r="D2229" t="s">
         <v>2231</v>
@@ -40247,7 +40535,7 @@
         <v>21</v>
       </c>
       <c r="C2230">
-        <v>4323.6</v>
+        <v>3854.9</v>
       </c>
       <c r="D2230" t="s">
         <v>2232</v>
@@ -40261,7 +40549,7 @@
         <v>22</v>
       </c>
       <c r="C2231">
-        <v>4323.6</v>
+        <v>3864.9</v>
       </c>
       <c r="D2231" t="s">
         <v>2233</v>
@@ -40275,7 +40563,7 @@
         <v>23</v>
       </c>
       <c r="C2232">
-        <v>4333.6</v>
+        <v>3874.9</v>
       </c>
       <c r="D2232" t="s">
         <v>2234</v>
@@ -40289,7 +40577,7 @@
         <v>24</v>
       </c>
       <c r="C2233">
-        <v>4343.6</v>
+        <v>3884.9</v>
       </c>
       <c r="D2233" t="s">
         <v>2235</v>
@@ -40303,7 +40591,7 @@
         <v>25</v>
       </c>
       <c r="C2234">
-        <v>4288.7</v>
+        <v>3995.9</v>
       </c>
       <c r="D2234" t="s">
         <v>2236</v>
@@ -40317,7 +40605,7 @@
         <v>26</v>
       </c>
       <c r="C2235">
-        <v>4318.7</v>
+        <v>3995.9</v>
       </c>
       <c r="D2235" t="s">
         <v>2237</v>
@@ -40331,7 +40619,7 @@
         <v>27</v>
       </c>
       <c r="C2236">
-        <v>4358.7</v>
+        <v>3995.9</v>
       </c>
       <c r="D2236" t="s">
         <v>2238</v>
@@ -40345,7 +40633,7 @@
         <v>28</v>
       </c>
       <c r="C2237">
-        <v>4398.7</v>
+        <v>4025.9</v>
       </c>
       <c r="D2237" t="s">
         <v>2239</v>
@@ -40359,7 +40647,7 @@
         <v>29</v>
       </c>
       <c r="C2238">
-        <v>4169.8</v>
+        <v>4434.4</v>
       </c>
       <c r="D2238" t="s">
         <v>2240</v>
@@ -40373,7 +40661,7 @@
         <v>30</v>
       </c>
       <c r="C2239">
-        <v>4219.8</v>
+        <v>4514.4</v>
       </c>
       <c r="D2239" t="s">
         <v>2241</v>
@@ -40387,7 +40675,7 @@
         <v>31</v>
       </c>
       <c r="C2240">
-        <v>4269.8</v>
+        <v>4564.4</v>
       </c>
       <c r="D2240" t="s">
         <v>2242</v>
@@ -40401,7 +40689,7 @@
         <v>32</v>
       </c>
       <c r="C2241">
-        <v>4319.8</v>
+        <v>4614.4</v>
       </c>
       <c r="D2241" t="s">
         <v>2243</v>
@@ -40415,7 +40703,7 @@
         <v>33</v>
       </c>
       <c r="C2242">
-        <v>4587.2</v>
+        <v>4624.5</v>
       </c>
       <c r="D2242" t="s">
         <v>2244</v>
@@ -40429,7 +40717,7 @@
         <v>34</v>
       </c>
       <c r="C2243">
-        <v>4607.2</v>
+        <v>4634.5</v>
       </c>
       <c r="D2243" t="s">
         <v>2245</v>
@@ -40443,7 +40731,7 @@
         <v>35</v>
       </c>
       <c r="C2244">
-        <v>4607.2</v>
+        <v>4644.5</v>
       </c>
       <c r="D2244" t="s">
         <v>2246</v>
@@ -40457,7 +40745,7 @@
         <v>36</v>
       </c>
       <c r="C2245">
-        <v>4597.2</v>
+        <v>4644.5</v>
       </c>
       <c r="D2245" t="s">
         <v>2247</v>
@@ -40471,7 +40759,7 @@
         <v>37</v>
       </c>
       <c r="C2246">
-        <v>4914.6</v>
+        <v>4004.7</v>
       </c>
       <c r="D2246" t="s">
         <v>2248</v>
@@ -40485,7 +40773,7 @@
         <v>38</v>
       </c>
       <c r="C2247">
-        <v>4884.6</v>
+        <v>3974.7</v>
       </c>
       <c r="D2247" t="s">
         <v>2249</v>
@@ -40499,7 +40787,7 @@
         <v>39</v>
       </c>
       <c r="C2248">
-        <v>4834.6</v>
+        <v>3944.7</v>
       </c>
       <c r="D2248" t="s">
         <v>2250</v>
@@ -40513,7 +40801,7 @@
         <v>40</v>
       </c>
       <c r="C2249">
-        <v>4794.6</v>
+        <v>3894.7</v>
       </c>
       <c r="D2249" t="s">
         <v>2251</v>
@@ -40527,7 +40815,7 @@
         <v>41</v>
       </c>
       <c r="C2250">
-        <v>4715.2</v>
+        <v>3968.1</v>
       </c>
       <c r="D2250" t="s">
         <v>2252</v>
@@ -40541,7 +40829,7 @@
         <v>42</v>
       </c>
       <c r="C2251">
-        <v>4675.2</v>
+        <v>3928.1</v>
       </c>
       <c r="D2251" t="s">
         <v>2253</v>
@@ -40555,7 +40843,7 @@
         <v>43</v>
       </c>
       <c r="C2252">
-        <v>4635.2</v>
+        <v>3888.1</v>
       </c>
       <c r="D2252" t="s">
         <v>2254</v>
@@ -40569,7 +40857,7 @@
         <v>44</v>
       </c>
       <c r="C2253">
-        <v>4595.2</v>
+        <v>3848.1</v>
       </c>
       <c r="D2253" t="s">
         <v>2255</v>
@@ -40583,7 +40871,7 @@
         <v>45</v>
       </c>
       <c r="C2254">
-        <v>4750.3</v>
+        <v>3982.4</v>
       </c>
       <c r="D2254" t="s">
         <v>2256</v>
@@ -40597,7 +40885,7 @@
         <v>46</v>
       </c>
       <c r="C2255">
-        <v>4730.3</v>
+        <v>3962.4</v>
       </c>
       <c r="D2255" t="s">
         <v>2257</v>
@@ -40611,7 +40899,7 @@
         <v>47</v>
       </c>
       <c r="C2256">
-        <v>4700.3</v>
+        <v>3942.4</v>
       </c>
       <c r="D2256" t="s">
         <v>2258</v>
@@ -40625,7 +40913,7 @@
         <v>48</v>
       </c>
       <c r="C2257">
-        <v>4680.3</v>
+        <v>3932.4</v>
       </c>
       <c r="D2257" t="s">
         <v>2259</v>
@@ -40639,7 +40927,7 @@
         <v>49</v>
       </c>
       <c r="C2258">
-        <v>4804.4</v>
+        <v>4086.9</v>
       </c>
       <c r="D2258" t="s">
         <v>2260</v>
@@ -40653,7 +40941,7 @@
         <v>50</v>
       </c>
       <c r="C2259">
-        <v>4784.4</v>
+        <v>4076.9</v>
       </c>
       <c r="D2259" t="s">
         <v>2261</v>
@@ -40667,7 +40955,7 @@
         <v>51</v>
       </c>
       <c r="C2260">
-        <v>4754.4</v>
+        <v>4056.9</v>
       </c>
       <c r="D2260" t="s">
         <v>2262</v>
@@ -40681,7 +40969,7 @@
         <v>52</v>
       </c>
       <c r="C2261">
-        <v>4734.4</v>
+        <v>4046.9</v>
       </c>
       <c r="D2261" t="s">
         <v>2263</v>
@@ -40695,7 +40983,7 @@
         <v>53</v>
       </c>
       <c r="C2262">
-        <v>4666.9</v>
+        <v>3984.1</v>
       </c>
       <c r="D2262" t="s">
         <v>2264</v>
@@ -40709,7 +40997,7 @@
         <v>54</v>
       </c>
       <c r="C2263">
-        <v>4656.9</v>
+        <v>3984.1</v>
       </c>
       <c r="D2263" t="s">
         <v>2265</v>
@@ -40723,7 +41011,7 @@
         <v>55</v>
       </c>
       <c r="C2264">
-        <v>4646.9</v>
+        <v>3984.1</v>
       </c>
       <c r="D2264" t="s">
         <v>2266</v>
@@ -40737,7 +41025,7 @@
         <v>56</v>
       </c>
       <c r="C2265">
-        <v>4646.9</v>
+        <v>3984.1</v>
       </c>
       <c r="D2265" t="s">
         <v>2267</v>
@@ -40751,7 +41039,7 @@
         <v>57</v>
       </c>
       <c r="C2266">
-        <v>4625.8</v>
+        <v>3993.7</v>
       </c>
       <c r="D2266" t="s">
         <v>2268</v>
@@ -40765,7 +41053,7 @@
         <v>58</v>
       </c>
       <c r="C2267">
-        <v>4635.8</v>
+        <v>4013.7</v>
       </c>
       <c r="D2267" t="s">
         <v>2269</v>
@@ -40779,7 +41067,7 @@
         <v>59</v>
       </c>
       <c r="C2268">
-        <v>4645.8</v>
+        <v>4023.7</v>
       </c>
       <c r="D2268" t="s">
         <v>2270</v>
@@ -40793,7 +41081,7 @@
         <v>60</v>
       </c>
       <c r="C2269">
-        <v>4655.8</v>
+        <v>4033.7</v>
       </c>
       <c r="D2269" t="s">
         <v>2271</v>
@@ -40807,7 +41095,7 @@
         <v>61</v>
       </c>
       <c r="C2270">
-        <v>4647.6</v>
+        <v>3878.3</v>
       </c>
       <c r="D2270" t="s">
         <v>2272</v>
@@ -40821,7 +41109,7 @@
         <v>62</v>
       </c>
       <c r="C2271">
-        <v>4667.6</v>
+        <v>3888.3</v>
       </c>
       <c r="D2271" t="s">
         <v>2273</v>
@@ -40835,7 +41123,7 @@
         <v>63</v>
       </c>
       <c r="C2272">
-        <v>4677.6</v>
+        <v>3908.3</v>
       </c>
       <c r="D2272" t="s">
         <v>2274</v>
@@ -40849,7 +41137,7 @@
         <v>64</v>
       </c>
       <c r="C2273">
-        <v>4697.6</v>
+        <v>3918.3</v>
       </c>
       <c r="D2273" t="s">
         <v>2275</v>
@@ -40863,7 +41151,7 @@
         <v>65</v>
       </c>
       <c r="C2274">
-        <v>4878.7</v>
+        <v>3766.8</v>
       </c>
       <c r="D2274" t="s">
         <v>2276</v>
@@ -40877,7 +41165,7 @@
         <v>66</v>
       </c>
       <c r="C2275">
-        <v>4928.7</v>
+        <v>3796.8</v>
       </c>
       <c r="D2275" t="s">
         <v>2277</v>
@@ -40891,7 +41179,7 @@
         <v>67</v>
       </c>
       <c r="C2276">
-        <v>4988.7</v>
+        <v>3846.8</v>
       </c>
       <c r="D2276" t="s">
         <v>2278</v>
@@ -40905,7 +41193,7 @@
         <v>68</v>
       </c>
       <c r="C2277">
-        <v>5048.7</v>
+        <v>3906.8</v>
       </c>
       <c r="D2277" t="s">
         <v>2279</v>
@@ -40919,7 +41207,7 @@
         <v>69</v>
       </c>
       <c r="C2278">
-        <v>4788.9</v>
+        <v>3696.1</v>
       </c>
       <c r="D2278" t="s">
         <v>2280</v>
@@ -40933,7 +41221,7 @@
         <v>70</v>
       </c>
       <c r="C2279">
-        <v>4858.9</v>
+        <v>3756.1</v>
       </c>
       <c r="D2279" t="s">
         <v>2281</v>
@@ -40947,7 +41235,7 @@
         <v>71</v>
       </c>
       <c r="C2280">
-        <v>4938.9</v>
+        <v>3796.1</v>
       </c>
       <c r="D2280" t="s">
         <v>2282</v>
@@ -40961,7 +41249,7 @@
         <v>72</v>
       </c>
       <c r="C2281">
-        <v>5008.9</v>
+        <v>3856.1</v>
       </c>
       <c r="D2281" t="s">
         <v>2283</v>
@@ -40975,7 +41263,7 @@
         <v>73</v>
       </c>
       <c r="C2282">
-        <v>5000.2</v>
+        <v>3621.6</v>
       </c>
       <c r="D2282" t="s">
         <v>2284</v>
@@ -40989,7 +41277,7 @@
         <v>74</v>
       </c>
       <c r="C2283">
-        <v>5080.2</v>
+        <v>3681.6</v>
       </c>
       <c r="D2283" t="s">
         <v>2285</v>
@@ -41003,7 +41291,7 @@
         <v>75</v>
       </c>
       <c r="C2284">
-        <v>5170.2</v>
+        <v>3761.6</v>
       </c>
       <c r="D2284" t="s">
         <v>2286</v>
@@ -41017,7 +41305,7 @@
         <v>76</v>
       </c>
       <c r="C2285">
-        <v>5280.2</v>
+        <v>3861.6</v>
       </c>
       <c r="D2285" t="s">
         <v>2287</v>
@@ -41031,7 +41319,7 @@
         <v>77</v>
       </c>
       <c r="C2286">
-        <v>5028.2</v>
+        <v>3538.8</v>
       </c>
       <c r="D2286" t="s">
         <v>2288</v>
@@ -41045,7 +41333,7 @@
         <v>78</v>
       </c>
       <c r="C2287">
-        <v>5148.2</v>
+        <v>3658.8</v>
       </c>
       <c r="D2287" t="s">
         <v>2289</v>
@@ -41059,7 +41347,7 @@
         <v>79</v>
       </c>
       <c r="C2288">
-        <v>5258.2</v>
+        <v>3758.8</v>
       </c>
       <c r="D2288" t="s">
         <v>2290</v>
@@ -41073,7 +41361,7 @@
         <v>80</v>
       </c>
       <c r="C2289">
-        <v>5358.2</v>
+        <v>3848.8</v>
       </c>
       <c r="D2289" t="s">
         <v>2291</v>
@@ -41087,7 +41375,7 @@
         <v>81</v>
       </c>
       <c r="C2290">
-        <v>5383.9</v>
+        <v>4190.5</v>
       </c>
       <c r="D2290" t="s">
         <v>2292</v>
@@ -41101,7 +41389,7 @@
         <v>82</v>
       </c>
       <c r="C2291">
-        <v>5493.9</v>
+        <v>4280.5</v>
       </c>
       <c r="D2291" t="s">
         <v>2293</v>
@@ -41115,7 +41403,7 @@
         <v>83</v>
       </c>
       <c r="C2292">
-        <v>5573.9</v>
+        <v>4360.5</v>
       </c>
       <c r="D2292" t="s">
         <v>2294</v>
@@ -41129,7 +41417,7 @@
         <v>84</v>
       </c>
       <c r="C2293">
-        <v>5673.9</v>
+        <v>4450.5</v>
       </c>
       <c r="D2293" t="s">
         <v>2295</v>
@@ -41143,7 +41431,7 @@
         <v>85</v>
       </c>
       <c r="C2294">
-        <v>5837.9</v>
+        <v>4392.6</v>
       </c>
       <c r="D2294" t="s">
         <v>2296</v>
@@ -41157,7 +41445,7 @@
         <v>86</v>
       </c>
       <c r="C2295">
-        <v>5827.9</v>
+        <v>4402.6</v>
       </c>
       <c r="D2295" t="s">
         <v>2297</v>
@@ -41171,7 +41459,7 @@
         <v>87</v>
       </c>
       <c r="C2296">
-        <v>5827.9</v>
+        <v>4382.6</v>
       </c>
       <c r="D2296" t="s">
         <v>2298</v>
@@ -41185,7 +41473,7 @@
         <v>88</v>
       </c>
       <c r="C2297">
-        <v>5787.9</v>
+        <v>4322.6</v>
       </c>
       <c r="D2297" t="s">
         <v>2299</v>
@@ -41199,7 +41487,7 @@
         <v>89</v>
       </c>
       <c r="C2298">
-        <v>6304.8</v>
+        <v>4510.5</v>
       </c>
       <c r="D2298" t="s">
         <v>2300</v>
@@ -41213,7 +41501,7 @@
         <v>90</v>
       </c>
       <c r="C2299">
-        <v>6264.8</v>
+        <v>4400.5</v>
       </c>
       <c r="D2299" t="s">
         <v>2301</v>
@@ -41227,7 +41515,7 @@
         <v>91</v>
       </c>
       <c r="C2300">
-        <v>6134.8</v>
+        <v>4270.5</v>
       </c>
       <c r="D2300" t="s">
         <v>2302</v>
@@ -41241,7 +41529,7 @@
         <v>92</v>
       </c>
       <c r="C2301">
-        <v>5954.8</v>
+        <v>4110.5</v>
       </c>
       <c r="D2301" t="s">
         <v>2303</v>
@@ -41255,7 +41543,7 @@
         <v>93</v>
       </c>
       <c r="C2302">
-        <v>6065.9</v>
+        <v>4233.9</v>
       </c>
       <c r="D2302" t="s">
         <v>2304</v>
@@ -41269,7 +41557,7 @@
         <v>94</v>
       </c>
       <c r="C2303">
-        <v>5905.9</v>
+        <v>4103.9</v>
       </c>
       <c r="D2303" t="s">
         <v>2305</v>
@@ -41283,7 +41571,7 @@
         <v>95</v>
       </c>
       <c r="C2304">
-        <v>5815.9</v>
+        <v>3993.9</v>
       </c>
       <c r="D2304" t="s">
         <v>2306</v>
@@ -41297,7 +41585,7 @@
         <v>96</v>
       </c>
       <c r="C2305">
-        <v>5705.9</v>
+        <v>3883.9</v>
       </c>
       <c r="D2305" t="s">
         <v>2307</v>
@@ -41311,7 +41599,7 @@
         <v>1</v>
       </c>
       <c r="C2306">
-        <v>5090</v>
+        <v>4097.200000000001</v>
       </c>
       <c r="D2306" t="s">
         <v>2308</v>
@@ -41325,7 +41613,7 @@
         <v>2</v>
       </c>
       <c r="C2307">
-        <v>5050</v>
+        <v>4027.2</v>
       </c>
       <c r="D2307" t="s">
         <v>2309</v>
@@ -41339,7 +41627,7 @@
         <v>3</v>
       </c>
       <c r="C2308">
-        <v>4990</v>
+        <v>3977.2</v>
       </c>
       <c r="D2308" t="s">
         <v>2310</v>
@@ -41353,7 +41641,7 @@
         <v>4</v>
       </c>
       <c r="C2309">
-        <v>4910</v>
+        <v>3927.2</v>
       </c>
       <c r="D2309" t="s">
         <v>2311</v>
@@ -41367,7 +41655,7 @@
         <v>5</v>
       </c>
       <c r="C2310">
-        <v>4634.9</v>
+        <v>3589.6</v>
       </c>
       <c r="D2310" t="s">
         <v>2312</v>
@@ -41381,7 +41669,7 @@
         <v>6</v>
       </c>
       <c r="C2311">
-        <v>4574.9</v>
+        <v>3539.6</v>
       </c>
       <c r="D2311" t="s">
         <v>2313</v>
@@ -41395,7 +41683,7 @@
         <v>7</v>
       </c>
       <c r="C2312">
-        <v>4514.9</v>
+        <v>3479.6</v>
       </c>
       <c r="D2312" t="s">
         <v>2314</v>
@@ -41409,7 +41697,7 @@
         <v>8</v>
       </c>
       <c r="C2313">
-        <v>4464.9</v>
+        <v>3429.6</v>
       </c>
       <c r="D2313" t="s">
         <v>2315</v>
@@ -41423,7 +41711,7 @@
         <v>9</v>
       </c>
       <c r="C2314">
-        <v>4327.5</v>
+        <v>3422.9</v>
       </c>
       <c r="D2314" t="s">
         <v>2316</v>
@@ -41437,7 +41725,7 @@
         <v>10</v>
       </c>
       <c r="C2315">
-        <v>4277.5</v>
+        <v>3382.9</v>
       </c>
       <c r="D2315" t="s">
         <v>2317</v>
@@ -41451,7 +41739,7 @@
         <v>11</v>
       </c>
       <c r="C2316">
-        <v>4237.5</v>
+        <v>3352.9</v>
       </c>
       <c r="D2316" t="s">
         <v>2318</v>
@@ -41465,7 +41753,7 @@
         <v>12</v>
       </c>
       <c r="C2317">
-        <v>4197.5</v>
+        <v>3332.9</v>
       </c>
       <c r="D2317" t="s">
         <v>2319</v>
@@ -41479,7 +41767,7 @@
         <v>13</v>
       </c>
       <c r="C2318">
-        <v>4154.5</v>
+        <v>3473.6</v>
       </c>
       <c r="D2318" t="s">
         <v>2320</v>
@@ -41493,7 +41781,7 @@
         <v>14</v>
       </c>
       <c r="C2319">
-        <v>4124.5</v>
+        <v>3453.6</v>
       </c>
       <c r="D2319" t="s">
         <v>2321</v>
@@ -41507,7 +41795,7 @@
         <v>15</v>
       </c>
       <c r="C2320">
-        <v>4104.5</v>
+        <v>3433.6</v>
       </c>
       <c r="D2320" t="s">
         <v>2322</v>
@@ -41521,7 +41809,7 @@
         <v>16</v>
       </c>
       <c r="C2321">
-        <v>4084.5</v>
+        <v>3423.6</v>
       </c>
       <c r="D2321" t="s">
         <v>2323</v>
@@ -41535,7 +41823,7 @@
         <v>17</v>
       </c>
       <c r="C2322">
-        <v>4098.7</v>
+        <v>3388</v>
       </c>
       <c r="D2322" t="s">
         <v>2324</v>
@@ -41549,7 +41837,7 @@
         <v>18</v>
       </c>
       <c r="C2323">
-        <v>4078.7</v>
+        <v>3378</v>
       </c>
       <c r="D2323" t="s">
         <v>2325</v>
@@ -41563,7 +41851,7 @@
         <v>19</v>
       </c>
       <c r="C2324">
-        <v>4078.7</v>
+        <v>3358</v>
       </c>
       <c r="D2324" t="s">
         <v>2326</v>
@@ -41577,7 +41865,7 @@
         <v>20</v>
       </c>
       <c r="C2325">
-        <v>4078.7</v>
+        <v>3348</v>
       </c>
       <c r="D2325" t="s">
         <v>2327</v>
@@ -41591,7 +41879,7 @@
         <v>21</v>
       </c>
       <c r="C2326">
-        <v>4033.6</v>
+        <v>3266.9</v>
       </c>
       <c r="D2326" t="s">
         <v>2328</v>
@@ -41605,7 +41893,7 @@
         <v>22</v>
       </c>
       <c r="C2327">
-        <v>4033.6</v>
+        <v>3266.9</v>
       </c>
       <c r="D2327" t="s">
         <v>2329</v>
@@ -41619,7 +41907,7 @@
         <v>23</v>
       </c>
       <c r="C2328">
-        <v>4043.6</v>
+        <v>3266.9</v>
       </c>
       <c r="D2328" t="s">
         <v>2330</v>
@@ -41633,7 +41921,7 @@
         <v>24</v>
       </c>
       <c r="C2329">
-        <v>4063.6</v>
+        <v>3266.9</v>
       </c>
       <c r="D2329" t="s">
         <v>2331</v>
@@ -41647,7 +41935,7 @@
         <v>25</v>
       </c>
       <c r="C2330">
-        <v>3988.7</v>
+        <v>3338.2</v>
       </c>
       <c r="D2330" t="s">
         <v>2332</v>
@@ -41661,7 +41949,7 @@
         <v>26</v>
       </c>
       <c r="C2331">
-        <v>4008.7</v>
+        <v>3338.2</v>
       </c>
       <c r="D2331" t="s">
         <v>2333</v>
@@ -41675,7 +41963,7 @@
         <v>27</v>
       </c>
       <c r="C2332">
-        <v>4018.7</v>
+        <v>3338.2</v>
       </c>
       <c r="D2332" t="s">
         <v>2334</v>
@@ -41689,7 +41977,7 @@
         <v>28</v>
       </c>
       <c r="C2333">
-        <v>4038.7</v>
+        <v>3348.2</v>
       </c>
       <c r="D2333" t="s">
         <v>2335</v>
@@ -41703,7 +41991,7 @@
         <v>29</v>
       </c>
       <c r="C2334">
-        <v>3779.8</v>
+        <v>3613.9</v>
       </c>
       <c r="D2334" t="s">
         <v>2336</v>
@@ -41717,7 +42005,7 @@
         <v>30</v>
       </c>
       <c r="C2335">
-        <v>3799.8</v>
+        <v>3643.9</v>
       </c>
       <c r="D2335" t="s">
         <v>2337</v>
@@ -41731,7 +42019,7 @@
         <v>31</v>
       </c>
       <c r="C2336">
-        <v>3819.8</v>
+        <v>3663.9</v>
       </c>
       <c r="D2336" t="s">
         <v>2338</v>
@@ -41745,7 +42033,7 @@
         <v>32</v>
       </c>
       <c r="C2337">
-        <v>3839.8</v>
+        <v>3693.9</v>
       </c>
       <c r="D2337" t="s">
         <v>2339</v>
@@ -41759,7 +42047,7 @@
         <v>33</v>
       </c>
       <c r="C2338">
-        <v>4097.2</v>
+        <v>3681.1</v>
       </c>
       <c r="D2338" t="s">
         <v>2340</v>
@@ -41773,7 +42061,7 @@
         <v>34</v>
       </c>
       <c r="C2339">
-        <v>4107.2</v>
+        <v>3701.1</v>
       </c>
       <c r="D2339" t="s">
         <v>2341</v>
@@ -41787,7 +42075,7 @@
         <v>35</v>
       </c>
       <c r="C2340">
-        <v>4107.2</v>
+        <v>3721.1</v>
       </c>
       <c r="D2340" t="s">
         <v>2342</v>
@@ -41801,7 +42089,7 @@
         <v>36</v>
       </c>
       <c r="C2341">
-        <v>4097.2</v>
+        <v>3741.1</v>
       </c>
       <c r="D2341" t="s">
         <v>2343</v>
@@ -41815,7 +42103,7 @@
         <v>37</v>
       </c>
       <c r="C2342">
-        <v>4414.6</v>
+        <v>3694.5</v>
       </c>
       <c r="D2342" t="s">
         <v>2344</v>
@@ -41829,7 +42117,7 @@
         <v>38</v>
       </c>
       <c r="C2343">
-        <v>4384.6</v>
+        <v>3694.5</v>
       </c>
       <c r="D2343" t="s">
         <v>2345</v>
@@ -41843,7 +42131,7 @@
         <v>39</v>
       </c>
       <c r="C2344">
-        <v>4344.6</v>
+        <v>3684.5</v>
       </c>
       <c r="D2344" t="s">
         <v>2346</v>
@@ -41857,7 +42145,7 @@
         <v>40</v>
       </c>
       <c r="C2345">
-        <v>4294.6</v>
+        <v>3674.5</v>
       </c>
       <c r="D2345" t="s">
         <v>2347</v>
@@ -41871,7 +42159,7 @@
         <v>41</v>
       </c>
       <c r="C2346">
-        <v>4225.2</v>
+        <v>3755.6</v>
       </c>
       <c r="D2346" t="s">
         <v>2348</v>
@@ -41885,7 +42173,7 @@
         <v>42</v>
       </c>
       <c r="C2347">
-        <v>4175.2</v>
+        <v>3745.6</v>
       </c>
       <c r="D2347" t="s">
         <v>2349</v>
@@ -41899,7 +42187,7 @@
         <v>43</v>
       </c>
       <c r="C2348">
-        <v>4135.2</v>
+        <v>3735.6</v>
       </c>
       <c r="D2348" t="s">
         <v>2350</v>
@@ -41913,7 +42201,7 @@
         <v>44</v>
       </c>
       <c r="C2349">
-        <v>4095.2</v>
+        <v>3715.6</v>
       </c>
       <c r="D2349" t="s">
         <v>2351</v>
@@ -41927,7 +42215,7 @@
         <v>45</v>
       </c>
       <c r="C2350">
-        <v>4250.3</v>
+        <v>3789.1</v>
       </c>
       <c r="D2350" t="s">
         <v>2352</v>
@@ -41941,7 +42229,7 @@
         <v>46</v>
       </c>
       <c r="C2351">
-        <v>4220.3</v>
+        <v>3779.1</v>
       </c>
       <c r="D2351" t="s">
         <v>2353</v>
@@ -41955,7 +42243,7 @@
         <v>47</v>
       </c>
       <c r="C2352">
-        <v>4200.3</v>
+        <v>3769.1</v>
       </c>
       <c r="D2352" t="s">
         <v>2354</v>
@@ -41969,7 +42257,7 @@
         <v>48</v>
       </c>
       <c r="C2353">
-        <v>4180.3</v>
+        <v>3759.1</v>
       </c>
       <c r="D2353" t="s">
         <v>2355</v>
@@ -41983,7 +42271,7 @@
         <v>49</v>
       </c>
       <c r="C2354">
-        <v>4304.4</v>
+        <v>3870.2</v>
       </c>
       <c r="D2354" t="s">
         <v>2356</v>
@@ -41997,7 +42285,7 @@
         <v>50</v>
       </c>
       <c r="C2355">
-        <v>4284.4</v>
+        <v>3850.2</v>
       </c>
       <c r="D2355" t="s">
         <v>2357</v>
@@ -42011,7 +42299,7 @@
         <v>51</v>
       </c>
       <c r="C2356">
-        <v>4254.4</v>
+        <v>3840.2</v>
       </c>
       <c r="D2356" t="s">
         <v>2358</v>
@@ -42025,7 +42313,7 @@
         <v>52</v>
       </c>
       <c r="C2357">
-        <v>4234.4</v>
+        <v>3830.2</v>
       </c>
       <c r="D2357" t="s">
         <v>2359</v>
@@ -42039,7 +42327,7 @@
         <v>53</v>
       </c>
       <c r="C2358">
-        <v>4166.9</v>
+        <v>3833.9</v>
       </c>
       <c r="D2358" t="s">
         <v>2360</v>
@@ -42053,7 +42341,7 @@
         <v>54</v>
       </c>
       <c r="C2359">
-        <v>4146.9</v>
+        <v>3823.9</v>
       </c>
       <c r="D2359" t="s">
         <v>2361</v>
@@ -42067,7 +42355,7 @@
         <v>55</v>
       </c>
       <c r="C2360">
-        <v>4146.9</v>
+        <v>3813.9</v>
       </c>
       <c r="D2360" t="s">
         <v>2362</v>
@@ -42081,7 +42369,7 @@
         <v>56</v>
       </c>
       <c r="C2361">
-        <v>4146.9</v>
+        <v>3813.9</v>
       </c>
       <c r="D2361" t="s">
         <v>2363</v>
@@ -42095,7 +42383,7 @@
         <v>57</v>
       </c>
       <c r="C2362">
-        <v>4125.8</v>
+        <v>3907.6</v>
       </c>
       <c r="D2362" t="s">
         <v>2364</v>
@@ -42109,7 +42397,7 @@
         <v>58</v>
       </c>
       <c r="C2363">
-        <v>4135.8</v>
+        <v>3907.6</v>
       </c>
       <c r="D2363" t="s">
         <v>2365</v>
@@ -42123,7 +42411,7 @@
         <v>59</v>
       </c>
       <c r="C2364">
-        <v>4155.8</v>
+        <v>3917.6</v>
       </c>
       <c r="D2364" t="s">
         <v>2366</v>
@@ -42137,7 +42425,7 @@
         <v>60</v>
       </c>
       <c r="C2365">
-        <v>4165.8</v>
+        <v>3937.6</v>
       </c>
       <c r="D2365" t="s">
         <v>2367</v>
@@ -42151,7 +42439,7 @@
         <v>61</v>
       </c>
       <c r="C2366">
-        <v>4157.6</v>
+        <v>3918.6</v>
       </c>
       <c r="D2366" t="s">
         <v>2368</v>
@@ -42165,7 +42453,7 @@
         <v>62</v>
       </c>
       <c r="C2367">
-        <v>4157.6</v>
+        <v>3918.6</v>
       </c>
       <c r="D2367" t="s">
         <v>2369</v>
@@ -42179,7 +42467,7 @@
         <v>63</v>
       </c>
       <c r="C2368">
-        <v>4167.6</v>
+        <v>3918.6</v>
       </c>
       <c r="D2368" t="s">
         <v>2370</v>
@@ -42193,7 +42481,7 @@
         <v>64</v>
       </c>
       <c r="C2369">
-        <v>4177.6</v>
+        <v>3928.6</v>
       </c>
       <c r="D2369" t="s">
         <v>2371</v>
@@ -42207,7 +42495,7 @@
         <v>65</v>
       </c>
       <c r="C2370">
-        <v>4348.7</v>
+        <v>3880.2</v>
       </c>
       <c r="D2370" t="s">
         <v>2372</v>
@@ -42221,7 +42509,7 @@
         <v>66</v>
       </c>
       <c r="C2371">
-        <v>4388.7</v>
+        <v>3890.2</v>
       </c>
       <c r="D2371" t="s">
         <v>2373</v>
@@ -42235,7 +42523,7 @@
         <v>67</v>
       </c>
       <c r="C2372">
-        <v>4448.7</v>
+        <v>3910.2</v>
       </c>
       <c r="D2372" t="s">
         <v>2374</v>
@@ -42249,7 +42537,7 @@
         <v>68</v>
       </c>
       <c r="C2373">
-        <v>4518.7</v>
+        <v>3940.2</v>
       </c>
       <c r="D2373" t="s">
         <v>2375</v>
@@ -42263,7 +42551,7 @@
         <v>69</v>
       </c>
       <c r="C2374">
-        <v>4258.9</v>
+        <v>3891.1</v>
       </c>
       <c r="D2374" t="s">
         <v>2376</v>
@@ -42277,7 +42565,7 @@
         <v>70</v>
       </c>
       <c r="C2375">
-        <v>4348.9</v>
+        <v>3931.1</v>
       </c>
       <c r="D2375" t="s">
         <v>2377</v>
@@ -42291,7 +42579,7 @@
         <v>71</v>
       </c>
       <c r="C2376">
-        <v>4428.9</v>
+        <v>3971.1</v>
       </c>
       <c r="D2376" t="s">
         <v>2378</v>
@@ -42305,7 +42593,7 @@
         <v>72</v>
       </c>
       <c r="C2377">
-        <v>4508.9</v>
+        <v>4021.1</v>
       </c>
       <c r="D2377" t="s">
         <v>2379</v>
@@ -42319,7 +42607,7 @@
         <v>73</v>
       </c>
       <c r="C2378">
-        <v>4500.2</v>
+        <v>3877.6</v>
       </c>
       <c r="D2378" t="s">
         <v>2380</v>
@@ -42333,7 +42621,7 @@
         <v>74</v>
       </c>
       <c r="C2379">
-        <v>4580.2</v>
+        <v>3937.6</v>
       </c>
       <c r="D2379" t="s">
         <v>2381</v>
@@ -42347,7 +42635,7 @@
         <v>75</v>
       </c>
       <c r="C2380">
-        <v>4680.2</v>
+        <v>4017.6</v>
       </c>
       <c r="D2380" t="s">
         <v>2382</v>
@@ -42361,7 +42649,7 @@
         <v>76</v>
       </c>
       <c r="C2381">
-        <v>4790.2</v>
+        <v>4117.6</v>
       </c>
       <c r="D2381" t="s">
         <v>2383</v>
@@ -42375,7 +42663,7 @@
         <v>77</v>
       </c>
       <c r="C2382">
-        <v>4548.2</v>
+        <v>4049</v>
       </c>
       <c r="D2382" t="s">
         <v>2384</v>
@@ -42389,7 +42677,7 @@
         <v>78</v>
       </c>
       <c r="C2383">
-        <v>4688.2</v>
+        <v>4169</v>
       </c>
       <c r="D2383" t="s">
         <v>2385</v>
@@ -42403,7 +42691,7 @@
         <v>79</v>
       </c>
       <c r="C2384">
-        <v>4808.2</v>
+        <v>4279</v>
       </c>
       <c r="D2384" t="s">
         <v>2386</v>
@@ -42417,7 +42705,7 @@
         <v>80</v>
       </c>
       <c r="C2385">
-        <v>4898.2</v>
+        <v>4379</v>
       </c>
       <c r="D2385" t="s">
         <v>2387</v>
@@ -42431,7 +42719,7 @@
         <v>81</v>
       </c>
       <c r="C2386">
-        <v>4913.9</v>
+        <v>4634.2</v>
       </c>
       <c r="D2386" t="s">
         <v>2388</v>
@@ -42445,7 +42733,7 @@
         <v>82</v>
       </c>
       <c r="C2387">
-        <v>5013.9</v>
+        <v>4734.2</v>
       </c>
       <c r="D2387" t="s">
         <v>2389</v>
@@ -42459,7 +42747,7 @@
         <v>83</v>
       </c>
       <c r="C2388">
-        <v>5093.9</v>
+        <v>4814.2</v>
       </c>
       <c r="D2388" t="s">
         <v>2390</v>
@@ -42473,7 +42761,7 @@
         <v>84</v>
       </c>
       <c r="C2389">
-        <v>5203.9</v>
+        <v>4914.2</v>
       </c>
       <c r="D2389" t="s">
         <v>2391</v>
@@ -42487,7 +42775,7 @@
         <v>85</v>
       </c>
       <c r="C2390">
-        <v>5417.9</v>
+        <v>4847.4</v>
       </c>
       <c r="D2390" t="s">
         <v>2392</v>
@@ -42501,7 +42789,7 @@
         <v>86</v>
       </c>
       <c r="C2391">
-        <v>5427.9</v>
+        <v>4847.4</v>
       </c>
       <c r="D2391" t="s">
         <v>2393</v>
@@ -42515,7 +42803,7 @@
         <v>87</v>
       </c>
       <c r="C2392">
-        <v>5437.9</v>
+        <v>4857.4</v>
       </c>
       <c r="D2392" t="s">
         <v>2394</v>
@@ -42529,7 +42817,7 @@
         <v>88</v>
       </c>
       <c r="C2393">
-        <v>5377.9</v>
+        <v>4797.4</v>
       </c>
       <c r="D2393" t="s">
         <v>2395</v>
@@ -42543,7 +42831,7 @@
         <v>89</v>
       </c>
       <c r="C2394">
-        <v>5824.8</v>
+        <v>4904.7</v>
       </c>
       <c r="D2394" t="s">
         <v>2396</v>
@@ -42557,7 +42845,7 @@
         <v>90</v>
       </c>
       <c r="C2395">
-        <v>5744.8</v>
+        <v>4784.7</v>
       </c>
       <c r="D2395" t="s">
         <v>2397</v>
@@ -42571,7 +42859,7 @@
         <v>91</v>
       </c>
       <c r="C2396">
-        <v>5624.8</v>
+        <v>4664.7</v>
       </c>
       <c r="D2396" t="s">
         <v>2398</v>
@@ -42585,7 +42873,7 @@
         <v>92</v>
       </c>
       <c r="C2397">
-        <v>5484.8</v>
+        <v>4524.7</v>
       </c>
       <c r="D2397" t="s">
         <v>2399</v>
@@ -42599,7 +42887,7 @@
         <v>93</v>
       </c>
       <c r="C2398">
-        <v>5615.9</v>
+        <v>4773.4</v>
       </c>
       <c r="D2398" t="s">
         <v>2400</v>
@@ -42613,7 +42901,7 @@
         <v>94</v>
       </c>
       <c r="C2399">
-        <v>5495.9</v>
+        <v>4653.4</v>
       </c>
       <c r="D2399" t="s">
         <v>2401</v>
@@ -42627,7 +42915,7 @@
         <v>95</v>
       </c>
       <c r="C2400">
-        <v>5385.9</v>
+        <v>4543.4</v>
       </c>
       <c r="D2400" t="s">
         <v>2402</v>
@@ -42641,7 +42929,7 @@
         <v>96</v>
       </c>
       <c r="C2401">
-        <v>5285.9</v>
+        <v>4433.4</v>
       </c>
       <c r="D2401" t="s">
         <v>2403</v>
@@ -42655,7 +42943,7 @@
         <v>1</v>
       </c>
       <c r="C2402">
-        <v>4790</v>
+        <v>4313.7</v>
       </c>
       <c r="D2402" t="s">
         <v>2404</v>
@@ -42669,7 +42957,7 @@
         <v>2</v>
       </c>
       <c r="C2403">
-        <v>4750</v>
+        <v>4253.7</v>
       </c>
       <c r="D2403" t="s">
         <v>2405</v>
@@ -42683,7 +42971,7 @@
         <v>3</v>
       </c>
       <c r="C2404">
-        <v>4680</v>
+        <v>4193.7</v>
       </c>
       <c r="D2404" t="s">
         <v>2406</v>
@@ -42697,7 +42985,7 @@
         <v>4</v>
       </c>
       <c r="C2405">
-        <v>4620</v>
+        <v>4143.7</v>
       </c>
       <c r="D2405" t="s">
         <v>2407</v>
@@ -42711,7 +42999,7 @@
         <v>5</v>
       </c>
       <c r="C2406">
-        <v>4364.9</v>
+        <v>3826.3</v>
       </c>
       <c r="D2406" t="s">
         <v>2408</v>
@@ -42725,7 +43013,7 @@
         <v>6</v>
       </c>
       <c r="C2407">
-        <v>4324.9</v>
+        <v>3776.3</v>
       </c>
       <c r="D2407" t="s">
         <v>2409</v>
@@ -42739,7 +43027,7 @@
         <v>7</v>
       </c>
       <c r="C2408">
-        <v>4284.9</v>
+        <v>3756.3</v>
       </c>
       <c r="D2408" t="s">
         <v>2410</v>
@@ -42753,7 +43041,7 @@
         <v>8</v>
       </c>
       <c r="C2409">
-        <v>4244.9</v>
+        <v>3716.3</v>
       </c>
       <c r="D2409" t="s">
         <v>2411</v>
@@ -42767,7 +43055,7 @@
         <v>9</v>
       </c>
       <c r="C2410">
-        <v>4127.5</v>
+        <v>3430.2</v>
       </c>
       <c r="D2410" t="s">
         <v>2412</v>
@@ -42781,7 +43069,7 @@
         <v>10</v>
       </c>
       <c r="C2411">
-        <v>4097.5</v>
+        <v>3400.2</v>
       </c>
       <c r="D2411" t="s">
         <v>2413</v>
@@ -42795,7 +43083,7 @@
         <v>11</v>
       </c>
       <c r="C2412">
-        <v>4077.5</v>
+        <v>3390.2</v>
       </c>
       <c r="D2412" t="s">
         <v>2414</v>
@@ -42809,7 +43097,7 @@
         <v>12</v>
       </c>
       <c r="C2413">
-        <v>4057.5</v>
+        <v>3380.2</v>
       </c>
       <c r="D2413" t="s">
         <v>2415</v>
@@ -42823,7 +43111,7 @@
         <v>13</v>
       </c>
       <c r="C2414">
-        <v>4044.5</v>
+        <v>3435.3</v>
       </c>
       <c r="D2414" t="s">
         <v>2416</v>
@@ -42837,7 +43125,7 @@
         <v>14</v>
       </c>
       <c r="C2415">
-        <v>4044.5</v>
+        <v>3435.3</v>
       </c>
       <c r="D2415" t="s">
         <v>2417</v>
@@ -42851,7 +43139,7 @@
         <v>15</v>
       </c>
       <c r="C2416">
-        <v>4054.5</v>
+        <v>3435.3</v>
       </c>
       <c r="D2416" t="s">
         <v>2418</v>
@@ -42865,7 +43153,7 @@
         <v>16</v>
       </c>
       <c r="C2417">
-        <v>4074.5</v>
+        <v>3435.3</v>
       </c>
       <c r="D2417" t="s">
         <v>2419</v>
@@ -42879,7 +43167,7 @@
         <v>17</v>
       </c>
       <c r="C2418">
-        <v>4118.7</v>
+        <v>3289.9</v>
       </c>
       <c r="D2418" t="s">
         <v>2420</v>
@@ -42893,7 +43181,7 @@
         <v>18</v>
       </c>
       <c r="C2419">
-        <v>4128.7</v>
+        <v>3299.9</v>
       </c>
       <c r="D2419" t="s">
         <v>2421</v>
@@ -42907,7 +43195,7 @@
         <v>19</v>
       </c>
       <c r="C2420">
-        <v>4148.7</v>
+        <v>3309.9</v>
       </c>
       <c r="D2420" t="s">
         <v>2422</v>
@@ -42921,7 +43209,7 @@
         <v>20</v>
       </c>
       <c r="C2421">
-        <v>4178.7</v>
+        <v>3339.9</v>
       </c>
       <c r="D2421" t="s">
         <v>2423</v>
@@ -42935,7 +43223,7 @@
         <v>21</v>
       </c>
       <c r="C2422">
-        <v>4173.6</v>
+        <v>3415.3</v>
       </c>
       <c r="D2422" t="s">
         <v>2424</v>
@@ -42949,7 +43237,7 @@
         <v>22</v>
       </c>
       <c r="C2423">
-        <v>4243.6</v>
+        <v>3475.3</v>
       </c>
       <c r="D2423" t="s">
         <v>2425</v>
@@ -42963,7 +43251,7 @@
         <v>23</v>
       </c>
       <c r="C2424">
-        <v>4333.6</v>
+        <v>3565.3</v>
       </c>
       <c r="D2424" t="s">
         <v>2426</v>
@@ -42977,7 +43265,7 @@
         <v>24</v>
       </c>
       <c r="C2425">
-        <v>4443.6</v>
+        <v>3675.3</v>
       </c>
       <c r="D2425" t="s">
         <v>2427</v>
@@ -42991,7 +43279,7 @@
         <v>25</v>
       </c>
       <c r="C2426">
-        <v>4478.7</v>
+        <v>3817</v>
       </c>
       <c r="D2426" t="s">
         <v>2428</v>
@@ -43005,7 +43293,7 @@
         <v>26</v>
       </c>
       <c r="C2427">
-        <v>4618.7</v>
+        <v>3957</v>
       </c>
       <c r="D2427" t="s">
         <v>2429</v>
@@ -43019,7 +43307,7 @@
         <v>27</v>
       </c>
       <c r="C2428">
-        <v>4768.7</v>
+        <v>4107</v>
       </c>
       <c r="D2428" t="s">
         <v>2430</v>
@@ -43033,7 +43321,7 @@
         <v>28</v>
       </c>
       <c r="C2429">
-        <v>4908.7</v>
+        <v>4257</v>
       </c>
       <c r="D2429" t="s">
         <v>2431</v>
@@ -43047,7 +43335,7 @@
         <v>29</v>
       </c>
       <c r="C2430">
-        <v>4779.8</v>
+        <v>4426.4</v>
       </c>
       <c r="D2430" t="s">
         <v>2432</v>
@@ -43061,7 +43349,7 @@
         <v>30</v>
       </c>
       <c r="C2431">
-        <v>4909.8</v>
+        <v>4566.4</v>
       </c>
       <c r="D2431" t="s">
         <v>2433</v>
@@ -43075,7 +43363,7 @@
         <v>31</v>
       </c>
       <c r="C2432">
-        <v>5029.8</v>
+        <v>4686.4</v>
       </c>
       <c r="D2432" t="s">
         <v>2434</v>
@@ -43089,7 +43377,7 @@
         <v>32</v>
       </c>
       <c r="C2433">
-        <v>5129.8</v>
+        <v>4786.4</v>
       </c>
       <c r="D2433" t="s">
         <v>2435</v>
@@ -43103,7 +43391,7 @@
         <v>33</v>
       </c>
       <c r="C2434">
-        <v>5447.2</v>
+        <v>4752.1</v>
       </c>
       <c r="D2434" t="s">
         <v>2436</v>
@@ -43117,7 +43405,7 @@
         <v>34</v>
       </c>
       <c r="C2435">
-        <v>5497.2</v>
+        <v>4812.1</v>
       </c>
       <c r="D2435" t="s">
         <v>2437</v>
@@ -43131,7 +43419,7 @@
         <v>35</v>
       </c>
       <c r="C2436">
-        <v>5507.2</v>
+        <v>4842.1</v>
       </c>
       <c r="D2436" t="s">
         <v>2438</v>
@@ -43145,7 +43433,7 @@
         <v>36</v>
       </c>
       <c r="C2437">
-        <v>5507.2</v>
+        <v>4872.1</v>
       </c>
       <c r="D2437" t="s">
         <v>2439</v>
@@ -43159,7 +43447,7 @@
         <v>37</v>
       </c>
       <c r="C2438">
-        <v>5824.6</v>
+        <v>4938.1</v>
       </c>
       <c r="D2438" t="s">
         <v>2440</v>
@@ -43173,7 +43461,7 @@
         <v>38</v>
       </c>
       <c r="C2439">
-        <v>5774.6</v>
+        <v>4908.1</v>
       </c>
       <c r="D2439" t="s">
         <v>2441</v>
@@ -43187,7 +43475,7 @@
         <v>39</v>
       </c>
       <c r="C2440">
-        <v>5714.6</v>
+        <v>4878.1</v>
       </c>
       <c r="D2440" t="s">
         <v>2442</v>
@@ -43201,7 +43489,7 @@
         <v>40</v>
       </c>
       <c r="C2441">
-        <v>5634.6</v>
+        <v>4848.1</v>
       </c>
       <c r="D2441" t="s">
         <v>2443</v>
@@ -43215,7 +43503,7 @@
         <v>41</v>
       </c>
       <c r="C2442">
-        <v>5525.2</v>
+        <v>4955.4</v>
       </c>
       <c r="D2442" t="s">
         <v>2444</v>
@@ -43229,7 +43517,7 @@
         <v>42</v>
       </c>
       <c r="C2443">
-        <v>5445.2</v>
+        <v>4935.4</v>
       </c>
       <c r="D2443" t="s">
         <v>2445</v>
@@ -43243,7 +43531,7 @@
         <v>43</v>
       </c>
       <c r="C2444">
-        <v>5375.2</v>
+        <v>4905.4</v>
       </c>
       <c r="D2444" t="s">
         <v>2446</v>
@@ -43257,7 +43545,7 @@
         <v>44</v>
       </c>
       <c r="C2445">
-        <v>5305.2</v>
+        <v>4865.4</v>
       </c>
       <c r="D2445" t="s">
         <v>2447</v>
@@ -43271,7 +43559,7 @@
         <v>45</v>
       </c>
       <c r="C2446">
-        <v>5430.3</v>
+        <v>4714.1</v>
       </c>
       <c r="D2446" t="s">
         <v>2448</v>
@@ -43285,7 +43573,7 @@
         <v>46</v>
       </c>
       <c r="C2447">
-        <v>5380.3</v>
+        <v>4684.1</v>
       </c>
       <c r="D2447" t="s">
         <v>2449</v>
@@ -43299,7 +43587,7 @@
         <v>47</v>
       </c>
       <c r="C2448">
-        <v>5330.3</v>
+        <v>4664.1</v>
       </c>
       <c r="D2448" t="s">
         <v>2450</v>
@@ -43313,7 +43601,7 @@
         <v>48</v>
       </c>
       <c r="C2449">
-        <v>5290.3</v>
+        <v>4644.1</v>
       </c>
       <c r="D2449" t="s">
         <v>2451</v>
@@ -43327,7 +43615,7 @@
         <v>49</v>
       </c>
       <c r="C2450">
-        <v>5394.4</v>
+        <v>4637.2</v>
       </c>
       <c r="D2450" t="s">
         <v>2452</v>
@@ -43341,7 +43629,7 @@
         <v>50</v>
       </c>
       <c r="C2451">
-        <v>5354.4</v>
+        <v>4607.2</v>
       </c>
       <c r="D2451" t="s">
         <v>2453</v>
@@ -43355,7 +43643,7 @@
         <v>51</v>
       </c>
       <c r="C2452">
-        <v>5304.4</v>
+        <v>4587.2</v>
       </c>
       <c r="D2452" t="s">
         <v>2454</v>
@@ -43369,7 +43657,7 @@
         <v>52</v>
       </c>
       <c r="C2453">
-        <v>5264.4</v>
+        <v>4567.2</v>
       </c>
       <c r="D2453" t="s">
         <v>2455</v>
@@ -43383,7 +43671,7 @@
         <v>53</v>
       </c>
       <c r="C2454">
-        <v>5176.9</v>
+        <v>4418.5</v>
       </c>
       <c r="D2454" t="s">
         <v>2456</v>
@@ -43397,7 +43685,7 @@
         <v>54</v>
       </c>
       <c r="C2455">
-        <v>5146.9</v>
+        <v>4398.5</v>
       </c>
       <c r="D2455" t="s">
         <v>2457</v>
@@ -43411,7 +43699,7 @@
         <v>55</v>
       </c>
       <c r="C2456">
-        <v>5126.9</v>
+        <v>4388.5</v>
       </c>
       <c r="D2456" t="s">
         <v>2458</v>
@@ -43425,7 +43713,7 @@
         <v>56</v>
       </c>
       <c r="C2457">
-        <v>5116.9</v>
+        <v>4378.5</v>
       </c>
       <c r="D2457" t="s">
         <v>2459</v>
@@ -43439,7 +43727,7 @@
         <v>57</v>
       </c>
       <c r="C2458">
-        <v>5085.8</v>
+        <v>4472</v>
       </c>
       <c r="D2458" t="s">
         <v>2460</v>
@@ -43453,7 +43741,7 @@
         <v>58</v>
       </c>
       <c r="C2459">
-        <v>5095.8</v>
+        <v>4472</v>
       </c>
       <c r="D2459" t="s">
         <v>2461</v>
@@ -43467,7 +43755,7 @@
         <v>59</v>
       </c>
       <c r="C2460">
-        <v>5105.8</v>
+        <v>4472</v>
       </c>
       <c r="D2460" t="s">
         <v>2462</v>
@@ -43481,7 +43769,7 @@
         <v>60</v>
       </c>
       <c r="C2461">
-        <v>5115.8</v>
+        <v>4482</v>
       </c>
       <c r="D2461" t="s">
         <v>2463</v>
@@ -43495,7 +43783,7 @@
         <v>61</v>
       </c>
       <c r="C2462">
-        <v>5107.6</v>
+        <v>4575.2</v>
       </c>
       <c r="D2462" t="s">
         <v>2464</v>
@@ -43509,7 +43797,7 @@
         <v>62</v>
       </c>
       <c r="C2463">
-        <v>5117.6</v>
+        <v>4575.2</v>
       </c>
       <c r="D2463" t="s">
         <v>2465</v>
@@ -43523,7 +43811,7 @@
         <v>63</v>
       </c>
       <c r="C2464">
-        <v>5127.6</v>
+        <v>4575.2</v>
       </c>
       <c r="D2464" t="s">
         <v>2466</v>
@@ -43537,7 +43825,7 @@
         <v>64</v>
       </c>
       <c r="C2465">
-        <v>5147.6</v>
+        <v>4585.2</v>
       </c>
       <c r="D2465" t="s">
         <v>2467</v>
@@ -43551,7 +43839,7 @@
         <v>65</v>
       </c>
       <c r="C2466">
-        <v>5328.7</v>
+        <v>4496.6</v>
       </c>
       <c r="D2466" t="s">
         <v>2468</v>
@@ -43565,7 +43853,7 @@
         <v>66</v>
       </c>
       <c r="C2467">
-        <v>5368.7</v>
+        <v>4526.6</v>
       </c>
       <c r="D2467" t="s">
         <v>2469</v>
@@ -43579,7 +43867,7 @@
         <v>67</v>
       </c>
       <c r="C2468">
-        <v>5438.7</v>
+        <v>4546.6</v>
       </c>
       <c r="D2468" t="s">
         <v>2470</v>
@@ -43593,7 +43881,7 @@
         <v>68</v>
       </c>
       <c r="C2469">
-        <v>5518.7</v>
+        <v>4576.6</v>
       </c>
       <c r="D2469" t="s">
         <v>2471</v>
@@ -43607,7 +43895,7 @@
         <v>69</v>
       </c>
       <c r="C2470">
-        <v>5268.9</v>
+        <v>4736.8</v>
       </c>
       <c r="D2470" t="s">
         <v>2472</v>
@@ -43621,7 +43909,7 @@
         <v>70</v>
       </c>
       <c r="C2471">
-        <v>5358.9</v>
+        <v>4766.8</v>
       </c>
       <c r="D2471" t="s">
         <v>2473</v>
@@ -43635,7 +43923,7 @@
         <v>71</v>
       </c>
       <c r="C2472">
-        <v>5448.9</v>
+        <v>4816.8</v>
       </c>
       <c r="D2472" t="s">
         <v>2474</v>
@@ -43649,7 +43937,7 @@
         <v>72</v>
       </c>
       <c r="C2473">
-        <v>5538.9</v>
+        <v>4866.8</v>
       </c>
       <c r="D2473" t="s">
         <v>2475</v>
@@ -43663,7 +43951,7 @@
         <v>73</v>
       </c>
       <c r="C2474">
-        <v>5560.2</v>
+        <v>5047.3</v>
       </c>
       <c r="D2474" t="s">
         <v>2476</v>
@@ -43677,7 +43965,7 @@
         <v>74</v>
       </c>
       <c r="C2475">
-        <v>5660.2</v>
+        <v>5107.3</v>
       </c>
       <c r="D2475" t="s">
         <v>2477</v>
@@ -43691,7 +43979,7 @@
         <v>75</v>
       </c>
       <c r="C2476">
-        <v>5770.2</v>
+        <v>5187.3</v>
       </c>
       <c r="D2476" t="s">
         <v>2478</v>
@@ -43705,7 +43993,7 @@
         <v>76</v>
       </c>
       <c r="C2477">
-        <v>5900.2</v>
+        <v>5277.3</v>
       </c>
       <c r="D2477" t="s">
         <v>2479</v>
@@ -43719,7 +44007,7 @@
         <v>77</v>
       </c>
       <c r="C2478">
-        <v>5668.2</v>
+        <v>5538.7</v>
       </c>
       <c r="D2478" t="s">
         <v>2480</v>
@@ -43733,7 +44021,7 @@
         <v>78</v>
       </c>
       <c r="C2479">
-        <v>5798.2</v>
+        <v>5638.7</v>
       </c>
       <c r="D2479" t="s">
         <v>2481</v>
@@ -43747,7 +44035,7 @@
         <v>79</v>
       </c>
       <c r="C2480">
-        <v>5908.2</v>
+        <v>5728.7</v>
       </c>
       <c r="D2480" t="s">
         <v>2482</v>
@@ -43761,7 +44049,7 @@
         <v>80</v>
       </c>
       <c r="C2481">
-        <v>5978.2</v>
+        <v>5808.7</v>
       </c>
       <c r="D2481" t="s">
         <v>2483</v>
@@ -43775,7 +44063,7 @@
         <v>81</v>
       </c>
       <c r="C2482">
-        <v>5973.9</v>
+        <v>6035</v>
       </c>
       <c r="D2482" t="s">
         <v>2484</v>
@@ -43789,7 +44077,7 @@
         <v>82</v>
       </c>
       <c r="C2483">
-        <v>6053.9</v>
+        <v>6125</v>
       </c>
       <c r="D2483" t="s">
         <v>2485</v>
@@ -43803,7 +44091,7 @@
         <v>83</v>
       </c>
       <c r="C2484">
-        <v>6133.9</v>
+        <v>6205</v>
       </c>
       <c r="D2484" t="s">
         <v>2486</v>
@@ -43817,7 +44105,7 @@
         <v>84</v>
       </c>
       <c r="C2485">
-        <v>6243.9</v>
+        <v>6315</v>
       </c>
       <c r="D2485" t="s">
         <v>2487</v>
@@ -43831,7 +44119,7 @@
         <v>85</v>
       </c>
       <c r="C2486">
-        <v>6437.9</v>
+        <v>6702.5</v>
       </c>
       <c r="D2486" t="s">
         <v>2488</v>
@@ -43845,7 +44133,7 @@
         <v>86</v>
       </c>
       <c r="C2487">
-        <v>6437.9</v>
+        <v>6702.5</v>
       </c>
       <c r="D2487" t="s">
         <v>2489</v>
@@ -43859,7 +44147,7 @@
         <v>87</v>
       </c>
       <c r="C2488">
-        <v>6427.9</v>
+        <v>6672.5</v>
       </c>
       <c r="D2488" t="s">
         <v>2490</v>
@@ -43873,7 +44161,7 @@
         <v>88</v>
       </c>
       <c r="C2489">
-        <v>6297.9</v>
+        <v>6542.5</v>
       </c>
       <c r="D2489" t="s">
         <v>2491</v>
@@ -43887,7 +44175,7 @@
         <v>89</v>
       </c>
       <c r="C2490">
-        <v>6704.8</v>
+        <v>6725.9</v>
       </c>
       <c r="D2490" t="s">
         <v>2492</v>
@@ -43901,7 +44189,7 @@
         <v>90</v>
       </c>
       <c r="C2491">
-        <v>6574.8</v>
+        <v>6535.9</v>
       </c>
       <c r="D2491" t="s">
         <v>2493</v>
@@ -43915,7 +44203,7 @@
         <v>91</v>
       </c>
       <c r="C2492">
-        <v>6444.8</v>
+        <v>6395.9</v>
       </c>
       <c r="D2492" t="s">
         <v>2494</v>
@@ -43929,7 +44217,7 @@
         <v>92</v>
       </c>
       <c r="C2493">
-        <v>6264.8</v>
+        <v>6225.9</v>
       </c>
       <c r="D2493" t="s">
         <v>2495</v>
@@ -43943,7 +44231,7 @@
         <v>93</v>
       </c>
       <c r="C2494">
-        <v>6295.9</v>
+        <v>6264.7</v>
       </c>
       <c r="D2494" t="s">
         <v>2496</v>
@@ -43957,7 +44245,7 @@
         <v>94</v>
       </c>
       <c r="C2495">
-        <v>6105.9</v>
+        <v>6104.7</v>
       </c>
       <c r="D2495" t="s">
         <v>2497</v>
@@ -43971,7 +44259,7 @@
         <v>95</v>
       </c>
       <c r="C2496">
-        <v>6025.9</v>
+        <v>5974.7</v>
       </c>
       <c r="D2496" t="s">
         <v>2498</v>
@@ -43985,7 +44273,7 @@
         <v>96</v>
       </c>
       <c r="C2497">
-        <v>5915.9</v>
+        <v>5864.7</v>
       </c>
       <c r="D2497" t="s">
         <v>2499</v>
@@ -43999,7 +44287,7 @@
         <v>1</v>
       </c>
       <c r="C2498">
-        <v>5340</v>
+        <v>6240.9</v>
       </c>
       <c r="D2498" t="s">
         <v>2500</v>
@@ -44013,7 +44301,7 @@
         <v>2</v>
       </c>
       <c r="C2499">
-        <v>5300</v>
+        <v>6180.9</v>
       </c>
       <c r="D2499" t="s">
         <v>2501</v>
@@ -44027,7 +44315,7 @@
         <v>3</v>
       </c>
       <c r="C2500">
-        <v>5230</v>
+        <v>6120.9</v>
       </c>
       <c r="D2500" t="s">
         <v>2502</v>
@@ -44041,7 +44329,7 @@
         <v>4</v>
       </c>
       <c r="C2501">
-        <v>5170</v>
+        <v>6050.9</v>
       </c>
       <c r="D2501" t="s">
         <v>2503</v>
@@ -44055,7 +44343,7 @@
         <v>5</v>
       </c>
       <c r="C2502">
-        <v>4914.9</v>
+        <v>5075</v>
       </c>
       <c r="D2502" t="s">
         <v>2504</v>
@@ -44069,7 +44357,7 @@
         <v>6</v>
       </c>
       <c r="C2503">
-        <v>4874.9</v>
+        <v>5025</v>
       </c>
       <c r="D2503" t="s">
         <v>2505</v>
@@ -44083,7 +44371,7 @@
         <v>7</v>
       </c>
       <c r="C2504">
-        <v>4834.9</v>
+        <v>4985</v>
       </c>
       <c r="D2504" t="s">
         <v>2506</v>
@@ -44097,7 +44385,7 @@
         <v>8</v>
       </c>
       <c r="C2505">
-        <v>4784.9</v>
+        <v>4945</v>
       </c>
       <c r="D2505" t="s">
         <v>2507</v>
@@ -44111,7 +44399,7 @@
         <v>9</v>
       </c>
       <c r="C2506">
-        <v>4657.5</v>
+        <v>4883</v>
       </c>
       <c r="D2506" t="s">
         <v>2508</v>
@@ -44125,7 +44413,7 @@
         <v>10</v>
       </c>
       <c r="C2507">
-        <v>4617.5</v>
+        <v>4853</v>
       </c>
       <c r="D2507" t="s">
         <v>2509</v>
@@ -44139,7 +44427,7 @@
         <v>11</v>
       </c>
       <c r="C2508">
-        <v>4587.5</v>
+        <v>4843</v>
       </c>
       <c r="D2508" t="s">
         <v>2510</v>
@@ -44153,7 +44441,7 @@
         <v>12</v>
       </c>
       <c r="C2509">
-        <v>4557.5</v>
+        <v>4833</v>
       </c>
       <c r="D2509" t="s">
         <v>2511</v>
@@ -44167,7 +44455,7 @@
         <v>13</v>
       </c>
       <c r="C2510">
-        <v>4544.5</v>
+        <v>4838</v>
       </c>
       <c r="D2510" t="s">
         <v>2512</v>
@@ -44181,7 +44469,7 @@
         <v>14</v>
       </c>
       <c r="C2511">
-        <v>4544.5</v>
+        <v>4848</v>
       </c>
       <c r="D2511" t="s">
         <v>2513</v>
@@ -44195,7 +44483,7 @@
         <v>15</v>
       </c>
       <c r="C2512">
-        <v>4554.5</v>
+        <v>4848</v>
       </c>
       <c r="D2512" t="s">
         <v>2514</v>
@@ -44209,7 +44497,7 @@
         <v>16</v>
       </c>
       <c r="C2513">
-        <v>4554.5</v>
+        <v>4858</v>
       </c>
       <c r="D2513" t="s">
         <v>2515</v>
@@ -44223,7 +44511,7 @@
         <v>17</v>
       </c>
       <c r="C2514">
-        <v>4598.7</v>
+        <v>4847</v>
       </c>
       <c r="D2514" t="s">
         <v>2516</v>
@@ -44237,7 +44525,7 @@
         <v>18</v>
       </c>
       <c r="C2515">
-        <v>4618.7</v>
+        <v>4847</v>
       </c>
       <c r="D2515" t="s">
         <v>2517</v>
@@ -44251,7 +44539,7 @@
         <v>19</v>
       </c>
       <c r="C2516">
-        <v>4638.7</v>
+        <v>4857</v>
       </c>
       <c r="D2516" t="s">
         <v>2518</v>
@@ -44265,7 +44553,7 @@
         <v>20</v>
       </c>
       <c r="C2517">
-        <v>4658.7</v>
+        <v>4867</v>
       </c>
       <c r="D2517" t="s">
         <v>2519</v>
@@ -44279,7 +44567,7 @@
         <v>21</v>
       </c>
       <c r="C2518">
-        <v>4653.6</v>
+        <v>4927</v>
       </c>
       <c r="D2518" t="s">
         <v>2520</v>
@@ -44293,7 +44581,7 @@
         <v>22</v>
       </c>
       <c r="C2519">
-        <v>4703.6</v>
+        <v>4967</v>
       </c>
       <c r="D2519" t="s">
         <v>2521</v>
@@ -44307,7 +44595,7 @@
         <v>23</v>
       </c>
       <c r="C2520">
-        <v>4773.6</v>
+        <v>5017</v>
       </c>
       <c r="D2520" t="s">
         <v>2522</v>
@@ -44321,7 +44609,7 @@
         <v>24</v>
       </c>
       <c r="C2521">
-        <v>4853.6</v>
+        <v>5097</v>
       </c>
       <c r="D2521" t="s">
         <v>2523</v>
@@ -44335,7 +44623,7 @@
         <v>25</v>
       </c>
       <c r="C2522">
-        <v>4858.7</v>
+        <v>5347</v>
       </c>
       <c r="D2522" t="s">
         <v>2524</v>
@@ -44349,7 +44637,7 @@
         <v>26</v>
       </c>
       <c r="C2523">
-        <v>4958.7</v>
+        <v>5447</v>
       </c>
       <c r="D2523" t="s">
         <v>2525</v>
@@ -44363,7 +44651,7 @@
         <v>27</v>
       </c>
       <c r="C2524">
-        <v>5058.7</v>
+        <v>5557</v>
       </c>
       <c r="D2524" t="s">
         <v>2526</v>
@@ -44377,7 +44665,7 @@
         <v>28</v>
       </c>
       <c r="C2525">
-        <v>5158.7</v>
+        <v>5677</v>
       </c>
       <c r="D2525" t="s">
         <v>2527</v>
@@ -44391,7 +44679,7 @@
         <v>29</v>
       </c>
       <c r="C2526">
-        <v>4979.8</v>
+        <v>5756</v>
       </c>
       <c r="D2526" t="s">
         <v>2528</v>
@@ -44405,7 +44693,7 @@
         <v>30</v>
       </c>
       <c r="C2527">
-        <v>5069.8</v>
+        <v>5866</v>
       </c>
       <c r="D2527" t="s">
         <v>2529</v>
@@ -44419,7 +44707,7 @@
         <v>31</v>
       </c>
       <c r="C2528">
-        <v>5139.8</v>
+        <v>5976</v>
       </c>
       <c r="D2528" t="s">
         <v>2530</v>
@@ -44433,7 +44721,7 @@
         <v>32</v>
       </c>
       <c r="C2529">
-        <v>5199.8</v>
+        <v>6066</v>
       </c>
       <c r="D2529" t="s">
         <v>2531</v>
@@ -44447,7 +44735,7 @@
         <v>33</v>
       </c>
       <c r="C2530">
-        <v>5487.2</v>
+        <v>6229</v>
       </c>
       <c r="D2530" t="s">
         <v>2532</v>
@@ -44461,7 +44749,7 @@
         <v>34</v>
       </c>
       <c r="C2531">
-        <v>5507.2</v>
+        <v>6289</v>
       </c>
       <c r="D2531" t="s">
         <v>2533</v>
@@ -44475,7 +44763,7 @@
         <v>35</v>
       </c>
       <c r="C2532">
-        <v>5507.2</v>
+        <v>6329</v>
       </c>
       <c r="D2532" t="s">
         <v>2534</v>
@@ -44489,7 +44777,7 @@
         <v>36</v>
       </c>
       <c r="C2533">
-        <v>5497.2</v>
+        <v>6349</v>
       </c>
       <c r="D2533" t="s">
         <v>2535</v>
@@ -44503,7 +44791,7 @@
         <v>37</v>
       </c>
       <c r="C2534">
-        <v>5794.6</v>
+        <v>6305</v>
       </c>
       <c r="D2534" t="s">
         <v>2536</v>
@@ -44517,7 +44805,7 @@
         <v>38</v>
       </c>
       <c r="C2535">
-        <v>5744.6</v>
+        <v>6285</v>
       </c>
       <c r="D2535" t="s">
         <v>2537</v>
@@ -44531,7 +44819,7 @@
         <v>39</v>
       </c>
       <c r="C2536">
-        <v>5674.6</v>
+        <v>6245</v>
       </c>
       <c r="D2536" t="s">
         <v>2538</v>
@@ -44545,7 +44833,7 @@
         <v>40</v>
       </c>
       <c r="C2537">
-        <v>5604.6</v>
+        <v>6195</v>
       </c>
       <c r="D2537" t="s">
         <v>2539</v>
@@ -44559,7 +44847,7 @@
         <v>41</v>
       </c>
       <c r="C2538">
-        <v>5485.2</v>
+        <v>6288</v>
       </c>
       <c r="D2538" t="s">
         <v>2540</v>
@@ -44573,7 +44861,7 @@
         <v>42</v>
       </c>
       <c r="C2539">
-        <v>5405.2</v>
+        <v>6218</v>
       </c>
       <c r="D2539" t="s">
         <v>2541</v>
@@ -44587,7 +44875,7 @@
         <v>43</v>
       </c>
       <c r="C2540">
-        <v>5335.2</v>
+        <v>6158</v>
       </c>
       <c r="D2540" t="s">
         <v>2542</v>
@@ -44601,7 +44889,7 @@
         <v>44</v>
       </c>
       <c r="C2541">
-        <v>5255.2</v>
+        <v>6108</v>
       </c>
       <c r="D2541" t="s">
         <v>2543</v>
@@ -44615,7 +44903,7 @@
         <v>45</v>
       </c>
       <c r="C2542">
-        <v>5380.3</v>
+        <v>6203</v>
       </c>
       <c r="D2542" t="s">
         <v>2544</v>
@@ -44629,7 +44917,7 @@
         <v>46</v>
       </c>
       <c r="C2543">
-        <v>5330.3</v>
+        <v>6163</v>
       </c>
       <c r="D2543" t="s">
         <v>2545</v>
@@ -44643,7 +44931,7 @@
         <v>47</v>
       </c>
       <c r="C2544">
-        <v>5280.3</v>
+        <v>6123</v>
       </c>
       <c r="D2544" t="s">
         <v>2546</v>
@@ -44657,7 +44945,7 @@
         <v>48</v>
       </c>
       <c r="C2545">
-        <v>5230.3</v>
+        <v>6093</v>
       </c>
       <c r="D2545" t="s">
         <v>2547</v>
@@ -44671,7 +44959,7 @@
         <v>49</v>
       </c>
       <c r="C2546">
-        <v>5344.4</v>
+        <v>5986</v>
       </c>
       <c r="D2546" t="s">
         <v>2548</v>
@@ -44685,7 +44973,7 @@
         <v>50</v>
       </c>
       <c r="C2547">
-        <v>5304.4</v>
+        <v>5966</v>
       </c>
       <c r="D2547" t="s">
         <v>2549</v>
@@ -44699,7 +44987,7 @@
         <v>51</v>
       </c>
       <c r="C2548">
-        <v>5264.4</v>
+        <v>5956</v>
       </c>
       <c r="D2548" t="s">
         <v>2550</v>
@@ -44713,7 +45001,7 @@
         <v>52</v>
       </c>
       <c r="C2549">
-        <v>5224.4</v>
+        <v>5946</v>
       </c>
       <c r="D2549" t="s">
         <v>2551</v>
@@ -44727,7 +45015,7 @@
         <v>53</v>
       </c>
       <c r="C2550">
-        <v>5136.9</v>
+        <v>5860</v>
       </c>
       <c r="D2550" t="s">
         <v>2552</v>
@@ -44741,7 +45029,7 @@
         <v>54</v>
       </c>
       <c r="C2551">
-        <v>5106.9</v>
+        <v>5850</v>
       </c>
       <c r="D2551" t="s">
         <v>2553</v>
@@ -44755,7 +45043,7 @@
         <v>55</v>
       </c>
       <c r="C2552">
-        <v>5086.9</v>
+        <v>5860</v>
       </c>
       <c r="D2552" t="s">
         <v>2554</v>
@@ -44769,7 +45057,7 @@
         <v>56</v>
       </c>
       <c r="C2553">
-        <v>5066.9</v>
+        <v>5860</v>
       </c>
       <c r="D2553" t="s">
         <v>2555</v>
@@ -44783,7 +45071,7 @@
         <v>57</v>
       </c>
       <c r="C2554">
-        <v>5035.8</v>
+        <v>5923</v>
       </c>
       <c r="D2554" t="s">
         <v>2556</v>
@@ -44797,7 +45085,7 @@
         <v>58</v>
       </c>
       <c r="C2555">
-        <v>5035.8</v>
+        <v>5923</v>
       </c>
       <c r="D2555" t="s">
         <v>2557</v>
@@ -44811,7 +45099,7 @@
         <v>59</v>
       </c>
       <c r="C2556">
-        <v>5045.8</v>
+        <v>5923</v>
       </c>
       <c r="D2556" t="s">
         <v>2558</v>
@@ -44825,7 +45113,7 @@
         <v>60</v>
       </c>
       <c r="C2557">
-        <v>5055.8</v>
+        <v>5923</v>
       </c>
       <c r="D2557" t="s">
         <v>2559</v>
@@ -44839,7 +45127,7 @@
         <v>61</v>
       </c>
       <c r="C2558">
-        <v>5057.6</v>
+        <v>5883</v>
       </c>
       <c r="D2558" t="s">
         <v>2560</v>
@@ -44853,7 +45141,7 @@
         <v>62</v>
       </c>
       <c r="C2559">
-        <v>5067.6</v>
+        <v>5873</v>
       </c>
       <c r="D2559" t="s">
         <v>2561</v>
@@ -44867,7 +45155,7 @@
         <v>63</v>
       </c>
       <c r="C2560">
-        <v>5087.6</v>
+        <v>5863</v>
       </c>
       <c r="D2560" t="s">
         <v>2562</v>
@@ -44881,7 +45169,7 @@
         <v>64</v>
       </c>
       <c r="C2561">
-        <v>5117.6</v>
+        <v>5863</v>
       </c>
       <c r="D2561" t="s">
         <v>2563</v>
@@ -44895,7 +45183,7 @@
         <v>65</v>
       </c>
       <c r="C2562">
-        <v>5308.7</v>
+        <v>5909</v>
       </c>
       <c r="D2562" t="s">
         <v>2564</v>
@@ -44909,7 +45197,7 @@
         <v>66</v>
       </c>
       <c r="C2563">
-        <v>5358.7</v>
+        <v>5929</v>
       </c>
       <c r="D2563" t="s">
         <v>2565</v>
@@ -44923,7 +45211,7 @@
         <v>67</v>
       </c>
       <c r="C2564">
-        <v>5428.7</v>
+        <v>5959</v>
       </c>
       <c r="D2564" t="s">
         <v>2566</v>
@@ -44937,7 +45225,7 @@
         <v>68</v>
       </c>
       <c r="C2565">
-        <v>5518.7</v>
+        <v>5989</v>
       </c>
       <c r="D2565" t="s">
         <v>2567</v>
@@ -44951,7 +45239,7 @@
         <v>69</v>
       </c>
       <c r="C2566">
-        <v>5268.9</v>
+        <v>6184</v>
       </c>
       <c r="D2566" t="s">
         <v>2568</v>
@@ -44965,7 +45253,7 @@
         <v>70</v>
       </c>
       <c r="C2567">
-        <v>5368.9</v>
+        <v>6224</v>
       </c>
       <c r="D2567" t="s">
         <v>2569</v>
@@ -44979,7 +45267,7 @@
         <v>71</v>
       </c>
       <c r="C2568">
-        <v>5458.9</v>
+        <v>6284</v>
       </c>
       <c r="D2568" t="s">
         <v>2570</v>
@@ -44993,7 +45281,7 @@
         <v>72</v>
       </c>
       <c r="C2569">
-        <v>5548.9</v>
+        <v>6324</v>
       </c>
       <c r="D2569" t="s">
         <v>2571</v>
@@ -45007,7 +45295,7 @@
         <v>73</v>
       </c>
       <c r="C2570">
-        <v>5560.2</v>
+        <v>6153</v>
       </c>
       <c r="D2570" t="s">
         <v>2572</v>
@@ -45021,7 +45309,7 @@
         <v>74</v>
       </c>
       <c r="C2571">
-        <v>5660.2</v>
+        <v>6213</v>
       </c>
       <c r="D2571" t="s">
         <v>2573</v>
@@ -45035,7 +45323,7 @@
         <v>75</v>
       </c>
       <c r="C2572">
-        <v>5770.2</v>
+        <v>6293</v>
       </c>
       <c r="D2572" t="s">
         <v>2574</v>
@@ -45049,7 +45337,7 @@
         <v>76</v>
       </c>
       <c r="C2573">
-        <v>5900.2</v>
+        <v>6373</v>
       </c>
       <c r="D2573" t="s">
         <v>2575</v>
@@ -45063,7 +45351,7 @@
         <v>77</v>
       </c>
       <c r="C2574">
-        <v>5668.2</v>
+        <v>6268</v>
       </c>
       <c r="D2574" t="s">
         <v>2576</v>
@@ -45077,7 +45365,7 @@
         <v>78</v>
       </c>
       <c r="C2575">
-        <v>5798.2</v>
+        <v>6348</v>
       </c>
       <c r="D2575" t="s">
         <v>2577</v>
@@ -45091,7 +45379,7 @@
         <v>79</v>
       </c>
       <c r="C2576">
-        <v>5918.2</v>
+        <v>6438</v>
       </c>
       <c r="D2576" t="s">
         <v>2578</v>
@@ -45105,7 +45393,7 @@
         <v>80</v>
       </c>
       <c r="C2577">
-        <v>6008.2</v>
+        <v>6528</v>
       </c>
       <c r="D2577" t="s">
         <v>2579</v>
@@ -45119,7 +45407,7 @@
         <v>81</v>
       </c>
       <c r="C2578">
-        <v>6023.9</v>
+        <v>6614</v>
       </c>
       <c r="D2578" t="s">
         <v>2580</v>
@@ -45133,7 +45421,7 @@
         <v>82</v>
       </c>
       <c r="C2579">
-        <v>6113.9</v>
+        <v>6704</v>
       </c>
       <c r="D2579" t="s">
         <v>2581</v>
@@ -45147,7 +45435,7 @@
         <v>83</v>
       </c>
       <c r="C2580">
-        <v>6203.9</v>
+        <v>6804</v>
       </c>
       <c r="D2580" t="s">
         <v>2582</v>
@@ -45161,7 +45449,7 @@
         <v>84</v>
       </c>
       <c r="C2581">
-        <v>6313.9</v>
+        <v>6894</v>
       </c>
       <c r="D2581" t="s">
         <v>2583</v>
@@ -45175,7 +45463,7 @@
         <v>85</v>
       </c>
       <c r="C2582">
-        <v>6487.9</v>
+        <v>6969</v>
       </c>
       <c r="D2582" t="s">
         <v>2584</v>
@@ -45189,7 +45477,7 @@
         <v>86</v>
       </c>
       <c r="C2583">
-        <v>6487.9</v>
+        <v>6969</v>
       </c>
       <c r="D2583" t="s">
         <v>2585</v>
@@ -45203,7 +45491,7 @@
         <v>87</v>
       </c>
       <c r="C2584">
-        <v>6477.9</v>
+        <v>6899</v>
       </c>
       <c r="D2584" t="s">
         <v>2586</v>
@@ -45217,7 +45505,7 @@
         <v>88</v>
       </c>
       <c r="C2585">
-        <v>6337.9</v>
+        <v>6789</v>
       </c>
       <c r="D2585" t="s">
         <v>2587</v>
@@ -45231,7 +45519,7 @@
         <v>89</v>
       </c>
       <c r="C2586">
-        <v>6744.8</v>
+        <v>6662</v>
       </c>
       <c r="D2586" t="s">
         <v>2588</v>
@@ -45245,7 +45533,7 @@
         <v>90</v>
       </c>
       <c r="C2587">
-        <v>6614.8</v>
+        <v>6492</v>
       </c>
       <c r="D2587" t="s">
         <v>2589</v>
@@ -45259,7 +45547,7 @@
         <v>91</v>
       </c>
       <c r="C2588">
-        <v>6464.8</v>
+        <v>6322</v>
       </c>
       <c r="D2588" t="s">
         <v>2590</v>
@@ -45273,7 +45561,7 @@
         <v>92</v>
       </c>
       <c r="C2589">
-        <v>6284.8</v>
+        <v>6142</v>
       </c>
       <c r="D2589" t="s">
         <v>2591</v>
@@ -45287,7 +45575,7 @@
         <v>93</v>
       </c>
       <c r="C2590">
-        <v>6325.9</v>
+        <v>5896</v>
       </c>
       <c r="D2590" t="s">
         <v>2592</v>
@@ -45301,7 +45589,7 @@
         <v>94</v>
       </c>
       <c r="C2591">
-        <v>6125.9</v>
+        <v>5736</v>
       </c>
       <c r="D2591" t="s">
         <v>2593</v>
@@ -45315,7 +45603,7 @@
         <v>95</v>
       </c>
       <c r="C2592">
-        <v>6045.9</v>
+        <v>5566</v>
       </c>
       <c r="D2592" t="s">
         <v>2594</v>
@@ -45329,7 +45617,7 @@
         <v>96</v>
       </c>
       <c r="C2593">
-        <v>5935.9</v>
+        <v>5436</v>
       </c>
       <c r="D2593" t="s">
         <v>2595</v>
@@ -45343,7 +45631,7 @@
         <v>1</v>
       </c>
       <c r="C2594">
-        <v>5290</v>
+        <v>5289</v>
       </c>
       <c r="D2594" t="s">
         <v>2596</v>
@@ -45357,7 +45645,7 @@
         <v>2</v>
       </c>
       <c r="C2595">
-        <v>5250</v>
+        <v>5249</v>
       </c>
       <c r="D2595" t="s">
         <v>2597</v>
@@ -45371,7 +45659,7 @@
         <v>3</v>
       </c>
       <c r="C2596">
-        <v>5180</v>
+        <v>5189</v>
       </c>
       <c r="D2596" t="s">
         <v>2598</v>
@@ -45385,7 +45673,7 @@
         <v>4</v>
       </c>
       <c r="C2597">
-        <v>5120</v>
+        <v>5119</v>
       </c>
       <c r="D2597" t="s">
         <v>2599</v>
@@ -45399,7 +45687,7 @@
         <v>5</v>
       </c>
       <c r="C2598">
-        <v>4864.9</v>
+        <v>5069.8</v>
       </c>
       <c r="D2598" t="s">
         <v>2600</v>
@@ -45413,7 +45701,7 @@
         <v>6</v>
       </c>
       <c r="C2599">
-        <v>4824.9</v>
+        <v>5029.8</v>
       </c>
       <c r="D2599" t="s">
         <v>2601</v>
@@ -45427,7 +45715,7 @@
         <v>7</v>
       </c>
       <c r="C2600">
-        <v>4784.9</v>
+        <v>4989.8</v>
       </c>
       <c r="D2600" t="s">
         <v>2602</v>
@@ -45441,7 +45729,7 @@
         <v>8</v>
       </c>
       <c r="C2601">
-        <v>4734.9</v>
+        <v>4959.8</v>
       </c>
       <c r="D2601" t="s">
         <v>2603</v>
@@ -45455,7 +45743,7 @@
         <v>9</v>
       </c>
       <c r="C2602">
-        <v>4607.5</v>
+        <v>4649.7</v>
       </c>
       <c r="D2602" t="s">
         <v>2604</v>
@@ -45469,7 +45757,7 @@
         <v>10</v>
       </c>
       <c r="C2603">
-        <v>4567.5</v>
+        <v>4619.7</v>
       </c>
       <c r="D2603" t="s">
         <v>2605</v>
@@ -45483,7 +45771,7 @@
         <v>11</v>
       </c>
       <c r="C2604">
-        <v>4537.5</v>
+        <v>4599.7</v>
       </c>
       <c r="D2604" t="s">
         <v>2606</v>
@@ -45497,7 +45785,7 @@
         <v>12</v>
       </c>
       <c r="C2605">
-        <v>4527.5</v>
+        <v>4589.7</v>
       </c>
       <c r="D2605" t="s">
         <v>2607</v>
@@ -45511,7 +45799,7 @@
         <v>13</v>
       </c>
       <c r="C2606">
-        <v>4514.5</v>
+        <v>4671.6</v>
       </c>
       <c r="D2606" t="s">
         <v>2608</v>
@@ -45525,7 +45813,7 @@
         <v>14</v>
       </c>
       <c r="C2607">
-        <v>4514.5</v>
+        <v>4661.6</v>
       </c>
       <c r="D2607" t="s">
         <v>2609</v>
@@ -45539,7 +45827,7 @@
         <v>15</v>
       </c>
       <c r="C2608">
-        <v>4524.5</v>
+        <v>4661.6</v>
       </c>
       <c r="D2608" t="s">
         <v>2610</v>
@@ -45553,7 +45841,7 @@
         <v>16</v>
       </c>
       <c r="C2609">
-        <v>4524.5</v>
+        <v>4661.6</v>
       </c>
       <c r="D2609" t="s">
         <v>2611</v>
@@ -45567,7 +45855,7 @@
         <v>17</v>
       </c>
       <c r="C2610">
-        <v>4568.7</v>
+        <v>4373.3</v>
       </c>
       <c r="D2610" t="s">
         <v>2612</v>
@@ -45581,7 +45869,7 @@
         <v>18</v>
       </c>
       <c r="C2611">
-        <v>4568.7</v>
+        <v>4383.3</v>
       </c>
       <c r="D2611" t="s">
         <v>2613</v>
@@ -45595,7 +45883,7 @@
         <v>19</v>
       </c>
       <c r="C2612">
-        <v>4588.7</v>
+        <v>4393.3</v>
       </c>
       <c r="D2612" t="s">
         <v>2614</v>
@@ -45609,7 +45897,7 @@
         <v>20</v>
       </c>
       <c r="C2613">
-        <v>4608.7</v>
+        <v>4413.3</v>
       </c>
       <c r="D2613" t="s">
         <v>2615</v>
@@ -45623,7 +45911,7 @@
         <v>21</v>
       </c>
       <c r="C2614">
-        <v>4603.6</v>
+        <v>4236.5</v>
       </c>
       <c r="D2614" t="s">
         <v>2616</v>
@@ -45637,7 +45925,7 @@
         <v>22</v>
       </c>
       <c r="C2615">
-        <v>4653.6</v>
+        <v>4276.5</v>
       </c>
       <c r="D2615" t="s">
         <v>2617</v>
@@ -45651,7 +45939,7 @@
         <v>23</v>
       </c>
       <c r="C2616">
-        <v>4723.6</v>
+        <v>4306.5</v>
       </c>
       <c r="D2616" t="s">
         <v>2618</v>
@@ -45665,7 +45953,7 @@
         <v>24</v>
       </c>
       <c r="C2617">
-        <v>4803.6</v>
+        <v>4336.5</v>
       </c>
       <c r="D2617" t="s">
         <v>2619</v>
@@ -45679,7 +45967,7 @@
         <v>25</v>
       </c>
       <c r="C2618">
-        <v>4808.7</v>
+        <v>4505</v>
       </c>
       <c r="D2618" t="s">
         <v>2620</v>
@@ -45693,7 +45981,7 @@
         <v>26</v>
       </c>
       <c r="C2619">
-        <v>4908.7</v>
+        <v>4585</v>
       </c>
       <c r="D2619" t="s">
         <v>2621</v>
@@ -45707,7 +45995,7 @@
         <v>27</v>
       </c>
       <c r="C2620">
-        <v>5008.7</v>
+        <v>4675</v>
       </c>
       <c r="D2620" t="s">
         <v>2622</v>
@@ -45721,7 +46009,7 @@
         <v>28</v>
       </c>
       <c r="C2621">
-        <v>5108.7</v>
+        <v>4805</v>
       </c>
       <c r="D2621" t="s">
         <v>2623</v>
@@ -45735,7 +46023,7 @@
         <v>29</v>
       </c>
       <c r="C2622">
-        <v>4929.8</v>
+        <v>5659.8</v>
       </c>
       <c r="D2622" t="s">
         <v>2624</v>
@@ -45749,7 +46037,7 @@
         <v>30</v>
       </c>
       <c r="C2623">
-        <v>5019.8</v>
+        <v>5839.8</v>
       </c>
       <c r="D2623" t="s">
         <v>2625</v>
@@ -45763,7 +46051,7 @@
         <v>31</v>
       </c>
       <c r="C2624">
-        <v>5089.8</v>
+        <v>5959.8</v>
       </c>
       <c r="D2624" t="s">
         <v>2626</v>
@@ -45777,7 +46065,7 @@
         <v>32</v>
       </c>
       <c r="C2625">
-        <v>5149.8</v>
+        <v>6039.8</v>
       </c>
       <c r="D2625" t="s">
         <v>2627</v>
@@ -45791,7 +46079,7 @@
         <v>33</v>
       </c>
       <c r="C2626">
-        <v>5437.2</v>
+        <v>6820.9</v>
       </c>
       <c r="D2626" t="s">
         <v>2628</v>
@@ -45805,7 +46093,7 @@
         <v>34</v>
       </c>
       <c r="C2627">
-        <v>5457.2</v>
+        <v>6830.9</v>
       </c>
       <c r="D2627" t="s">
         <v>2629</v>
@@ -45819,7 +46107,7 @@
         <v>35</v>
       </c>
       <c r="C2628">
-        <v>5467.2</v>
+        <v>6840.9</v>
       </c>
       <c r="D2628" t="s">
         <v>2630</v>
@@ -45833,7 +46121,7 @@
         <v>36</v>
       </c>
       <c r="C2629">
-        <v>5447.2</v>
+        <v>6840.9</v>
       </c>
       <c r="D2629" t="s">
         <v>2631</v>
@@ -45847,7 +46135,7 @@
         <v>37</v>
       </c>
       <c r="C2630">
-        <v>5744.6</v>
+        <v>7305.7</v>
       </c>
       <c r="D2630" t="s">
         <v>2632</v>
@@ -45861,7 +46149,7 @@
         <v>38</v>
       </c>
       <c r="C2631">
-        <v>5694.6</v>
+        <v>7295.7</v>
       </c>
       <c r="D2631" t="s">
         <v>2633</v>
@@ -45875,7 +46163,7 @@
         <v>39</v>
       </c>
       <c r="C2632">
-        <v>5624.6</v>
+        <v>7285.7</v>
       </c>
       <c r="D2632" t="s">
         <v>2634</v>
@@ -45889,7 +46177,7 @@
         <v>40</v>
       </c>
       <c r="C2633">
-        <v>5554.6</v>
+        <v>7225.7</v>
       </c>
       <c r="D2633" t="s">
         <v>2635</v>
@@ -45903,7 +46191,7 @@
         <v>41</v>
       </c>
       <c r="C2634">
-        <v>5435.2</v>
+        <v>7552.9</v>
       </c>
       <c r="D2634" t="s">
         <v>2636</v>
@@ -45917,7 +46205,7 @@
         <v>42</v>
       </c>
       <c r="C2635">
-        <v>5355.2</v>
+        <v>7472.9</v>
       </c>
       <c r="D2635" t="s">
         <v>2637</v>
@@ -45931,7 +46219,7 @@
         <v>43</v>
       </c>
       <c r="C2636">
-        <v>5285.2</v>
+        <v>7402.9</v>
       </c>
       <c r="D2636" t="s">
         <v>2638</v>
@@ -45945,7 +46233,7 @@
         <v>44</v>
       </c>
       <c r="C2637">
-        <v>5205.2</v>
+        <v>7322.9</v>
       </c>
       <c r="D2637" t="s">
         <v>2639</v>
@@ -45959,7 +46247,7 @@
         <v>45</v>
       </c>
       <c r="C2638">
-        <v>5330.3</v>
+        <v>7502.5</v>
       </c>
       <c r="D2638" t="s">
         <v>2640</v>
@@ -45973,7 +46261,7 @@
         <v>46</v>
       </c>
       <c r="C2639">
-        <v>5280.3</v>
+        <v>7432.5</v>
       </c>
       <c r="D2639" t="s">
         <v>2641</v>
@@ -45987,7 +46275,7 @@
         <v>47</v>
       </c>
       <c r="C2640">
-        <v>5230.3</v>
+        <v>7362.5</v>
       </c>
       <c r="D2640" t="s">
         <v>2642</v>
@@ -46001,7 +46289,7 @@
         <v>48</v>
       </c>
       <c r="C2641">
-        <v>5180.3</v>
+        <v>7292.5</v>
       </c>
       <c r="D2641" t="s">
         <v>2643</v>
@@ -46015,7 +46303,7 @@
         <v>49</v>
       </c>
       <c r="C2642">
-        <v>5294.4</v>
+        <v>7031.3</v>
       </c>
       <c r="D2642" t="s">
         <v>2644</v>
@@ -46029,7 +46317,7 @@
         <v>50</v>
       </c>
       <c r="C2643">
-        <v>5254.4</v>
+        <v>6991.3</v>
       </c>
       <c r="D2643" t="s">
         <v>2645</v>
@@ -46043,7 +46331,7 @@
         <v>51</v>
       </c>
       <c r="C2644">
-        <v>5214.4</v>
+        <v>6971.3</v>
       </c>
       <c r="D2644" t="s">
         <v>2646</v>
@@ -46057,7 +46345,7 @@
         <v>52</v>
       </c>
       <c r="C2645">
-        <v>5174.4</v>
+        <v>6971.3</v>
       </c>
       <c r="D2645" t="s">
         <v>2647</v>
@@ -46071,7 +46359,7 @@
         <v>53</v>
       </c>
       <c r="C2646">
-        <v>5086.9</v>
+        <v>6909.7</v>
       </c>
       <c r="D2646" t="s">
         <v>2648</v>
@@ -46085,7 +46373,7 @@
         <v>54</v>
       </c>
       <c r="C2647">
-        <v>5056.9</v>
+        <v>6919.7</v>
       </c>
       <c r="D2647" t="s">
         <v>2649</v>
@@ -46099,7 +46387,7 @@
         <v>55</v>
       </c>
       <c r="C2648">
-        <v>5036.9</v>
+        <v>6929.7</v>
       </c>
       <c r="D2648" t="s">
         <v>2650</v>
@@ -46113,7 +46401,7 @@
         <v>56</v>
       </c>
       <c r="C2649">
-        <v>5016.9</v>
+        <v>6939.7</v>
       </c>
       <c r="D2649" t="s">
         <v>2651</v>
@@ -46127,7 +46415,7 @@
         <v>57</v>
       </c>
       <c r="C2650">
-        <v>4985.8</v>
+        <v>6437.5</v>
       </c>
       <c r="D2650" t="s">
         <v>2652</v>
@@ -46141,7 +46429,7 @@
         <v>58</v>
       </c>
       <c r="C2651">
-        <v>4985.8</v>
+        <v>6437.5</v>
       </c>
       <c r="D2651" t="s">
         <v>2653</v>
@@ -46155,7 +46443,7 @@
         <v>59</v>
       </c>
       <c r="C2652">
-        <v>4995.8</v>
+        <v>6447.5</v>
       </c>
       <c r="D2652" t="s">
         <v>2654</v>
@@ -46169,7 +46457,7 @@
         <v>60</v>
       </c>
       <c r="C2653">
-        <v>5005.8</v>
+        <v>6457.5</v>
       </c>
       <c r="D2653" t="s">
         <v>2655</v>
@@ -46183,7 +46471,7 @@
         <v>61</v>
       </c>
       <c r="C2654">
-        <v>5007.6</v>
+        <v>6154.1</v>
       </c>
       <c r="D2654" t="s">
         <v>2656</v>
@@ -46197,7 +46485,7 @@
         <v>62</v>
       </c>
       <c r="C2655">
-        <v>5017.6</v>
+        <v>6154.1</v>
       </c>
       <c r="D2655" t="s">
         <v>2657</v>
@@ -46211,7 +46499,7 @@
         <v>63</v>
       </c>
       <c r="C2656">
-        <v>5037.6</v>
+        <v>6164.1</v>
       </c>
       <c r="D2656" t="s">
         <v>2658</v>
@@ -46225,7 +46513,7 @@
         <v>64</v>
       </c>
       <c r="C2657">
-        <v>5067.6</v>
+        <v>6174.1</v>
       </c>
       <c r="D2657" t="s">
         <v>2659</v>
@@ -46239,7 +46527,7 @@
         <v>65</v>
       </c>
       <c r="C2658">
-        <v>5258.7</v>
+        <v>5430.1</v>
       </c>
       <c r="D2658" t="s">
         <v>2660</v>
@@ -46253,7 +46541,7 @@
         <v>66</v>
       </c>
       <c r="C2659">
-        <v>5308.7</v>
+        <v>5470.1</v>
       </c>
       <c r="D2659" t="s">
         <v>2661</v>
@@ -46267,7 +46555,7 @@
         <v>67</v>
       </c>
       <c r="C2660">
-        <v>5378.7</v>
+        <v>5520.1</v>
       </c>
       <c r="D2660" t="s">
         <v>2662</v>
@@ -46281,7 +46569,7 @@
         <v>68</v>
       </c>
       <c r="C2661">
-        <v>5468.7</v>
+        <v>5580.1</v>
       </c>
       <c r="D2661" t="s">
         <v>2663</v>
@@ -46295,7 +46583,7 @@
         <v>69</v>
       </c>
       <c r="C2662">
-        <v>5218.9</v>
+        <v>5259.7</v>
       </c>
       <c r="D2662" t="s">
         <v>2664</v>
@@ -46309,7 +46597,7 @@
         <v>70</v>
       </c>
       <c r="C2663">
-        <v>5318.9</v>
+        <v>5329.7</v>
       </c>
       <c r="D2663" t="s">
         <v>2665</v>
@@ -46323,7 +46611,7 @@
         <v>71</v>
       </c>
       <c r="C2664">
-        <v>5408.9</v>
+        <v>5379.7</v>
       </c>
       <c r="D2664" t="s">
         <v>2666</v>
@@ -46337,7 +46625,7 @@
         <v>72</v>
       </c>
       <c r="C2665">
-        <v>5498.9</v>
+        <v>5469.7</v>
       </c>
       <c r="D2665" t="s">
         <v>2667</v>
@@ -46351,7 +46639,7 @@
         <v>73</v>
       </c>
       <c r="C2666">
-        <v>5510.2</v>
+        <v>5340.8</v>
       </c>
       <c r="D2666" t="s">
         <v>2668</v>
@@ -46365,7 +46653,7 @@
         <v>74</v>
       </c>
       <c r="C2667">
-        <v>5610.2</v>
+        <v>5430.8</v>
       </c>
       <c r="D2667" t="s">
         <v>2669</v>
@@ -46379,7 +46667,7 @@
         <v>75</v>
       </c>
       <c r="C2668">
-        <v>5720.2</v>
+        <v>5520.8</v>
       </c>
       <c r="D2668" t="s">
         <v>2670</v>
@@ -46393,7 +46681,7 @@
         <v>76</v>
       </c>
       <c r="C2669">
-        <v>5850.2</v>
+        <v>5620.8</v>
       </c>
       <c r="D2669" t="s">
         <v>2671</v>
@@ -46407,7 +46695,7 @@
         <v>77</v>
       </c>
       <c r="C2670">
-        <v>5618.2</v>
+        <v>5816</v>
       </c>
       <c r="D2670" t="s">
         <v>2672</v>
@@ -46421,7 +46709,7 @@
         <v>78</v>
       </c>
       <c r="C2671">
-        <v>5748.2</v>
+        <v>5896</v>
       </c>
       <c r="D2671" t="s">
         <v>2673</v>
@@ -46435,7 +46723,7 @@
         <v>79</v>
       </c>
       <c r="C2672">
-        <v>5868.2</v>
+        <v>5986</v>
       </c>
       <c r="D2672" t="s">
         <v>2674</v>
@@ -46449,7 +46737,7 @@
         <v>80</v>
       </c>
       <c r="C2673">
-        <v>5958.2</v>
+        <v>6056</v>
       </c>
       <c r="D2673" t="s">
         <v>2675</v>
@@ -46463,7 +46751,7 @@
         <v>81</v>
       </c>
       <c r="C2674">
-        <v>5973.9</v>
+        <v>6296.6</v>
       </c>
       <c r="D2674" t="s">
         <v>2676</v>
@@ -46477,7 +46765,7 @@
         <v>82</v>
       </c>
       <c r="C2675">
-        <v>6063.9</v>
+        <v>6366.6</v>
       </c>
       <c r="D2675" t="s">
         <v>2677</v>
@@ -46491,7 +46779,7 @@
         <v>83</v>
       </c>
       <c r="C2676">
-        <v>6153.9</v>
+        <v>6436.6</v>
       </c>
       <c r="D2676" t="s">
         <v>2678</v>
@@ -46505,7 +46793,7 @@
         <v>84</v>
       </c>
       <c r="C2677">
-        <v>6263.9</v>
+        <v>6526.6</v>
       </c>
       <c r="D2677" t="s">
         <v>2679</v>
@@ -46519,7 +46807,7 @@
         <v>85</v>
       </c>
       <c r="C2678">
-        <v>6467.9</v>
+        <v>6493.2</v>
       </c>
       <c r="D2678" t="s">
         <v>2680</v>
@@ -46533,7 +46821,7 @@
         <v>86</v>
       </c>
       <c r="C2679">
-        <v>6457.9</v>
+        <v>6483.2</v>
       </c>
       <c r="D2679" t="s">
         <v>2681</v>
@@ -46547,7 +46835,7 @@
         <v>87</v>
       </c>
       <c r="C2680">
-        <v>6427.9</v>
+        <v>6453.2</v>
       </c>
       <c r="D2680" t="s">
         <v>2682</v>
@@ -46561,7 +46849,7 @@
         <v>88</v>
       </c>
       <c r="C2681">
-        <v>6287.9</v>
+        <v>6363.2</v>
       </c>
       <c r="D2681" t="s">
         <v>2683</v>
@@ -46575,7 +46863,7 @@
         <v>89</v>
       </c>
       <c r="C2682">
-        <v>6694.8</v>
+        <v>6583</v>
       </c>
       <c r="D2682" t="s">
         <v>2684</v>
@@ -46589,7 +46877,7 @@
         <v>90</v>
       </c>
       <c r="C2683">
-        <v>6564.8</v>
+        <v>6373</v>
       </c>
       <c r="D2683" t="s">
         <v>2685</v>
@@ -46603,7 +46891,7 @@
         <v>91</v>
       </c>
       <c r="C2684">
-        <v>6414.8</v>
+        <v>6203</v>
       </c>
       <c r="D2684" t="s">
         <v>2686</v>
@@ -46617,7 +46905,7 @@
         <v>92</v>
       </c>
       <c r="C2685">
-        <v>6234.8</v>
+        <v>6043</v>
       </c>
       <c r="D2685" t="s">
         <v>2687</v>
@@ -46631,7 +46919,7 @@
         <v>93</v>
       </c>
       <c r="C2686">
-        <v>6275.9</v>
+        <v>4642.9</v>
       </c>
       <c r="D2686" t="s">
         <v>2688</v>
@@ -46645,7 +46933,7 @@
         <v>94</v>
       </c>
       <c r="C2687">
-        <v>6075.9</v>
+        <v>4512.9</v>
       </c>
       <c r="D2687" t="s">
         <v>2689</v>
@@ -46659,7 +46947,7 @@
         <v>95</v>
       </c>
       <c r="C2688">
-        <v>5995.9</v>
+        <v>4392.9</v>
       </c>
       <c r="D2688" t="s">
         <v>2690</v>
@@ -46673,7 +46961,7 @@
         <v>96</v>
       </c>
       <c r="C2689">
-        <v>5885.9</v>
+        <v>4282.9</v>
       </c>
       <c r="D2689" t="s">
         <v>2691</v>
@@ -46687,7 +46975,7 @@
         <v>1</v>
       </c>
       <c r="C2690">
-        <v>5240</v>
+        <v>4751.8</v>
       </c>
       <c r="D2690" t="s">
         <v>2692</v>
@@ -46701,7 +46989,7 @@
         <v>2</v>
       </c>
       <c r="C2691">
-        <v>5200</v>
+        <v>4681.8</v>
       </c>
       <c r="D2691" t="s">
         <v>2693</v>
@@ -46715,7 +47003,7 @@
         <v>3</v>
       </c>
       <c r="C2692">
-        <v>5140</v>
+        <v>4621.8</v>
       </c>
       <c r="D2692" t="s">
         <v>2694</v>
@@ -46729,7 +47017,7 @@
         <v>4</v>
       </c>
       <c r="C2693">
-        <v>5080</v>
+        <v>4561.8</v>
       </c>
       <c r="D2693" t="s">
         <v>2695</v>
@@ -46743,7 +47031,7 @@
         <v>5</v>
       </c>
       <c r="C2694">
-        <v>4824.9</v>
+        <v>5333.7</v>
       </c>
       <c r="D2694" t="s">
         <v>2696</v>
@@ -46757,7 +47045,7 @@
         <v>6</v>
       </c>
       <c r="C2695">
-        <v>4794.9</v>
+        <v>5283.7</v>
       </c>
       <c r="D2695" t="s">
         <v>2697</v>
@@ -46771,7 +47059,7 @@
         <v>7</v>
       </c>
       <c r="C2696">
-        <v>4754.9</v>
+        <v>5233.7</v>
       </c>
       <c r="D2696" t="s">
         <v>2698</v>
@@ -46785,7 +47073,7 @@
         <v>8</v>
       </c>
       <c r="C2697">
-        <v>4704.9</v>
+        <v>5183.7</v>
       </c>
       <c r="D2697" t="s">
         <v>2699</v>
@@ -46799,7 +47087,7 @@
         <v>9</v>
       </c>
       <c r="C2698">
-        <v>4587.5</v>
+        <v>5289.6</v>
       </c>
       <c r="D2698" t="s">
         <v>2700</v>
@@ -46813,7 +47101,7 @@
         <v>10</v>
       </c>
       <c r="C2699">
-        <v>4547.5</v>
+        <v>5259.6</v>
       </c>
       <c r="D2699" t="s">
         <v>2701</v>
@@ -46827,7 +47115,7 @@
         <v>11</v>
       </c>
       <c r="C2700">
-        <v>4517.5</v>
+        <v>5239.6</v>
       </c>
       <c r="D2700" t="s">
         <v>2702</v>
@@ -46841,7 +47129,7 @@
         <v>12</v>
       </c>
       <c r="C2701">
-        <v>4507.5</v>
+        <v>5229.6</v>
       </c>
       <c r="D2701" t="s">
         <v>2703</v>
@@ -46855,7 +47143,7 @@
         <v>13</v>
       </c>
       <c r="C2702">
-        <v>4494.5</v>
+        <v>5090.9</v>
       </c>
       <c r="D2702" t="s">
         <v>2704</v>
@@ -46869,7 +47157,7 @@
         <v>14</v>
       </c>
       <c r="C2703">
-        <v>4494.5</v>
+        <v>5090.9</v>
       </c>
       <c r="D2703" t="s">
         <v>2705</v>
@@ -46883,7 +47171,7 @@
         <v>15</v>
       </c>
       <c r="C2704">
-        <v>4504.5</v>
+        <v>5090.9</v>
       </c>
       <c r="D2704" t="s">
         <v>2706</v>
@@ -46897,7 +47185,7 @@
         <v>16</v>
       </c>
       <c r="C2705">
-        <v>4504.5</v>
+        <v>5090.9</v>
       </c>
       <c r="D2705" t="s">
         <v>2707</v>
@@ -46911,7 +47199,7 @@
         <v>17</v>
       </c>
       <c r="C2706">
-        <v>4548.7</v>
+        <v>4959.1</v>
       </c>
       <c r="D2706" t="s">
         <v>2708</v>
@@ -46925,7 +47213,7 @@
         <v>18</v>
       </c>
       <c r="C2707">
-        <v>4558.7</v>
+        <v>4959.1</v>
       </c>
       <c r="D2707" t="s">
         <v>2709</v>
@@ -46939,7 +47227,7 @@
         <v>19</v>
       </c>
       <c r="C2708">
-        <v>4558.7</v>
+        <v>4959.1</v>
       </c>
       <c r="D2708" t="s">
         <v>2710</v>
@@ -46953,7 +47241,7 @@
         <v>20</v>
       </c>
       <c r="C2709">
-        <v>4568.7</v>
+        <v>4969.1</v>
       </c>
       <c r="D2709" t="s">
         <v>2711</v>
@@ -46967,7 +47255,7 @@
         <v>21</v>
       </c>
       <c r="C2710">
-        <v>4543.6</v>
+        <v>4894.8</v>
       </c>
       <c r="D2710" t="s">
         <v>2712</v>
@@ -46981,7 +47269,7 @@
         <v>22</v>
       </c>
       <c r="C2711">
-        <v>4573.6</v>
+        <v>4924.8</v>
       </c>
       <c r="D2711" t="s">
         <v>2713</v>
@@ -46995,7 +47283,7 @@
         <v>23</v>
       </c>
       <c r="C2712">
-        <v>4613.6</v>
+        <v>4974.8</v>
       </c>
       <c r="D2712" t="s">
         <v>2714</v>
@@ -47009,7 +47297,7 @@
         <v>24</v>
       </c>
       <c r="C2713">
-        <v>4663.6</v>
+        <v>5044.8</v>
       </c>
       <c r="D2713" t="s">
         <v>2715</v>
@@ -47023,7 +47311,7 @@
         <v>25</v>
       </c>
       <c r="C2714">
-        <v>4648.7</v>
+        <v>4931.3</v>
       </c>
       <c r="D2714" t="s">
         <v>2716</v>
@@ -47037,7 +47325,7 @@
         <v>26</v>
       </c>
       <c r="C2715">
-        <v>4738.7</v>
+        <v>5021.3</v>
       </c>
       <c r="D2715" t="s">
         <v>2717</v>
@@ -47051,7 +47339,7 @@
         <v>27</v>
       </c>
       <c r="C2716">
-        <v>4828.7</v>
+        <v>5111.3</v>
       </c>
       <c r="D2716" t="s">
         <v>2718</v>
@@ -47065,7 +47353,7 @@
         <v>28</v>
       </c>
       <c r="C2717">
-        <v>4928.7</v>
+        <v>5211.3</v>
       </c>
       <c r="D2717" t="s">
         <v>2719</v>
@@ -47079,7 +47367,7 @@
         <v>29</v>
       </c>
       <c r="C2718">
-        <v>4749.8</v>
+        <v>5155.8</v>
       </c>
       <c r="D2718" t="s">
         <v>2720</v>
@@ -47093,7 +47381,7 @@
         <v>30</v>
       </c>
       <c r="C2719">
-        <v>4849.8</v>
+        <v>5255.8</v>
       </c>
       <c r="D2719" t="s">
         <v>2721</v>
@@ -47107,7 +47395,7 @@
         <v>31</v>
       </c>
       <c r="C2720">
-        <v>4939.8</v>
+        <v>5335.8</v>
       </c>
       <c r="D2720" t="s">
         <v>2722</v>
@@ -47121,7 +47409,7 @@
         <v>32</v>
       </c>
       <c r="C2721">
-        <v>5009.8</v>
+        <v>5395.8</v>
       </c>
       <c r="D2721" t="s">
         <v>2723</v>
@@ -47135,7 +47423,7 @@
         <v>33</v>
       </c>
       <c r="C2722">
-        <v>5297.2</v>
+        <v>5327</v>
       </c>
       <c r="D2722" t="s">
         <v>2724</v>
@@ -47149,7 +47437,7 @@
         <v>34</v>
       </c>
       <c r="C2723">
-        <v>5327.2</v>
+        <v>5357</v>
       </c>
       <c r="D2723" t="s">
         <v>2725</v>
@@ -47163,7 +47451,7 @@
         <v>35</v>
       </c>
       <c r="C2724">
-        <v>5327.2</v>
+        <v>5367</v>
       </c>
       <c r="D2724" t="s">
         <v>2726</v>
@@ -47177,7 +47465,7 @@
         <v>36</v>
       </c>
       <c r="C2725">
-        <v>5307.2</v>
+        <v>5357</v>
       </c>
       <c r="D2725" t="s">
         <v>2727</v>
@@ -47191,7 +47479,7 @@
         <v>37</v>
       </c>
       <c r="C2726">
-        <v>5604.6</v>
+        <v>4931.5</v>
       </c>
       <c r="D2726" t="s">
         <v>2728</v>
@@ -47205,7 +47493,7 @@
         <v>38</v>
       </c>
       <c r="C2727">
-        <v>5544.6</v>
+        <v>4891.5</v>
       </c>
       <c r="D2727" t="s">
         <v>2729</v>
@@ -47219,7 +47507,7 @@
         <v>39</v>
       </c>
       <c r="C2728">
-        <v>5484.6</v>
+        <v>4831.5</v>
       </c>
       <c r="D2728" t="s">
         <v>2730</v>
@@ -47233,7 +47521,7 @@
         <v>40</v>
       </c>
       <c r="C2729">
-        <v>5404.6</v>
+        <v>4761.5</v>
       </c>
       <c r="D2729" t="s">
         <v>2731</v>
@@ -47247,7 +47535,7 @@
         <v>41</v>
       </c>
       <c r="C2730">
-        <v>5305.2</v>
+        <v>5113.4</v>
       </c>
       <c r="D2730" t="s">
         <v>2732</v>
@@ -47261,7 +47549,7 @@
         <v>42</v>
       </c>
       <c r="C2731">
-        <v>5235.2</v>
+        <v>5043.4</v>
       </c>
       <c r="D2731" t="s">
         <v>2733</v>
@@ -47275,7 +47563,7 @@
         <v>43</v>
       </c>
       <c r="C2732">
-        <v>5175.2</v>
+        <v>4983.4</v>
       </c>
       <c r="D2732" t="s">
         <v>2734</v>
@@ -47289,7 +47577,7 @@
         <v>44</v>
       </c>
       <c r="C2733">
-        <v>5125.2</v>
+        <v>4923.4</v>
       </c>
       <c r="D2733" t="s">
         <v>2735</v>
@@ -47303,7 +47591,7 @@
         <v>45</v>
       </c>
       <c r="C2734">
-        <v>5260.3</v>
+        <v>5014.4</v>
       </c>
       <c r="D2734" t="s">
         <v>2736</v>
@@ -47317,7 +47605,7 @@
         <v>46</v>
       </c>
       <c r="C2735">
-        <v>5230.3</v>
+        <v>4974.4</v>
       </c>
       <c r="D2735" t="s">
         <v>2737</v>
@@ -47331,7 +47619,7 @@
         <v>47</v>
       </c>
       <c r="C2736">
-        <v>5200.3</v>
+        <v>4944.4</v>
       </c>
       <c r="D2736" t="s">
         <v>2738</v>
@@ -47345,7 +47633,7 @@
         <v>48</v>
       </c>
       <c r="C2737">
-        <v>5180.3</v>
+        <v>4924.4</v>
       </c>
       <c r="D2737" t="s">
         <v>2739</v>
@@ -47359,7 +47647,7 @@
         <v>49</v>
       </c>
       <c r="C2738">
-        <v>5314.4</v>
+        <v>4884.2</v>
       </c>
       <c r="D2738" t="s">
         <v>2740</v>
@@ -47373,7 +47661,7 @@
         <v>50</v>
       </c>
       <c r="C2739">
-        <v>5284.4</v>
+        <v>4874.2</v>
       </c>
       <c r="D2739" t="s">
         <v>2741</v>
@@ -47387,7 +47675,7 @@
         <v>51</v>
       </c>
       <c r="C2740">
-        <v>5254.4</v>
+        <v>4874.2</v>
       </c>
       <c r="D2740" t="s">
         <v>2742</v>
@@ -47401,7 +47689,7 @@
         <v>52</v>
       </c>
       <c r="C2741">
-        <v>5234.4</v>
+        <v>4864.2</v>
       </c>
       <c r="D2741" t="s">
         <v>2743</v>
@@ -47415,7 +47703,7 @@
         <v>53</v>
       </c>
       <c r="C2742">
-        <v>5166.9</v>
+        <v>4777.4</v>
       </c>
       <c r="D2742" t="s">
         <v>2744</v>
@@ -47429,7 +47717,7 @@
         <v>54</v>
       </c>
       <c r="C2743">
-        <v>5146.9</v>
+        <v>4777.4</v>
       </c>
       <c r="D2743" t="s">
         <v>2745</v>
@@ -47443,7 +47731,7 @@
         <v>55</v>
       </c>
       <c r="C2744">
-        <v>5146.9</v>
+        <v>4777.4</v>
       </c>
       <c r="D2744" t="s">
         <v>2746</v>
@@ -47457,7 +47745,7 @@
         <v>56</v>
       </c>
       <c r="C2745">
-        <v>5146.9</v>
+        <v>4777.4</v>
       </c>
       <c r="D2745" t="s">
         <v>2747</v>
@@ -47471,7 +47759,7 @@
         <v>57</v>
       </c>
       <c r="C2746">
-        <v>5125.8</v>
+        <v>4709.1</v>
       </c>
       <c r="D2746" t="s">
         <v>2748</v>
@@ -47485,7 +47773,7 @@
         <v>58</v>
       </c>
       <c r="C2747">
-        <v>5135.8</v>
+        <v>4709.1</v>
       </c>
       <c r="D2747" t="s">
         <v>2749</v>
@@ -47499,7 +47787,7 @@
         <v>59</v>
       </c>
       <c r="C2748">
-        <v>5155.8</v>
+        <v>4709.1</v>
       </c>
       <c r="D2748" t="s">
         <v>2750</v>
@@ -47513,7 +47801,7 @@
         <v>60</v>
       </c>
       <c r="C2749">
-        <v>5165.8</v>
+        <v>4709.1</v>
       </c>
       <c r="D2749" t="s">
         <v>2751</v>
@@ -47527,7 +47815,7 @@
         <v>61</v>
       </c>
       <c r="C2750">
-        <v>5157.6</v>
+        <v>4622.5</v>
       </c>
       <c r="D2750" t="s">
         <v>2752</v>
@@ -47541,7 +47829,7 @@
         <v>62</v>
       </c>
       <c r="C2751">
-        <v>5167.6</v>
+        <v>4622.5</v>
       </c>
       <c r="D2751" t="s">
         <v>2753</v>
@@ -47555,7 +47843,7 @@
         <v>63</v>
       </c>
       <c r="C2752">
-        <v>5167.6</v>
+        <v>4622.5</v>
       </c>
       <c r="D2752" t="s">
         <v>2754</v>
@@ -47569,7 +47857,7 @@
         <v>64</v>
       </c>
       <c r="C2753">
-        <v>5187.6</v>
+        <v>4632.5</v>
       </c>
       <c r="D2753" t="s">
         <v>2755</v>
@@ -47583,7 +47871,7 @@
         <v>65</v>
       </c>
       <c r="C2754">
-        <v>5358.7</v>
+        <v>4570.9</v>
       </c>
       <c r="D2754" t="s">
         <v>2756</v>
@@ -47597,7 +47885,7 @@
         <v>66</v>
       </c>
       <c r="C2755">
-        <v>5398.7</v>
+        <v>4600.9</v>
       </c>
       <c r="D2755" t="s">
         <v>2757</v>
@@ -47611,7 +47899,7 @@
         <v>67</v>
       </c>
       <c r="C2756">
-        <v>5458.7</v>
+        <v>4650.9</v>
       </c>
       <c r="D2756" t="s">
         <v>2758</v>
@@ -47625,7 +47913,7 @@
         <v>68</v>
       </c>
       <c r="C2757">
-        <v>5528.7</v>
+        <v>4700.9</v>
       </c>
       <c r="D2757" t="s">
         <v>2759</v>
@@ -47639,7 +47927,7 @@
         <v>69</v>
       </c>
       <c r="C2758">
-        <v>5268.9</v>
+        <v>4425.7</v>
       </c>
       <c r="D2758" t="s">
         <v>2760</v>
@@ -47653,7 +47941,7 @@
         <v>70</v>
       </c>
       <c r="C2759">
-        <v>5358.9</v>
+        <v>4495.7</v>
       </c>
       <c r="D2759" t="s">
         <v>2761</v>
@@ -47667,7 +47955,7 @@
         <v>71</v>
       </c>
       <c r="C2760">
-        <v>5438.9</v>
+        <v>4555.7</v>
       </c>
       <c r="D2760" t="s">
         <v>2762</v>
@@ -47681,7 +47969,7 @@
         <v>72</v>
       </c>
       <c r="C2761">
-        <v>5518.9</v>
+        <v>4625.7</v>
       </c>
       <c r="D2761" t="s">
         <v>2763</v>
@@ -47695,7 +47983,7 @@
         <v>73</v>
       </c>
       <c r="C2762">
-        <v>5510.2</v>
+        <v>4283.5</v>
       </c>
       <c r="D2762" t="s">
         <v>2764</v>
@@ -47709,7 +47997,7 @@
         <v>74</v>
       </c>
       <c r="C2763">
-        <v>5580.2</v>
+        <v>4363.5</v>
       </c>
       <c r="D2763" t="s">
         <v>2765</v>
@@ -47723,7 +48011,7 @@
         <v>75</v>
       </c>
       <c r="C2764">
-        <v>5660.2</v>
+        <v>4443.5</v>
       </c>
       <c r="D2764" t="s">
         <v>2766</v>
@@ -47737,7 +48025,7 @@
         <v>76</v>
       </c>
       <c r="C2765">
-        <v>5760.2</v>
+        <v>4523.5</v>
       </c>
       <c r="D2765" t="s">
         <v>2767</v>
@@ -47751,7 +48039,7 @@
         <v>77</v>
       </c>
       <c r="C2766">
-        <v>5498.2</v>
+        <v>4388.7</v>
       </c>
       <c r="D2766" t="s">
         <v>2768</v>
@@ -47765,7 +48053,7 @@
         <v>78</v>
       </c>
       <c r="C2767">
-        <v>5608.2</v>
+        <v>4478.7</v>
       </c>
       <c r="D2767" t="s">
         <v>2769</v>
@@ -47779,7 +48067,7 @@
         <v>79</v>
       </c>
       <c r="C2768">
-        <v>5708.2</v>
+        <v>4558.7</v>
       </c>
       <c r="D2768" t="s">
         <v>2770</v>
@@ -47793,7 +48081,7 @@
         <v>80</v>
       </c>
       <c r="C2769">
-        <v>5798.2</v>
+        <v>4628.7</v>
       </c>
       <c r="D2769" t="s">
         <v>2771</v>
@@ -47807,7 +48095,7 @@
         <v>81</v>
       </c>
       <c r="C2770">
-        <v>5813.9</v>
+        <v>4440.2</v>
       </c>
       <c r="D2770" t="s">
         <v>2772</v>
@@ -47821,7 +48109,7 @@
         <v>82</v>
       </c>
       <c r="C2771">
-        <v>5903.9</v>
+        <v>4520.2</v>
       </c>
       <c r="D2771" t="s">
         <v>2773</v>
@@ -47835,7 +48123,7 @@
         <v>83</v>
       </c>
       <c r="C2772">
-        <v>5983.9</v>
+        <v>4600.2</v>
       </c>
       <c r="D2772" t="s">
         <v>2774</v>
@@ -47849,7 +48137,7 @@
         <v>84</v>
       </c>
       <c r="C2773">
-        <v>6083.9</v>
+        <v>4660.2</v>
       </c>
       <c r="D2773" t="s">
         <v>2775</v>
@@ -47863,7 +48151,7 @@
         <v>85</v>
       </c>
       <c r="C2774">
-        <v>6267.9</v>
+        <v>4774.4</v>
       </c>
       <c r="D2774" t="s">
         <v>2776</v>
@@ -47877,7 +48165,7 @@
         <v>86</v>
       </c>
       <c r="C2775">
-        <v>6247.9</v>
+        <v>4754.4</v>
       </c>
       <c r="D2775" t="s">
         <v>2777</v>
@@ -47891,7 +48179,7 @@
         <v>87</v>
       </c>
       <c r="C2776">
-        <v>6217.9</v>
+        <v>4694.4</v>
       </c>
       <c r="D2776" t="s">
         <v>2778</v>
@@ -47905,7 +48193,7 @@
         <v>88</v>
       </c>
       <c r="C2777">
-        <v>6127.9</v>
+        <v>4614.4</v>
       </c>
       <c r="D2777" t="s">
         <v>2779</v>
@@ -47919,7 +48207,7 @@
         <v>89</v>
       </c>
       <c r="C2778">
-        <v>6564.8</v>
+        <v>4707.9</v>
       </c>
       <c r="D2778" t="s">
         <v>2780</v>
@@ -47933,7 +48221,7 @@
         <v>90</v>
       </c>
       <c r="C2779">
-        <v>6464.8</v>
+        <v>4587.9</v>
       </c>
       <c r="D2779" t="s">
         <v>2781</v>
@@ -47947,7 +48235,7 @@
         <v>91</v>
       </c>
       <c r="C2780">
-        <v>6324.8</v>
+        <v>4447.9</v>
       </c>
       <c r="D2780" t="s">
         <v>2782</v>
@@ -47961,7 +48249,7 @@
         <v>92</v>
       </c>
       <c r="C2781">
-        <v>6134.8</v>
+        <v>4297.9</v>
       </c>
       <c r="D2781" t="s">
         <v>2783</v>
@@ -47975,7 +48263,7 @@
         <v>93</v>
       </c>
       <c r="C2782">
-        <v>6195.9</v>
+        <v>4875.2</v>
       </c>
       <c r="D2782" t="s">
         <v>2784</v>
@@ -47989,7 +48277,7 @@
         <v>94</v>
       </c>
       <c r="C2783">
-        <v>6005.9</v>
+        <v>4745.2</v>
       </c>
       <c r="D2783" t="s">
         <v>2785</v>
@@ -48003,7 +48291,7 @@
         <v>95</v>
       </c>
       <c r="C2784">
-        <v>5925.9</v>
+        <v>4625.2</v>
       </c>
       <c r="D2784" t="s">
         <v>2786</v>
@@ -48017,7 +48305,7 @@
         <v>96</v>
       </c>
       <c r="C2785">
-        <v>5815.9</v>
+        <v>4515.2</v>
       </c>
       <c r="D2785" t="s">
         <v>2787</v>
@@ -48031,7 +48319,7 @@
         <v>1</v>
       </c>
       <c r="C2786">
-        <v>5270</v>
+        <v>4611.8</v>
       </c>
       <c r="D2786" t="s">
         <v>2788</v>
@@ -48045,7 +48333,7 @@
         <v>2</v>
       </c>
       <c r="C2787">
-        <v>5230</v>
+        <v>4571.8</v>
       </c>
       <c r="D2787" t="s">
         <v>2789</v>
@@ -48059,7 +48347,7 @@
         <v>3</v>
       </c>
       <c r="C2788">
-        <v>5160</v>
+        <v>4511.8</v>
       </c>
       <c r="D2788" t="s">
         <v>2790</v>
@@ -48073,7 +48361,7 @@
         <v>4</v>
       </c>
       <c r="C2789">
-        <v>5100</v>
+        <v>4431.8</v>
       </c>
       <c r="D2789" t="s">
         <v>2791</v>
@@ -48087,7 +48375,7 @@
         <v>5</v>
       </c>
       <c r="C2790">
-        <v>4844.9</v>
+        <v>5193.7</v>
       </c>
       <c r="D2790" t="s">
         <v>2792</v>
@@ -48101,7 +48389,7 @@
         <v>6</v>
       </c>
       <c r="C2791">
-        <v>4804.9</v>
+        <v>5153.7</v>
       </c>
       <c r="D2791" t="s">
         <v>2793</v>
@@ -48115,7 +48403,7 @@
         <v>7</v>
       </c>
       <c r="C2792">
-        <v>4764.9</v>
+        <v>5113.7</v>
       </c>
       <c r="D2792" t="s">
         <v>2794</v>
@@ -48129,7 +48417,7 @@
         <v>8</v>
       </c>
       <c r="C2793">
-        <v>4714.9</v>
+        <v>5073.7</v>
       </c>
       <c r="D2793" t="s">
         <v>2795</v>
@@ -48143,7 +48431,7 @@
         <v>9</v>
       </c>
       <c r="C2794">
-        <v>4587.5</v>
+        <v>5189.6</v>
       </c>
       <c r="D2794" t="s">
         <v>2796</v>
@@ -48157,7 +48445,7 @@
         <v>10</v>
       </c>
       <c r="C2795">
-        <v>4547.5</v>
+        <v>5169.6</v>
       </c>
       <c r="D2795" t="s">
         <v>2797</v>
@@ -48171,7 +48459,7 @@
         <v>11</v>
       </c>
       <c r="C2796">
-        <v>4517.5</v>
+        <v>5159.6</v>
       </c>
       <c r="D2796" t="s">
         <v>2798</v>
@@ -48185,7 +48473,7 @@
         <v>12</v>
       </c>
       <c r="C2797">
-        <v>4507.5</v>
+        <v>5139.6</v>
       </c>
       <c r="D2797" t="s">
         <v>2799</v>
@@ -48199,7 +48487,7 @@
         <v>13</v>
       </c>
       <c r="C2798">
-        <v>4494.5</v>
+        <v>5020.9</v>
       </c>
       <c r="D2798" t="s">
         <v>2800</v>
@@ -48213,7 +48501,7 @@
         <v>14</v>
       </c>
       <c r="C2799">
-        <v>4494.5</v>
+        <v>5020.9</v>
       </c>
       <c r="D2799" t="s">
         <v>2801</v>
@@ -48227,7 +48515,7 @@
         <v>15</v>
       </c>
       <c r="C2800">
-        <v>4504.5</v>
+        <v>5020.9</v>
       </c>
       <c r="D2800" t="s">
         <v>2802</v>
@@ -48241,7 +48529,7 @@
         <v>16</v>
       </c>
       <c r="C2801">
-        <v>4504.5</v>
+        <v>5030.9</v>
       </c>
       <c r="D2801" t="s">
         <v>2803</v>
@@ -48255,7 +48543,7 @@
         <v>17</v>
       </c>
       <c r="C2802">
-        <v>4548.7</v>
+        <v>4909.1</v>
       </c>
       <c r="D2802" t="s">
         <v>2804</v>
@@ -48269,7 +48557,7 @@
         <v>18</v>
       </c>
       <c r="C2803">
-        <v>4558.7</v>
+        <v>4909.1</v>
       </c>
       <c r="D2803" t="s">
         <v>2805</v>
@@ -48283,7 +48571,7 @@
         <v>19</v>
       </c>
       <c r="C2804">
-        <v>4568.7</v>
+        <v>4909.1</v>
       </c>
       <c r="D2804" t="s">
         <v>2806</v>
@@ -48297,7 +48585,7 @@
         <v>20</v>
       </c>
       <c r="C2805">
-        <v>4588.7</v>
+        <v>4929.1</v>
       </c>
       <c r="D2805" t="s">
         <v>2807</v>
@@ -48311,7 +48599,7 @@
         <v>21</v>
       </c>
       <c r="C2806">
-        <v>4583.6</v>
+        <v>4854.8</v>
       </c>
       <c r="D2806" t="s">
         <v>2808</v>
@@ -48325,7 +48613,7 @@
         <v>22</v>
       </c>
       <c r="C2807">
-        <v>4633.6</v>
+        <v>4894.8</v>
       </c>
       <c r="D2807" t="s">
         <v>2809</v>
@@ -48339,7 +48627,7 @@
         <v>23</v>
       </c>
       <c r="C2808">
-        <v>4693.6</v>
+        <v>4954.8</v>
       </c>
       <c r="D2808" t="s">
         <v>2810</v>
@@ -48353,7 +48641,7 @@
         <v>24</v>
       </c>
       <c r="C2809">
-        <v>4783.6</v>
+        <v>5024.8</v>
       </c>
       <c r="D2809" t="s">
         <v>2811</v>
@@ -48367,7 +48655,7 @@
         <v>25</v>
       </c>
       <c r="C2810">
-        <v>4788.7</v>
+        <v>4921.3</v>
       </c>
       <c r="D2810" t="s">
         <v>2812</v>
@@ -48381,7 +48669,7 @@
         <v>26</v>
       </c>
       <c r="C2811">
-        <v>4898.7</v>
+        <v>5021.3</v>
       </c>
       <c r="D2811" t="s">
         <v>2813</v>
@@ -48395,7 +48683,7 @@
         <v>27</v>
       </c>
       <c r="C2812">
-        <v>5008.7</v>
+        <v>5131.3</v>
       </c>
       <c r="D2812" t="s">
         <v>2814</v>
@@ -48409,7 +48697,7 @@
         <v>28</v>
       </c>
       <c r="C2813">
-        <v>5128.7</v>
+        <v>5251.3</v>
       </c>
       <c r="D2813" t="s">
         <v>2815</v>
@@ -48423,7 +48711,7 @@
         <v>29</v>
       </c>
       <c r="C2814">
-        <v>4959.8</v>
+        <v>5205.8</v>
       </c>
       <c r="D2814" t="s">
         <v>2816</v>
@@ -48437,7 +48725,7 @@
         <v>30</v>
       </c>
       <c r="C2815">
-        <v>5059.8</v>
+        <v>5305.8</v>
       </c>
       <c r="D2815" t="s">
         <v>2817</v>
@@ -48451,7 +48739,7 @@
         <v>31</v>
       </c>
       <c r="C2816">
-        <v>5139.8</v>
+        <v>5385.8</v>
       </c>
       <c r="D2816" t="s">
         <v>2818</v>
@@ -48465,7 +48753,7 @@
         <v>32</v>
       </c>
       <c r="C2817">
-        <v>5209.8</v>
+        <v>5445.8</v>
       </c>
       <c r="D2817" t="s">
         <v>2819</v>
@@ -48479,7 +48767,7 @@
         <v>33</v>
       </c>
       <c r="C2818">
-        <v>5497.2</v>
+        <v>5367</v>
       </c>
       <c r="D2818" t="s">
         <v>2820</v>
@@ -48493,7 +48781,7 @@
         <v>34</v>
       </c>
       <c r="C2819">
-        <v>5527.2</v>
+        <v>5367</v>
       </c>
       <c r="D2819" t="s">
         <v>2821</v>
@@ -48507,7 +48795,7 @@
         <v>35</v>
       </c>
       <c r="C2820">
-        <v>5527.2</v>
+        <v>5357</v>
       </c>
       <c r="D2820" t="s">
         <v>2822</v>
@@ -48521,7 +48809,7 @@
         <v>36</v>
       </c>
       <c r="C2821">
-        <v>5517.2</v>
+        <v>5327</v>
       </c>
       <c r="D2821" t="s">
         <v>2823</v>
@@ -48535,7 +48823,7 @@
         <v>37</v>
       </c>
       <c r="C2822">
-        <v>5814.6</v>
+        <v>4881.5</v>
       </c>
       <c r="D2822" t="s">
         <v>2824</v>
@@ -48549,7 +48837,7 @@
         <v>38</v>
       </c>
       <c r="C2823">
-        <v>5754.6</v>
+        <v>4811.5</v>
       </c>
       <c r="D2823" t="s">
         <v>2825</v>
@@ -48563,7 +48851,7 @@
         <v>39</v>
       </c>
       <c r="C2824">
-        <v>5684.6</v>
+        <v>4731.5</v>
       </c>
       <c r="D2824" t="s">
         <v>2826</v>
@@ -48577,7 +48865,7 @@
         <v>40</v>
       </c>
       <c r="C2825">
-        <v>5604.6</v>
+        <v>4651.5</v>
       </c>
       <c r="D2825" t="s">
         <v>2827</v>
@@ -48591,7 +48879,7 @@
         <v>41</v>
       </c>
       <c r="C2826">
-        <v>5495.2</v>
+        <v>5003.4</v>
       </c>
       <c r="D2826" t="s">
         <v>2828</v>
@@ -48605,7 +48893,7 @@
         <v>42</v>
       </c>
       <c r="C2827">
-        <v>5415.2</v>
+        <v>4933.4</v>
       </c>
       <c r="D2827" t="s">
         <v>2829</v>
@@ -48619,7 +48907,7 @@
         <v>43</v>
       </c>
       <c r="C2828">
-        <v>5335.2</v>
+        <v>4873.4</v>
       </c>
       <c r="D2828" t="s">
         <v>2830</v>
@@ -48633,7 +48921,7 @@
         <v>44</v>
       </c>
       <c r="C2829">
-        <v>5265.2</v>
+        <v>4823.4</v>
       </c>
       <c r="D2829" t="s">
         <v>2831</v>
@@ -48647,7 +48935,7 @@
         <v>45</v>
       </c>
       <c r="C2830">
-        <v>5390.3</v>
+        <v>4924.4</v>
       </c>
       <c r="D2830" t="s">
         <v>2832</v>
@@ -48661,7 +48949,7 @@
         <v>46</v>
       </c>
       <c r="C2831">
-        <v>5340.3</v>
+        <v>4894.4</v>
       </c>
       <c r="D2831" t="s">
         <v>2833</v>
@@ -48675,7 +48963,7 @@
         <v>47</v>
       </c>
       <c r="C2832">
-        <v>5290.3</v>
+        <v>4864.4</v>
       </c>
       <c r="D2832" t="s">
         <v>2834</v>
@@ -48689,7 +48977,7 @@
         <v>48</v>
       </c>
       <c r="C2833">
-        <v>5240.3</v>
+        <v>4844.4</v>
       </c>
       <c r="D2833" t="s">
         <v>2835</v>
@@ -48703,7 +48991,7 @@
         <v>49</v>
       </c>
       <c r="C2834">
-        <v>5354.4</v>
+        <v>4794.2</v>
       </c>
       <c r="D2834" t="s">
         <v>2836</v>
@@ -48717,7 +49005,7 @@
         <v>50</v>
       </c>
       <c r="C2835">
-        <v>5314.4</v>
+        <v>4774.2</v>
       </c>
       <c r="D2835" t="s">
         <v>2837</v>
@@ -48731,7 +49019,7 @@
         <v>51</v>
       </c>
       <c r="C2836">
-        <v>5274.4</v>
+        <v>4754.2</v>
       </c>
       <c r="D2836" t="s">
         <v>2838</v>
@@ -48745,7 +49033,7 @@
         <v>52</v>
       </c>
       <c r="C2837">
-        <v>5234.4</v>
+        <v>4734.2</v>
       </c>
       <c r="D2837" t="s">
         <v>2839</v>
@@ -48759,7 +49047,7 @@
         <v>53</v>
       </c>
       <c r="C2838">
-        <v>5146.9</v>
+        <v>4637.4</v>
       </c>
       <c r="D2838" t="s">
         <v>2840</v>
@@ -48773,7 +49061,7 @@
         <v>54</v>
       </c>
       <c r="C2839">
-        <v>5116.9</v>
+        <v>4627.4</v>
       </c>
       <c r="D2839" t="s">
         <v>2841</v>
@@ -48787,7 +49075,7 @@
         <v>55</v>
       </c>
       <c r="C2840">
-        <v>5096.9</v>
+        <v>4637.4</v>
       </c>
       <c r="D2840" t="s">
         <v>2842</v>
@@ -48801,7 +49089,7 @@
         <v>56</v>
       </c>
       <c r="C2841">
-        <v>5076.9</v>
+        <v>4637.4</v>
       </c>
       <c r="D2841" t="s">
         <v>2843</v>
@@ -48815,7 +49103,7 @@
         <v>57</v>
       </c>
       <c r="C2842">
-        <v>5045.8</v>
+        <v>4589.1</v>
       </c>
       <c r="D2842" t="s">
         <v>2844</v>
@@ -48829,7 +49117,7 @@
         <v>58</v>
       </c>
       <c r="C2843">
-        <v>5045.8</v>
+        <v>4609.1</v>
       </c>
       <c r="D2843" t="s">
         <v>2845</v>
@@ -48843,7 +49131,7 @@
         <v>59</v>
       </c>
       <c r="C2844">
-        <v>5055.8</v>
+        <v>4629.1</v>
       </c>
       <c r="D2844" t="s">
         <v>2846</v>
@@ -48857,7 +49145,7 @@
         <v>60</v>
       </c>
       <c r="C2845">
-        <v>5065.8</v>
+        <v>4649.1</v>
       </c>
       <c r="D2845" t="s">
         <v>2847</v>
@@ -48871,7 +49159,7 @@
         <v>61</v>
       </c>
       <c r="C2846">
-        <v>5067.6</v>
+        <v>4582.5</v>
       </c>
       <c r="D2846" t="s">
         <v>2848</v>
@@ -48885,7 +49173,7 @@
         <v>62</v>
       </c>
       <c r="C2847">
-        <v>5077.6</v>
+        <v>4602.5</v>
       </c>
       <c r="D2847" t="s">
         <v>2849</v>
@@ -48899,7 +49187,7 @@
         <v>63</v>
       </c>
       <c r="C2848">
-        <v>5097.6</v>
+        <v>4622.5</v>
       </c>
       <c r="D2848" t="s">
         <v>2850</v>
@@ -48913,7 +49201,7 @@
         <v>64</v>
       </c>
       <c r="C2849">
-        <v>5127.6</v>
+        <v>4642.5</v>
       </c>
       <c r="D2849" t="s">
         <v>2851</v>
@@ -48927,7 +49215,7 @@
         <v>65</v>
       </c>
       <c r="C2850">
-        <v>5318.7</v>
+        <v>4580.9</v>
       </c>
       <c r="D2850" t="s">
         <v>2852</v>
@@ -48941,7 +49229,7 @@
         <v>66</v>
       </c>
       <c r="C2851">
-        <v>5368.7</v>
+        <v>4610.9</v>
       </c>
       <c r="D2851" t="s">
         <v>2853</v>
@@ -48955,7 +49243,7 @@
         <v>67</v>
       </c>
       <c r="C2852">
-        <v>5438.7</v>
+        <v>4660.9</v>
       </c>
       <c r="D2852" t="s">
         <v>2854</v>
@@ -48969,7 +49257,7 @@
         <v>68</v>
       </c>
       <c r="C2853">
-        <v>5528.7</v>
+        <v>4720.9</v>
       </c>
       <c r="D2853" t="s">
         <v>2855</v>
@@ -48983,7 +49271,7 @@
         <v>69</v>
       </c>
       <c r="C2854">
-        <v>5278.9</v>
+        <v>4445.7</v>
       </c>
       <c r="D2854" t="s">
         <v>2856</v>
@@ -48997,7 +49285,7 @@
         <v>70</v>
       </c>
       <c r="C2855">
-        <v>5378.9</v>
+        <v>4505.7</v>
       </c>
       <c r="D2855" t="s">
         <v>2857</v>
@@ -49011,7 +49299,7 @@
         <v>71</v>
       </c>
       <c r="C2856">
-        <v>5468.9</v>
+        <v>4565.7</v>
       </c>
       <c r="D2856" t="s">
         <v>2858</v>
@@ -49025,7 +49313,7 @@
         <v>72</v>
       </c>
       <c r="C2857">
-        <v>5558.9</v>
+        <v>4625.7</v>
       </c>
       <c r="D2857" t="s">
         <v>2859</v>
@@ -49039,7 +49327,7 @@
         <v>73</v>
       </c>
       <c r="C2858">
-        <v>5570.2</v>
+        <v>4283.5</v>
       </c>
       <c r="D2858" t="s">
         <v>2860</v>
@@ -49053,7 +49341,7 @@
         <v>74</v>
       </c>
       <c r="C2859">
-        <v>5660.2</v>
+        <v>4353.5</v>
       </c>
       <c r="D2859" t="s">
         <v>2861</v>
@@ -49067,7 +49355,7 @@
         <v>75</v>
       </c>
       <c r="C2860">
-        <v>5770.2</v>
+        <v>4423.5</v>
       </c>
       <c r="D2860" t="s">
         <v>2862</v>
@@ -49081,7 +49369,7 @@
         <v>76</v>
       </c>
       <c r="C2861">
-        <v>5880.2</v>
+        <v>4523.5</v>
       </c>
       <c r="D2861" t="s">
         <v>2863</v>
@@ -49095,7 +49383,7 @@
         <v>77</v>
       </c>
       <c r="C2862">
-        <v>5628.2</v>
+        <v>4398.7</v>
       </c>
       <c r="D2862" t="s">
         <v>2864</v>
@@ -49109,7 +49397,7 @@
         <v>78</v>
       </c>
       <c r="C2863">
-        <v>5748.2</v>
+        <v>4508.7</v>
       </c>
       <c r="D2863" t="s">
         <v>2865</v>
@@ -49123,7 +49411,7 @@
         <v>79</v>
       </c>
       <c r="C2864">
-        <v>5848.2</v>
+        <v>4608.7</v>
       </c>
       <c r="D2864" t="s">
         <v>2866</v>
@@ -49137,7 +49425,7 @@
         <v>80</v>
       </c>
       <c r="C2865">
-        <v>5928.2</v>
+        <v>4698.7</v>
       </c>
       <c r="D2865" t="s">
         <v>2867</v>
@@ -49151,7 +49439,7 @@
         <v>81</v>
       </c>
       <c r="C2866">
-        <v>5943.9</v>
+        <v>4510.2</v>
       </c>
       <c r="D2866" t="s">
         <v>2868</v>
@@ -49165,7 +49453,7 @@
         <v>82</v>
       </c>
       <c r="C2867">
-        <v>6043.9</v>
+        <v>4600.2</v>
       </c>
       <c r="D2867" t="s">
         <v>2869</v>
@@ -49179,7 +49467,7 @@
         <v>83</v>
       </c>
       <c r="C2868">
-        <v>6133.9</v>
+        <v>4660.2</v>
       </c>
       <c r="D2868" t="s">
         <v>2870</v>
@@ -49193,7 +49481,7 @@
         <v>84</v>
       </c>
       <c r="C2869">
-        <v>6253.9</v>
+        <v>4710.2</v>
       </c>
       <c r="D2869" t="s">
         <v>2871</v>
@@ -49207,7 +49495,7 @@
         <v>85</v>
       </c>
       <c r="C2870">
-        <v>6447.9</v>
+        <v>4794.4</v>
       </c>
       <c r="D2870" t="s">
         <v>2872</v>
@@ -49221,7 +49509,7 @@
         <v>86</v>
       </c>
       <c r="C2871">
-        <v>6437.9</v>
+        <v>4794.4</v>
       </c>
       <c r="D2871" t="s">
         <v>2873</v>
@@ -49235,7 +49523,7 @@
         <v>87</v>
       </c>
       <c r="C2872">
-        <v>6397.9</v>
+        <v>4774.4</v>
       </c>
       <c r="D2872" t="s">
         <v>2874</v>
@@ -49249,7 +49537,7 @@
         <v>88</v>
       </c>
       <c r="C2873">
-        <v>6267.9</v>
+        <v>4694.4</v>
       </c>
       <c r="D2873" t="s">
         <v>2875</v>
@@ -49263,7 +49551,7 @@
         <v>89</v>
       </c>
       <c r="C2874">
-        <v>6674.8</v>
+        <v>4767.9</v>
       </c>
       <c r="D2874" t="s">
         <v>2876</v>
@@ -49277,7 +49565,7 @@
         <v>90</v>
       </c>
       <c r="C2875">
-        <v>6544.8</v>
+        <v>4677.9</v>
       </c>
       <c r="D2875" t="s">
         <v>2877</v>
@@ -49291,7 +49579,7 @@
         <v>91</v>
       </c>
       <c r="C2876">
-        <v>6394.8</v>
+        <v>4527.9</v>
       </c>
       <c r="D2876" t="s">
         <v>2878</v>
@@ -49305,7 +49593,7 @@
         <v>92</v>
       </c>
       <c r="C2877">
-        <v>6214.8</v>
+        <v>4377.9</v>
       </c>
       <c r="D2877" t="s">
         <v>2879</v>
@@ -49319,7 +49607,7 @@
         <v>93</v>
       </c>
       <c r="C2878">
-        <v>6265.9</v>
+        <v>4915.2</v>
       </c>
       <c r="D2878" t="s">
         <v>2880</v>
@@ -49333,7 +49621,7 @@
         <v>94</v>
       </c>
       <c r="C2879">
-        <v>6045.9</v>
+        <v>4755.2</v>
       </c>
       <c r="D2879" t="s">
         <v>2881</v>
@@ -49347,7 +49635,7 @@
         <v>95</v>
       </c>
       <c r="C2880">
-        <v>5975.9</v>
+        <v>4665.2</v>
       </c>
       <c r="D2880" t="s">
         <v>2882</v>
@@ -49361,10 +49649,1354 @@
         <v>96</v>
       </c>
       <c r="C2881">
-        <v>5865.9</v>
+        <v>4555.2</v>
       </c>
       <c r="D2881" t="s">
         <v>2883</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:4">
+      <c r="A2882" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2882">
+        <v>1</v>
+      </c>
+      <c r="C2882">
+        <v>6110.9</v>
+      </c>
+      <c r="D2882" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:4">
+      <c r="A2883" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2883">
+        <v>2</v>
+      </c>
+      <c r="C2883">
+        <v>6070.9</v>
+      </c>
+      <c r="D2883" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:4">
+      <c r="A2884" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2884">
+        <v>3</v>
+      </c>
+      <c r="C2884">
+        <v>6010.9</v>
+      </c>
+      <c r="D2884" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:4">
+      <c r="A2885" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2885">
+        <v>4</v>
+      </c>
+      <c r="C2885">
+        <v>5920.9</v>
+      </c>
+      <c r="D2885" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:4">
+      <c r="A2886" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2886">
+        <v>5</v>
+      </c>
+      <c r="C2886">
+        <v>4925</v>
+      </c>
+      <c r="D2886" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:4">
+      <c r="A2887" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2887">
+        <v>6</v>
+      </c>
+      <c r="C2887">
+        <v>4855</v>
+      </c>
+      <c r="D2887" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:4">
+      <c r="A2888" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2888">
+        <v>7</v>
+      </c>
+      <c r="C2888">
+        <v>4795</v>
+      </c>
+      <c r="D2888" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:4">
+      <c r="A2889" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2889">
+        <v>8</v>
+      </c>
+      <c r="C2889">
+        <v>4755</v>
+      </c>
+      <c r="D2889" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:4">
+      <c r="A2890" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2890">
+        <v>9</v>
+      </c>
+      <c r="C2890">
+        <v>4683</v>
+      </c>
+      <c r="D2890" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:4">
+      <c r="A2891" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2891">
+        <v>10</v>
+      </c>
+      <c r="C2891">
+        <v>4653</v>
+      </c>
+      <c r="D2891" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:4">
+      <c r="A2892" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2892">
+        <v>11</v>
+      </c>
+      <c r="C2892">
+        <v>4643</v>
+      </c>
+      <c r="D2892" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:4">
+      <c r="A2893" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2893">
+        <v>12</v>
+      </c>
+      <c r="C2893">
+        <v>4613</v>
+      </c>
+      <c r="D2893" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:4">
+      <c r="A2894" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2894">
+        <v>13</v>
+      </c>
+      <c r="C2894">
+        <v>4638</v>
+      </c>
+      <c r="D2894" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:4">
+      <c r="A2895" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2895">
+        <v>14</v>
+      </c>
+      <c r="C2895">
+        <v>4638</v>
+      </c>
+      <c r="D2895" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:4">
+      <c r="A2896" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2896">
+        <v>15</v>
+      </c>
+      <c r="C2896">
+        <v>4638</v>
+      </c>
+      <c r="D2896" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:4">
+      <c r="A2897" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2897">
+        <v>16</v>
+      </c>
+      <c r="C2897">
+        <v>4638</v>
+      </c>
+      <c r="D2897" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:4">
+      <c r="A2898" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2898">
+        <v>17</v>
+      </c>
+      <c r="C2898">
+        <v>4627</v>
+      </c>
+      <c r="D2898" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:4">
+      <c r="A2899" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2899">
+        <v>18</v>
+      </c>
+      <c r="C2899">
+        <v>4627</v>
+      </c>
+      <c r="D2899" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:4">
+      <c r="A2900" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2900">
+        <v>19</v>
+      </c>
+      <c r="C2900">
+        <v>4627</v>
+      </c>
+      <c r="D2900" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:4">
+      <c r="A2901" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2901">
+        <v>20</v>
+      </c>
+      <c r="C2901">
+        <v>4627</v>
+      </c>
+      <c r="D2901" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:4">
+      <c r="A2902" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2902">
+        <v>21</v>
+      </c>
+      <c r="C2902">
+        <v>4667</v>
+      </c>
+      <c r="D2902" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:4">
+      <c r="A2903" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2903">
+        <v>22</v>
+      </c>
+      <c r="C2903">
+        <v>4687</v>
+      </c>
+      <c r="D2903" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:4">
+      <c r="A2904" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2904">
+        <v>23</v>
+      </c>
+      <c r="C2904">
+        <v>4707</v>
+      </c>
+      <c r="D2904" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:4">
+      <c r="A2905" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2905">
+        <v>24</v>
+      </c>
+      <c r="C2905">
+        <v>4727</v>
+      </c>
+      <c r="D2905" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:4">
+      <c r="A2906" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2906">
+        <v>25</v>
+      </c>
+      <c r="C2906">
+        <v>4927</v>
+      </c>
+      <c r="D2906" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:4">
+      <c r="A2907" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2907">
+        <v>26</v>
+      </c>
+      <c r="C2907">
+        <v>4957</v>
+      </c>
+      <c r="D2907" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:4">
+      <c r="A2908" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2908">
+        <v>27</v>
+      </c>
+      <c r="C2908">
+        <v>4987</v>
+      </c>
+      <c r="D2908" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:4">
+      <c r="A2909" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2909">
+        <v>28</v>
+      </c>
+      <c r="C2909">
+        <v>5017</v>
+      </c>
+      <c r="D2909" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:4">
+      <c r="A2910" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2910">
+        <v>29</v>
+      </c>
+      <c r="C2910">
+        <v>4986</v>
+      </c>
+      <c r="D2910" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:4">
+      <c r="A2911" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2911">
+        <v>30</v>
+      </c>
+      <c r="C2911">
+        <v>5016</v>
+      </c>
+      <c r="D2911" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:4">
+      <c r="A2912" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2912">
+        <v>31</v>
+      </c>
+      <c r="C2912">
+        <v>4986</v>
+      </c>
+      <c r="D2912" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:4">
+      <c r="A2913" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2913">
+        <v>32</v>
+      </c>
+      <c r="C2913">
+        <v>4976</v>
+      </c>
+      <c r="D2913" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:4">
+      <c r="A2914" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2914">
+        <v>33</v>
+      </c>
+      <c r="C2914">
+        <v>5029</v>
+      </c>
+      <c r="D2914" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:4">
+      <c r="A2915" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2915">
+        <v>34</v>
+      </c>
+      <c r="C2915">
+        <v>4989</v>
+      </c>
+      <c r="D2915" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:4">
+      <c r="A2916" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2916">
+        <v>35</v>
+      </c>
+      <c r="C2916">
+        <v>4929</v>
+      </c>
+      <c r="D2916" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:4">
+      <c r="A2917" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2917">
+        <v>36</v>
+      </c>
+      <c r="C2917">
+        <v>4869</v>
+      </c>
+      <c r="D2917" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:4">
+      <c r="A2918" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2918">
+        <v>37</v>
+      </c>
+      <c r="C2918">
+        <v>4775</v>
+      </c>
+      <c r="D2918" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:4">
+      <c r="A2919" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2919">
+        <v>38</v>
+      </c>
+      <c r="C2919">
+        <v>4705</v>
+      </c>
+      <c r="D2919" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:4">
+      <c r="A2920" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2920">
+        <v>39</v>
+      </c>
+      <c r="C2920">
+        <v>4645</v>
+      </c>
+      <c r="D2920" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:4">
+      <c r="A2921" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2921">
+        <v>40</v>
+      </c>
+      <c r="C2921">
+        <v>4585</v>
+      </c>
+      <c r="D2921" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:4">
+      <c r="A2922" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2922">
+        <v>41</v>
+      </c>
+      <c r="C2922">
+        <v>4678</v>
+      </c>
+      <c r="D2922" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:4">
+      <c r="A2923" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2923">
+        <v>42</v>
+      </c>
+      <c r="C2923">
+        <v>4628</v>
+      </c>
+      <c r="D2923" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:4">
+      <c r="A2924" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2924">
+        <v>43</v>
+      </c>
+      <c r="C2924">
+        <v>4588</v>
+      </c>
+      <c r="D2924" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:4">
+      <c r="A2925" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2925">
+        <v>44</v>
+      </c>
+      <c r="C2925">
+        <v>4568</v>
+      </c>
+      <c r="D2925" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:4">
+      <c r="A2926" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2926">
+        <v>45</v>
+      </c>
+      <c r="C2926">
+        <v>4683</v>
+      </c>
+      <c r="D2926" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:4">
+      <c r="A2927" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2927">
+        <v>46</v>
+      </c>
+      <c r="C2927">
+        <v>4673</v>
+      </c>
+      <c r="D2927" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:4">
+      <c r="A2928" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2928">
+        <v>47</v>
+      </c>
+      <c r="C2928">
+        <v>4653</v>
+      </c>
+      <c r="D2928" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:4">
+      <c r="A2929" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2929">
+        <v>48</v>
+      </c>
+      <c r="C2929">
+        <v>4643</v>
+      </c>
+      <c r="D2929" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:4">
+      <c r="A2930" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2930">
+        <v>49</v>
+      </c>
+      <c r="C2930">
+        <v>4546</v>
+      </c>
+      <c r="D2930" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:4">
+      <c r="A2931" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2931">
+        <v>50</v>
+      </c>
+      <c r="C2931">
+        <v>4536</v>
+      </c>
+      <c r="D2931" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:4">
+      <c r="A2932" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2932">
+        <v>51</v>
+      </c>
+      <c r="C2932">
+        <v>4526</v>
+      </c>
+      <c r="D2932" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:4">
+      <c r="A2933" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2933">
+        <v>52</v>
+      </c>
+      <c r="C2933">
+        <v>4506</v>
+      </c>
+      <c r="D2933" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:4">
+      <c r="A2934" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2934">
+        <v>53</v>
+      </c>
+      <c r="C2934">
+        <v>4410</v>
+      </c>
+      <c r="D2934" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:4">
+      <c r="A2935" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2935">
+        <v>54</v>
+      </c>
+      <c r="C2935">
+        <v>4410</v>
+      </c>
+      <c r="D2935" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:4">
+      <c r="A2936" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2936">
+        <v>55</v>
+      </c>
+      <c r="C2936">
+        <v>4410</v>
+      </c>
+      <c r="D2936" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:4">
+      <c r="A2937" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2937">
+        <v>56</v>
+      </c>
+      <c r="C2937">
+        <v>4410</v>
+      </c>
+      <c r="D2937" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:4">
+      <c r="A2938" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2938">
+        <v>57</v>
+      </c>
+      <c r="C2938">
+        <v>4473</v>
+      </c>
+      <c r="D2938" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:4">
+      <c r="A2939" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2939">
+        <v>58</v>
+      </c>
+      <c r="C2939">
+        <v>4493</v>
+      </c>
+      <c r="D2939" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:4">
+      <c r="A2940" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2940">
+        <v>59</v>
+      </c>
+      <c r="C2940">
+        <v>4503</v>
+      </c>
+      <c r="D2940" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:4">
+      <c r="A2941" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2941">
+        <v>60</v>
+      </c>
+      <c r="C2941">
+        <v>4523</v>
+      </c>
+      <c r="D2941" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:4">
+      <c r="A2942" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2942">
+        <v>61</v>
+      </c>
+      <c r="C2942">
+        <v>4513</v>
+      </c>
+      <c r="D2942" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:4">
+      <c r="A2943" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2943">
+        <v>62</v>
+      </c>
+      <c r="C2943">
+        <v>4533</v>
+      </c>
+      <c r="D2943" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:4">
+      <c r="A2944" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2944">
+        <v>63</v>
+      </c>
+      <c r="C2944">
+        <v>4563</v>
+      </c>
+      <c r="D2944" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:4">
+      <c r="A2945" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2945">
+        <v>64</v>
+      </c>
+      <c r="C2945">
+        <v>4593</v>
+      </c>
+      <c r="D2945" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:4">
+      <c r="A2946" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2946">
+        <v>65</v>
+      </c>
+      <c r="C2946">
+        <v>4679</v>
+      </c>
+      <c r="D2946" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:4">
+      <c r="A2947" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2947">
+        <v>66</v>
+      </c>
+      <c r="C2947">
+        <v>4729</v>
+      </c>
+      <c r="D2947" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:4">
+      <c r="A2948" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2948">
+        <v>67</v>
+      </c>
+      <c r="C2948">
+        <v>4799</v>
+      </c>
+      <c r="D2948" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:4">
+      <c r="A2949" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2949">
+        <v>68</v>
+      </c>
+      <c r="C2949">
+        <v>4879</v>
+      </c>
+      <c r="D2949" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:4">
+      <c r="A2950" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2950">
+        <v>69</v>
+      </c>
+      <c r="C2950">
+        <v>5114</v>
+      </c>
+      <c r="D2950" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:4">
+      <c r="A2951" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2951">
+        <v>70</v>
+      </c>
+      <c r="C2951">
+        <v>5194</v>
+      </c>
+      <c r="D2951" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:4">
+      <c r="A2952" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2952">
+        <v>71</v>
+      </c>
+      <c r="C2952">
+        <v>5264</v>
+      </c>
+      <c r="D2952" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:4">
+      <c r="A2953" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2953">
+        <v>72</v>
+      </c>
+      <c r="C2953">
+        <v>5344</v>
+      </c>
+      <c r="D2953" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:4">
+      <c r="A2954" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2954">
+        <v>73</v>
+      </c>
+      <c r="C2954">
+        <v>5193</v>
+      </c>
+      <c r="D2954" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:4">
+      <c r="A2955" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2955">
+        <v>74</v>
+      </c>
+      <c r="C2955">
+        <v>5273</v>
+      </c>
+      <c r="D2955" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:4">
+      <c r="A2956" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2956">
+        <v>75</v>
+      </c>
+      <c r="C2956">
+        <v>5373</v>
+      </c>
+      <c r="D2956" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:4">
+      <c r="A2957" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2957">
+        <v>76</v>
+      </c>
+      <c r="C2957">
+        <v>5473</v>
+      </c>
+      <c r="D2957" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:4">
+      <c r="A2958" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2958">
+        <v>77</v>
+      </c>
+      <c r="C2958">
+        <v>5408</v>
+      </c>
+      <c r="D2958" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:4">
+      <c r="A2959" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2959">
+        <v>78</v>
+      </c>
+      <c r="C2959">
+        <v>5518</v>
+      </c>
+      <c r="D2959" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:4">
+      <c r="A2960" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2960">
+        <v>79</v>
+      </c>
+      <c r="C2960">
+        <v>5628</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:4">
+      <c r="A2961" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2961">
+        <v>80</v>
+      </c>
+      <c r="C2961">
+        <v>5708</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:4">
+      <c r="A2962" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2962">
+        <v>81</v>
+      </c>
+      <c r="C2962">
+        <v>5784</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:4">
+      <c r="A2963" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2963">
+        <v>82</v>
+      </c>
+      <c r="C2963">
+        <v>5874</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:4">
+      <c r="A2964" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2964">
+        <v>83</v>
+      </c>
+      <c r="C2964">
+        <v>5944</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:4">
+      <c r="A2965" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2965">
+        <v>84</v>
+      </c>
+      <c r="C2965">
+        <v>6024</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:4">
+      <c r="A2966" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2966">
+        <v>85</v>
+      </c>
+      <c r="C2966">
+        <v>6069</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:4">
+      <c r="A2967" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2967">
+        <v>86</v>
+      </c>
+      <c r="C2967">
+        <v>6059</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:4">
+      <c r="A2968" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2968">
+        <v>87</v>
+      </c>
+      <c r="C2968">
+        <v>6059</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:4">
+      <c r="A2969" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2969">
+        <v>88</v>
+      </c>
+      <c r="C2969">
+        <v>6029</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:4">
+      <c r="A2970" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2970">
+        <v>89</v>
+      </c>
+      <c r="C2970">
+        <v>5962</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:4">
+      <c r="A2971" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2971">
+        <v>90</v>
+      </c>
+      <c r="C2971">
+        <v>5902</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:4">
+      <c r="A2972" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2972">
+        <v>91</v>
+      </c>
+      <c r="C2972">
+        <v>5782</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:4">
+      <c r="A2973" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2973">
+        <v>92</v>
+      </c>
+      <c r="C2973">
+        <v>5642</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:4">
+      <c r="A2974" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2974">
+        <v>93</v>
+      </c>
+      <c r="C2974">
+        <v>5446</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:4">
+      <c r="A2975" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2975">
+        <v>94</v>
+      </c>
+      <c r="C2975">
+        <v>5326</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:4">
+      <c r="A2976" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2976">
+        <v>95</v>
+      </c>
+      <c r="C2976">
+        <v>5216</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:4">
+      <c r="A2977" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B2977">
+        <v>96</v>
+      </c>
+      <c r="C2977">
+        <v>5116</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>2979</v>
       </c>
     </row>
   </sheetData>

--- a/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Production_2025.xlsx
+++ b/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Production_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="1060">
   <si>
     <t>Date</t>
   </si>
@@ -2906,6 +2906,294 @@
   </si>
   <si>
     <t>10.06.202596.0</t>
+  </si>
+  <si>
+    <t>11.06.20251.0</t>
+  </si>
+  <si>
+    <t>11.06.20252.0</t>
+  </si>
+  <si>
+    <t>11.06.20253.0</t>
+  </si>
+  <si>
+    <t>11.06.20254.0</t>
+  </si>
+  <si>
+    <t>11.06.20255.0</t>
+  </si>
+  <si>
+    <t>11.06.20256.0</t>
+  </si>
+  <si>
+    <t>11.06.20257.0</t>
+  </si>
+  <si>
+    <t>11.06.20258.0</t>
+  </si>
+  <si>
+    <t>11.06.20259.0</t>
+  </si>
+  <si>
+    <t>11.06.202510.0</t>
+  </si>
+  <si>
+    <t>11.06.202511.0</t>
+  </si>
+  <si>
+    <t>11.06.202512.0</t>
+  </si>
+  <si>
+    <t>11.06.202513.0</t>
+  </si>
+  <si>
+    <t>11.06.202514.0</t>
+  </si>
+  <si>
+    <t>11.06.202515.0</t>
+  </si>
+  <si>
+    <t>11.06.202516.0</t>
+  </si>
+  <si>
+    <t>11.06.202517.0</t>
+  </si>
+  <si>
+    <t>11.06.202518.0</t>
+  </si>
+  <si>
+    <t>11.06.202519.0</t>
+  </si>
+  <si>
+    <t>11.06.202520.0</t>
+  </si>
+  <si>
+    <t>11.06.202521.0</t>
+  </si>
+  <si>
+    <t>11.06.202522.0</t>
+  </si>
+  <si>
+    <t>11.06.202523.0</t>
+  </si>
+  <si>
+    <t>11.06.202524.0</t>
+  </si>
+  <si>
+    <t>11.06.202525.0</t>
+  </si>
+  <si>
+    <t>11.06.202526.0</t>
+  </si>
+  <si>
+    <t>11.06.202527.0</t>
+  </si>
+  <si>
+    <t>11.06.202528.0</t>
+  </si>
+  <si>
+    <t>11.06.202529.0</t>
+  </si>
+  <si>
+    <t>11.06.202530.0</t>
+  </si>
+  <si>
+    <t>11.06.202531.0</t>
+  </si>
+  <si>
+    <t>11.06.202532.0</t>
+  </si>
+  <si>
+    <t>11.06.202533.0</t>
+  </si>
+  <si>
+    <t>11.06.202534.0</t>
+  </si>
+  <si>
+    <t>11.06.202535.0</t>
+  </si>
+  <si>
+    <t>11.06.202536.0</t>
+  </si>
+  <si>
+    <t>11.06.202537.0</t>
+  </si>
+  <si>
+    <t>11.06.202538.0</t>
+  </si>
+  <si>
+    <t>11.06.202539.0</t>
+  </si>
+  <si>
+    <t>11.06.202540.0</t>
+  </si>
+  <si>
+    <t>11.06.202541.0</t>
+  </si>
+  <si>
+    <t>11.06.202542.0</t>
+  </si>
+  <si>
+    <t>11.06.202543.0</t>
+  </si>
+  <si>
+    <t>11.06.202544.0</t>
+  </si>
+  <si>
+    <t>11.06.202545.0</t>
+  </si>
+  <si>
+    <t>11.06.202546.0</t>
+  </si>
+  <si>
+    <t>11.06.202547.0</t>
+  </si>
+  <si>
+    <t>11.06.202548.0</t>
+  </si>
+  <si>
+    <t>11.06.202549.0</t>
+  </si>
+  <si>
+    <t>11.06.202550.0</t>
+  </si>
+  <si>
+    <t>11.06.202551.0</t>
+  </si>
+  <si>
+    <t>11.06.202552.0</t>
+  </si>
+  <si>
+    <t>11.06.202553.0</t>
+  </si>
+  <si>
+    <t>11.06.202554.0</t>
+  </si>
+  <si>
+    <t>11.06.202555.0</t>
+  </si>
+  <si>
+    <t>11.06.202556.0</t>
+  </si>
+  <si>
+    <t>11.06.202557.0</t>
+  </si>
+  <si>
+    <t>11.06.202558.0</t>
+  </si>
+  <si>
+    <t>11.06.202559.0</t>
+  </si>
+  <si>
+    <t>11.06.202560.0</t>
+  </si>
+  <si>
+    <t>11.06.202561.0</t>
+  </si>
+  <si>
+    <t>11.06.202562.0</t>
+  </si>
+  <si>
+    <t>11.06.202563.0</t>
+  </si>
+  <si>
+    <t>11.06.202564.0</t>
+  </si>
+  <si>
+    <t>11.06.202565.0</t>
+  </si>
+  <si>
+    <t>11.06.202566.0</t>
+  </si>
+  <si>
+    <t>11.06.202567.0</t>
+  </si>
+  <si>
+    <t>11.06.202568.0</t>
+  </si>
+  <si>
+    <t>11.06.202569.0</t>
+  </si>
+  <si>
+    <t>11.06.202570.0</t>
+  </si>
+  <si>
+    <t>11.06.202571.0</t>
+  </si>
+  <si>
+    <t>11.06.202572.0</t>
+  </si>
+  <si>
+    <t>11.06.202573.0</t>
+  </si>
+  <si>
+    <t>11.06.202574.0</t>
+  </si>
+  <si>
+    <t>11.06.202575.0</t>
+  </si>
+  <si>
+    <t>11.06.202576.0</t>
+  </si>
+  <si>
+    <t>11.06.202577.0</t>
+  </si>
+  <si>
+    <t>11.06.202578.0</t>
+  </si>
+  <si>
+    <t>11.06.202579.0</t>
+  </si>
+  <si>
+    <t>11.06.202580.0</t>
+  </si>
+  <si>
+    <t>11.06.202581.0</t>
+  </si>
+  <si>
+    <t>11.06.202582.0</t>
+  </si>
+  <si>
+    <t>11.06.202583.0</t>
+  </si>
+  <si>
+    <t>11.06.202584.0</t>
+  </si>
+  <si>
+    <t>11.06.202585.0</t>
+  </si>
+  <si>
+    <t>11.06.202586.0</t>
+  </si>
+  <si>
+    <t>11.06.202587.0</t>
+  </si>
+  <si>
+    <t>11.06.202588.0</t>
+  </si>
+  <si>
+    <t>11.06.202589.0</t>
+  </si>
+  <si>
+    <t>11.06.202590.0</t>
+  </si>
+  <si>
+    <t>11.06.202591.0</t>
+  </si>
+  <si>
+    <t>11.06.202592.0</t>
+  </si>
+  <si>
+    <t>11.06.202593.0</t>
+  </si>
+  <si>
+    <t>11.06.202594.0</t>
+  </si>
+  <si>
+    <t>11.06.202595.0</t>
+  </si>
+  <si>
+    <t>11.06.202596.0</t>
   </si>
 </sst>
 </file>
@@ -3267,7 +3555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D961"/>
+  <dimension ref="A1:D1057"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5983,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="C194">
-        <v>5182</v>
+        <v>4134.3</v>
       </c>
       <c r="D194" t="s">
         <v>196</v>
@@ -5997,7 +6285,7 @@
         <v>2</v>
       </c>
       <c r="C195">
-        <v>5132</v>
+        <v>4074.3</v>
       </c>
       <c r="D195" t="s">
         <v>197</v>
@@ -6011,7 +6299,7 @@
         <v>3</v>
       </c>
       <c r="C196">
-        <v>5082</v>
+        <v>4014.3</v>
       </c>
       <c r="D196" t="s">
         <v>198</v>
@@ -6025,7 +6313,7 @@
         <v>4</v>
       </c>
       <c r="C197">
-        <v>5062</v>
+        <v>3944.3</v>
       </c>
       <c r="D197" t="s">
         <v>199</v>
@@ -6039,7 +6327,7 @@
         <v>5</v>
       </c>
       <c r="C198">
-        <v>2083.8</v>
+        <v>4267.7</v>
       </c>
       <c r="D198" t="s">
         <v>200</v>
@@ -6053,7 +6341,7 @@
         <v>6</v>
       </c>
       <c r="C199">
-        <v>2033.8</v>
+        <v>4227.7</v>
       </c>
       <c r="D199" t="s">
         <v>201</v>
@@ -6067,7 +6355,7 @@
         <v>7</v>
       </c>
       <c r="C200">
-        <v>1993.8</v>
+        <v>4177.7</v>
       </c>
       <c r="D200" t="s">
         <v>202</v>
@@ -6081,7 +6369,7 @@
         <v>8</v>
       </c>
       <c r="C201">
-        <v>1953.8</v>
+        <v>4127.7</v>
       </c>
       <c r="D201" t="s">
         <v>203</v>
@@ -6095,7 +6383,7 @@
         <v>9</v>
       </c>
       <c r="C202">
-        <v>2252.4</v>
+        <v>4159.8</v>
       </c>
       <c r="D202" t="s">
         <v>204</v>
@@ -6109,7 +6397,7 @@
         <v>10</v>
       </c>
       <c r="C203">
-        <v>2212.4</v>
+        <v>4129.8</v>
       </c>
       <c r="D203" t="s">
         <v>205</v>
@@ -6123,7 +6411,7 @@
         <v>11</v>
       </c>
       <c r="C204">
-        <v>2192.4</v>
+        <v>4099.8</v>
       </c>
       <c r="D204" t="s">
         <v>206</v>
@@ -6137,7 +6425,7 @@
         <v>12</v>
       </c>
       <c r="C205">
-        <v>2172.4</v>
+        <v>4089.8</v>
       </c>
       <c r="D205" t="s">
         <v>207</v>
@@ -6151,7 +6439,7 @@
         <v>13</v>
       </c>
       <c r="C206">
-        <v>1851.5</v>
+        <v>4181.3</v>
       </c>
       <c r="D206" t="s">
         <v>208</v>
@@ -6165,7 +6453,7 @@
         <v>14</v>
       </c>
       <c r="C207">
-        <v>1871.5</v>
+        <v>4171.3</v>
       </c>
       <c r="D207" t="s">
         <v>209</v>
@@ -6179,7 +6467,7 @@
         <v>15</v>
       </c>
       <c r="C208">
-        <v>1871.5</v>
+        <v>4171.3</v>
       </c>
       <c r="D208" t="s">
         <v>210</v>
@@ -6193,7 +6481,7 @@
         <v>16</v>
       </c>
       <c r="C209">
-        <v>1881.5</v>
+        <v>4171.3</v>
       </c>
       <c r="D209" t="s">
         <v>211</v>
@@ -6207,7 +6495,7 @@
         <v>17</v>
       </c>
       <c r="C210">
-        <v>1936.6</v>
+        <v>4106.9</v>
       </c>
       <c r="D210" t="s">
         <v>212</v>
@@ -6221,7 +6509,7 @@
         <v>18</v>
       </c>
       <c r="C211">
-        <v>1946.6</v>
+        <v>4106.9</v>
       </c>
       <c r="D211" t="s">
         <v>213</v>
@@ -6235,7 +6523,7 @@
         <v>19</v>
       </c>
       <c r="C212">
-        <v>1966.6</v>
+        <v>4106.9</v>
       </c>
       <c r="D212" t="s">
         <v>214</v>
@@ -6249,7 +6537,7 @@
         <v>20</v>
       </c>
       <c r="C213">
-        <v>1986.6</v>
+        <v>4106.9</v>
       </c>
       <c r="D213" t="s">
         <v>215</v>
@@ -6263,7 +6551,7 @@
         <v>21</v>
       </c>
       <c r="C214">
-        <v>2249.1</v>
+        <v>4180.4</v>
       </c>
       <c r="D214" t="s">
         <v>216</v>
@@ -6277,7 +6565,7 @@
         <v>22</v>
       </c>
       <c r="C215">
-        <v>2299.1</v>
+        <v>4180.4</v>
       </c>
       <c r="D215" t="s">
         <v>217</v>
@@ -6291,7 +6579,7 @@
         <v>23</v>
       </c>
       <c r="C216">
-        <v>2359.1</v>
+        <v>4240.4</v>
       </c>
       <c r="D216" t="s">
         <v>218</v>
@@ -6305,7 +6593,7 @@
         <v>24</v>
       </c>
       <c r="C217">
-        <v>2439.1</v>
+        <v>4320.4</v>
       </c>
       <c r="D217" t="s">
         <v>219</v>
@@ -6319,7 +6607,7 @@
         <v>25</v>
       </c>
       <c r="C218">
-        <v>2391.1</v>
+        <v>4153.7</v>
       </c>
       <c r="D218" t="s">
         <v>220</v>
@@ -6333,7 +6621,7 @@
         <v>26</v>
       </c>
       <c r="C219">
-        <v>2491.1</v>
+        <v>4253.7</v>
       </c>
       <c r="D219" t="s">
         <v>221</v>
@@ -6347,7 +6635,7 @@
         <v>27</v>
       </c>
       <c r="C220">
-        <v>2581.1</v>
+        <v>4363.7</v>
       </c>
       <c r="D220" t="s">
         <v>222</v>
@@ -6361,7 +6649,7 @@
         <v>28</v>
       </c>
       <c r="C221">
-        <v>2681.1</v>
+        <v>4473.7</v>
       </c>
       <c r="D221" t="s">
         <v>223</v>
@@ -6375,7 +6663,7 @@
         <v>29</v>
       </c>
       <c r="C222">
-        <v>3625.2</v>
+        <v>4806.8</v>
       </c>
       <c r="D222" t="s">
         <v>224</v>
@@ -6389,7 +6677,7 @@
         <v>30</v>
       </c>
       <c r="C223">
-        <v>3705.2</v>
+        <v>4886.8</v>
       </c>
       <c r="D223" t="s">
         <v>225</v>
@@ -6403,7 +6691,7 @@
         <v>31</v>
       </c>
       <c r="C224">
-        <v>3755.2</v>
+        <v>4936.8</v>
       </c>
       <c r="D224" t="s">
         <v>226</v>
@@ -6417,7 +6705,7 @@
         <v>32</v>
       </c>
       <c r="C225">
-        <v>3765.2</v>
+        <v>4936.8</v>
       </c>
       <c r="D225" t="s">
         <v>227</v>
@@ -6431,7 +6719,7 @@
         <v>33</v>
       </c>
       <c r="C226">
-        <v>5387.1</v>
+        <v>5214.8</v>
       </c>
       <c r="D226" t="s">
         <v>228</v>
@@ -6445,7 +6733,7 @@
         <v>34</v>
       </c>
       <c r="C227">
-        <v>5387.1</v>
+        <v>5184.8</v>
       </c>
       <c r="D227" t="s">
         <v>229</v>
@@ -6459,7 +6747,7 @@
         <v>35</v>
       </c>
       <c r="C228">
-        <v>5357.1</v>
+        <v>5164.8</v>
       </c>
       <c r="D228" t="s">
         <v>230</v>
@@ -6473,7 +6761,7 @@
         <v>36</v>
       </c>
       <c r="C229">
-        <v>5287.1</v>
+        <v>5114.8</v>
       </c>
       <c r="D229" t="s">
         <v>231</v>
@@ -6487,7 +6775,7 @@
         <v>37</v>
       </c>
       <c r="C230">
-        <v>6856.5</v>
+        <v>5237.9</v>
       </c>
       <c r="D230" t="s">
         <v>232</v>
@@ -6501,7 +6789,7 @@
         <v>38</v>
       </c>
       <c r="C231">
-        <v>6766.5</v>
+        <v>5177.9</v>
       </c>
       <c r="D231" t="s">
         <v>233</v>
@@ -6515,7 +6803,7 @@
         <v>39</v>
       </c>
       <c r="C232">
-        <v>6656.5</v>
+        <v>5097.9</v>
       </c>
       <c r="D232" t="s">
         <v>234</v>
@@ -6529,7 +6817,7 @@
         <v>40</v>
       </c>
       <c r="C233">
-        <v>6556.5</v>
+        <v>5017.9</v>
       </c>
       <c r="D233" t="s">
         <v>235</v>
@@ -6543,7 +6831,7 @@
         <v>41</v>
       </c>
       <c r="C234">
-        <v>6491</v>
+        <v>5250.9</v>
       </c>
       <c r="D234" t="s">
         <v>236</v>
@@ -6557,7 +6845,7 @@
         <v>42</v>
       </c>
       <c r="C235">
-        <v>6391</v>
+        <v>5180.9</v>
       </c>
       <c r="D235" t="s">
         <v>237</v>
@@ -6571,7 +6859,7 @@
         <v>43</v>
       </c>
       <c r="C236">
-        <v>6311</v>
+        <v>5120.9</v>
       </c>
       <c r="D236" t="s">
         <v>238</v>
@@ -6585,7 +6873,7 @@
         <v>44</v>
       </c>
       <c r="C237">
-        <v>6231</v>
+        <v>5050.9</v>
       </c>
       <c r="D237" t="s">
         <v>239</v>
@@ -6599,7 +6887,7 @@
         <v>45</v>
       </c>
       <c r="C238">
-        <v>6457.4</v>
+        <v>5225.1</v>
       </c>
       <c r="D238" t="s">
         <v>240</v>
@@ -6613,7 +6901,7 @@
         <v>46</v>
       </c>
       <c r="C239">
-        <v>6407.4</v>
+        <v>5175.1</v>
       </c>
       <c r="D239" t="s">
         <v>241</v>
@@ -6627,7 +6915,7 @@
         <v>47</v>
       </c>
       <c r="C240">
-        <v>6367.4</v>
+        <v>5165.1</v>
       </c>
       <c r="D240" t="s">
         <v>242</v>
@@ -6641,7 +6929,7 @@
         <v>48</v>
       </c>
       <c r="C241">
-        <v>6327.4</v>
+        <v>5145.1</v>
       </c>
       <c r="D241" t="s">
         <v>243</v>
@@ -6655,7 +6943,7 @@
         <v>49</v>
       </c>
       <c r="C242">
-        <v>6082.1</v>
+        <v>5360.1</v>
       </c>
       <c r="D242" t="s">
         <v>244</v>
@@ -6669,7 +6957,7 @@
         <v>50</v>
       </c>
       <c r="C243">
-        <v>6052.1</v>
+        <v>5370.1</v>
       </c>
       <c r="D243" t="s">
         <v>245</v>
@@ -6683,7 +6971,7 @@
         <v>51</v>
       </c>
       <c r="C244">
-        <v>6042.1</v>
+        <v>5390.1</v>
       </c>
       <c r="D244" t="s">
         <v>246</v>
@@ -6697,7 +6985,7 @@
         <v>52</v>
       </c>
       <c r="C245">
-        <v>6032.1</v>
+        <v>5400.1</v>
       </c>
       <c r="D245" t="s">
         <v>247</v>
@@ -6711,7 +6999,7 @@
         <v>53</v>
       </c>
       <c r="C246">
-        <v>5225.3</v>
+        <v>5434.9</v>
       </c>
       <c r="D246" t="s">
         <v>248</v>
@@ -6725,7 +7013,7 @@
         <v>54</v>
       </c>
       <c r="C247">
-        <v>5225.3</v>
+        <v>5444.9</v>
       </c>
       <c r="D247" t="s">
         <v>249</v>
@@ -6739,7 +7027,7 @@
         <v>55</v>
       </c>
       <c r="C248">
-        <v>5325.3</v>
+        <v>5464.9</v>
       </c>
       <c r="D248" t="s">
         <v>250</v>
@@ -6753,7 +7041,7 @@
         <v>56</v>
       </c>
       <c r="C249">
-        <v>5335.3</v>
+        <v>5464.9</v>
       </c>
       <c r="D249" t="s">
         <v>251</v>
@@ -6767,7 +7055,7 @@
         <v>57</v>
       </c>
       <c r="C250">
-        <v>5112.2</v>
+        <v>5278.3</v>
       </c>
       <c r="D250" t="s">
         <v>252</v>
@@ -6781,7 +7069,7 @@
         <v>58</v>
       </c>
       <c r="C251">
-        <v>5122.2</v>
+        <v>5278.3</v>
       </c>
       <c r="D251" t="s">
         <v>253</v>
@@ -6795,7 +7083,7 @@
         <v>59</v>
       </c>
       <c r="C252">
-        <v>5132.2</v>
+        <v>5278.3</v>
       </c>
       <c r="D252" t="s">
         <v>254</v>
@@ -6809,7 +7097,7 @@
         <v>60</v>
       </c>
       <c r="C253">
-        <v>5152.2</v>
+        <v>5298.3</v>
       </c>
       <c r="D253" t="s">
         <v>255</v>
@@ -6823,7 +7111,7 @@
         <v>61</v>
       </c>
       <c r="C254">
-        <v>4828.5</v>
+        <v>5195.3</v>
       </c>
       <c r="D254" t="s">
         <v>256</v>
@@ -6837,7 +7125,7 @@
         <v>62</v>
       </c>
       <c r="C255">
-        <v>4898.5</v>
+        <v>5205.3</v>
       </c>
       <c r="D255" t="s">
         <v>257</v>
@@ -6851,7 +7139,7 @@
         <v>63</v>
       </c>
       <c r="C256">
-        <v>4928.5</v>
+        <v>5225.3</v>
       </c>
       <c r="D256" t="s">
         <v>258</v>
@@ -6865,7 +7153,7 @@
         <v>64</v>
       </c>
       <c r="C257">
-        <v>4968.5</v>
+        <v>5255.3</v>
       </c>
       <c r="D257" t="s">
         <v>259</v>
@@ -6879,7 +7167,7 @@
         <v>65</v>
       </c>
       <c r="C258">
-        <v>4869.3</v>
+        <v>4926.4</v>
       </c>
       <c r="D258" t="s">
         <v>260</v>
@@ -6893,7 +7181,7 @@
         <v>66</v>
       </c>
       <c r="C259">
-        <v>4939.3</v>
+        <v>4986.4</v>
       </c>
       <c r="D259" t="s">
         <v>261</v>
@@ -6907,7 +7195,7 @@
         <v>67</v>
       </c>
       <c r="C260">
-        <v>5019.3</v>
+        <v>5056.4</v>
       </c>
       <c r="D260" t="s">
         <v>262</v>
@@ -6921,7 +7209,7 @@
         <v>68</v>
       </c>
       <c r="C261">
-        <v>5119.3</v>
+        <v>5136.4</v>
       </c>
       <c r="D261" t="s">
         <v>263</v>
@@ -6935,7 +7223,7 @@
         <v>69</v>
       </c>
       <c r="C262">
-        <v>4061.7</v>
+        <v>4881.9</v>
       </c>
       <c r="D262" t="s">
         <v>264</v>
@@ -6949,7 +7237,7 @@
         <v>70</v>
       </c>
       <c r="C263">
-        <v>4161.7</v>
+        <v>4951.9</v>
       </c>
       <c r="D263" t="s">
         <v>265</v>
@@ -6963,7 +7251,7 @@
         <v>71</v>
       </c>
       <c r="C264">
-        <v>4261.7</v>
+        <v>5021.9</v>
       </c>
       <c r="D264" t="s">
         <v>266</v>
@@ -6977,7 +7265,7 @@
         <v>72</v>
       </c>
       <c r="C265">
-        <v>4351.7</v>
+        <v>5091.9</v>
       </c>
       <c r="D265" t="s">
         <v>267</v>
@@ -6991,7 +7279,7 @@
         <v>73</v>
       </c>
       <c r="C266">
-        <v>4271.6</v>
+        <v>4867.5</v>
       </c>
       <c r="D266" t="s">
         <v>268</v>
@@ -7005,7 +7293,7 @@
         <v>74</v>
       </c>
       <c r="C267">
-        <v>4371.6</v>
+        <v>4937.5</v>
       </c>
       <c r="D267" t="s">
         <v>269</v>
@@ -7019,7 +7307,7 @@
         <v>75</v>
       </c>
       <c r="C268">
-        <v>4431.6</v>
+        <v>5017.5</v>
       </c>
       <c r="D268" t="s">
         <v>270</v>
@@ -7033,7 +7321,7 @@
         <v>76</v>
       </c>
       <c r="C269">
-        <v>4561.6</v>
+        <v>5117.5</v>
       </c>
       <c r="D269" t="s">
         <v>271</v>
@@ -7047,7 +7335,7 @@
         <v>77</v>
       </c>
       <c r="C270">
-        <v>5090.2</v>
+        <v>5258.9</v>
       </c>
       <c r="D270" t="s">
         <v>272</v>
@@ -7061,7 +7349,7 @@
         <v>78</v>
       </c>
       <c r="C271">
-        <v>5240.2</v>
+        <v>5368.9</v>
       </c>
       <c r="D271" t="s">
         <v>273</v>
@@ -7075,7 +7363,7 @@
         <v>79</v>
       </c>
       <c r="C272">
-        <v>5380.2</v>
+        <v>5468.9</v>
       </c>
       <c r="D272" t="s">
         <v>274</v>
@@ -7089,7 +7377,7 @@
         <v>80</v>
       </c>
       <c r="C273">
-        <v>5500.2</v>
+        <v>5548.9</v>
       </c>
       <c r="D273" t="s">
         <v>275</v>
@@ -7103,7 +7391,7 @@
         <v>81</v>
       </c>
       <c r="C274">
-        <v>5808.1</v>
+        <v>5418.7</v>
       </c>
       <c r="D274" t="s">
         <v>276</v>
@@ -7117,7 +7405,7 @@
         <v>82</v>
       </c>
       <c r="C275">
-        <v>5928.1</v>
+        <v>5508.7</v>
       </c>
       <c r="D275" t="s">
         <v>277</v>
@@ -7131,7 +7419,7 @@
         <v>83</v>
       </c>
       <c r="C276">
-        <v>5958.1</v>
+        <v>5588.7</v>
       </c>
       <c r="D276" t="s">
         <v>278</v>
@@ -7145,7 +7433,7 @@
         <v>84</v>
       </c>
       <c r="C277">
-        <v>5958.1</v>
+        <v>5698.7</v>
       </c>
       <c r="D277" t="s">
         <v>279</v>
@@ -7159,7 +7447,7 @@
         <v>85</v>
       </c>
       <c r="C278">
-        <v>6037.6</v>
+        <v>5828.5</v>
       </c>
       <c r="D278" t="s">
         <v>280</v>
@@ -7173,7 +7461,7 @@
         <v>86</v>
       </c>
       <c r="C279">
-        <v>6037.6</v>
+        <v>5828.5</v>
       </c>
       <c r="D279" t="s">
         <v>281</v>
@@ -7187,7 +7475,7 @@
         <v>87</v>
       </c>
       <c r="C280">
-        <v>6007.6</v>
+        <v>5828.5</v>
       </c>
       <c r="D280" t="s">
         <v>282</v>
@@ -7201,7 +7489,7 @@
         <v>88</v>
       </c>
       <c r="C281">
-        <v>5927.6</v>
+        <v>5738.5</v>
       </c>
       <c r="D281" t="s">
         <v>283</v>
@@ -7215,7 +7503,7 @@
         <v>89</v>
       </c>
       <c r="C282">
-        <v>5966.4</v>
+        <v>6005.6</v>
       </c>
       <c r="D282" t="s">
         <v>284</v>
@@ -7229,7 +7517,7 @@
         <v>90</v>
       </c>
       <c r="C283">
-        <v>5876.4</v>
+        <v>5875.6</v>
       </c>
       <c r="D283" t="s">
         <v>285</v>
@@ -7243,7 +7531,7 @@
         <v>91</v>
       </c>
       <c r="C284">
-        <v>5716.4</v>
+        <v>5745.6</v>
       </c>
       <c r="D284" t="s">
         <v>286</v>
@@ -7257,7 +7545,7 @@
         <v>92</v>
       </c>
       <c r="C285">
-        <v>5556.4</v>
+        <v>5585.6</v>
       </c>
       <c r="D285" t="s">
         <v>287</v>
@@ -7271,7 +7559,7 @@
         <v>93</v>
       </c>
       <c r="C286">
-        <v>4962.7</v>
+        <v>5682.1</v>
       </c>
       <c r="D286" t="s">
         <v>288</v>
@@ -7285,7 +7573,7 @@
         <v>94</v>
       </c>
       <c r="C287">
-        <v>4782.7</v>
+        <v>5542.1</v>
       </c>
       <c r="D287" t="s">
         <v>289</v>
@@ -7299,7 +7587,7 @@
         <v>95</v>
       </c>
       <c r="C288">
-        <v>4702.7</v>
+        <v>5432.1</v>
       </c>
       <c r="D288" t="s">
         <v>290</v>
@@ -7313,7 +7601,7 @@
         <v>96</v>
       </c>
       <c r="C289">
-        <v>4592.7</v>
+        <v>5322.1</v>
       </c>
       <c r="D289" t="s">
         <v>291</v>
@@ -7327,7 +7615,7 @@
         <v>1</v>
       </c>
       <c r="C290">
-        <v>6100.9</v>
+        <v>5618.9</v>
       </c>
       <c r="D290" t="s">
         <v>292</v>
@@ -7341,7 +7629,7 @@
         <v>2</v>
       </c>
       <c r="C291">
-        <v>6000.9</v>
+        <v>5558.9</v>
       </c>
       <c r="D291" t="s">
         <v>293</v>
@@ -7355,7 +7643,7 @@
         <v>3</v>
       </c>
       <c r="C292">
-        <v>5930.9</v>
+        <v>5478.9</v>
       </c>
       <c r="D292" t="s">
         <v>294</v>
@@ -7369,7 +7657,7 @@
         <v>4</v>
       </c>
       <c r="C293">
-        <v>5870.9</v>
+        <v>5398.9</v>
       </c>
       <c r="D293" t="s">
         <v>295</v>
@@ -7383,7 +7671,7 @@
         <v>5</v>
       </c>
       <c r="C294">
-        <v>4925</v>
+        <v>5510.7</v>
       </c>
       <c r="D294" t="s">
         <v>296</v>
@@ -7397,7 +7685,7 @@
         <v>6</v>
       </c>
       <c r="C295">
-        <v>4885</v>
+        <v>5450.7</v>
       </c>
       <c r="D295" t="s">
         <v>297</v>
@@ -7411,7 +7699,7 @@
         <v>7</v>
       </c>
       <c r="C296">
-        <v>4835</v>
+        <v>5400.7</v>
       </c>
       <c r="D296" t="s">
         <v>298</v>
@@ -7425,7 +7713,7 @@
         <v>8</v>
       </c>
       <c r="C297">
-        <v>4785</v>
+        <v>5350.7</v>
       </c>
       <c r="D297" t="s">
         <v>299</v>
@@ -7439,7 +7727,7 @@
         <v>9</v>
       </c>
       <c r="C298">
-        <v>4713</v>
+        <v>5227.2</v>
       </c>
       <c r="D298" t="s">
         <v>300</v>
@@ -7453,7 +7741,7 @@
         <v>10</v>
       </c>
       <c r="C299">
-        <v>4673</v>
+        <v>5207.2</v>
       </c>
       <c r="D299" t="s">
         <v>301</v>
@@ -7467,7 +7755,7 @@
         <v>11</v>
       </c>
       <c r="C300">
-        <v>4653</v>
+        <v>5177.2</v>
       </c>
       <c r="D300" t="s">
         <v>302</v>
@@ -7481,7 +7769,7 @@
         <v>12</v>
       </c>
       <c r="C301">
-        <v>4633</v>
+        <v>5177.2</v>
       </c>
       <c r="D301" t="s">
         <v>303</v>
@@ -7495,7 +7783,7 @@
         <v>13</v>
       </c>
       <c r="C302">
-        <v>4638</v>
+        <v>5068.1</v>
       </c>
       <c r="D302" t="s">
         <v>304</v>
@@ -7509,7 +7797,7 @@
         <v>14</v>
       </c>
       <c r="C303">
-        <v>4628</v>
+        <v>5058.1</v>
       </c>
       <c r="D303" t="s">
         <v>305</v>
@@ -7523,7 +7811,7 @@
         <v>15</v>
       </c>
       <c r="C304">
-        <v>4628</v>
+        <v>5058.1</v>
       </c>
       <c r="D304" t="s">
         <v>306</v>
@@ -7537,7 +7825,7 @@
         <v>16</v>
       </c>
       <c r="C305">
-        <v>4618</v>
+        <v>5068.1</v>
       </c>
       <c r="D305" t="s">
         <v>307</v>
@@ -7551,7 +7839,7 @@
         <v>17</v>
       </c>
       <c r="C306">
-        <v>4607</v>
+        <v>5079.9</v>
       </c>
       <c r="D306" t="s">
         <v>308</v>
@@ -7565,7 +7853,7 @@
         <v>18</v>
       </c>
       <c r="C307">
-        <v>4597</v>
+        <v>5079.9</v>
       </c>
       <c r="D307" t="s">
         <v>309</v>
@@ -7579,7 +7867,7 @@
         <v>19</v>
       </c>
       <c r="C308">
-        <v>4607</v>
+        <v>5089.9</v>
       </c>
       <c r="D308" t="s">
         <v>310</v>
@@ -7593,7 +7881,7 @@
         <v>20</v>
       </c>
       <c r="C309">
-        <v>4627</v>
+        <v>5089.9</v>
       </c>
       <c r="D309" t="s">
         <v>311</v>
@@ -7607,7 +7895,7 @@
         <v>21</v>
       </c>
       <c r="C310">
-        <v>4697</v>
+        <v>5036.1</v>
       </c>
       <c r="D310" t="s">
         <v>312</v>
@@ -7621,7 +7909,7 @@
         <v>22</v>
       </c>
       <c r="C311">
-        <v>4757</v>
+        <v>5046.1</v>
       </c>
       <c r="D311" t="s">
         <v>313</v>
@@ -7635,7 +7923,7 @@
         <v>23</v>
       </c>
       <c r="C312">
-        <v>4827</v>
+        <v>5106.1</v>
       </c>
       <c r="D312" t="s">
         <v>314</v>
@@ -7649,7 +7937,7 @@
         <v>24</v>
       </c>
       <c r="C313">
-        <v>4907</v>
+        <v>5176.1</v>
       </c>
       <c r="D313" t="s">
         <v>315</v>
@@ -7663,7 +7951,7 @@
         <v>25</v>
       </c>
       <c r="C314">
-        <v>5167</v>
+        <v>5003.4</v>
       </c>
       <c r="D314" t="s">
         <v>316</v>
@@ -7677,7 +7965,7 @@
         <v>26</v>
       </c>
       <c r="C315">
-        <v>5247</v>
+        <v>5103.4</v>
       </c>
       <c r="D315" t="s">
         <v>317</v>
@@ -7691,7 +7979,7 @@
         <v>27</v>
       </c>
       <c r="C316">
-        <v>5327</v>
+        <v>5203.4</v>
       </c>
       <c r="D316" t="s">
         <v>318</v>
@@ -7705,7 +7993,7 @@
         <v>28</v>
       </c>
       <c r="C317">
-        <v>5397</v>
+        <v>5303.4</v>
       </c>
       <c r="D317" t="s">
         <v>319</v>
@@ -7719,7 +8007,7 @@
         <v>29</v>
       </c>
       <c r="C318">
-        <v>5406</v>
+        <v>5687.1</v>
       </c>
       <c r="D318" t="s">
         <v>320</v>
@@ -7733,7 +8021,7 @@
         <v>30</v>
       </c>
       <c r="C319">
-        <v>5446</v>
+        <v>5757.1</v>
       </c>
       <c r="D319" t="s">
         <v>321</v>
@@ -7747,7 +8035,7 @@
         <v>31</v>
       </c>
       <c r="C320">
-        <v>5466</v>
+        <v>5807.1</v>
       </c>
       <c r="D320" t="s">
         <v>322</v>
@@ -7761,7 +8049,7 @@
         <v>32</v>
       </c>
       <c r="C321">
-        <v>5466</v>
+        <v>5817.1</v>
       </c>
       <c r="D321" t="s">
         <v>323</v>
@@ -7775,7 +8063,7 @@
         <v>33</v>
       </c>
       <c r="C322">
-        <v>5529</v>
+        <v>5937.7</v>
       </c>
       <c r="D322" t="s">
         <v>324</v>
@@ -7789,7 +8077,7 @@
         <v>34</v>
       </c>
       <c r="C323">
-        <v>5499</v>
+        <v>5917.7</v>
       </c>
       <c r="D323" t="s">
         <v>325</v>
@@ -7803,7 +8091,7 @@
         <v>35</v>
       </c>
       <c r="C324">
-        <v>5439</v>
+        <v>5887.7</v>
       </c>
       <c r="D324" t="s">
         <v>326</v>
@@ -7817,7 +8105,7 @@
         <v>36</v>
       </c>
       <c r="C325">
-        <v>5379</v>
+        <v>5847.7</v>
       </c>
       <c r="D325" t="s">
         <v>327</v>
@@ -7831,7 +8119,7 @@
         <v>37</v>
       </c>
       <c r="C326">
-        <v>5265</v>
+        <v>5684.7</v>
       </c>
       <c r="D326" t="s">
         <v>328</v>
@@ -7845,7 +8133,7 @@
         <v>38</v>
       </c>
       <c r="C327">
-        <v>5175</v>
+        <v>5614.7</v>
       </c>
       <c r="D327" t="s">
         <v>329</v>
@@ -7859,7 +8147,7 @@
         <v>39</v>
       </c>
       <c r="C328">
-        <v>5085</v>
+        <v>5544.7</v>
       </c>
       <c r="D328" t="s">
         <v>330</v>
@@ -7873,7 +8161,7 @@
         <v>40</v>
       </c>
       <c r="C329">
-        <v>4985</v>
+        <v>5464.7</v>
       </c>
       <c r="D329" t="s">
         <v>331</v>
@@ -7887,7 +8175,7 @@
         <v>41</v>
       </c>
       <c r="C330">
-        <v>5038</v>
+        <v>5815.5</v>
       </c>
       <c r="D330" t="s">
         <v>332</v>
@@ -7901,7 +8189,7 @@
         <v>42</v>
       </c>
       <c r="C331">
-        <v>4948</v>
+        <v>5745.5</v>
       </c>
       <c r="D331" t="s">
         <v>333</v>
@@ -7915,7 +8203,7 @@
         <v>43</v>
       </c>
       <c r="C332">
-        <v>4868</v>
+        <v>5675.5</v>
       </c>
       <c r="D332" t="s">
         <v>334</v>
@@ -7929,7 +8217,7 @@
         <v>44</v>
       </c>
       <c r="C333">
-        <v>4798</v>
+        <v>5605.5</v>
       </c>
       <c r="D333" t="s">
         <v>335</v>
@@ -7943,7 +8231,7 @@
         <v>45</v>
       </c>
       <c r="C334">
-        <v>4893</v>
+        <v>5767.2</v>
       </c>
       <c r="D334" t="s">
         <v>336</v>
@@ -7957,7 +8245,7 @@
         <v>46</v>
       </c>
       <c r="C335">
-        <v>4843</v>
+        <v>5697.2</v>
       </c>
       <c r="D335" t="s">
         <v>337</v>
@@ -7971,7 +8259,7 @@
         <v>47</v>
       </c>
       <c r="C336">
-        <v>4803</v>
+        <v>5657.2</v>
       </c>
       <c r="D336" t="s">
         <v>338</v>
@@ -7985,7 +8273,7 @@
         <v>48</v>
       </c>
       <c r="C337">
-        <v>4773</v>
+        <v>5657.2</v>
       </c>
       <c r="D337" t="s">
         <v>339</v>
@@ -7999,7 +8287,7 @@
         <v>49</v>
       </c>
       <c r="C338">
-        <v>4676</v>
+        <v>5844.7</v>
       </c>
       <c r="D338" t="s">
         <v>340</v>
@@ -8013,7 +8301,7 @@
         <v>50</v>
       </c>
       <c r="C339">
-        <v>4646</v>
+        <v>5834.7</v>
       </c>
       <c r="D339" t="s">
         <v>341</v>
@@ -8027,7 +8315,7 @@
         <v>51</v>
       </c>
       <c r="C340">
-        <v>4616</v>
+        <v>5834.7</v>
       </c>
       <c r="D340" t="s">
         <v>342</v>
@@ -8041,7 +8329,7 @@
         <v>52</v>
       </c>
       <c r="C341">
-        <v>4596</v>
+        <v>5854.7</v>
       </c>
       <c r="D341" t="s">
         <v>343</v>
@@ -8055,7 +8343,7 @@
         <v>53</v>
       </c>
       <c r="C342">
-        <v>4490</v>
+        <v>5670.3</v>
       </c>
       <c r="D342" t="s">
         <v>344</v>
@@ -8069,7 +8357,7 @@
         <v>54</v>
       </c>
       <c r="C343">
-        <v>4480</v>
+        <v>5690.3</v>
       </c>
       <c r="D343" t="s">
         <v>345</v>
@@ -8083,7 +8371,7 @@
         <v>55</v>
       </c>
       <c r="C344">
-        <v>4470</v>
+        <v>5720.3</v>
       </c>
       <c r="D344" t="s">
         <v>346</v>
@@ -8097,7 +8385,7 @@
         <v>56</v>
       </c>
       <c r="C345">
-        <v>4480</v>
+        <v>5740.3</v>
       </c>
       <c r="D345" t="s">
         <v>347</v>
@@ -8111,7 +8399,7 @@
         <v>57</v>
       </c>
       <c r="C346">
-        <v>4543</v>
+        <v>5489</v>
       </c>
       <c r="D346" t="s">
         <v>348</v>
@@ -8125,7 +8413,7 @@
         <v>58</v>
       </c>
       <c r="C347">
-        <v>4553</v>
+        <v>5509</v>
       </c>
       <c r="D347" t="s">
         <v>349</v>
@@ -8139,7 +8427,7 @@
         <v>59</v>
       </c>
       <c r="C348">
-        <v>4583</v>
+        <v>5519</v>
       </c>
       <c r="D348" t="s">
         <v>350</v>
@@ -8153,7 +8441,7 @@
         <v>60</v>
       </c>
       <c r="C349">
-        <v>4603</v>
+        <v>5529</v>
       </c>
       <c r="D349" t="s">
         <v>351</v>
@@ -8167,7 +8455,7 @@
         <v>61</v>
       </c>
       <c r="C350">
-        <v>4593</v>
+        <v>5447</v>
       </c>
       <c r="D350" t="s">
         <v>352</v>
@@ -8181,7 +8469,7 @@
         <v>62</v>
       </c>
       <c r="C351">
-        <v>4613</v>
+        <v>5467</v>
       </c>
       <c r="D351" t="s">
         <v>353</v>
@@ -8195,7 +8483,7 @@
         <v>63</v>
       </c>
       <c r="C352">
-        <v>4643</v>
+        <v>5497</v>
       </c>
       <c r="D352" t="s">
         <v>354</v>
@@ -8209,7 +8497,7 @@
         <v>64</v>
       </c>
       <c r="C353">
-        <v>4673</v>
+        <v>5537</v>
       </c>
       <c r="D353" t="s">
         <v>355</v>
@@ -8223,7 +8511,7 @@
         <v>65</v>
       </c>
       <c r="C354">
-        <v>4759</v>
+        <v>5452</v>
       </c>
       <c r="D354" t="s">
         <v>356</v>
@@ -8237,7 +8525,7 @@
         <v>66</v>
       </c>
       <c r="C355">
-        <v>4839</v>
+        <v>5532</v>
       </c>
       <c r="D355" t="s">
         <v>357</v>
@@ -8251,7 +8539,7 @@
         <v>67</v>
       </c>
       <c r="C356">
-        <v>4929</v>
+        <v>5622</v>
       </c>
       <c r="D356" t="s">
         <v>358</v>
@@ -8265,7 +8553,7 @@
         <v>68</v>
       </c>
       <c r="C357">
-        <v>5049</v>
+        <v>5712</v>
       </c>
       <c r="D357" t="s">
         <v>359</v>
@@ -8279,7 +8567,7 @@
         <v>69</v>
       </c>
       <c r="C358">
-        <v>5324</v>
+        <v>5164.1</v>
       </c>
       <c r="D358" t="s">
         <v>360</v>
@@ -8293,7 +8581,7 @@
         <v>70</v>
       </c>
       <c r="C359">
-        <v>5454</v>
+        <v>5254.1</v>
       </c>
       <c r="D359" t="s">
         <v>361</v>
@@ -8307,7 +8595,7 @@
         <v>71</v>
       </c>
       <c r="C360">
-        <v>5574</v>
+        <v>5324.1</v>
       </c>
       <c r="D360" t="s">
         <v>362</v>
@@ -8321,7 +8609,7 @@
         <v>72</v>
       </c>
       <c r="C361">
-        <v>5694</v>
+        <v>5404.1</v>
       </c>
       <c r="D361" t="s">
         <v>363</v>
@@ -8335,7 +8623,7 @@
         <v>73</v>
       </c>
       <c r="C362">
-        <v>5583</v>
+        <v>5249.7</v>
       </c>
       <c r="D362" t="s">
         <v>364</v>
@@ -8349,7 +8637,7 @@
         <v>74</v>
       </c>
       <c r="C363">
-        <v>5693</v>
+        <v>5339.7</v>
       </c>
       <c r="D363" t="s">
         <v>365</v>
@@ -8363,7 +8651,7 @@
         <v>75</v>
       </c>
       <c r="C364">
-        <v>5813</v>
+        <v>5449.7</v>
       </c>
       <c r="D364" t="s">
         <v>366</v>
@@ -8377,7 +8665,7 @@
         <v>76</v>
       </c>
       <c r="C365">
-        <v>5953</v>
+        <v>5559.7</v>
       </c>
       <c r="D365" t="s">
         <v>367</v>
@@ -8391,7 +8679,7 @@
         <v>77</v>
       </c>
       <c r="C366">
-        <v>5918</v>
+        <v>5275.9</v>
       </c>
       <c r="D366" t="s">
         <v>368</v>
@@ -8405,7 +8693,7 @@
         <v>78</v>
       </c>
       <c r="C367">
-        <v>6078</v>
+        <v>5365.9</v>
       </c>
       <c r="D367" t="s">
         <v>369</v>
@@ -8419,7 +8707,7 @@
         <v>79</v>
       </c>
       <c r="C368">
-        <v>6208</v>
+        <v>5445.9</v>
       </c>
       <c r="D368" t="s">
         <v>370</v>
@@ -8433,7 +8721,7 @@
         <v>80</v>
       </c>
       <c r="C369">
-        <v>6308</v>
+        <v>5505.9</v>
       </c>
       <c r="D369" t="s">
         <v>371</v>
@@ -8447,7 +8735,7 @@
         <v>81</v>
       </c>
       <c r="C370">
-        <v>6394</v>
+        <v>4954.9</v>
       </c>
       <c r="D370" t="s">
         <v>372</v>
@@ -8461,7 +8749,7 @@
         <v>82</v>
       </c>
       <c r="C371">
-        <v>6464</v>
+        <v>5024.9</v>
       </c>
       <c r="D371" t="s">
         <v>373</v>
@@ -8475,7 +8763,7 @@
         <v>83</v>
       </c>
       <c r="C372">
-        <v>6524</v>
+        <v>5104.9</v>
       </c>
       <c r="D372" t="s">
         <v>374</v>
@@ -8489,7 +8777,7 @@
         <v>84</v>
       </c>
       <c r="C373">
-        <v>6604</v>
+        <v>5224.9</v>
       </c>
       <c r="D373" t="s">
         <v>375</v>
@@ -8503,7 +8791,7 @@
         <v>85</v>
       </c>
       <c r="C374">
-        <v>6659</v>
+        <v>5448.6</v>
       </c>
       <c r="D374" t="s">
         <v>376</v>
@@ -8517,7 +8805,7 @@
         <v>86</v>
       </c>
       <c r="C375">
-        <v>6639</v>
+        <v>5468.6</v>
       </c>
       <c r="D375" t="s">
         <v>377</v>
@@ -8531,7 +8819,7 @@
         <v>87</v>
       </c>
       <c r="C376">
-        <v>6609</v>
+        <v>5468.6</v>
       </c>
       <c r="D376" t="s">
         <v>378</v>
@@ -8545,7 +8833,7 @@
         <v>88</v>
       </c>
       <c r="C377">
-        <v>6519</v>
+        <v>5408.6</v>
       </c>
       <c r="D377" t="s">
         <v>379</v>
@@ -8559,7 +8847,7 @@
         <v>89</v>
       </c>
       <c r="C378">
-        <v>6392</v>
+        <v>5669.1</v>
       </c>
       <c r="D378" t="s">
         <v>380</v>
@@ -8573,7 +8861,7 @@
         <v>90</v>
       </c>
       <c r="C379">
-        <v>6312</v>
+        <v>5549.1</v>
       </c>
       <c r="D379" t="s">
         <v>381</v>
@@ -8587,7 +8875,7 @@
         <v>91</v>
       </c>
       <c r="C380">
-        <v>6182</v>
+        <v>5409.1</v>
       </c>
       <c r="D380" t="s">
         <v>382</v>
@@ -8601,7 +8889,7 @@
         <v>92</v>
       </c>
       <c r="C381">
-        <v>5992</v>
+        <v>5239.1</v>
       </c>
       <c r="D381" t="s">
         <v>383</v>
@@ -8615,7 +8903,7 @@
         <v>93</v>
       </c>
       <c r="C382">
-        <v>5646</v>
+        <v>5570.6</v>
       </c>
       <c r="D382" t="s">
         <v>384</v>
@@ -8629,7 +8917,7 @@
         <v>94</v>
       </c>
       <c r="C383">
-        <v>5496</v>
+        <v>5410.6</v>
       </c>
       <c r="D383" t="s">
         <v>385</v>
@@ -8643,7 +8931,7 @@
         <v>95</v>
       </c>
       <c r="C384">
-        <v>5396</v>
+        <v>5310.6</v>
       </c>
       <c r="D384" t="s">
         <v>386</v>
@@ -8657,7 +8945,7 @@
         <v>96</v>
       </c>
       <c r="C385">
-        <v>5356</v>
+        <v>5200.6</v>
       </c>
       <c r="D385" t="s">
         <v>387</v>
@@ -8671,7 +8959,7 @@
         <v>1</v>
       </c>
       <c r="C386">
-        <v>6160.9</v>
+        <v>5532.5</v>
       </c>
       <c r="D386" t="s">
         <v>388</v>
@@ -8685,7 +8973,7 @@
         <v>2</v>
       </c>
       <c r="C387">
-        <v>6060.9</v>
+        <v>5452.5</v>
       </c>
       <c r="D387" t="s">
         <v>389</v>
@@ -8699,7 +8987,7 @@
         <v>3</v>
       </c>
       <c r="C388">
-        <v>5990.9</v>
+        <v>5392.5</v>
       </c>
       <c r="D388" t="s">
         <v>390</v>
@@ -8713,7 +9001,7 @@
         <v>4</v>
       </c>
       <c r="C389">
-        <v>5930.9</v>
+        <v>5312.5</v>
       </c>
       <c r="D389" t="s">
         <v>391</v>
@@ -8727,7 +9015,7 @@
         <v>5</v>
       </c>
       <c r="C390">
-        <v>4985</v>
+        <v>4338.3</v>
       </c>
       <c r="D390" t="s">
         <v>392</v>
@@ -8741,7 +9029,7 @@
         <v>6</v>
       </c>
       <c r="C391">
-        <v>4945</v>
+        <v>4268.3</v>
       </c>
       <c r="D391" t="s">
         <v>393</v>
@@ -8755,7 +9043,7 @@
         <v>7</v>
       </c>
       <c r="C392">
-        <v>4895</v>
+        <v>4218.3</v>
       </c>
       <c r="D392" t="s">
         <v>394</v>
@@ -8769,7 +9057,7 @@
         <v>8</v>
       </c>
       <c r="C393">
-        <v>4845</v>
+        <v>4168.3</v>
       </c>
       <c r="D393" t="s">
         <v>395</v>
@@ -8783,7 +9071,7 @@
         <v>9</v>
       </c>
       <c r="C394">
-        <v>4773</v>
+        <v>3759.9</v>
       </c>
       <c r="D394" t="s">
         <v>396</v>
@@ -8797,7 +9085,7 @@
         <v>10</v>
       </c>
       <c r="C395">
-        <v>4733</v>
+        <v>3729.9</v>
       </c>
       <c r="D395" t="s">
         <v>397</v>
@@ -8811,7 +9099,7 @@
         <v>11</v>
       </c>
       <c r="C396">
-        <v>4713</v>
+        <v>3719.9</v>
       </c>
       <c r="D396" t="s">
         <v>398</v>
@@ -8825,7 +9113,7 @@
         <v>12</v>
       </c>
       <c r="C397">
-        <v>4693</v>
+        <v>3709.9</v>
       </c>
       <c r="D397" t="s">
         <v>399</v>
@@ -8839,7 +9127,7 @@
         <v>13</v>
       </c>
       <c r="C398">
-        <v>4698</v>
+        <v>3769.4</v>
       </c>
       <c r="D398" t="s">
         <v>400</v>
@@ -8853,7 +9141,7 @@
         <v>14</v>
       </c>
       <c r="C399">
-        <v>4688</v>
+        <v>3769.4</v>
       </c>
       <c r="D399" t="s">
         <v>401</v>
@@ -8867,7 +9155,7 @@
         <v>15</v>
       </c>
       <c r="C400">
-        <v>4688</v>
+        <v>3769.4</v>
       </c>
       <c r="D400" t="s">
         <v>402</v>
@@ -8881,7 +9169,7 @@
         <v>16</v>
       </c>
       <c r="C401">
-        <v>4678</v>
+        <v>3769.4</v>
       </c>
       <c r="D401" t="s">
         <v>403</v>
@@ -8895,7 +9183,7 @@
         <v>17</v>
       </c>
       <c r="C402">
-        <v>4667</v>
+        <v>3699.1</v>
       </c>
       <c r="D402" t="s">
         <v>404</v>
@@ -8909,7 +9197,7 @@
         <v>18</v>
       </c>
       <c r="C403">
-        <v>4657</v>
+        <v>3699.1</v>
       </c>
       <c r="D403" t="s">
         <v>405</v>
@@ -8923,7 +9211,7 @@
         <v>19</v>
       </c>
       <c r="C404">
-        <v>4667</v>
+        <v>3699.1</v>
       </c>
       <c r="D404" t="s">
         <v>406</v>
@@ -8937,7 +9225,7 @@
         <v>20</v>
       </c>
       <c r="C405">
-        <v>4687</v>
+        <v>3689.1</v>
       </c>
       <c r="D405" t="s">
         <v>407</v>
@@ -8951,7 +9239,7 @@
         <v>21</v>
       </c>
       <c r="C406">
-        <v>4757</v>
+        <v>3825.8</v>
       </c>
       <c r="D406" t="s">
         <v>408</v>
@@ -8965,7 +9253,7 @@
         <v>22</v>
       </c>
       <c r="C407">
-        <v>4817</v>
+        <v>3825.8</v>
       </c>
       <c r="D407" t="s">
         <v>409</v>
@@ -8979,7 +9267,7 @@
         <v>23</v>
       </c>
       <c r="C408">
-        <v>4887</v>
+        <v>3845.8</v>
       </c>
       <c r="D408" t="s">
         <v>410</v>
@@ -8993,7 +9281,7 @@
         <v>24</v>
       </c>
       <c r="C409">
-        <v>4967</v>
+        <v>3895.8</v>
       </c>
       <c r="D409" t="s">
         <v>411</v>
@@ -9007,7 +9295,7 @@
         <v>25</v>
       </c>
       <c r="C410">
-        <v>5227</v>
+        <v>4014.7</v>
       </c>
       <c r="D410" t="s">
         <v>412</v>
@@ -9021,7 +9309,7 @@
         <v>26</v>
       </c>
       <c r="C411">
-        <v>5307</v>
+        <v>4114.7</v>
       </c>
       <c r="D411" t="s">
         <v>413</v>
@@ -9035,7 +9323,7 @@
         <v>27</v>
       </c>
       <c r="C412">
-        <v>5387</v>
+        <v>4214.7</v>
       </c>
       <c r="D412" t="s">
         <v>414</v>
@@ -9049,7 +9337,7 @@
         <v>28</v>
       </c>
       <c r="C413">
-        <v>5457</v>
+        <v>4344.7</v>
       </c>
       <c r="D413" t="s">
         <v>415</v>
@@ -9063,7 +9351,7 @@
         <v>29</v>
       </c>
       <c r="C414">
-        <v>5466</v>
+        <v>5378.5</v>
       </c>
       <c r="D414" t="s">
         <v>416</v>
@@ -9077,7 +9365,7 @@
         <v>30</v>
       </c>
       <c r="C415">
-        <v>5506</v>
+        <v>5478.5</v>
       </c>
       <c r="D415" t="s">
         <v>417</v>
@@ -9091,7 +9379,7 @@
         <v>31</v>
       </c>
       <c r="C416">
-        <v>5526</v>
+        <v>5558.5</v>
       </c>
       <c r="D416" t="s">
         <v>418</v>
@@ -9105,7 +9393,7 @@
         <v>32</v>
       </c>
       <c r="C417">
-        <v>5526</v>
+        <v>5618.5</v>
       </c>
       <c r="D417" t="s">
         <v>419</v>
@@ -9119,7 +9407,7 @@
         <v>33</v>
       </c>
       <c r="C418">
-        <v>5589</v>
+        <v>6788.7</v>
       </c>
       <c r="D418" t="s">
         <v>420</v>
@@ -9133,7 +9421,7 @@
         <v>34</v>
       </c>
       <c r="C419">
-        <v>5559</v>
+        <v>6788.7</v>
       </c>
       <c r="D419" t="s">
         <v>421</v>
@@ -9147,7 +9435,7 @@
         <v>35</v>
       </c>
       <c r="C420">
-        <v>5499</v>
+        <v>6768.7</v>
       </c>
       <c r="D420" t="s">
         <v>422</v>
@@ -9161,7 +9449,7 @@
         <v>36</v>
       </c>
       <c r="C421">
-        <v>5439</v>
+        <v>6718.7</v>
       </c>
       <c r="D421" t="s">
         <v>423</v>
@@ -9175,7 +9463,7 @@
         <v>37</v>
       </c>
       <c r="C422">
-        <v>5325</v>
+        <v>7340.8</v>
       </c>
       <c r="D422" t="s">
         <v>424</v>
@@ -9189,7 +9477,7 @@
         <v>38</v>
       </c>
       <c r="C423">
-        <v>5235</v>
+        <v>7260.8</v>
       </c>
       <c r="D423" t="s">
         <v>425</v>
@@ -9203,7 +9491,7 @@
         <v>39</v>
       </c>
       <c r="C424">
-        <v>5145</v>
+        <v>7170.8</v>
       </c>
       <c r="D424" t="s">
         <v>426</v>
@@ -9217,7 +9505,7 @@
         <v>40</v>
       </c>
       <c r="C425">
-        <v>5045</v>
+        <v>7070.8</v>
       </c>
       <c r="D425" t="s">
         <v>427</v>
@@ -9231,7 +9519,7 @@
         <v>41</v>
       </c>
       <c r="C426">
-        <v>5098</v>
+        <v>7280.6</v>
       </c>
       <c r="D426" t="s">
         <v>428</v>
@@ -9245,7 +9533,7 @@
         <v>42</v>
       </c>
       <c r="C427">
-        <v>5008</v>
+        <v>7190.6</v>
       </c>
       <c r="D427" t="s">
         <v>429</v>
@@ -9259,7 +9547,7 @@
         <v>43</v>
       </c>
       <c r="C428">
-        <v>4928</v>
+        <v>7110.6</v>
       </c>
       <c r="D428" t="s">
         <v>430</v>
@@ -9273,7 +9561,7 @@
         <v>44</v>
       </c>
       <c r="C429">
-        <v>4858</v>
+        <v>7040.6</v>
       </c>
       <c r="D429" t="s">
         <v>431</v>
@@ -9287,7 +9575,7 @@
         <v>45</v>
       </c>
       <c r="C430">
-        <v>4953</v>
+        <v>7033.6</v>
       </c>
       <c r="D430" t="s">
         <v>432</v>
@@ -9301,7 +9589,7 @@
         <v>46</v>
       </c>
       <c r="C431">
-        <v>4903</v>
+        <v>6993.6</v>
       </c>
       <c r="D431" t="s">
         <v>433</v>
@@ -9315,7 +9603,7 @@
         <v>47</v>
       </c>
       <c r="C432">
-        <v>4863</v>
+        <v>6973.6</v>
       </c>
       <c r="D432" t="s">
         <v>434</v>
@@ -9329,7 +9617,7 @@
         <v>48</v>
       </c>
       <c r="C433">
-        <v>4833</v>
+        <v>6973.6</v>
       </c>
       <c r="D433" t="s">
         <v>435</v>
@@ -9343,7 +9631,7 @@
         <v>49</v>
       </c>
       <c r="C434">
-        <v>4736</v>
+        <v>6505.6</v>
       </c>
       <c r="D434" t="s">
         <v>436</v>
@@ -9357,7 +9645,7 @@
         <v>50</v>
       </c>
       <c r="C435">
-        <v>4706</v>
+        <v>6505.6</v>
       </c>
       <c r="D435" t="s">
         <v>437</v>
@@ -9371,7 +9659,7 @@
         <v>51</v>
       </c>
       <c r="C436">
-        <v>4676</v>
+        <v>6515.6</v>
       </c>
       <c r="D436" t="s">
         <v>438</v>
@@ -9385,7 +9673,7 @@
         <v>52</v>
       </c>
       <c r="C437">
-        <v>4656</v>
+        <v>6535.6</v>
       </c>
       <c r="D437" t="s">
         <v>439</v>
@@ -9399,7 +9687,7 @@
         <v>53</v>
       </c>
       <c r="C438">
-        <v>4550</v>
+        <v>6232.2</v>
       </c>
       <c r="D438" t="s">
         <v>440</v>
@@ -9413,7 +9701,7 @@
         <v>54</v>
       </c>
       <c r="C439">
-        <v>4540</v>
+        <v>6252.2</v>
       </c>
       <c r="D439" t="s">
         <v>441</v>
@@ -9427,7 +9715,7 @@
         <v>55</v>
       </c>
       <c r="C440">
-        <v>4530</v>
+        <v>6272.2</v>
       </c>
       <c r="D440" t="s">
         <v>442</v>
@@ -9441,7 +9729,7 @@
         <v>56</v>
       </c>
       <c r="C441">
-        <v>4540</v>
+        <v>6282.2</v>
       </c>
       <c r="D441" t="s">
         <v>443</v>
@@ -9455,7 +9743,7 @@
         <v>57</v>
       </c>
       <c r="C442">
-        <v>4603</v>
+        <v>5190.9</v>
       </c>
       <c r="D442" t="s">
         <v>444</v>
@@ -9469,7 +9757,7 @@
         <v>58</v>
       </c>
       <c r="C443">
-        <v>4613</v>
+        <v>5210.9</v>
       </c>
       <c r="D443" t="s">
         <v>445</v>
@@ -9483,7 +9771,7 @@
         <v>59</v>
       </c>
       <c r="C444">
-        <v>4643</v>
+        <v>5220.9</v>
       </c>
       <c r="D444" t="s">
         <v>446</v>
@@ -9497,7 +9785,7 @@
         <v>60</v>
       </c>
       <c r="C445">
-        <v>4663</v>
+        <v>5230.9</v>
       </c>
       <c r="D445" t="s">
         <v>447</v>
@@ -9511,7 +9799,7 @@
         <v>61</v>
       </c>
       <c r="C446">
-        <v>4653</v>
+        <v>4699.2</v>
       </c>
       <c r="D446" t="s">
         <v>448</v>
@@ -9525,7 +9813,7 @@
         <v>62</v>
       </c>
       <c r="C447">
-        <v>4673</v>
+        <v>4709.2</v>
       </c>
       <c r="D447" t="s">
         <v>449</v>
@@ -9539,7 +9827,7 @@
         <v>63</v>
       </c>
       <c r="C448">
-        <v>4703</v>
+        <v>4739.2</v>
       </c>
       <c r="D448" t="s">
         <v>450</v>
@@ -9553,7 +9841,7 @@
         <v>64</v>
       </c>
       <c r="C449">
-        <v>4733</v>
+        <v>4779.2</v>
       </c>
       <c r="D449" t="s">
         <v>451</v>
@@ -9567,7 +9855,7 @@
         <v>65</v>
       </c>
       <c r="C450">
-        <v>4819</v>
+        <v>5938.8</v>
       </c>
       <c r="D450" t="s">
         <v>452</v>
@@ -9581,7 +9869,7 @@
         <v>66</v>
       </c>
       <c r="C451">
-        <v>4899</v>
+        <v>6018.8</v>
       </c>
       <c r="D451" t="s">
         <v>453</v>
@@ -9595,7 +9883,7 @@
         <v>67</v>
       </c>
       <c r="C452">
-        <v>4989</v>
+        <v>6108.8</v>
       </c>
       <c r="D452" t="s">
         <v>454</v>
@@ -9609,7 +9897,7 @@
         <v>68</v>
       </c>
       <c r="C453">
-        <v>5109</v>
+        <v>6198.8</v>
       </c>
       <c r="D453" t="s">
         <v>455</v>
@@ -9623,7 +9911,7 @@
         <v>69</v>
       </c>
       <c r="C454">
-        <v>5384</v>
+        <v>5379.5</v>
       </c>
       <c r="D454" t="s">
         <v>456</v>
@@ -9637,7 +9925,7 @@
         <v>70</v>
       </c>
       <c r="C455">
-        <v>5514</v>
+        <v>5469.5</v>
       </c>
       <c r="D455" t="s">
         <v>457</v>
@@ -9651,7 +9939,7 @@
         <v>71</v>
       </c>
       <c r="C456">
-        <v>5634</v>
+        <v>5559.5</v>
       </c>
       <c r="D456" t="s">
         <v>458</v>
@@ -9665,7 +9953,7 @@
         <v>72</v>
       </c>
       <c r="C457">
-        <v>5754</v>
+        <v>5649.5</v>
       </c>
       <c r="D457" t="s">
         <v>459</v>
@@ -9679,7 +9967,7 @@
         <v>73</v>
       </c>
       <c r="C458">
-        <v>5643</v>
+        <v>4516.2</v>
       </c>
       <c r="D458" t="s">
         <v>460</v>
@@ -9693,7 +9981,7 @@
         <v>74</v>
       </c>
       <c r="C459">
-        <v>5753</v>
+        <v>4606.2</v>
       </c>
       <c r="D459" t="s">
         <v>461</v>
@@ -9707,7 +9995,7 @@
         <v>75</v>
       </c>
       <c r="C460">
-        <v>5873</v>
+        <v>4716.2</v>
       </c>
       <c r="D460" t="s">
         <v>462</v>
@@ -9721,7 +10009,7 @@
         <v>76</v>
       </c>
       <c r="C461">
-        <v>6013</v>
+        <v>4826.2</v>
       </c>
       <c r="D461" t="s">
         <v>463</v>
@@ -9735,7 +10023,7 @@
         <v>77</v>
       </c>
       <c r="C462">
-        <v>5978</v>
+        <v>5243</v>
       </c>
       <c r="D462" t="s">
         <v>464</v>
@@ -9749,7 +10037,7 @@
         <v>78</v>
       </c>
       <c r="C463">
-        <v>6138</v>
+        <v>5323</v>
       </c>
       <c r="D463" t="s">
         <v>465</v>
@@ -9763,7 +10051,7 @@
         <v>79</v>
       </c>
       <c r="C464">
-        <v>6268</v>
+        <v>5403</v>
       </c>
       <c r="D464" t="s">
         <v>466</v>
@@ -9777,7 +10065,7 @@
         <v>80</v>
       </c>
       <c r="C465">
-        <v>6368</v>
+        <v>5453</v>
       </c>
       <c r="D465" t="s">
         <v>467</v>
@@ -9791,7 +10079,7 @@
         <v>81</v>
       </c>
       <c r="C466">
-        <v>6454</v>
+        <v>6320.9</v>
       </c>
       <c r="D466" t="s">
         <v>468</v>
@@ -9805,7 +10093,7 @@
         <v>82</v>
       </c>
       <c r="C467">
-        <v>6524</v>
+        <v>6380.9</v>
       </c>
       <c r="D467" t="s">
         <v>469</v>
@@ -9819,7 +10107,7 @@
         <v>83</v>
       </c>
       <c r="C468">
-        <v>6584</v>
+        <v>6440.9</v>
       </c>
       <c r="D468" t="s">
         <v>470</v>
@@ -9833,7 +10121,7 @@
         <v>84</v>
       </c>
       <c r="C469">
-        <v>6664</v>
+        <v>6550.9</v>
       </c>
       <c r="D469" t="s">
         <v>471</v>
@@ -9847,7 +10135,7 @@
         <v>85</v>
       </c>
       <c r="C470">
-        <v>6719</v>
+        <v>6738.2</v>
       </c>
       <c r="D470" t="s">
         <v>472</v>
@@ -9861,7 +10149,7 @@
         <v>86</v>
       </c>
       <c r="C471">
-        <v>6699</v>
+        <v>6758.2</v>
       </c>
       <c r="D471" t="s">
         <v>473</v>
@@ -9875,7 +10163,7 @@
         <v>87</v>
       </c>
       <c r="C472">
-        <v>6669</v>
+        <v>6748.2</v>
       </c>
       <c r="D472" t="s">
         <v>474</v>
@@ -9889,7 +10177,7 @@
         <v>88</v>
       </c>
       <c r="C473">
-        <v>6579</v>
+        <v>6668.2</v>
       </c>
       <c r="D473" t="s">
         <v>475</v>
@@ -9903,7 +10191,7 @@
         <v>89</v>
       </c>
       <c r="C474">
-        <v>6452</v>
+        <v>6314.1</v>
       </c>
       <c r="D474" t="s">
         <v>476</v>
@@ -9917,7 +10205,7 @@
         <v>90</v>
       </c>
       <c r="C475">
-        <v>6372</v>
+        <v>6194.1</v>
       </c>
       <c r="D475" t="s">
         <v>477</v>
@@ -9931,7 +10219,7 @@
         <v>91</v>
       </c>
       <c r="C476">
-        <v>6242</v>
+        <v>6064.1</v>
       </c>
       <c r="D476" t="s">
         <v>478</v>
@@ -9945,7 +10233,7 @@
         <v>92</v>
       </c>
       <c r="C477">
-        <v>6052</v>
+        <v>5884.1</v>
       </c>
       <c r="D477" t="s">
         <v>479</v>
@@ -9959,7 +10247,7 @@
         <v>93</v>
       </c>
       <c r="C478">
-        <v>5706</v>
+        <v>5282.5</v>
       </c>
       <c r="D478" t="s">
         <v>480</v>
@@ -9973,7 +10261,7 @@
         <v>94</v>
       </c>
       <c r="C479">
-        <v>5556</v>
+        <v>5132.5</v>
       </c>
       <c r="D479" t="s">
         <v>481</v>
@@ -9987,7 +10275,7 @@
         <v>95</v>
       </c>
       <c r="C480">
-        <v>5456</v>
+        <v>5022.5</v>
       </c>
       <c r="D480" t="s">
         <v>482</v>
@@ -10001,7 +10289,7 @@
         <v>96</v>
       </c>
       <c r="C481">
-        <v>5416</v>
+        <v>4912.5</v>
       </c>
       <c r="D481" t="s">
         <v>483</v>
@@ -10015,7 +10303,7 @@
         <v>1</v>
       </c>
       <c r="C482">
-        <v>6060.9</v>
+        <v>5512.5</v>
       </c>
       <c r="D482" t="s">
         <v>484</v>
@@ -10029,7 +10317,7 @@
         <v>2</v>
       </c>
       <c r="C483">
-        <v>5960.9</v>
+        <v>5482.5</v>
       </c>
       <c r="D483" t="s">
         <v>485</v>
@@ -10043,7 +10331,7 @@
         <v>3</v>
       </c>
       <c r="C484">
-        <v>5890.9</v>
+        <v>5402.5</v>
       </c>
       <c r="D484" t="s">
         <v>486</v>
@@ -10057,7 +10345,7 @@
         <v>4</v>
       </c>
       <c r="C485">
-        <v>5830.9</v>
+        <v>5312.5</v>
       </c>
       <c r="D485" t="s">
         <v>487</v>
@@ -10071,7 +10359,7 @@
         <v>5</v>
       </c>
       <c r="C486">
-        <v>4885</v>
+        <v>4378.3</v>
       </c>
       <c r="D486" t="s">
         <v>488</v>
@@ -10085,7 +10373,7 @@
         <v>6</v>
       </c>
       <c r="C487">
-        <v>4845</v>
+        <v>4318.3</v>
       </c>
       <c r="D487" t="s">
         <v>489</v>
@@ -10099,7 +10387,7 @@
         <v>7</v>
       </c>
       <c r="C488">
-        <v>4795</v>
+        <v>4258.3</v>
       </c>
       <c r="D488" t="s">
         <v>490</v>
@@ -10113,7 +10401,7 @@
         <v>8</v>
       </c>
       <c r="C489">
-        <v>4745</v>
+        <v>4208.3</v>
       </c>
       <c r="D489" t="s">
         <v>491</v>
@@ -10127,7 +10415,7 @@
         <v>9</v>
       </c>
       <c r="C490">
-        <v>4673</v>
+        <v>3789.9</v>
       </c>
       <c r="D490" t="s">
         <v>492</v>
@@ -10141,7 +10429,7 @@
         <v>10</v>
       </c>
       <c r="C491">
-        <v>4633</v>
+        <v>3759.9</v>
       </c>
       <c r="D491" t="s">
         <v>493</v>
@@ -10155,7 +10443,7 @@
         <v>11</v>
       </c>
       <c r="C492">
-        <v>4613</v>
+        <v>3739.9</v>
       </c>
       <c r="D492" t="s">
         <v>494</v>
@@ -10169,7 +10457,7 @@
         <v>12</v>
       </c>
       <c r="C493">
-        <v>4593</v>
+        <v>3729.9</v>
       </c>
       <c r="D493" t="s">
         <v>495</v>
@@ -10183,7 +10471,7 @@
         <v>13</v>
       </c>
       <c r="C494">
-        <v>4598</v>
+        <v>3819.4</v>
       </c>
       <c r="D494" t="s">
         <v>496</v>
@@ -10197,7 +10485,7 @@
         <v>14</v>
       </c>
       <c r="C495">
-        <v>4588</v>
+        <v>3829.4</v>
       </c>
       <c r="D495" t="s">
         <v>497</v>
@@ -10211,7 +10499,7 @@
         <v>15</v>
       </c>
       <c r="C496">
-        <v>4588</v>
+        <v>3839.4</v>
       </c>
       <c r="D496" t="s">
         <v>498</v>
@@ -10225,7 +10513,7 @@
         <v>16</v>
       </c>
       <c r="C497">
-        <v>4578</v>
+        <v>3839.4</v>
       </c>
       <c r="D497" t="s">
         <v>499</v>
@@ -10239,7 +10527,7 @@
         <v>17</v>
       </c>
       <c r="C498">
-        <v>4567</v>
+        <v>3759.1</v>
       </c>
       <c r="D498" t="s">
         <v>500</v>
@@ -10253,7 +10541,7 @@
         <v>18</v>
       </c>
       <c r="C499">
-        <v>4557</v>
+        <v>3749.1</v>
       </c>
       <c r="D499" t="s">
         <v>501</v>
@@ -10267,7 +10555,7 @@
         <v>19</v>
       </c>
       <c r="C500">
-        <v>4567</v>
+        <v>3739.1</v>
       </c>
       <c r="D500" t="s">
         <v>502</v>
@@ -10281,7 +10569,7 @@
         <v>20</v>
       </c>
       <c r="C501">
-        <v>4587</v>
+        <v>3739.1</v>
       </c>
       <c r="D501" t="s">
         <v>503</v>
@@ -10295,7 +10583,7 @@
         <v>21</v>
       </c>
       <c r="C502">
-        <v>4657</v>
+        <v>3885.8</v>
       </c>
       <c r="D502" t="s">
         <v>504</v>
@@ -10309,7 +10597,7 @@
         <v>22</v>
       </c>
       <c r="C503">
-        <v>4717</v>
+        <v>3905.8</v>
       </c>
       <c r="D503" t="s">
         <v>505</v>
@@ -10323,7 +10611,7 @@
         <v>23</v>
       </c>
       <c r="C504">
-        <v>4787</v>
+        <v>3945.8</v>
       </c>
       <c r="D504" t="s">
         <v>506</v>
@@ -10337,7 +10625,7 @@
         <v>24</v>
       </c>
       <c r="C505">
-        <v>4867</v>
+        <v>4015.8</v>
       </c>
       <c r="D505" t="s">
         <v>507</v>
@@ -10351,7 +10639,7 @@
         <v>25</v>
       </c>
       <c r="C506">
-        <v>5127</v>
+        <v>4114.7</v>
       </c>
       <c r="D506" t="s">
         <v>508</v>
@@ -10365,7 +10653,7 @@
         <v>26</v>
       </c>
       <c r="C507">
-        <v>5207</v>
+        <v>4224.7</v>
       </c>
       <c r="D507" t="s">
         <v>509</v>
@@ -10379,7 +10667,7 @@
         <v>27</v>
       </c>
       <c r="C508">
-        <v>5287</v>
+        <v>4334.7</v>
       </c>
       <c r="D508" t="s">
         <v>510</v>
@@ -10393,7 +10681,7 @@
         <v>28</v>
       </c>
       <c r="C509">
-        <v>5357</v>
+        <v>4454.7</v>
       </c>
       <c r="D509" t="s">
         <v>511</v>
@@ -10407,7 +10695,7 @@
         <v>29</v>
       </c>
       <c r="C510">
-        <v>5366</v>
+        <v>5438.5</v>
       </c>
       <c r="D510" t="s">
         <v>512</v>
@@ -10421,7 +10709,7 @@
         <v>30</v>
       </c>
       <c r="C511">
-        <v>5406</v>
+        <v>5538.5</v>
       </c>
       <c r="D511" t="s">
         <v>513</v>
@@ -10435,7 +10723,7 @@
         <v>31</v>
       </c>
       <c r="C512">
-        <v>5426</v>
+        <v>5658.5</v>
       </c>
       <c r="D512" t="s">
         <v>514</v>
@@ -10449,7 +10737,7 @@
         <v>32</v>
       </c>
       <c r="C513">
-        <v>5426</v>
+        <v>5728.5</v>
       </c>
       <c r="D513" t="s">
         <v>515</v>
@@ -10463,7 +10751,7 @@
         <v>33</v>
       </c>
       <c r="C514">
-        <v>5489</v>
+        <v>6868.7</v>
       </c>
       <c r="D514" t="s">
         <v>516</v>
@@ -10477,7 +10765,7 @@
         <v>34</v>
       </c>
       <c r="C515">
-        <v>5459</v>
+        <v>6858.7</v>
       </c>
       <c r="D515" t="s">
         <v>517</v>
@@ -10491,7 +10779,7 @@
         <v>35</v>
       </c>
       <c r="C516">
-        <v>5399</v>
+        <v>6828.7</v>
       </c>
       <c r="D516" t="s">
         <v>518</v>
@@ -10505,7 +10793,7 @@
         <v>36</v>
       </c>
       <c r="C517">
-        <v>5339</v>
+        <v>6768.7</v>
       </c>
       <c r="D517" t="s">
         <v>519</v>
@@ -10519,7 +10807,7 @@
         <v>37</v>
       </c>
       <c r="C518">
-        <v>5225</v>
+        <v>7430.8</v>
       </c>
       <c r="D518" t="s">
         <v>520</v>
@@ -10533,7 +10821,7 @@
         <v>38</v>
       </c>
       <c r="C519">
-        <v>5135</v>
+        <v>7330.8</v>
       </c>
       <c r="D519" t="s">
         <v>521</v>
@@ -10547,7 +10835,7 @@
         <v>39</v>
       </c>
       <c r="C520">
-        <v>5045</v>
+        <v>7230.8</v>
       </c>
       <c r="D520" t="s">
         <v>522</v>
@@ -10561,7 +10849,7 @@
         <v>40</v>
       </c>
       <c r="C521">
-        <v>4945</v>
+        <v>7130.8</v>
       </c>
       <c r="D521" t="s">
         <v>523</v>
@@ -10575,7 +10863,7 @@
         <v>41</v>
       </c>
       <c r="C522">
-        <v>4998</v>
+        <v>7300.6</v>
       </c>
       <c r="D522" t="s">
         <v>524</v>
@@ -10589,7 +10877,7 @@
         <v>42</v>
       </c>
       <c r="C523">
-        <v>4908</v>
+        <v>7200.6</v>
       </c>
       <c r="D523" t="s">
         <v>525</v>
@@ -10603,7 +10891,7 @@
         <v>43</v>
       </c>
       <c r="C524">
-        <v>4828</v>
+        <v>7110.6</v>
       </c>
       <c r="D524" t="s">
         <v>526</v>
@@ -10617,7 +10905,7 @@
         <v>44</v>
       </c>
       <c r="C525">
-        <v>4758</v>
+        <v>7040.6</v>
       </c>
       <c r="D525" t="s">
         <v>527</v>
@@ -10631,7 +10919,7 @@
         <v>45</v>
       </c>
       <c r="C526">
-        <v>4853</v>
+        <v>7083.6</v>
       </c>
       <c r="D526" t="s">
         <v>528</v>
@@ -10645,7 +10933,7 @@
         <v>46</v>
       </c>
       <c r="C527">
-        <v>4803</v>
+        <v>7033.6</v>
       </c>
       <c r="D527" t="s">
         <v>529</v>
@@ -10659,7 +10947,7 @@
         <v>47</v>
       </c>
       <c r="C528">
-        <v>4763</v>
+        <v>6993.6</v>
       </c>
       <c r="D528" t="s">
         <v>530</v>
@@ -10673,7 +10961,7 @@
         <v>48</v>
       </c>
       <c r="C529">
-        <v>4733</v>
+        <v>6973.6</v>
       </c>
       <c r="D529" t="s">
         <v>531</v>
@@ -10687,7 +10975,7 @@
         <v>49</v>
       </c>
       <c r="C530">
-        <v>4636</v>
+        <v>6465.6</v>
       </c>
       <c r="D530" t="s">
         <v>532</v>
@@ -10701,7 +10989,7 @@
         <v>50</v>
       </c>
       <c r="C531">
-        <v>4606</v>
+        <v>6465.6</v>
       </c>
       <c r="D531" t="s">
         <v>533</v>
@@ -10715,7 +11003,7 @@
         <v>51</v>
       </c>
       <c r="C532">
-        <v>4576</v>
+        <v>6465.6</v>
       </c>
       <c r="D532" t="s">
         <v>534</v>
@@ -10729,7 +11017,7 @@
         <v>52</v>
       </c>
       <c r="C533">
-        <v>4556</v>
+        <v>6475.6</v>
       </c>
       <c r="D533" t="s">
         <v>535</v>
@@ -10743,7 +11031,7 @@
         <v>53</v>
       </c>
       <c r="C534">
-        <v>4450</v>
+        <v>6162.2</v>
       </c>
       <c r="D534" t="s">
         <v>536</v>
@@ -10757,7 +11045,7 @@
         <v>54</v>
       </c>
       <c r="C535">
-        <v>4440</v>
+        <v>6182.2</v>
       </c>
       <c r="D535" t="s">
         <v>537</v>
@@ -10771,7 +11059,7 @@
         <v>55</v>
       </c>
       <c r="C536">
-        <v>4430</v>
+        <v>6212.2</v>
       </c>
       <c r="D536" t="s">
         <v>538</v>
@@ -10785,7 +11073,7 @@
         <v>56</v>
       </c>
       <c r="C537">
-        <v>4440</v>
+        <v>6232.2</v>
       </c>
       <c r="D537" t="s">
         <v>539</v>
@@ -10799,7 +11087,7 @@
         <v>57</v>
       </c>
       <c r="C538">
-        <v>4503</v>
+        <v>5160.9</v>
       </c>
       <c r="D538" t="s">
         <v>540</v>
@@ -10813,7 +11101,7 @@
         <v>58</v>
       </c>
       <c r="C539">
-        <v>4513</v>
+        <v>5180.9</v>
       </c>
       <c r="D539" t="s">
         <v>541</v>
@@ -10827,7 +11115,7 @@
         <v>59</v>
       </c>
       <c r="C540">
-        <v>4543</v>
+        <v>5210.9</v>
       </c>
       <c r="D540" t="s">
         <v>542</v>
@@ -10841,7 +11129,7 @@
         <v>60</v>
       </c>
       <c r="C541">
-        <v>4563</v>
+        <v>5220.9</v>
       </c>
       <c r="D541" t="s">
         <v>543</v>
@@ -10855,7 +11143,7 @@
         <v>61</v>
       </c>
       <c r="C542">
-        <v>4553</v>
+        <v>4709.2</v>
       </c>
       <c r="D542" t="s">
         <v>544</v>
@@ -10869,7 +11157,7 @@
         <v>62</v>
       </c>
       <c r="C543">
-        <v>4573</v>
+        <v>4729.2</v>
       </c>
       <c r="D543" t="s">
         <v>545</v>
@@ -10883,7 +11171,7 @@
         <v>63</v>
       </c>
       <c r="C544">
-        <v>4603</v>
+        <v>4769.2</v>
       </c>
       <c r="D544" t="s">
         <v>546</v>
@@ -10897,7 +11185,7 @@
         <v>64</v>
       </c>
       <c r="C545">
-        <v>4633</v>
+        <v>4809.2</v>
       </c>
       <c r="D545" t="s">
         <v>547</v>
@@ -10911,7 +11199,7 @@
         <v>65</v>
       </c>
       <c r="C546">
-        <v>4719</v>
+        <v>5938.8</v>
       </c>
       <c r="D546" t="s">
         <v>548</v>
@@ -10925,7 +11213,7 @@
         <v>66</v>
       </c>
       <c r="C547">
-        <v>4799</v>
+        <v>6008.8</v>
       </c>
       <c r="D547" t="s">
         <v>549</v>
@@ -10939,7 +11227,7 @@
         <v>67</v>
       </c>
       <c r="C548">
-        <v>4889</v>
+        <v>6098.8</v>
       </c>
       <c r="D548" t="s">
         <v>550</v>
@@ -10953,7 +11241,7 @@
         <v>68</v>
       </c>
       <c r="C549">
-        <v>5009</v>
+        <v>6198.8</v>
       </c>
       <c r="D549" t="s">
         <v>551</v>
@@ -10967,7 +11255,7 @@
         <v>69</v>
       </c>
       <c r="C550">
-        <v>5284</v>
+        <v>5409.5</v>
       </c>
       <c r="D550" t="s">
         <v>552</v>
@@ -10981,7 +11269,7 @@
         <v>70</v>
       </c>
       <c r="C551">
-        <v>5384</v>
+        <v>5509.5</v>
       </c>
       <c r="D551" t="s">
         <v>553</v>
@@ -10995,7 +11283,7 @@
         <v>71</v>
       </c>
       <c r="C552">
-        <v>5504</v>
+        <v>5609.5</v>
       </c>
       <c r="D552" t="s">
         <v>554</v>
@@ -11009,7 +11297,7 @@
         <v>72</v>
       </c>
       <c r="C553">
-        <v>5624</v>
+        <v>5699.5</v>
       </c>
       <c r="D553" t="s">
         <v>555</v>
@@ -11023,7 +11311,7 @@
         <v>73</v>
       </c>
       <c r="C554">
-        <v>5513</v>
+        <v>4536.2</v>
       </c>
       <c r="D554" t="s">
         <v>556</v>
@@ -11037,7 +11325,7 @@
         <v>74</v>
       </c>
       <c r="C555">
-        <v>5623</v>
+        <v>4636.2</v>
       </c>
       <c r="D555" t="s">
         <v>557</v>
@@ -11051,7 +11339,7 @@
         <v>75</v>
       </c>
       <c r="C556">
-        <v>5743</v>
+        <v>4746.2</v>
       </c>
       <c r="D556" t="s">
         <v>558</v>
@@ -11065,7 +11353,7 @@
         <v>76</v>
       </c>
       <c r="C557">
-        <v>5883</v>
+        <v>4866.2</v>
       </c>
       <c r="D557" t="s">
         <v>559</v>
@@ -11079,7 +11367,7 @@
         <v>77</v>
       </c>
       <c r="C558">
-        <v>5848</v>
+        <v>5303</v>
       </c>
       <c r="D558" t="s">
         <v>560</v>
@@ -11093,7 +11381,7 @@
         <v>78</v>
       </c>
       <c r="C559">
-        <v>6008</v>
+        <v>5403</v>
       </c>
       <c r="D559" t="s">
         <v>561</v>
@@ -11107,7 +11395,7 @@
         <v>79</v>
       </c>
       <c r="C560">
-        <v>6138</v>
+        <v>5473</v>
       </c>
       <c r="D560" t="s">
         <v>562</v>
@@ -11121,7 +11409,7 @@
         <v>80</v>
       </c>
       <c r="C561">
-        <v>6238</v>
+        <v>5523</v>
       </c>
       <c r="D561" t="s">
         <v>563</v>
@@ -11135,7 +11423,7 @@
         <v>81</v>
       </c>
       <c r="C562">
-        <v>6324</v>
+        <v>6420.9</v>
       </c>
       <c r="D562" t="s">
         <v>564</v>
@@ -11149,7 +11437,7 @@
         <v>82</v>
       </c>
       <c r="C563">
-        <v>6394</v>
+        <v>6490.9</v>
       </c>
       <c r="D563" t="s">
         <v>565</v>
@@ -11163,7 +11451,7 @@
         <v>83</v>
       </c>
       <c r="C564">
-        <v>6454</v>
+        <v>6570.9</v>
       </c>
       <c r="D564" t="s">
         <v>566</v>
@@ -11177,7 +11465,7 @@
         <v>84</v>
       </c>
       <c r="C565">
-        <v>6534</v>
+        <v>6670.9</v>
       </c>
       <c r="D565" t="s">
         <v>567</v>
@@ -11191,7 +11479,7 @@
         <v>85</v>
       </c>
       <c r="C566">
-        <v>6589</v>
+        <v>6798.2</v>
       </c>
       <c r="D566" t="s">
         <v>568</v>
@@ -11205,7 +11493,7 @@
         <v>86</v>
       </c>
       <c r="C567">
-        <v>6569</v>
+        <v>6798.2</v>
       </c>
       <c r="D567" t="s">
         <v>569</v>
@@ -11219,7 +11507,7 @@
         <v>87</v>
       </c>
       <c r="C568">
-        <v>6539</v>
+        <v>6788.2</v>
       </c>
       <c r="D568" t="s">
         <v>570</v>
@@ -11233,7 +11521,7 @@
         <v>88</v>
       </c>
       <c r="C569">
-        <v>6449</v>
+        <v>6708.2</v>
       </c>
       <c r="D569" t="s">
         <v>571</v>
@@ -11247,7 +11535,7 @@
         <v>89</v>
       </c>
       <c r="C570">
-        <v>6322</v>
+        <v>6374.1</v>
       </c>
       <c r="D570" t="s">
         <v>572</v>
@@ -11261,7 +11549,7 @@
         <v>90</v>
       </c>
       <c r="C571">
-        <v>6242</v>
+        <v>6304.1</v>
       </c>
       <c r="D571" t="s">
         <v>573</v>
@@ -11275,7 +11563,7 @@
         <v>91</v>
       </c>
       <c r="C572">
-        <v>6112</v>
+        <v>6164.1</v>
       </c>
       <c r="D572" t="s">
         <v>574</v>
@@ -11289,7 +11577,7 @@
         <v>92</v>
       </c>
       <c r="C573">
-        <v>5922</v>
+        <v>5984.1</v>
       </c>
       <c r="D573" t="s">
         <v>575</v>
@@ -11303,7 +11591,7 @@
         <v>93</v>
       </c>
       <c r="C574">
-        <v>5576</v>
+        <v>5332.5</v>
       </c>
       <c r="D574" t="s">
         <v>576</v>
@@ -11317,7 +11605,7 @@
         <v>94</v>
       </c>
       <c r="C575">
-        <v>5426</v>
+        <v>5142.5</v>
       </c>
       <c r="D575" t="s">
         <v>577</v>
@@ -11331,7 +11619,7 @@
         <v>95</v>
       </c>
       <c r="C576">
-        <v>5326</v>
+        <v>5062.5</v>
       </c>
       <c r="D576" t="s">
         <v>578</v>
@@ -11345,7 +11633,7 @@
         <v>96</v>
       </c>
       <c r="C577">
-        <v>5286</v>
+        <v>4952.5</v>
       </c>
       <c r="D577" t="s">
         <v>579</v>
@@ -16725,6 +17013,1350 @@
       </c>
       <c r="D961" t="s">
         <v>963</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4">
+      <c r="A962" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B962">
+        <v>1</v>
+      </c>
+      <c r="C962">
+        <v>4384.3</v>
+      </c>
+      <c r="D962" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4">
+      <c r="A963" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B963">
+        <v>2</v>
+      </c>
+      <c r="C963">
+        <v>4384.3</v>
+      </c>
+      <c r="D963" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4">
+      <c r="A964" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B964">
+        <v>3</v>
+      </c>
+      <c r="C964">
+        <v>4284.3</v>
+      </c>
+      <c r="D964" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4">
+      <c r="A965" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B965">
+        <v>4</v>
+      </c>
+      <c r="C965">
+        <v>4184.3</v>
+      </c>
+      <c r="D965" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4">
+      <c r="A966" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B966">
+        <v>5</v>
+      </c>
+      <c r="C966">
+        <v>4497.7</v>
+      </c>
+      <c r="D966" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4">
+      <c r="A967" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B967">
+        <v>6</v>
+      </c>
+      <c r="C967">
+        <v>4447.7</v>
+      </c>
+      <c r="D967" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4">
+      <c r="A968" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B968">
+        <v>7</v>
+      </c>
+      <c r="C968">
+        <v>4407.7</v>
+      </c>
+      <c r="D968" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4">
+      <c r="A969" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B969">
+        <v>8</v>
+      </c>
+      <c r="C969">
+        <v>4357.7</v>
+      </c>
+      <c r="D969" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4">
+      <c r="A970" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B970">
+        <v>9</v>
+      </c>
+      <c r="C970">
+        <v>4379.8</v>
+      </c>
+      <c r="D970" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4">
+      <c r="A971" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B971">
+        <v>10</v>
+      </c>
+      <c r="C971">
+        <v>4339.8</v>
+      </c>
+      <c r="D971" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4">
+      <c r="A972" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B972">
+        <v>11</v>
+      </c>
+      <c r="C972">
+        <v>4319.8</v>
+      </c>
+      <c r="D972" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4">
+      <c r="A973" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B973">
+        <v>12</v>
+      </c>
+      <c r="C973">
+        <v>4299.8</v>
+      </c>
+      <c r="D973" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4">
+      <c r="A974" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B974">
+        <v>13</v>
+      </c>
+      <c r="C974">
+        <v>4421.3</v>
+      </c>
+      <c r="D974" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4">
+      <c r="A975" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B975">
+        <v>14</v>
+      </c>
+      <c r="C975">
+        <v>4421.3</v>
+      </c>
+      <c r="D975" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4">
+      <c r="A976" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B976">
+        <v>15</v>
+      </c>
+      <c r="C976">
+        <v>4411.3</v>
+      </c>
+      <c r="D976" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4">
+      <c r="A977" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B977">
+        <v>16</v>
+      </c>
+      <c r="C977">
+        <v>4401.3</v>
+      </c>
+      <c r="D977" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4">
+      <c r="A978" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B978">
+        <v>17</v>
+      </c>
+      <c r="C978">
+        <v>4326.9</v>
+      </c>
+      <c r="D978" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4">
+      <c r="A979" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B979">
+        <v>18</v>
+      </c>
+      <c r="C979">
+        <v>4316.9</v>
+      </c>
+      <c r="D979" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4">
+      <c r="A980" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B980">
+        <v>19</v>
+      </c>
+      <c r="C980">
+        <v>4316.9</v>
+      </c>
+      <c r="D980" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4">
+      <c r="A981" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B981">
+        <v>20</v>
+      </c>
+      <c r="C981">
+        <v>4316.9</v>
+      </c>
+      <c r="D981" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4">
+      <c r="A982" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B982">
+        <v>21</v>
+      </c>
+      <c r="C982">
+        <v>4420.4</v>
+      </c>
+      <c r="D982" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4">
+      <c r="A983" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B983">
+        <v>22</v>
+      </c>
+      <c r="C983">
+        <v>4460.4</v>
+      </c>
+      <c r="D983" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4">
+      <c r="A984" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B984">
+        <v>23</v>
+      </c>
+      <c r="C984">
+        <v>4520.4</v>
+      </c>
+      <c r="D984" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4">
+      <c r="A985" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B985">
+        <v>24</v>
+      </c>
+      <c r="C985">
+        <v>4600.4</v>
+      </c>
+      <c r="D985" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="986" spans="1:4">
+      <c r="A986" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B986">
+        <v>25</v>
+      </c>
+      <c r="C986">
+        <v>4403.7</v>
+      </c>
+      <c r="D986" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4">
+      <c r="A987" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B987">
+        <v>26</v>
+      </c>
+      <c r="C987">
+        <v>4503.7</v>
+      </c>
+      <c r="D987" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4">
+      <c r="A988" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B988">
+        <v>27</v>
+      </c>
+      <c r="C988">
+        <v>4593.7</v>
+      </c>
+      <c r="D988" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="989" spans="1:4">
+      <c r="A989" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B989">
+        <v>28</v>
+      </c>
+      <c r="C989">
+        <v>4683.7</v>
+      </c>
+      <c r="D989" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4">
+      <c r="A990" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B990">
+        <v>29</v>
+      </c>
+      <c r="C990">
+        <v>4926.8</v>
+      </c>
+      <c r="D990" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4">
+      <c r="A991" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B991">
+        <v>30</v>
+      </c>
+      <c r="C991">
+        <v>4996.8</v>
+      </c>
+      <c r="D991" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4">
+      <c r="A992" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B992">
+        <v>31</v>
+      </c>
+      <c r="C992">
+        <v>5036.8</v>
+      </c>
+      <c r="D992" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4">
+      <c r="A993" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B993">
+        <v>32</v>
+      </c>
+      <c r="C993">
+        <v>5066.8</v>
+      </c>
+      <c r="D993" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4">
+      <c r="A994" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B994">
+        <v>33</v>
+      </c>
+      <c r="C994">
+        <v>5374.8</v>
+      </c>
+      <c r="D994" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="995" spans="1:4">
+      <c r="A995" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B995">
+        <v>34</v>
+      </c>
+      <c r="C995">
+        <v>5364.8</v>
+      </c>
+      <c r="D995" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4">
+      <c r="A996" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B996">
+        <v>35</v>
+      </c>
+      <c r="C996">
+        <v>5334.8</v>
+      </c>
+      <c r="D996" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4">
+      <c r="A997" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B997">
+        <v>36</v>
+      </c>
+      <c r="C997">
+        <v>5294.8</v>
+      </c>
+      <c r="D997" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4">
+      <c r="A998" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B998">
+        <v>37</v>
+      </c>
+      <c r="C998">
+        <v>5407.9</v>
+      </c>
+      <c r="D998" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4">
+      <c r="A999" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B999">
+        <v>38</v>
+      </c>
+      <c r="C999">
+        <v>5337.9</v>
+      </c>
+      <c r="D999" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:4">
+      <c r="A1000" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1000">
+        <v>39</v>
+      </c>
+      <c r="C1000">
+        <v>5267.9</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4">
+      <c r="A1001" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1001">
+        <v>40</v>
+      </c>
+      <c r="C1001">
+        <v>5187.9</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:4">
+      <c r="A1002" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1002">
+        <v>41</v>
+      </c>
+      <c r="C1002">
+        <v>5420.9</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4">
+      <c r="A1003" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1003">
+        <v>42</v>
+      </c>
+      <c r="C1003">
+        <v>5340.9</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4">
+      <c r="A1004" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1004">
+        <v>43</v>
+      </c>
+      <c r="C1004">
+        <v>5270.9</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:4">
+      <c r="A1005" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1005">
+        <v>44</v>
+      </c>
+      <c r="C1005">
+        <v>5200.9</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4">
+      <c r="A1006" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1006">
+        <v>45</v>
+      </c>
+      <c r="C1006">
+        <v>5405.1</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4">
+      <c r="A1007" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1007">
+        <v>46</v>
+      </c>
+      <c r="C1007">
+        <v>5365.1</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:4">
+      <c r="A1008" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1008">
+        <v>47</v>
+      </c>
+      <c r="C1008">
+        <v>5345.1</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:4">
+      <c r="A1009" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1009">
+        <v>48</v>
+      </c>
+      <c r="C1009">
+        <v>5325.1</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:4">
+      <c r="A1010" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1010">
+        <v>49</v>
+      </c>
+      <c r="C1010">
+        <v>5530.1</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:4">
+      <c r="A1011" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1011">
+        <v>50</v>
+      </c>
+      <c r="C1011">
+        <v>5530.1</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:4">
+      <c r="A1012" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1012">
+        <v>51</v>
+      </c>
+      <c r="C1012">
+        <v>5540.1</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:4">
+      <c r="A1013" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1013">
+        <v>52</v>
+      </c>
+      <c r="C1013">
+        <v>5550.1</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:4">
+      <c r="A1014" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1014">
+        <v>53</v>
+      </c>
+      <c r="C1014">
+        <v>5554.9</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:4">
+      <c r="A1015" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1015">
+        <v>54</v>
+      </c>
+      <c r="C1015">
+        <v>5574.9</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:4">
+      <c r="A1016" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1016">
+        <v>55</v>
+      </c>
+      <c r="C1016">
+        <v>5594.9</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4">
+      <c r="A1017" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1017">
+        <v>56</v>
+      </c>
+      <c r="C1017">
+        <v>5614.9</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:4">
+      <c r="A1018" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1018">
+        <v>57</v>
+      </c>
+      <c r="C1018">
+        <v>5458.3</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:4">
+      <c r="A1019" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1019">
+        <v>58</v>
+      </c>
+      <c r="C1019">
+        <v>5478.3</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:4">
+      <c r="A1020" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1020">
+        <v>59</v>
+      </c>
+      <c r="C1020">
+        <v>5498.3</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:4">
+      <c r="A1021" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1021">
+        <v>60</v>
+      </c>
+      <c r="C1021">
+        <v>5508.3</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:4">
+      <c r="A1022" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1022">
+        <v>61</v>
+      </c>
+      <c r="C1022">
+        <v>5395.3</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:4">
+      <c r="A1023" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1023">
+        <v>62</v>
+      </c>
+      <c r="C1023">
+        <v>5415.3</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:4">
+      <c r="A1024" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1024">
+        <v>63</v>
+      </c>
+      <c r="C1024">
+        <v>5455.3</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:4">
+      <c r="A1025" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1025">
+        <v>64</v>
+      </c>
+      <c r="C1025">
+        <v>5495.3</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:4">
+      <c r="A1026" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1026">
+        <v>65</v>
+      </c>
+      <c r="C1026">
+        <v>5196.4</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:4">
+      <c r="A1027" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1027">
+        <v>66</v>
+      </c>
+      <c r="C1027">
+        <v>5276.4</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:4">
+      <c r="A1028" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1028">
+        <v>67</v>
+      </c>
+      <c r="C1028">
+        <v>5366.4</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:4">
+      <c r="A1029" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1029">
+        <v>68</v>
+      </c>
+      <c r="C1029">
+        <v>5456.4</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:4">
+      <c r="A1030" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1030">
+        <v>69</v>
+      </c>
+      <c r="C1030">
+        <v>5211.9</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4">
+      <c r="A1031" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1031">
+        <v>70</v>
+      </c>
+      <c r="C1031">
+        <v>5291.9</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:4">
+      <c r="A1032" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1032">
+        <v>71</v>
+      </c>
+      <c r="C1032">
+        <v>5371.9</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:4">
+      <c r="A1033" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1033">
+        <v>72</v>
+      </c>
+      <c r="C1033">
+        <v>5431.9</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:4">
+      <c r="A1034" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1034">
+        <v>73</v>
+      </c>
+      <c r="C1034">
+        <v>5207.5</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:4">
+      <c r="A1035" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1035">
+        <v>74</v>
+      </c>
+      <c r="C1035">
+        <v>5287.5</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:4">
+      <c r="A1036" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1036">
+        <v>75</v>
+      </c>
+      <c r="C1036">
+        <v>5387.5</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:4">
+      <c r="A1037" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1037">
+        <v>76</v>
+      </c>
+      <c r="C1037">
+        <v>5517.5</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:4">
+      <c r="A1038" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1038">
+        <v>77</v>
+      </c>
+      <c r="C1038">
+        <v>5698.9</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:4">
+      <c r="A1039" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1039">
+        <v>78</v>
+      </c>
+      <c r="C1039">
+        <v>5828.9</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:4">
+      <c r="A1040" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1040">
+        <v>79</v>
+      </c>
+      <c r="C1040">
+        <v>5918.9</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4">
+      <c r="A1041" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1041">
+        <v>80</v>
+      </c>
+      <c r="C1041">
+        <v>5978.9</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4">
+      <c r="A1042" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1042">
+        <v>81</v>
+      </c>
+      <c r="C1042">
+        <v>5818.7</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4">
+      <c r="A1043" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1043">
+        <v>82</v>
+      </c>
+      <c r="C1043">
+        <v>5888.7</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4">
+      <c r="A1044" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1044">
+        <v>83</v>
+      </c>
+      <c r="C1044">
+        <v>5958.7</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4">
+      <c r="A1045" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1045">
+        <v>84</v>
+      </c>
+      <c r="C1045">
+        <v>6078.7</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4">
+      <c r="A1046" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1046">
+        <v>85</v>
+      </c>
+      <c r="C1046">
+        <v>6198.5</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4">
+      <c r="A1047" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1047">
+        <v>86</v>
+      </c>
+      <c r="C1047">
+        <v>6218.5</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4">
+      <c r="A1048" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1048">
+        <v>87</v>
+      </c>
+      <c r="C1048">
+        <v>6208.5</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4">
+      <c r="A1049" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1049">
+        <v>88</v>
+      </c>
+      <c r="C1049">
+        <v>6108.5</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4">
+      <c r="A1050" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1050">
+        <v>89</v>
+      </c>
+      <c r="C1050">
+        <v>6375.6</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4">
+      <c r="A1051" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1051">
+        <v>90</v>
+      </c>
+      <c r="C1051">
+        <v>6285.6</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4">
+      <c r="A1052" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1052">
+        <v>91</v>
+      </c>
+      <c r="C1052">
+        <v>6165.6</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4">
+      <c r="A1053" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1053">
+        <v>92</v>
+      </c>
+      <c r="C1053">
+        <v>5965.6</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4">
+      <c r="A1054" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1054">
+        <v>93</v>
+      </c>
+      <c r="C1054">
+        <v>5952.1</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4">
+      <c r="A1055" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1055">
+        <v>94</v>
+      </c>
+      <c r="C1055">
+        <v>5762.1</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4">
+      <c r="A1056" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1056">
+        <v>95</v>
+      </c>
+      <c r="C1056">
+        <v>5682.1</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4">
+      <c r="A1057" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B1057">
+        <v>96</v>
+      </c>
+      <c r="C1057">
+        <v>5572.1</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>1059</v>
       </c>
     </row>
   </sheetData>

--- a/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Production_2025.xlsx
+++ b/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Production_2025.xlsx
@@ -42943,7 +42943,7 @@
         <v>1</v>
       </c>
       <c r="C2402">
-        <v>6039</v>
+        <v>6096</v>
       </c>
       <c r="D2402" t="s">
         <v>2404</v>
@@ -42957,7 +42957,7 @@
         <v>2</v>
       </c>
       <c r="C2403">
-        <v>5989</v>
+        <v>6016</v>
       </c>
       <c r="D2403" t="s">
         <v>2405</v>
@@ -42971,7 +42971,7 @@
         <v>3</v>
       </c>
       <c r="C2404">
-        <v>5929</v>
+        <v>5946</v>
       </c>
       <c r="D2404" t="s">
         <v>2406</v>
@@ -42985,7 +42985,7 @@
         <v>4</v>
       </c>
       <c r="C2405">
-        <v>5829</v>
+        <v>5866</v>
       </c>
       <c r="D2405" t="s">
         <v>2407</v>
@@ -42999,7 +42999,7 @@
         <v>5</v>
       </c>
       <c r="C2406">
-        <v>5783</v>
+        <v>5714.3</v>
       </c>
       <c r="D2406" t="s">
         <v>2408</v>
@@ -43013,7 +43013,7 @@
         <v>6</v>
       </c>
       <c r="C2407">
-        <v>5683</v>
+        <v>5644.3</v>
       </c>
       <c r="D2407" t="s">
         <v>2409</v>
@@ -43027,7 +43027,7 @@
         <v>7</v>
       </c>
       <c r="C2408">
-        <v>5613</v>
+        <v>5564.3</v>
       </c>
       <c r="D2408" t="s">
         <v>2410</v>
@@ -43041,7 +43041,7 @@
         <v>8</v>
       </c>
       <c r="C2409">
-        <v>5553</v>
+        <v>5514.3</v>
       </c>
       <c r="D2409" t="s">
         <v>2411</v>
@@ -43055,7 +43055,7 @@
         <v>9</v>
       </c>
       <c r="C2410">
-        <v>5421</v>
+        <v>5441</v>
       </c>
       <c r="D2410" t="s">
         <v>2412</v>
@@ -43069,7 +43069,7 @@
         <v>10</v>
       </c>
       <c r="C2411">
-        <v>5391</v>
+        <v>5411</v>
       </c>
       <c r="D2411" t="s">
         <v>2413</v>
@@ -43111,7 +43111,7 @@
         <v>13</v>
       </c>
       <c r="C2414">
-        <v>5290</v>
+        <v>5389.5</v>
       </c>
       <c r="D2414" t="s">
         <v>2416</v>
@@ -43125,7 +43125,7 @@
         <v>14</v>
       </c>
       <c r="C2415">
-        <v>5280</v>
+        <v>5369.5</v>
       </c>
       <c r="D2415" t="s">
         <v>2417</v>
@@ -43139,7 +43139,7 @@
         <v>15</v>
       </c>
       <c r="C2416">
-        <v>5260</v>
+        <v>5349.5</v>
       </c>
       <c r="D2416" t="s">
         <v>2418</v>
@@ -43153,7 +43153,7 @@
         <v>16</v>
       </c>
       <c r="C2417">
-        <v>5250</v>
+        <v>5329.5</v>
       </c>
       <c r="D2417" t="s">
         <v>2419</v>
@@ -43167,7 +43167,7 @@
         <v>17</v>
       </c>
       <c r="C2418">
-        <v>5216</v>
+        <v>4683.1</v>
       </c>
       <c r="D2418" t="s">
         <v>2420</v>
@@ -43181,7 +43181,7 @@
         <v>18</v>
       </c>
       <c r="C2419">
-        <v>5186</v>
+        <v>4673.1</v>
       </c>
       <c r="D2419" t="s">
         <v>2421</v>
@@ -43195,7 +43195,7 @@
         <v>19</v>
       </c>
       <c r="C2420">
-        <v>5146</v>
+        <v>4663.1</v>
       </c>
       <c r="D2420" t="s">
         <v>2422</v>
@@ -43209,7 +43209,7 @@
         <v>20</v>
       </c>
       <c r="C2421">
-        <v>5166</v>
+        <v>4653.1</v>
       </c>
       <c r="D2421" t="s">
         <v>2423</v>
@@ -43223,7 +43223,7 @@
         <v>21</v>
       </c>
       <c r="C2422">
-        <v>5223</v>
+        <v>4625.4</v>
       </c>
       <c r="D2422" t="s">
         <v>2424</v>
@@ -43237,7 +43237,7 @@
         <v>22</v>
       </c>
       <c r="C2423">
-        <v>5243</v>
+        <v>4615.4</v>
       </c>
       <c r="D2423" t="s">
         <v>2425</v>
@@ -43251,7 +43251,7 @@
         <v>23</v>
       </c>
       <c r="C2424">
-        <v>5243</v>
+        <v>4595.4</v>
       </c>
       <c r="D2424" t="s">
         <v>2426</v>
@@ -43265,7 +43265,7 @@
         <v>24</v>
       </c>
       <c r="C2425">
-        <v>5233</v>
+        <v>4585.4</v>
       </c>
       <c r="D2425" t="s">
         <v>2427</v>
@@ -43279,7 +43279,7 @@
         <v>25</v>
       </c>
       <c r="C2426">
-        <v>5310</v>
+        <v>4615</v>
       </c>
       <c r="D2426" t="s">
         <v>2428</v>
@@ -43293,7 +43293,7 @@
         <v>26</v>
       </c>
       <c r="C2427">
-        <v>5300</v>
+        <v>4615</v>
       </c>
       <c r="D2427" t="s">
         <v>2429</v>
@@ -43307,7 +43307,7 @@
         <v>27</v>
       </c>
       <c r="C2428">
-        <v>5310</v>
+        <v>4615</v>
       </c>
       <c r="D2428" t="s">
         <v>2430</v>
@@ -43321,7 +43321,7 @@
         <v>28</v>
       </c>
       <c r="C2429">
-        <v>5310</v>
+        <v>4625</v>
       </c>
       <c r="D2429" t="s">
         <v>2431</v>
@@ -43335,7 +43335,7 @@
         <v>29</v>
       </c>
       <c r="C2430">
-        <v>5438</v>
+        <v>4594.7</v>
       </c>
       <c r="D2430" t="s">
         <v>2432</v>
@@ -43349,7 +43349,7 @@
         <v>30</v>
       </c>
       <c r="C2431">
-        <v>5458</v>
+        <v>4614.7</v>
       </c>
       <c r="D2431" t="s">
         <v>2433</v>
@@ -43363,7 +43363,7 @@
         <v>31</v>
       </c>
       <c r="C2432">
-        <v>5468</v>
+        <v>4634.7</v>
       </c>
       <c r="D2432" t="s">
         <v>2434</v>
@@ -43377,7 +43377,7 @@
         <v>32</v>
       </c>
       <c r="C2433">
-        <v>5488</v>
+        <v>4654.7</v>
       </c>
       <c r="D2433" t="s">
         <v>2435</v>
@@ -43391,7 +43391,7 @@
         <v>33</v>
       </c>
       <c r="C2434">
-        <v>5549</v>
+        <v>4778.2</v>
       </c>
       <c r="D2434" t="s">
         <v>2436</v>
@@ -43405,7 +43405,7 @@
         <v>34</v>
       </c>
       <c r="C2435">
-        <v>5549</v>
+        <v>4798.2</v>
       </c>
       <c r="D2435" t="s">
         <v>2437</v>
@@ -43419,7 +43419,7 @@
         <v>35</v>
       </c>
       <c r="C2436">
-        <v>5549</v>
+        <v>4808.2</v>
       </c>
       <c r="D2436" t="s">
         <v>2438</v>
@@ -43433,7 +43433,7 @@
         <v>36</v>
       </c>
       <c r="C2437">
-        <v>5529</v>
+        <v>4798.2</v>
       </c>
       <c r="D2437" t="s">
         <v>2439</v>
@@ -43447,7 +43447,7 @@
         <v>37</v>
       </c>
       <c r="C2438">
-        <v>5458</v>
+        <v>5164.6</v>
       </c>
       <c r="D2438" t="s">
         <v>2440</v>
@@ -43461,7 +43461,7 @@
         <v>38</v>
       </c>
       <c r="C2439">
-        <v>5428</v>
+        <v>5144.6</v>
       </c>
       <c r="D2439" t="s">
         <v>2441</v>
@@ -43475,7 +43475,7 @@
         <v>39</v>
       </c>
       <c r="C2440">
-        <v>5398</v>
+        <v>5134.6</v>
       </c>
       <c r="D2440" t="s">
         <v>2442</v>
@@ -43489,7 +43489,7 @@
         <v>40</v>
       </c>
       <c r="C2441">
-        <v>5358</v>
+        <v>5114.6</v>
       </c>
       <c r="D2441" t="s">
         <v>2443</v>
@@ -43503,7 +43503,7 @@
         <v>41</v>
       </c>
       <c r="C2442">
-        <v>5346</v>
+        <v>5413.5</v>
       </c>
       <c r="D2442" t="s">
         <v>2444</v>
@@ -43517,7 +43517,7 @@
         <v>42</v>
       </c>
       <c r="C2443">
-        <v>5326</v>
+        <v>5413.5</v>
       </c>
       <c r="D2443" t="s">
         <v>2445</v>
@@ -43531,7 +43531,7 @@
         <v>43</v>
       </c>
       <c r="C2444">
-        <v>5306</v>
+        <v>5413.5</v>
       </c>
       <c r="D2444" t="s">
         <v>2446</v>
@@ -43545,7 +43545,7 @@
         <v>44</v>
       </c>
       <c r="C2445">
-        <v>5306</v>
+        <v>5423.5</v>
       </c>
       <c r="D2445" t="s">
         <v>2447</v>
@@ -43559,7 +43559,7 @@
         <v>45</v>
       </c>
       <c r="C2446">
-        <v>5262</v>
+        <v>5561.3</v>
       </c>
       <c r="D2446" t="s">
         <v>2448</v>
@@ -43573,7 +43573,7 @@
         <v>46</v>
       </c>
       <c r="C2447">
-        <v>5272</v>
+        <v>5571.3</v>
       </c>
       <c r="D2447" t="s">
         <v>2449</v>
@@ -43587,7 +43587,7 @@
         <v>47</v>
       </c>
       <c r="C2448">
-        <v>5282</v>
+        <v>5591.3</v>
       </c>
       <c r="D2448" t="s">
         <v>2450</v>
@@ -43601,7 +43601,7 @@
         <v>48</v>
       </c>
       <c r="C2449">
-        <v>5302</v>
+        <v>5611.3</v>
       </c>
       <c r="D2449" t="s">
         <v>2451</v>
@@ -43615,7 +43615,7 @@
         <v>49</v>
       </c>
       <c r="C2450">
-        <v>5272</v>
+        <v>5647.3</v>
       </c>
       <c r="D2450" t="s">
         <v>2452</v>
@@ -43629,7 +43629,7 @@
         <v>50</v>
       </c>
       <c r="C2451">
-        <v>5292</v>
+        <v>5657.3</v>
       </c>
       <c r="D2451" t="s">
         <v>2453</v>
@@ -43643,7 +43643,7 @@
         <v>51</v>
       </c>
       <c r="C2452">
-        <v>5302</v>
+        <v>5657.3</v>
       </c>
       <c r="D2452" t="s">
         <v>2454</v>
@@ -43657,7 +43657,7 @@
         <v>52</v>
       </c>
       <c r="C2453">
-        <v>5322</v>
+        <v>5657.3</v>
       </c>
       <c r="D2453" t="s">
         <v>2455</v>
@@ -43671,7 +43671,7 @@
         <v>53</v>
       </c>
       <c r="C2454">
-        <v>5402</v>
+        <v>5700.8</v>
       </c>
       <c r="D2454" t="s">
         <v>2456</v>
@@ -43685,7 +43685,7 @@
         <v>54</v>
       </c>
       <c r="C2455">
-        <v>5422</v>
+        <v>5700.8</v>
       </c>
       <c r="D2455" t="s">
         <v>2457</v>
@@ -43699,7 +43699,7 @@
         <v>55</v>
       </c>
       <c r="C2456">
-        <v>5452</v>
+        <v>5710.8</v>
       </c>
       <c r="D2456" t="s">
         <v>2458</v>
@@ -43713,7 +43713,7 @@
         <v>56</v>
       </c>
       <c r="C2457">
-        <v>5492</v>
+        <v>5720.8</v>
       </c>
       <c r="D2457" t="s">
         <v>2459</v>
@@ -43727,7 +43727,7 @@
         <v>57</v>
       </c>
       <c r="C2458">
-        <v>5652</v>
+        <v>5718.9</v>
       </c>
       <c r="D2458" t="s">
         <v>2460</v>
@@ -43741,7 +43741,7 @@
         <v>58</v>
       </c>
       <c r="C2459">
-        <v>5702</v>
+        <v>5738.9</v>
       </c>
       <c r="D2459" t="s">
         <v>2461</v>
@@ -43755,7 +43755,7 @@
         <v>59</v>
       </c>
       <c r="C2460">
-        <v>5742</v>
+        <v>5768.9</v>
       </c>
       <c r="D2460" t="s">
         <v>2462</v>
@@ -43769,7 +43769,7 @@
         <v>60</v>
       </c>
       <c r="C2461">
-        <v>5782</v>
+        <v>5788.9</v>
       </c>
       <c r="D2461" t="s">
         <v>2463</v>
@@ -43783,7 +43783,7 @@
         <v>61</v>
       </c>
       <c r="C2462">
-        <v>5953</v>
+        <v>5657.9</v>
       </c>
       <c r="D2462" t="s">
         <v>2464</v>
@@ -43797,7 +43797,7 @@
         <v>62</v>
       </c>
       <c r="C2463">
-        <v>5993</v>
+        <v>5697.9</v>
       </c>
       <c r="D2463" t="s">
         <v>2465</v>
@@ -43811,7 +43811,7 @@
         <v>63</v>
       </c>
       <c r="C2464">
-        <v>6033</v>
+        <v>5737.9</v>
       </c>
       <c r="D2464" t="s">
         <v>2466</v>
@@ -43825,7 +43825,7 @@
         <v>64</v>
       </c>
       <c r="C2465">
-        <v>6073</v>
+        <v>5787.9</v>
       </c>
       <c r="D2465" t="s">
         <v>2467</v>
@@ -43839,7 +43839,7 @@
         <v>65</v>
       </c>
       <c r="C2466">
-        <v>6201</v>
+        <v>5401</v>
       </c>
       <c r="D2466" t="s">
         <v>2468</v>
@@ -43853,7 +43853,7 @@
         <v>66</v>
       </c>
       <c r="C2467">
-        <v>6261</v>
+        <v>5491</v>
       </c>
       <c r="D2467" t="s">
         <v>2469</v>
@@ -43867,7 +43867,7 @@
         <v>67</v>
       </c>
       <c r="C2468">
-        <v>6341</v>
+        <v>5571</v>
       </c>
       <c r="D2468" t="s">
         <v>2470</v>
@@ -43881,7 +43881,7 @@
         <v>68</v>
       </c>
       <c r="C2469">
-        <v>6431</v>
+        <v>5681</v>
       </c>
       <c r="D2469" t="s">
         <v>2471</v>
@@ -43895,7 +43895,7 @@
         <v>69</v>
       </c>
       <c r="C2470">
-        <v>6377</v>
+        <v>5424.7</v>
       </c>
       <c r="D2470" t="s">
         <v>2472</v>
@@ -43909,7 +43909,7 @@
         <v>70</v>
       </c>
       <c r="C2471">
-        <v>6467</v>
+        <v>5524.7</v>
       </c>
       <c r="D2471" t="s">
         <v>2473</v>
@@ -43923,7 +43923,7 @@
         <v>71</v>
       </c>
       <c r="C2472">
-        <v>6547</v>
+        <v>5614.7</v>
       </c>
       <c r="D2472" t="s">
         <v>2474</v>
@@ -43937,7 +43937,7 @@
         <v>72</v>
       </c>
       <c r="C2473">
-        <v>6627</v>
+        <v>5714.7</v>
       </c>
       <c r="D2473" t="s">
         <v>2475</v>
@@ -43951,7 +43951,7 @@
         <v>73</v>
       </c>
       <c r="C2474">
-        <v>6583</v>
+        <v>5943.4</v>
       </c>
       <c r="D2474" t="s">
         <v>2476</v>
@@ -43965,7 +43965,7 @@
         <v>74</v>
       </c>
       <c r="C2475">
-        <v>6683</v>
+        <v>6023.4</v>
       </c>
       <c r="D2475" t="s">
         <v>2477</v>
@@ -43979,7 +43979,7 @@
         <v>75</v>
       </c>
       <c r="C2476">
-        <v>6803</v>
+        <v>6123.4</v>
       </c>
       <c r="D2476" t="s">
         <v>2478</v>
@@ -43993,7 +43993,7 @@
         <v>76</v>
       </c>
       <c r="C2477">
-        <v>6943</v>
+        <v>6223.4</v>
       </c>
       <c r="D2477" t="s">
         <v>2479</v>
@@ -44007,7 +44007,7 @@
         <v>77</v>
       </c>
       <c r="C2478">
-        <v>6911</v>
+        <v>5918.3</v>
       </c>
       <c r="D2478" t="s">
         <v>2480</v>
@@ -44021,7 +44021,7 @@
         <v>78</v>
       </c>
       <c r="C2479">
-        <v>7041</v>
+        <v>6008.3</v>
       </c>
       <c r="D2479" t="s">
         <v>2481</v>
@@ -44035,7 +44035,7 @@
         <v>79</v>
       </c>
       <c r="C2480">
-        <v>7131</v>
+        <v>6078.3</v>
       </c>
       <c r="D2480" t="s">
         <v>2482</v>
@@ -44049,7 +44049,7 @@
         <v>80</v>
       </c>
       <c r="C2481">
-        <v>7181</v>
+        <v>6138.3</v>
       </c>
       <c r="D2481" t="s">
         <v>2483</v>
@@ -44063,7 +44063,7 @@
         <v>81</v>
       </c>
       <c r="C2482">
-        <v>7143</v>
+        <v>6295.4</v>
       </c>
       <c r="D2482" t="s">
         <v>2484</v>
@@ -44077,7 +44077,7 @@
         <v>82</v>
       </c>
       <c r="C2483">
-        <v>7163</v>
+        <v>6345.4</v>
       </c>
       <c r="D2483" t="s">
         <v>2485</v>
@@ -44091,7 +44091,7 @@
         <v>83</v>
       </c>
       <c r="C2484">
-        <v>7183</v>
+        <v>6375.4</v>
       </c>
       <c r="D2484" t="s">
         <v>2486</v>
@@ -44105,7 +44105,7 @@
         <v>84</v>
       </c>
       <c r="C2485">
-        <v>7203</v>
+        <v>6435.4</v>
       </c>
       <c r="D2485" t="s">
         <v>2487</v>
@@ -44119,7 +44119,7 @@
         <v>85</v>
       </c>
       <c r="C2486">
-        <v>7207</v>
+        <v>6482</v>
       </c>
       <c r="D2486" t="s">
         <v>2488</v>
@@ -44133,7 +44133,7 @@
         <v>86</v>
       </c>
       <c r="C2487">
-        <v>7207</v>
+        <v>6472</v>
       </c>
       <c r="D2487" t="s">
         <v>2489</v>
@@ -44147,7 +44147,7 @@
         <v>87</v>
       </c>
       <c r="C2488">
-        <v>7207</v>
+        <v>6442</v>
       </c>
       <c r="D2488" t="s">
         <v>2490</v>
@@ -44161,7 +44161,7 @@
         <v>88</v>
       </c>
       <c r="C2489">
-        <v>7127</v>
+        <v>6382</v>
       </c>
       <c r="D2489" t="s">
         <v>2491</v>
@@ -44175,7 +44175,7 @@
         <v>89</v>
       </c>
       <c r="C2490">
-        <v>7072</v>
+        <v>6554.1</v>
       </c>
       <c r="D2490" t="s">
         <v>2492</v>
@@ -44189,7 +44189,7 @@
         <v>90</v>
       </c>
       <c r="C2491">
-        <v>7002</v>
+        <v>6474.1</v>
       </c>
       <c r="D2491" t="s">
         <v>2493</v>
@@ -44203,7 +44203,7 @@
         <v>91</v>
       </c>
       <c r="C2492">
-        <v>6882</v>
+        <v>6346.1</v>
       </c>
       <c r="D2492" t="s">
         <v>2494</v>
@@ -44217,7 +44217,7 @@
         <v>92</v>
       </c>
       <c r="C2493">
-        <v>6712</v>
+        <v>6184.1</v>
       </c>
       <c r="D2493" t="s">
         <v>2495</v>
@@ -44231,7 +44231,7 @@
         <v>93</v>
       </c>
       <c r="C2494">
-        <v>6453</v>
+        <v>6330.8</v>
       </c>
       <c r="D2494" t="s">
         <v>2496</v>
@@ -44245,7 +44245,7 @@
         <v>94</v>
       </c>
       <c r="C2495">
-        <v>6313</v>
+        <v>6160.8</v>
       </c>
       <c r="D2495" t="s">
         <v>2497</v>
@@ -44259,7 +44259,7 @@
         <v>95</v>
       </c>
       <c r="C2496">
-        <v>6213</v>
+        <v>6040.8</v>
       </c>
       <c r="D2496" t="s">
         <v>2498</v>
@@ -44273,7 +44273,7 @@
         <v>96</v>
       </c>
       <c r="C2497">
-        <v>6103</v>
+        <v>5920.8</v>
       </c>
       <c r="D2497" t="s">
         <v>2499</v>
@@ -44287,7 +44287,7 @@
         <v>1</v>
       </c>
       <c r="C2498">
-        <v>5257</v>
+        <v>5972.6</v>
       </c>
       <c r="D2498" t="s">
         <v>2500</v>
@@ -44301,7 +44301,7 @@
         <v>2</v>
       </c>
       <c r="C2499">
-        <v>5217</v>
+        <v>5882.6</v>
       </c>
       <c r="D2499" t="s">
         <v>2501</v>
@@ -44315,7 +44315,7 @@
         <v>3</v>
       </c>
       <c r="C2500">
-        <v>5157</v>
+        <v>5802.6</v>
       </c>
       <c r="D2500" t="s">
         <v>2502</v>
@@ -44329,7 +44329,7 @@
         <v>4</v>
       </c>
       <c r="C2501">
-        <v>5067</v>
+        <v>5712.6</v>
       </c>
       <c r="D2501" t="s">
         <v>2503</v>
@@ -44343,7 +44343,7 @@
         <v>5</v>
       </c>
       <c r="C2502">
-        <v>5504</v>
+        <v>5309</v>
       </c>
       <c r="D2502" t="s">
         <v>2504</v>
@@ -44357,7 +44357,7 @@
         <v>6</v>
       </c>
       <c r="C2503">
-        <v>5424</v>
+        <v>5219</v>
       </c>
       <c r="D2503" t="s">
         <v>2505</v>
@@ -44371,7 +44371,7 @@
         <v>7</v>
       </c>
       <c r="C2504">
-        <v>5364</v>
+        <v>5149</v>
       </c>
       <c r="D2504" t="s">
         <v>2506</v>
@@ -44385,7 +44385,7 @@
         <v>8</v>
       </c>
       <c r="C2505">
-        <v>5304</v>
+        <v>5089</v>
       </c>
       <c r="D2505" t="s">
         <v>2507</v>
@@ -44399,7 +44399,7 @@
         <v>9</v>
       </c>
       <c r="C2506">
-        <v>5251</v>
+        <v>4938</v>
       </c>
       <c r="D2506" t="s">
         <v>2508</v>
@@ -44413,7 +44413,7 @@
         <v>10</v>
       </c>
       <c r="C2507">
-        <v>5211</v>
+        <v>4888</v>
       </c>
       <c r="D2507" t="s">
         <v>2509</v>
@@ -44427,7 +44427,7 @@
         <v>11</v>
       </c>
       <c r="C2508">
-        <v>5181</v>
+        <v>4858</v>
       </c>
       <c r="D2508" t="s">
         <v>2510</v>
@@ -44441,7 +44441,7 @@
         <v>12</v>
       </c>
       <c r="C2509">
-        <v>5161</v>
+        <v>4818</v>
       </c>
       <c r="D2509" t="s">
         <v>2511</v>
@@ -44455,7 +44455,7 @@
         <v>13</v>
       </c>
       <c r="C2510">
-        <v>5118</v>
+        <v>4861</v>
       </c>
       <c r="D2510" t="s">
         <v>2512</v>
@@ -44469,7 +44469,7 @@
         <v>14</v>
       </c>
       <c r="C2511">
-        <v>5098</v>
+        <v>4841</v>
       </c>
       <c r="D2511" t="s">
         <v>2513</v>
@@ -44483,7 +44483,7 @@
         <v>15</v>
       </c>
       <c r="C2512">
-        <v>5078</v>
+        <v>4811</v>
       </c>
       <c r="D2512" t="s">
         <v>2514</v>
@@ -44497,7 +44497,7 @@
         <v>16</v>
       </c>
       <c r="C2513">
-        <v>5068</v>
+        <v>4791</v>
       </c>
       <c r="D2513" t="s">
         <v>2515</v>
@@ -44511,7 +44511,7 @@
         <v>17</v>
       </c>
       <c r="C2514">
-        <v>5032</v>
+        <v>4726</v>
       </c>
       <c r="D2514" t="s">
         <v>2516</v>
@@ -44525,7 +44525,7 @@
         <v>18</v>
       </c>
       <c r="C2515">
-        <v>5012</v>
+        <v>4706</v>
       </c>
       <c r="D2515" t="s">
         <v>2517</v>
@@ -44539,7 +44539,7 @@
         <v>19</v>
       </c>
       <c r="C2516">
-        <v>4992</v>
+        <v>4686</v>
       </c>
       <c r="D2516" t="s">
         <v>2518</v>
@@ -44553,7 +44553,7 @@
         <v>20</v>
       </c>
       <c r="C2517">
-        <v>4952</v>
+        <v>4676</v>
       </c>
       <c r="D2517" t="s">
         <v>2519</v>
@@ -44567,7 +44567,7 @@
         <v>21</v>
       </c>
       <c r="C2518">
-        <v>4997</v>
+        <v>4704</v>
       </c>
       <c r="D2518" t="s">
         <v>2520</v>
@@ -44581,7 +44581,7 @@
         <v>22</v>
       </c>
       <c r="C2519">
-        <v>4987</v>
+        <v>4684</v>
       </c>
       <c r="D2519" t="s">
         <v>2521</v>
@@ -44595,7 +44595,7 @@
         <v>23</v>
       </c>
       <c r="C2520">
-        <v>4987</v>
+        <v>4664</v>
       </c>
       <c r="D2520" t="s">
         <v>2522</v>
@@ -44609,7 +44609,7 @@
         <v>24</v>
       </c>
       <c r="C2521">
-        <v>4987</v>
+        <v>4654</v>
       </c>
       <c r="D2521" t="s">
         <v>2523</v>
@@ -44623,7 +44623,7 @@
         <v>25</v>
       </c>
       <c r="C2522">
-        <v>5030</v>
+        <v>4633</v>
       </c>
       <c r="D2522" t="s">
         <v>2524</v>
@@ -44637,7 +44637,7 @@
         <v>26</v>
       </c>
       <c r="C2523">
-        <v>5030</v>
+        <v>4623</v>
       </c>
       <c r="D2523" t="s">
         <v>2525</v>
@@ -44651,7 +44651,7 @@
         <v>27</v>
       </c>
       <c r="C2524">
-        <v>5020</v>
+        <v>4613</v>
       </c>
       <c r="D2524" t="s">
         <v>2526</v>
@@ -44665,7 +44665,7 @@
         <v>28</v>
       </c>
       <c r="C2525">
-        <v>5010</v>
+        <v>4613</v>
       </c>
       <c r="D2525" t="s">
         <v>2527</v>
@@ -44679,7 +44679,7 @@
         <v>29</v>
       </c>
       <c r="C2526">
-        <v>5058</v>
+        <v>4581</v>
       </c>
       <c r="D2526" t="s">
         <v>2528</v>
@@ -44693,7 +44693,7 @@
         <v>30</v>
       </c>
       <c r="C2527">
-        <v>5028</v>
+        <v>4581</v>
       </c>
       <c r="D2527" t="s">
         <v>2529</v>
@@ -44707,7 +44707,7 @@
         <v>31</v>
       </c>
       <c r="C2528">
-        <v>4988</v>
+        <v>4591</v>
       </c>
       <c r="D2528" t="s">
         <v>2530</v>
@@ -44721,7 +44721,7 @@
         <v>32</v>
       </c>
       <c r="C2529">
-        <v>4958</v>
+        <v>4601</v>
       </c>
       <c r="D2529" t="s">
         <v>2531</v>
@@ -44735,7 +44735,7 @@
         <v>33</v>
       </c>
       <c r="C2530">
-        <v>4986</v>
+        <v>4737</v>
       </c>
       <c r="D2530" t="s">
         <v>2532</v>
@@ -44749,7 +44749,7 @@
         <v>34</v>
       </c>
       <c r="C2531">
-        <v>4946</v>
+        <v>4747</v>
       </c>
       <c r="D2531" t="s">
         <v>2533</v>
@@ -44763,7 +44763,7 @@
         <v>35</v>
       </c>
       <c r="C2532">
-        <v>4906</v>
+        <v>4737</v>
       </c>
       <c r="D2532" t="s">
         <v>2534</v>
@@ -44777,7 +44777,7 @@
         <v>36</v>
       </c>
       <c r="C2533">
-        <v>4866</v>
+        <v>4737</v>
       </c>
       <c r="D2533" t="s">
         <v>2535</v>
@@ -44791,7 +44791,7 @@
         <v>37</v>
       </c>
       <c r="C2534">
-        <v>4767</v>
+        <v>4568</v>
       </c>
       <c r="D2534" t="s">
         <v>2536</v>
@@ -44805,7 +44805,7 @@
         <v>38</v>
       </c>
       <c r="C2535">
-        <v>4737</v>
+        <v>4548</v>
       </c>
       <c r="D2535" t="s">
         <v>2537</v>
@@ -44819,7 +44819,7 @@
         <v>39</v>
       </c>
       <c r="C2536">
-        <v>4707</v>
+        <v>4528</v>
       </c>
       <c r="D2536" t="s">
         <v>2538</v>
@@ -44833,7 +44833,7 @@
         <v>40</v>
       </c>
       <c r="C2537">
-        <v>4687</v>
+        <v>4498</v>
       </c>
       <c r="D2537" t="s">
         <v>2539</v>
@@ -44847,7 +44847,7 @@
         <v>41</v>
       </c>
       <c r="C2538">
-        <v>4669</v>
+        <v>4563</v>
       </c>
       <c r="D2538" t="s">
         <v>2540</v>
@@ -44861,7 +44861,7 @@
         <v>42</v>
       </c>
       <c r="C2539">
-        <v>4659</v>
+        <v>4543</v>
       </c>
       <c r="D2539" t="s">
         <v>2541</v>
@@ -44875,7 +44875,7 @@
         <v>43</v>
       </c>
       <c r="C2540">
-        <v>4649</v>
+        <v>4523</v>
       </c>
       <c r="D2540" t="s">
         <v>2542</v>
@@ -44889,7 +44889,7 @@
         <v>44</v>
       </c>
       <c r="C2541">
-        <v>4639</v>
+        <v>4523</v>
       </c>
       <c r="D2541" t="s">
         <v>2543</v>
@@ -44903,7 +44903,7 @@
         <v>45</v>
       </c>
       <c r="C2542">
-        <v>4574</v>
+        <v>4594</v>
       </c>
       <c r="D2542" t="s">
         <v>2544</v>
@@ -44917,7 +44917,7 @@
         <v>46</v>
       </c>
       <c r="C2543">
-        <v>4574</v>
+        <v>4604</v>
       </c>
       <c r="D2543" t="s">
         <v>2545</v>
@@ -44931,7 +44931,7 @@
         <v>47</v>
       </c>
       <c r="C2544">
-        <v>4574</v>
+        <v>4614</v>
       </c>
       <c r="D2544" t="s">
         <v>2546</v>
@@ -44945,7 +44945,7 @@
         <v>48</v>
       </c>
       <c r="C2545">
-        <v>4574</v>
+        <v>4634</v>
       </c>
       <c r="D2545" t="s">
         <v>2547</v>
@@ -44959,7 +44959,7 @@
         <v>49</v>
       </c>
       <c r="C2546">
-        <v>4553</v>
+        <v>4690</v>
       </c>
       <c r="D2546" t="s">
         <v>2548</v>
@@ -44973,7 +44973,7 @@
         <v>50</v>
       </c>
       <c r="C2547">
-        <v>4563</v>
+        <v>4700</v>
       </c>
       <c r="D2547" t="s">
         <v>2549</v>
@@ -44987,7 +44987,7 @@
         <v>51</v>
       </c>
       <c r="C2548">
-        <v>4563</v>
+        <v>4720</v>
       </c>
       <c r="D2548" t="s">
         <v>2550</v>
@@ -45001,7 +45001,7 @@
         <v>52</v>
       </c>
       <c r="C2549">
-        <v>4573</v>
+        <v>4730</v>
       </c>
       <c r="D2549" t="s">
         <v>2551</v>
@@ -45015,7 +45015,7 @@
         <v>53</v>
       </c>
       <c r="C2550">
-        <v>4647</v>
+        <v>4777</v>
       </c>
       <c r="D2550" t="s">
         <v>2552</v>
@@ -45029,7 +45029,7 @@
         <v>54</v>
       </c>
       <c r="C2551">
-        <v>4657</v>
+        <v>4797</v>
       </c>
       <c r="D2551" t="s">
         <v>2553</v>
@@ -45043,7 +45043,7 @@
         <v>55</v>
       </c>
       <c r="C2552">
-        <v>4687</v>
+        <v>4817</v>
       </c>
       <c r="D2552" t="s">
         <v>2554</v>
@@ -45057,7 +45057,7 @@
         <v>56</v>
       </c>
       <c r="C2553">
-        <v>4707</v>
+        <v>4847</v>
       </c>
       <c r="D2553" t="s">
         <v>2555</v>
@@ -45071,7 +45071,7 @@
         <v>57</v>
       </c>
       <c r="C2554">
-        <v>4790</v>
+        <v>4942</v>
       </c>
       <c r="D2554" t="s">
         <v>2556</v>
@@ -45085,7 +45085,7 @@
         <v>58</v>
       </c>
       <c r="C2555">
-        <v>4820</v>
+        <v>4982</v>
       </c>
       <c r="D2555" t="s">
         <v>2557</v>
@@ -45099,7 +45099,7 @@
         <v>59</v>
       </c>
       <c r="C2556">
-        <v>4850</v>
+        <v>5022</v>
       </c>
       <c r="D2556" t="s">
         <v>2558</v>
@@ -45113,7 +45113,7 @@
         <v>60</v>
       </c>
       <c r="C2557">
-        <v>4880</v>
+        <v>5062</v>
       </c>
       <c r="D2557" t="s">
         <v>2559</v>
@@ -45127,7 +45127,7 @@
         <v>61</v>
       </c>
       <c r="C2558">
-        <v>5024</v>
+        <v>5197</v>
       </c>
       <c r="D2558" t="s">
         <v>2560</v>
@@ -45141,7 +45141,7 @@
         <v>62</v>
       </c>
       <c r="C2559">
-        <v>5054</v>
+        <v>5237</v>
       </c>
       <c r="D2559" t="s">
         <v>2561</v>
@@ -45155,7 +45155,7 @@
         <v>63</v>
       </c>
       <c r="C2560">
-        <v>5094</v>
+        <v>5277</v>
       </c>
       <c r="D2560" t="s">
         <v>2562</v>
@@ -45169,7 +45169,7 @@
         <v>64</v>
       </c>
       <c r="C2561">
-        <v>5134</v>
+        <v>5327</v>
       </c>
       <c r="D2561" t="s">
         <v>2563</v>
@@ -45183,7 +45183,7 @@
         <v>65</v>
       </c>
       <c r="C2562">
-        <v>5198</v>
+        <v>5497</v>
       </c>
       <c r="D2562" t="s">
         <v>2564</v>
@@ -45197,7 +45197,7 @@
         <v>66</v>
       </c>
       <c r="C2563">
-        <v>5258</v>
+        <v>5557</v>
       </c>
       <c r="D2563" t="s">
         <v>2565</v>
@@ -45211,7 +45211,7 @@
         <v>67</v>
       </c>
       <c r="C2564">
-        <v>5318</v>
+        <v>5627</v>
       </c>
       <c r="D2564" t="s">
         <v>2566</v>
@@ -45225,7 +45225,7 @@
         <v>68</v>
       </c>
       <c r="C2565">
-        <v>5398</v>
+        <v>5707</v>
       </c>
       <c r="D2565" t="s">
         <v>2567</v>
@@ -45239,7 +45239,7 @@
         <v>69</v>
       </c>
       <c r="C2566">
-        <v>5452</v>
+        <v>5821</v>
       </c>
       <c r="D2566" t="s">
         <v>2568</v>
@@ -45253,7 +45253,7 @@
         <v>70</v>
       </c>
       <c r="C2567">
-        <v>5542</v>
+        <v>5911</v>
       </c>
       <c r="D2567" t="s">
         <v>2569</v>
@@ -45267,7 +45267,7 @@
         <v>71</v>
       </c>
       <c r="C2568">
-        <v>5632</v>
+        <v>6001</v>
       </c>
       <c r="D2568" t="s">
         <v>2570</v>
@@ -45281,7 +45281,7 @@
         <v>72</v>
       </c>
       <c r="C2569">
-        <v>5732</v>
+        <v>6091</v>
       </c>
       <c r="D2569" t="s">
         <v>2571</v>
@@ -45295,7 +45295,7 @@
         <v>73</v>
       </c>
       <c r="C2570">
-        <v>5789</v>
+        <v>5959</v>
       </c>
       <c r="D2570" t="s">
         <v>2572</v>
@@ -45309,7 +45309,7 @@
         <v>74</v>
       </c>
       <c r="C2571">
-        <v>5889</v>
+        <v>6049</v>
       </c>
       <c r="D2571" t="s">
         <v>2573</v>
@@ -45323,7 +45323,7 @@
         <v>75</v>
       </c>
       <c r="C2572">
-        <v>5999</v>
+        <v>6129</v>
       </c>
       <c r="D2572" t="s">
         <v>2574</v>
@@ -45337,7 +45337,7 @@
         <v>76</v>
       </c>
       <c r="C2573">
-        <v>6119</v>
+        <v>6209</v>
       </c>
       <c r="D2573" t="s">
         <v>2575</v>
@@ -45351,7 +45351,7 @@
         <v>77</v>
       </c>
       <c r="C2574">
-        <v>6047</v>
+        <v>6222</v>
       </c>
       <c r="D2574" t="s">
         <v>2576</v>
@@ -45365,7 +45365,7 @@
         <v>78</v>
       </c>
       <c r="C2575">
-        <v>6147</v>
+        <v>6282</v>
       </c>
       <c r="D2575" t="s">
         <v>2577</v>
@@ -45379,7 +45379,7 @@
         <v>79</v>
       </c>
       <c r="C2576">
-        <v>6237</v>
+        <v>6342</v>
       </c>
       <c r="D2576" t="s">
         <v>2578</v>
@@ -45393,7 +45393,7 @@
         <v>80</v>
       </c>
       <c r="C2577">
-        <v>6297</v>
+        <v>6392</v>
       </c>
       <c r="D2577" t="s">
         <v>2579</v>
@@ -45407,7 +45407,7 @@
         <v>81</v>
       </c>
       <c r="C2578">
-        <v>6491</v>
+        <v>6351</v>
       </c>
       <c r="D2578" t="s">
         <v>2580</v>
@@ -45421,7 +45421,7 @@
         <v>82</v>
       </c>
       <c r="C2579">
-        <v>6551</v>
+        <v>6401</v>
       </c>
       <c r="D2579" t="s">
         <v>2581</v>
@@ -45435,7 +45435,7 @@
         <v>83</v>
       </c>
       <c r="C2580">
-        <v>6551</v>
+        <v>6431</v>
       </c>
       <c r="D2580" t="s">
         <v>2582</v>
@@ -45449,7 +45449,7 @@
         <v>84</v>
       </c>
       <c r="C2581">
-        <v>6551</v>
+        <v>6461</v>
       </c>
       <c r="D2581" t="s">
         <v>2583</v>
@@ -45463,7 +45463,7 @@
         <v>85</v>
       </c>
       <c r="C2582">
-        <v>6509</v>
+        <v>6452</v>
       </c>
       <c r="D2582" t="s">
         <v>2584</v>
@@ -45477,7 +45477,7 @@
         <v>86</v>
       </c>
       <c r="C2583">
-        <v>6489</v>
+        <v>6442</v>
       </c>
       <c r="D2583" t="s">
         <v>2585</v>
@@ -45491,7 +45491,7 @@
         <v>87</v>
       </c>
       <c r="C2584">
-        <v>6499</v>
+        <v>6412</v>
       </c>
       <c r="D2584" t="s">
         <v>2586</v>
@@ -45505,7 +45505,7 @@
         <v>88</v>
       </c>
       <c r="C2585">
-        <v>6499</v>
+        <v>6382</v>
       </c>
       <c r="D2585" t="s">
         <v>2587</v>
@@ -45519,7 +45519,7 @@
         <v>89</v>
       </c>
       <c r="C2586">
-        <v>6363</v>
+        <v>6419</v>
       </c>
       <c r="D2586" t="s">
         <v>2588</v>
@@ -45533,7 +45533,7 @@
         <v>90</v>
       </c>
       <c r="C2587">
-        <v>6333</v>
+        <v>6349</v>
       </c>
       <c r="D2587" t="s">
         <v>2589</v>
@@ -45547,7 +45547,7 @@
         <v>91</v>
       </c>
       <c r="C2588">
-        <v>6203</v>
+        <v>6249</v>
       </c>
       <c r="D2588" t="s">
         <v>2590</v>
@@ -45561,7 +45561,7 @@
         <v>92</v>
       </c>
       <c r="C2589">
-        <v>6073</v>
+        <v>6139</v>
       </c>
       <c r="D2589" t="s">
         <v>2591</v>
@@ -45575,7 +45575,7 @@
         <v>93</v>
       </c>
       <c r="C2590">
-        <v>5954</v>
+        <v>5949</v>
       </c>
       <c r="D2590" t="s">
         <v>2592</v>
@@ -45589,7 +45589,7 @@
         <v>94</v>
       </c>
       <c r="C2591">
-        <v>5854</v>
+        <v>5849</v>
       </c>
       <c r="D2591" t="s">
         <v>2593</v>
@@ -45603,7 +45603,7 @@
         <v>95</v>
       </c>
       <c r="C2592">
-        <v>5734</v>
+        <v>5729</v>
       </c>
       <c r="D2592" t="s">
         <v>2594</v>
@@ -45617,7 +45617,7 @@
         <v>96</v>
       </c>
       <c r="C2593">
-        <v>5634</v>
+        <v>5629</v>
       </c>
       <c r="D2593" t="s">
         <v>2595</v>
@@ -45631,7 +45631,7 @@
         <v>1</v>
       </c>
       <c r="C2594">
-        <v>4917</v>
+        <v>5367</v>
       </c>
       <c r="D2594" t="s">
         <v>2596</v>
@@ -45645,7 +45645,7 @@
         <v>2</v>
       </c>
       <c r="C2595">
-        <v>4877</v>
+        <v>5287</v>
       </c>
       <c r="D2595" t="s">
         <v>2597</v>
@@ -45659,7 +45659,7 @@
         <v>3</v>
       </c>
       <c r="C2596">
-        <v>4797</v>
+        <v>5227</v>
       </c>
       <c r="D2596" t="s">
         <v>2598</v>
@@ -45673,7 +45673,7 @@
         <v>4</v>
       </c>
       <c r="C2597">
-        <v>4707</v>
+        <v>5157</v>
       </c>
       <c r="D2597" t="s">
         <v>2599</v>
@@ -45687,7 +45687,7 @@
         <v>5</v>
       </c>
       <c r="C2598">
-        <v>5144</v>
+        <v>4845.2</v>
       </c>
       <c r="D2598" t="s">
         <v>2600</v>
@@ -45701,7 +45701,7 @@
         <v>6</v>
       </c>
       <c r="C2599">
-        <v>5084</v>
+        <v>4785.2</v>
       </c>
       <c r="D2599" t="s">
         <v>2601</v>
@@ -45715,7 +45715,7 @@
         <v>7</v>
       </c>
       <c r="C2600">
-        <v>5014</v>
+        <v>4735.2</v>
       </c>
       <c r="D2600" t="s">
         <v>2602</v>
@@ -45729,7 +45729,7 @@
         <v>8</v>
       </c>
       <c r="C2601">
-        <v>4954</v>
+        <v>4685.2</v>
       </c>
       <c r="D2601" t="s">
         <v>2603</v>
@@ -45743,7 +45743,7 @@
         <v>9</v>
       </c>
       <c r="C2602">
-        <v>4891</v>
+        <v>4688.8</v>
       </c>
       <c r="D2602" t="s">
         <v>2604</v>
@@ -45757,7 +45757,7 @@
         <v>10</v>
       </c>
       <c r="C2603">
-        <v>4841</v>
+        <v>4658.8</v>
       </c>
       <c r="D2603" t="s">
         <v>2605</v>
@@ -45771,7 +45771,7 @@
         <v>11</v>
       </c>
       <c r="C2604">
-        <v>4801</v>
+        <v>4638.8</v>
       </c>
       <c r="D2604" t="s">
         <v>2606</v>
@@ -45785,7 +45785,7 @@
         <v>12</v>
       </c>
       <c r="C2605">
-        <v>4781</v>
+        <v>4628.8</v>
       </c>
       <c r="D2605" t="s">
         <v>2607</v>
@@ -45799,7 +45799,7 @@
         <v>13</v>
       </c>
       <c r="C2606">
-        <v>4738</v>
+        <v>4584</v>
       </c>
       <c r="D2606" t="s">
         <v>2608</v>
@@ -45813,7 +45813,7 @@
         <v>14</v>
       </c>
       <c r="C2607">
-        <v>4738</v>
+        <v>4574</v>
       </c>
       <c r="D2607" t="s">
         <v>2609</v>
@@ -45827,7 +45827,7 @@
         <v>15</v>
       </c>
       <c r="C2608">
-        <v>4738</v>
+        <v>4574</v>
       </c>
       <c r="D2608" t="s">
         <v>2610</v>
@@ -45841,7 +45841,7 @@
         <v>16</v>
       </c>
       <c r="C2609">
-        <v>4738</v>
+        <v>4564</v>
       </c>
       <c r="D2609" t="s">
         <v>2611</v>
@@ -45855,7 +45855,7 @@
         <v>17</v>
       </c>
       <c r="C2610">
-        <v>4702</v>
+        <v>4553.2</v>
       </c>
       <c r="D2610" t="s">
         <v>2612</v>
@@ -45869,7 +45869,7 @@
         <v>18</v>
       </c>
       <c r="C2611">
-        <v>4732</v>
+        <v>4553.2</v>
       </c>
       <c r="D2611" t="s">
         <v>2613</v>
@@ -45883,7 +45883,7 @@
         <v>19</v>
       </c>
       <c r="C2612">
-        <v>4732</v>
+        <v>4553.2</v>
       </c>
       <c r="D2612" t="s">
         <v>2614</v>
@@ -45897,7 +45897,7 @@
         <v>20</v>
       </c>
       <c r="C2613">
-        <v>4752</v>
+        <v>4573.2</v>
       </c>
       <c r="D2613" t="s">
         <v>2615</v>
@@ -45911,7 +45911,7 @@
         <v>21</v>
       </c>
       <c r="C2614">
-        <v>4797</v>
+        <v>4379</v>
       </c>
       <c r="D2614" t="s">
         <v>2616</v>
@@ -45925,7 +45925,7 @@
         <v>22</v>
       </c>
       <c r="C2615">
-        <v>4847</v>
+        <v>4439</v>
       </c>
       <c r="D2615" t="s">
         <v>2617</v>
@@ -45939,7 +45939,7 @@
         <v>23</v>
       </c>
       <c r="C2616">
-        <v>4907</v>
+        <v>4529</v>
       </c>
       <c r="D2616" t="s">
         <v>2618</v>
@@ -45953,7 +45953,7 @@
         <v>24</v>
       </c>
       <c r="C2617">
-        <v>4987</v>
+        <v>4619</v>
       </c>
       <c r="D2617" t="s">
         <v>2619</v>
@@ -45967,7 +45967,7 @@
         <v>25</v>
       </c>
       <c r="C2618">
-        <v>5140</v>
+        <v>4460.6</v>
       </c>
       <c r="D2618" t="s">
         <v>2620</v>
@@ -45981,7 +45981,7 @@
         <v>26</v>
       </c>
       <c r="C2619">
-        <v>5260</v>
+        <v>4580.6</v>
       </c>
       <c r="D2619" t="s">
         <v>2621</v>
@@ -45995,7 +45995,7 @@
         <v>27</v>
       </c>
       <c r="C2620">
-        <v>5400</v>
+        <v>4710.6</v>
       </c>
       <c r="D2620" t="s">
         <v>2622</v>
@@ -46009,7 +46009,7 @@
         <v>28</v>
       </c>
       <c r="C2621">
-        <v>5550</v>
+        <v>4830.6</v>
       </c>
       <c r="D2621" t="s">
         <v>2623</v>
@@ -46023,7 +46023,7 @@
         <v>29</v>
       </c>
       <c r="C2622">
-        <v>5768</v>
+        <v>4993.9</v>
       </c>
       <c r="D2622" t="s">
         <v>2624</v>
@@ -46037,7 +46037,7 @@
         <v>30</v>
       </c>
       <c r="C2623">
-        <v>5918</v>
+        <v>5103.9</v>
       </c>
       <c r="D2623" t="s">
         <v>2625</v>
@@ -46051,7 +46051,7 @@
         <v>31</v>
       </c>
       <c r="C2624">
-        <v>6048</v>
+        <v>5213.9</v>
       </c>
       <c r="D2624" t="s">
         <v>2626</v>
@@ -46065,7 +46065,7 @@
         <v>32</v>
       </c>
       <c r="C2625">
-        <v>6168</v>
+        <v>5303.9</v>
       </c>
       <c r="D2625" t="s">
         <v>2627</v>
@@ -46079,7 +46079,7 @@
         <v>33</v>
       </c>
       <c r="C2626">
-        <v>6336</v>
+        <v>5604.6</v>
       </c>
       <c r="D2626" t="s">
         <v>2628</v>
@@ -46093,7 +46093,7 @@
         <v>34</v>
       </c>
       <c r="C2627">
-        <v>6416</v>
+        <v>5674.6</v>
       </c>
       <c r="D2627" t="s">
         <v>2629</v>
@@ -46107,7 +46107,7 @@
         <v>35</v>
       </c>
       <c r="C2628">
-        <v>6466</v>
+        <v>5724.6</v>
       </c>
       <c r="D2628" t="s">
         <v>2630</v>
@@ -46121,7 +46121,7 @@
         <v>36</v>
       </c>
       <c r="C2629">
-        <v>6506</v>
+        <v>5754.6</v>
       </c>
       <c r="D2629" t="s">
         <v>2631</v>
@@ -46135,7 +46135,7 @@
         <v>37</v>
       </c>
       <c r="C2630">
-        <v>6437</v>
+        <v>5801.7</v>
       </c>
       <c r="D2630" t="s">
         <v>2632</v>
@@ -46149,7 +46149,7 @@
         <v>38</v>
       </c>
       <c r="C2631">
-        <v>6447</v>
+        <v>5801.7</v>
       </c>
       <c r="D2631" t="s">
         <v>2633</v>
@@ -46163,7 +46163,7 @@
         <v>39</v>
       </c>
       <c r="C2632">
-        <v>6427</v>
+        <v>5781.7</v>
       </c>
       <c r="D2632" t="s">
         <v>2634</v>
@@ -46177,7 +46177,7 @@
         <v>40</v>
       </c>
       <c r="C2633">
-        <v>6407</v>
+        <v>5751.7</v>
       </c>
       <c r="D2633" t="s">
         <v>2635</v>
@@ -46191,7 +46191,7 @@
         <v>41</v>
       </c>
       <c r="C2634">
-        <v>6389</v>
+        <v>6247.5</v>
       </c>
       <c r="D2634" t="s">
         <v>2636</v>
@@ -46205,7 +46205,7 @@
         <v>42</v>
       </c>
       <c r="C2635">
-        <v>6359</v>
+        <v>6217.5</v>
       </c>
       <c r="D2635" t="s">
         <v>2637</v>
@@ -46219,7 +46219,7 @@
         <v>43</v>
       </c>
       <c r="C2636">
-        <v>6339</v>
+        <v>6187.5</v>
       </c>
       <c r="D2636" t="s">
         <v>2638</v>
@@ -46233,7 +46233,7 @@
         <v>44</v>
       </c>
       <c r="C2637">
-        <v>6319</v>
+        <v>6157.5</v>
       </c>
       <c r="D2637" t="s">
         <v>2639</v>
@@ -46247,7 +46247,7 @@
         <v>45</v>
       </c>
       <c r="C2638">
-        <v>6244</v>
+        <v>5825.8</v>
       </c>
       <c r="D2638" t="s">
         <v>2640</v>
@@ -46261,7 +46261,7 @@
         <v>46</v>
       </c>
       <c r="C2639">
-        <v>6244</v>
+        <v>5815.8</v>
       </c>
       <c r="D2639" t="s">
         <v>2641</v>
@@ -46275,7 +46275,7 @@
         <v>47</v>
       </c>
       <c r="C2640">
-        <v>6234</v>
+        <v>5815.8</v>
       </c>
       <c r="D2640" t="s">
         <v>2642</v>
@@ -46289,7 +46289,7 @@
         <v>48</v>
       </c>
       <c r="C2641">
-        <v>6234</v>
+        <v>5835.8</v>
       </c>
       <c r="D2641" t="s">
         <v>2643</v>
@@ -46303,7 +46303,7 @@
         <v>49</v>
       </c>
       <c r="C2642">
-        <v>6213</v>
+        <v>5899.9</v>
       </c>
       <c r="D2642" t="s">
         <v>2644</v>
@@ -46317,7 +46317,7 @@
         <v>50</v>
       </c>
       <c r="C2643">
-        <v>6213</v>
+        <v>5929.9</v>
       </c>
       <c r="D2643" t="s">
         <v>2645</v>
@@ -46331,7 +46331,7 @@
         <v>51</v>
       </c>
       <c r="C2644">
-        <v>6213</v>
+        <v>5949.9</v>
       </c>
       <c r="D2644" t="s">
         <v>2646</v>
@@ -46345,7 +46345,7 @@
         <v>52</v>
       </c>
       <c r="C2645">
-        <v>6213</v>
+        <v>5969.9</v>
       </c>
       <c r="D2645" t="s">
         <v>2647</v>
@@ -46359,7 +46359,7 @@
         <v>53</v>
       </c>
       <c r="C2646">
-        <v>6267</v>
+        <v>5865.8</v>
       </c>
       <c r="D2646" t="s">
         <v>2648</v>
@@ -46373,7 +46373,7 @@
         <v>54</v>
       </c>
       <c r="C2647">
-        <v>6277</v>
+        <v>5875.8</v>
       </c>
       <c r="D2647" t="s">
         <v>2649</v>
@@ -46387,7 +46387,7 @@
         <v>55</v>
       </c>
       <c r="C2648">
-        <v>6277</v>
+        <v>5895.8</v>
       </c>
       <c r="D2648" t="s">
         <v>2650</v>
@@ -46401,7 +46401,7 @@
         <v>56</v>
       </c>
       <c r="C2649">
-        <v>6277</v>
+        <v>5905.8</v>
       </c>
       <c r="D2649" t="s">
         <v>2651</v>
@@ -46415,7 +46415,7 @@
         <v>57</v>
       </c>
       <c r="C2650">
-        <v>6330</v>
+        <v>5876.2</v>
       </c>
       <c r="D2650" t="s">
         <v>2652</v>
@@ -46429,7 +46429,7 @@
         <v>58</v>
       </c>
       <c r="C2651">
-        <v>6330</v>
+        <v>5896.2</v>
       </c>
       <c r="D2651" t="s">
         <v>2653</v>
@@ -46443,7 +46443,7 @@
         <v>59</v>
       </c>
       <c r="C2652">
-        <v>6330</v>
+        <v>5916.2</v>
       </c>
       <c r="D2652" t="s">
         <v>2654</v>
@@ -46457,7 +46457,7 @@
         <v>60</v>
       </c>
       <c r="C2653">
-        <v>6330</v>
+        <v>5936.2</v>
       </c>
       <c r="D2653" t="s">
         <v>2655</v>
@@ -46471,7 +46471,7 @@
         <v>61</v>
       </c>
       <c r="C2654">
-        <v>6454</v>
+        <v>5805.4</v>
       </c>
       <c r="D2654" t="s">
         <v>2656</v>
@@ -46485,7 +46485,7 @@
         <v>62</v>
       </c>
       <c r="C2655">
-        <v>6464</v>
+        <v>5835.4</v>
       </c>
       <c r="D2655" t="s">
         <v>2657</v>
@@ -46499,7 +46499,7 @@
         <v>63</v>
       </c>
       <c r="C2656">
-        <v>6474</v>
+        <v>5865.4</v>
       </c>
       <c r="D2656" t="s">
         <v>2658</v>
@@ -46513,7 +46513,7 @@
         <v>64</v>
       </c>
       <c r="C2657">
-        <v>6504</v>
+        <v>5905.4</v>
       </c>
       <c r="D2657" t="s">
         <v>2659</v>
@@ -46527,7 +46527,7 @@
         <v>65</v>
       </c>
       <c r="C2658">
-        <v>6558</v>
+        <v>5580.2</v>
       </c>
       <c r="D2658" t="s">
         <v>2660</v>
@@ -46541,7 +46541,7 @@
         <v>66</v>
       </c>
       <c r="C2659">
-        <v>6608</v>
+        <v>5620.2</v>
       </c>
       <c r="D2659" t="s">
         <v>2661</v>
@@ -46555,7 +46555,7 @@
         <v>67</v>
       </c>
       <c r="C2660">
-        <v>6668</v>
+        <v>5680.2</v>
       </c>
       <c r="D2660" t="s">
         <v>2662</v>
@@ -46569,7 +46569,7 @@
         <v>68</v>
       </c>
       <c r="C2661">
-        <v>6728</v>
+        <v>5730.2</v>
       </c>
       <c r="D2661" t="s">
         <v>2663</v>
@@ -46583,7 +46583,7 @@
         <v>69</v>
       </c>
       <c r="C2662">
-        <v>6772</v>
+        <v>5738.3</v>
       </c>
       <c r="D2662" t="s">
         <v>2664</v>
@@ -46597,7 +46597,7 @@
         <v>70</v>
       </c>
       <c r="C2663">
-        <v>6832</v>
+        <v>5798.3</v>
       </c>
       <c r="D2663" t="s">
         <v>2665</v>
@@ -46611,7 +46611,7 @@
         <v>71</v>
       </c>
       <c r="C2664">
-        <v>6902</v>
+        <v>5858.3</v>
       </c>
       <c r="D2664" t="s">
         <v>2666</v>
@@ -46625,7 +46625,7 @@
         <v>72</v>
       </c>
       <c r="C2665">
-        <v>6962</v>
+        <v>5908.3</v>
       </c>
       <c r="D2665" t="s">
         <v>2667</v>
@@ -46639,7 +46639,7 @@
         <v>73</v>
       </c>
       <c r="C2666">
-        <v>6979</v>
+        <v>5532.3</v>
       </c>
       <c r="D2666" t="s">
         <v>2668</v>
@@ -46653,7 +46653,7 @@
         <v>74</v>
       </c>
       <c r="C2667">
-        <v>7049</v>
+        <v>5592.3</v>
       </c>
       <c r="D2667" t="s">
         <v>2669</v>
@@ -46667,7 +46667,7 @@
         <v>75</v>
       </c>
       <c r="C2668">
-        <v>7129</v>
+        <v>5652.3</v>
       </c>
       <c r="D2668" t="s">
         <v>2670</v>
@@ -46681,7 +46681,7 @@
         <v>76</v>
       </c>
       <c r="C2669">
-        <v>7229</v>
+        <v>5712.3</v>
       </c>
       <c r="D2669" t="s">
         <v>2671</v>
@@ -46695,7 +46695,7 @@
         <v>77</v>
       </c>
       <c r="C2670">
-        <v>7137</v>
+        <v>5706.9</v>
       </c>
       <c r="D2670" t="s">
         <v>2672</v>
@@ -46709,7 +46709,7 @@
         <v>78</v>
       </c>
       <c r="C2671">
-        <v>7217</v>
+        <v>5756.9</v>
       </c>
       <c r="D2671" t="s">
         <v>2673</v>
@@ -46723,7 +46723,7 @@
         <v>79</v>
       </c>
       <c r="C2672">
-        <v>7287</v>
+        <v>5806.9</v>
       </c>
       <c r="D2672" t="s">
         <v>2674</v>
@@ -46737,7 +46737,7 @@
         <v>80</v>
       </c>
       <c r="C2673">
-        <v>7327</v>
+        <v>5836.9</v>
       </c>
       <c r="D2673" t="s">
         <v>2675</v>
@@ -46751,7 +46751,7 @@
         <v>81</v>
       </c>
       <c r="C2674">
-        <v>7501</v>
+        <v>5749.2</v>
       </c>
       <c r="D2674" t="s">
         <v>2676</v>
@@ -46765,7 +46765,7 @@
         <v>82</v>
       </c>
       <c r="C2675">
-        <v>7551</v>
+        <v>5759.2</v>
       </c>
       <c r="D2675" t="s">
         <v>2677</v>
@@ -46779,7 +46779,7 @@
         <v>83</v>
       </c>
       <c r="C2676">
-        <v>7551</v>
+        <v>5779.2</v>
       </c>
       <c r="D2676" t="s">
         <v>2678</v>
@@ -46793,7 +46793,7 @@
         <v>84</v>
       </c>
       <c r="C2677">
-        <v>7551</v>
+        <v>5779.2</v>
       </c>
       <c r="D2677" t="s">
         <v>2679</v>
@@ -46807,7 +46807,7 @@
         <v>85</v>
       </c>
       <c r="C2678">
-        <v>7509</v>
+        <v>5768.4</v>
       </c>
       <c r="D2678" t="s">
         <v>2680</v>
@@ -46821,7 +46821,7 @@
         <v>86</v>
       </c>
       <c r="C2679">
-        <v>7479</v>
+        <v>5738.4</v>
       </c>
       <c r="D2679" t="s">
         <v>2681</v>
@@ -46835,7 +46835,7 @@
         <v>87</v>
       </c>
       <c r="C2680">
-        <v>7449</v>
+        <v>5698.4</v>
       </c>
       <c r="D2680" t="s">
         <v>2682</v>
@@ -46849,7 +46849,7 @@
         <v>88</v>
       </c>
       <c r="C2681">
-        <v>7409</v>
+        <v>5618.4</v>
       </c>
       <c r="D2681" t="s">
         <v>2683</v>
@@ -46863,7 +46863,7 @@
         <v>89</v>
       </c>
       <c r="C2682">
-        <v>7243</v>
+        <v>5922.3</v>
       </c>
       <c r="D2682" t="s">
         <v>2684</v>
@@ -46877,7 +46877,7 @@
         <v>90</v>
       </c>
       <c r="C2683">
-        <v>7203</v>
+        <v>5832.3</v>
       </c>
       <c r="D2683" t="s">
         <v>2685</v>
@@ -46891,7 +46891,7 @@
         <v>91</v>
       </c>
       <c r="C2684">
-        <v>7063</v>
+        <v>5692.3</v>
       </c>
       <c r="D2684" t="s">
         <v>2686</v>
@@ -46905,7 +46905,7 @@
         <v>92</v>
       </c>
       <c r="C2685">
-        <v>6853</v>
+        <v>5502.3</v>
       </c>
       <c r="D2685" t="s">
         <v>2687</v>
@@ -46919,7 +46919,7 @@
         <v>93</v>
       </c>
       <c r="C2686">
-        <v>6574</v>
+        <v>5617.8</v>
       </c>
       <c r="D2686" t="s">
         <v>2688</v>
@@ -46933,7 +46933,7 @@
         <v>94</v>
       </c>
       <c r="C2687">
-        <v>6374</v>
+        <v>5437.8</v>
       </c>
       <c r="D2687" t="s">
         <v>2689</v>
@@ -46947,7 +46947,7 @@
         <v>95</v>
       </c>
       <c r="C2688">
-        <v>6294</v>
+        <v>5297.8</v>
       </c>
       <c r="D2688" t="s">
         <v>2690</v>
@@ -46961,7 +46961,7 @@
         <v>96</v>
       </c>
       <c r="C2689">
-        <v>6184</v>
+        <v>5157.8</v>
       </c>
       <c r="D2689" t="s">
         <v>2691</v>
@@ -46975,7 +46975,7 @@
         <v>1</v>
       </c>
       <c r="C2690">
-        <v>5417</v>
+        <v>5204.8</v>
       </c>
       <c r="D2690" t="s">
         <v>2692</v>
@@ -46989,7 +46989,7 @@
         <v>2</v>
       </c>
       <c r="C2691">
-        <v>5367</v>
+        <v>5164.8</v>
       </c>
       <c r="D2691" t="s">
         <v>2693</v>
@@ -47003,7 +47003,7 @@
         <v>3</v>
       </c>
       <c r="C2692">
-        <v>5307</v>
+        <v>5094.8</v>
       </c>
       <c r="D2692" t="s">
         <v>2694</v>
@@ -47017,7 +47017,7 @@
         <v>4</v>
       </c>
       <c r="C2693">
-        <v>5227</v>
+        <v>4994.8</v>
       </c>
       <c r="D2693" t="s">
         <v>2695</v>
@@ -47031,7 +47031,7 @@
         <v>5</v>
       </c>
       <c r="C2694">
-        <v>5664</v>
+        <v>5637.4</v>
       </c>
       <c r="D2694" t="s">
         <v>2696</v>
@@ -47045,7 +47045,7 @@
         <v>6</v>
       </c>
       <c r="C2695">
-        <v>5604</v>
+        <v>5567.4</v>
       </c>
       <c r="D2695" t="s">
         <v>2697</v>
@@ -47059,7 +47059,7 @@
         <v>7</v>
       </c>
       <c r="C2696">
-        <v>5544</v>
+        <v>5517.4</v>
       </c>
       <c r="D2696" t="s">
         <v>2698</v>
@@ -47073,7 +47073,7 @@
         <v>8</v>
       </c>
       <c r="C2697">
-        <v>5494</v>
+        <v>5467.4</v>
       </c>
       <c r="D2697" t="s">
         <v>2699</v>
@@ -47087,7 +47087,7 @@
         <v>9</v>
       </c>
       <c r="C2698">
-        <v>5441</v>
+        <v>5017.9</v>
       </c>
       <c r="D2698" t="s">
         <v>2700</v>
@@ -47101,7 +47101,7 @@
         <v>10</v>
       </c>
       <c r="C2699">
-        <v>5391</v>
+        <v>4977.9</v>
       </c>
       <c r="D2699" t="s">
         <v>2701</v>
@@ -47115,7 +47115,7 @@
         <v>11</v>
       </c>
       <c r="C2700">
-        <v>5351</v>
+        <v>4957.9</v>
       </c>
       <c r="D2700" t="s">
         <v>2702</v>
@@ -47129,7 +47129,7 @@
         <v>12</v>
       </c>
       <c r="C2701">
-        <v>5311</v>
+        <v>4947.9</v>
       </c>
       <c r="D2701" t="s">
         <v>2703</v>
@@ -47143,7 +47143,7 @@
         <v>13</v>
       </c>
       <c r="C2702">
-        <v>5268</v>
+        <v>5192.1</v>
       </c>
       <c r="D2702" t="s">
         <v>2704</v>
@@ -47157,7 +47157,7 @@
         <v>14</v>
       </c>
       <c r="C2703">
-        <v>5248</v>
+        <v>5182.1</v>
       </c>
       <c r="D2703" t="s">
         <v>2705</v>
@@ -47171,7 +47171,7 @@
         <v>15</v>
       </c>
       <c r="C2704">
-        <v>5238</v>
+        <v>5182.1</v>
       </c>
       <c r="D2704" t="s">
         <v>2706</v>
@@ -47185,7 +47185,7 @@
         <v>16</v>
       </c>
       <c r="C2705">
-        <v>5218</v>
+        <v>5192.1</v>
       </c>
       <c r="D2705" t="s">
         <v>2707</v>
@@ -47199,7 +47199,7 @@
         <v>17</v>
       </c>
       <c r="C2706">
-        <v>5212</v>
+        <v>5262.700000000001</v>
       </c>
       <c r="D2706" t="s">
         <v>2708</v>
@@ -47213,7 +47213,7 @@
         <v>18</v>
       </c>
       <c r="C2707">
-        <v>5212</v>
+        <v>5272.700000000001</v>
       </c>
       <c r="D2707" t="s">
         <v>2709</v>
@@ -47227,7 +47227,7 @@
         <v>19</v>
       </c>
       <c r="C2708">
-        <v>5222</v>
+        <v>5272.700000000001</v>
       </c>
       <c r="D2708" t="s">
         <v>2710</v>
@@ -47241,7 +47241,7 @@
         <v>20</v>
       </c>
       <c r="C2709">
-        <v>5242</v>
+        <v>5272.700000000001</v>
       </c>
       <c r="D2709" t="s">
         <v>2711</v>
@@ -47255,7 +47255,7 @@
         <v>21</v>
       </c>
       <c r="C2710">
-        <v>5287</v>
+        <v>5213.1</v>
       </c>
       <c r="D2710" t="s">
         <v>2712</v>
@@ -47269,7 +47269,7 @@
         <v>22</v>
       </c>
       <c r="C2711">
-        <v>5317</v>
+        <v>5213.1</v>
       </c>
       <c r="D2711" t="s">
         <v>2713</v>
@@ -47283,7 +47283,7 @@
         <v>23</v>
       </c>
       <c r="C2712">
-        <v>5357</v>
+        <v>5223.1</v>
       </c>
       <c r="D2712" t="s">
         <v>2714</v>
@@ -47297,7 +47297,7 @@
         <v>24</v>
       </c>
       <c r="C2713">
-        <v>5417</v>
+        <v>5263.1</v>
       </c>
       <c r="D2713" t="s">
         <v>2715</v>
@@ -47311,7 +47311,7 @@
         <v>25</v>
       </c>
       <c r="C2714">
-        <v>5530</v>
+        <v>5310</v>
       </c>
       <c r="D2714" t="s">
         <v>2716</v>
@@ -47325,7 +47325,7 @@
         <v>26</v>
       </c>
       <c r="C2715">
-        <v>5610</v>
+        <v>5410</v>
       </c>
       <c r="D2715" t="s">
         <v>2717</v>
@@ -47339,7 +47339,7 @@
         <v>27</v>
       </c>
       <c r="C2716">
-        <v>5700</v>
+        <v>5510</v>
       </c>
       <c r="D2716" t="s">
         <v>2718</v>
@@ -47353,7 +47353,7 @@
         <v>28</v>
       </c>
       <c r="C2717">
-        <v>5800</v>
+        <v>5610</v>
       </c>
       <c r="D2717" t="s">
         <v>2719</v>
@@ -47367,7 +47367,7 @@
         <v>29</v>
       </c>
       <c r="C2718">
-        <v>5968</v>
+        <v>5329.2</v>
       </c>
       <c r="D2718" t="s">
         <v>2720</v>
@@ -47381,7 +47381,7 @@
         <v>30</v>
       </c>
       <c r="C2719">
-        <v>6068</v>
+        <v>5429.2</v>
       </c>
       <c r="D2719" t="s">
         <v>2721</v>
@@ -47395,7 +47395,7 @@
         <v>31</v>
       </c>
       <c r="C2720">
-        <v>6158</v>
+        <v>5519.2</v>
       </c>
       <c r="D2720" t="s">
         <v>2722</v>
@@ -47409,7 +47409,7 @@
         <v>32</v>
       </c>
       <c r="C2721">
-        <v>6238</v>
+        <v>5599.2</v>
       </c>
       <c r="D2721" t="s">
         <v>2723</v>
@@ -47423,7 +47423,7 @@
         <v>33</v>
       </c>
       <c r="C2722">
-        <v>6366</v>
+        <v>5678.799999999999</v>
       </c>
       <c r="D2722" t="s">
         <v>2724</v>
@@ -47437,7 +47437,7 @@
         <v>34</v>
       </c>
       <c r="C2723">
-        <v>6406</v>
+        <v>5738.799999999999</v>
       </c>
       <c r="D2723" t="s">
         <v>2725</v>
@@ -47451,7 +47451,7 @@
         <v>35</v>
       </c>
       <c r="C2724">
-        <v>6406</v>
+        <v>5778.799999999999</v>
       </c>
       <c r="D2724" t="s">
         <v>2726</v>
@@ -47465,7 +47465,7 @@
         <v>36</v>
       </c>
       <c r="C2725">
-        <v>6406</v>
+        <v>5798.799999999999</v>
       </c>
       <c r="D2725" t="s">
         <v>2727</v>
@@ -47479,7 +47479,7 @@
         <v>37</v>
       </c>
       <c r="C2726">
-        <v>6337</v>
+        <v>5848.4</v>
       </c>
       <c r="D2726" t="s">
         <v>2728</v>
@@ -47493,7 +47493,7 @@
         <v>38</v>
       </c>
       <c r="C2727">
-        <v>6307</v>
+        <v>5848.4</v>
       </c>
       <c r="D2727" t="s">
         <v>2729</v>
@@ -47507,7 +47507,7 @@
         <v>39</v>
       </c>
       <c r="C2728">
-        <v>6267</v>
+        <v>5848.4</v>
       </c>
       <c r="D2728" t="s">
         <v>2730</v>
@@ -47521,7 +47521,7 @@
         <v>40</v>
       </c>
       <c r="C2729">
-        <v>6227</v>
+        <v>5848.4</v>
       </c>
       <c r="D2729" t="s">
         <v>2731</v>
@@ -47535,7 +47535,7 @@
         <v>41</v>
       </c>
       <c r="C2730">
-        <v>6189</v>
+        <v>5981.8</v>
       </c>
       <c r="D2730" t="s">
         <v>2732</v>
@@ -47549,7 +47549,7 @@
         <v>42</v>
       </c>
       <c r="C2731">
-        <v>6159</v>
+        <v>5961.8</v>
       </c>
       <c r="D2731" t="s">
         <v>2733</v>
@@ -47563,7 +47563,7 @@
         <v>43</v>
       </c>
       <c r="C2732">
-        <v>6139</v>
+        <v>5931.8</v>
       </c>
       <c r="D2732" t="s">
         <v>2734</v>
@@ -47577,7 +47577,7 @@
         <v>44</v>
       </c>
       <c r="C2733">
-        <v>6129</v>
+        <v>5891.8</v>
       </c>
       <c r="D2733" t="s">
         <v>2735</v>
@@ -47591,7 +47591,7 @@
         <v>45</v>
       </c>
       <c r="C2734">
-        <v>6064</v>
+        <v>5997.9</v>
       </c>
       <c r="D2734" t="s">
         <v>2736</v>
@@ -47605,7 +47605,7 @@
         <v>46</v>
       </c>
       <c r="C2735">
-        <v>6074</v>
+        <v>5977.9</v>
       </c>
       <c r="D2735" t="s">
         <v>2737</v>
@@ -47619,7 +47619,7 @@
         <v>47</v>
       </c>
       <c r="C2736">
-        <v>6084</v>
+        <v>5957.9</v>
       </c>
       <c r="D2736" t="s">
         <v>2738</v>
@@ -47633,7 +47633,7 @@
         <v>48</v>
       </c>
       <c r="C2737">
-        <v>6094</v>
+        <v>5947.9</v>
       </c>
       <c r="D2737" t="s">
         <v>2739</v>
@@ -47647,7 +47647,7 @@
         <v>49</v>
       </c>
       <c r="C2738">
-        <v>6063</v>
+        <v>5744.1</v>
       </c>
       <c r="D2738" t="s">
         <v>2740</v>
@@ -47661,7 +47661,7 @@
         <v>50</v>
       </c>
       <c r="C2739">
-        <v>6063</v>
+        <v>5744.1</v>
       </c>
       <c r="D2739" t="s">
         <v>2741</v>
@@ -47675,7 +47675,7 @@
         <v>51</v>
       </c>
       <c r="C2740">
-        <v>6053</v>
+        <v>5744.1</v>
       </c>
       <c r="D2740" t="s">
         <v>2742</v>
@@ -47689,7 +47689,7 @@
         <v>52</v>
       </c>
       <c r="C2741">
-        <v>6043</v>
+        <v>5754.1</v>
       </c>
       <c r="D2741" t="s">
         <v>2743</v>
@@ -47703,7 +47703,7 @@
         <v>53</v>
       </c>
       <c r="C2742">
-        <v>6087</v>
+        <v>5504.9</v>
       </c>
       <c r="D2742" t="s">
         <v>2744</v>
@@ -47717,7 +47717,7 @@
         <v>54</v>
       </c>
       <c r="C2743">
-        <v>6077</v>
+        <v>5544.9</v>
       </c>
       <c r="D2743" t="s">
         <v>2745</v>
@@ -47731,7 +47731,7 @@
         <v>55</v>
       </c>
       <c r="C2744">
-        <v>6067</v>
+        <v>5544.9</v>
       </c>
       <c r="D2744" t="s">
         <v>2746</v>
@@ -47745,7 +47745,7 @@
         <v>56</v>
       </c>
       <c r="C2745">
-        <v>6067</v>
+        <v>5554.9</v>
       </c>
       <c r="D2745" t="s">
         <v>2747</v>
@@ -47759,7 +47759,7 @@
         <v>57</v>
       </c>
       <c r="C2746">
-        <v>6130</v>
+        <v>5481.7</v>
       </c>
       <c r="D2746" t="s">
         <v>2748</v>
@@ -47773,7 +47773,7 @@
         <v>58</v>
       </c>
       <c r="C2747">
-        <v>6140</v>
+        <v>5481.7</v>
       </c>
       <c r="D2747" t="s">
         <v>2749</v>
@@ -47787,7 +47787,7 @@
         <v>59</v>
       </c>
       <c r="C2748">
-        <v>6160</v>
+        <v>5481.7</v>
       </c>
       <c r="D2748" t="s">
         <v>2750</v>
@@ -47801,7 +47801,7 @@
         <v>60</v>
       </c>
       <c r="C2749">
-        <v>6190</v>
+        <v>5481.7</v>
       </c>
       <c r="D2749" t="s">
         <v>2751</v>
@@ -47815,7 +47815,7 @@
         <v>61</v>
       </c>
       <c r="C2750">
-        <v>6324</v>
+        <v>5453.5</v>
       </c>
       <c r="D2750" t="s">
         <v>2752</v>
@@ -47829,7 +47829,7 @@
         <v>62</v>
       </c>
       <c r="C2751">
-        <v>6354</v>
+        <v>5473.5</v>
       </c>
       <c r="D2751" t="s">
         <v>2753</v>
@@ -47843,7 +47843,7 @@
         <v>63</v>
       </c>
       <c r="C2752">
-        <v>6394</v>
+        <v>5483.5</v>
       </c>
       <c r="D2752" t="s">
         <v>2754</v>
@@ -47857,7 +47857,7 @@
         <v>64</v>
       </c>
       <c r="C2753">
-        <v>6424</v>
+        <v>5503.5</v>
       </c>
       <c r="D2753" t="s">
         <v>2755</v>
@@ -47871,7 +47871,7 @@
         <v>65</v>
       </c>
       <c r="C2754">
-        <v>6498</v>
+        <v>5473.7</v>
       </c>
       <c r="D2754" t="s">
         <v>2756</v>
@@ -47885,7 +47885,7 @@
         <v>66</v>
       </c>
       <c r="C2755">
-        <v>6548</v>
+        <v>5503.7</v>
       </c>
       <c r="D2755" t="s">
         <v>2757</v>
@@ -47899,7 +47899,7 @@
         <v>67</v>
       </c>
       <c r="C2756">
-        <v>6608</v>
+        <v>5543.7</v>
       </c>
       <c r="D2756" t="s">
         <v>2758</v>
@@ -47913,7 +47913,7 @@
         <v>68</v>
       </c>
       <c r="C2757">
-        <v>6668</v>
+        <v>5583.7</v>
       </c>
       <c r="D2757" t="s">
         <v>2759</v>
@@ -47927,7 +47927,7 @@
         <v>69</v>
       </c>
       <c r="C2758">
-        <v>6702</v>
+        <v>5487.3</v>
       </c>
       <c r="D2758" t="s">
         <v>2760</v>
@@ -47941,7 +47941,7 @@
         <v>70</v>
       </c>
       <c r="C2759">
-        <v>6762</v>
+        <v>5547.3</v>
       </c>
       <c r="D2759" t="s">
         <v>2761</v>
@@ -47955,7 +47955,7 @@
         <v>71</v>
       </c>
       <c r="C2760">
-        <v>6812</v>
+        <v>5587.3</v>
       </c>
       <c r="D2760" t="s">
         <v>2762</v>
@@ -47969,7 +47969,7 @@
         <v>72</v>
       </c>
       <c r="C2761">
-        <v>6862</v>
+        <v>5637.3</v>
       </c>
       <c r="D2761" t="s">
         <v>2763</v>
@@ -47983,7 +47983,7 @@
         <v>73</v>
       </c>
       <c r="C2762">
-        <v>6859</v>
+        <v>5925.2</v>
       </c>
       <c r="D2762" t="s">
         <v>2764</v>
@@ -47997,7 +47997,7 @@
         <v>74</v>
       </c>
       <c r="C2763">
-        <v>6909</v>
+        <v>5975.2</v>
       </c>
       <c r="D2763" t="s">
         <v>2765</v>
@@ -48011,7 +48011,7 @@
         <v>75</v>
       </c>
       <c r="C2764">
-        <v>6979</v>
+        <v>6015.2</v>
       </c>
       <c r="D2764" t="s">
         <v>2766</v>
@@ -48025,7 +48025,7 @@
         <v>76</v>
       </c>
       <c r="C2765">
-        <v>7059</v>
+        <v>6055.2</v>
       </c>
       <c r="D2765" t="s">
         <v>2767</v>
@@ -48039,7 +48039,7 @@
         <v>77</v>
       </c>
       <c r="C2766">
-        <v>6957</v>
+        <v>6108.5</v>
       </c>
       <c r="D2766" t="s">
         <v>2768</v>
@@ -48053,7 +48053,7 @@
         <v>78</v>
       </c>
       <c r="C2767">
-        <v>7017</v>
+        <v>6168.5</v>
       </c>
       <c r="D2767" t="s">
         <v>2769</v>
@@ -48067,7 +48067,7 @@
         <v>79</v>
       </c>
       <c r="C2768">
-        <v>7067</v>
+        <v>6208.5</v>
       </c>
       <c r="D2768" t="s">
         <v>2770</v>
@@ -48081,7 +48081,7 @@
         <v>80</v>
       </c>
       <c r="C2769">
-        <v>7097</v>
+        <v>6238.5</v>
       </c>
       <c r="D2769" t="s">
         <v>2771</v>
@@ -48095,7 +48095,7 @@
         <v>81</v>
       </c>
       <c r="C2770">
-        <v>7241</v>
+        <v>6481</v>
       </c>
       <c r="D2770" t="s">
         <v>2772</v>
@@ -48109,7 +48109,7 @@
         <v>82</v>
       </c>
       <c r="C2771">
-        <v>7251</v>
+        <v>6521</v>
       </c>
       <c r="D2771" t="s">
         <v>2773</v>
@@ -48123,7 +48123,7 @@
         <v>83</v>
       </c>
       <c r="C2772">
-        <v>7251</v>
+        <v>6541</v>
       </c>
       <c r="D2772" t="s">
         <v>2774</v>
@@ -48137,7 +48137,7 @@
         <v>84</v>
       </c>
       <c r="C2773">
-        <v>7251</v>
+        <v>6581</v>
       </c>
       <c r="D2773" t="s">
         <v>2775</v>
@@ -48151,7 +48151,7 @@
         <v>85</v>
       </c>
       <c r="C2774">
-        <v>7209</v>
+        <v>6635.9</v>
       </c>
       <c r="D2774" t="s">
         <v>2776</v>
@@ -48165,7 +48165,7 @@
         <v>86</v>
       </c>
       <c r="C2775">
-        <v>7209</v>
+        <v>6625.9</v>
       </c>
       <c r="D2775" t="s">
         <v>2777</v>
@@ -48179,7 +48179,7 @@
         <v>87</v>
       </c>
       <c r="C2776">
-        <v>7199</v>
+        <v>6595.9</v>
       </c>
       <c r="D2776" t="s">
         <v>2778</v>
@@ -48193,7 +48193,7 @@
         <v>88</v>
       </c>
       <c r="C2777">
-        <v>7159</v>
+        <v>6485.9</v>
       </c>
       <c r="D2777" t="s">
         <v>2779</v>
@@ -48207,7 +48207,7 @@
         <v>89</v>
       </c>
       <c r="C2778">
-        <v>6983</v>
+        <v>6420.4</v>
       </c>
       <c r="D2778" t="s">
         <v>2780</v>
@@ -48221,7 +48221,7 @@
         <v>90</v>
       </c>
       <c r="C2779">
-        <v>6933</v>
+        <v>6250.4</v>
       </c>
       <c r="D2779" t="s">
         <v>2781</v>
@@ -48235,7 +48235,7 @@
         <v>91</v>
       </c>
       <c r="C2780">
-        <v>6813</v>
+        <v>6100.4</v>
       </c>
       <c r="D2780" t="s">
         <v>2782</v>
@@ -48249,7 +48249,7 @@
         <v>92</v>
       </c>
       <c r="C2781">
-        <v>6643</v>
+        <v>5940.4</v>
       </c>
       <c r="D2781" t="s">
         <v>2783</v>
@@ -48263,7 +48263,7 @@
         <v>93</v>
       </c>
       <c r="C2782">
-        <v>6434</v>
+        <v>6239.6</v>
       </c>
       <c r="D2782" t="s">
         <v>2784</v>
@@ -48277,7 +48277,7 @@
         <v>94</v>
       </c>
       <c r="C2783">
-        <v>6294</v>
+        <v>6089.6</v>
       </c>
       <c r="D2783" t="s">
         <v>2785</v>
@@ -48291,7 +48291,7 @@
         <v>95</v>
       </c>
       <c r="C2784">
-        <v>6194</v>
+        <v>5979.6</v>
       </c>
       <c r="D2784" t="s">
         <v>2786</v>
@@ -48305,7 +48305,7 @@
         <v>96</v>
       </c>
       <c r="C2785">
-        <v>6084</v>
+        <v>5869.6</v>
       </c>
       <c r="D2785" t="s">
         <v>2787</v>
@@ -48319,7 +48319,7 @@
         <v>1</v>
       </c>
       <c r="C2786">
-        <v>5357</v>
+        <v>5695.9</v>
       </c>
       <c r="D2786" t="s">
         <v>2788</v>
@@ -48333,7 +48333,7 @@
         <v>2</v>
       </c>
       <c r="C2787">
-        <v>5317</v>
+        <v>5645.9</v>
       </c>
       <c r="D2787" t="s">
         <v>2789</v>
@@ -48347,7 +48347,7 @@
         <v>3</v>
       </c>
       <c r="C2788">
-        <v>5257</v>
+        <v>5595.9</v>
       </c>
       <c r="D2788" t="s">
         <v>2790</v>
@@ -48361,7 +48361,7 @@
         <v>4</v>
       </c>
       <c r="C2789">
-        <v>5167</v>
+        <v>5545.9</v>
       </c>
       <c r="D2789" t="s">
         <v>2791</v>
@@ -48375,7 +48375,7 @@
         <v>5</v>
       </c>
       <c r="C2790">
-        <v>5604</v>
+        <v>5454.6</v>
       </c>
       <c r="D2790" t="s">
         <v>2792</v>
@@ -48389,7 +48389,7 @@
         <v>6</v>
       </c>
       <c r="C2791">
-        <v>5524</v>
+        <v>5404.6</v>
       </c>
       <c r="D2791" t="s">
         <v>2793</v>
@@ -48403,7 +48403,7 @@
         <v>7</v>
       </c>
       <c r="C2792">
-        <v>5464</v>
+        <v>5364.6</v>
       </c>
       <c r="D2792" t="s">
         <v>2794</v>
@@ -48417,7 +48417,7 @@
         <v>8</v>
       </c>
       <c r="C2793">
-        <v>5404</v>
+        <v>5314.6</v>
       </c>
       <c r="D2793" t="s">
         <v>2795</v>
@@ -48431,7 +48431,7 @@
         <v>9</v>
       </c>
       <c r="C2794">
-        <v>5351</v>
+        <v>5379.4</v>
       </c>
       <c r="D2794" t="s">
         <v>2796</v>
@@ -48445,7 +48445,7 @@
         <v>10</v>
       </c>
       <c r="C2795">
-        <v>5311</v>
+        <v>5329.4</v>
       </c>
       <c r="D2795" t="s">
         <v>2797</v>
@@ -48459,7 +48459,7 @@
         <v>11</v>
       </c>
       <c r="C2796">
-        <v>5281</v>
+        <v>5289.4</v>
       </c>
       <c r="D2796" t="s">
         <v>2798</v>
@@ -48473,7 +48473,7 @@
         <v>12</v>
       </c>
       <c r="C2797">
-        <v>5261</v>
+        <v>5249.4</v>
       </c>
       <c r="D2797" t="s">
         <v>2799</v>
@@ -48487,7 +48487,7 @@
         <v>13</v>
       </c>
       <c r="C2798">
-        <v>5238</v>
+        <v>5245.8</v>
       </c>
       <c r="D2798" t="s">
         <v>2800</v>
@@ -48501,7 +48501,7 @@
         <v>14</v>
       </c>
       <c r="C2799">
-        <v>5228</v>
+        <v>5215.8</v>
       </c>
       <c r="D2799" t="s">
         <v>2801</v>
@@ -48515,7 +48515,7 @@
         <v>15</v>
       </c>
       <c r="C2800">
-        <v>5228</v>
+        <v>5215.8</v>
       </c>
       <c r="D2800" t="s">
         <v>2802</v>
@@ -48529,7 +48529,7 @@
         <v>16</v>
       </c>
       <c r="C2801">
-        <v>5228</v>
+        <v>5205.8</v>
       </c>
       <c r="D2801" t="s">
         <v>2803</v>
@@ -48543,7 +48543,7 @@
         <v>17</v>
       </c>
       <c r="C2802">
-        <v>5212</v>
+        <v>5107.9</v>
       </c>
       <c r="D2802" t="s">
         <v>2804</v>
@@ -48557,7 +48557,7 @@
         <v>18</v>
       </c>
       <c r="C2803">
-        <v>5212</v>
+        <v>5097.9</v>
       </c>
       <c r="D2803" t="s">
         <v>2805</v>
@@ -48571,7 +48571,7 @@
         <v>19</v>
       </c>
       <c r="C2804">
-        <v>5202</v>
+        <v>5097.9</v>
       </c>
       <c r="D2804" t="s">
         <v>2806</v>
@@ -48585,7 +48585,7 @@
         <v>20</v>
       </c>
       <c r="C2805">
-        <v>5212</v>
+        <v>5107.9</v>
       </c>
       <c r="D2805" t="s">
         <v>2807</v>
@@ -48599,7 +48599,7 @@
         <v>21</v>
       </c>
       <c r="C2806">
-        <v>5247</v>
+        <v>4919.4</v>
       </c>
       <c r="D2806" t="s">
         <v>2808</v>
@@ -48613,7 +48613,7 @@
         <v>22</v>
       </c>
       <c r="C2807">
-        <v>5267</v>
+        <v>4949.4</v>
       </c>
       <c r="D2807" t="s">
         <v>2809</v>
@@ -48627,7 +48627,7 @@
         <v>23</v>
       </c>
       <c r="C2808">
-        <v>5307</v>
+        <v>4999.4</v>
       </c>
       <c r="D2808" t="s">
         <v>2810</v>
@@ -48641,7 +48641,7 @@
         <v>24</v>
       </c>
       <c r="C2809">
-        <v>5357</v>
+        <v>5059.4</v>
       </c>
       <c r="D2809" t="s">
         <v>2811</v>
@@ -48655,7 +48655,7 @@
         <v>25</v>
       </c>
       <c r="C2810">
-        <v>5470</v>
+        <v>4852.8</v>
       </c>
       <c r="D2810" t="s">
         <v>2812</v>
@@ -48669,7 +48669,7 @@
         <v>26</v>
       </c>
       <c r="C2811">
-        <v>5550</v>
+        <v>4932.8</v>
       </c>
       <c r="D2811" t="s">
         <v>2813</v>
@@ -48683,7 +48683,7 @@
         <v>27</v>
       </c>
       <c r="C2812">
-        <v>5650</v>
+        <v>5022.8</v>
       </c>
       <c r="D2812" t="s">
         <v>2814</v>
@@ -48697,7 +48697,7 @@
         <v>28</v>
       </c>
       <c r="C2813">
-        <v>5760</v>
+        <v>5132.8</v>
       </c>
       <c r="D2813" t="s">
         <v>2815</v>
@@ -48711,7 +48711,7 @@
         <v>29</v>
       </c>
       <c r="C2814">
-        <v>5928</v>
+        <v>5310.2</v>
       </c>
       <c r="D2814" t="s">
         <v>2816</v>
@@ -48725,7 +48725,7 @@
         <v>30</v>
       </c>
       <c r="C2815">
-        <v>6038</v>
+        <v>5430.2</v>
       </c>
       <c r="D2815" t="s">
         <v>2817</v>
@@ -48739,7 +48739,7 @@
         <v>31</v>
       </c>
       <c r="C2816">
-        <v>6138</v>
+        <v>5540.2</v>
       </c>
       <c r="D2816" t="s">
         <v>2818</v>
@@ -48753,7 +48753,7 @@
         <v>32</v>
       </c>
       <c r="C2817">
-        <v>6228</v>
+        <v>5630.2</v>
       </c>
       <c r="D2817" t="s">
         <v>2819</v>
@@ -48767,7 +48767,7 @@
         <v>33</v>
       </c>
       <c r="C2818">
-        <v>6366</v>
+        <v>5446.6</v>
       </c>
       <c r="D2818" t="s">
         <v>2820</v>
@@ -48781,7 +48781,7 @@
         <v>34</v>
       </c>
       <c r="C2819">
-        <v>6426</v>
+        <v>5526.6</v>
       </c>
       <c r="D2819" t="s">
         <v>2821</v>
@@ -48795,7 +48795,7 @@
         <v>35</v>
       </c>
       <c r="C2820">
-        <v>6466</v>
+        <v>5566.6</v>
       </c>
       <c r="D2820" t="s">
         <v>2822</v>
@@ -48809,7 +48809,7 @@
         <v>36</v>
       </c>
       <c r="C2821">
-        <v>6486</v>
+        <v>5596.6</v>
       </c>
       <c r="D2821" t="s">
         <v>2823</v>
@@ -48823,7 +48823,7 @@
         <v>37</v>
       </c>
       <c r="C2822">
-        <v>6417</v>
+        <v>5748.5</v>
       </c>
       <c r="D2822" t="s">
         <v>2824</v>
@@ -48837,7 +48837,7 @@
         <v>38</v>
       </c>
       <c r="C2823">
-        <v>6417</v>
+        <v>5728.5</v>
       </c>
       <c r="D2823" t="s">
         <v>2825</v>
@@ -48851,7 +48851,7 @@
         <v>39</v>
       </c>
       <c r="C2824">
-        <v>6397</v>
+        <v>5698.5</v>
       </c>
       <c r="D2824" t="s">
         <v>2826</v>
@@ -48865,7 +48865,7 @@
         <v>40</v>
       </c>
       <c r="C2825">
-        <v>6377</v>
+        <v>5668.5</v>
       </c>
       <c r="D2825" t="s">
         <v>2827</v>
@@ -48879,7 +48879,7 @@
         <v>41</v>
       </c>
       <c r="C2826">
-        <v>6359</v>
+        <v>5968</v>
       </c>
       <c r="D2826" t="s">
         <v>2828</v>
@@ -48893,7 +48893,7 @@
         <v>42</v>
       </c>
       <c r="C2827">
-        <v>6339</v>
+        <v>5938</v>
       </c>
       <c r="D2827" t="s">
         <v>2829</v>
@@ -48907,7 +48907,7 @@
         <v>43</v>
       </c>
       <c r="C2828">
-        <v>6319</v>
+        <v>5898</v>
       </c>
       <c r="D2828" t="s">
         <v>2830</v>
@@ -48921,7 +48921,7 @@
         <v>44</v>
       </c>
       <c r="C2829">
-        <v>6309</v>
+        <v>5868</v>
       </c>
       <c r="D2829" t="s">
         <v>2831</v>
@@ -48935,7 +48935,7 @@
         <v>45</v>
       </c>
       <c r="C2830">
-        <v>6234</v>
+        <v>6007.1</v>
       </c>
       <c r="D2830" t="s">
         <v>2832</v>
@@ -48949,7 +48949,7 @@
         <v>46</v>
       </c>
       <c r="C2831">
-        <v>6234</v>
+        <v>5987.1</v>
       </c>
       <c r="D2831" t="s">
         <v>2833</v>
@@ -48963,7 +48963,7 @@
         <v>47</v>
       </c>
       <c r="C2832">
-        <v>6234</v>
+        <v>5977.1</v>
       </c>
       <c r="D2832" t="s">
         <v>2834</v>
@@ -48977,7 +48977,7 @@
         <v>48</v>
       </c>
       <c r="C2833">
-        <v>6234</v>
+        <v>5957.1</v>
       </c>
       <c r="D2833" t="s">
         <v>2835</v>
@@ -48991,7 +48991,7 @@
         <v>49</v>
       </c>
       <c r="C2834">
-        <v>6213</v>
+        <v>6041.3</v>
       </c>
       <c r="D2834" t="s">
         <v>2836</v>
@@ -49005,7 +49005,7 @@
         <v>50</v>
       </c>
       <c r="C2835">
-        <v>6213</v>
+        <v>6021.3</v>
       </c>
       <c r="D2835" t="s">
         <v>2837</v>
@@ -49019,7 +49019,7 @@
         <v>51</v>
       </c>
       <c r="C2836">
-        <v>6213</v>
+        <v>6001.3</v>
       </c>
       <c r="D2836" t="s">
         <v>2838</v>
@@ -49033,7 +49033,7 @@
         <v>52</v>
       </c>
       <c r="C2837">
-        <v>6223</v>
+        <v>5991.3</v>
       </c>
       <c r="D2837" t="s">
         <v>2839</v>
@@ -49047,7 +49047,7 @@
         <v>53</v>
       </c>
       <c r="C2838">
-        <v>6287</v>
+        <v>5912.5</v>
       </c>
       <c r="D2838" t="s">
         <v>2840</v>
@@ -49061,7 +49061,7 @@
         <v>54</v>
       </c>
       <c r="C2839">
-        <v>6307</v>
+        <v>5912.5</v>
       </c>
       <c r="D2839" t="s">
         <v>2841</v>
@@ -49075,7 +49075,7 @@
         <v>55</v>
       </c>
       <c r="C2840">
-        <v>6317</v>
+        <v>5912.5</v>
       </c>
       <c r="D2840" t="s">
         <v>2842</v>
@@ -49089,7 +49089,7 @@
         <v>56</v>
       </c>
       <c r="C2841">
-        <v>6347</v>
+        <v>5912.5</v>
       </c>
       <c r="D2841" t="s">
         <v>2843</v>
@@ -49103,7 +49103,7 @@
         <v>57</v>
       </c>
       <c r="C2842">
-        <v>6420</v>
+        <v>5991.6</v>
       </c>
       <c r="D2842" t="s">
         <v>2844</v>
@@ -49117,7 +49117,7 @@
         <v>58</v>
       </c>
       <c r="C2843">
-        <v>6450</v>
+        <v>5991.6</v>
       </c>
       <c r="D2843" t="s">
         <v>2845</v>
@@ -49131,7 +49131,7 @@
         <v>59</v>
       </c>
       <c r="C2844">
-        <v>6470</v>
+        <v>5991.6</v>
       </c>
       <c r="D2844" t="s">
         <v>2846</v>
@@ -49145,7 +49145,7 @@
         <v>60</v>
       </c>
       <c r="C2845">
-        <v>6490</v>
+        <v>6001.6</v>
       </c>
       <c r="D2845" t="s">
         <v>2847</v>
@@ -49159,7 +49159,7 @@
         <v>61</v>
       </c>
       <c r="C2846">
-        <v>6624</v>
+        <v>5997.7</v>
       </c>
       <c r="D2846" t="s">
         <v>2848</v>
@@ -49173,7 +49173,7 @@
         <v>62</v>
       </c>
       <c r="C2847">
-        <v>6634</v>
+        <v>6017.7</v>
       </c>
       <c r="D2847" t="s">
         <v>2849</v>
@@ -49187,7 +49187,7 @@
         <v>63</v>
       </c>
       <c r="C2848">
-        <v>6654</v>
+        <v>6037.7</v>
       </c>
       <c r="D2848" t="s">
         <v>2850</v>
@@ -49201,7 +49201,7 @@
         <v>64</v>
       </c>
       <c r="C2849">
-        <v>6674</v>
+        <v>6057.7</v>
       </c>
       <c r="D2849" t="s">
         <v>2851</v>
@@ -49215,7 +49215,7 @@
         <v>65</v>
       </c>
       <c r="C2850">
-        <v>6728</v>
+        <v>5816.5</v>
       </c>
       <c r="D2850" t="s">
         <v>2852</v>
@@ -49229,7 +49229,7 @@
         <v>66</v>
       </c>
       <c r="C2851">
-        <v>6758</v>
+        <v>5856.5</v>
       </c>
       <c r="D2851" t="s">
         <v>2853</v>
@@ -49243,7 +49243,7 @@
         <v>67</v>
       </c>
       <c r="C2852">
-        <v>6798</v>
+        <v>5906.5</v>
       </c>
       <c r="D2852" t="s">
         <v>2854</v>
@@ -49257,7 +49257,7 @@
         <v>68</v>
       </c>
       <c r="C2853">
-        <v>6838</v>
+        <v>5946.5</v>
       </c>
       <c r="D2853" t="s">
         <v>2855</v>
@@ -49271,7 +49271,7 @@
         <v>69</v>
       </c>
       <c r="C2854">
-        <v>6852</v>
+        <v>5907.8</v>
       </c>
       <c r="D2854" t="s">
         <v>2856</v>
@@ -49285,7 +49285,7 @@
         <v>70</v>
       </c>
       <c r="C2855">
-        <v>6882</v>
+        <v>5967.8</v>
       </c>
       <c r="D2855" t="s">
         <v>2857</v>
@@ -49299,7 +49299,7 @@
         <v>71</v>
       </c>
       <c r="C2856">
-        <v>6902</v>
+        <v>6017.8</v>
       </c>
       <c r="D2856" t="s">
         <v>2858</v>
@@ -49313,7 +49313,7 @@
         <v>72</v>
       </c>
       <c r="C2857">
-        <v>6922</v>
+        <v>6067.8</v>
       </c>
       <c r="D2857" t="s">
         <v>2859</v>
@@ -49327,7 +49327,7 @@
         <v>73</v>
       </c>
       <c r="C2858">
-        <v>6899</v>
+        <v>5808.4</v>
       </c>
       <c r="D2858" t="s">
         <v>2860</v>
@@ -49341,7 +49341,7 @@
         <v>74</v>
       </c>
       <c r="C2859">
-        <v>6919</v>
+        <v>5858.4</v>
       </c>
       <c r="D2859" t="s">
         <v>2861</v>
@@ -49355,7 +49355,7 @@
         <v>75</v>
       </c>
       <c r="C2860">
-        <v>6939</v>
+        <v>5928.4</v>
       </c>
       <c r="D2860" t="s">
         <v>2862</v>
@@ -49369,7 +49369,7 @@
         <v>76</v>
       </c>
       <c r="C2861">
-        <v>6969</v>
+        <v>5998.4</v>
       </c>
       <c r="D2861" t="s">
         <v>2863</v>
@@ -49383,7 +49383,7 @@
         <v>77</v>
       </c>
       <c r="C2862">
-        <v>6827</v>
+        <v>5973.5</v>
       </c>
       <c r="D2862" t="s">
         <v>2864</v>
@@ -49397,7 +49397,7 @@
         <v>78</v>
       </c>
       <c r="C2863">
-        <v>6857</v>
+        <v>6053.5</v>
       </c>
       <c r="D2863" t="s">
         <v>2865</v>
@@ -49411,7 +49411,7 @@
         <v>79</v>
       </c>
       <c r="C2864">
-        <v>6877</v>
+        <v>6113.5</v>
       </c>
       <c r="D2864" t="s">
         <v>2866</v>
@@ -49425,7 +49425,7 @@
         <v>80</v>
       </c>
       <c r="C2865">
-        <v>6917</v>
+        <v>6153.5</v>
       </c>
       <c r="D2865" t="s">
         <v>2867</v>
@@ -49439,7 +49439,7 @@
         <v>81</v>
       </c>
       <c r="C2866">
-        <v>7061</v>
+        <v>6080.6</v>
       </c>
       <c r="D2866" t="s">
         <v>2868</v>
@@ -49453,7 +49453,7 @@
         <v>82</v>
       </c>
       <c r="C2867">
-        <v>7091</v>
+        <v>6110.6</v>
       </c>
       <c r="D2867" t="s">
         <v>2869</v>
@@ -49467,7 +49467,7 @@
         <v>83</v>
       </c>
       <c r="C2868">
-        <v>7121</v>
+        <v>6130.6</v>
       </c>
       <c r="D2868" t="s">
         <v>2870</v>
@@ -49481,7 +49481,7 @@
         <v>84</v>
       </c>
       <c r="C2869">
-        <v>7151</v>
+        <v>6170.6</v>
       </c>
       <c r="D2869" t="s">
         <v>2871</v>
@@ -49495,7 +49495,7 @@
         <v>85</v>
       </c>
       <c r="C2870">
-        <v>7109</v>
+        <v>6069.5</v>
       </c>
       <c r="D2870" t="s">
         <v>2872</v>
@@ -49509,7 +49509,7 @@
         <v>86</v>
       </c>
       <c r="C2871">
-        <v>7079</v>
+        <v>6029.5</v>
       </c>
       <c r="D2871" t="s">
         <v>2873</v>
@@ -49523,7 +49523,7 @@
         <v>87</v>
       </c>
       <c r="C2872">
-        <v>7049</v>
+        <v>5979.5</v>
       </c>
       <c r="D2872" t="s">
         <v>2874</v>
@@ -49537,7 +49537,7 @@
         <v>88</v>
       </c>
       <c r="C2873">
-        <v>6989</v>
+        <v>5869.5</v>
       </c>
       <c r="D2873" t="s">
         <v>2875</v>
@@ -49551,7 +49551,7 @@
         <v>89</v>
       </c>
       <c r="C2874">
-        <v>6803</v>
+        <v>6176</v>
       </c>
       <c r="D2874" t="s">
         <v>2876</v>
@@ -49565,7 +49565,7 @@
         <v>90</v>
       </c>
       <c r="C2875">
-        <v>6713</v>
+        <v>6016</v>
       </c>
       <c r="D2875" t="s">
         <v>2877</v>
@@ -49579,7 +49579,7 @@
         <v>91</v>
       </c>
       <c r="C2876">
-        <v>6593</v>
+        <v>5866</v>
       </c>
       <c r="D2876" t="s">
         <v>2878</v>
@@ -49593,7 +49593,7 @@
         <v>92</v>
       </c>
       <c r="C2877">
-        <v>6423</v>
+        <v>5706</v>
       </c>
       <c r="D2877" t="s">
         <v>2879</v>
@@ -49607,7 +49607,7 @@
         <v>93</v>
       </c>
       <c r="C2878">
-        <v>6174</v>
+        <v>5837.3</v>
       </c>
       <c r="D2878" t="s">
         <v>2880</v>
@@ -49621,7 +49621,7 @@
         <v>94</v>
       </c>
       <c r="C2879">
-        <v>6004</v>
+        <v>5687.3</v>
       </c>
       <c r="D2879" t="s">
         <v>2881</v>
@@ -49635,7 +49635,7 @@
         <v>95</v>
       </c>
       <c r="C2880">
-        <v>5914</v>
+        <v>5577.3</v>
       </c>
       <c r="D2880" t="s">
         <v>2882</v>
@@ -49649,7 +49649,7 @@
         <v>96</v>
       </c>
       <c r="C2881">
-        <v>5804</v>
+        <v>5467.3</v>
       </c>
       <c r="D2881" t="s">
         <v>2883</v>
@@ -49663,7 +49663,7 @@
         <v>1</v>
       </c>
       <c r="C2882">
-        <v>5257</v>
+        <v>5635.9</v>
       </c>
       <c r="D2882" t="s">
         <v>2884</v>
@@ -49677,7 +49677,7 @@
         <v>2</v>
       </c>
       <c r="C2883">
-        <v>5217</v>
+        <v>5605.9</v>
       </c>
       <c r="D2883" t="s">
         <v>2885</v>
@@ -49691,7 +49691,7 @@
         <v>3</v>
       </c>
       <c r="C2884">
-        <v>5157</v>
+        <v>5525.9</v>
       </c>
       <c r="D2884" t="s">
         <v>2886</v>
@@ -49705,7 +49705,7 @@
         <v>4</v>
       </c>
       <c r="C2885">
-        <v>5087</v>
+        <v>5445.9</v>
       </c>
       <c r="D2885" t="s">
         <v>2887</v>
@@ -49719,7 +49719,7 @@
         <v>5</v>
       </c>
       <c r="C2886">
-        <v>5544</v>
+        <v>5334.6</v>
       </c>
       <c r="D2886" t="s">
         <v>2888</v>
@@ -49733,7 +49733,7 @@
         <v>6</v>
       </c>
       <c r="C2887">
-        <v>5494</v>
+        <v>5274.6</v>
       </c>
       <c r="D2887" t="s">
         <v>2889</v>
@@ -49747,7 +49747,7 @@
         <v>7</v>
       </c>
       <c r="C2888">
-        <v>5444</v>
+        <v>5214.6</v>
       </c>
       <c r="D2888" t="s">
         <v>2890</v>
@@ -49761,7 +49761,7 @@
         <v>8</v>
       </c>
       <c r="C2889">
-        <v>5384</v>
+        <v>5164.6</v>
       </c>
       <c r="D2889" t="s">
         <v>2891</v>
@@ -49775,7 +49775,7 @@
         <v>9</v>
       </c>
       <c r="C2890">
-        <v>5331</v>
+        <v>5219.4</v>
       </c>
       <c r="D2890" t="s">
         <v>2892</v>
@@ -49789,7 +49789,7 @@
         <v>10</v>
       </c>
       <c r="C2891">
-        <v>5281</v>
+        <v>5179.4</v>
       </c>
       <c r="D2891" t="s">
         <v>2893</v>
@@ -49803,7 +49803,7 @@
         <v>11</v>
       </c>
       <c r="C2892">
-        <v>5241</v>
+        <v>5149.4</v>
       </c>
       <c r="D2892" t="s">
         <v>2894</v>
@@ -49817,7 +49817,7 @@
         <v>12</v>
       </c>
       <c r="C2893">
-        <v>5201</v>
+        <v>5139.4</v>
       </c>
       <c r="D2893" t="s">
         <v>2895</v>
@@ -49831,7 +49831,7 @@
         <v>13</v>
       </c>
       <c r="C2894">
-        <v>5158</v>
+        <v>5175.8</v>
       </c>
       <c r="D2894" t="s">
         <v>2896</v>
@@ -49845,7 +49845,7 @@
         <v>14</v>
       </c>
       <c r="C2895">
-        <v>5148</v>
+        <v>5175.8</v>
       </c>
       <c r="D2895" t="s">
         <v>2897</v>
@@ -49859,7 +49859,7 @@
         <v>15</v>
       </c>
       <c r="C2896">
-        <v>5138</v>
+        <v>5175.8</v>
       </c>
       <c r="D2896" t="s">
         <v>2898</v>
@@ -49873,7 +49873,7 @@
         <v>16</v>
       </c>
       <c r="C2897">
-        <v>5128</v>
+        <v>5165.8</v>
       </c>
       <c r="D2897" t="s">
         <v>2899</v>
@@ -49887,7 +49887,7 @@
         <v>17</v>
       </c>
       <c r="C2898">
-        <v>5112</v>
+        <v>5067.9</v>
       </c>
       <c r="D2898" t="s">
         <v>2900</v>
@@ -49901,7 +49901,7 @@
         <v>18</v>
       </c>
       <c r="C2899">
-        <v>5112</v>
+        <v>5047.9</v>
       </c>
       <c r="D2899" t="s">
         <v>2901</v>
@@ -49915,7 +49915,7 @@
         <v>19</v>
       </c>
       <c r="C2900">
-        <v>5112</v>
+        <v>5047.9</v>
       </c>
       <c r="D2900" t="s">
         <v>2902</v>
@@ -49929,7 +49929,7 @@
         <v>20</v>
       </c>
       <c r="C2901">
-        <v>5112</v>
+        <v>5047.9</v>
       </c>
       <c r="D2901" t="s">
         <v>2903</v>
@@ -49943,7 +49943,7 @@
         <v>21</v>
       </c>
       <c r="C2902">
-        <v>5157</v>
+        <v>4869.4</v>
       </c>
       <c r="D2902" t="s">
         <v>2904</v>
@@ -49957,7 +49957,7 @@
         <v>22</v>
       </c>
       <c r="C2903">
-        <v>5187</v>
+        <v>4909.4</v>
       </c>
       <c r="D2903" t="s">
         <v>2905</v>
@@ -49971,7 +49971,7 @@
         <v>23</v>
       </c>
       <c r="C2904">
-        <v>5237</v>
+        <v>4949.4</v>
       </c>
       <c r="D2904" t="s">
         <v>2906</v>
@@ -49985,7 +49985,7 @@
         <v>24</v>
       </c>
       <c r="C2905">
-        <v>5297</v>
+        <v>5009.4</v>
       </c>
       <c r="D2905" t="s">
         <v>2907</v>
@@ -49999,7 +49999,7 @@
         <v>25</v>
       </c>
       <c r="C2906">
-        <v>5410</v>
+        <v>4812.8</v>
       </c>
       <c r="D2906" t="s">
         <v>2908</v>
@@ -50013,7 +50013,7 @@
         <v>26</v>
       </c>
       <c r="C2907">
-        <v>5500</v>
+        <v>4912.8</v>
       </c>
       <c r="D2907" t="s">
         <v>2909</v>
@@ -50027,7 +50027,7 @@
         <v>27</v>
       </c>
       <c r="C2908">
-        <v>5600</v>
+        <v>5012.8</v>
       </c>
       <c r="D2908" t="s">
         <v>2910</v>
@@ -50041,7 +50041,7 @@
         <v>28</v>
       </c>
       <c r="C2909">
-        <v>5710</v>
+        <v>5132.8</v>
       </c>
       <c r="D2909" t="s">
         <v>2911</v>
@@ -50055,7 +50055,7 @@
         <v>29</v>
       </c>
       <c r="C2910">
-        <v>5898</v>
+        <v>5290.2</v>
       </c>
       <c r="D2910" t="s">
         <v>2912</v>
@@ -50069,7 +50069,7 @@
         <v>30</v>
       </c>
       <c r="C2911">
-        <v>6008</v>
+        <v>5400.2</v>
       </c>
       <c r="D2911" t="s">
         <v>2913</v>
@@ -50083,7 +50083,7 @@
         <v>31</v>
       </c>
       <c r="C2912">
-        <v>6118</v>
+        <v>5500.2</v>
       </c>
       <c r="D2912" t="s">
         <v>2914</v>
@@ -50097,7 +50097,7 @@
         <v>32</v>
       </c>
       <c r="C2913">
-        <v>6208</v>
+        <v>5590.2</v>
       </c>
       <c r="D2913" t="s">
         <v>2915</v>
@@ -50111,7 +50111,7 @@
         <v>33</v>
       </c>
       <c r="C2914">
-        <v>6356</v>
+        <v>5366.6</v>
       </c>
       <c r="D2914" t="s">
         <v>2916</v>
@@ -50125,7 +50125,7 @@
         <v>34</v>
       </c>
       <c r="C2915">
-        <v>6416</v>
+        <v>5416.6</v>
       </c>
       <c r="D2915" t="s">
         <v>2917</v>
@@ -50139,7 +50139,7 @@
         <v>35</v>
       </c>
       <c r="C2916">
-        <v>6456</v>
+        <v>5436.6</v>
       </c>
       <c r="D2916" t="s">
         <v>2918</v>
@@ -50153,7 +50153,7 @@
         <v>36</v>
       </c>
       <c r="C2917">
-        <v>6486</v>
+        <v>5436.6</v>
       </c>
       <c r="D2917" t="s">
         <v>2919</v>
@@ -50167,7 +50167,7 @@
         <v>37</v>
       </c>
       <c r="C2918">
-        <v>6427</v>
+        <v>5588.5</v>
       </c>
       <c r="D2918" t="s">
         <v>2920</v>
@@ -50181,7 +50181,7 @@
         <v>38</v>
       </c>
       <c r="C2919">
-        <v>6417</v>
+        <v>5588.5</v>
       </c>
       <c r="D2919" t="s">
         <v>2921</v>
@@ -50195,7 +50195,7 @@
         <v>39</v>
       </c>
       <c r="C2920">
-        <v>6407</v>
+        <v>5558.5</v>
       </c>
       <c r="D2920" t="s">
         <v>2922</v>
@@ -50209,7 +50209,7 @@
         <v>40</v>
       </c>
       <c r="C2921">
-        <v>6387</v>
+        <v>5528.5</v>
       </c>
       <c r="D2921" t="s">
         <v>2923</v>
@@ -50223,7 +50223,7 @@
         <v>41</v>
       </c>
       <c r="C2922">
-        <v>6369</v>
+        <v>5828</v>
       </c>
       <c r="D2922" t="s">
         <v>2924</v>
@@ -50237,7 +50237,7 @@
         <v>42</v>
       </c>
       <c r="C2923">
-        <v>6359</v>
+        <v>5798</v>
       </c>
       <c r="D2923" t="s">
         <v>2925</v>
@@ -50251,7 +50251,7 @@
         <v>43</v>
       </c>
       <c r="C2924">
-        <v>6349</v>
+        <v>5778</v>
       </c>
       <c r="D2924" t="s">
         <v>2926</v>
@@ -50265,7 +50265,7 @@
         <v>44</v>
       </c>
       <c r="C2925">
-        <v>6349</v>
+        <v>5768</v>
       </c>
       <c r="D2925" t="s">
         <v>2927</v>
@@ -50279,7 +50279,7 @@
         <v>45</v>
       </c>
       <c r="C2926">
-        <v>6294</v>
+        <v>5937.1</v>
       </c>
       <c r="D2926" t="s">
         <v>2928</v>
@@ -50293,7 +50293,7 @@
         <v>46</v>
       </c>
       <c r="C2927">
-        <v>6304</v>
+        <v>5937.1</v>
       </c>
       <c r="D2927" t="s">
         <v>2929</v>
@@ -50307,7 +50307,7 @@
         <v>47</v>
       </c>
       <c r="C2928">
-        <v>6314</v>
+        <v>5937.1</v>
       </c>
       <c r="D2928" t="s">
         <v>2930</v>
@@ -50321,7 +50321,7 @@
         <v>48</v>
       </c>
       <c r="C2929">
-        <v>6324</v>
+        <v>5937.1</v>
       </c>
       <c r="D2929" t="s">
         <v>2931</v>
@@ -50335,7 +50335,7 @@
         <v>49</v>
       </c>
       <c r="C2930">
-        <v>6303</v>
+        <v>6051.3</v>
       </c>
       <c r="D2930" t="s">
         <v>2932</v>
@@ -50349,7 +50349,7 @@
         <v>50</v>
       </c>
       <c r="C2931">
-        <v>6303</v>
+        <v>6051.3</v>
       </c>
       <c r="D2931" t="s">
         <v>2933</v>
@@ -50363,7 +50363,7 @@
         <v>51</v>
       </c>
       <c r="C2932">
-        <v>6303</v>
+        <v>6041.3</v>
       </c>
       <c r="D2932" t="s">
         <v>2934</v>
@@ -50377,7 +50377,7 @@
         <v>52</v>
       </c>
       <c r="C2933">
-        <v>6303</v>
+        <v>6031.3</v>
       </c>
       <c r="D2933" t="s">
         <v>2935</v>
@@ -50391,7 +50391,7 @@
         <v>53</v>
       </c>
       <c r="C2934">
-        <v>6367</v>
+        <v>5942.5</v>
       </c>
       <c r="D2934" t="s">
         <v>2936</v>
@@ -50405,7 +50405,7 @@
         <v>54</v>
       </c>
       <c r="C2935">
-        <v>6377</v>
+        <v>5942.5</v>
       </c>
       <c r="D2935" t="s">
         <v>2937</v>
@@ -50419,7 +50419,7 @@
         <v>55</v>
       </c>
       <c r="C2936">
-        <v>6397</v>
+        <v>5942.5</v>
       </c>
       <c r="D2936" t="s">
         <v>2938</v>
@@ -50433,7 +50433,7 @@
         <v>56</v>
       </c>
       <c r="C2937">
-        <v>6417</v>
+        <v>5952.5</v>
       </c>
       <c r="D2937" t="s">
         <v>2939</v>
@@ -50447,7 +50447,7 @@
         <v>57</v>
       </c>
       <c r="C2938">
-        <v>6500</v>
+        <v>6051.6</v>
       </c>
       <c r="D2938" t="s">
         <v>2940</v>
@@ -50461,7 +50461,7 @@
         <v>58</v>
       </c>
       <c r="C2939">
-        <v>6530</v>
+        <v>6071.6</v>
       </c>
       <c r="D2939" t="s">
         <v>2941</v>
@@ -50475,7 +50475,7 @@
         <v>59</v>
       </c>
       <c r="C2940">
-        <v>6550</v>
+        <v>6091.6</v>
       </c>
       <c r="D2940" t="s">
         <v>2942</v>
@@ -50489,7 +50489,7 @@
         <v>60</v>
       </c>
       <c r="C2941">
-        <v>6580</v>
+        <v>6111.6</v>
       </c>
       <c r="D2941" t="s">
         <v>2943</v>
@@ -50503,7 +50503,7 @@
         <v>61</v>
       </c>
       <c r="C2942">
-        <v>6704</v>
+        <v>6087.7</v>
       </c>
       <c r="D2942" t="s">
         <v>2944</v>
@@ -50517,7 +50517,7 @@
         <v>62</v>
       </c>
       <c r="C2943">
-        <v>6724</v>
+        <v>6107.7</v>
       </c>
       <c r="D2943" t="s">
         <v>2945</v>
@@ -50531,7 +50531,7 @@
         <v>63</v>
       </c>
       <c r="C2944">
-        <v>6754</v>
+        <v>6127.7</v>
       </c>
       <c r="D2944" t="s">
         <v>2946</v>
@@ -50545,7 +50545,7 @@
         <v>64</v>
       </c>
       <c r="C2945">
-        <v>6764</v>
+        <v>6157.7</v>
       </c>
       <c r="D2945" t="s">
         <v>2947</v>
@@ -50559,7 +50559,7 @@
         <v>65</v>
       </c>
       <c r="C2946">
-        <v>6818</v>
+        <v>5916.5</v>
       </c>
       <c r="D2946" t="s">
         <v>2948</v>
@@ -50573,7 +50573,7 @@
         <v>66</v>
       </c>
       <c r="C2947">
-        <v>6838</v>
+        <v>5956.5</v>
       </c>
       <c r="D2947" t="s">
         <v>2949</v>
@@ -50587,7 +50587,7 @@
         <v>67</v>
       </c>
       <c r="C2948">
-        <v>6858</v>
+        <v>6006.5</v>
       </c>
       <c r="D2948" t="s">
         <v>2950</v>
@@ -50601,7 +50601,7 @@
         <v>68</v>
       </c>
       <c r="C2949">
-        <v>6898</v>
+        <v>6056.5</v>
       </c>
       <c r="D2949" t="s">
         <v>2951</v>
@@ -50615,7 +50615,7 @@
         <v>69</v>
       </c>
       <c r="C2950">
-        <v>6922</v>
+        <v>6017.8</v>
       </c>
       <c r="D2950" t="s">
         <v>2952</v>
@@ -50629,7 +50629,7 @@
         <v>70</v>
       </c>
       <c r="C2951">
-        <v>6972</v>
+        <v>6067.8</v>
       </c>
       <c r="D2951" t="s">
         <v>2953</v>
@@ -50643,7 +50643,7 @@
         <v>71</v>
       </c>
       <c r="C2952">
-        <v>7002</v>
+        <v>6117.8</v>
       </c>
       <c r="D2952" t="s">
         <v>2954</v>
@@ -50657,7 +50657,7 @@
         <v>72</v>
       </c>
       <c r="C2953">
-        <v>7012</v>
+        <v>6157.8</v>
       </c>
       <c r="D2953" t="s">
         <v>2955</v>
@@ -50671,7 +50671,7 @@
         <v>73</v>
       </c>
       <c r="C2954">
-        <v>6969</v>
+        <v>5858.4</v>
       </c>
       <c r="D2954" t="s">
         <v>2956</v>
@@ -50685,7 +50685,7 @@
         <v>74</v>
       </c>
       <c r="C2955">
-        <v>6979</v>
+        <v>5898.4</v>
       </c>
       <c r="D2955" t="s">
         <v>2957</v>
@@ -50699,7 +50699,7 @@
         <v>75</v>
       </c>
       <c r="C2956">
-        <v>6999</v>
+        <v>5958.4</v>
       </c>
       <c r="D2956" t="s">
         <v>2958</v>
@@ -50713,7 +50713,7 @@
         <v>76</v>
       </c>
       <c r="C2957">
-        <v>7039</v>
+        <v>6038.4</v>
       </c>
       <c r="D2957" t="s">
         <v>2959</v>
@@ -50727,7 +50727,7 @@
         <v>77</v>
       </c>
       <c r="C2958">
-        <v>6897</v>
+        <v>6043.5</v>
       </c>
       <c r="D2958" t="s">
         <v>2960</v>
@@ -50741,7 +50741,7 @@
         <v>78</v>
       </c>
       <c r="C2959">
-        <v>6947</v>
+        <v>6123.5</v>
       </c>
       <c r="D2959" t="s">
         <v>2961</v>
@@ -50755,7 +50755,7 @@
         <v>79</v>
       </c>
       <c r="C2960">
-        <v>6977</v>
+        <v>6183.5</v>
       </c>
       <c r="D2960" t="s">
         <v>2962</v>
@@ -50769,7 +50769,7 @@
         <v>80</v>
       </c>
       <c r="C2961">
-        <v>6987</v>
+        <v>6213.5</v>
       </c>
       <c r="D2961" t="s">
         <v>2963</v>
@@ -50783,7 +50783,7 @@
         <v>81</v>
       </c>
       <c r="C2962">
-        <v>7131</v>
+        <v>6140.6</v>
       </c>
       <c r="D2962" t="s">
         <v>2964</v>
@@ -50797,7 +50797,7 @@
         <v>82</v>
       </c>
       <c r="C2963">
-        <v>7151</v>
+        <v>6170.6</v>
       </c>
       <c r="D2963" t="s">
         <v>2965</v>
@@ -50811,7 +50811,7 @@
         <v>83</v>
       </c>
       <c r="C2964">
-        <v>7181</v>
+        <v>6170.6</v>
       </c>
       <c r="D2964" t="s">
         <v>2966</v>
@@ -50825,7 +50825,7 @@
         <v>84</v>
       </c>
       <c r="C2965">
-        <v>7231</v>
+        <v>6170.6</v>
       </c>
       <c r="D2965" t="s">
         <v>2967</v>
@@ -50839,7 +50839,7 @@
         <v>85</v>
       </c>
       <c r="C2966">
-        <v>7199</v>
+        <v>6059.5</v>
       </c>
       <c r="D2966" t="s">
         <v>2968</v>
@@ -50853,7 +50853,7 @@
         <v>86</v>
       </c>
       <c r="C2967">
-        <v>7169</v>
+        <v>6059.5</v>
       </c>
       <c r="D2967" t="s">
         <v>2969</v>
@@ -50867,7 +50867,7 @@
         <v>87</v>
       </c>
       <c r="C2968">
-        <v>7149</v>
+        <v>6039.5</v>
       </c>
       <c r="D2968" t="s">
         <v>2970</v>
@@ -50881,7 +50881,7 @@
         <v>88</v>
       </c>
       <c r="C2969">
-        <v>7079</v>
+        <v>5959.5</v>
       </c>
       <c r="D2969" t="s">
         <v>2971</v>
@@ -50895,7 +50895,7 @@
         <v>89</v>
       </c>
       <c r="C2970">
-        <v>6873</v>
+        <v>6296</v>
       </c>
       <c r="D2970" t="s">
         <v>2972</v>
@@ -50909,7 +50909,7 @@
         <v>90</v>
       </c>
       <c r="C2971">
-        <v>6773</v>
+        <v>6216</v>
       </c>
       <c r="D2971" t="s">
         <v>2973</v>
@@ -50923,7 +50923,7 @@
         <v>91</v>
       </c>
       <c r="C2972">
-        <v>6643</v>
+        <v>6076</v>
       </c>
       <c r="D2972" t="s">
         <v>2974</v>
@@ -50937,7 +50937,7 @@
         <v>92</v>
       </c>
       <c r="C2973">
-        <v>6433</v>
+        <v>5896</v>
       </c>
       <c r="D2973" t="s">
         <v>2975</v>
@@ -50951,7 +50951,7 @@
         <v>93</v>
       </c>
       <c r="C2974">
-        <v>6204</v>
+        <v>5937.3</v>
       </c>
       <c r="D2974" t="s">
         <v>2976</v>
@@ -50965,7 +50965,7 @@
         <v>94</v>
       </c>
       <c r="C2975">
-        <v>6034</v>
+        <v>5757.3</v>
       </c>
       <c r="D2975" t="s">
         <v>2977</v>
@@ -50979,7 +50979,7 @@
         <v>95</v>
       </c>
       <c r="C2976">
-        <v>5944</v>
+        <v>5677.3</v>
       </c>
       <c r="D2976" t="s">
         <v>2978</v>
@@ -50993,7 +50993,7 @@
         <v>96</v>
       </c>
       <c r="C2977">
-        <v>5834</v>
+        <v>5567.3</v>
       </c>
       <c r="D2977" t="s">
         <v>2979</v>

--- a/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Production_2025.xlsx
+++ b/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Production_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2596" uniqueCount="2596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="2788">
   <si>
     <t>Date</t>
   </si>
@@ -7802,6 +7802,582 @@
   </si>
   <si>
     <t>27.08.202596.0</t>
+  </si>
+  <si>
+    <t>28.08.20251.0</t>
+  </si>
+  <si>
+    <t>28.08.20252.0</t>
+  </si>
+  <si>
+    <t>28.08.20253.0</t>
+  </si>
+  <si>
+    <t>28.08.20254.0</t>
+  </si>
+  <si>
+    <t>28.08.20255.0</t>
+  </si>
+  <si>
+    <t>28.08.20256.0</t>
+  </si>
+  <si>
+    <t>28.08.20257.0</t>
+  </si>
+  <si>
+    <t>28.08.20258.0</t>
+  </si>
+  <si>
+    <t>28.08.20259.0</t>
+  </si>
+  <si>
+    <t>28.08.202510.0</t>
+  </si>
+  <si>
+    <t>28.08.202511.0</t>
+  </si>
+  <si>
+    <t>28.08.202512.0</t>
+  </si>
+  <si>
+    <t>28.08.202513.0</t>
+  </si>
+  <si>
+    <t>28.08.202514.0</t>
+  </si>
+  <si>
+    <t>28.08.202515.0</t>
+  </si>
+  <si>
+    <t>28.08.202516.0</t>
+  </si>
+  <si>
+    <t>28.08.202517.0</t>
+  </si>
+  <si>
+    <t>28.08.202518.0</t>
+  </si>
+  <si>
+    <t>28.08.202519.0</t>
+  </si>
+  <si>
+    <t>28.08.202520.0</t>
+  </si>
+  <si>
+    <t>28.08.202521.0</t>
+  </si>
+  <si>
+    <t>28.08.202522.0</t>
+  </si>
+  <si>
+    <t>28.08.202523.0</t>
+  </si>
+  <si>
+    <t>28.08.202524.0</t>
+  </si>
+  <si>
+    <t>28.08.202525.0</t>
+  </si>
+  <si>
+    <t>28.08.202526.0</t>
+  </si>
+  <si>
+    <t>28.08.202527.0</t>
+  </si>
+  <si>
+    <t>28.08.202528.0</t>
+  </si>
+  <si>
+    <t>28.08.202529.0</t>
+  </si>
+  <si>
+    <t>28.08.202530.0</t>
+  </si>
+  <si>
+    <t>28.08.202531.0</t>
+  </si>
+  <si>
+    <t>28.08.202532.0</t>
+  </si>
+  <si>
+    <t>28.08.202533.0</t>
+  </si>
+  <si>
+    <t>28.08.202534.0</t>
+  </si>
+  <si>
+    <t>28.08.202535.0</t>
+  </si>
+  <si>
+    <t>28.08.202536.0</t>
+  </si>
+  <si>
+    <t>28.08.202537.0</t>
+  </si>
+  <si>
+    <t>28.08.202538.0</t>
+  </si>
+  <si>
+    <t>28.08.202539.0</t>
+  </si>
+  <si>
+    <t>28.08.202540.0</t>
+  </si>
+  <si>
+    <t>28.08.202541.0</t>
+  </si>
+  <si>
+    <t>28.08.202542.0</t>
+  </si>
+  <si>
+    <t>28.08.202543.0</t>
+  </si>
+  <si>
+    <t>28.08.202544.0</t>
+  </si>
+  <si>
+    <t>28.08.202545.0</t>
+  </si>
+  <si>
+    <t>28.08.202546.0</t>
+  </si>
+  <si>
+    <t>28.08.202547.0</t>
+  </si>
+  <si>
+    <t>28.08.202548.0</t>
+  </si>
+  <si>
+    <t>28.08.202549.0</t>
+  </si>
+  <si>
+    <t>28.08.202550.0</t>
+  </si>
+  <si>
+    <t>28.08.202551.0</t>
+  </si>
+  <si>
+    <t>28.08.202552.0</t>
+  </si>
+  <si>
+    <t>28.08.202553.0</t>
+  </si>
+  <si>
+    <t>28.08.202554.0</t>
+  </si>
+  <si>
+    <t>28.08.202555.0</t>
+  </si>
+  <si>
+    <t>28.08.202556.0</t>
+  </si>
+  <si>
+    <t>28.08.202557.0</t>
+  </si>
+  <si>
+    <t>28.08.202558.0</t>
+  </si>
+  <si>
+    <t>28.08.202559.0</t>
+  </si>
+  <si>
+    <t>28.08.202560.0</t>
+  </si>
+  <si>
+    <t>28.08.202561.0</t>
+  </si>
+  <si>
+    <t>28.08.202562.0</t>
+  </si>
+  <si>
+    <t>28.08.202563.0</t>
+  </si>
+  <si>
+    <t>28.08.202564.0</t>
+  </si>
+  <si>
+    <t>28.08.202565.0</t>
+  </si>
+  <si>
+    <t>28.08.202566.0</t>
+  </si>
+  <si>
+    <t>28.08.202567.0</t>
+  </si>
+  <si>
+    <t>28.08.202568.0</t>
+  </si>
+  <si>
+    <t>28.08.202569.0</t>
+  </si>
+  <si>
+    <t>28.08.202570.0</t>
+  </si>
+  <si>
+    <t>28.08.202571.0</t>
+  </si>
+  <si>
+    <t>28.08.202572.0</t>
+  </si>
+  <si>
+    <t>28.08.202573.0</t>
+  </si>
+  <si>
+    <t>28.08.202574.0</t>
+  </si>
+  <si>
+    <t>28.08.202575.0</t>
+  </si>
+  <si>
+    <t>28.08.202576.0</t>
+  </si>
+  <si>
+    <t>28.08.202577.0</t>
+  </si>
+  <si>
+    <t>28.08.202578.0</t>
+  </si>
+  <si>
+    <t>28.08.202579.0</t>
+  </si>
+  <si>
+    <t>28.08.202580.0</t>
+  </si>
+  <si>
+    <t>28.08.202581.0</t>
+  </si>
+  <si>
+    <t>28.08.202582.0</t>
+  </si>
+  <si>
+    <t>28.08.202583.0</t>
+  </si>
+  <si>
+    <t>28.08.202584.0</t>
+  </si>
+  <si>
+    <t>28.08.202585.0</t>
+  </si>
+  <si>
+    <t>28.08.202586.0</t>
+  </si>
+  <si>
+    <t>28.08.202587.0</t>
+  </si>
+  <si>
+    <t>28.08.202588.0</t>
+  </si>
+  <si>
+    <t>28.08.202589.0</t>
+  </si>
+  <si>
+    <t>28.08.202590.0</t>
+  </si>
+  <si>
+    <t>28.08.202591.0</t>
+  </si>
+  <si>
+    <t>28.08.202592.0</t>
+  </si>
+  <si>
+    <t>28.08.202593.0</t>
+  </si>
+  <si>
+    <t>28.08.202594.0</t>
+  </si>
+  <si>
+    <t>28.08.202595.0</t>
+  </si>
+  <si>
+    <t>28.08.202596.0</t>
+  </si>
+  <si>
+    <t>29.08.20251.0</t>
+  </si>
+  <si>
+    <t>29.08.20252.0</t>
+  </si>
+  <si>
+    <t>29.08.20253.0</t>
+  </si>
+  <si>
+    <t>29.08.20254.0</t>
+  </si>
+  <si>
+    <t>29.08.20255.0</t>
+  </si>
+  <si>
+    <t>29.08.20256.0</t>
+  </si>
+  <si>
+    <t>29.08.20257.0</t>
+  </si>
+  <si>
+    <t>29.08.20258.0</t>
+  </si>
+  <si>
+    <t>29.08.20259.0</t>
+  </si>
+  <si>
+    <t>29.08.202510.0</t>
+  </si>
+  <si>
+    <t>29.08.202511.0</t>
+  </si>
+  <si>
+    <t>29.08.202512.0</t>
+  </si>
+  <si>
+    <t>29.08.202513.0</t>
+  </si>
+  <si>
+    <t>29.08.202514.0</t>
+  </si>
+  <si>
+    <t>29.08.202515.0</t>
+  </si>
+  <si>
+    <t>29.08.202516.0</t>
+  </si>
+  <si>
+    <t>29.08.202517.0</t>
+  </si>
+  <si>
+    <t>29.08.202518.0</t>
+  </si>
+  <si>
+    <t>29.08.202519.0</t>
+  </si>
+  <si>
+    <t>29.08.202520.0</t>
+  </si>
+  <si>
+    <t>29.08.202521.0</t>
+  </si>
+  <si>
+    <t>29.08.202522.0</t>
+  </si>
+  <si>
+    <t>29.08.202523.0</t>
+  </si>
+  <si>
+    <t>29.08.202524.0</t>
+  </si>
+  <si>
+    <t>29.08.202525.0</t>
+  </si>
+  <si>
+    <t>29.08.202526.0</t>
+  </si>
+  <si>
+    <t>29.08.202527.0</t>
+  </si>
+  <si>
+    <t>29.08.202528.0</t>
+  </si>
+  <si>
+    <t>29.08.202529.0</t>
+  </si>
+  <si>
+    <t>29.08.202530.0</t>
+  </si>
+  <si>
+    <t>29.08.202531.0</t>
+  </si>
+  <si>
+    <t>29.08.202532.0</t>
+  </si>
+  <si>
+    <t>29.08.202533.0</t>
+  </si>
+  <si>
+    <t>29.08.202534.0</t>
+  </si>
+  <si>
+    <t>29.08.202535.0</t>
+  </si>
+  <si>
+    <t>29.08.202536.0</t>
+  </si>
+  <si>
+    <t>29.08.202537.0</t>
+  </si>
+  <si>
+    <t>29.08.202538.0</t>
+  </si>
+  <si>
+    <t>29.08.202539.0</t>
+  </si>
+  <si>
+    <t>29.08.202540.0</t>
+  </si>
+  <si>
+    <t>29.08.202541.0</t>
+  </si>
+  <si>
+    <t>29.08.202542.0</t>
+  </si>
+  <si>
+    <t>29.08.202543.0</t>
+  </si>
+  <si>
+    <t>29.08.202544.0</t>
+  </si>
+  <si>
+    <t>29.08.202545.0</t>
+  </si>
+  <si>
+    <t>29.08.202546.0</t>
+  </si>
+  <si>
+    <t>29.08.202547.0</t>
+  </si>
+  <si>
+    <t>29.08.202548.0</t>
+  </si>
+  <si>
+    <t>29.08.202549.0</t>
+  </si>
+  <si>
+    <t>29.08.202550.0</t>
+  </si>
+  <si>
+    <t>29.08.202551.0</t>
+  </si>
+  <si>
+    <t>29.08.202552.0</t>
+  </si>
+  <si>
+    <t>29.08.202553.0</t>
+  </si>
+  <si>
+    <t>29.08.202554.0</t>
+  </si>
+  <si>
+    <t>29.08.202555.0</t>
+  </si>
+  <si>
+    <t>29.08.202556.0</t>
+  </si>
+  <si>
+    <t>29.08.202557.0</t>
+  </si>
+  <si>
+    <t>29.08.202558.0</t>
+  </si>
+  <si>
+    <t>29.08.202559.0</t>
+  </si>
+  <si>
+    <t>29.08.202560.0</t>
+  </si>
+  <si>
+    <t>29.08.202561.0</t>
+  </si>
+  <si>
+    <t>29.08.202562.0</t>
+  </si>
+  <si>
+    <t>29.08.202563.0</t>
+  </si>
+  <si>
+    <t>29.08.202564.0</t>
+  </si>
+  <si>
+    <t>29.08.202565.0</t>
+  </si>
+  <si>
+    <t>29.08.202566.0</t>
+  </si>
+  <si>
+    <t>29.08.202567.0</t>
+  </si>
+  <si>
+    <t>29.08.202568.0</t>
+  </si>
+  <si>
+    <t>29.08.202569.0</t>
+  </si>
+  <si>
+    <t>29.08.202570.0</t>
+  </si>
+  <si>
+    <t>29.08.202571.0</t>
+  </si>
+  <si>
+    <t>29.08.202572.0</t>
+  </si>
+  <si>
+    <t>29.08.202573.0</t>
+  </si>
+  <si>
+    <t>29.08.202574.0</t>
+  </si>
+  <si>
+    <t>29.08.202575.0</t>
+  </si>
+  <si>
+    <t>29.08.202576.0</t>
+  </si>
+  <si>
+    <t>29.08.202577.0</t>
+  </si>
+  <si>
+    <t>29.08.202578.0</t>
+  </si>
+  <si>
+    <t>29.08.202579.0</t>
+  </si>
+  <si>
+    <t>29.08.202580.0</t>
+  </si>
+  <si>
+    <t>29.08.202581.0</t>
+  </si>
+  <si>
+    <t>29.08.202582.0</t>
+  </si>
+  <si>
+    <t>29.08.202583.0</t>
+  </si>
+  <si>
+    <t>29.08.202584.0</t>
+  </si>
+  <si>
+    <t>29.08.202585.0</t>
+  </si>
+  <si>
+    <t>29.08.202586.0</t>
+  </si>
+  <si>
+    <t>29.08.202587.0</t>
+  </si>
+  <si>
+    <t>29.08.202588.0</t>
+  </si>
+  <si>
+    <t>29.08.202589.0</t>
+  </si>
+  <si>
+    <t>29.08.202590.0</t>
+  </si>
+  <si>
+    <t>29.08.202591.0</t>
+  </si>
+  <si>
+    <t>29.08.202592.0</t>
+  </si>
+  <si>
+    <t>29.08.202593.0</t>
+  </si>
+  <si>
+    <t>29.08.202594.0</t>
+  </si>
+  <si>
+    <t>29.08.202595.0</t>
+  </si>
+  <si>
+    <t>29.08.202596.0</t>
   </si>
 </sst>
 </file>
@@ -8163,7 +8739,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2593"/>
+  <dimension ref="A1:D2785"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -35071,7 +35647,7 @@
         <v>1</v>
       </c>
       <c r="C1922">
-        <v>5121</v>
+        <v>5058</v>
       </c>
       <c r="D1922" t="s">
         <v>1924</v>
@@ -35085,7 +35661,7 @@
         <v>2</v>
       </c>
       <c r="C1923">
-        <v>5061</v>
+        <v>4998</v>
       </c>
       <c r="D1923" t="s">
         <v>1925</v>
@@ -35099,7 +35675,7 @@
         <v>3</v>
       </c>
       <c r="C1924">
-        <v>5011</v>
+        <v>4938</v>
       </c>
       <c r="D1924" t="s">
         <v>1926</v>
@@ -35113,7 +35689,7 @@
         <v>4</v>
       </c>
       <c r="C1925">
-        <v>4941</v>
+        <v>4878</v>
       </c>
       <c r="D1925" t="s">
         <v>1927</v>
@@ -35127,7 +35703,7 @@
         <v>5</v>
       </c>
       <c r="C1926">
-        <v>4813</v>
+        <v>4909.3</v>
       </c>
       <c r="D1926" t="s">
         <v>1928</v>
@@ -35141,7 +35717,7 @@
         <v>6</v>
       </c>
       <c r="C1927">
-        <v>4753</v>
+        <v>4849.3</v>
       </c>
       <c r="D1927" t="s">
         <v>1929</v>
@@ -35155,7 +35731,7 @@
         <v>7</v>
       </c>
       <c r="C1928">
-        <v>4703</v>
+        <v>4809.3</v>
       </c>
       <c r="D1928" t="s">
         <v>1930</v>
@@ -35169,7 +35745,7 @@
         <v>8</v>
       </c>
       <c r="C1929">
-        <v>4653</v>
+        <v>4769.3</v>
       </c>
       <c r="D1929" t="s">
         <v>1931</v>
@@ -35183,7 +35759,7 @@
         <v>9</v>
       </c>
       <c r="C1930">
-        <v>4641</v>
+        <v>4804.8</v>
       </c>
       <c r="D1930" t="s">
         <v>1932</v>
@@ -35197,7 +35773,7 @@
         <v>10</v>
       </c>
       <c r="C1931">
-        <v>4601</v>
+        <v>4774.8</v>
       </c>
       <c r="D1931" t="s">
         <v>1933</v>
@@ -35211,7 +35787,7 @@
         <v>11</v>
       </c>
       <c r="C1932">
-        <v>4581</v>
+        <v>4764.8</v>
       </c>
       <c r="D1932" t="s">
         <v>1934</v>
@@ -35225,7 +35801,7 @@
         <v>12</v>
       </c>
       <c r="C1933">
-        <v>4561</v>
+        <v>4754.8</v>
       </c>
       <c r="D1933" t="s">
         <v>1935</v>
@@ -35239,7 +35815,7 @@
         <v>13</v>
       </c>
       <c r="C1934">
-        <v>4558</v>
+        <v>4756</v>
       </c>
       <c r="D1934" t="s">
         <v>1936</v>
@@ -35253,7 +35829,7 @@
         <v>14</v>
       </c>
       <c r="C1935">
-        <v>4548</v>
+        <v>4746</v>
       </c>
       <c r="D1935" t="s">
         <v>1937</v>
@@ -35267,7 +35843,7 @@
         <v>15</v>
       </c>
       <c r="C1936">
-        <v>4558</v>
+        <v>4746</v>
       </c>
       <c r="D1936" t="s">
         <v>1938</v>
@@ -35281,7 +35857,7 @@
         <v>16</v>
       </c>
       <c r="C1937">
-        <v>4558</v>
+        <v>4746</v>
       </c>
       <c r="D1937" t="s">
         <v>1939</v>
@@ -35295,7 +35871,7 @@
         <v>17</v>
       </c>
       <c r="C1938">
-        <v>4592</v>
+        <v>4711.4</v>
       </c>
       <c r="D1938" t="s">
         <v>1940</v>
@@ -35309,7 +35885,7 @@
         <v>18</v>
       </c>
       <c r="C1939">
-        <v>4602</v>
+        <v>4711.4</v>
       </c>
       <c r="D1939" t="s">
         <v>1941</v>
@@ -35323,7 +35899,7 @@
         <v>19</v>
       </c>
       <c r="C1940">
-        <v>4612</v>
+        <v>4711.4</v>
       </c>
       <c r="D1940" t="s">
         <v>1942</v>
@@ -35337,7 +35913,7 @@
         <v>20</v>
       </c>
       <c r="C1941">
-        <v>4632</v>
+        <v>4721.4</v>
       </c>
       <c r="D1941" t="s">
         <v>1943</v>
@@ -35351,7 +35927,7 @@
         <v>21</v>
       </c>
       <c r="C1942">
-        <v>4651</v>
+        <v>4692.6</v>
       </c>
       <c r="D1942" t="s">
         <v>1944</v>
@@ -35365,7 +35941,7 @@
         <v>22</v>
       </c>
       <c r="C1943">
-        <v>4691</v>
+        <v>4732.6</v>
       </c>
       <c r="D1943" t="s">
         <v>1945</v>
@@ -35379,7 +35955,7 @@
         <v>23</v>
       </c>
       <c r="C1944">
-        <v>4741</v>
+        <v>4782.6</v>
       </c>
       <c r="D1944" t="s">
         <v>1946</v>
@@ -35393,7 +35969,7 @@
         <v>24</v>
       </c>
       <c r="C1945">
-        <v>4801</v>
+        <v>4822.6</v>
       </c>
       <c r="D1945" t="s">
         <v>1947</v>
@@ -35407,7 +35983,7 @@
         <v>25</v>
       </c>
       <c r="C1946">
-        <v>4870</v>
+        <v>4659</v>
       </c>
       <c r="D1946" t="s">
         <v>1948</v>
@@ -35421,7 +35997,7 @@
         <v>26</v>
       </c>
       <c r="C1947">
-        <v>4950</v>
+        <v>4719</v>
       </c>
       <c r="D1947" t="s">
         <v>1949</v>
@@ -35435,7 +36011,7 @@
         <v>27</v>
       </c>
       <c r="C1948">
-        <v>5040</v>
+        <v>4809</v>
       </c>
       <c r="D1948" t="s">
         <v>1950</v>
@@ -35449,7 +36025,7 @@
         <v>28</v>
       </c>
       <c r="C1949">
-        <v>5130</v>
+        <v>4899</v>
       </c>
       <c r="D1949" t="s">
         <v>1951</v>
@@ -35463,7 +36039,7 @@
         <v>29</v>
       </c>
       <c r="C1950">
-        <v>5273</v>
+        <v>5315.5</v>
       </c>
       <c r="D1950" t="s">
         <v>1952</v>
@@ -35477,7 +36053,7 @@
         <v>30</v>
       </c>
       <c r="C1951">
-        <v>5353</v>
+        <v>5435.5</v>
       </c>
       <c r="D1951" t="s">
         <v>1953</v>
@@ -35491,7 +36067,7 @@
         <v>31</v>
       </c>
       <c r="C1952">
-        <v>5423</v>
+        <v>5495.5</v>
       </c>
       <c r="D1952" t="s">
         <v>1954</v>
@@ -35505,7 +36081,7 @@
         <v>32</v>
       </c>
       <c r="C1953">
-        <v>5473</v>
+        <v>5525.5</v>
       </c>
       <c r="D1953" t="s">
         <v>1955</v>
@@ -35519,7 +36095,7 @@
         <v>33</v>
       </c>
       <c r="C1954">
-        <v>5513</v>
+        <v>5632.8</v>
       </c>
       <c r="D1954" t="s">
         <v>1956</v>
@@ -35533,7 +36109,7 @@
         <v>34</v>
       </c>
       <c r="C1955">
-        <v>5523</v>
+        <v>5632.8</v>
       </c>
       <c r="D1955" t="s">
         <v>1957</v>
@@ -35547,7 +36123,7 @@
         <v>35</v>
       </c>
       <c r="C1956">
-        <v>5503</v>
+        <v>5622.8</v>
       </c>
       <c r="D1956" t="s">
         <v>1958</v>
@@ -35561,7 +36137,7 @@
         <v>36</v>
       </c>
       <c r="C1957">
-        <v>5463</v>
+        <v>5582.8</v>
       </c>
       <c r="D1957" t="s">
         <v>1959</v>
@@ -35575,7 +36151,7 @@
         <v>37</v>
       </c>
       <c r="C1958">
-        <v>5298</v>
+        <v>5257.8</v>
       </c>
       <c r="D1958" t="s">
         <v>1960</v>
@@ -35589,7 +36165,7 @@
         <v>38</v>
       </c>
       <c r="C1959">
-        <v>5218</v>
+        <v>5167.8</v>
       </c>
       <c r="D1959" t="s">
         <v>1961</v>
@@ -35603,7 +36179,7 @@
         <v>39</v>
       </c>
       <c r="C1960">
-        <v>5128</v>
+        <v>5097.8</v>
       </c>
       <c r="D1960" t="s">
         <v>1962</v>
@@ -35617,7 +36193,7 @@
         <v>40</v>
       </c>
       <c r="C1961">
-        <v>5038</v>
+        <v>5017.8</v>
       </c>
       <c r="D1961" t="s">
         <v>1963</v>
@@ -35631,7 +36207,7 @@
         <v>41</v>
       </c>
       <c r="C1962">
-        <v>4917</v>
+        <v>5403.8</v>
       </c>
       <c r="D1962" t="s">
         <v>1964</v>
@@ -35645,7 +36221,7 @@
         <v>42</v>
       </c>
       <c r="C1963">
-        <v>4837</v>
+        <v>5323.8</v>
       </c>
       <c r="D1963" t="s">
         <v>1965</v>
@@ -35659,7 +36235,7 @@
         <v>43</v>
       </c>
       <c r="C1964">
-        <v>4767</v>
+        <v>5253.8</v>
       </c>
       <c r="D1964" t="s">
         <v>1966</v>
@@ -35673,7 +36249,7 @@
         <v>44</v>
       </c>
       <c r="C1965">
-        <v>4717</v>
+        <v>5203.8</v>
       </c>
       <c r="D1965" t="s">
         <v>1967</v>
@@ -35687,7 +36263,7 @@
         <v>45</v>
       </c>
       <c r="C1966">
-        <v>4744</v>
+        <v>5438.9</v>
       </c>
       <c r="D1966" t="s">
         <v>1968</v>
@@ -35701,7 +36277,7 @@
         <v>46</v>
       </c>
       <c r="C1967">
-        <v>4714</v>
+        <v>5408.9</v>
       </c>
       <c r="D1967" t="s">
         <v>1969</v>
@@ -35715,7 +36291,7 @@
         <v>47</v>
       </c>
       <c r="C1968">
-        <v>4684</v>
+        <v>5398.9</v>
       </c>
       <c r="D1968" t="s">
         <v>1970</v>
@@ -35729,7 +36305,7 @@
         <v>48</v>
       </c>
       <c r="C1969">
-        <v>4664</v>
+        <v>5388.9</v>
       </c>
       <c r="D1969" t="s">
         <v>1971</v>
@@ -35743,7 +36319,7 @@
         <v>49</v>
       </c>
       <c r="C1970">
-        <v>4704</v>
+        <v>5636.4</v>
       </c>
       <c r="D1970" t="s">
         <v>1972</v>
@@ -35757,7 +36333,7 @@
         <v>50</v>
       </c>
       <c r="C1971">
-        <v>4684</v>
+        <v>5636.4</v>
       </c>
       <c r="D1971" t="s">
         <v>1973</v>
@@ -35771,7 +36347,7 @@
         <v>51</v>
       </c>
       <c r="C1972">
-        <v>4674</v>
+        <v>5636.4</v>
       </c>
       <c r="D1972" t="s">
         <v>1974</v>
@@ -35785,7 +36361,7 @@
         <v>52</v>
       </c>
       <c r="C1973">
-        <v>4674</v>
+        <v>5636.4</v>
       </c>
       <c r="D1973" t="s">
         <v>1975</v>
@@ -35799,7 +36375,7 @@
         <v>53</v>
       </c>
       <c r="C1974">
-        <v>4626</v>
+        <v>5588.5</v>
       </c>
       <c r="D1974" t="s">
         <v>1976</v>
@@ -35813,7 +36389,7 @@
         <v>54</v>
       </c>
       <c r="C1975">
-        <v>4626</v>
+        <v>5608.5</v>
       </c>
       <c r="D1975" t="s">
         <v>1977</v>
@@ -35827,7 +36403,7 @@
         <v>55</v>
       </c>
       <c r="C1976">
-        <v>4646</v>
+        <v>5628.5</v>
       </c>
       <c r="D1976" t="s">
         <v>1978</v>
@@ -35841,7 +36417,7 @@
         <v>56</v>
       </c>
       <c r="C1977">
-        <v>4676</v>
+        <v>5658.5</v>
       </c>
       <c r="D1977" t="s">
         <v>1979</v>
@@ -35855,7 +36431,7 @@
         <v>57</v>
       </c>
       <c r="C1978">
-        <v>4777</v>
+        <v>5750.9</v>
       </c>
       <c r="D1978" t="s">
         <v>1980</v>
@@ -35869,7 +36445,7 @@
         <v>58</v>
       </c>
       <c r="C1979">
-        <v>4827</v>
+        <v>5800.9</v>
       </c>
       <c r="D1979" t="s">
         <v>1981</v>
@@ -35883,7 +36459,7 @@
         <v>59</v>
       </c>
       <c r="C1980">
-        <v>4877</v>
+        <v>5840.9</v>
       </c>
       <c r="D1980" t="s">
         <v>1982</v>
@@ -35897,7 +36473,7 @@
         <v>60</v>
       </c>
       <c r="C1981">
-        <v>4937</v>
+        <v>5890.9</v>
       </c>
       <c r="D1981" t="s">
         <v>1983</v>
@@ -35911,7 +36487,7 @@
         <v>61</v>
       </c>
       <c r="C1982">
-        <v>5125</v>
+        <v>5934.5</v>
       </c>
       <c r="D1982" t="s">
         <v>1984</v>
@@ -35925,7 +36501,7 @@
         <v>62</v>
       </c>
       <c r="C1983">
-        <v>5185</v>
+        <v>5994.5</v>
       </c>
       <c r="D1983" t="s">
         <v>1985</v>
@@ -35939,7 +36515,7 @@
         <v>63</v>
       </c>
       <c r="C1984">
-        <v>5245</v>
+        <v>6054.5</v>
       </c>
       <c r="D1984" t="s">
         <v>1986</v>
@@ -35953,7 +36529,7 @@
         <v>64</v>
       </c>
       <c r="C1985">
-        <v>5305</v>
+        <v>6114.5</v>
       </c>
       <c r="D1985" t="s">
         <v>1987</v>
@@ -35967,7 +36543,7 @@
         <v>65</v>
       </c>
       <c r="C1986">
-        <v>5449</v>
+        <v>5893.3</v>
       </c>
       <c r="D1986" t="s">
         <v>1988</v>
@@ -35981,7 +36557,7 @@
         <v>66</v>
       </c>
       <c r="C1987">
-        <v>5529</v>
+        <v>5973.3</v>
       </c>
       <c r="D1987" t="s">
         <v>1989</v>
@@ -35995,7 +36571,7 @@
         <v>67</v>
       </c>
       <c r="C1988">
-        <v>5619</v>
+        <v>6073.3</v>
       </c>
       <c r="D1988" t="s">
         <v>1990</v>
@@ -36009,7 +36585,7 @@
         <v>68</v>
       </c>
       <c r="C1989">
-        <v>5719</v>
+        <v>6173.3</v>
       </c>
       <c r="D1989" t="s">
         <v>1991</v>
@@ -36023,7 +36599,7 @@
         <v>69</v>
       </c>
       <c r="C1990">
-        <v>5747</v>
+        <v>5944.3</v>
       </c>
       <c r="D1990" t="s">
         <v>1992</v>
@@ -36037,7 +36613,7 @@
         <v>70</v>
       </c>
       <c r="C1991">
-        <v>5847</v>
+        <v>6034.3</v>
       </c>
       <c r="D1991" t="s">
         <v>1993</v>
@@ -36051,7 +36627,7 @@
         <v>71</v>
       </c>
       <c r="C1992">
-        <v>5937</v>
+        <v>6134.3</v>
       </c>
       <c r="D1992" t="s">
         <v>1994</v>
@@ -36065,7 +36641,7 @@
         <v>72</v>
       </c>
       <c r="C1993">
-        <v>6027</v>
+        <v>6224.3</v>
       </c>
       <c r="D1993" t="s">
         <v>1995</v>
@@ -36079,7 +36655,7 @@
         <v>73</v>
       </c>
       <c r="C1994">
-        <v>6141</v>
+        <v>6250.6</v>
       </c>
       <c r="D1994" t="s">
         <v>1996</v>
@@ -36093,7 +36669,7 @@
         <v>74</v>
       </c>
       <c r="C1995">
-        <v>6231</v>
+        <v>6350.6</v>
       </c>
       <c r="D1995" t="s">
         <v>1997</v>
@@ -36107,7 +36683,7 @@
         <v>75</v>
       </c>
       <c r="C1996">
-        <v>6321</v>
+        <v>6460.6</v>
       </c>
       <c r="D1996" t="s">
         <v>1998</v>
@@ -36121,7 +36697,7 @@
         <v>76</v>
       </c>
       <c r="C1997">
-        <v>6431</v>
+        <v>6560.6</v>
       </c>
       <c r="D1997" t="s">
         <v>1999</v>
@@ -36135,7 +36711,7 @@
         <v>77</v>
       </c>
       <c r="C1998">
-        <v>6264</v>
+        <v>6558.1</v>
       </c>
       <c r="D1998" t="s">
         <v>2000</v>
@@ -36149,7 +36725,7 @@
         <v>78</v>
       </c>
       <c r="C1999">
-        <v>6354</v>
+        <v>6658.1</v>
       </c>
       <c r="D1999" t="s">
         <v>2001</v>
@@ -36163,7 +36739,7 @@
         <v>79</v>
       </c>
       <c r="C2000">
-        <v>6424</v>
+        <v>6718.1</v>
       </c>
       <c r="D2000" t="s">
         <v>2002</v>
@@ -36177,7 +36753,7 @@
         <v>80</v>
       </c>
       <c r="C2001">
-        <v>6464</v>
+        <v>6768.1</v>
       </c>
       <c r="D2001" t="s">
         <v>2003</v>
@@ -36191,7 +36767,7 @@
         <v>81</v>
       </c>
       <c r="C2002">
-        <v>6440</v>
+        <v>6872.8</v>
       </c>
       <c r="D2002" t="s">
         <v>2004</v>
@@ -36205,7 +36781,7 @@
         <v>82</v>
       </c>
       <c r="C2003">
-        <v>6460</v>
+        <v>6902.8</v>
       </c>
       <c r="D2003" t="s">
         <v>2005</v>
@@ -36219,7 +36795,7 @@
         <v>83</v>
       </c>
       <c r="C2004">
-        <v>6460</v>
+        <v>6932.8</v>
       </c>
       <c r="D2004" t="s">
         <v>2006</v>
@@ -36233,7 +36809,7 @@
         <v>84</v>
       </c>
       <c r="C2005">
-        <v>6460</v>
+        <v>6982.8</v>
       </c>
       <c r="D2005" t="s">
         <v>2007</v>
@@ -36247,7 +36823,7 @@
         <v>85</v>
       </c>
       <c r="C2006">
-        <v>6418</v>
+        <v>7077.2</v>
       </c>
       <c r="D2006" t="s">
         <v>2008</v>
@@ -36261,7 +36837,7 @@
         <v>86</v>
       </c>
       <c r="C2007">
-        <v>6378</v>
+        <v>7047.2</v>
       </c>
       <c r="D2007" t="s">
         <v>2009</v>
@@ -36275,7 +36851,7 @@
         <v>87</v>
       </c>
       <c r="C2008">
-        <v>6348</v>
+        <v>6997.2</v>
       </c>
       <c r="D2008" t="s">
         <v>2010</v>
@@ -36289,7 +36865,7 @@
         <v>88</v>
       </c>
       <c r="C2009">
-        <v>6288</v>
+        <v>6887.2</v>
       </c>
       <c r="D2009" t="s">
         <v>2011</v>
@@ -36303,7 +36879,7 @@
         <v>89</v>
       </c>
       <c r="C2010">
-        <v>6304</v>
+        <v>7033.3</v>
       </c>
       <c r="D2010" t="s">
         <v>2012</v>
@@ -36317,7 +36893,7 @@
         <v>90</v>
       </c>
       <c r="C2011">
-        <v>6224</v>
+        <v>6873.3</v>
       </c>
       <c r="D2011" t="s">
         <v>2013</v>
@@ -36331,7 +36907,7 @@
         <v>91</v>
       </c>
       <c r="C2012">
-        <v>6094</v>
+        <v>6723.3</v>
       </c>
       <c r="D2012" t="s">
         <v>2014</v>
@@ -36345,7 +36921,7 @@
         <v>92</v>
       </c>
       <c r="C2013">
-        <v>5944</v>
+        <v>6563.3</v>
       </c>
       <c r="D2013" t="s">
         <v>2015</v>
@@ -36359,7 +36935,7 @@
         <v>93</v>
       </c>
       <c r="C2014">
-        <v>5807</v>
+        <v>6512.3</v>
       </c>
       <c r="D2014" t="s">
         <v>2016</v>
@@ -36373,7 +36949,7 @@
         <v>94</v>
       </c>
       <c r="C2015">
-        <v>5667</v>
+        <v>6362.3</v>
       </c>
       <c r="D2015" t="s">
         <v>2017</v>
@@ -36387,7 +36963,7 @@
         <v>95</v>
       </c>
       <c r="C2016">
-        <v>5567</v>
+        <v>6252.3</v>
       </c>
       <c r="D2016" t="s">
         <v>2018</v>
@@ -36401,7 +36977,7 @@
         <v>96</v>
       </c>
       <c r="C2017">
-        <v>5457</v>
+        <v>6142.3</v>
       </c>
       <c r="D2017" t="s">
         <v>2019</v>
@@ -36415,7 +36991,7 @@
         <v>1</v>
       </c>
       <c r="C2018">
-        <v>4760</v>
+        <v>5188</v>
       </c>
       <c r="D2018" t="s">
         <v>2020</v>
@@ -36429,7 +37005,7 @@
         <v>2</v>
       </c>
       <c r="C2019">
-        <v>4710</v>
+        <v>5128</v>
       </c>
       <c r="D2019" t="s">
         <v>2021</v>
@@ -36443,7 +37019,7 @@
         <v>3</v>
       </c>
       <c r="C2020">
-        <v>4650</v>
+        <v>5078</v>
       </c>
       <c r="D2020" t="s">
         <v>2022</v>
@@ -36457,7 +37033,7 @@
         <v>4</v>
       </c>
       <c r="C2021">
-        <v>4560</v>
+        <v>5018</v>
       </c>
       <c r="D2021" t="s">
         <v>2023</v>
@@ -36471,7 +37047,7 @@
         <v>5</v>
       </c>
       <c r="C2022">
-        <v>5296.9</v>
+        <v>5059.3</v>
       </c>
       <c r="D2022" t="s">
         <v>2024</v>
@@ -36485,7 +37061,7 @@
         <v>6</v>
       </c>
       <c r="C2023">
-        <v>5216.9</v>
+        <v>4999.3</v>
       </c>
       <c r="D2023" t="s">
         <v>2025</v>
@@ -36499,7 +37075,7 @@
         <v>7</v>
       </c>
       <c r="C2024">
-        <v>5146.9</v>
+        <v>4949.3</v>
       </c>
       <c r="D2024" t="s">
         <v>2026</v>
@@ -36513,7 +37089,7 @@
         <v>8</v>
       </c>
       <c r="C2025">
-        <v>5096.9</v>
+        <v>4899.3</v>
       </c>
       <c r="D2025" t="s">
         <v>2027</v>
@@ -36527,7 +37103,7 @@
         <v>9</v>
       </c>
       <c r="C2026">
-        <v>5062.9</v>
+        <v>4934.8</v>
       </c>
       <c r="D2026" t="s">
         <v>2028</v>
@@ -36541,7 +37117,7 @@
         <v>10</v>
       </c>
       <c r="C2027">
-        <v>5032.9</v>
+        <v>4894.8</v>
       </c>
       <c r="D2027" t="s">
         <v>2029</v>
@@ -36555,7 +37131,7 @@
         <v>11</v>
       </c>
       <c r="C2028">
-        <v>5012.9</v>
+        <v>4874.8</v>
       </c>
       <c r="D2028" t="s">
         <v>2030</v>
@@ -36569,7 +37145,7 @@
         <v>12</v>
       </c>
       <c r="C2029">
-        <v>5002.9</v>
+        <v>4864.8</v>
       </c>
       <c r="D2029" t="s">
         <v>2031</v>
@@ -36583,7 +37159,7 @@
         <v>13</v>
       </c>
       <c r="C2030">
-        <v>5337.5</v>
+        <v>4876</v>
       </c>
       <c r="D2030" t="s">
         <v>2032</v>
@@ -36597,7 +37173,7 @@
         <v>14</v>
       </c>
       <c r="C2031">
-        <v>5337.5</v>
+        <v>4866</v>
       </c>
       <c r="D2031" t="s">
         <v>2033</v>
@@ -36611,7 +37187,7 @@
         <v>15</v>
       </c>
       <c r="C2032">
-        <v>5327.5</v>
+        <v>4856</v>
       </c>
       <c r="D2032" t="s">
         <v>2034</v>
@@ -36625,7 +37201,7 @@
         <v>16</v>
       </c>
       <c r="C2033">
-        <v>5337.5</v>
+        <v>4846</v>
       </c>
       <c r="D2033" t="s">
         <v>2035</v>
@@ -36639,7 +37215,7 @@
         <v>17</v>
       </c>
       <c r="C2034">
-        <v>5387.5</v>
+        <v>4811.4</v>
       </c>
       <c r="D2034" t="s">
         <v>2036</v>
@@ -36653,7 +37229,7 @@
         <v>18</v>
       </c>
       <c r="C2035">
-        <v>5387.5</v>
+        <v>4811.4</v>
       </c>
       <c r="D2035" t="s">
         <v>2037</v>
@@ -36667,7 +37243,7 @@
         <v>19</v>
       </c>
       <c r="C2036">
-        <v>5407.5</v>
+        <v>4821.4</v>
       </c>
       <c r="D2036" t="s">
         <v>2038</v>
@@ -36681,7 +37257,7 @@
         <v>20</v>
       </c>
       <c r="C2037">
-        <v>5427.5</v>
+        <v>4831.4</v>
       </c>
       <c r="D2037" t="s">
         <v>2039</v>
@@ -36695,7 +37271,7 @@
         <v>21</v>
       </c>
       <c r="C2038">
-        <v>5348.9</v>
+        <v>4782.6</v>
       </c>
       <c r="D2038" t="s">
         <v>2040</v>
@@ -36709,7 +37285,7 @@
         <v>22</v>
       </c>
       <c r="C2039">
-        <v>5388.9</v>
+        <v>4812.6</v>
       </c>
       <c r="D2039" t="s">
         <v>2041</v>
@@ -36723,7 +37299,7 @@
         <v>23</v>
       </c>
       <c r="C2040">
-        <v>5448.9</v>
+        <v>4842.6</v>
       </c>
       <c r="D2040" t="s">
         <v>2042</v>
@@ -36737,7 +37313,7 @@
         <v>24</v>
       </c>
       <c r="C2041">
-        <v>5518.9</v>
+        <v>4912.6</v>
       </c>
       <c r="D2041" t="s">
         <v>2043</v>
@@ -36751,7 +37327,7 @@
         <v>25</v>
       </c>
       <c r="C2042">
-        <v>5731.7</v>
+        <v>4759</v>
       </c>
       <c r="D2042" t="s">
         <v>2044</v>
@@ -36765,7 +37341,7 @@
         <v>26</v>
       </c>
       <c r="C2043">
-        <v>5821.7</v>
+        <v>4839</v>
       </c>
       <c r="D2043" t="s">
         <v>2045</v>
@@ -36779,7 +37355,7 @@
         <v>27</v>
       </c>
       <c r="C2044">
-        <v>5921.7</v>
+        <v>4939</v>
       </c>
       <c r="D2044" t="s">
         <v>2046</v>
@@ -36793,7 +37369,7 @@
         <v>28</v>
       </c>
       <c r="C2045">
-        <v>6021.7</v>
+        <v>5039</v>
       </c>
       <c r="D2045" t="s">
         <v>2047</v>
@@ -36807,7 +37383,7 @@
         <v>29</v>
       </c>
       <c r="C2046">
-        <v>6208.9</v>
+        <v>5395.5</v>
       </c>
       <c r="D2046" t="s">
         <v>2048</v>
@@ -36821,7 +37397,7 @@
         <v>30</v>
       </c>
       <c r="C2047">
-        <v>6308.9</v>
+        <v>5505.5</v>
       </c>
       <c r="D2047" t="s">
         <v>2049</v>
@@ -36835,7 +37411,7 @@
         <v>31</v>
       </c>
       <c r="C2048">
-        <v>6398.9</v>
+        <v>5605.5</v>
       </c>
       <c r="D2048" t="s">
         <v>2050</v>
@@ -36849,7 +37425,7 @@
         <v>32</v>
       </c>
       <c r="C2049">
-        <v>6468.9</v>
+        <v>5695.5</v>
       </c>
       <c r="D2049" t="s">
         <v>2051</v>
@@ -36863,7 +37439,7 @@
         <v>33</v>
       </c>
       <c r="C2050">
-        <v>6879.2</v>
+        <v>5852.8</v>
       </c>
       <c r="D2050" t="s">
         <v>2052</v>
@@ -36877,7 +37453,7 @@
         <v>34</v>
       </c>
       <c r="C2051">
-        <v>6909.2</v>
+        <v>5912.8</v>
       </c>
       <c r="D2051" t="s">
         <v>2053</v>
@@ -36891,7 +37467,7 @@
         <v>35</v>
       </c>
       <c r="C2052">
-        <v>6939.2</v>
+        <v>5952.8</v>
       </c>
       <c r="D2052" t="s">
         <v>2054</v>
@@ -36905,7 +37481,7 @@
         <v>36</v>
       </c>
       <c r="C2053">
-        <v>6889.2</v>
+        <v>5952.8</v>
       </c>
       <c r="D2053" t="s">
         <v>2055</v>
@@ -36919,7 +37495,7 @@
         <v>37</v>
       </c>
       <c r="C2054">
-        <v>7057.5</v>
+        <v>5737.8</v>
       </c>
       <c r="D2054" t="s">
         <v>2056</v>
@@ -36933,7 +37509,7 @@
         <v>38</v>
       </c>
       <c r="C2055">
-        <v>7007.5</v>
+        <v>5707.8</v>
       </c>
       <c r="D2055" t="s">
         <v>2057</v>
@@ -36947,7 +37523,7 @@
         <v>39</v>
       </c>
       <c r="C2056">
-        <v>6937.5</v>
+        <v>5667.8</v>
       </c>
       <c r="D2056" t="s">
         <v>2058</v>
@@ -36961,7 +37537,7 @@
         <v>40</v>
       </c>
       <c r="C2057">
-        <v>6867.5</v>
+        <v>5617.8</v>
       </c>
       <c r="D2057" t="s">
         <v>2059</v>
@@ -36975,7 +37551,7 @@
         <v>41</v>
       </c>
       <c r="C2058">
-        <v>7172.1</v>
+        <v>6023.8</v>
       </c>
       <c r="D2058" t="s">
         <v>2060</v>
@@ -36989,7 +37565,7 @@
         <v>42</v>
       </c>
       <c r="C2059">
-        <v>7102.1</v>
+        <v>5973.8</v>
       </c>
       <c r="D2059" t="s">
         <v>2061</v>
@@ -37003,7 +37579,7 @@
         <v>43</v>
       </c>
       <c r="C2060">
-        <v>7052.1</v>
+        <v>5913.8</v>
       </c>
       <c r="D2060" t="s">
         <v>2062</v>
@@ -37017,7 +37593,7 @@
         <v>44</v>
       </c>
       <c r="C2061">
-        <v>7012.1</v>
+        <v>5873.8</v>
       </c>
       <c r="D2061" t="s">
         <v>2063</v>
@@ -37031,7 +37607,7 @@
         <v>45</v>
       </c>
       <c r="C2062">
-        <v>7021.1</v>
+        <v>6148.9</v>
       </c>
       <c r="D2062" t="s">
         <v>2064</v>
@@ -37045,7 +37621,7 @@
         <v>46</v>
       </c>
       <c r="C2063">
-        <v>7021.1</v>
+        <v>6118.9</v>
       </c>
       <c r="D2063" t="s">
         <v>2065</v>
@@ -37059,7 +37635,7 @@
         <v>47</v>
       </c>
       <c r="C2064">
-        <v>7021.1</v>
+        <v>6098.9</v>
       </c>
       <c r="D2064" t="s">
         <v>2066</v>
@@ -37073,7 +37649,7 @@
         <v>48</v>
       </c>
       <c r="C2065">
-        <v>7041.1</v>
+        <v>6078.9</v>
       </c>
       <c r="D2065" t="s">
         <v>2067</v>
@@ -37087,7 +37663,7 @@
         <v>49</v>
       </c>
       <c r="C2066">
-        <v>7128.1</v>
+        <v>6326.4</v>
       </c>
       <c r="D2066" t="s">
         <v>2068</v>
@@ -37101,7 +37677,7 @@
         <v>50</v>
       </c>
       <c r="C2067">
-        <v>7148.1</v>
+        <v>6316.4</v>
       </c>
       <c r="D2067" t="s">
         <v>2069</v>
@@ -37115,7 +37691,7 @@
         <v>51</v>
       </c>
       <c r="C2068">
-        <v>7178.1</v>
+        <v>6306.4</v>
       </c>
       <c r="D2068" t="s">
         <v>2070</v>
@@ -37129,7 +37705,7 @@
         <v>52</v>
       </c>
       <c r="C2069">
-        <v>7198.1</v>
+        <v>6306.4</v>
       </c>
       <c r="D2069" t="s">
         <v>2071</v>
@@ -37143,7 +37719,7 @@
         <v>53</v>
       </c>
       <c r="C2070">
-        <v>6870.8</v>
+        <v>6238.5</v>
       </c>
       <c r="D2070" t="s">
         <v>2072</v>
@@ -37157,7 +37733,7 @@
         <v>54</v>
       </c>
       <c r="C2071">
-        <v>6890.8</v>
+        <v>6238.5</v>
       </c>
       <c r="D2071" t="s">
         <v>2073</v>
@@ -37171,7 +37747,7 @@
         <v>55</v>
       </c>
       <c r="C2072">
-        <v>6900.8</v>
+        <v>6238.5</v>
       </c>
       <c r="D2072" t="s">
         <v>2074</v>
@@ -37185,7 +37761,7 @@
         <v>56</v>
       </c>
       <c r="C2073">
-        <v>6920.8</v>
+        <v>6248.5</v>
       </c>
       <c r="D2073" t="s">
         <v>2075</v>
@@ -37199,7 +37775,7 @@
         <v>57</v>
       </c>
       <c r="C2074">
-        <v>6882</v>
+        <v>6310.9</v>
       </c>
       <c r="D2074" t="s">
         <v>2076</v>
@@ -37213,7 +37789,7 @@
         <v>58</v>
       </c>
       <c r="C2075">
-        <v>6902</v>
+        <v>6330.9</v>
       </c>
       <c r="D2075" t="s">
         <v>2077</v>
@@ -37227,7 +37803,7 @@
         <v>59</v>
       </c>
       <c r="C2076">
-        <v>6912</v>
+        <v>6340.9</v>
       </c>
       <c r="D2076" t="s">
         <v>2078</v>
@@ -37241,7 +37817,7 @@
         <v>60</v>
       </c>
       <c r="C2077">
-        <v>6932</v>
+        <v>6360.9</v>
       </c>
       <c r="D2077" t="s">
         <v>2079</v>
@@ -37255,7 +37831,7 @@
         <v>61</v>
       </c>
       <c r="C2078">
-        <v>7131.6</v>
+        <v>6364.5</v>
       </c>
       <c r="D2078" t="s">
         <v>2080</v>
@@ -37269,7 +37845,7 @@
         <v>62</v>
       </c>
       <c r="C2079">
-        <v>7151.6</v>
+        <v>6374.5</v>
       </c>
       <c r="D2079" t="s">
         <v>2081</v>
@@ -37283,7 +37859,7 @@
         <v>63</v>
       </c>
       <c r="C2080">
-        <v>7161.6</v>
+        <v>6394.5</v>
       </c>
       <c r="D2080" t="s">
         <v>2082</v>
@@ -37297,7 +37873,7 @@
         <v>64</v>
       </c>
       <c r="C2081">
-        <v>7191.6</v>
+        <v>6424.5</v>
       </c>
       <c r="D2081" t="s">
         <v>2083</v>
@@ -37311,7 +37887,7 @@
         <v>65</v>
       </c>
       <c r="C2082">
-        <v>6735</v>
+        <v>6143.3</v>
       </c>
       <c r="D2082" t="s">
         <v>2084</v>
@@ -37325,7 +37901,7 @@
         <v>66</v>
       </c>
       <c r="C2083">
-        <v>6775</v>
+        <v>6183.3</v>
       </c>
       <c r="D2083" t="s">
         <v>2085</v>
@@ -37339,7 +37915,7 @@
         <v>67</v>
       </c>
       <c r="C2084">
-        <v>6835</v>
+        <v>6233.3</v>
       </c>
       <c r="D2084" t="s">
         <v>2086</v>
@@ -37353,7 +37929,7 @@
         <v>68</v>
       </c>
       <c r="C2085">
-        <v>6905</v>
+        <v>6283.3</v>
       </c>
       <c r="D2085" t="s">
         <v>2087</v>
@@ -37367,7 +37943,7 @@
         <v>69</v>
       </c>
       <c r="C2086">
-        <v>6337.4</v>
+        <v>6014.3</v>
       </c>
       <c r="D2086" t="s">
         <v>2088</v>
@@ -37381,7 +37957,7 @@
         <v>70</v>
       </c>
       <c r="C2087">
-        <v>6407.4</v>
+        <v>6064.3</v>
       </c>
       <c r="D2087" t="s">
         <v>2089</v>
@@ -37395,7 +37971,7 @@
         <v>71</v>
       </c>
       <c r="C2088">
-        <v>6467.4</v>
+        <v>6114.3</v>
       </c>
       <c r="D2088" t="s">
         <v>2090</v>
@@ -37409,7 +37985,7 @@
         <v>72</v>
       </c>
       <c r="C2089">
-        <v>6517.4</v>
+        <v>6164.3</v>
       </c>
       <c r="D2089" t="s">
         <v>2091</v>
@@ -37423,7 +37999,7 @@
         <v>73</v>
       </c>
       <c r="C2090">
-        <v>5270.6</v>
+        <v>6100.6</v>
       </c>
       <c r="D2090" t="s">
         <v>2092</v>
@@ -37437,7 +38013,7 @@
         <v>74</v>
       </c>
       <c r="C2091">
-        <v>5330.6</v>
+        <v>6150.6</v>
       </c>
       <c r="D2091" t="s">
         <v>2093</v>
@@ -37451,7 +38027,7 @@
         <v>75</v>
       </c>
       <c r="C2092">
-        <v>5400.6</v>
+        <v>6210.6</v>
       </c>
       <c r="D2092" t="s">
         <v>2094</v>
@@ -37465,7 +38041,7 @@
         <v>76</v>
       </c>
       <c r="C2093">
-        <v>5510.6</v>
+        <v>6280.6</v>
       </c>
       <c r="D2093" t="s">
         <v>2095</v>
@@ -37479,7 +38055,7 @@
         <v>77</v>
       </c>
       <c r="C2094">
-        <v>6603.9</v>
+        <v>6288.1</v>
       </c>
       <c r="D2094" t="s">
         <v>2096</v>
@@ -37493,7 +38069,7 @@
         <v>78</v>
       </c>
       <c r="C2095">
-        <v>6713.9</v>
+        <v>6348.1</v>
       </c>
       <c r="D2095" t="s">
         <v>2097</v>
@@ -37507,7 +38083,7 @@
         <v>79</v>
       </c>
       <c r="C2096">
-        <v>6813.9</v>
+        <v>6398.1</v>
       </c>
       <c r="D2096" t="s">
         <v>2098</v>
@@ -37521,7 +38097,7 @@
         <v>80</v>
       </c>
       <c r="C2097">
-        <v>6903.9</v>
+        <v>6468.1</v>
       </c>
       <c r="D2097" t="s">
         <v>2099</v>
@@ -37535,7 +38111,7 @@
         <v>81</v>
       </c>
       <c r="C2098">
-        <v>7480.3</v>
+        <v>6612.8</v>
       </c>
       <c r="D2098" t="s">
         <v>2100</v>
@@ -37549,7 +38125,7 @@
         <v>82</v>
       </c>
       <c r="C2099">
-        <v>7560.3</v>
+        <v>6652.8</v>
       </c>
       <c r="D2099" t="s">
         <v>2101</v>
@@ -37563,7 +38139,7 @@
         <v>83</v>
       </c>
       <c r="C2100">
-        <v>7610.3</v>
+        <v>6672.8</v>
       </c>
       <c r="D2100" t="s">
         <v>2102</v>
@@ -37577,7 +38153,7 @@
         <v>84</v>
       </c>
       <c r="C2101">
-        <v>7630.3</v>
+        <v>6672.8</v>
       </c>
       <c r="D2101" t="s">
         <v>2103</v>
@@ -37591,7 +38167,7 @@
         <v>85</v>
       </c>
       <c r="C2102">
-        <v>7532.5</v>
+        <v>6747.2</v>
       </c>
       <c r="D2102" t="s">
         <v>2104</v>
@@ -37605,7 +38181,7 @@
         <v>86</v>
       </c>
       <c r="C2103">
-        <v>7492.5</v>
+        <v>6737.2</v>
       </c>
       <c r="D2103" t="s">
         <v>2105</v>
@@ -37619,7 +38195,7 @@
         <v>87</v>
       </c>
       <c r="C2104">
-        <v>7462.5</v>
+        <v>6707.2</v>
       </c>
       <c r="D2104" t="s">
         <v>2106</v>
@@ -37633,7 +38209,7 @@
         <v>88</v>
       </c>
       <c r="C2105">
-        <v>7382.5</v>
+        <v>6657.2</v>
       </c>
       <c r="D2105" t="s">
         <v>2107</v>
@@ -37647,7 +38223,7 @@
         <v>89</v>
       </c>
       <c r="C2106">
-        <v>7617.9</v>
+        <v>6893.3</v>
       </c>
       <c r="D2106" t="s">
         <v>2108</v>
@@ -37661,7 +38237,7 @@
         <v>90</v>
       </c>
       <c r="C2107">
-        <v>7517.9</v>
+        <v>6773.3</v>
       </c>
       <c r="D2107" t="s">
         <v>2109</v>
@@ -37675,7 +38251,7 @@
         <v>91</v>
       </c>
       <c r="C2108">
-        <v>7377.9</v>
+        <v>6633.3</v>
       </c>
       <c r="D2108" t="s">
         <v>2110</v>
@@ -37689,7 +38265,7 @@
         <v>92</v>
       </c>
       <c r="C2109">
-        <v>7237.9</v>
+        <v>6463.3</v>
       </c>
       <c r="D2109" t="s">
         <v>2111</v>
@@ -37703,7 +38279,7 @@
         <v>93</v>
       </c>
       <c r="C2110">
-        <v>5978.1</v>
+        <v>6402.3</v>
       </c>
       <c r="D2110" t="s">
         <v>2112</v>
@@ -37717,7 +38293,7 @@
         <v>94</v>
       </c>
       <c r="C2111">
-        <v>5828.1</v>
+        <v>6242.3</v>
       </c>
       <c r="D2111" t="s">
         <v>2113</v>
@@ -37731,7 +38307,7 @@
         <v>95</v>
       </c>
       <c r="C2112">
-        <v>5738.1</v>
+        <v>6122.3</v>
       </c>
       <c r="D2112" t="s">
         <v>2114</v>
@@ -37745,7 +38321,7 @@
         <v>96</v>
       </c>
       <c r="C2113">
-        <v>5628.1</v>
+        <v>5992.3</v>
       </c>
       <c r="D2113" t="s">
         <v>2115</v>
@@ -37759,7 +38335,7 @@
         <v>1</v>
       </c>
       <c r="C2114">
-        <v>5093</v>
+        <v>5041</v>
       </c>
       <c r="D2114" t="s">
         <v>2116</v>
@@ -37773,7 +38349,7 @@
         <v>2</v>
       </c>
       <c r="C2115">
-        <v>5033</v>
+        <v>4991</v>
       </c>
       <c r="D2115" t="s">
         <v>2117</v>
@@ -37787,7 +38363,7 @@
         <v>3</v>
       </c>
       <c r="C2116">
-        <v>4973</v>
+        <v>4941</v>
       </c>
       <c r="D2116" t="s">
         <v>2118</v>
@@ -37801,7 +38377,7 @@
         <v>4</v>
       </c>
       <c r="C2117">
-        <v>4893</v>
+        <v>4871</v>
       </c>
       <c r="D2117" t="s">
         <v>2119</v>
@@ -37815,7 +38391,7 @@
         <v>5</v>
       </c>
       <c r="C2118">
-        <v>4784</v>
+        <v>4743</v>
       </c>
       <c r="D2118" t="s">
         <v>2120</v>
@@ -37829,7 +38405,7 @@
         <v>6</v>
       </c>
       <c r="C2119">
-        <v>4724</v>
+        <v>4683</v>
       </c>
       <c r="D2119" t="s">
         <v>2121</v>
@@ -37843,7 +38419,7 @@
         <v>7</v>
       </c>
       <c r="C2120">
-        <v>4674</v>
+        <v>4623</v>
       </c>
       <c r="D2120" t="s">
         <v>2122</v>
@@ -37857,7 +38433,7 @@
         <v>8</v>
       </c>
       <c r="C2121">
-        <v>4624</v>
+        <v>4563</v>
       </c>
       <c r="D2121" t="s">
         <v>2123</v>
@@ -37871,7 +38447,7 @@
         <v>9</v>
       </c>
       <c r="C2122">
-        <v>4606</v>
+        <v>4551</v>
       </c>
       <c r="D2122" t="s">
         <v>2124</v>
@@ -37885,7 +38461,7 @@
         <v>10</v>
       </c>
       <c r="C2123">
-        <v>4576</v>
+        <v>4511</v>
       </c>
       <c r="D2123" t="s">
         <v>2125</v>
@@ -37899,7 +38475,7 @@
         <v>11</v>
       </c>
       <c r="C2124">
-        <v>4556</v>
+        <v>4471</v>
       </c>
       <c r="D2124" t="s">
         <v>2126</v>
@@ -37913,7 +38489,7 @@
         <v>12</v>
       </c>
       <c r="C2125">
-        <v>4546</v>
+        <v>4451</v>
       </c>
       <c r="D2125" t="s">
         <v>2127</v>
@@ -37927,7 +38503,7 @@
         <v>13</v>
       </c>
       <c r="C2126">
-        <v>4562</v>
+        <v>4448</v>
       </c>
       <c r="D2126" t="s">
         <v>2128</v>
@@ -37941,7 +38517,7 @@
         <v>14</v>
       </c>
       <c r="C2127">
-        <v>4562</v>
+        <v>4438</v>
       </c>
       <c r="D2127" t="s">
         <v>2129</v>
@@ -37955,7 +38531,7 @@
         <v>15</v>
       </c>
       <c r="C2128">
-        <v>4562</v>
+        <v>4428</v>
       </c>
       <c r="D2128" t="s">
         <v>2130</v>
@@ -37969,7 +38545,7 @@
         <v>16</v>
       </c>
       <c r="C2129">
-        <v>4562</v>
+        <v>4428</v>
       </c>
       <c r="D2129" t="s">
         <v>2131</v>
@@ -37983,7 +38559,7 @@
         <v>17</v>
       </c>
       <c r="C2130">
-        <v>4568</v>
+        <v>4442</v>
       </c>
       <c r="D2130" t="s">
         <v>2132</v>
@@ -37997,7 +38573,7 @@
         <v>18</v>
       </c>
       <c r="C2131">
-        <v>4568</v>
+        <v>4432</v>
       </c>
       <c r="D2131" t="s">
         <v>2133</v>
@@ -38011,7 +38587,7 @@
         <v>19</v>
       </c>
       <c r="C2132">
-        <v>4558</v>
+        <v>4422</v>
       </c>
       <c r="D2132" t="s">
         <v>2134</v>
@@ -38025,7 +38601,7 @@
         <v>20</v>
       </c>
       <c r="C2133">
-        <v>4548</v>
+        <v>4422</v>
       </c>
       <c r="D2133" t="s">
         <v>2135</v>
@@ -38039,7 +38615,7 @@
         <v>21</v>
       </c>
       <c r="C2134">
-        <v>4544</v>
+        <v>4411</v>
       </c>
       <c r="D2134" t="s">
         <v>2136</v>
@@ -38053,7 +38629,7 @@
         <v>22</v>
       </c>
       <c r="C2135">
-        <v>4544</v>
+        <v>4411</v>
       </c>
       <c r="D2135" t="s">
         <v>2137</v>
@@ -38067,7 +38643,7 @@
         <v>23</v>
       </c>
       <c r="C2136">
-        <v>4544</v>
+        <v>4411</v>
       </c>
       <c r="D2136" t="s">
         <v>2138</v>
@@ -38081,7 +38657,7 @@
         <v>24</v>
       </c>
       <c r="C2137">
-        <v>4554</v>
+        <v>4421</v>
       </c>
       <c r="D2137" t="s">
         <v>2139</v>
@@ -38095,7 +38671,7 @@
         <v>25</v>
       </c>
       <c r="C2138">
-        <v>4522</v>
+        <v>4430</v>
       </c>
       <c r="D2138" t="s">
         <v>2140</v>
@@ -38109,7 +38685,7 @@
         <v>26</v>
       </c>
       <c r="C2139">
-        <v>4542</v>
+        <v>4440</v>
       </c>
       <c r="D2139" t="s">
         <v>2141</v>
@@ -38123,7 +38699,7 @@
         <v>27</v>
       </c>
       <c r="C2140">
-        <v>4562</v>
+        <v>4460</v>
       </c>
       <c r="D2140" t="s">
         <v>2142</v>
@@ -38137,7 +38713,7 @@
         <v>28</v>
       </c>
       <c r="C2141">
-        <v>4592</v>
+        <v>4480</v>
       </c>
       <c r="D2141" t="s">
         <v>2143</v>
@@ -38151,7 +38727,7 @@
         <v>29</v>
       </c>
       <c r="C2142">
-        <v>4670</v>
+        <v>4553</v>
       </c>
       <c r="D2142" t="s">
         <v>2144</v>
@@ -38165,7 +38741,7 @@
         <v>30</v>
       </c>
       <c r="C2143">
-        <v>4690</v>
+        <v>4573</v>
       </c>
       <c r="D2143" t="s">
         <v>2145</v>
@@ -38179,7 +38755,7 @@
         <v>31</v>
       </c>
       <c r="C2144">
-        <v>4720</v>
+        <v>4603</v>
       </c>
       <c r="D2144" t="s">
         <v>2146</v>
@@ -38193,7 +38769,7 @@
         <v>32</v>
       </c>
       <c r="C2145">
-        <v>4730</v>
+        <v>4633</v>
       </c>
       <c r="D2145" t="s">
         <v>2147</v>
@@ -38207,7 +38783,7 @@
         <v>33</v>
       </c>
       <c r="C2146">
-        <v>5042</v>
+        <v>4663</v>
       </c>
       <c r="D2146" t="s">
         <v>2148</v>
@@ -38221,7 +38797,7 @@
         <v>34</v>
       </c>
       <c r="C2147">
-        <v>5022</v>
+        <v>4673</v>
       </c>
       <c r="D2147" t="s">
         <v>2149</v>
@@ -38235,7 +38811,7 @@
         <v>35</v>
       </c>
       <c r="C2148">
-        <v>5002</v>
+        <v>4673</v>
       </c>
       <c r="D2148" t="s">
         <v>2150</v>
@@ -38249,7 +38825,7 @@
         <v>36</v>
       </c>
       <c r="C2149">
-        <v>4962</v>
+        <v>4673</v>
       </c>
       <c r="D2149" t="s">
         <v>2151</v>
@@ -38263,7 +38839,7 @@
         <v>37</v>
       </c>
       <c r="C2150">
-        <v>5155</v>
+        <v>4558</v>
       </c>
       <c r="D2150" t="s">
         <v>2152</v>
@@ -38277,7 +38853,7 @@
         <v>38</v>
       </c>
       <c r="C2151">
-        <v>5085</v>
+        <v>4538</v>
       </c>
       <c r="D2151" t="s">
         <v>2153</v>
@@ -38291,7 +38867,7 @@
         <v>39</v>
       </c>
       <c r="C2152">
-        <v>5025</v>
+        <v>4508</v>
       </c>
       <c r="D2152" t="s">
         <v>2154</v>
@@ -38305,7 +38881,7 @@
         <v>40</v>
       </c>
       <c r="C2153">
-        <v>4955</v>
+        <v>4468</v>
       </c>
       <c r="D2153" t="s">
         <v>2155</v>
@@ -38319,7 +38895,7 @@
         <v>41</v>
       </c>
       <c r="C2154">
-        <v>4956</v>
+        <v>4397</v>
       </c>
       <c r="D2154" t="s">
         <v>2156</v>
@@ -38333,7 +38909,7 @@
         <v>42</v>
       </c>
       <c r="C2155">
-        <v>4896</v>
+        <v>4357</v>
       </c>
       <c r="D2155" t="s">
         <v>2157</v>
@@ -38347,7 +38923,7 @@
         <v>43</v>
       </c>
       <c r="C2156">
-        <v>4846</v>
+        <v>4317</v>
       </c>
       <c r="D2156" t="s">
         <v>2158</v>
@@ -38361,7 +38937,7 @@
         <v>44</v>
       </c>
       <c r="C2157">
-        <v>4806</v>
+        <v>4287</v>
       </c>
       <c r="D2157" t="s">
         <v>2159</v>
@@ -38375,7 +38951,7 @@
         <v>45</v>
       </c>
       <c r="C2158">
-        <v>4841</v>
+        <v>4344</v>
       </c>
       <c r="D2158" t="s">
         <v>2160</v>
@@ -38389,7 +38965,7 @@
         <v>46</v>
       </c>
       <c r="C2159">
-        <v>4831</v>
+        <v>4324</v>
       </c>
       <c r="D2159" t="s">
         <v>2161</v>
@@ -38403,7 +38979,7 @@
         <v>47</v>
       </c>
       <c r="C2160">
-        <v>4831</v>
+        <v>4314</v>
       </c>
       <c r="D2160" t="s">
         <v>2162</v>
@@ -38417,7 +38993,7 @@
         <v>48</v>
       </c>
       <c r="C2161">
-        <v>4831</v>
+        <v>4304</v>
       </c>
       <c r="D2161" t="s">
         <v>2163</v>
@@ -38431,7 +39007,7 @@
         <v>49</v>
       </c>
       <c r="C2162">
-        <v>4822</v>
+        <v>4344</v>
       </c>
       <c r="D2162" t="s">
         <v>2164</v>
@@ -38445,7 +39021,7 @@
         <v>50</v>
       </c>
       <c r="C2163">
-        <v>4832</v>
+        <v>4334</v>
       </c>
       <c r="D2163" t="s">
         <v>2165</v>
@@ -38459,7 +39035,7 @@
         <v>51</v>
       </c>
       <c r="C2164">
-        <v>4842</v>
+        <v>4324</v>
       </c>
       <c r="D2164" t="s">
         <v>2166</v>
@@ -38473,7 +39049,7 @@
         <v>52</v>
       </c>
       <c r="C2165">
-        <v>4852</v>
+        <v>4314</v>
       </c>
       <c r="D2165" t="s">
         <v>2167</v>
@@ -38487,7 +39063,7 @@
         <v>53</v>
       </c>
       <c r="C2166">
-        <v>4787</v>
+        <v>4266</v>
       </c>
       <c r="D2166" t="s">
         <v>2168</v>
@@ -38501,7 +39077,7 @@
         <v>54</v>
       </c>
       <c r="C2167">
-        <v>4807</v>
+        <v>4256</v>
       </c>
       <c r="D2167" t="s">
         <v>2169</v>
@@ -38515,7 +39091,7 @@
         <v>55</v>
       </c>
       <c r="C2168">
-        <v>4837</v>
+        <v>4266</v>
       </c>
       <c r="D2168" t="s">
         <v>2170</v>
@@ -38529,7 +39105,7 @@
         <v>56</v>
       </c>
       <c r="C2169">
-        <v>4877</v>
+        <v>4276</v>
       </c>
       <c r="D2169" t="s">
         <v>2171</v>
@@ -38543,7 +39119,7 @@
         <v>57</v>
       </c>
       <c r="C2170">
-        <v>4956</v>
+        <v>4357</v>
       </c>
       <c r="D2170" t="s">
         <v>2172</v>
@@ -38557,7 +39133,7 @@
         <v>58</v>
       </c>
       <c r="C2171">
-        <v>5006</v>
+        <v>4377</v>
       </c>
       <c r="D2171" t="s">
         <v>2173</v>
@@ -38571,7 +39147,7 @@
         <v>59</v>
       </c>
       <c r="C2172">
-        <v>5056</v>
+        <v>4407</v>
       </c>
       <c r="D2172" t="s">
         <v>2174</v>
@@ -38585,7 +39161,7 @@
         <v>60</v>
       </c>
       <c r="C2173">
-        <v>5106</v>
+        <v>4437</v>
       </c>
       <c r="D2173" t="s">
         <v>2175</v>
@@ -38599,7 +39175,7 @@
         <v>61</v>
       </c>
       <c r="C2174">
-        <v>5150</v>
+        <v>4595</v>
       </c>
       <c r="D2174" t="s">
         <v>2176</v>
@@ -38613,7 +39189,7 @@
         <v>62</v>
       </c>
       <c r="C2175">
-        <v>5200</v>
+        <v>4635</v>
       </c>
       <c r="D2175" t="s">
         <v>2177</v>
@@ -38627,7 +39203,7 @@
         <v>63</v>
       </c>
       <c r="C2176">
-        <v>5240</v>
+        <v>4665</v>
       </c>
       <c r="D2176" t="s">
         <v>2178</v>
@@ -38641,7 +39217,7 @@
         <v>64</v>
       </c>
       <c r="C2177">
-        <v>5290</v>
+        <v>4705</v>
       </c>
       <c r="D2177" t="s">
         <v>2179</v>
@@ -38655,7 +39231,7 @@
         <v>65</v>
       </c>
       <c r="C2178">
-        <v>5260</v>
+        <v>4829</v>
       </c>
       <c r="D2178" t="s">
         <v>2180</v>
@@ -38669,7 +39245,7 @@
         <v>66</v>
       </c>
       <c r="C2179">
-        <v>5330</v>
+        <v>4889</v>
       </c>
       <c r="D2179" t="s">
         <v>2181</v>
@@ -38683,7 +39259,7 @@
         <v>67</v>
       </c>
       <c r="C2180">
-        <v>5410</v>
+        <v>4959</v>
       </c>
       <c r="D2180" t="s">
         <v>2182</v>
@@ -38697,7 +39273,7 @@
         <v>68</v>
       </c>
       <c r="C2181">
-        <v>5500</v>
+        <v>5039</v>
       </c>
       <c r="D2181" t="s">
         <v>2183</v>
@@ -38711,7 +39287,7 @@
         <v>69</v>
       </c>
       <c r="C2182">
-        <v>5591</v>
+        <v>5067</v>
       </c>
       <c r="D2182" t="s">
         <v>2184</v>
@@ -38725,7 +39301,7 @@
         <v>70</v>
       </c>
       <c r="C2183">
-        <v>5691</v>
+        <v>5147</v>
       </c>
       <c r="D2183" t="s">
         <v>2185</v>
@@ -38739,7 +39315,7 @@
         <v>71</v>
       </c>
       <c r="C2184">
-        <v>5781</v>
+        <v>5237</v>
       </c>
       <c r="D2184" t="s">
         <v>2186</v>
@@ -38753,7 +39329,7 @@
         <v>72</v>
       </c>
       <c r="C2185">
-        <v>5871</v>
+        <v>5307</v>
       </c>
       <c r="D2185" t="s">
         <v>2187</v>
@@ -38767,7 +39343,7 @@
         <v>73</v>
       </c>
       <c r="C2186">
-        <v>5632</v>
+        <v>5411</v>
       </c>
       <c r="D2186" t="s">
         <v>2188</v>
@@ -38781,7 +39357,7 @@
         <v>74</v>
       </c>
       <c r="C2187">
-        <v>5722</v>
+        <v>5481</v>
       </c>
       <c r="D2187" t="s">
         <v>2189</v>
@@ -38795,7 +39371,7 @@
         <v>75</v>
       </c>
       <c r="C2188">
-        <v>5832</v>
+        <v>5571</v>
       </c>
       <c r="D2188" t="s">
         <v>2190</v>
@@ -38809,7 +39385,7 @@
         <v>76</v>
       </c>
       <c r="C2189">
-        <v>5952</v>
+        <v>5661</v>
       </c>
       <c r="D2189" t="s">
         <v>2191</v>
@@ -38823,7 +39399,7 @@
         <v>77</v>
       </c>
       <c r="C2190">
-        <v>5870</v>
+        <v>5504</v>
       </c>
       <c r="D2190" t="s">
         <v>2192</v>
@@ -38837,7 +39413,7 @@
         <v>78</v>
       </c>
       <c r="C2191">
-        <v>5990</v>
+        <v>5604</v>
       </c>
       <c r="D2191" t="s">
         <v>2193</v>
@@ -38851,7 +39427,7 @@
         <v>79</v>
       </c>
       <c r="C2192">
-        <v>6090</v>
+        <v>5704</v>
       </c>
       <c r="D2192" t="s">
         <v>2194</v>
@@ -38865,7 +39441,7 @@
         <v>80</v>
       </c>
       <c r="C2193">
-        <v>6160</v>
+        <v>5774</v>
       </c>
       <c r="D2193" t="s">
         <v>2195</v>
@@ -38879,7 +39455,7 @@
         <v>81</v>
       </c>
       <c r="C2194">
-        <v>6163</v>
+        <v>5780</v>
       </c>
       <c r="D2194" t="s">
         <v>2196</v>
@@ -38893,7 +39469,7 @@
         <v>82</v>
       </c>
       <c r="C2195">
-        <v>6213</v>
+        <v>5850</v>
       </c>
       <c r="D2195" t="s">
         <v>2197</v>
@@ -38907,7 +39483,7 @@
         <v>83</v>
       </c>
       <c r="C2196">
-        <v>6243</v>
+        <v>5860</v>
       </c>
       <c r="D2196" t="s">
         <v>2198</v>
@@ -38921,7 +39497,7 @@
         <v>84</v>
       </c>
       <c r="C2197">
-        <v>6273</v>
+        <v>5860</v>
       </c>
       <c r="D2197" t="s">
         <v>2199</v>
@@ -38935,7 +39511,7 @@
         <v>85</v>
       </c>
       <c r="C2198">
-        <v>6231</v>
+        <v>5818</v>
       </c>
       <c r="D2198" t="s">
         <v>2200</v>
@@ -38949,7 +39525,7 @@
         <v>86</v>
       </c>
       <c r="C2199">
-        <v>6231</v>
+        <v>5798</v>
       </c>
       <c r="D2199" t="s">
         <v>2201</v>
@@ -38963,7 +39539,7 @@
         <v>87</v>
       </c>
       <c r="C2200">
-        <v>6221</v>
+        <v>5788</v>
       </c>
       <c r="D2200" t="s">
         <v>2202</v>
@@ -38977,7 +39553,7 @@
         <v>88</v>
       </c>
       <c r="C2201">
-        <v>6121</v>
+        <v>5708</v>
       </c>
       <c r="D2201" t="s">
         <v>2203</v>
@@ -38991,7 +39567,7 @@
         <v>89</v>
       </c>
       <c r="C2202">
-        <v>6002</v>
+        <v>5674</v>
       </c>
       <c r="D2202" t="s">
         <v>2204</v>
@@ -39005,7 +39581,7 @@
         <v>90</v>
       </c>
       <c r="C2203">
-        <v>5902</v>
+        <v>5564</v>
       </c>
       <c r="D2203" t="s">
         <v>2205</v>
@@ -39019,7 +39595,7 @@
         <v>91</v>
       </c>
       <c r="C2204">
-        <v>5772</v>
+        <v>5414</v>
       </c>
       <c r="D2204" t="s">
         <v>2206</v>
@@ -39033,7 +39609,7 @@
         <v>92</v>
       </c>
       <c r="C2205">
-        <v>5602</v>
+        <v>5284</v>
       </c>
       <c r="D2205" t="s">
         <v>2207</v>
@@ -39047,7 +39623,7 @@
         <v>93</v>
       </c>
       <c r="C2206">
-        <v>5596</v>
+        <v>5157</v>
       </c>
       <c r="D2206" t="s">
         <v>2208</v>
@@ -39061,7 +39637,7 @@
         <v>94</v>
       </c>
       <c r="C2207">
-        <v>5436</v>
+        <v>5007</v>
       </c>
       <c r="D2207" t="s">
         <v>2209</v>
@@ -39075,7 +39651,7 @@
         <v>95</v>
       </c>
       <c r="C2208">
-        <v>5346</v>
+        <v>4917</v>
       </c>
       <c r="D2208" t="s">
         <v>2210</v>
@@ -39089,7 +39665,7 @@
         <v>96</v>
       </c>
       <c r="C2209">
-        <v>5236</v>
+        <v>4807</v>
       </c>
       <c r="D2209" t="s">
         <v>2211</v>
@@ -39103,7 +39679,7 @@
         <v>1</v>
       </c>
       <c r="C2210">
-        <v>4903</v>
+        <v>4621</v>
       </c>
       <c r="D2210" t="s">
         <v>2212</v>
@@ -39117,7 +39693,7 @@
         <v>2</v>
       </c>
       <c r="C2211">
-        <v>4873</v>
+        <v>4561</v>
       </c>
       <c r="D2211" t="s">
         <v>2213</v>
@@ -39131,7 +39707,7 @@
         <v>3</v>
       </c>
       <c r="C2212">
-        <v>4813</v>
+        <v>4521</v>
       </c>
       <c r="D2212" t="s">
         <v>2214</v>
@@ -39145,7 +39721,7 @@
         <v>4</v>
       </c>
       <c r="C2213">
-        <v>4723</v>
+        <v>4451</v>
       </c>
       <c r="D2213" t="s">
         <v>2215</v>
@@ -39159,7 +39735,7 @@
         <v>5</v>
       </c>
       <c r="C2214">
-        <v>4594</v>
+        <v>4333</v>
       </c>
       <c r="D2214" t="s">
         <v>2216</v>
@@ -39173,7 +39749,7 @@
         <v>6</v>
       </c>
       <c r="C2215">
-        <v>4514</v>
+        <v>4283</v>
       </c>
       <c r="D2215" t="s">
         <v>2217</v>
@@ -39187,7 +39763,7 @@
         <v>7</v>
       </c>
       <c r="C2216">
-        <v>4454</v>
+        <v>4243</v>
       </c>
       <c r="D2216" t="s">
         <v>2218</v>
@@ -39201,7 +39777,7 @@
         <v>8</v>
       </c>
       <c r="C2217">
-        <v>4394</v>
+        <v>4203</v>
       </c>
       <c r="D2217" t="s">
         <v>2219</v>
@@ -39215,7 +39791,7 @@
         <v>9</v>
       </c>
       <c r="C2218">
-        <v>4356</v>
+        <v>4201</v>
       </c>
       <c r="D2218" t="s">
         <v>2220</v>
@@ -39229,7 +39805,7 @@
         <v>10</v>
       </c>
       <c r="C2219">
-        <v>4316</v>
+        <v>4171</v>
       </c>
       <c r="D2219" t="s">
         <v>2221</v>
@@ -39243,7 +39819,7 @@
         <v>11</v>
       </c>
       <c r="C2220">
-        <v>4286</v>
+        <v>4141</v>
       </c>
       <c r="D2220" t="s">
         <v>2222</v>
@@ -39257,7 +39833,7 @@
         <v>12</v>
       </c>
       <c r="C2221">
-        <v>4256</v>
+        <v>4121</v>
       </c>
       <c r="D2221" t="s">
         <v>2223</v>
@@ -39271,7 +39847,7 @@
         <v>13</v>
       </c>
       <c r="C2222">
-        <v>4252</v>
+        <v>4108</v>
       </c>
       <c r="D2222" t="s">
         <v>2224</v>
@@ -39285,7 +39861,7 @@
         <v>14</v>
       </c>
       <c r="C2223">
-        <v>4232</v>
+        <v>4088</v>
       </c>
       <c r="D2223" t="s">
         <v>2225</v>
@@ -39299,7 +39875,7 @@
         <v>15</v>
       </c>
       <c r="C2224">
-        <v>4202</v>
+        <v>4078</v>
       </c>
       <c r="D2224" t="s">
         <v>2226</v>
@@ -39313,7 +39889,7 @@
         <v>16</v>
       </c>
       <c r="C2225">
-        <v>4172</v>
+        <v>4068</v>
       </c>
       <c r="D2225" t="s">
         <v>2227</v>
@@ -39327,7 +39903,7 @@
         <v>17</v>
       </c>
       <c r="C2226">
-        <v>4168</v>
+        <v>4082</v>
       </c>
       <c r="D2226" t="s">
         <v>2228</v>
@@ -39341,7 +39917,7 @@
         <v>18</v>
       </c>
       <c r="C2227">
-        <v>4148</v>
+        <v>4072</v>
       </c>
       <c r="D2227" t="s">
         <v>2229</v>
@@ -39355,7 +39931,7 @@
         <v>19</v>
       </c>
       <c r="C2228">
-        <v>4138</v>
+        <v>4072</v>
       </c>
       <c r="D2228" t="s">
         <v>2230</v>
@@ -39369,7 +39945,7 @@
         <v>20</v>
       </c>
       <c r="C2229">
-        <v>4138</v>
+        <v>4072</v>
       </c>
       <c r="D2229" t="s">
         <v>2231</v>
@@ -39383,7 +39959,7 @@
         <v>21</v>
       </c>
       <c r="C2230">
-        <v>4134</v>
+        <v>4061</v>
       </c>
       <c r="D2230" t="s">
         <v>2232</v>
@@ -39397,7 +39973,7 @@
         <v>22</v>
       </c>
       <c r="C2231">
-        <v>4134</v>
+        <v>4051</v>
       </c>
       <c r="D2231" t="s">
         <v>2233</v>
@@ -39411,7 +39987,7 @@
         <v>23</v>
       </c>
       <c r="C2232">
-        <v>4144</v>
+        <v>4041</v>
       </c>
       <c r="D2232" t="s">
         <v>2234</v>
@@ -39425,7 +40001,7 @@
         <v>24</v>
       </c>
       <c r="C2233">
-        <v>4154</v>
+        <v>4021</v>
       </c>
       <c r="D2233" t="s">
         <v>2235</v>
@@ -39439,7 +40015,7 @@
         <v>25</v>
       </c>
       <c r="C2234">
-        <v>4122</v>
+        <v>4010</v>
       </c>
       <c r="D2234" t="s">
         <v>2236</v>
@@ -39453,7 +40029,7 @@
         <v>26</v>
       </c>
       <c r="C2235">
-        <v>4122</v>
+        <v>4000</v>
       </c>
       <c r="D2235" t="s">
         <v>2237</v>
@@ -39467,7 +40043,7 @@
         <v>27</v>
       </c>
       <c r="C2236">
-        <v>4122</v>
+        <v>3990</v>
       </c>
       <c r="D2236" t="s">
         <v>2238</v>
@@ -39481,7 +40057,7 @@
         <v>28</v>
       </c>
       <c r="C2237">
-        <v>4112</v>
+        <v>3970</v>
       </c>
       <c r="D2237" t="s">
         <v>2239</v>
@@ -39495,7 +40071,7 @@
         <v>29</v>
       </c>
       <c r="C2238">
-        <v>4150</v>
+        <v>4023</v>
       </c>
       <c r="D2238" t="s">
         <v>2240</v>
@@ -39509,7 +40085,7 @@
         <v>30</v>
       </c>
       <c r="C2239">
-        <v>4150</v>
+        <v>4013</v>
       </c>
       <c r="D2239" t="s">
         <v>2241</v>
@@ -39523,7 +40099,7 @@
         <v>31</v>
       </c>
       <c r="C2240">
-        <v>4140</v>
+        <v>4013</v>
       </c>
       <c r="D2240" t="s">
         <v>2242</v>
@@ -39537,7 +40113,7 @@
         <v>32</v>
       </c>
       <c r="C2241">
-        <v>4120</v>
+        <v>4013</v>
       </c>
       <c r="D2241" t="s">
         <v>2243</v>
@@ -39551,7 +40127,7 @@
         <v>33</v>
       </c>
       <c r="C2242">
-        <v>4402</v>
+        <v>4023</v>
       </c>
       <c r="D2242" t="s">
         <v>2244</v>
@@ -39565,7 +40141,7 @@
         <v>34</v>
       </c>
       <c r="C2243">
-        <v>4392</v>
+        <v>4023</v>
       </c>
       <c r="D2243" t="s">
         <v>2245</v>
@@ -39579,7 +40155,7 @@
         <v>35</v>
       </c>
       <c r="C2244">
-        <v>4372</v>
+        <v>4003</v>
       </c>
       <c r="D2244" t="s">
         <v>2246</v>
@@ -39593,7 +40169,7 @@
         <v>36</v>
       </c>
       <c r="C2245">
-        <v>4342</v>
+        <v>3973</v>
       </c>
       <c r="D2245" t="s">
         <v>2247</v>
@@ -39607,7 +40183,7 @@
         <v>37</v>
       </c>
       <c r="C2246">
-        <v>4545</v>
+        <v>3828</v>
       </c>
       <c r="D2246" t="s">
         <v>2248</v>
@@ -39621,7 +40197,7 @@
         <v>38</v>
       </c>
       <c r="C2247">
-        <v>4505</v>
+        <v>3768</v>
       </c>
       <c r="D2247" t="s">
         <v>2249</v>
@@ -39635,7 +40211,7 @@
         <v>39</v>
       </c>
       <c r="C2248">
-        <v>4455</v>
+        <v>3708</v>
       </c>
       <c r="D2248" t="s">
         <v>2250</v>
@@ -39649,7 +40225,7 @@
         <v>40</v>
       </c>
       <c r="C2249">
-        <v>4415</v>
+        <v>3648</v>
       </c>
       <c r="D2249" t="s">
         <v>2251</v>
@@ -39663,7 +40239,7 @@
         <v>41</v>
       </c>
       <c r="C2250">
-        <v>4436</v>
+        <v>3557</v>
       </c>
       <c r="D2250" t="s">
         <v>2252</v>
@@ -39677,7 +40253,7 @@
         <v>42</v>
       </c>
       <c r="C2251">
-        <v>4396</v>
+        <v>3497</v>
       </c>
       <c r="D2251" t="s">
         <v>2253</v>
@@ -39691,7 +40267,7 @@
         <v>43</v>
       </c>
       <c r="C2252">
-        <v>4366</v>
+        <v>3447</v>
       </c>
       <c r="D2252" t="s">
         <v>2254</v>
@@ -39705,7 +40281,7 @@
         <v>44</v>
       </c>
       <c r="C2253">
-        <v>4346</v>
+        <v>3397</v>
       </c>
       <c r="D2253" t="s">
         <v>2255</v>
@@ -39719,7 +40295,7 @@
         <v>45</v>
       </c>
       <c r="C2254">
-        <v>4411</v>
+        <v>3434</v>
       </c>
       <c r="D2254" t="s">
         <v>2256</v>
@@ -39733,7 +40309,7 @@
         <v>46</v>
       </c>
       <c r="C2255">
-        <v>4411</v>
+        <v>3394</v>
       </c>
       <c r="D2255" t="s">
         <v>2257</v>
@@ -39747,7 +40323,7 @@
         <v>47</v>
       </c>
       <c r="C2256">
-        <v>4421</v>
+        <v>3364</v>
       </c>
       <c r="D2256" t="s">
         <v>2258</v>
@@ -39761,7 +40337,7 @@
         <v>48</v>
       </c>
       <c r="C2257">
-        <v>4431</v>
+        <v>3334</v>
       </c>
       <c r="D2257" t="s">
         <v>2259</v>
@@ -39775,7 +40351,7 @@
         <v>49</v>
       </c>
       <c r="C2258">
-        <v>4432</v>
+        <v>3364</v>
       </c>
       <c r="D2258" t="s">
         <v>2260</v>
@@ -39789,7 +40365,7 @@
         <v>50</v>
       </c>
       <c r="C2259">
-        <v>4452</v>
+        <v>3344</v>
       </c>
       <c r="D2259" t="s">
         <v>2261</v>
@@ -39803,7 +40379,7 @@
         <v>51</v>
       </c>
       <c r="C2260">
-        <v>4462</v>
+        <v>3324</v>
       </c>
       <c r="D2260" t="s">
         <v>2262</v>
@@ -39817,7 +40393,7 @@
         <v>52</v>
       </c>
       <c r="C2261">
-        <v>4462</v>
+        <v>3304</v>
       </c>
       <c r="D2261" t="s">
         <v>2263</v>
@@ -39831,7 +40407,7 @@
         <v>53</v>
       </c>
       <c r="C2262">
-        <v>4397</v>
+        <v>3256</v>
       </c>
       <c r="D2262" t="s">
         <v>2264</v>
@@ -39845,7 +40421,7 @@
         <v>54</v>
       </c>
       <c r="C2263">
-        <v>4407</v>
+        <v>3256</v>
       </c>
       <c r="D2263" t="s">
         <v>2265</v>
@@ -39859,7 +40435,7 @@
         <v>55</v>
       </c>
       <c r="C2264">
-        <v>4417</v>
+        <v>3266</v>
       </c>
       <c r="D2264" t="s">
         <v>2266</v>
@@ -39873,7 +40449,7 @@
         <v>56</v>
       </c>
       <c r="C2265">
-        <v>4447</v>
+        <v>3286</v>
       </c>
       <c r="D2265" t="s">
         <v>2267</v>
@@ -39887,7 +40463,7 @@
         <v>57</v>
       </c>
       <c r="C2266">
-        <v>4516</v>
+        <v>3387</v>
       </c>
       <c r="D2266" t="s">
         <v>2268</v>
@@ -39901,7 +40477,7 @@
         <v>58</v>
       </c>
       <c r="C2267">
-        <v>4546</v>
+        <v>3427</v>
       </c>
       <c r="D2267" t="s">
         <v>2269</v>
@@ -39915,7 +40491,7 @@
         <v>59</v>
       </c>
       <c r="C2268">
-        <v>4596</v>
+        <v>3477</v>
       </c>
       <c r="D2268" t="s">
         <v>2270</v>
@@ -39929,7 +40505,7 @@
         <v>60</v>
       </c>
       <c r="C2269">
-        <v>4646</v>
+        <v>3527</v>
       </c>
       <c r="D2269" t="s">
         <v>2271</v>
@@ -39943,7 +40519,7 @@
         <v>61</v>
       </c>
       <c r="C2270">
-        <v>4680</v>
+        <v>3715</v>
       </c>
       <c r="D2270" t="s">
         <v>2272</v>
@@ -39957,7 +40533,7 @@
         <v>62</v>
       </c>
       <c r="C2271">
-        <v>4730</v>
+        <v>3775</v>
       </c>
       <c r="D2271" t="s">
         <v>2273</v>
@@ -39971,7 +40547,7 @@
         <v>63</v>
       </c>
       <c r="C2272">
-        <v>4790</v>
+        <v>3845</v>
       </c>
       <c r="D2272" t="s">
         <v>2274</v>
@@ -39985,7 +40561,7 @@
         <v>64</v>
       </c>
       <c r="C2273">
-        <v>4850</v>
+        <v>3925</v>
       </c>
       <c r="D2273" t="s">
         <v>2275</v>
@@ -39999,7 +40575,7 @@
         <v>65</v>
       </c>
       <c r="C2274">
-        <v>4830</v>
+        <v>4079</v>
       </c>
       <c r="D2274" t="s">
         <v>2276</v>
@@ -40013,7 +40589,7 @@
         <v>66</v>
       </c>
       <c r="C2275">
-        <v>4910</v>
+        <v>4179</v>
       </c>
       <c r="D2275" t="s">
         <v>2277</v>
@@ -40027,7 +40603,7 @@
         <v>67</v>
       </c>
       <c r="C2276">
-        <v>5010</v>
+        <v>4279</v>
       </c>
       <c r="D2276" t="s">
         <v>2278</v>
@@ -40041,7 +40617,7 @@
         <v>68</v>
       </c>
       <c r="C2277">
-        <v>5130</v>
+        <v>4389</v>
       </c>
       <c r="D2277" t="s">
         <v>2279</v>
@@ -40055,7 +40631,7 @@
         <v>69</v>
       </c>
       <c r="C2278">
-        <v>5241</v>
+        <v>4427</v>
       </c>
       <c r="D2278" t="s">
         <v>2280</v>
@@ -40069,7 +40645,7 @@
         <v>70</v>
       </c>
       <c r="C2279">
-        <v>5361</v>
+        <v>4537</v>
       </c>
       <c r="D2279" t="s">
         <v>2281</v>
@@ -40083,7 +40659,7 @@
         <v>71</v>
       </c>
       <c r="C2280">
-        <v>5481</v>
+        <v>4637</v>
       </c>
       <c r="D2280" t="s">
         <v>2282</v>
@@ -40097,7 +40673,7 @@
         <v>72</v>
       </c>
       <c r="C2281">
-        <v>5581</v>
+        <v>4727</v>
       </c>
       <c r="D2281" t="s">
         <v>2283</v>
@@ -40111,7 +40687,7 @@
         <v>73</v>
       </c>
       <c r="C2282">
-        <v>5362</v>
+        <v>4841</v>
       </c>
       <c r="D2282" t="s">
         <v>2284</v>
@@ -40125,7 +40701,7 @@
         <v>74</v>
       </c>
       <c r="C2283">
-        <v>5462</v>
+        <v>4931</v>
       </c>
       <c r="D2283" t="s">
         <v>2285</v>
@@ -40139,7 +40715,7 @@
         <v>75</v>
       </c>
       <c r="C2284">
-        <v>5572</v>
+        <v>5031</v>
       </c>
       <c r="D2284" t="s">
         <v>2286</v>
@@ -40153,7 +40729,7 @@
         <v>76</v>
       </c>
       <c r="C2285">
-        <v>5692</v>
+        <v>5141</v>
       </c>
       <c r="D2285" t="s">
         <v>2287</v>
@@ -40167,7 +40743,7 @@
         <v>77</v>
       </c>
       <c r="C2286">
-        <v>5600</v>
+        <v>5004</v>
       </c>
       <c r="D2286" t="s">
         <v>2288</v>
@@ -40181,7 +40757,7 @@
         <v>78</v>
       </c>
       <c r="C2287">
-        <v>5730</v>
+        <v>5134</v>
       </c>
       <c r="D2287" t="s">
         <v>2289</v>
@@ -40195,7 +40771,7 @@
         <v>79</v>
       </c>
       <c r="C2288">
-        <v>5830</v>
+        <v>5264</v>
       </c>
       <c r="D2288" t="s">
         <v>2290</v>
@@ -40209,7 +40785,7 @@
         <v>80</v>
       </c>
       <c r="C2289">
-        <v>5900</v>
+        <v>5374</v>
       </c>
       <c r="D2289" t="s">
         <v>2291</v>
@@ -40223,7 +40799,7 @@
         <v>81</v>
       </c>
       <c r="C2290">
-        <v>5913</v>
+        <v>5430</v>
       </c>
       <c r="D2290" t="s">
         <v>2292</v>
@@ -40237,7 +40813,7 @@
         <v>82</v>
       </c>
       <c r="C2291">
-        <v>5963</v>
+        <v>5540</v>
       </c>
       <c r="D2291" t="s">
         <v>2293</v>
@@ -40251,7 +40827,7 @@
         <v>83</v>
       </c>
       <c r="C2292">
-        <v>5963</v>
+        <v>5560</v>
       </c>
       <c r="D2292" t="s">
         <v>2294</v>
@@ -40265,7 +40841,7 @@
         <v>84</v>
       </c>
       <c r="C2293">
-        <v>5963</v>
+        <v>5560</v>
       </c>
       <c r="D2293" t="s">
         <v>2295</v>
@@ -40279,7 +40855,7 @@
         <v>85</v>
       </c>
       <c r="C2294">
-        <v>5921</v>
+        <v>5518</v>
       </c>
       <c r="D2294" t="s">
         <v>2296</v>
@@ -40293,7 +40869,7 @@
         <v>86</v>
       </c>
       <c r="C2295">
-        <v>5901</v>
+        <v>5518</v>
       </c>
       <c r="D2295" t="s">
         <v>2297</v>
@@ -40307,7 +40883,7 @@
         <v>87</v>
       </c>
       <c r="C2296">
-        <v>5881</v>
+        <v>5488</v>
       </c>
       <c r="D2296" t="s">
         <v>2298</v>
@@ -40321,7 +40897,7 @@
         <v>88</v>
       </c>
       <c r="C2297">
-        <v>5831</v>
+        <v>5438</v>
       </c>
       <c r="D2297" t="s">
         <v>2299</v>
@@ -40335,7 +40911,7 @@
         <v>89</v>
       </c>
       <c r="C2298">
-        <v>5762</v>
+        <v>5454</v>
       </c>
       <c r="D2298" t="s">
         <v>2300</v>
@@ -40349,7 +40925,7 @@
         <v>90</v>
       </c>
       <c r="C2299">
-        <v>5692</v>
+        <v>5374</v>
       </c>
       <c r="D2299" t="s">
         <v>2301</v>
@@ -40363,7 +40939,7 @@
         <v>91</v>
       </c>
       <c r="C2300">
-        <v>5572</v>
+        <v>5214</v>
       </c>
       <c r="D2300" t="s">
         <v>2302</v>
@@ -40377,7 +40953,7 @@
         <v>92</v>
       </c>
       <c r="C2301">
-        <v>5402</v>
+        <v>5084</v>
       </c>
       <c r="D2301" t="s">
         <v>2303</v>
@@ -40391,7 +40967,7 @@
         <v>93</v>
       </c>
       <c r="C2302">
-        <v>5376</v>
+        <v>5007</v>
       </c>
       <c r="D2302" t="s">
         <v>2304</v>
@@ -40405,7 +40981,7 @@
         <v>94</v>
       </c>
       <c r="C2303">
-        <v>5226</v>
+        <v>4857</v>
       </c>
       <c r="D2303" t="s">
         <v>2305</v>
@@ -40419,7 +40995,7 @@
         <v>95</v>
       </c>
       <c r="C2304">
-        <v>5136</v>
+        <v>4767</v>
       </c>
       <c r="D2304" t="s">
         <v>2306</v>
@@ -40433,7 +41009,7 @@
         <v>96</v>
       </c>
       <c r="C2305">
-        <v>5026</v>
+        <v>4657</v>
       </c>
       <c r="D2305" t="s">
         <v>2307</v>
@@ -40447,7 +41023,7 @@
         <v>1</v>
       </c>
       <c r="C2306">
-        <v>4693</v>
+        <v>4381</v>
       </c>
       <c r="D2306" t="s">
         <v>2308</v>
@@ -40461,7 +41037,7 @@
         <v>2</v>
       </c>
       <c r="C2307">
-        <v>4903</v>
+        <v>4331</v>
       </c>
       <c r="D2307" t="s">
         <v>2309</v>
@@ -40475,7 +41051,7 @@
         <v>3</v>
       </c>
       <c r="C2308">
-        <v>4583</v>
+        <v>4281</v>
       </c>
       <c r="D2308" t="s">
         <v>2310</v>
@@ -40489,7 +41065,7 @@
         <v>4</v>
       </c>
       <c r="C2309">
-        <v>4493</v>
+        <v>4221</v>
       </c>
       <c r="D2309" t="s">
         <v>2311</v>
@@ -40503,7 +41079,7 @@
         <v>5</v>
       </c>
       <c r="C2310">
-        <v>4374</v>
+        <v>4103</v>
       </c>
       <c r="D2310" t="s">
         <v>2312</v>
@@ -40517,7 +41093,7 @@
         <v>6</v>
       </c>
       <c r="C2311">
-        <v>4304</v>
+        <v>4063</v>
       </c>
       <c r="D2311" t="s">
         <v>2313</v>
@@ -40531,7 +41107,7 @@
         <v>7</v>
       </c>
       <c r="C2312">
-        <v>4234</v>
+        <v>4033</v>
       </c>
       <c r="D2312" t="s">
         <v>2314</v>
@@ -40545,7 +41121,7 @@
         <v>8</v>
       </c>
       <c r="C2313">
-        <v>4174</v>
+        <v>3993</v>
       </c>
       <c r="D2313" t="s">
         <v>2315</v>
@@ -40559,7 +41135,7 @@
         <v>9</v>
       </c>
       <c r="C2314">
-        <v>4186</v>
+        <v>4001</v>
       </c>
       <c r="D2314" t="s">
         <v>2316</v>
@@ -40573,7 +41149,7 @@
         <v>10</v>
       </c>
       <c r="C2315">
-        <v>4136</v>
+        <v>3981</v>
       </c>
       <c r="D2315" t="s">
         <v>2317</v>
@@ -40587,7 +41163,7 @@
         <v>11</v>
       </c>
       <c r="C2316">
-        <v>4106</v>
+        <v>3961</v>
       </c>
       <c r="D2316" t="s">
         <v>2318</v>
@@ -40601,7 +41177,7 @@
         <v>12</v>
       </c>
       <c r="C2317">
-        <v>4076</v>
+        <v>3961</v>
       </c>
       <c r="D2317" t="s">
         <v>2319</v>
@@ -40615,7 +41191,7 @@
         <v>13</v>
       </c>
       <c r="C2318">
-        <v>4122</v>
+        <v>3968</v>
       </c>
       <c r="D2318" t="s">
         <v>2320</v>
@@ -40629,7 +41205,7 @@
         <v>14</v>
       </c>
       <c r="C2319">
-        <v>4122</v>
+        <v>3958</v>
       </c>
       <c r="D2319" t="s">
         <v>2321</v>
@@ -40643,7 +41219,7 @@
         <v>15</v>
       </c>
       <c r="C2320">
-        <v>4132</v>
+        <v>3958</v>
       </c>
       <c r="D2320" t="s">
         <v>2322</v>
@@ -40657,7 +41233,7 @@
         <v>16</v>
       </c>
       <c r="C2321">
-        <v>4132</v>
+        <v>3958</v>
       </c>
       <c r="D2321" t="s">
         <v>2323</v>
@@ -40671,7 +41247,7 @@
         <v>17</v>
       </c>
       <c r="C2322">
-        <v>4158</v>
+        <v>3972</v>
       </c>
       <c r="D2322" t="s">
         <v>2324</v>
@@ -40685,7 +41261,7 @@
         <v>18</v>
       </c>
       <c r="C2323">
-        <v>4158</v>
+        <v>3972</v>
       </c>
       <c r="D2323" t="s">
         <v>2325</v>
@@ -40699,7 +41275,7 @@
         <v>19</v>
       </c>
       <c r="C2324">
-        <v>4168</v>
+        <v>3982</v>
       </c>
       <c r="D2324" t="s">
         <v>2326</v>
@@ -40713,7 +41289,7 @@
         <v>20</v>
       </c>
       <c r="C2325">
-        <v>4198</v>
+        <v>4012</v>
       </c>
       <c r="D2325" t="s">
         <v>2327</v>
@@ -40727,7 +41303,7 @@
         <v>21</v>
       </c>
       <c r="C2326">
-        <v>4234</v>
+        <v>4031</v>
       </c>
       <c r="D2326" t="s">
         <v>2328</v>
@@ -40741,7 +41317,7 @@
         <v>22</v>
       </c>
       <c r="C2327">
-        <v>4294</v>
+        <v>4091</v>
       </c>
       <c r="D2327" t="s">
         <v>2329</v>
@@ -40755,7 +41331,7 @@
         <v>23</v>
       </c>
       <c r="C2328">
-        <v>4374</v>
+        <v>4161</v>
       </c>
       <c r="D2328" t="s">
         <v>2330</v>
@@ -40769,7 +41345,7 @@
         <v>24</v>
       </c>
       <c r="C2329">
-        <v>4484</v>
+        <v>4251</v>
       </c>
       <c r="D2329" t="s">
         <v>2331</v>
@@ -40783,7 +41359,7 @@
         <v>25</v>
       </c>
       <c r="C2330">
-        <v>4652</v>
+        <v>4370</v>
       </c>
       <c r="D2330" t="s">
         <v>2332</v>
@@ -40797,7 +41373,7 @@
         <v>26</v>
       </c>
       <c r="C2331">
-        <v>4792</v>
+        <v>4490</v>
       </c>
       <c r="D2331" t="s">
         <v>2333</v>
@@ -40811,7 +41387,7 @@
         <v>27</v>
       </c>
       <c r="C2332">
-        <v>4952</v>
+        <v>4630</v>
       </c>
       <c r="D2332" t="s">
         <v>2334</v>
@@ -40825,7 +41401,7 @@
         <v>28</v>
       </c>
       <c r="C2333">
-        <v>5122</v>
+        <v>4770</v>
       </c>
       <c r="D2333" t="s">
         <v>2335</v>
@@ -40839,7 +41415,7 @@
         <v>29</v>
       </c>
       <c r="C2334">
-        <v>5330</v>
+        <v>4983</v>
       </c>
       <c r="D2334" t="s">
         <v>2336</v>
@@ -40853,7 +41429,7 @@
         <v>30</v>
       </c>
       <c r="C2335">
-        <v>5480</v>
+        <v>5123</v>
       </c>
       <c r="D2335" t="s">
         <v>2337</v>
@@ -40867,7 +41443,7 @@
         <v>31</v>
       </c>
       <c r="C2336">
-        <v>5620</v>
+        <v>5233</v>
       </c>
       <c r="D2336" t="s">
         <v>2338</v>
@@ -40881,7 +41457,7 @@
         <v>32</v>
       </c>
       <c r="C2337">
-        <v>5730</v>
+        <v>5343</v>
       </c>
       <c r="D2337" t="s">
         <v>2339</v>
@@ -40895,7 +41471,7 @@
         <v>33</v>
       </c>
       <c r="C2338">
-        <v>6112</v>
+        <v>5423</v>
       </c>
       <c r="D2338" t="s">
         <v>2340</v>
@@ -40909,7 +41485,7 @@
         <v>34</v>
       </c>
       <c r="C2339">
-        <v>6172</v>
+        <v>5423</v>
       </c>
       <c r="D2339" t="s">
         <v>2341</v>
@@ -40923,7 +41499,7 @@
         <v>35</v>
       </c>
       <c r="C2340">
-        <v>6182</v>
+        <v>5403</v>
       </c>
       <c r="D2340" t="s">
         <v>2342</v>
@@ -40937,7 +41513,7 @@
         <v>36</v>
       </c>
       <c r="C2341">
-        <v>6182</v>
+        <v>5343</v>
       </c>
       <c r="D2341" t="s">
         <v>2343</v>
@@ -40951,7 +41527,7 @@
         <v>37</v>
       </c>
       <c r="C2342">
-        <v>6395</v>
+        <v>5178</v>
       </c>
       <c r="D2342" t="s">
         <v>2344</v>
@@ -40965,7 +41541,7 @@
         <v>38</v>
       </c>
       <c r="C2343">
-        <v>6345</v>
+        <v>5078</v>
       </c>
       <c r="D2343" t="s">
         <v>2345</v>
@@ -40979,7 +41555,7 @@
         <v>39</v>
       </c>
       <c r="C2344">
-        <v>6285</v>
+        <v>4968</v>
       </c>
       <c r="D2344" t="s">
         <v>2346</v>
@@ -40993,7 +41569,7 @@
         <v>40</v>
       </c>
       <c r="C2345">
-        <v>6205</v>
+        <v>4858</v>
       </c>
       <c r="D2345" t="s">
         <v>2347</v>
@@ -41007,7 +41583,7 @@
         <v>41</v>
       </c>
       <c r="C2346">
-        <v>6196</v>
+        <v>4717</v>
       </c>
       <c r="D2346" t="s">
         <v>2348</v>
@@ -41021,7 +41597,7 @@
         <v>42</v>
       </c>
       <c r="C2347">
-        <v>6116</v>
+        <v>4617</v>
       </c>
       <c r="D2347" t="s">
         <v>2349</v>
@@ -41035,7 +41611,7 @@
         <v>43</v>
       </c>
       <c r="C2348">
-        <v>6036</v>
+        <v>4517</v>
       </c>
       <c r="D2348" t="s">
         <v>2350</v>
@@ -41049,7 +41625,7 @@
         <v>44</v>
       </c>
       <c r="C2349">
-        <v>5976</v>
+        <v>4447</v>
       </c>
       <c r="D2349" t="s">
         <v>2351</v>
@@ -41063,7 +41639,7 @@
         <v>45</v>
       </c>
       <c r="C2350">
-        <v>5991</v>
+        <v>4454</v>
       </c>
       <c r="D2350" t="s">
         <v>2352</v>
@@ -41077,7 +41653,7 @@
         <v>46</v>
       </c>
       <c r="C2351">
-        <v>5961</v>
+        <v>4404</v>
       </c>
       <c r="D2351" t="s">
         <v>2353</v>
@@ -41091,7 +41667,7 @@
         <v>47</v>
       </c>
       <c r="C2352">
-        <v>5931</v>
+        <v>4364</v>
       </c>
       <c r="D2352" t="s">
         <v>2354</v>
@@ -41105,7 +41681,7 @@
         <v>48</v>
       </c>
       <c r="C2353">
-        <v>5921</v>
+        <v>4334</v>
       </c>
       <c r="D2353" t="s">
         <v>2355</v>
@@ -41119,7 +41695,7 @@
         <v>49</v>
       </c>
       <c r="C2354">
-        <v>5902</v>
+        <v>4364</v>
       </c>
       <c r="D2354" t="s">
         <v>2356</v>
@@ -41133,7 +41709,7 @@
         <v>50</v>
       </c>
       <c r="C2355">
-        <v>5902</v>
+        <v>4344</v>
       </c>
       <c r="D2355" t="s">
         <v>2357</v>
@@ -41147,7 +41723,7 @@
         <v>51</v>
       </c>
       <c r="C2356">
-        <v>5902</v>
+        <v>4334</v>
       </c>
       <c r="D2356" t="s">
         <v>2358</v>
@@ -41161,7 +41737,7 @@
         <v>52</v>
       </c>
       <c r="C2357">
-        <v>5902</v>
+        <v>4324</v>
       </c>
       <c r="D2357" t="s">
         <v>2359</v>
@@ -41175,7 +41751,7 @@
         <v>53</v>
       </c>
       <c r="C2358">
-        <v>5837</v>
+        <v>4286</v>
       </c>
       <c r="D2358" t="s">
         <v>2360</v>
@@ -41189,7 +41765,7 @@
         <v>54</v>
       </c>
       <c r="C2359">
-        <v>5847</v>
+        <v>4296</v>
       </c>
       <c r="D2359" t="s">
         <v>2361</v>
@@ -41203,7 +41779,7 @@
         <v>55</v>
       </c>
       <c r="C2360">
-        <v>5867</v>
+        <v>4316</v>
       </c>
       <c r="D2360" t="s">
         <v>2362</v>
@@ -41217,7 +41793,7 @@
         <v>56</v>
       </c>
       <c r="C2361">
-        <v>5887</v>
+        <v>4336</v>
       </c>
       <c r="D2361" t="s">
         <v>2363</v>
@@ -41231,7 +41807,7 @@
         <v>57</v>
       </c>
       <c r="C2362">
-        <v>5956</v>
+        <v>4437</v>
       </c>
       <c r="D2362" t="s">
         <v>2364</v>
@@ -41245,7 +41821,7 @@
         <v>58</v>
       </c>
       <c r="C2363">
-        <v>5986</v>
+        <v>4477</v>
       </c>
       <c r="D2363" t="s">
         <v>2365</v>
@@ -41259,7 +41835,7 @@
         <v>59</v>
       </c>
       <c r="C2364">
-        <v>6026</v>
+        <v>4517</v>
       </c>
       <c r="D2364" t="s">
         <v>2366</v>
@@ -41273,7 +41849,7 @@
         <v>60</v>
       </c>
       <c r="C2365">
-        <v>6056</v>
+        <v>4557</v>
       </c>
       <c r="D2365" t="s">
         <v>2367</v>
@@ -41287,7 +41863,7 @@
         <v>61</v>
       </c>
       <c r="C2366">
-        <v>6080</v>
+        <v>4725</v>
       </c>
       <c r="D2366" t="s">
         <v>2368</v>
@@ -41301,7 +41877,7 @@
         <v>62</v>
       </c>
       <c r="C2367">
-        <v>6110</v>
+        <v>4765</v>
       </c>
       <c r="D2367" t="s">
         <v>2369</v>
@@ -41315,7 +41891,7 @@
         <v>63</v>
       </c>
       <c r="C2368">
-        <v>6140</v>
+        <v>4805</v>
       </c>
       <c r="D2368" t="s">
         <v>2370</v>
@@ -41329,7 +41905,7 @@
         <v>64</v>
       </c>
       <c r="C2369">
-        <v>6170</v>
+        <v>4855</v>
       </c>
       <c r="D2369" t="s">
         <v>2371</v>
@@ -41343,7 +41919,7 @@
         <v>65</v>
       </c>
       <c r="C2370">
-        <v>6120</v>
+        <v>4999</v>
       </c>
       <c r="D2370" t="s">
         <v>2372</v>
@@ -41357,7 +41933,7 @@
         <v>66</v>
       </c>
       <c r="C2371">
-        <v>6170</v>
+        <v>5079</v>
       </c>
       <c r="D2371" t="s">
         <v>2373</v>
@@ -41371,7 +41947,7 @@
         <v>67</v>
       </c>
       <c r="C2372">
-        <v>6220</v>
+        <v>5169</v>
       </c>
       <c r="D2372" t="s">
         <v>2374</v>
@@ -41385,7 +41961,7 @@
         <v>68</v>
       </c>
       <c r="C2373">
-        <v>6290</v>
+        <v>5279</v>
       </c>
       <c r="D2373" t="s">
         <v>2375</v>
@@ -41399,7 +41975,7 @@
         <v>69</v>
       </c>
       <c r="C2374">
-        <v>6341</v>
+        <v>5337</v>
       </c>
       <c r="D2374" t="s">
         <v>2376</v>
@@ -41413,7 +41989,7 @@
         <v>70</v>
       </c>
       <c r="C2375">
-        <v>6401</v>
+        <v>5447</v>
       </c>
       <c r="D2375" t="s">
         <v>2377</v>
@@ -41427,7 +42003,7 @@
         <v>71</v>
       </c>
       <c r="C2376">
-        <v>6461</v>
+        <v>5547</v>
       </c>
       <c r="D2376" t="s">
         <v>2378</v>
@@ -41441,7 +42017,7 @@
         <v>72</v>
       </c>
       <c r="C2377">
-        <v>6521</v>
+        <v>5647</v>
       </c>
       <c r="D2377" t="s">
         <v>2379</v>
@@ -41455,7 +42031,7 @@
         <v>73</v>
       </c>
       <c r="C2378">
-        <v>6262</v>
+        <v>5761</v>
       </c>
       <c r="D2378" t="s">
         <v>2380</v>
@@ -41469,7 +42045,7 @@
         <v>74</v>
       </c>
       <c r="C2379">
-        <v>6322</v>
+        <v>5861</v>
       </c>
       <c r="D2379" t="s">
         <v>2381</v>
@@ -41483,7 +42059,7 @@
         <v>75</v>
       </c>
       <c r="C2380">
-        <v>6402</v>
+        <v>5981</v>
       </c>
       <c r="D2380" t="s">
         <v>2382</v>
@@ -41497,7 +42073,7 @@
         <v>76</v>
       </c>
       <c r="C2381">
-        <v>6492</v>
+        <v>6101</v>
       </c>
       <c r="D2381" t="s">
         <v>2383</v>
@@ -41511,7 +42087,7 @@
         <v>77</v>
       </c>
       <c r="C2382">
-        <v>6360</v>
+        <v>5974</v>
       </c>
       <c r="D2382" t="s">
         <v>2384</v>
@@ -41525,7 +42101,7 @@
         <v>78</v>
       </c>
       <c r="C2383">
-        <v>6450</v>
+        <v>6104</v>
       </c>
       <c r="D2383" t="s">
         <v>2385</v>
@@ -41539,7 +42115,7 @@
         <v>79</v>
       </c>
       <c r="C2384">
-        <v>6520</v>
+        <v>6204</v>
       </c>
       <c r="D2384" t="s">
         <v>2386</v>
@@ -41553,7 +42129,7 @@
         <v>80</v>
       </c>
       <c r="C2385">
-        <v>6570</v>
+        <v>6284</v>
       </c>
       <c r="D2385" t="s">
         <v>2387</v>
@@ -41567,7 +42143,7 @@
         <v>81</v>
       </c>
       <c r="C2386">
-        <v>6563</v>
+        <v>6280</v>
       </c>
       <c r="D2386" t="s">
         <v>2388</v>
@@ -41581,7 +42157,7 @@
         <v>82</v>
       </c>
       <c r="C2387">
-        <v>6603</v>
+        <v>6340</v>
       </c>
       <c r="D2387" t="s">
         <v>2389</v>
@@ -41595,7 +42171,7 @@
         <v>83</v>
       </c>
       <c r="C2388">
-        <v>6633</v>
+        <v>6360</v>
       </c>
       <c r="D2388" t="s">
         <v>2390</v>
@@ -41609,7 +42185,7 @@
         <v>84</v>
       </c>
       <c r="C2389">
-        <v>6683</v>
+        <v>6360</v>
       </c>
       <c r="D2389" t="s">
         <v>2391</v>
@@ -41623,7 +42199,7 @@
         <v>85</v>
       </c>
       <c r="C2390">
-        <v>6671</v>
+        <v>6318</v>
       </c>
       <c r="D2390" t="s">
         <v>2392</v>
@@ -41637,7 +42213,7 @@
         <v>86</v>
       </c>
       <c r="C2391">
-        <v>6651</v>
+        <v>6298</v>
       </c>
       <c r="D2391" t="s">
         <v>2393</v>
@@ -41651,7 +42227,7 @@
         <v>87</v>
       </c>
       <c r="C2392">
-        <v>6571</v>
+        <v>6278</v>
       </c>
       <c r="D2392" t="s">
         <v>2394</v>
@@ -41665,7 +42241,7 @@
         <v>88</v>
       </c>
       <c r="C2393">
-        <v>6481</v>
+        <v>6178</v>
       </c>
       <c r="D2393" t="s">
         <v>2395</v>
@@ -41679,7 +42255,7 @@
         <v>89</v>
       </c>
       <c r="C2394">
-        <v>6412</v>
+        <v>6134</v>
       </c>
       <c r="D2394" t="s">
         <v>2396</v>
@@ -41693,7 +42269,7 @@
         <v>90</v>
       </c>
       <c r="C2395">
-        <v>6362</v>
+        <v>6024</v>
       </c>
       <c r="D2395" t="s">
         <v>2397</v>
@@ -41707,7 +42283,7 @@
         <v>91</v>
       </c>
       <c r="C2396">
-        <v>6222</v>
+        <v>5874</v>
       </c>
       <c r="D2396" t="s">
         <v>2398</v>
@@ -41721,7 +42297,7 @@
         <v>92</v>
       </c>
       <c r="C2397">
-        <v>6022</v>
+        <v>5694</v>
       </c>
       <c r="D2397" t="s">
         <v>2399</v>
@@ -41735,7 +42311,7 @@
         <v>93</v>
       </c>
       <c r="C2398">
-        <v>5956</v>
+        <v>5467</v>
       </c>
       <c r="D2398" t="s">
         <v>2400</v>
@@ -41749,7 +42325,7 @@
         <v>94</v>
       </c>
       <c r="C2399">
-        <v>5766</v>
+        <v>5277</v>
       </c>
       <c r="D2399" t="s">
         <v>2401</v>
@@ -41763,7 +42339,7 @@
         <v>95</v>
       </c>
       <c r="C2400">
-        <v>5686</v>
+        <v>5197</v>
       </c>
       <c r="D2400" t="s">
         <v>2402</v>
@@ -41777,7 +42353,7 @@
         <v>96</v>
       </c>
       <c r="C2401">
-        <v>5506</v>
+        <v>5087</v>
       </c>
       <c r="D2401" t="s">
         <v>2403</v>
@@ -41791,7 +42367,7 @@
         <v>1</v>
       </c>
       <c r="C2402">
-        <v>5193</v>
+        <v>4951</v>
       </c>
       <c r="D2402" t="s">
         <v>2404</v>
@@ -41805,7 +42381,7 @@
         <v>2</v>
       </c>
       <c r="C2403">
-        <v>5143</v>
+        <v>4911</v>
       </c>
       <c r="D2403" t="s">
         <v>2405</v>
@@ -41819,7 +42395,7 @@
         <v>3</v>
       </c>
       <c r="C2404">
-        <v>5083</v>
+        <v>4851</v>
       </c>
       <c r="D2404" t="s">
         <v>2406</v>
@@ -41833,7 +42409,7 @@
         <v>4</v>
       </c>
       <c r="C2405">
-        <v>4993</v>
+        <v>4781</v>
       </c>
       <c r="D2405" t="s">
         <v>2407</v>
@@ -41847,7 +42423,7 @@
         <v>5</v>
       </c>
       <c r="C2406">
-        <v>4864</v>
+        <v>4673</v>
       </c>
       <c r="D2406" t="s">
         <v>2408</v>
@@ -41861,7 +42437,7 @@
         <v>6</v>
       </c>
       <c r="C2407">
-        <v>4784</v>
+        <v>4633</v>
       </c>
       <c r="D2407" t="s">
         <v>2409</v>
@@ -41875,7 +42451,7 @@
         <v>7</v>
       </c>
       <c r="C2408">
-        <v>4714</v>
+        <v>4593</v>
       </c>
       <c r="D2408" t="s">
         <v>2410</v>
@@ -41889,7 +42465,7 @@
         <v>8</v>
       </c>
       <c r="C2409">
-        <v>4664</v>
+        <v>4543</v>
       </c>
       <c r="D2409" t="s">
         <v>2411</v>
@@ -41903,7 +42479,7 @@
         <v>9</v>
       </c>
       <c r="C2410">
-        <v>4636</v>
+        <v>4531</v>
       </c>
       <c r="D2410" t="s">
         <v>2412</v>
@@ -41917,7 +42493,7 @@
         <v>10</v>
       </c>
       <c r="C2411">
-        <v>4606</v>
+        <v>4501</v>
       </c>
       <c r="D2411" t="s">
         <v>2413</v>
@@ -41931,7 +42507,7 @@
         <v>11</v>
       </c>
       <c r="C2412">
-        <v>4586</v>
+        <v>4471</v>
       </c>
       <c r="D2412" t="s">
         <v>2414</v>
@@ -41945,7 +42521,7 @@
         <v>12</v>
       </c>
       <c r="C2413">
-        <v>4576</v>
+        <v>4441</v>
       </c>
       <c r="D2413" t="s">
         <v>2415</v>
@@ -41959,7 +42535,7 @@
         <v>13</v>
       </c>
       <c r="C2414">
-        <v>4602</v>
+        <v>4448</v>
       </c>
       <c r="D2414" t="s">
         <v>2416</v>
@@ -41973,7 +42549,7 @@
         <v>14</v>
       </c>
       <c r="C2415">
-        <v>4602</v>
+        <v>4448</v>
       </c>
       <c r="D2415" t="s">
         <v>2417</v>
@@ -41987,7 +42563,7 @@
         <v>15</v>
       </c>
       <c r="C2416">
-        <v>4592</v>
+        <v>4448</v>
       </c>
       <c r="D2416" t="s">
         <v>2418</v>
@@ -42001,7 +42577,7 @@
         <v>16</v>
       </c>
       <c r="C2417">
-        <v>4602</v>
+        <v>4458</v>
       </c>
       <c r="D2417" t="s">
         <v>2419</v>
@@ -42015,7 +42591,7 @@
         <v>17</v>
       </c>
       <c r="C2418">
-        <v>4628</v>
+        <v>4492</v>
       </c>
       <c r="D2418" t="s">
         <v>2420</v>
@@ -42029,7 +42605,7 @@
         <v>18</v>
       </c>
       <c r="C2419">
-        <v>4628</v>
+        <v>4502</v>
       </c>
       <c r="D2419" t="s">
         <v>2421</v>
@@ -42043,7 +42619,7 @@
         <v>19</v>
       </c>
       <c r="C2420">
-        <v>4648</v>
+        <v>4512</v>
       </c>
       <c r="D2420" t="s">
         <v>2422</v>
@@ -42057,7 +42633,7 @@
         <v>20</v>
       </c>
       <c r="C2421">
-        <v>4668</v>
+        <v>4532</v>
       </c>
       <c r="D2421" t="s">
         <v>2423</v>
@@ -42071,7 +42647,7 @@
         <v>21</v>
       </c>
       <c r="C2422">
-        <v>4694</v>
+        <v>4541</v>
       </c>
       <c r="D2422" t="s">
         <v>2424</v>
@@ -42085,7 +42661,7 @@
         <v>22</v>
       </c>
       <c r="C2423">
-        <v>4734</v>
+        <v>4591</v>
       </c>
       <c r="D2423" t="s">
         <v>2425</v>
@@ -42099,7 +42675,7 @@
         <v>23</v>
       </c>
       <c r="C2424">
-        <v>4794</v>
+        <v>4641</v>
       </c>
       <c r="D2424" t="s">
         <v>2426</v>
@@ -42113,7 +42689,7 @@
         <v>24</v>
       </c>
       <c r="C2425">
-        <v>4864</v>
+        <v>4721</v>
       </c>
       <c r="D2425" t="s">
         <v>2427</v>
@@ -42127,7 +42703,7 @@
         <v>25</v>
       </c>
       <c r="C2426">
-        <v>4902</v>
+        <v>4800</v>
       </c>
       <c r="D2426" t="s">
         <v>2428</v>
@@ -42141,7 +42717,7 @@
         <v>26</v>
       </c>
       <c r="C2427">
-        <v>4992</v>
+        <v>4890</v>
       </c>
       <c r="D2427" t="s">
         <v>2429</v>
@@ -42155,7 +42731,7 @@
         <v>27</v>
       </c>
       <c r="C2428">
-        <v>5092</v>
+        <v>5000</v>
       </c>
       <c r="D2428" t="s">
         <v>2430</v>
@@ -42169,7 +42745,7 @@
         <v>28</v>
       </c>
       <c r="C2429">
-        <v>5192</v>
+        <v>5100</v>
       </c>
       <c r="D2429" t="s">
         <v>2431</v>
@@ -42183,7 +42759,7 @@
         <v>29</v>
       </c>
       <c r="C2430">
-        <v>5340</v>
+        <v>5253</v>
       </c>
       <c r="D2430" t="s">
         <v>2432</v>
@@ -42197,7 +42773,7 @@
         <v>30</v>
       </c>
       <c r="C2431">
-        <v>5440</v>
+        <v>5343</v>
       </c>
       <c r="D2431" t="s">
         <v>2433</v>
@@ -42211,7 +42787,7 @@
         <v>31</v>
       </c>
       <c r="C2432">
-        <v>5530</v>
+        <v>5413</v>
       </c>
       <c r="D2432" t="s">
         <v>2434</v>
@@ -42225,7 +42801,7 @@
         <v>32</v>
       </c>
       <c r="C2433">
-        <v>5600</v>
+        <v>5473</v>
       </c>
       <c r="D2433" t="s">
         <v>2435</v>
@@ -42239,7 +42815,7 @@
         <v>33</v>
       </c>
       <c r="C2434">
-        <v>5942</v>
+        <v>5513</v>
       </c>
       <c r="D2434" t="s">
         <v>2436</v>
@@ -42253,7 +42829,7 @@
         <v>34</v>
       </c>
       <c r="C2435">
-        <v>5972</v>
+        <v>5523</v>
       </c>
       <c r="D2435" t="s">
         <v>2437</v>
@@ -42267,7 +42843,7 @@
         <v>35</v>
       </c>
       <c r="C2436">
-        <v>6002</v>
+        <v>5503</v>
       </c>
       <c r="D2436" t="s">
         <v>2438</v>
@@ -42281,7 +42857,7 @@
         <v>36</v>
       </c>
       <c r="C2437">
-        <v>5952</v>
+        <v>5453</v>
       </c>
       <c r="D2437" t="s">
         <v>2439</v>
@@ -42295,7 +42871,7 @@
         <v>37</v>
       </c>
       <c r="C2438">
-        <v>6145</v>
+        <v>5278</v>
       </c>
       <c r="D2438" t="s">
         <v>2440</v>
@@ -42309,7 +42885,7 @@
         <v>38</v>
       </c>
       <c r="C2439">
-        <v>6095</v>
+        <v>5188</v>
       </c>
       <c r="D2439" t="s">
         <v>2441</v>
@@ -42323,7 +42899,7 @@
         <v>39</v>
       </c>
       <c r="C2440">
-        <v>6025</v>
+        <v>5088</v>
       </c>
       <c r="D2440" t="s">
         <v>2442</v>
@@ -42337,7 +42913,7 @@
         <v>40</v>
       </c>
       <c r="C2441">
-        <v>5955</v>
+        <v>4988</v>
       </c>
       <c r="D2441" t="s">
         <v>2443</v>
@@ -42351,7 +42927,7 @@
         <v>41</v>
       </c>
       <c r="C2442">
-        <v>5956</v>
+        <v>4857</v>
       </c>
       <c r="D2442" t="s">
         <v>2444</v>
@@ -42365,7 +42941,7 @@
         <v>42</v>
       </c>
       <c r="C2443">
-        <v>5886</v>
+        <v>4767</v>
       </c>
       <c r="D2443" t="s">
         <v>2445</v>
@@ -42379,7 +42955,7 @@
         <v>43</v>
       </c>
       <c r="C2444">
-        <v>5836</v>
+        <v>4677</v>
       </c>
       <c r="D2444" t="s">
         <v>2446</v>
@@ -42393,7 +42969,7 @@
         <v>44</v>
       </c>
       <c r="C2445">
-        <v>5796</v>
+        <v>4617</v>
       </c>
       <c r="D2445" t="s">
         <v>2447</v>
@@ -42407,7 +42983,7 @@
         <v>45</v>
       </c>
       <c r="C2446">
-        <v>5841</v>
+        <v>4644</v>
       </c>
       <c r="D2446" t="s">
         <v>2448</v>
@@ -42421,7 +42997,7 @@
         <v>46</v>
       </c>
       <c r="C2447">
-        <v>5841</v>
+        <v>4604</v>
       </c>
       <c r="D2447" t="s">
         <v>2449</v>
@@ -42435,7 +43011,7 @@
         <v>47</v>
       </c>
       <c r="C2448">
-        <v>5841</v>
+        <v>4584</v>
       </c>
       <c r="D2448" t="s">
         <v>2450</v>
@@ -42449,7 +43025,7 @@
         <v>48</v>
       </c>
       <c r="C2449">
-        <v>5861</v>
+        <v>4564</v>
       </c>
       <c r="D2449" t="s">
         <v>2451</v>
@@ -42463,7 +43039,7 @@
         <v>49</v>
       </c>
       <c r="C2450">
-        <v>5872</v>
+        <v>4594</v>
       </c>
       <c r="D2450" t="s">
         <v>2452</v>
@@ -42477,7 +43053,7 @@
         <v>50</v>
       </c>
       <c r="C2451">
-        <v>5892</v>
+        <v>4584</v>
       </c>
       <c r="D2451" t="s">
         <v>2453</v>
@@ -42491,7 +43067,7 @@
         <v>51</v>
       </c>
       <c r="C2452">
-        <v>5922</v>
+        <v>4564</v>
       </c>
       <c r="D2452" t="s">
         <v>2454</v>
@@ -42505,7 +43081,7 @@
         <v>52</v>
       </c>
       <c r="C2453">
-        <v>5942</v>
+        <v>4554</v>
       </c>
       <c r="D2453" t="s">
         <v>2455</v>
@@ -42519,7 +43095,7 @@
         <v>53</v>
       </c>
       <c r="C2454">
-        <v>5887</v>
+        <v>4506</v>
       </c>
       <c r="D2454" t="s">
         <v>2456</v>
@@ -42533,7 +43109,7 @@
         <v>54</v>
       </c>
       <c r="C2455">
-        <v>5907</v>
+        <v>4506</v>
       </c>
       <c r="D2455" t="s">
         <v>2457</v>
@@ -42547,7 +43123,7 @@
         <v>55</v>
       </c>
       <c r="C2456">
-        <v>5917</v>
+        <v>4516</v>
       </c>
       <c r="D2456" t="s">
         <v>2458</v>
@@ -42561,7 +43137,7 @@
         <v>56</v>
       </c>
       <c r="C2457">
-        <v>5937</v>
+        <v>4536</v>
       </c>
       <c r="D2457" t="s">
         <v>2459</v>
@@ -42575,7 +43151,7 @@
         <v>57</v>
       </c>
       <c r="C2458">
-        <v>5996</v>
+        <v>4637</v>
       </c>
       <c r="D2458" t="s">
         <v>2460</v>
@@ -42589,7 +43165,7 @@
         <v>58</v>
       </c>
       <c r="C2459">
-        <v>6016</v>
+        <v>4677</v>
       </c>
       <c r="D2459" t="s">
         <v>2461</v>
@@ -42603,7 +43179,7 @@
         <v>59</v>
       </c>
       <c r="C2460">
-        <v>6026</v>
+        <v>4717</v>
       </c>
       <c r="D2460" t="s">
         <v>2462</v>
@@ -42617,7 +43193,7 @@
         <v>60</v>
       </c>
       <c r="C2461">
-        <v>6046</v>
+        <v>4767</v>
       </c>
       <c r="D2461" t="s">
         <v>2463</v>
@@ -42631,7 +43207,7 @@
         <v>61</v>
       </c>
       <c r="C2462">
-        <v>6050</v>
+        <v>4945</v>
       </c>
       <c r="D2462" t="s">
         <v>2464</v>
@@ -42645,7 +43221,7 @@
         <v>62</v>
       </c>
       <c r="C2463">
-        <v>6070</v>
+        <v>4995</v>
       </c>
       <c r="D2463" t="s">
         <v>2465</v>
@@ -42659,7 +43235,7 @@
         <v>63</v>
       </c>
       <c r="C2464">
-        <v>6080</v>
+        <v>5045</v>
       </c>
       <c r="D2464" t="s">
         <v>2466</v>
@@ -42673,7 +43249,7 @@
         <v>64</v>
       </c>
       <c r="C2465">
-        <v>6110</v>
+        <v>5105</v>
       </c>
       <c r="D2465" t="s">
         <v>2467</v>
@@ -42687,7 +43263,7 @@
         <v>65</v>
       </c>
       <c r="C2466">
-        <v>6060</v>
+        <v>5249</v>
       </c>
       <c r="D2466" t="s">
         <v>2468</v>
@@ -42701,7 +43277,7 @@
         <v>66</v>
       </c>
       <c r="C2467">
-        <v>6100</v>
+        <v>5329</v>
       </c>
       <c r="D2467" t="s">
         <v>2469</v>
@@ -42715,7 +43291,7 @@
         <v>67</v>
       </c>
       <c r="C2468">
-        <v>6160</v>
+        <v>5419</v>
       </c>
       <c r="D2468" t="s">
         <v>2470</v>
@@ -42729,7 +43305,7 @@
         <v>68</v>
       </c>
       <c r="C2469">
-        <v>6230</v>
+        <v>5519</v>
       </c>
       <c r="D2469" t="s">
         <v>2471</v>
@@ -42743,7 +43319,7 @@
         <v>69</v>
       </c>
       <c r="C2470">
-        <v>6291</v>
+        <v>5557</v>
       </c>
       <c r="D2470" t="s">
         <v>2472</v>
@@ -42757,7 +43333,7 @@
         <v>70</v>
       </c>
       <c r="C2471">
-        <v>6361</v>
+        <v>5657</v>
       </c>
       <c r="D2471" t="s">
         <v>2473</v>
@@ -42771,7 +43347,7 @@
         <v>71</v>
       </c>
       <c r="C2472">
-        <v>6421</v>
+        <v>5747</v>
       </c>
       <c r="D2472" t="s">
         <v>2474</v>
@@ -42785,7 +43361,7 @@
         <v>72</v>
       </c>
       <c r="C2473">
-        <v>6471</v>
+        <v>5827</v>
       </c>
       <c r="D2473" t="s">
         <v>2475</v>
@@ -42799,7 +43375,7 @@
         <v>73</v>
       </c>
       <c r="C2474">
-        <v>6202</v>
+        <v>5931</v>
       </c>
       <c r="D2474" t="s">
         <v>2476</v>
@@ -42813,7 +43389,7 @@
         <v>74</v>
       </c>
       <c r="C2475">
-        <v>6262</v>
+        <v>6021</v>
       </c>
       <c r="D2475" t="s">
         <v>2477</v>
@@ -42827,7 +43403,7 @@
         <v>75</v>
       </c>
       <c r="C2476">
-        <v>6332</v>
+        <v>6121</v>
       </c>
       <c r="D2476" t="s">
         <v>2478</v>
@@ -42841,7 +43417,7 @@
         <v>76</v>
       </c>
       <c r="C2477">
-        <v>6412</v>
+        <v>6251</v>
       </c>
       <c r="D2477" t="s">
         <v>2479</v>
@@ -42855,7 +43431,7 @@
         <v>77</v>
       </c>
       <c r="C2478">
-        <v>6300</v>
+        <v>6114</v>
       </c>
       <c r="D2478" t="s">
         <v>2480</v>
@@ -42869,7 +43445,7 @@
         <v>78</v>
       </c>
       <c r="C2479">
-        <v>6410</v>
+        <v>6254</v>
       </c>
       <c r="D2479" t="s">
         <v>2481</v>
@@ -42883,7 +43459,7 @@
         <v>79</v>
       </c>
       <c r="C2480">
-        <v>6510</v>
+        <v>6364</v>
       </c>
       <c r="D2480" t="s">
         <v>2482</v>
@@ -42897,7 +43473,7 @@
         <v>80</v>
       </c>
       <c r="C2481">
-        <v>6600</v>
+        <v>6434</v>
       </c>
       <c r="D2481" t="s">
         <v>2483</v>
@@ -42911,7 +43487,7 @@
         <v>81</v>
       </c>
       <c r="C2482">
-        <v>6633</v>
+        <v>6430</v>
       </c>
       <c r="D2482" t="s">
         <v>2484</v>
@@ -42925,7 +43501,7 @@
         <v>82</v>
       </c>
       <c r="C2483">
-        <v>6713</v>
+        <v>6490</v>
       </c>
       <c r="D2483" t="s">
         <v>2485</v>
@@ -42939,7 +43515,7 @@
         <v>83</v>
       </c>
       <c r="C2484">
-        <v>6763</v>
+        <v>6510</v>
       </c>
       <c r="D2484" t="s">
         <v>2486</v>
@@ -42953,7 +43529,7 @@
         <v>84</v>
       </c>
       <c r="C2485">
-        <v>6783</v>
+        <v>6510</v>
       </c>
       <c r="D2485" t="s">
         <v>2487</v>
@@ -42967,7 +43543,7 @@
         <v>85</v>
       </c>
       <c r="C2486">
-        <v>6741</v>
+        <v>6468</v>
       </c>
       <c r="D2486" t="s">
         <v>2488</v>
@@ -42981,7 +43557,7 @@
         <v>86</v>
       </c>
       <c r="C2487">
-        <v>6701</v>
+        <v>6468</v>
       </c>
       <c r="D2487" t="s">
         <v>2489</v>
@@ -42995,7 +43571,7 @@
         <v>87</v>
       </c>
       <c r="C2488">
-        <v>6671</v>
+        <v>6448</v>
       </c>
       <c r="D2488" t="s">
         <v>2490</v>
@@ -43009,7 +43585,7 @@
         <v>88</v>
       </c>
       <c r="C2489">
-        <v>6591</v>
+        <v>6298</v>
       </c>
       <c r="D2489" t="s">
         <v>2491</v>
@@ -43023,7 +43599,7 @@
         <v>89</v>
       </c>
       <c r="C2490">
-        <v>6512</v>
+        <v>6214</v>
       </c>
       <c r="D2490" t="s">
         <v>2492</v>
@@ -43037,7 +43613,7 @@
         <v>90</v>
       </c>
       <c r="C2491">
-        <v>6412</v>
+        <v>6074</v>
       </c>
       <c r="D2491" t="s">
         <v>2493</v>
@@ -43051,7 +43627,7 @@
         <v>91</v>
       </c>
       <c r="C2492">
-        <v>6272</v>
+        <v>5914</v>
       </c>
       <c r="D2492" t="s">
         <v>2494</v>
@@ -43065,7 +43641,7 @@
         <v>92</v>
       </c>
       <c r="C2493">
-        <v>6132</v>
+        <v>5754</v>
       </c>
       <c r="D2493" t="s">
         <v>2495</v>
@@ -43079,7 +43655,7 @@
         <v>93</v>
       </c>
       <c r="C2494">
-        <v>6206</v>
+        <v>5537</v>
       </c>
       <c r="D2494" t="s">
         <v>2496</v>
@@ -43093,7 +43669,7 @@
         <v>94</v>
       </c>
       <c r="C2495">
-        <v>6056</v>
+        <v>5347</v>
       </c>
       <c r="D2495" t="s">
         <v>2497</v>
@@ -43107,7 +43683,7 @@
         <v>95</v>
       </c>
       <c r="C2496">
-        <v>5966</v>
+        <v>5267</v>
       </c>
       <c r="D2496" t="s">
         <v>2498</v>
@@ -43121,7 +43697,7 @@
         <v>96</v>
       </c>
       <c r="C2497">
-        <v>5856</v>
+        <v>5157</v>
       </c>
       <c r="D2497" t="s">
         <v>2499</v>
@@ -43135,7 +43711,7 @@
         <v>1</v>
       </c>
       <c r="C2498">
-        <v>5013</v>
+        <v>5071</v>
       </c>
       <c r="D2498" t="s">
         <v>2500</v>
@@ -43149,7 +43725,7 @@
         <v>2</v>
       </c>
       <c r="C2499">
-        <v>4933</v>
+        <v>4991</v>
       </c>
       <c r="D2499" t="s">
         <v>2501</v>
@@ -43163,7 +43739,7 @@
         <v>3</v>
       </c>
       <c r="C2500">
-        <v>4863</v>
+        <v>4921</v>
       </c>
       <c r="D2500" t="s">
         <v>2502</v>
@@ -43177,7 +43753,7 @@
         <v>4</v>
       </c>
       <c r="C2501">
-        <v>4813</v>
+        <v>4861</v>
       </c>
       <c r="D2501" t="s">
         <v>2503</v>
@@ -43191,7 +43767,7 @@
         <v>5</v>
       </c>
       <c r="C2502">
-        <v>4714</v>
+        <v>4753</v>
       </c>
       <c r="D2502" t="s">
         <v>2504</v>
@@ -43205,7 +43781,7 @@
         <v>6</v>
       </c>
       <c r="C2503">
-        <v>4674</v>
+        <v>4713</v>
       </c>
       <c r="D2503" t="s">
         <v>2505</v>
@@ -43219,7 +43795,7 @@
         <v>7</v>
       </c>
       <c r="C2504">
-        <v>4634</v>
+        <v>4673</v>
       </c>
       <c r="D2504" t="s">
         <v>2506</v>
@@ -43233,7 +43809,7 @@
         <v>8</v>
       </c>
       <c r="C2505">
-        <v>4604</v>
+        <v>4643</v>
       </c>
       <c r="D2505" t="s">
         <v>2507</v>
@@ -43247,7 +43823,7 @@
         <v>9</v>
       </c>
       <c r="C2506">
-        <v>4586</v>
+        <v>4631</v>
       </c>
       <c r="D2506" t="s">
         <v>2508</v>
@@ -43261,7 +43837,7 @@
         <v>10</v>
       </c>
       <c r="C2507">
-        <v>4556</v>
+        <v>4601</v>
       </c>
       <c r="D2507" t="s">
         <v>2509</v>
@@ -43275,7 +43851,7 @@
         <v>11</v>
       </c>
       <c r="C2508">
-        <v>4536</v>
+        <v>4581</v>
       </c>
       <c r="D2508" t="s">
         <v>2510</v>
@@ -43289,7 +43865,7 @@
         <v>12</v>
       </c>
       <c r="C2509">
-        <v>4526</v>
+        <v>4561</v>
       </c>
       <c r="D2509" t="s">
         <v>2511</v>
@@ -43303,7 +43879,7 @@
         <v>13</v>
       </c>
       <c r="C2510">
-        <v>4532</v>
+        <v>4568</v>
       </c>
       <c r="D2510" t="s">
         <v>2512</v>
@@ -43317,7 +43893,7 @@
         <v>14</v>
       </c>
       <c r="C2511">
-        <v>4532</v>
+        <v>4558</v>
       </c>
       <c r="D2511" t="s">
         <v>2513</v>
@@ -43331,7 +43907,7 @@
         <v>15</v>
       </c>
       <c r="C2512">
-        <v>4532</v>
+        <v>4558</v>
       </c>
       <c r="D2512" t="s">
         <v>2514</v>
@@ -43345,7 +43921,7 @@
         <v>16</v>
       </c>
       <c r="C2513">
-        <v>4532</v>
+        <v>4558</v>
       </c>
       <c r="D2513" t="s">
         <v>2515</v>
@@ -43359,7 +43935,7 @@
         <v>17</v>
       </c>
       <c r="C2514">
-        <v>4558</v>
+        <v>4592</v>
       </c>
       <c r="D2514" t="s">
         <v>2516</v>
@@ -43373,7 +43949,7 @@
         <v>18</v>
       </c>
       <c r="C2515">
-        <v>4578</v>
+        <v>4612</v>
       </c>
       <c r="D2515" t="s">
         <v>2517</v>
@@ -43387,7 +43963,7 @@
         <v>19</v>
       </c>
       <c r="C2516">
-        <v>4588</v>
+        <v>4622</v>
       </c>
       <c r="D2516" t="s">
         <v>2518</v>
@@ -43401,7 +43977,7 @@
         <v>20</v>
       </c>
       <c r="C2517">
-        <v>4608</v>
+        <v>4642</v>
       </c>
       <c r="D2517" t="s">
         <v>2519</v>
@@ -43415,7 +43991,7 @@
         <v>21</v>
       </c>
       <c r="C2518">
-        <v>4624</v>
+        <v>4651</v>
       </c>
       <c r="D2518" t="s">
         <v>2520</v>
@@ -43429,7 +44005,7 @@
         <v>22</v>
       </c>
       <c r="C2519">
-        <v>4654</v>
+        <v>4681</v>
       </c>
       <c r="D2519" t="s">
         <v>2521</v>
@@ -43443,7 +44019,7 @@
         <v>23</v>
       </c>
       <c r="C2520">
-        <v>4694</v>
+        <v>4721</v>
       </c>
       <c r="D2520" t="s">
         <v>2522</v>
@@ -43457,7 +44033,7 @@
         <v>24</v>
       </c>
       <c r="C2521">
-        <v>4744</v>
+        <v>4771</v>
       </c>
       <c r="D2521" t="s">
         <v>2523</v>
@@ -43471,7 +44047,7 @@
         <v>25</v>
       </c>
       <c r="C2522">
-        <v>4772</v>
+        <v>4840</v>
       </c>
       <c r="D2522" t="s">
         <v>2524</v>
@@ -43485,7 +44061,7 @@
         <v>26</v>
       </c>
       <c r="C2523">
-        <v>4862</v>
+        <v>4930</v>
       </c>
       <c r="D2523" t="s">
         <v>2525</v>
@@ -43499,7 +44075,7 @@
         <v>27</v>
       </c>
       <c r="C2524">
-        <v>4972</v>
+        <v>5040</v>
       </c>
       <c r="D2524" t="s">
         <v>2526</v>
@@ -43513,7 +44089,7 @@
         <v>28</v>
       </c>
       <c r="C2525">
-        <v>5102</v>
+        <v>5170</v>
       </c>
       <c r="D2525" t="s">
         <v>2527</v>
@@ -43527,7 +44103,7 @@
         <v>29</v>
       </c>
       <c r="C2526">
-        <v>5290</v>
+        <v>5373</v>
       </c>
       <c r="D2526" t="s">
         <v>2528</v>
@@ -43541,7 +44117,7 @@
         <v>30</v>
       </c>
       <c r="C2527">
-        <v>5420</v>
+        <v>5513</v>
       </c>
       <c r="D2527" t="s">
         <v>2529</v>
@@ -43555,7 +44131,7 @@
         <v>31</v>
       </c>
       <c r="C2528">
-        <v>5530</v>
+        <v>5623</v>
       </c>
       <c r="D2528" t="s">
         <v>2530</v>
@@ -43569,7 +44145,7 @@
         <v>32</v>
       </c>
       <c r="C2529">
-        <v>5610</v>
+        <v>5723</v>
       </c>
       <c r="D2529" t="s">
         <v>2531</v>
@@ -43583,7 +44159,7 @@
         <v>33</v>
       </c>
       <c r="C2530">
-        <v>5952</v>
+        <v>5793</v>
       </c>
       <c r="D2530" t="s">
         <v>2532</v>
@@ -43597,7 +44173,7 @@
         <v>34</v>
       </c>
       <c r="C2531">
-        <v>5982</v>
+        <v>5833</v>
       </c>
       <c r="D2531" t="s">
         <v>2533</v>
@@ -43611,7 +44187,7 @@
         <v>35</v>
       </c>
       <c r="C2532">
-        <v>5972</v>
+        <v>5833</v>
       </c>
       <c r="D2532" t="s">
         <v>2534</v>
@@ -43625,7 +44201,7 @@
         <v>36</v>
       </c>
       <c r="C2533">
-        <v>5942</v>
+        <v>5813</v>
       </c>
       <c r="D2533" t="s">
         <v>2535</v>
@@ -43639,7 +44215,7 @@
         <v>37</v>
       </c>
       <c r="C2534">
-        <v>6115</v>
+        <v>5648</v>
       </c>
       <c r="D2534" t="s">
         <v>2536</v>
@@ -43653,7 +44229,7 @@
         <v>38</v>
       </c>
       <c r="C2535">
-        <v>6045</v>
+        <v>5598</v>
       </c>
       <c r="D2535" t="s">
         <v>2537</v>
@@ -43667,7 +44243,7 @@
         <v>39</v>
       </c>
       <c r="C2536">
-        <v>5995</v>
+        <v>5538</v>
       </c>
       <c r="D2536" t="s">
         <v>2538</v>
@@ -43681,7 +44257,7 @@
         <v>40</v>
       </c>
       <c r="C2537">
-        <v>5935</v>
+        <v>5488</v>
       </c>
       <c r="D2537" t="s">
         <v>2539</v>
@@ -43695,7 +44271,7 @@
         <v>41</v>
       </c>
       <c r="C2538">
-        <v>5956</v>
+        <v>5407</v>
       </c>
       <c r="D2538" t="s">
         <v>2540</v>
@@ -43709,7 +44285,7 @@
         <v>42</v>
       </c>
       <c r="C2539">
-        <v>5886</v>
+        <v>5337</v>
       </c>
       <c r="D2539" t="s">
         <v>2541</v>
@@ -43723,7 +44299,7 @@
         <v>43</v>
       </c>
       <c r="C2540">
-        <v>5806</v>
+        <v>5267</v>
       </c>
       <c r="D2540" t="s">
         <v>2542</v>
@@ -43737,7 +44313,7 @@
         <v>44</v>
       </c>
       <c r="C2541">
-        <v>5716</v>
+        <v>5187</v>
       </c>
       <c r="D2541" t="s">
         <v>2543</v>
@@ -43751,7 +44327,7 @@
         <v>45</v>
       </c>
       <c r="C2542">
-        <v>5681</v>
+        <v>5174</v>
       </c>
       <c r="D2542" t="s">
         <v>2544</v>
@@ -43765,7 +44341,7 @@
         <v>46</v>
       </c>
       <c r="C2543">
-        <v>5601</v>
+        <v>5094</v>
       </c>
       <c r="D2543" t="s">
         <v>2545</v>
@@ -43779,7 +44355,7 @@
         <v>47</v>
       </c>
       <c r="C2544">
-        <v>5541</v>
+        <v>5044</v>
       </c>
       <c r="D2544" t="s">
         <v>2546</v>
@@ -43793,7 +44369,7 @@
         <v>48</v>
       </c>
       <c r="C2545">
-        <v>5511</v>
+        <v>5004</v>
       </c>
       <c r="D2545" t="s">
         <v>2547</v>
@@ -43807,7 +44383,7 @@
         <v>49</v>
       </c>
       <c r="C2546">
-        <v>5492</v>
+        <v>5034</v>
       </c>
       <c r="D2546" t="s">
         <v>2548</v>
@@ -43821,7 +44397,7 @@
         <v>50</v>
       </c>
       <c r="C2547">
-        <v>5492</v>
+        <v>5024</v>
       </c>
       <c r="D2547" t="s">
         <v>2549</v>
@@ -43835,7 +44411,7 @@
         <v>51</v>
       </c>
       <c r="C2548">
-        <v>5502</v>
+        <v>5034</v>
       </c>
       <c r="D2548" t="s">
         <v>2550</v>
@@ -43849,7 +44425,7 @@
         <v>52</v>
       </c>
       <c r="C2549">
-        <v>5532</v>
+        <v>5064</v>
       </c>
       <c r="D2549" t="s">
         <v>2551</v>
@@ -43863,7 +44439,7 @@
         <v>53</v>
       </c>
       <c r="C2550">
-        <v>5487</v>
+        <v>5046</v>
       </c>
       <c r="D2550" t="s">
         <v>2552</v>
@@ -43877,7 +44453,7 @@
         <v>54</v>
       </c>
       <c r="C2551">
-        <v>5517</v>
+        <v>5086</v>
       </c>
       <c r="D2551" t="s">
         <v>2553</v>
@@ -43891,7 +44467,7 @@
         <v>55</v>
       </c>
       <c r="C2552">
-        <v>5547</v>
+        <v>5106</v>
       </c>
       <c r="D2552" t="s">
         <v>2554</v>
@@ -43905,7 +44481,7 @@
         <v>56</v>
       </c>
       <c r="C2553">
-        <v>5577</v>
+        <v>5126</v>
       </c>
       <c r="D2553" t="s">
         <v>2555</v>
@@ -43919,7 +44495,7 @@
         <v>57</v>
       </c>
       <c r="C2554">
-        <v>5646</v>
+        <v>5197</v>
       </c>
       <c r="D2554" t="s">
         <v>2556</v>
@@ -43933,7 +44509,7 @@
         <v>58</v>
       </c>
       <c r="C2555">
-        <v>5676</v>
+        <v>5207</v>
       </c>
       <c r="D2555" t="s">
         <v>2557</v>
@@ -43947,7 +44523,7 @@
         <v>59</v>
       </c>
       <c r="C2556">
-        <v>5686</v>
+        <v>5207</v>
       </c>
       <c r="D2556" t="s">
         <v>2558</v>
@@ -43961,7 +44537,7 @@
         <v>60</v>
       </c>
       <c r="C2557">
-        <v>5696</v>
+        <v>5207</v>
       </c>
       <c r="D2557" t="s">
         <v>2559</v>
@@ -43975,7 +44551,7 @@
         <v>61</v>
       </c>
       <c r="C2558">
-        <v>5700</v>
+        <v>5345</v>
       </c>
       <c r="D2558" t="s">
         <v>2560</v>
@@ -43989,7 +44565,7 @@
         <v>62</v>
       </c>
       <c r="C2559">
-        <v>5720</v>
+        <v>5365</v>
       </c>
       <c r="D2559" t="s">
         <v>2561</v>
@@ -44003,7 +44579,7 @@
         <v>63</v>
       </c>
       <c r="C2560">
-        <v>5760</v>
+        <v>5395</v>
       </c>
       <c r="D2560" t="s">
         <v>2562</v>
@@ -44017,7 +44593,7 @@
         <v>64</v>
       </c>
       <c r="C2561">
-        <v>5820</v>
+        <v>5445</v>
       </c>
       <c r="D2561" t="s">
         <v>2563</v>
@@ -44031,7 +44607,7 @@
         <v>65</v>
       </c>
       <c r="C2562">
-        <v>5810</v>
+        <v>5589</v>
       </c>
       <c r="D2562" t="s">
         <v>2564</v>
@@ -44045,7 +44621,7 @@
         <v>66</v>
       </c>
       <c r="C2563">
-        <v>5890</v>
+        <v>5659</v>
       </c>
       <c r="D2563" t="s">
         <v>2565</v>
@@ -44059,7 +44635,7 @@
         <v>67</v>
       </c>
       <c r="C2564">
-        <v>5980</v>
+        <v>5729</v>
       </c>
       <c r="D2564" t="s">
         <v>2566</v>
@@ -44073,7 +44649,7 @@
         <v>68</v>
       </c>
       <c r="C2565">
-        <v>6060</v>
+        <v>5799</v>
       </c>
       <c r="D2565" t="s">
         <v>2567</v>
@@ -44087,7 +44663,7 @@
         <v>69</v>
       </c>
       <c r="C2566">
-        <v>6151</v>
+        <v>5817</v>
       </c>
       <c r="D2566" t="s">
         <v>2568</v>
@@ -44101,7 +44677,7 @@
         <v>70</v>
       </c>
       <c r="C2567">
-        <v>6241</v>
+        <v>5897</v>
       </c>
       <c r="D2567" t="s">
         <v>2569</v>
@@ -44115,7 +44691,7 @@
         <v>71</v>
       </c>
       <c r="C2568">
-        <v>6341</v>
+        <v>5987</v>
       </c>
       <c r="D2568" t="s">
         <v>2570</v>
@@ -44129,7 +44705,7 @@
         <v>72</v>
       </c>
       <c r="C2569">
-        <v>6431</v>
+        <v>6087</v>
       </c>
       <c r="D2569" t="s">
         <v>2571</v>
@@ -44143,7 +44719,7 @@
         <v>73</v>
       </c>
       <c r="C2570">
-        <v>6212</v>
+        <v>6211</v>
       </c>
       <c r="D2570" t="s">
         <v>2572</v>
@@ -44157,7 +44733,7 @@
         <v>74</v>
       </c>
       <c r="C2571">
-        <v>6292</v>
+        <v>6301</v>
       </c>
       <c r="D2571" t="s">
         <v>2573</v>
@@ -44171,7 +44747,7 @@
         <v>75</v>
       </c>
       <c r="C2572">
-        <v>6362</v>
+        <v>6361</v>
       </c>
       <c r="D2572" t="s">
         <v>2574</v>
@@ -44185,7 +44761,7 @@
         <v>76</v>
       </c>
       <c r="C2573">
-        <v>6402</v>
+        <v>6411</v>
       </c>
       <c r="D2573" t="s">
         <v>2575</v>
@@ -44199,7 +44775,7 @@
         <v>77</v>
       </c>
       <c r="C2574">
-        <v>6220</v>
+        <v>6184</v>
       </c>
       <c r="D2574" t="s">
         <v>2576</v>
@@ -44213,7 +44789,7 @@
         <v>78</v>
       </c>
       <c r="C2575">
-        <v>6270</v>
+        <v>6234</v>
       </c>
       <c r="D2575" t="s">
         <v>2577</v>
@@ -44227,7 +44803,7 @@
         <v>79</v>
       </c>
       <c r="C2576">
-        <v>6340</v>
+        <v>6304</v>
       </c>
       <c r="D2576" t="s">
         <v>2578</v>
@@ -44241,7 +44817,7 @@
         <v>80</v>
       </c>
       <c r="C2577">
-        <v>6430</v>
+        <v>6394</v>
       </c>
       <c r="D2577" t="s">
         <v>2579</v>
@@ -44255,7 +44831,7 @@
         <v>81</v>
       </c>
       <c r="C2578">
-        <v>6483</v>
+        <v>6430</v>
       </c>
       <c r="D2578" t="s">
         <v>2580</v>
@@ -44269,7 +44845,7 @@
         <v>82</v>
       </c>
       <c r="C2579">
-        <v>6563</v>
+        <v>6500</v>
       </c>
       <c r="D2579" t="s">
         <v>2581</v>
@@ -44283,7 +44859,7 @@
         <v>83</v>
       </c>
       <c r="C2580">
-        <v>6613</v>
+        <v>6550</v>
       </c>
       <c r="D2580" t="s">
         <v>2582</v>
@@ -44297,7 +44873,7 @@
         <v>84</v>
       </c>
       <c r="C2581">
-        <v>6633</v>
+        <v>6570</v>
       </c>
       <c r="D2581" t="s">
         <v>2583</v>
@@ -44311,7 +44887,7 @@
         <v>85</v>
       </c>
       <c r="C2582">
-        <v>6581</v>
+        <v>6518</v>
       </c>
       <c r="D2582" t="s">
         <v>2584</v>
@@ -44325,7 +44901,7 @@
         <v>86</v>
       </c>
       <c r="C2583">
-        <v>6531</v>
+        <v>6468</v>
       </c>
       <c r="D2583" t="s">
         <v>2585</v>
@@ -44339,7 +44915,7 @@
         <v>87</v>
       </c>
       <c r="C2584">
-        <v>6441</v>
+        <v>6378</v>
       </c>
       <c r="D2584" t="s">
         <v>2586</v>
@@ -44353,7 +44929,7 @@
         <v>88</v>
       </c>
       <c r="C2585">
-        <v>6311</v>
+        <v>6248</v>
       </c>
       <c r="D2585" t="s">
         <v>2587</v>
@@ -44367,7 +44943,7 @@
         <v>89</v>
       </c>
       <c r="C2586">
-        <v>6192</v>
+        <v>6204</v>
       </c>
       <c r="D2586" t="s">
         <v>2588</v>
@@ -44381,7 +44957,7 @@
         <v>90</v>
       </c>
       <c r="C2587">
-        <v>6022</v>
+        <v>6034</v>
       </c>
       <c r="D2587" t="s">
         <v>2589</v>
@@ -44395,7 +44971,7 @@
         <v>91</v>
       </c>
       <c r="C2588">
-        <v>5852</v>
+        <v>5864</v>
       </c>
       <c r="D2588" t="s">
         <v>2590</v>
@@ -44409,7 +44985,7 @@
         <v>92</v>
       </c>
       <c r="C2589">
-        <v>5682</v>
+        <v>5704</v>
       </c>
       <c r="D2589" t="s">
         <v>2591</v>
@@ -44423,7 +44999,7 @@
         <v>93</v>
       </c>
       <c r="C2590">
-        <v>5756</v>
+        <v>5587</v>
       </c>
       <c r="D2590" t="s">
         <v>2592</v>
@@ -44437,7 +45013,7 @@
         <v>94</v>
       </c>
       <c r="C2591">
-        <v>5606</v>
+        <v>5437</v>
       </c>
       <c r="D2591" t="s">
         <v>2593</v>
@@ -44451,7 +45027,7 @@
         <v>95</v>
       </c>
       <c r="C2592">
-        <v>5476</v>
+        <v>5307</v>
       </c>
       <c r="D2592" t="s">
         <v>2594</v>
@@ -44465,10 +45041,2698 @@
         <v>96</v>
       </c>
       <c r="C2593">
-        <v>5366</v>
+        <v>5197</v>
       </c>
       <c r="D2593" t="s">
         <v>2595</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:4">
+      <c r="A2594" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2594">
+        <v>1</v>
+      </c>
+      <c r="C2594">
+        <v>5091</v>
+      </c>
+      <c r="D2594" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:4">
+      <c r="A2595" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2595">
+        <v>2</v>
+      </c>
+      <c r="C2595">
+        <v>5011</v>
+      </c>
+      <c r="D2595" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:4">
+      <c r="A2596" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2596">
+        <v>3</v>
+      </c>
+      <c r="C2596">
+        <v>4941</v>
+      </c>
+      <c r="D2596" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:4">
+      <c r="A2597" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2597">
+        <v>4</v>
+      </c>
+      <c r="C2597">
+        <v>4891</v>
+      </c>
+      <c r="D2597" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:4">
+      <c r="A2598" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2598">
+        <v>5</v>
+      </c>
+      <c r="C2598">
+        <v>4773</v>
+      </c>
+      <c r="D2598" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:4">
+      <c r="A2599" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2599">
+        <v>6</v>
+      </c>
+      <c r="C2599">
+        <v>4733</v>
+      </c>
+      <c r="D2599" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:4">
+      <c r="A2600" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2600">
+        <v>7</v>
+      </c>
+      <c r="C2600">
+        <v>4693</v>
+      </c>
+      <c r="D2600" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:4">
+      <c r="A2601" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2601">
+        <v>8</v>
+      </c>
+      <c r="C2601">
+        <v>4653</v>
+      </c>
+      <c r="D2601" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:4">
+      <c r="A2602" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2602">
+        <v>9</v>
+      </c>
+      <c r="C2602">
+        <v>4651</v>
+      </c>
+      <c r="D2602" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:4">
+      <c r="A2603" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2603">
+        <v>10</v>
+      </c>
+      <c r="C2603">
+        <v>4621</v>
+      </c>
+      <c r="D2603" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:4">
+      <c r="A2604" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2604">
+        <v>11</v>
+      </c>
+      <c r="C2604">
+        <v>4591</v>
+      </c>
+      <c r="D2604" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:4">
+      <c r="A2605" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2605">
+        <v>12</v>
+      </c>
+      <c r="C2605">
+        <v>4571</v>
+      </c>
+      <c r="D2605" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:4">
+      <c r="A2606" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2606">
+        <v>13</v>
+      </c>
+      <c r="C2606">
+        <v>4578</v>
+      </c>
+      <c r="D2606" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:4">
+      <c r="A2607" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2607">
+        <v>14</v>
+      </c>
+      <c r="C2607">
+        <v>4568</v>
+      </c>
+      <c r="D2607" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:4">
+      <c r="A2608" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2608">
+        <v>15</v>
+      </c>
+      <c r="C2608">
+        <v>4568</v>
+      </c>
+      <c r="D2608" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:4">
+      <c r="A2609" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2609">
+        <v>16</v>
+      </c>
+      <c r="C2609">
+        <v>4568</v>
+      </c>
+      <c r="D2609" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:4">
+      <c r="A2610" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2610">
+        <v>17</v>
+      </c>
+      <c r="C2610">
+        <v>4602</v>
+      </c>
+      <c r="D2610" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:4">
+      <c r="A2611" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2611">
+        <v>18</v>
+      </c>
+      <c r="C2611">
+        <v>4612</v>
+      </c>
+      <c r="D2611" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:4">
+      <c r="A2612" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2612">
+        <v>19</v>
+      </c>
+      <c r="C2612">
+        <v>4632</v>
+      </c>
+      <c r="D2612" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:4">
+      <c r="A2613" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2613">
+        <v>20</v>
+      </c>
+      <c r="C2613">
+        <v>4642</v>
+      </c>
+      <c r="D2613" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:4">
+      <c r="A2614" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2614">
+        <v>21</v>
+      </c>
+      <c r="C2614">
+        <v>4661</v>
+      </c>
+      <c r="D2614" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:4">
+      <c r="A2615" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2615">
+        <v>22</v>
+      </c>
+      <c r="C2615">
+        <v>4691</v>
+      </c>
+      <c r="D2615" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:4">
+      <c r="A2616" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2616">
+        <v>23</v>
+      </c>
+      <c r="C2616">
+        <v>4721</v>
+      </c>
+      <c r="D2616" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:4">
+      <c r="A2617" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2617">
+        <v>24</v>
+      </c>
+      <c r="C2617">
+        <v>4771</v>
+      </c>
+      <c r="D2617" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:4">
+      <c r="A2618" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2618">
+        <v>25</v>
+      </c>
+      <c r="C2618">
+        <v>4830</v>
+      </c>
+      <c r="D2618" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:4">
+      <c r="A2619" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2619">
+        <v>26</v>
+      </c>
+      <c r="C2619">
+        <v>4910</v>
+      </c>
+      <c r="D2619" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:4">
+      <c r="A2620" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2620">
+        <v>27</v>
+      </c>
+      <c r="C2620">
+        <v>5020</v>
+      </c>
+      <c r="D2620" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:4">
+      <c r="A2621" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2621">
+        <v>28</v>
+      </c>
+      <c r="C2621">
+        <v>5160</v>
+      </c>
+      <c r="D2621" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:4">
+      <c r="A2622" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2622">
+        <v>29</v>
+      </c>
+      <c r="C2622">
+        <v>5373</v>
+      </c>
+      <c r="D2622" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:4">
+      <c r="A2623" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2623">
+        <v>30</v>
+      </c>
+      <c r="C2623">
+        <v>5503</v>
+      </c>
+      <c r="D2623" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:4">
+      <c r="A2624" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2624">
+        <v>31</v>
+      </c>
+      <c r="C2624">
+        <v>5613</v>
+      </c>
+      <c r="D2624" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:4">
+      <c r="A2625" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2625">
+        <v>32</v>
+      </c>
+      <c r="C2625">
+        <v>5703</v>
+      </c>
+      <c r="D2625" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:4">
+      <c r="A2626" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2626">
+        <v>33</v>
+      </c>
+      <c r="C2626">
+        <v>5763</v>
+      </c>
+      <c r="D2626" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:4">
+      <c r="A2627" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2627">
+        <v>34</v>
+      </c>
+      <c r="C2627">
+        <v>5783</v>
+      </c>
+      <c r="D2627" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:4">
+      <c r="A2628" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2628">
+        <v>35</v>
+      </c>
+      <c r="C2628">
+        <v>5773</v>
+      </c>
+      <c r="D2628" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:4">
+      <c r="A2629" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2629">
+        <v>36</v>
+      </c>
+      <c r="C2629">
+        <v>5723</v>
+      </c>
+      <c r="D2629" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:4">
+      <c r="A2630" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2630">
+        <v>37</v>
+      </c>
+      <c r="C2630">
+        <v>5548</v>
+      </c>
+      <c r="D2630" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:4">
+      <c r="A2631" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2631">
+        <v>38</v>
+      </c>
+      <c r="C2631">
+        <v>5468</v>
+      </c>
+      <c r="D2631" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:4">
+      <c r="A2632" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2632">
+        <v>39</v>
+      </c>
+      <c r="C2632">
+        <v>5398</v>
+      </c>
+      <c r="D2632" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:4">
+      <c r="A2633" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2633">
+        <v>40</v>
+      </c>
+      <c r="C2633">
+        <v>5338</v>
+      </c>
+      <c r="D2633" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:4">
+      <c r="A2634" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2634">
+        <v>41</v>
+      </c>
+      <c r="C2634">
+        <v>5247</v>
+      </c>
+      <c r="D2634" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:4">
+      <c r="A2635" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2635">
+        <v>42</v>
+      </c>
+      <c r="C2635">
+        <v>5187</v>
+      </c>
+      <c r="D2635" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:4">
+      <c r="A2636" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2636">
+        <v>43</v>
+      </c>
+      <c r="C2636">
+        <v>5097</v>
+      </c>
+      <c r="D2636" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:4">
+      <c r="A2637" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2637">
+        <v>44</v>
+      </c>
+      <c r="C2637">
+        <v>5007</v>
+      </c>
+      <c r="D2637" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:4">
+      <c r="A2638" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2638">
+        <v>45</v>
+      </c>
+      <c r="C2638">
+        <v>4984</v>
+      </c>
+      <c r="D2638" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:4">
+      <c r="A2639" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2639">
+        <v>46</v>
+      </c>
+      <c r="C2639">
+        <v>4894</v>
+      </c>
+      <c r="D2639" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:4">
+      <c r="A2640" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2640">
+        <v>47</v>
+      </c>
+      <c r="C2640">
+        <v>4834</v>
+      </c>
+      <c r="D2640" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:4">
+      <c r="A2641" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2641">
+        <v>48</v>
+      </c>
+      <c r="C2641">
+        <v>4794</v>
+      </c>
+      <c r="D2641" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:4">
+      <c r="A2642" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2642">
+        <v>49</v>
+      </c>
+      <c r="C2642">
+        <v>4824</v>
+      </c>
+      <c r="D2642" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:4">
+      <c r="A2643" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2643">
+        <v>50</v>
+      </c>
+      <c r="C2643">
+        <v>4814</v>
+      </c>
+      <c r="D2643" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:4">
+      <c r="A2644" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2644">
+        <v>51</v>
+      </c>
+      <c r="C2644">
+        <v>4824</v>
+      </c>
+      <c r="D2644" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:4">
+      <c r="A2645" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2645">
+        <v>52</v>
+      </c>
+      <c r="C2645">
+        <v>4844</v>
+      </c>
+      <c r="D2645" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:4">
+      <c r="A2646" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2646">
+        <v>53</v>
+      </c>
+      <c r="C2646">
+        <v>4816</v>
+      </c>
+      <c r="D2646" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:4">
+      <c r="A2647" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2647">
+        <v>54</v>
+      </c>
+      <c r="C2647">
+        <v>4846</v>
+      </c>
+      <c r="D2647" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:4">
+      <c r="A2648" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2648">
+        <v>55</v>
+      </c>
+      <c r="C2648">
+        <v>4866</v>
+      </c>
+      <c r="D2648" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:4">
+      <c r="A2649" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2649">
+        <v>56</v>
+      </c>
+      <c r="C2649">
+        <v>4886</v>
+      </c>
+      <c r="D2649" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:4">
+      <c r="A2650" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2650">
+        <v>57</v>
+      </c>
+      <c r="C2650">
+        <v>4967</v>
+      </c>
+      <c r="D2650" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:4">
+      <c r="A2651" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2651">
+        <v>58</v>
+      </c>
+      <c r="C2651">
+        <v>4977</v>
+      </c>
+      <c r="D2651" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:4">
+      <c r="A2652" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2652">
+        <v>59</v>
+      </c>
+      <c r="C2652">
+        <v>4987</v>
+      </c>
+      <c r="D2652" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:4">
+      <c r="A2653" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2653">
+        <v>60</v>
+      </c>
+      <c r="C2653">
+        <v>4987</v>
+      </c>
+      <c r="D2653" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:4">
+      <c r="A2654" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2654">
+        <v>61</v>
+      </c>
+      <c r="C2654">
+        <v>5125</v>
+      </c>
+      <c r="D2654" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:4">
+      <c r="A2655" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2655">
+        <v>62</v>
+      </c>
+      <c r="C2655">
+        <v>5135</v>
+      </c>
+      <c r="D2655" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:4">
+      <c r="A2656" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2656">
+        <v>63</v>
+      </c>
+      <c r="C2656">
+        <v>5175</v>
+      </c>
+      <c r="D2656" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:4">
+      <c r="A2657" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2657">
+        <v>64</v>
+      </c>
+      <c r="C2657">
+        <v>5225</v>
+      </c>
+      <c r="D2657" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:4">
+      <c r="A2658" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2658">
+        <v>65</v>
+      </c>
+      <c r="C2658">
+        <v>5369</v>
+      </c>
+      <c r="D2658" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:4">
+      <c r="A2659" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2659">
+        <v>66</v>
+      </c>
+      <c r="C2659">
+        <v>5449</v>
+      </c>
+      <c r="D2659" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:4">
+      <c r="A2660" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2660">
+        <v>67</v>
+      </c>
+      <c r="C2660">
+        <v>5529</v>
+      </c>
+      <c r="D2660" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:4">
+      <c r="A2661" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2661">
+        <v>68</v>
+      </c>
+      <c r="C2661">
+        <v>5619</v>
+      </c>
+      <c r="D2661" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:4">
+      <c r="A2662" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2662">
+        <v>69</v>
+      </c>
+      <c r="C2662">
+        <v>5647</v>
+      </c>
+      <c r="D2662" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:4">
+      <c r="A2663" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2663">
+        <v>70</v>
+      </c>
+      <c r="C2663">
+        <v>5737</v>
+      </c>
+      <c r="D2663" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:4">
+      <c r="A2664" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2664">
+        <v>71</v>
+      </c>
+      <c r="C2664">
+        <v>5837</v>
+      </c>
+      <c r="D2664" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:4">
+      <c r="A2665" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2665">
+        <v>72</v>
+      </c>
+      <c r="C2665">
+        <v>5947</v>
+      </c>
+      <c r="D2665" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:4">
+      <c r="A2666" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2666">
+        <v>73</v>
+      </c>
+      <c r="C2666">
+        <v>6071</v>
+      </c>
+      <c r="D2666" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:4">
+      <c r="A2667" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2667">
+        <v>74</v>
+      </c>
+      <c r="C2667">
+        <v>6161</v>
+      </c>
+      <c r="D2667" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:4">
+      <c r="A2668" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2668">
+        <v>75</v>
+      </c>
+      <c r="C2668">
+        <v>6241</v>
+      </c>
+      <c r="D2668" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:4">
+      <c r="A2669" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2669">
+        <v>76</v>
+      </c>
+      <c r="C2669">
+        <v>6291</v>
+      </c>
+      <c r="D2669" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:4">
+      <c r="A2670" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2670">
+        <v>77</v>
+      </c>
+      <c r="C2670">
+        <v>6074</v>
+      </c>
+      <c r="D2670" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:4">
+      <c r="A2671" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2671">
+        <v>78</v>
+      </c>
+      <c r="C2671">
+        <v>6134</v>
+      </c>
+      <c r="D2671" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:4">
+      <c r="A2672" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2672">
+        <v>79</v>
+      </c>
+      <c r="C2672">
+        <v>6214</v>
+      </c>
+      <c r="D2672" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:4">
+      <c r="A2673" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2673">
+        <v>80</v>
+      </c>
+      <c r="C2673">
+        <v>6314</v>
+      </c>
+      <c r="D2673" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:4">
+      <c r="A2674" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2674">
+        <v>81</v>
+      </c>
+      <c r="C2674">
+        <v>6360</v>
+      </c>
+      <c r="D2674" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:4">
+      <c r="A2675" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2675">
+        <v>82</v>
+      </c>
+      <c r="C2675">
+        <v>6450</v>
+      </c>
+      <c r="D2675" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:4">
+      <c r="A2676" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2676">
+        <v>83</v>
+      </c>
+      <c r="C2676">
+        <v>6510</v>
+      </c>
+      <c r="D2676" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:4">
+      <c r="A2677" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2677">
+        <v>84</v>
+      </c>
+      <c r="C2677">
+        <v>6530</v>
+      </c>
+      <c r="D2677" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:4">
+      <c r="A2678" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2678">
+        <v>85</v>
+      </c>
+      <c r="C2678">
+        <v>6478</v>
+      </c>
+      <c r="D2678" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:4">
+      <c r="A2679" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2679">
+        <v>86</v>
+      </c>
+      <c r="C2679">
+        <v>6428</v>
+      </c>
+      <c r="D2679" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:4">
+      <c r="A2680" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2680">
+        <v>87</v>
+      </c>
+      <c r="C2680">
+        <v>6338</v>
+      </c>
+      <c r="D2680" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:4">
+      <c r="A2681" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2681">
+        <v>88</v>
+      </c>
+      <c r="C2681">
+        <v>6218</v>
+      </c>
+      <c r="D2681" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:4">
+      <c r="A2682" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2682">
+        <v>89</v>
+      </c>
+      <c r="C2682">
+        <v>6184</v>
+      </c>
+      <c r="D2682" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:4">
+      <c r="A2683" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2683">
+        <v>90</v>
+      </c>
+      <c r="C2683">
+        <v>6014</v>
+      </c>
+      <c r="D2683" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:4">
+      <c r="A2684" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2684">
+        <v>91</v>
+      </c>
+      <c r="C2684">
+        <v>5854</v>
+      </c>
+      <c r="D2684" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:4">
+      <c r="A2685" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2685">
+        <v>92</v>
+      </c>
+      <c r="C2685">
+        <v>5684</v>
+      </c>
+      <c r="D2685" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:4">
+      <c r="A2686" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2686">
+        <v>93</v>
+      </c>
+      <c r="C2686">
+        <v>5567</v>
+      </c>
+      <c r="D2686" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:4">
+      <c r="A2687" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2687">
+        <v>94</v>
+      </c>
+      <c r="C2687">
+        <v>5427</v>
+      </c>
+      <c r="D2687" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:4">
+      <c r="A2688" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2688">
+        <v>95</v>
+      </c>
+      <c r="C2688">
+        <v>5297</v>
+      </c>
+      <c r="D2688" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:4">
+      <c r="A2689" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B2689">
+        <v>96</v>
+      </c>
+      <c r="C2689">
+        <v>5187</v>
+      </c>
+      <c r="D2689" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:4">
+      <c r="A2690" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2690">
+        <v>1</v>
+      </c>
+      <c r="C2690">
+        <v>5031</v>
+      </c>
+      <c r="D2690" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:4">
+      <c r="A2691" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2691">
+        <v>2</v>
+      </c>
+      <c r="C2691">
+        <v>4951</v>
+      </c>
+      <c r="D2691" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:4">
+      <c r="A2692" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2692">
+        <v>3</v>
+      </c>
+      <c r="C2692">
+        <v>4891</v>
+      </c>
+      <c r="D2692" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:4">
+      <c r="A2693" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2693">
+        <v>4</v>
+      </c>
+      <c r="C2693">
+        <v>4831</v>
+      </c>
+      <c r="D2693" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:4">
+      <c r="A2694" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2694">
+        <v>5</v>
+      </c>
+      <c r="C2694">
+        <v>4723</v>
+      </c>
+      <c r="D2694" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:4">
+      <c r="A2695" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2695">
+        <v>6</v>
+      </c>
+      <c r="C2695">
+        <v>4683</v>
+      </c>
+      <c r="D2695" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:4">
+      <c r="A2696" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2696">
+        <v>7</v>
+      </c>
+      <c r="C2696">
+        <v>4643</v>
+      </c>
+      <c r="D2696" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="2697" spans="1:4">
+      <c r="A2697" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2697">
+        <v>8</v>
+      </c>
+      <c r="C2697">
+        <v>4603</v>
+      </c>
+      <c r="D2697" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:4">
+      <c r="A2698" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2698">
+        <v>9</v>
+      </c>
+      <c r="C2698">
+        <v>4591</v>
+      </c>
+      <c r="D2698" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:4">
+      <c r="A2699" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2699">
+        <v>10</v>
+      </c>
+      <c r="C2699">
+        <v>4561</v>
+      </c>
+      <c r="D2699" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:4">
+      <c r="A2700" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2700">
+        <v>11</v>
+      </c>
+      <c r="C2700">
+        <v>4541</v>
+      </c>
+      <c r="D2700" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:4">
+      <c r="A2701" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2701">
+        <v>12</v>
+      </c>
+      <c r="C2701">
+        <v>4521</v>
+      </c>
+      <c r="D2701" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:4">
+      <c r="A2702" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2702">
+        <v>13</v>
+      </c>
+      <c r="C2702">
+        <v>4528</v>
+      </c>
+      <c r="D2702" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:4">
+      <c r="A2703" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2703">
+        <v>14</v>
+      </c>
+      <c r="C2703">
+        <v>4518</v>
+      </c>
+      <c r="D2703" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:4">
+      <c r="A2704" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2704">
+        <v>15</v>
+      </c>
+      <c r="C2704">
+        <v>4518</v>
+      </c>
+      <c r="D2704" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="2705" spans="1:4">
+      <c r="A2705" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2705">
+        <v>16</v>
+      </c>
+      <c r="C2705">
+        <v>4518</v>
+      </c>
+      <c r="D2705" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:4">
+      <c r="A2706" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2706">
+        <v>17</v>
+      </c>
+      <c r="C2706">
+        <v>4552</v>
+      </c>
+      <c r="D2706" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="2707" spans="1:4">
+      <c r="A2707" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2707">
+        <v>18</v>
+      </c>
+      <c r="C2707">
+        <v>4562</v>
+      </c>
+      <c r="D2707" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="2708" spans="1:4">
+      <c r="A2708" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2708">
+        <v>19</v>
+      </c>
+      <c r="C2708">
+        <v>4572</v>
+      </c>
+      <c r="D2708" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:4">
+      <c r="A2709" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2709">
+        <v>20</v>
+      </c>
+      <c r="C2709">
+        <v>4592</v>
+      </c>
+      <c r="D2709" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:4">
+      <c r="A2710" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2710">
+        <v>21</v>
+      </c>
+      <c r="C2710">
+        <v>4601</v>
+      </c>
+      <c r="D2710" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="2711" spans="1:4">
+      <c r="A2711" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2711">
+        <v>22</v>
+      </c>
+      <c r="C2711">
+        <v>4641</v>
+      </c>
+      <c r="D2711" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:4">
+      <c r="A2712" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2712">
+        <v>23</v>
+      </c>
+      <c r="C2712">
+        <v>4681</v>
+      </c>
+      <c r="D2712" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="2713" spans="1:4">
+      <c r="A2713" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2713">
+        <v>24</v>
+      </c>
+      <c r="C2713">
+        <v>4731</v>
+      </c>
+      <c r="D2713" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="2714" spans="1:4">
+      <c r="A2714" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2714">
+        <v>25</v>
+      </c>
+      <c r="C2714">
+        <v>4790</v>
+      </c>
+      <c r="D2714" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="2715" spans="1:4">
+      <c r="A2715" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2715">
+        <v>26</v>
+      </c>
+      <c r="C2715">
+        <v>4870</v>
+      </c>
+      <c r="D2715" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="2716" spans="1:4">
+      <c r="A2716" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2716">
+        <v>27</v>
+      </c>
+      <c r="C2716">
+        <v>4970</v>
+      </c>
+      <c r="D2716" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="2717" spans="1:4">
+      <c r="A2717" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2717">
+        <v>28</v>
+      </c>
+      <c r="C2717">
+        <v>5090</v>
+      </c>
+      <c r="D2717" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="2718" spans="1:4">
+      <c r="A2718" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2718">
+        <v>29</v>
+      </c>
+      <c r="C2718">
+        <v>5283</v>
+      </c>
+      <c r="D2718" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:4">
+      <c r="A2719" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2719">
+        <v>30</v>
+      </c>
+      <c r="C2719">
+        <v>5403</v>
+      </c>
+      <c r="D2719" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:4">
+      <c r="A2720" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2720">
+        <v>31</v>
+      </c>
+      <c r="C2720">
+        <v>5493</v>
+      </c>
+      <c r="D2720" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:4">
+      <c r="A2721" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2721">
+        <v>32</v>
+      </c>
+      <c r="C2721">
+        <v>5563</v>
+      </c>
+      <c r="D2721" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:4">
+      <c r="A2722" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2722">
+        <v>33</v>
+      </c>
+      <c r="C2722">
+        <v>5613</v>
+      </c>
+      <c r="D2722" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:4">
+      <c r="A2723" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2723">
+        <v>34</v>
+      </c>
+      <c r="C2723">
+        <v>5623</v>
+      </c>
+      <c r="D2723" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:4">
+      <c r="A2724" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2724">
+        <v>35</v>
+      </c>
+      <c r="C2724">
+        <v>5583</v>
+      </c>
+      <c r="D2724" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:4">
+      <c r="A2725" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2725">
+        <v>36</v>
+      </c>
+      <c r="C2725">
+        <v>5503</v>
+      </c>
+      <c r="D2725" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:4">
+      <c r="A2726" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2726">
+        <v>37</v>
+      </c>
+      <c r="C2726">
+        <v>5288</v>
+      </c>
+      <c r="D2726" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:4">
+      <c r="A2727" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2727">
+        <v>38</v>
+      </c>
+      <c r="C2727">
+        <v>5188</v>
+      </c>
+      <c r="D2727" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:4">
+      <c r="A2728" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2728">
+        <v>39</v>
+      </c>
+      <c r="C2728">
+        <v>5098</v>
+      </c>
+      <c r="D2728" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:4">
+      <c r="A2729" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2729">
+        <v>40</v>
+      </c>
+      <c r="C2729">
+        <v>5028</v>
+      </c>
+      <c r="D2729" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:4">
+      <c r="A2730" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2730">
+        <v>41</v>
+      </c>
+      <c r="C2730">
+        <v>4937</v>
+      </c>
+      <c r="D2730" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:4">
+      <c r="A2731" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2731">
+        <v>42</v>
+      </c>
+      <c r="C2731">
+        <v>4877</v>
+      </c>
+      <c r="D2731" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:4">
+      <c r="A2732" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2732">
+        <v>43</v>
+      </c>
+      <c r="C2732">
+        <v>4797</v>
+      </c>
+      <c r="D2732" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:4">
+      <c r="A2733" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2733">
+        <v>44</v>
+      </c>
+      <c r="C2733">
+        <v>4697</v>
+      </c>
+      <c r="D2733" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:4">
+      <c r="A2734" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2734">
+        <v>45</v>
+      </c>
+      <c r="C2734">
+        <v>4664</v>
+      </c>
+      <c r="D2734" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:4">
+      <c r="A2735" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2735">
+        <v>46</v>
+      </c>
+      <c r="C2735">
+        <v>4574</v>
+      </c>
+      <c r="D2735" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:4">
+      <c r="A2736" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2736">
+        <v>47</v>
+      </c>
+      <c r="C2736">
+        <v>4514</v>
+      </c>
+      <c r="D2736" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:4">
+      <c r="A2737" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2737">
+        <v>48</v>
+      </c>
+      <c r="C2737">
+        <v>4474</v>
+      </c>
+      <c r="D2737" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:4">
+      <c r="A2738" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2738">
+        <v>49</v>
+      </c>
+      <c r="C2738">
+        <v>4514</v>
+      </c>
+      <c r="D2738" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:4">
+      <c r="A2739" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2739">
+        <v>50</v>
+      </c>
+      <c r="C2739">
+        <v>4504</v>
+      </c>
+      <c r="D2739" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:4">
+      <c r="A2740" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2740">
+        <v>51</v>
+      </c>
+      <c r="C2740">
+        <v>4514</v>
+      </c>
+      <c r="D2740" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:4">
+      <c r="A2741" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2741">
+        <v>52</v>
+      </c>
+      <c r="C2741">
+        <v>4544</v>
+      </c>
+      <c r="D2741" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:4">
+      <c r="A2742" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2742">
+        <v>53</v>
+      </c>
+      <c r="C2742">
+        <v>4526</v>
+      </c>
+      <c r="D2742" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:4">
+      <c r="A2743" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2743">
+        <v>54</v>
+      </c>
+      <c r="C2743">
+        <v>4556</v>
+      </c>
+      <c r="D2743" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:4">
+      <c r="A2744" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2744">
+        <v>55</v>
+      </c>
+      <c r="C2744">
+        <v>4586</v>
+      </c>
+      <c r="D2744" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:4">
+      <c r="A2745" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2745">
+        <v>56</v>
+      </c>
+      <c r="C2745">
+        <v>4606</v>
+      </c>
+      <c r="D2745" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:4">
+      <c r="A2746" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2746">
+        <v>57</v>
+      </c>
+      <c r="C2746">
+        <v>4687</v>
+      </c>
+      <c r="D2746" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:4">
+      <c r="A2747" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2747">
+        <v>58</v>
+      </c>
+      <c r="C2747">
+        <v>4707</v>
+      </c>
+      <c r="D2747" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:4">
+      <c r="A2748" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2748">
+        <v>59</v>
+      </c>
+      <c r="C2748">
+        <v>4727</v>
+      </c>
+      <c r="D2748" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:4">
+      <c r="A2749" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2749">
+        <v>60</v>
+      </c>
+      <c r="C2749">
+        <v>4737</v>
+      </c>
+      <c r="D2749" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:4">
+      <c r="A2750" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2750">
+        <v>61</v>
+      </c>
+      <c r="C2750">
+        <v>4875</v>
+      </c>
+      <c r="D2750" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:4">
+      <c r="A2751" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2751">
+        <v>62</v>
+      </c>
+      <c r="C2751">
+        <v>4905</v>
+      </c>
+      <c r="D2751" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:4">
+      <c r="A2752" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2752">
+        <v>63</v>
+      </c>
+      <c r="C2752">
+        <v>4955</v>
+      </c>
+      <c r="D2752" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:4">
+      <c r="A2753" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2753">
+        <v>64</v>
+      </c>
+      <c r="C2753">
+        <v>5025</v>
+      </c>
+      <c r="D2753" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:4">
+      <c r="A2754" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2754">
+        <v>65</v>
+      </c>
+      <c r="C2754">
+        <v>5179</v>
+      </c>
+      <c r="D2754" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:4">
+      <c r="A2755" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2755">
+        <v>66</v>
+      </c>
+      <c r="C2755">
+        <v>5269</v>
+      </c>
+      <c r="D2755" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:4">
+      <c r="A2756" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2756">
+        <v>67</v>
+      </c>
+      <c r="C2756">
+        <v>5369</v>
+      </c>
+      <c r="D2756" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:4">
+      <c r="A2757" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2757">
+        <v>68</v>
+      </c>
+      <c r="C2757">
+        <v>5469</v>
+      </c>
+      <c r="D2757" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:4">
+      <c r="A2758" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2758">
+        <v>69</v>
+      </c>
+      <c r="C2758">
+        <v>5507</v>
+      </c>
+      <c r="D2758" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:4">
+      <c r="A2759" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2759">
+        <v>70</v>
+      </c>
+      <c r="C2759">
+        <v>5617</v>
+      </c>
+      <c r="D2759" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:4">
+      <c r="A2760" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2760">
+        <v>71</v>
+      </c>
+      <c r="C2760">
+        <v>5737</v>
+      </c>
+      <c r="D2760" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:4">
+      <c r="A2761" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2761">
+        <v>72</v>
+      </c>
+      <c r="C2761">
+        <v>5867</v>
+      </c>
+      <c r="D2761" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:4">
+      <c r="A2762" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2762">
+        <v>73</v>
+      </c>
+      <c r="C2762">
+        <v>6021</v>
+      </c>
+      <c r="D2762" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:4">
+      <c r="A2763" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2763">
+        <v>74</v>
+      </c>
+      <c r="C2763">
+        <v>6131</v>
+      </c>
+      <c r="D2763" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:4">
+      <c r="A2764" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2764">
+        <v>75</v>
+      </c>
+      <c r="C2764">
+        <v>6221</v>
+      </c>
+      <c r="D2764" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:4">
+      <c r="A2765" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2765">
+        <v>76</v>
+      </c>
+      <c r="C2765">
+        <v>6271</v>
+      </c>
+      <c r="D2765" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:4">
+      <c r="A2766" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2766">
+        <v>77</v>
+      </c>
+      <c r="C2766">
+        <v>6044</v>
+      </c>
+      <c r="D2766" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:4">
+      <c r="A2767" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2767">
+        <v>78</v>
+      </c>
+      <c r="C2767">
+        <v>6094</v>
+      </c>
+      <c r="D2767" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:4">
+      <c r="A2768" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2768">
+        <v>79</v>
+      </c>
+      <c r="C2768">
+        <v>6174</v>
+      </c>
+      <c r="D2768" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:4">
+      <c r="A2769" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2769">
+        <v>80</v>
+      </c>
+      <c r="C2769">
+        <v>6274</v>
+      </c>
+      <c r="D2769" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:4">
+      <c r="A2770" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2770">
+        <v>81</v>
+      </c>
+      <c r="C2770">
+        <v>6320</v>
+      </c>
+      <c r="D2770" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:4">
+      <c r="A2771" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2771">
+        <v>82</v>
+      </c>
+      <c r="C2771">
+        <v>6410</v>
+      </c>
+      <c r="D2771" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:4">
+      <c r="A2772" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2772">
+        <v>83</v>
+      </c>
+      <c r="C2772">
+        <v>6450</v>
+      </c>
+      <c r="D2772" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2773">
+        <v>84</v>
+      </c>
+      <c r="C2773">
+        <v>6460</v>
+      </c>
+      <c r="D2773" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:4">
+      <c r="A2774" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2774">
+        <v>85</v>
+      </c>
+      <c r="C2774">
+        <v>6388</v>
+      </c>
+      <c r="D2774" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:4">
+      <c r="A2775" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2775">
+        <v>86</v>
+      </c>
+      <c r="C2775">
+        <v>6338</v>
+      </c>
+      <c r="D2775" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:4">
+      <c r="A2776" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2776">
+        <v>87</v>
+      </c>
+      <c r="C2776">
+        <v>6248</v>
+      </c>
+      <c r="D2776" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:4">
+      <c r="A2777" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2777">
+        <v>88</v>
+      </c>
+      <c r="C2777">
+        <v>6138</v>
+      </c>
+      <c r="D2777" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:4">
+      <c r="A2778" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2778">
+        <v>89</v>
+      </c>
+      <c r="C2778">
+        <v>6124</v>
+      </c>
+      <c r="D2778" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:4">
+      <c r="A2779" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2779">
+        <v>90</v>
+      </c>
+      <c r="C2779">
+        <v>5974</v>
+      </c>
+      <c r="D2779" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:4">
+      <c r="A2780" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2780">
+        <v>91</v>
+      </c>
+      <c r="C2780">
+        <v>5824</v>
+      </c>
+      <c r="D2780" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:4">
+      <c r="A2781" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2781">
+        <v>92</v>
+      </c>
+      <c r="C2781">
+        <v>5674</v>
+      </c>
+      <c r="D2781" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:4">
+      <c r="A2782" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2782">
+        <v>93</v>
+      </c>
+      <c r="C2782">
+        <v>5557</v>
+      </c>
+      <c r="D2782" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:4">
+      <c r="A2783" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2783">
+        <v>94</v>
+      </c>
+      <c r="C2783">
+        <v>5417</v>
+      </c>
+      <c r="D2783" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:4">
+      <c r="A2784" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2784">
+        <v>95</v>
+      </c>
+      <c r="C2784">
+        <v>5287</v>
+      </c>
+      <c r="D2784" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:4">
+      <c r="A2785" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B2785">
+        <v>96</v>
+      </c>
+      <c r="C2785">
+        <v>5167</v>
+      </c>
+      <c r="D2785" t="s">
+        <v>2787</v>
       </c>
     </row>
   </sheetData>
